--- a/docs/protocol-suite.xlsx
+++ b/docs/protocol-suite.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\redes\saves\ccna-lx19\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C60B9CB3-8479-4C0E-BE72-CE74DD8C4B97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC076119-0629-4641-8CA2-AAF504AB6A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3415D364-6D1D-489F-8C8D-BD784F513C31}"/>
   </bookViews>
@@ -195,7 +195,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -264,19 +264,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -295,7 +300,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -325,6 +329,23 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -648,7 +669,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -660,114 +681,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="21" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="18" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="21"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="18"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="21"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="18"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="19" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="19" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="19" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="21" t="s">
+      <c r="C8" s="17"/>
+      <c r="D8" s="18" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="23"/>
+      <c r="D9" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/docs/protocol-suite.xlsx
+++ b/docs/protocol-suite.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\redes\saves\ccna-lx19\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC076119-0629-4641-8CA2-AAF504AB6A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79BE2249-2CC6-4C0B-B66A-13F43EE0EC8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3415D364-6D1D-489F-8C8D-BD784F513C31}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{3415D364-6D1D-489F-8C8D-BD784F513C31}"/>
   </bookViews>
   <sheets>
     <sheet name="modelos" sheetId="1" r:id="rId1"/>
+    <sheet name="Medios" sheetId="3" r:id="rId2"/>
+    <sheet name="Unidades" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="112">
   <si>
     <t xml:space="preserve">TCP/IP </t>
   </si>
@@ -117,13 +119,265 @@
   </si>
   <si>
     <t>Ethernet, PPP, FrameRelay</t>
+  </si>
+  <si>
+    <t>Almacenamiento</t>
+  </si>
+  <si>
+    <t>Ancho de Banda</t>
+  </si>
+  <si>
+    <t>Frecuencia</t>
+  </si>
+  <si>
+    <t>BIT</t>
+  </si>
+  <si>
+    <t>Binary Digit</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>8 bits</t>
+  </si>
+  <si>
+    <t>kilobyte</t>
+  </si>
+  <si>
+    <t>1000 bytes</t>
+  </si>
+  <si>
+    <t>megabyte</t>
+  </si>
+  <si>
+    <t>gigabyte</t>
+  </si>
+  <si>
+    <t>terabyte</t>
+  </si>
+  <si>
+    <t>petabyte</t>
+  </si>
+  <si>
+    <t>exabyte</t>
+  </si>
+  <si>
+    <t>zetabyte</t>
+  </si>
+  <si>
+    <t>yotabyte</t>
+  </si>
+  <si>
+    <t>brontobyte</t>
+  </si>
+  <si>
+    <t>1000 mb</t>
+  </si>
+  <si>
+    <t>1000 kb</t>
+  </si>
+  <si>
+    <t>1000 gb</t>
+  </si>
+  <si>
+    <t>1000 tb</t>
+  </si>
+  <si>
+    <t>1000 pb</t>
+  </si>
+  <si>
+    <t>1000 xb</t>
+  </si>
+  <si>
+    <t>1000 zb</t>
+  </si>
+  <si>
+    <t>1000 yb</t>
+  </si>
+  <si>
+    <t>10^0</t>
+  </si>
+  <si>
+    <t>10^3</t>
+  </si>
+  <si>
+    <t>10^6</t>
+  </si>
+  <si>
+    <t>10^9</t>
+  </si>
+  <si>
+    <t>10^12</t>
+  </si>
+  <si>
+    <t>10^15</t>
+  </si>
+  <si>
+    <t>10^18</t>
+  </si>
+  <si>
+    <t>10^21</t>
+  </si>
+  <si>
+    <t>10^24</t>
+  </si>
+  <si>
+    <t>10^27</t>
+  </si>
+  <si>
+    <t>decimal</t>
+  </si>
+  <si>
+    <t>kbps</t>
+  </si>
+  <si>
+    <t>mbps</t>
+  </si>
+  <si>
+    <t>gbps</t>
+  </si>
+  <si>
+    <t>tbps</t>
+  </si>
+  <si>
+    <t>bits/s</t>
+  </si>
+  <si>
+    <t>1000 bits</t>
+  </si>
+  <si>
+    <t>1000 kbps</t>
+  </si>
+  <si>
+    <t>1000 gbps</t>
+  </si>
+  <si>
+    <t>1 bps</t>
+  </si>
+  <si>
+    <t>mhz</t>
+  </si>
+  <si>
+    <t>ghz</t>
+  </si>
+  <si>
+    <t>thz</t>
+  </si>
+  <si>
+    <t>hertz</t>
+  </si>
+  <si>
+    <t>1hz</t>
+  </si>
+  <si>
+    <t>1000 mhz</t>
+  </si>
+  <si>
+    <t>1000 ghz</t>
+  </si>
+  <si>
+    <t>1000 khz</t>
+  </si>
+  <si>
+    <t>khz</t>
+  </si>
+  <si>
+    <t>1000hz</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>FM</t>
+  </si>
+  <si>
+    <t>PM</t>
+  </si>
+  <si>
+    <t>Amplitud Modulada</t>
+  </si>
+  <si>
+    <t>Frecuencia Modulada</t>
+  </si>
+  <si>
+    <t>Modulacion de Fase</t>
+  </si>
+  <si>
+    <t>TIA568A</t>
+  </si>
+  <si>
+    <t>TIA568B</t>
+  </si>
+  <si>
+    <t>half duplex</t>
+  </si>
+  <si>
+    <t>full duplex</t>
+  </si>
+  <si>
+    <t>se envia o se recibe un dato</t>
+  </si>
+  <si>
+    <t>se envia y recibe en simultaneo</t>
+  </si>
+  <si>
+    <t>Tx</t>
+  </si>
+  <si>
+    <t>Rx</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Directo</t>
+  </si>
+  <si>
+    <t>cruzado</t>
+  </si>
+  <si>
+    <t>misma norma en ambos extremos</t>
+  </si>
+  <si>
+    <t>diferentes normas en el cable</t>
+  </si>
+  <si>
+    <t>Auto-MDIX</t>
+  </si>
+  <si>
+    <t>capacidad de un dispositivo de red para determinar que norma se utiliza en el otro extremo y adaptar los pines de envio y recepcion en base a esto</t>
+  </si>
+  <si>
+    <t>colision</t>
+  </si>
+  <si>
+    <t>crosstalk</t>
+  </si>
+  <si>
+    <t>interferencia electromagnetica causada por cables o luces fluorescentes</t>
+  </si>
+  <si>
+    <t>interferencia por radiofrecuencia causada por señales inalambricas</t>
+  </si>
+  <si>
+    <t>alteracion de una señal debido al intercambio no deseado de bits</t>
+  </si>
+  <si>
+    <t>EMI</t>
+  </si>
+  <si>
+    <t>RFI</t>
+  </si>
+  <si>
+    <t>cruce de señales no intensionado dentro del mismo medio</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,8 +398,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -194,8 +456,74 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -273,11 +601,147 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="8"/>
+      </right>
+      <top style="thin">
+        <color theme="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="8"/>
+      </top>
+      <bottom style="thin">
+        <color theme="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="8"/>
+      </top>
+      <bottom style="thin">
+        <color theme="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="8"/>
+      </right>
+      <top style="thin">
+        <color theme="8"/>
+      </top>
+      <bottom style="thin">
+        <color theme="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="8"/>
+      </right>
+      <top style="thin">
+        <color theme="8"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -294,9 +758,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -314,39 +775,99 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -668,7 +1189,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F22CCB81-C947-4BF0-A3C3-1CFE163D2C19}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -681,60 +1202,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="16" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="18" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="27" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="18"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="27"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="18"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="27"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="15" t="s">
         <v>22</v>
       </c>
     </row>
@@ -742,13 +1263,13 @@
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="15" t="s">
         <v>21</v>
       </c>
     </row>
@@ -756,25 +1277,25 @@
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="18" t="s">
+      <c r="C8" s="23"/>
+      <c r="D8" s="27" t="s">
         <v>20</v>
       </c>
     </row>
@@ -788,7 +1309,7 @@
       <c r="C9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="20"/>
+      <c r="D9" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -801,4 +1322,511 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D6A4FC1-4453-4F66-8A6E-DB11164B3A80}">
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="6" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.28515625" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="58" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="G3" s="58"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="52" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="G4" s="58"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="G5" s="58"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="G6" s="58"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="G7" s="58"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="G8" s="58"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="G9" s="58"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="59" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G2:G9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2546DD17-9723-4091-B9ED-D9677931F7C4}">
+  <dimension ref="A1:K13"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" customWidth="1"/>
+    <col min="4" max="4" width="3" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.42578125" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="48"/>
+      <c r="C3" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="46"/>
+      <c r="G3" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="I3" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="46"/>
+      <c r="K3" s="38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="J4" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="K4" s="41" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="J5" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="K5" s="34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" s="41" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="J7" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="K7" s="34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="I8" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="J8" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="K8" s="44" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="F10" s="49" t="s">
+        <v>93</v>
+      </c>
+      <c r="I10" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="J10" s="49" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" t="s">
+        <v>92</v>
+      </c>
+      <c r="F11" t="s">
+        <v>94</v>
+      </c>
+      <c r="I11" t="s">
+        <v>84</v>
+      </c>
+      <c r="J11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="I12" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="J12" s="49" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A3:B3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/protocol-suite.xlsx
+++ b/docs/protocol-suite.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\redes\saves\ccna-lx19\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79BE2249-2CC6-4C0B-B66A-13F43EE0EC8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE7A5A2A-7D6A-432B-909C-60ED1F345955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{3415D364-6D1D-489F-8C8D-BD784F513C31}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="117">
   <si>
     <t xml:space="preserve">TCP/IP </t>
   </si>
@@ -130,72 +130,15 @@
     <t>Frecuencia</t>
   </si>
   <si>
-    <t>BIT</t>
-  </si>
-  <si>
-    <t>Binary Digit</t>
-  </si>
-  <si>
     <t>byte</t>
   </si>
   <si>
     <t>8 bits</t>
   </si>
   <si>
-    <t>kilobyte</t>
-  </si>
-  <si>
     <t>1000 bytes</t>
   </si>
   <si>
-    <t>megabyte</t>
-  </si>
-  <si>
-    <t>gigabyte</t>
-  </si>
-  <si>
-    <t>terabyte</t>
-  </si>
-  <si>
-    <t>petabyte</t>
-  </si>
-  <si>
-    <t>exabyte</t>
-  </si>
-  <si>
-    <t>zetabyte</t>
-  </si>
-  <si>
-    <t>yotabyte</t>
-  </si>
-  <si>
-    <t>brontobyte</t>
-  </si>
-  <si>
-    <t>1000 mb</t>
-  </si>
-  <si>
-    <t>1000 kb</t>
-  </si>
-  <si>
-    <t>1000 gb</t>
-  </si>
-  <si>
-    <t>1000 tb</t>
-  </si>
-  <si>
-    <t>1000 pb</t>
-  </si>
-  <si>
-    <t>1000 xb</t>
-  </si>
-  <si>
-    <t>1000 zb</t>
-  </si>
-  <si>
-    <t>1000 yb</t>
-  </si>
-  <si>
     <t>10^0</t>
   </si>
   <si>
@@ -241,21 +184,6 @@
     <t>tbps</t>
   </si>
   <si>
-    <t>bits/s</t>
-  </si>
-  <si>
-    <t>1000 bits</t>
-  </si>
-  <si>
-    <t>1000 kbps</t>
-  </si>
-  <si>
-    <t>1000 gbps</t>
-  </si>
-  <si>
-    <t>1 bps</t>
-  </si>
-  <si>
     <t>mhz</t>
   </si>
   <si>
@@ -265,60 +193,18 @@
     <t>thz</t>
   </si>
   <si>
-    <t>hertz</t>
-  </si>
-  <si>
     <t>1hz</t>
   </si>
   <si>
-    <t>1000 mhz</t>
-  </si>
-  <si>
-    <t>1000 ghz</t>
-  </si>
-  <si>
-    <t>1000 khz</t>
-  </si>
-  <si>
     <t>khz</t>
   </si>
   <si>
-    <t>1000hz</t>
-  </si>
-  <si>
-    <t>AM</t>
-  </si>
-  <si>
-    <t>FM</t>
-  </si>
-  <si>
-    <t>PM</t>
-  </si>
-  <si>
-    <t>Amplitud Modulada</t>
-  </si>
-  <si>
-    <t>Frecuencia Modulada</t>
-  </si>
-  <si>
-    <t>Modulacion de Fase</t>
-  </si>
-  <si>
     <t>TIA568A</t>
   </si>
   <si>
     <t>TIA568B</t>
   </si>
   <si>
-    <t>half duplex</t>
-  </si>
-  <si>
-    <t>full duplex</t>
-  </si>
-  <si>
-    <t>se envia o se recibe un dato</t>
-  </si>
-  <si>
     <t>se envia y recibe en simultaneo</t>
   </si>
   <si>
@@ -331,18 +217,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>Directo</t>
-  </si>
-  <si>
-    <t>cruzado</t>
-  </si>
-  <si>
-    <t>misma norma en ambos extremos</t>
-  </si>
-  <si>
-    <t>diferentes normas en el cable</t>
-  </si>
-  <si>
     <t>Auto-MDIX</t>
   </si>
   <si>
@@ -355,22 +229,163 @@
     <t>crosstalk</t>
   </si>
   <si>
-    <t>interferencia electromagnetica causada por cables o luces fluorescentes</t>
-  </si>
-  <si>
-    <t>interferencia por radiofrecuencia causada por señales inalambricas</t>
-  </si>
-  <si>
-    <t>alteracion de una señal debido al intercambio no deseado de bits</t>
-  </si>
-  <si>
     <t>EMI</t>
   </si>
   <si>
     <t>RFI</t>
   </si>
   <si>
-    <t>cruce de señales no intensionado dentro del mismo medio</t>
+    <t>SC (Suscriptor Connector)</t>
+  </si>
+  <si>
+    <t>LC (Lucent Connector)</t>
+  </si>
+  <si>
+    <t>FC (Ferrule Connector)</t>
+  </si>
+  <si>
+    <t>SMF (Fibra Optica Monomodo)</t>
+  </si>
+  <si>
+    <t>Utiliza un LED para el envio de datos, es mas economico y debido a esto es el mas utilizado para instalaciones hogareñas, su nucleo mide aprox. 60micrones y su alcance es de hasta 2km solamente.</t>
+  </si>
+  <si>
+    <t>MMF(Fibra Optica Multimodo)</t>
+  </si>
+  <si>
+    <t>ST (Straight Connector)</t>
+  </si>
+  <si>
+    <t>AM (Amplitud Modulada)</t>
+  </si>
+  <si>
+    <t>FM (Frecuencia Modulada)</t>
+  </si>
+  <si>
+    <t>PM (Modulacion de Fase)</t>
+  </si>
+  <si>
+    <t>DUPLEX</t>
+  </si>
+  <si>
+    <t>Sistemas de Comunicación</t>
+  </si>
+  <si>
+    <t>HALF</t>
+  </si>
+  <si>
+    <t>FULL</t>
+  </si>
+  <si>
+    <t>se envian o se reciben datos</t>
+  </si>
+  <si>
+    <t>AUTO</t>
+  </si>
+  <si>
+    <t>determinada por el dispositivo</t>
+  </si>
+  <si>
+    <t>kb</t>
+  </si>
+  <si>
+    <t>mb</t>
+  </si>
+  <si>
+    <t>gb</t>
+  </si>
+  <si>
+    <t>tb</t>
+  </si>
+  <si>
+    <t>pb</t>
+  </si>
+  <si>
+    <t>xb</t>
+  </si>
+  <si>
+    <t>zb</t>
+  </si>
+  <si>
+    <t>yb</t>
+  </si>
+  <si>
+    <t>bps</t>
+  </si>
+  <si>
+    <t>1000 gigabits per second</t>
+  </si>
+  <si>
+    <t>1000 megabits per second</t>
+  </si>
+  <si>
+    <t>1000 kilobits per second</t>
+  </si>
+  <si>
+    <t>1000 bits per second</t>
+  </si>
+  <si>
+    <t>1 bit per second</t>
+  </si>
+  <si>
+    <t>hz</t>
+  </si>
+  <si>
+    <t>bb</t>
+  </si>
+  <si>
+    <t>Tecnicas de Modulacion</t>
+  </si>
+  <si>
+    <t>1000hertz</t>
+  </si>
+  <si>
+    <t>1000 kilohertz</t>
+  </si>
+  <si>
+    <t>1000 megahertz</t>
+  </si>
+  <si>
+    <t>1000 gigahertz</t>
+  </si>
+  <si>
+    <t>1000 kilobyte</t>
+  </si>
+  <si>
+    <t>1000 megabytes</t>
+  </si>
+  <si>
+    <t>1000 gigabytes</t>
+  </si>
+  <si>
+    <t>1000 terabytes</t>
+  </si>
+  <si>
+    <t>1000 petabytes</t>
+  </si>
+  <si>
+    <t>1000 exabytes</t>
+  </si>
+  <si>
+    <t>1000 zetabytes</t>
+  </si>
+  <si>
+    <t>1000 yotabytes</t>
+  </si>
+  <si>
+    <t>interferencia electromagnetica causada por la cercania de cables o luces fluorescentes</t>
+  </si>
+  <si>
+    <t>interferencia por radiofrecuencia causada por la superposicion de señales inalambricas</t>
+  </si>
+  <si>
+    <t>alteracion de una señal debido al intercambio no deseado de bits producto de una interferencia</t>
+  </si>
+  <si>
+    <t>cruce de señales no intensionado dentro del mismo medio que producen interferencia</t>
+  </si>
+  <si>
+    <t>Utiliza laser para el envio de datos y posee un alcance de hasta 200km. Su nucleo mide aprox. 9 micrones y debido a sus costos se suele utilizar en grandes instalaciones como en el cableado submarino.</t>
   </si>
 </sst>
 </file>
@@ -407,7 +422,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -454,12 +469,6 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor theme="8"/>
       </patternFill>
     </fill>
     <fill>
@@ -523,7 +532,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -737,11 +746,105 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="8"/>
+      </left>
+      <right style="thin">
+        <color theme="8" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="8" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="8" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="8" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="8" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="8" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="8" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="8"/>
+      </top>
+      <bottom style="thin">
+        <color theme="8" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="8"/>
+      </top>
+      <bottom style="thin">
+        <color theme="8" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="8"/>
+      </right>
+      <top style="thin">
+        <color theme="8"/>
+      </top>
+      <bottom style="thin">
+        <color theme="8" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -811,63 +914,111 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="10" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -888,6 +1039,239 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>541734</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>83344</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>83344</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Conector recto 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1762813B-3DF6-41EE-8996-3BDF4D9776EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="732234" y="273844"/>
+          <a:ext cx="541735" cy="416719"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>559594</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>29766</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>154781</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Conector recto 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{708F8309-D9DA-4372-81BA-35210E68AFEB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="750094" y="428625"/>
+          <a:ext cx="470297" cy="869156"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>553641</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>41672</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>130969</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Conector recto 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3748F525-68C2-4675-8A8D-966FF3A77529}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="744141" y="285750"/>
+          <a:ext cx="488156" cy="416719"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>565547</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>41672</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>130969</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Conector recto 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7D1EBAF-BE1F-426B-B0FF-2D5F19668FC1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="756047" y="428625"/>
+          <a:ext cx="476250" cy="845344"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1326,10 +1710,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D6A4FC1-4453-4F66-8A6E-DB11164B3A80}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1338,494 +1722,530 @@
     <col min="2" max="2" width="9" customWidth="1"/>
     <col min="3" max="3" width="6" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.28515625" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="3.5703125" customWidth="1"/>
+    <col min="6" max="6" width="28.7109375" style="55" customWidth="1"/>
+    <col min="7" max="7" width="28.5703125" style="55" customWidth="1"/>
+    <col min="8" max="8" width="28.7109375" style="55" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="D1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="F1" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="55" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="50" t="s">
-        <v>95</v>
-      </c>
-      <c r="D2" s="52" t="s">
-        <v>95</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="G2" s="58" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="H2" s="56" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="51" t="s">
-        <v>95</v>
-      </c>
-      <c r="D3" s="55" t="s">
-        <v>95</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="G3" s="58"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="52" t="s">
-        <v>96</v>
-      </c>
-      <c r="D4" s="50" t="s">
-        <v>96</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="G4" s="58"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="D5" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-      <c r="G5" s="58"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="54" t="s">
-        <v>97</v>
-      </c>
-      <c r="D6" s="54" t="s">
-        <v>97</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-      <c r="G6" s="58"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="55" t="s">
-        <v>96</v>
-      </c>
-      <c r="D7" s="51" t="s">
-        <v>96</v>
-      </c>
-      <c r="E7">
-        <v>6</v>
-      </c>
-      <c r="G7" s="58"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="56" t="s">
-        <v>97</v>
-      </c>
-      <c r="D8" s="56" t="s">
-        <v>97</v>
-      </c>
-      <c r="E8">
-        <v>7</v>
-      </c>
-      <c r="G8" s="58"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="57" t="s">
-        <v>97</v>
-      </c>
-      <c r="D9" s="57" t="s">
-        <v>97</v>
-      </c>
-      <c r="E9">
-        <v>8</v>
-      </c>
-      <c r="G9" s="58"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>98</v>
-      </c>
-      <c r="C11" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>99</v>
-      </c>
-      <c r="C12" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>104</v>
-      </c>
-      <c r="C13" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>109</v>
-      </c>
-      <c r="C14" s="59" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>110</v>
-      </c>
-      <c r="C15" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>105</v>
-      </c>
-      <c r="C16" t="s">
-        <v>108</v>
-      </c>
+      <c r="B9" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+    </row>
+    <row r="11" spans="1:8" s="72" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="75" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="73" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" s="73"/>
+    </row>
+    <row r="12" spans="1:8" s="72" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="75" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="74" t="s">
+        <v>112</v>
+      </c>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" s="73"/>
+    </row>
+    <row r="13" spans="1:8" s="72" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="75" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="73" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" s="73"/>
+    </row>
+    <row r="14" spans="1:8" s="72" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="75" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" s="73"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="7">
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="F2:F9"/>
     <mergeCell ref="G2:G9"/>
+    <mergeCell ref="H2:H9"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2546DD17-9723-4091-B9ED-D9677931F7C4}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A2:K12"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" customWidth="1"/>
     <col min="4" max="4" width="3" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="3.42578125" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="45"/>
+      <c r="C2" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="45"/>
+      <c r="G2" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="45"/>
+      <c r="K2" s="37" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B3" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="C1">
-        <v>0</v>
-      </c>
-      <c r="D1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="46"/>
-      <c r="G3" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="I3" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="46"/>
-      <c r="K3" s="38" t="s">
-        <v>63</v>
+      <c r="C3" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="G3" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="J3" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" s="40" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="G4" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="I4" s="39" t="s">
+      <c r="J4" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="K4" s="33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="66" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="67" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="G5" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="K5" s="40" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="G6" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="K6" s="33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="66" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="67" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="J7" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="K7" s="43" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="66" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="67" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="J4" s="40" t="s">
+      <c r="F9" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="K4" s="41" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="F5" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="G5" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="I5" s="42" t="s">
+      <c r="G9" s="65"/>
+      <c r="I9" s="65" t="s">
+        <v>99</v>
+      </c>
+      <c r="J9" s="65"/>
+      <c r="K9" s="65"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="60"/>
+      <c r="E10" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" s="62" t="s">
+        <v>80</v>
+      </c>
+      <c r="G10" s="63"/>
+      <c r="I10" s="68" t="s">
+        <v>73</v>
+      </c>
+      <c r="J10" s="62"/>
+      <c r="K10" s="63"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="66" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" s="67" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="64" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="59"/>
+      <c r="I11" s="69" t="s">
+        <v>74</v>
+      </c>
+      <c r="J11" s="70"/>
+      <c r="K11" s="71"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="J5" s="43" t="s">
+      <c r="F12" s="62" t="s">
         <v>82</v>
       </c>
-      <c r="K5" s="34" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="F6" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="G6" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="I6" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="J6" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="K6" s="41" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="F7" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="G7" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="I7" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="J7" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="K7" s="34" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="F8" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="G8" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="I8" s="36" t="s">
+      <c r="G12" s="63"/>
+      <c r="I12" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="J8" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="K8" s="44" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" s="49" t="s">
-        <v>91</v>
-      </c>
-      <c r="F10" s="49" t="s">
-        <v>93</v>
-      </c>
-      <c r="I10" s="49" t="s">
-        <v>83</v>
-      </c>
-      <c r="J10" s="49" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" t="s">
-        <v>92</v>
-      </c>
-      <c r="F11" t="s">
-        <v>94</v>
-      </c>
-      <c r="I11" t="s">
-        <v>84</v>
-      </c>
-      <c r="J11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="I12" s="49" t="s">
-        <v>85</v>
-      </c>
-      <c r="J12" s="49" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="35" t="s">
-        <v>62</v>
-      </c>
+      <c r="J12" s="62"/>
+      <c r="K12" s="63"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A3:B3"/>
+  <mergeCells count="11">
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I10:K10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/protocol-suite.xlsx
+++ b/docs/protocol-suite.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\redes\saves\ccna-lx19\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE7A5A2A-7D6A-432B-909C-60ED1F345955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4F76524-6F99-4D5D-92F0-0BE5658E553F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{3415D364-6D1D-489F-8C8D-BD784F513C31}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="125">
   <si>
     <t xml:space="preserve">TCP/IP </t>
   </si>
@@ -199,12 +199,6 @@
     <t>khz</t>
   </si>
   <si>
-    <t>TIA568A</t>
-  </si>
-  <si>
-    <t>TIA568B</t>
-  </si>
-  <si>
     <t>se envia y recibe en simultaneo</t>
   </si>
   <si>
@@ -220,15 +214,6 @@
     <t>Auto-MDIX</t>
   </si>
   <si>
-    <t>capacidad de un dispositivo de red para determinar que norma se utiliza en el otro extremo y adaptar los pines de envio y recepcion en base a esto</t>
-  </si>
-  <si>
-    <t>colision</t>
-  </si>
-  <si>
-    <t>crosstalk</t>
-  </si>
-  <si>
     <t>EMI</t>
   </si>
   <si>
@@ -244,15 +229,6 @@
     <t>FC (Ferrule Connector)</t>
   </si>
   <si>
-    <t>SMF (Fibra Optica Monomodo)</t>
-  </si>
-  <si>
-    <t>Utiliza un LED para el envio de datos, es mas economico y debido a esto es el mas utilizado para instalaciones hogareñas, su nucleo mide aprox. 60micrones y su alcance es de hasta 2km solamente.</t>
-  </si>
-  <si>
-    <t>MMF(Fibra Optica Multimodo)</t>
-  </si>
-  <si>
     <t>ST (Straight Connector)</t>
   </si>
   <si>
@@ -385,14 +361,62 @@
     <t>cruce de señales no intensionado dentro del mismo medio que producen interferencia</t>
   </si>
   <si>
-    <t>Utiliza laser para el envio de datos y posee un alcance de hasta 200km. Su nucleo mide aprox. 9 micrones y debido a sus costos se suele utilizar en grandes instalaciones como en el cableado submarino.</t>
+    <t>Colision</t>
+  </si>
+  <si>
+    <t>CrossTalk</t>
+  </si>
+  <si>
+    <t>Problematicas</t>
+  </si>
+  <si>
+    <t>Utiliza un LED para el envio de datos, es mas economico y debido a esto es el mas utilizado para instalaciones hogareñas, su nucleo mide aprox. 60micrones y su alcance es de hasta 2km.</t>
+  </si>
+  <si>
+    <t>Utiliza laser para el envio de datos y posee un alcance de 200km. Su nucleo mide aprox. 9 micrones y debido a sus costos se suele utilizar en  instalaciones grandes como cableado submarino.</t>
+  </si>
+  <si>
+    <t>TIA-568-A</t>
+  </si>
+  <si>
+    <t>TIA-568-B</t>
+  </si>
+  <si>
+    <t>Capacidad de un dispositivo de red para  adaptar los pines de envio y recepcion en base a la configuracion en el otro extremo del cable. Practico al momento de establecer una conexión FullDuplex.</t>
+  </si>
+  <si>
+    <t>UPC (Ultra Physical Contact)</t>
+  </si>
+  <si>
+    <t>APC (Angled Physical Contact)</t>
+  </si>
+  <si>
+    <t>TERMINACIONES</t>
+  </si>
+  <si>
+    <t>TIPOS DE CONECTORES</t>
+  </si>
+  <si>
+    <t>SMF (Monomodo)</t>
+  </si>
+  <si>
+    <t>MMF (Multimodo)</t>
+  </si>
+  <si>
+    <t>PC  (Physical Contact)</t>
+  </si>
+  <si>
+    <t>Fibra Optica</t>
+  </si>
+  <si>
+    <t>Par Trenzado</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -421,8 +445,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="19">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -528,6 +559,48 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor theme="4" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -841,10 +914,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -884,36 +958,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
@@ -929,72 +973,78 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="10" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -1008,19 +1058,98 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="60% - Énfasis1" xfId="1" builtinId="32"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1047,13 +1176,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>541734</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>83344</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>83344</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>119063</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1069,8 +1198,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="732234" y="273844"/>
-          <a:ext cx="541735" cy="416719"/>
+          <a:off x="732234" y="464344"/>
+          <a:ext cx="582033" cy="416719"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1105,13 +1234,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>559594</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>29766</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>154781</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1127,8 +1256,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="750094" y="428625"/>
-          <a:ext cx="470297" cy="869156"/>
+          <a:off x="750094" y="619125"/>
+          <a:ext cx="510595" cy="869156"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1160,13 +1289,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>553641</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>41672</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>130969</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1182,8 +1311,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="744141" y="285750"/>
-          <a:ext cx="488156" cy="416719"/>
+          <a:off x="744141" y="476250"/>
+          <a:ext cx="528454" cy="416719"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1218,13 +1347,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>565547</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>41672</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>130969</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1240,8 +1369,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="756047" y="428625"/>
-          <a:ext cx="476250" cy="845344"/>
+          <a:off x="756047" y="619125"/>
+          <a:ext cx="516548" cy="845344"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1574,7 +1703,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D8" sqref="D8:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1603,13 +1732,13 @@
       <c r="A2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="51" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1617,17 +1746,17 @@
       <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="27"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="51"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="27"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="51"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -1664,7 +1793,7 @@
       <c r="B7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="46" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="15" t="s">
@@ -1678,8 +1807,8 @@
       <c r="B8" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="27" t="s">
+      <c r="C8" s="47"/>
+      <c r="D8" s="51" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1693,7 +1822,7 @@
       <c r="C9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="28"/>
+      <c r="D9" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1710,228 +1839,273 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D6A4FC1-4453-4F66-8A6E-DB11164B3A80}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="6" customWidth="1"/>
-    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.5703125" customWidth="1"/>
-    <col min="6" max="6" width="28.7109375" style="55" customWidth="1"/>
-    <col min="7" max="7" width="28.5703125" style="55" customWidth="1"/>
-    <col min="8" max="8" width="28.7109375" style="55" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="3" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="2.85546875" customWidth="1"/>
+    <col min="6" max="8" width="27.7109375" style="34" customWidth="1"/>
+    <col min="9" max="9" width="28.7109375" style="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1" t="s">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="81" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="F1" s="81" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="80" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" s="80" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2" s="72" t="s">
+        <v>120</v>
+      </c>
+      <c r="G2" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="H2" s="80" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="88" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="55" t="s">
+      <c r="D3" s="86" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="82" t="s">
+        <v>112</v>
+      </c>
+      <c r="G3" s="84" t="s">
+        <v>111</v>
+      </c>
+      <c r="H3" s="73" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="91" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="87" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="82"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="74" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="86" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="88" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="82"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="75" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="89" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="89" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="82"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="76" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="90" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="90" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="82"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="80" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="87" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="91" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="82"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="77" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="92" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="92" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="82"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="78" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="83"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="79" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="65" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="68" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="41" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="70" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="66" t="s">
+        <v>107</v>
+      </c>
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="69" t="s">
+        <v>115</v>
+      </c>
+      <c r="I13" s="42"/>
+    </row>
+    <row r="14" spans="1:9" s="41" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="71" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="67" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="69"/>
+      <c r="I14" s="42"/>
+    </row>
+    <row r="15" spans="1:9" s="41" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="G1" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="H1" s="55" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="F2" s="56" t="s">
-        <v>61</v>
-      </c>
-      <c r="G2" s="56" t="s">
-        <v>116</v>
-      </c>
-      <c r="H2" s="56" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="51" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" s="47" t="s">
-        <v>58</v>
-      </c>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="52" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="52" t="s">
-        <v>59</v>
-      </c>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="53" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" s="53" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-    </row>
-    <row r="11" spans="1:8" s="72" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="75" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="54" t="s">
-        <v>115</v>
-      </c>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="73" t="s">
-        <v>66</v>
-      </c>
-      <c r="H11" s="73"/>
-    </row>
-    <row r="12" spans="1:8" s="72" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="75" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="74" t="s">
-        <v>112</v>
-      </c>
-      <c r="D12" s="74"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="73" t="s">
-        <v>67</v>
-      </c>
-      <c r="H12" s="73"/>
-    </row>
-    <row r="13" spans="1:8" s="72" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="75" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" s="54" t="s">
-        <v>113</v>
-      </c>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="73" t="s">
-        <v>68</v>
-      </c>
-      <c r="H13" s="73"/>
-    </row>
-    <row r="14" spans="1:8" s="72" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="75" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" s="54" t="s">
-        <v>114</v>
-      </c>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="73" t="s">
-        <v>72</v>
-      </c>
-      <c r="H14" s="73"/>
+      <c r="C15" s="66" t="s">
+        <v>105</v>
+      </c>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="69"/>
+      <c r="I15" s="42"/>
+    </row>
+    <row r="16" spans="1:9" s="41" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="71" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" s="67" t="s">
+        <v>106</v>
+      </c>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="69"/>
+      <c r="I16" s="42"/>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G17" s="64"/>
+    </row>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G18" s="64"/>
+    </row>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G19" s="64"/>
+    </row>
+    <row r="20" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G20" s="64"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="10">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="G13:G16"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="F3:F10"/>
+    <mergeCell ref="G3:G10"/>
+    <mergeCell ref="C13:F13"/>
     <mergeCell ref="C14:F14"/>
-    <mergeCell ref="F2:F9"/>
-    <mergeCell ref="G2:G9"/>
-    <mergeCell ref="H2:H9"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C15:F15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1962,290 +2136,290 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="37" t="s">
+      <c r="B2" s="59"/>
+      <c r="C2" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="45"/>
-      <c r="G2" s="37" t="s">
+      <c r="F2" s="59"/>
+      <c r="G2" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="44" t="s">
+      <c r="I2" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="45"/>
-      <c r="K2" s="37" t="s">
+      <c r="J2" s="59"/>
+      <c r="K2" s="27" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="38" t="s">
+      <c r="E3" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="J3" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" s="30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="K4" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="K5" s="30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="K6" s="23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="J7" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="K7" s="33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" s="53"/>
+      <c r="I9" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="F3" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="G3" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="J3" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="K3" s="40" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="B4" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="G4" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="J4" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="K4" s="33" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="66" t="s">
-        <v>84</v>
-      </c>
-      <c r="B5" s="67" t="s">
-        <v>104</v>
-      </c>
-      <c r="C5" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="G5" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="J5" s="39" t="s">
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="K5" s="40" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="B6" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="C6" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="G6" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="J6" s="42" t="s">
+      <c r="C10" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="36"/>
+      <c r="E10" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" s="55"/>
+      <c r="I10" s="60" t="s">
+        <v>65</v>
+      </c>
+      <c r="J10" s="54"/>
+      <c r="K10" s="55"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="K6" s="33" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="66" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="67" t="s">
-        <v>106</v>
-      </c>
-      <c r="C7" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="G7" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="J7" s="36" t="s">
+      <c r="C11" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="56" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="57"/>
+      <c r="I11" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="J11" s="62"/>
+      <c r="K11" s="63"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="K7" s="43" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="66" t="s">
-        <v>88</v>
-      </c>
-      <c r="B9" s="67" t="s">
-        <v>108</v>
-      </c>
-      <c r="C9" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="57" t="s">
-        <v>76</v>
-      </c>
-      <c r="F9" s="65" t="s">
-        <v>77</v>
-      </c>
-      <c r="G9" s="65"/>
-      <c r="I9" s="65" t="s">
-        <v>99</v>
-      </c>
-      <c r="J9" s="65"/>
-      <c r="K9" s="65"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="60"/>
-      <c r="E10" s="61" t="s">
-        <v>78</v>
-      </c>
-      <c r="F10" s="62" t="s">
-        <v>80</v>
-      </c>
-      <c r="G10" s="63"/>
-      <c r="I10" s="68" t="s">
+      <c r="C12" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="J10" s="62"/>
-      <c r="K10" s="63"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="66" t="s">
-        <v>90</v>
-      </c>
-      <c r="B11" s="67" t="s">
-        <v>110</v>
-      </c>
-      <c r="C11" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="64" t="s">
-        <v>79</v>
-      </c>
-      <c r="F11" s="58" t="s">
-        <v>56</v>
-      </c>
-      <c r="G11" s="59"/>
-      <c r="I11" s="69" t="s">
+      <c r="F12" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="J11" s="70"/>
-      <c r="K11" s="71"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="B12" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="61" t="s">
-        <v>81</v>
-      </c>
-      <c r="F12" s="62" t="s">
-        <v>82</v>
-      </c>
-      <c r="G12" s="63"/>
-      <c r="I12" s="68" t="s">
-        <v>75</v>
-      </c>
-      <c r="J12" s="62"/>
-      <c r="K12" s="63"/>
+      <c r="G12" s="55"/>
+      <c r="I12" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="J12" s="54"/>
+      <c r="K12" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="I9:K9"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="I12:K12"/>
     <mergeCell ref="I11:K11"/>
     <mergeCell ref="I10:K10"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="I9:K9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/protocol-suite.xlsx
+++ b/docs/protocol-suite.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24718"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\redes\saves\ccna-lx19\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4F76524-6F99-4D5D-92F0-0BE5658E553F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{236C7020-1154-4B0D-8212-26C04755AD58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{3415D364-6D1D-489F-8C8D-BD784F513C31}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{3415D364-6D1D-489F-8C8D-BD784F513C31}"/>
   </bookViews>
   <sheets>
     <sheet name="modelos" sheetId="1" r:id="rId1"/>
     <sheet name="Medios" sheetId="3" r:id="rId2"/>
     <sheet name="Unidades" sheetId="2" r:id="rId3"/>
+    <sheet name="sistemas" sheetId="4" r:id="rId4"/>
+    <sheet name="IPv4" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="199">
   <si>
     <t xml:space="preserve">TCP/IP </t>
   </si>
@@ -410,13 +412,453 @@
   </si>
   <si>
     <t>Par Trenzado</t>
+  </si>
+  <si>
+    <t>DEC</t>
+  </si>
+  <si>
+    <t>BIN</t>
+  </si>
+  <si>
+    <t>HEX</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>FF</t>
+  </si>
+  <si>
+    <t>0x</t>
+  </si>
+  <si>
+    <t>10^2</t>
+  </si>
+  <si>
+    <t>10^1</t>
+  </si>
+  <si>
+    <t>Decimal</t>
+  </si>
+  <si>
+    <t>Binario</t>
+  </si>
+  <si>
+    <t>2^0</t>
+  </si>
+  <si>
+    <t>2^1</t>
+  </si>
+  <si>
+    <t>2^2</t>
+  </si>
+  <si>
+    <t>2^3</t>
+  </si>
+  <si>
+    <t>2^4</t>
+  </si>
+  <si>
+    <t>Hexadecimal</t>
+  </si>
+  <si>
+    <t>16^0</t>
+  </si>
+  <si>
+    <t>16^1</t>
+  </si>
+  <si>
+    <t>16^2</t>
+  </si>
+  <si>
+    <t>16^3</t>
+  </si>
+  <si>
+    <t>2^7</t>
+  </si>
+  <si>
+    <t>2^6</t>
+  </si>
+  <si>
+    <t>2^5</t>
+  </si>
+  <si>
+    <t>BINARIO</t>
+  </si>
+  <si>
+    <t>Metodo division</t>
+  </si>
+  <si>
+    <t>0.0.0.0</t>
+  </si>
+  <si>
+    <t>128.0.0.0</t>
+  </si>
+  <si>
+    <t>192.0.0.0</t>
+  </si>
+  <si>
+    <t>224.0.0.0</t>
+  </si>
+  <si>
+    <t>240.0.0.0</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>111111</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>110</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1110</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>111111</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>110</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>11111</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1110</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1111</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1111</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1111</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>111</t>
+    </r>
+  </si>
+  <si>
+    <t>10.0.0.0</t>
+  </si>
+  <si>
+    <t>00001010</t>
+  </si>
+  <si>
+    <t>172.16.0.0</t>
+  </si>
+  <si>
+    <t>172.31.255.255</t>
+  </si>
+  <si>
+    <t>10101100
+00010000</t>
+  </si>
+  <si>
+    <t>10101100
+00011111</t>
+  </si>
+  <si>
+    <t>192.168.0.0</t>
+  </si>
+  <si>
+    <t>11000000
+10101000
+00000000</t>
+  </si>
+  <si>
+    <t>11000000
+10101000
+11111111</t>
+  </si>
+  <si>
+    <t>Multicast</t>
+  </si>
+  <si>
+    <t>Research</t>
+  </si>
+  <si>
+    <t>cidr</t>
+  </si>
+  <si>
+    <t>/8</t>
+  </si>
+  <si>
+    <t>/16</t>
+  </si>
+  <si>
+    <t>/24</t>
+  </si>
+  <si>
+    <t>255.0.0.0</t>
+  </si>
+  <si>
+    <t>255.255.0.0</t>
+  </si>
+  <si>
+    <t>255.255.255.0</t>
+  </si>
+  <si>
+    <t>host</t>
+  </si>
+  <si>
+    <t>IPv4</t>
+  </si>
+  <si>
+    <t>binario</t>
+  </si>
+  <si>
+    <t>mask</t>
+  </si>
+  <si>
+    <t>sn</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>Publico (Inicia en)</t>
+  </si>
+  <si>
+    <t>Publico (finaliza con)</t>
+  </si>
+  <si>
+    <t>Privado (Inicia en)</t>
+  </si>
+  <si>
+    <t>Privado (Finaliza con)</t>
+  </si>
+  <si>
+    <t>Privado (Division en Subredes)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -452,8 +894,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="26">
+  <fills count="28">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -604,8 +1059,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="27">
+  <borders count="51">
     <border>
       <left/>
       <right/>
@@ -913,12 +1380,283 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="1">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="1">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="1">
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -994,6 +1732,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1024,132 +1825,226 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="10" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="10" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="10" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="10" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="10" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="60% - Énfasis1" xfId="1" builtinId="32"/>
+    <cellStyle name="Millares" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1702,8 +2597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F22CCB81-C947-4BF0-A3C3-1CFE163D2C19}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:D9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1711,7 +2606,7 @@
     <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.85546875" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1732,13 +2627,13 @@
       <c r="A2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="72" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1746,17 +2641,17 @@
       <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="51"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="72"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="51"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="72"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -1793,7 +2688,7 @@
       <c r="B7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="67" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="15" t="s">
@@ -1807,8 +2702,8 @@
       <c r="B8" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="51" t="s">
+      <c r="C8" s="68"/>
+      <c r="D8" s="72" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1822,7 +2717,7 @@
       <c r="C9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="52"/>
+      <c r="D9" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1841,7 +2736,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D6A4FC1-4453-4F66-8A6E-DB11164B3A80}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
@@ -1856,31 +2751,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="74" t="s">
         <v>124</v>
       </c>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="F1" s="81" t="s">
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="F1" s="74" t="s">
         <v>123</v>
       </c>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="D2" s="80" t="s">
+      <c r="D2" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="F2" s="72" t="s">
+      <c r="F2" s="47" t="s">
         <v>120</v>
       </c>
-      <c r="G2" s="72" t="s">
+      <c r="G2" s="47" t="s">
         <v>121</v>
       </c>
-      <c r="H2" s="80" t="s">
+      <c r="H2" s="55" t="s">
         <v>119</v>
       </c>
     </row>
@@ -1888,19 +2783,19 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="88" t="s">
+      <c r="B3" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="86" t="s">
+      <c r="D3" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="82" t="s">
+      <c r="F3" s="78" t="s">
         <v>112</v>
       </c>
-      <c r="G3" s="84" t="s">
+      <c r="G3" s="80" t="s">
         <v>111</v>
       </c>
-      <c r="H3" s="73" t="s">
+      <c r="H3" s="48" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1908,15 +2803,15 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="91" t="s">
+      <c r="B4" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="87" t="s">
+      <c r="D4" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="82"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="74" t="s">
+      <c r="F4" s="78"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="49" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1924,15 +2819,15 @@
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="88" t="s">
+      <c r="D5" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="F5" s="82"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="75" t="s">
+      <c r="F5" s="78"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="50" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1940,15 +2835,15 @@
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="89" t="s">
+      <c r="B6" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="89" t="s">
+      <c r="D6" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="F6" s="82"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="76" t="s">
+      <c r="F6" s="78"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="51" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1956,15 +2851,15 @@
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="90" t="s">
+      <c r="B7" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="90" t="s">
+      <c r="D7" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="F7" s="82"/>
-      <c r="G7" s="84"/>
-      <c r="H7" s="80" t="s">
+      <c r="F7" s="78"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="55" t="s">
         <v>118</v>
       </c>
     </row>
@@ -1972,15 +2867,15 @@
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="87" t="s">
+      <c r="B8" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="91" t="s">
+      <c r="D8" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="82"/>
-      <c r="G8" s="84"/>
-      <c r="H8" s="77" t="s">
+      <c r="F8" s="78"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="52" t="s">
         <v>122</v>
       </c>
     </row>
@@ -1988,15 +2883,15 @@
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="92" t="s">
+      <c r="B9" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="92" t="s">
+      <c r="D9" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="F9" s="82"/>
-      <c r="G9" s="84"/>
-      <c r="H9" s="78" t="s">
+      <c r="F9" s="78"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="53" t="s">
         <v>116</v>
       </c>
     </row>
@@ -2004,95 +2899,95 @@
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="93" t="s">
+      <c r="B10" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="93" t="s">
+      <c r="D10" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="F10" s="83"/>
-      <c r="G10" s="85"/>
-      <c r="H10" s="79" t="s">
+      <c r="F10" s="79"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="54" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="65" t="s">
+      <c r="B12" s="76" t="s">
         <v>110</v>
       </c>
-      <c r="C12" s="65"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="68" t="s">
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="44" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="41" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="70" t="s">
+      <c r="B13" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="C13" s="66" t="s">
+      <c r="C13" s="82" t="s">
         <v>107</v>
       </c>
-      <c r="D13" s="66"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="69" t="s">
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="75" t="s">
         <v>115</v>
       </c>
       <c r="I13" s="42"/>
     </row>
     <row r="14" spans="1:9" s="41" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="71" t="s">
+      <c r="B14" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="67" t="s">
+      <c r="C14" s="77" t="s">
         <v>104</v>
       </c>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="69"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="75"/>
       <c r="I14" s="42"/>
     </row>
     <row r="15" spans="1:9" s="41" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="70" t="s">
+      <c r="B15" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="66" t="s">
+      <c r="C15" s="82" t="s">
         <v>105</v>
       </c>
-      <c r="D15" s="66"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="69"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="75"/>
       <c r="I15" s="42"/>
     </row>
     <row r="16" spans="1:9" s="41" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="71" t="s">
+      <c r="B16" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="C16" s="67" t="s">
+      <c r="C16" s="77" t="s">
         <v>106</v>
       </c>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="69"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="75"/>
       <c r="I16" s="42"/>
     </row>
     <row r="17" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G17" s="64"/>
+      <c r="G17" s="43"/>
     </row>
     <row r="18" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G18" s="64"/>
+      <c r="G18" s="43"/>
     </row>
     <row r="19" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G19" s="64"/>
+      <c r="G19" s="43"/>
     </row>
     <row r="20" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G20" s="64"/>
+      <c r="G20" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2116,7 +3011,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2546DD17-9723-4091-B9ED-D9677931F7C4}">
   <dimension ref="A2:K12"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
@@ -2136,24 +3031,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="59"/>
+      <c r="B2" s="84"/>
       <c r="C2" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="58" t="s">
+      <c r="E2" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="59"/>
+      <c r="F2" s="84"/>
       <c r="G2" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="58" t="s">
+      <c r="I2" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="59"/>
+      <c r="J2" s="84"/>
       <c r="K2" s="27" t="s">
         <v>44</v>
       </c>
@@ -2327,15 +3222,15 @@
       <c r="E9" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="53" t="s">
+      <c r="F9" s="91" t="s">
         <v>69</v>
       </c>
-      <c r="G9" s="53"/>
-      <c r="I9" s="53" t="s">
+      <c r="G9" s="91"/>
+      <c r="I9" s="91" t="s">
         <v>91</v>
       </c>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
+      <c r="J9" s="91"/>
+      <c r="K9" s="91"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
@@ -2351,15 +3246,15 @@
       <c r="E10" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="F10" s="54" t="s">
+      <c r="F10" s="86" t="s">
         <v>72</v>
       </c>
-      <c r="G10" s="55"/>
-      <c r="I10" s="60" t="s">
+      <c r="G10" s="87"/>
+      <c r="I10" s="85" t="s">
         <v>65</v>
       </c>
-      <c r="J10" s="54"/>
-      <c r="K10" s="55"/>
+      <c r="J10" s="86"/>
+      <c r="K10" s="87"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="39" t="s">
@@ -2374,15 +3269,15 @@
       <c r="E11" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="56" t="s">
+      <c r="F11" s="92" t="s">
         <v>54</v>
       </c>
-      <c r="G11" s="57"/>
-      <c r="I11" s="61" t="s">
+      <c r="G11" s="93"/>
+      <c r="I11" s="88" t="s">
         <v>66</v>
       </c>
-      <c r="J11" s="62"/>
-      <c r="K11" s="63"/>
+      <c r="J11" s="89"/>
+      <c r="K11" s="90"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
@@ -2397,15 +3292,15 @@
       <c r="E12" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="F12" s="54" t="s">
+      <c r="F12" s="86" t="s">
         <v>74</v>
       </c>
-      <c r="G12" s="55"/>
-      <c r="I12" s="60" t="s">
+      <c r="G12" s="87"/>
+      <c r="I12" s="85" t="s">
         <v>67</v>
       </c>
-      <c r="J12" s="54"/>
-      <c r="K12" s="55"/>
+      <c r="J12" s="86"/>
+      <c r="K12" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2423,4 +3318,1265 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC782B4E-6927-4C9C-A90D-9AC5B53DF039}">
+  <dimension ref="A1:S24"/>
+  <sheetViews>
+    <sheetView topLeftCell="H1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="T5" sqref="T5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="3" max="3" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.140625" customWidth="1"/>
+    <col min="10" max="10" width="2.85546875" customWidth="1"/>
+    <col min="11" max="18" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F1" s="96" t="s">
+        <v>138</v>
+      </c>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="98"/>
+      <c r="K1" s="105" t="s">
+        <v>150</v>
+      </c>
+      <c r="L1" s="106" t="s">
+        <v>151</v>
+      </c>
+      <c r="M1" s="106" t="s">
+        <v>152</v>
+      </c>
+      <c r="N1" s="107" t="s">
+        <v>144</v>
+      </c>
+      <c r="O1" s="105" t="s">
+        <v>143</v>
+      </c>
+      <c r="P1" s="106" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q1" s="106" t="s">
+        <v>141</v>
+      </c>
+      <c r="R1" s="107" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F2" s="99" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="100" t="s">
+        <v>136</v>
+      </c>
+      <c r="H2" s="100" t="s">
+        <v>137</v>
+      </c>
+      <c r="I2" s="101" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="105">
+        <f>2^7</f>
+        <v>128</v>
+      </c>
+      <c r="L2" s="106">
+        <f>2^6</f>
+        <v>64</v>
+      </c>
+      <c r="M2" s="106">
+        <f>2^5</f>
+        <v>32</v>
+      </c>
+      <c r="N2" s="107">
+        <f>2^4</f>
+        <v>16</v>
+      </c>
+      <c r="O2" s="105">
+        <f>2^3</f>
+        <v>8</v>
+      </c>
+      <c r="P2" s="106">
+        <f>2^2</f>
+        <v>4</v>
+      </c>
+      <c r="Q2" s="106">
+        <f>2^1</f>
+        <v>2</v>
+      </c>
+      <c r="R2" s="107">
+        <f>2^0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F3" s="99">
+        <v>1000</v>
+      </c>
+      <c r="G3" s="100">
+        <v>100</v>
+      </c>
+      <c r="H3" s="100">
+        <v>10</v>
+      </c>
+      <c r="I3" s="101">
+        <v>1</v>
+      </c>
+      <c r="K3" s="95" t="s">
+        <v>153</v>
+      </c>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
+      <c r="N3" s="95"/>
+      <c r="O3" s="95"/>
+      <c r="P3" s="95"/>
+      <c r="Q3" s="95"/>
+      <c r="R3" s="95"/>
+      <c r="S3" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D4" s="94">
+        <v>0</v>
+      </c>
+      <c r="F4" s="102">
+        <v>3</v>
+      </c>
+      <c r="G4" s="103">
+        <v>1</v>
+      </c>
+      <c r="H4" s="103">
+        <v>8</v>
+      </c>
+      <c r="I4" s="104">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D5" s="94">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D6" s="94">
+        <v>2</v>
+      </c>
+      <c r="F6" s="96" t="s">
+        <v>139</v>
+      </c>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="98"/>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D7" s="94">
+        <v>3</v>
+      </c>
+      <c r="F7" s="105" t="s">
+        <v>143</v>
+      </c>
+      <c r="G7" s="106" t="s">
+        <v>142</v>
+      </c>
+      <c r="H7" s="106" t="s">
+        <v>141</v>
+      </c>
+      <c r="I7" s="107" t="s">
+        <v>140</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+      <c r="C8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D8" s="94">
+        <v>4</v>
+      </c>
+      <c r="F8" s="105">
+        <v>8</v>
+      </c>
+      <c r="G8" s="106">
+        <v>4</v>
+      </c>
+      <c r="H8" s="106">
+        <v>2</v>
+      </c>
+      <c r="I8" s="107">
+        <v>1</v>
+      </c>
+      <c r="K8" s="111">
+        <v>1</v>
+      </c>
+      <c r="L8" s="111">
+        <v>1</v>
+      </c>
+      <c r="M8" s="111">
+        <v>1</v>
+      </c>
+      <c r="N8" s="111">
+        <v>1</v>
+      </c>
+      <c r="O8" s="111">
+        <v>1</v>
+      </c>
+      <c r="P8" s="111">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="111">
+        <v>1</v>
+      </c>
+      <c r="R8" s="111">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>101</v>
+      </c>
+      <c r="C9" t="s">
+        <v>135</v>
+      </c>
+      <c r="D9" s="94">
+        <v>5</v>
+      </c>
+      <c r="F9" s="102">
+        <v>1</v>
+      </c>
+      <c r="G9" s="103">
+        <v>1</v>
+      </c>
+      <c r="H9" s="103">
+        <v>0</v>
+      </c>
+      <c r="I9" s="104">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>110</v>
+      </c>
+      <c r="C10" t="s">
+        <v>135</v>
+      </c>
+      <c r="D10" s="94">
+        <v>6</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>111</v>
+      </c>
+      <c r="C11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D11" s="94">
+        <v>7</v>
+      </c>
+      <c r="F11" s="96" t="s">
+        <v>145</v>
+      </c>
+      <c r="G11" s="97"/>
+      <c r="H11" s="97"/>
+      <c r="I11" s="98"/>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>1000</v>
+      </c>
+      <c r="C12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D12" s="94">
+        <v>8</v>
+      </c>
+      <c r="F12" s="108" t="s">
+        <v>149</v>
+      </c>
+      <c r="G12" s="109" t="s">
+        <v>148</v>
+      </c>
+      <c r="H12" s="109" t="s">
+        <v>147</v>
+      </c>
+      <c r="I12" s="110" t="s">
+        <v>146</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>1001</v>
+      </c>
+      <c r="C13" t="s">
+        <v>135</v>
+      </c>
+      <c r="D13" s="94">
+        <v>9</v>
+      </c>
+      <c r="F13" s="108">
+        <f>16^3</f>
+        <v>4096</v>
+      </c>
+      <c r="G13" s="109">
+        <v>256</v>
+      </c>
+      <c r="H13" s="109">
+        <v>16</v>
+      </c>
+      <c r="I13" s="110">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="S13">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>1010</v>
+      </c>
+      <c r="C14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D14" s="94" t="s">
+        <v>128</v>
+      </c>
+      <c r="F14" s="102">
+        <v>0</v>
+      </c>
+      <c r="G14" s="103">
+        <v>0</v>
+      </c>
+      <c r="H14" s="103" t="s">
+        <v>133</v>
+      </c>
+      <c r="I14" s="104" t="s">
+        <v>133</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <v>1011</v>
+      </c>
+      <c r="C15" t="s">
+        <v>135</v>
+      </c>
+      <c r="D15" s="94" t="s">
+        <v>129</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>1100</v>
+      </c>
+      <c r="C16" t="s">
+        <v>135</v>
+      </c>
+      <c r="D16" s="94" t="s">
+        <v>130</v>
+      </c>
+      <c r="K16" s="95" t="s">
+        <v>154</v>
+      </c>
+      <c r="L16" s="95"/>
+      <c r="M16" s="95"/>
+      <c r="N16" s="95"/>
+      <c r="O16" s="95"/>
+      <c r="P16" s="95"/>
+      <c r="Q16" s="95"/>
+      <c r="R16" s="95"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>13</v>
+      </c>
+      <c r="B17">
+        <v>1101</v>
+      </c>
+      <c r="C17" t="s">
+        <v>135</v>
+      </c>
+      <c r="D17" s="94" t="s">
+        <v>131</v>
+      </c>
+      <c r="K17" s="114">
+        <v>172</v>
+      </c>
+      <c r="L17" s="112">
+        <v>2</v>
+      </c>
+      <c r="M17" s="112"/>
+      <c r="N17" s="112"/>
+      <c r="O17" s="112"/>
+      <c r="P17" s="112"/>
+      <c r="Q17" s="112"/>
+      <c r="R17" s="113"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>14</v>
+      </c>
+      <c r="B18">
+        <v>1110</v>
+      </c>
+      <c r="C18" t="s">
+        <v>135</v>
+      </c>
+      <c r="D18" s="94" t="s">
+        <v>132</v>
+      </c>
+      <c r="K18" s="118">
+        <v>0</v>
+      </c>
+      <c r="L18" s="112">
+        <v>86</v>
+      </c>
+      <c r="M18" s="108">
+        <v>2</v>
+      </c>
+      <c r="N18" s="109"/>
+      <c r="O18" s="109"/>
+      <c r="P18" s="109"/>
+      <c r="Q18" s="109"/>
+      <c r="R18" s="110"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <v>1111</v>
+      </c>
+      <c r="C19" t="s">
+        <v>135</v>
+      </c>
+      <c r="D19" s="94" t="s">
+        <v>133</v>
+      </c>
+      <c r="K19" s="108"/>
+      <c r="L19" s="116">
+        <v>0</v>
+      </c>
+      <c r="M19" s="112">
+        <v>43</v>
+      </c>
+      <c r="N19" s="102">
+        <v>2</v>
+      </c>
+      <c r="O19" s="109"/>
+      <c r="P19" s="109"/>
+      <c r="Q19" s="109"/>
+      <c r="R19" s="110"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>16</v>
+      </c>
+      <c r="B20">
+        <v>10000</v>
+      </c>
+      <c r="C20" t="s">
+        <v>135</v>
+      </c>
+      <c r="D20" s="94">
+        <v>10</v>
+      </c>
+      <c r="K20" s="108"/>
+      <c r="L20" s="109"/>
+      <c r="M20" s="116">
+        <v>1</v>
+      </c>
+      <c r="N20" s="109">
+        <v>21</v>
+      </c>
+      <c r="O20" s="102">
+        <v>2</v>
+      </c>
+      <c r="P20" s="109"/>
+      <c r="Q20" s="109"/>
+      <c r="R20" s="110"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>99</v>
+      </c>
+      <c r="B21">
+        <v>1100011</v>
+      </c>
+      <c r="C21" t="s">
+        <v>135</v>
+      </c>
+      <c r="D21" s="94">
+        <v>63</v>
+      </c>
+      <c r="K21" s="108"/>
+      <c r="L21" s="109"/>
+      <c r="M21" s="109"/>
+      <c r="N21" s="116">
+        <v>1</v>
+      </c>
+      <c r="O21" s="109">
+        <v>10</v>
+      </c>
+      <c r="P21" s="108">
+        <v>2</v>
+      </c>
+      <c r="Q21" s="109"/>
+      <c r="R21" s="110"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>100</v>
+      </c>
+      <c r="B22">
+        <v>1100100</v>
+      </c>
+      <c r="C22" t="s">
+        <v>135</v>
+      </c>
+      <c r="D22" s="94">
+        <v>64</v>
+      </c>
+      <c r="K22" s="108"/>
+      <c r="L22" s="109"/>
+      <c r="M22" s="109"/>
+      <c r="N22" s="109"/>
+      <c r="O22" s="116">
+        <v>0</v>
+      </c>
+      <c r="P22" s="112">
+        <v>5</v>
+      </c>
+      <c r="Q22" s="102">
+        <v>2</v>
+      </c>
+      <c r="R22" s="110"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>255</v>
+      </c>
+      <c r="B23">
+        <v>11111111</v>
+      </c>
+      <c r="C23" t="s">
+        <v>135</v>
+      </c>
+      <c r="D23" s="94" t="s">
+        <v>134</v>
+      </c>
+      <c r="K23" s="108"/>
+      <c r="L23" s="109"/>
+      <c r="M23" s="109"/>
+      <c r="N23" s="109"/>
+      <c r="O23" s="109"/>
+      <c r="P23" s="116">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="109">
+        <v>2</v>
+      </c>
+      <c r="R23" s="115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K24" s="102"/>
+      <c r="L24" s="103"/>
+      <c r="M24" s="103"/>
+      <c r="N24" s="103"/>
+      <c r="O24" s="103"/>
+      <c r="P24" s="103"/>
+      <c r="Q24" s="117">
+        <v>0</v>
+      </c>
+      <c r="R24" s="119">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="K3:R3"/>
+    <mergeCell ref="K16:R16"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{736925F0-C296-4BA5-A90C-9FBAD4DAF0DB}">
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="148" t="s">
+        <v>189</v>
+      </c>
+      <c r="B1" s="150" t="s">
+        <v>194</v>
+      </c>
+      <c r="C1" s="150"/>
+      <c r="D1" s="150" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1" s="150"/>
+      <c r="F1" s="151" t="s">
+        <v>196</v>
+      </c>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151" t="s">
+        <v>197</v>
+      </c>
+      <c r="I1" s="151"/>
+      <c r="J1" s="149" t="s">
+        <v>198</v>
+      </c>
+      <c r="K1" s="149"/>
+      <c r="L1" s="149"/>
+      <c r="M1" s="149"/>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="152" t="s">
+        <v>193</v>
+      </c>
+      <c r="B2" s="153" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="141" t="s">
+        <v>190</v>
+      </c>
+      <c r="D2" s="153" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="141" t="s">
+        <v>190</v>
+      </c>
+      <c r="F2" s="153" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="141" t="s">
+        <v>190</v>
+      </c>
+      <c r="H2" s="153" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="141" t="s">
+        <v>190</v>
+      </c>
+      <c r="J2" s="153" t="s">
+        <v>181</v>
+      </c>
+      <c r="K2" s="141" t="s">
+        <v>191</v>
+      </c>
+      <c r="L2" s="145" t="s">
+        <v>192</v>
+      </c>
+      <c r="M2" s="146" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="124" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3" s="125" t="s">
+        <v>160</v>
+      </c>
+      <c r="D3" s="130">
+        <v>127255255255</v>
+      </c>
+      <c r="E3" s="125" t="s">
+        <v>161</v>
+      </c>
+      <c r="F3" s="133" t="s">
+        <v>170</v>
+      </c>
+      <c r="G3" s="134" t="s">
+        <v>171</v>
+      </c>
+      <c r="H3" s="138">
+        <v>10255255255</v>
+      </c>
+      <c r="I3" s="134" t="s">
+        <v>171</v>
+      </c>
+      <c r="J3" s="142" t="s">
+        <v>182</v>
+      </c>
+      <c r="K3" s="134" t="s">
+        <v>185</v>
+      </c>
+      <c r="L3" s="122">
+        <v>1</v>
+      </c>
+      <c r="M3" s="120">
+        <f>2^24-2</f>
+        <v>16777214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="126" t="s">
+        <v>156</v>
+      </c>
+      <c r="C4" s="127" t="s">
+        <v>162</v>
+      </c>
+      <c r="D4" s="131">
+        <v>191255255255</v>
+      </c>
+      <c r="E4" s="127" t="s">
+        <v>165</v>
+      </c>
+      <c r="F4" s="135" t="s">
+        <v>172</v>
+      </c>
+      <c r="G4" s="136" t="s">
+        <v>174</v>
+      </c>
+      <c r="H4" s="139" t="s">
+        <v>173</v>
+      </c>
+      <c r="I4" s="136" t="s">
+        <v>175</v>
+      </c>
+      <c r="J4" s="143" t="s">
+        <v>183</v>
+      </c>
+      <c r="K4" s="136" t="s">
+        <v>186</v>
+      </c>
+      <c r="L4" s="147">
+        <v>16</v>
+      </c>
+      <c r="M4" s="121">
+        <f>2^16-2</f>
+        <v>65534</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="B5" s="124" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="125" t="s">
+        <v>163</v>
+      </c>
+      <c r="D5" s="130">
+        <v>223255255255</v>
+      </c>
+      <c r="E5" s="125" t="s">
+        <v>166</v>
+      </c>
+      <c r="F5" s="160" t="s">
+        <v>176</v>
+      </c>
+      <c r="G5" s="161" t="s">
+        <v>177</v>
+      </c>
+      <c r="H5" s="140">
+        <v>192168255255</v>
+      </c>
+      <c r="I5" s="137" t="s">
+        <v>178</v>
+      </c>
+      <c r="J5" s="144" t="s">
+        <v>184</v>
+      </c>
+      <c r="K5" s="137" t="s">
+        <v>187</v>
+      </c>
+      <c r="L5" s="122">
+        <v>256</v>
+      </c>
+      <c r="M5" s="123">
+        <f>2^8-2</f>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="B6" s="126" t="s">
+        <v>158</v>
+      </c>
+      <c r="C6" s="127" t="s">
+        <v>164</v>
+      </c>
+      <c r="D6" s="131">
+        <v>239255255255</v>
+      </c>
+      <c r="E6" s="127" t="s">
+        <v>167</v>
+      </c>
+      <c r="F6" s="157" t="s">
+        <v>179</v>
+      </c>
+      <c r="G6" s="158"/>
+      <c r="H6" s="158"/>
+      <c r="I6" s="158"/>
+      <c r="J6" s="158"/>
+      <c r="K6" s="158"/>
+      <c r="L6" s="158"/>
+      <c r="M6" s="159"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="B7" s="128" t="s">
+        <v>159</v>
+      </c>
+      <c r="C7" s="129" t="s">
+        <v>168</v>
+      </c>
+      <c r="D7" s="132">
+        <v>255255255255</v>
+      </c>
+      <c r="E7" s="129" t="s">
+        <v>169</v>
+      </c>
+      <c r="F7" s="154" t="s">
+        <v>180</v>
+      </c>
+      <c r="G7" s="155"/>
+      <c r="H7" s="155"/>
+      <c r="I7" s="155"/>
+      <c r="J7" s="155"/>
+      <c r="K7" s="155"/>
+      <c r="L7" s="155"/>
+      <c r="M7" s="156"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="F6:M6"/>
+    <mergeCell ref="F7:M7"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/docs/protocol-suite.xlsx
+++ b/docs/protocol-suite.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\redes\saves\ccna-lx19\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E498EC50-7F87-4FE4-A9B9-6401FBE05F68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7830610E-BF76-4E8F-ADEC-0F58E382A3EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3415D364-6D1D-489F-8C8D-BD784F513C31}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{3415D364-6D1D-489F-8C8D-BD784F513C31}"/>
   </bookViews>
   <sheets>
     <sheet name="modelos" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="315">
   <si>
     <t xml:space="preserve">TCP/IP </t>
   </si>
@@ -692,24 +692,6 @@
     <t>00001010</t>
   </si>
   <si>
-    <t>10101100
-00010000</t>
-  </si>
-  <si>
-    <t>10101100
-00011111</t>
-  </si>
-  <si>
-    <t>11000000
-10101000
-00000000</t>
-  </si>
-  <si>
-    <t>11000000
-10101000
-11111111</t>
-  </si>
-  <si>
     <t>Multicast</t>
   </si>
   <si>
@@ -762,12 +744,6 @@
   </si>
   <si>
     <t>169.254.0.0</t>
-  </si>
-  <si>
-    <t>Loopback</t>
-  </si>
-  <si>
-    <t>APIPA</t>
   </si>
   <si>
     <t>128 bits</t>
@@ -1269,6 +1245,400 @@
   </si>
   <si>
     <t>CONCEPTOS</t>
+  </si>
+  <si>
+    <t>LoopBack</t>
+  </si>
+  <si>
+    <t>A.P.I.P.A.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">11000000
+10101000
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">11000000
+10101000
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>11111111</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">10101100
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00010000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">10101100
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00011111</t>
+    </r>
+  </si>
+  <si>
+    <t>AND</t>
+  </si>
+  <si>
+    <t>IP</t>
+  </si>
+  <si>
+    <t>SM</t>
+  </si>
+  <si>
+    <t>NET</t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>1 byte</t>
+  </si>
+  <si>
+    <t>2 byte</t>
+  </si>
+  <si>
+    <t>3 byte</t>
+  </si>
+  <si>
+    <t>4 byte</t>
+  </si>
+  <si>
+    <t>00001100</t>
+  </si>
+  <si>
+    <t>01010001</t>
+  </si>
+  <si>
+    <t>01100101</t>
+  </si>
+  <si>
+    <t>11111111</t>
+  </si>
+  <si>
+    <t>00000000</t>
+  </si>
+  <si>
+    <r>
+      <t>0000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <t>00010110</t>
+  </si>
+  <si>
+    <t>00001101</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000</t>
+    </r>
+  </si>
+  <si>
+    <t>10001000</t>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>111</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1559,7 +1929,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="61">
+  <borders count="76">
     <border>
       <left/>
       <right/>
@@ -2247,6 +2617,173 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="8"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="8"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="8"/>
+      </right>
+      <top style="thin">
+        <color theme="8"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2257,7 +2794,7 @@
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="292">
+  <cellXfs count="325">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2348,84 +2885,6 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2530,15 +2989,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2596,21 +3046,396 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="24" borderId="58" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="27" borderId="59" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="28" borderId="59" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="28" borderId="60" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="24" borderId="56" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="27" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="28" borderId="57" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="28" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="28" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="28" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="24" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="24" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="24" borderId="53" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="24" borderId="54" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="54" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="10" borderId="55" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="10" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="10" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="10" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="10" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="10" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="10" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="52" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="53" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="54" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="56" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="52" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="53" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2620,28 +3445,91 @@
     <xf numFmtId="0" fontId="3" fillId="26" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="24" borderId="54" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="24" borderId="55" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="24" borderId="56" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="24" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="24" borderId="57" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="59" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="60" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="28" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="3" fillId="15" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2650,407 +3538,151 @@
     <xf numFmtId="0" fontId="3" fillId="29" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="24" borderId="58" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="27" borderId="59" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="28" borderId="59" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="28" borderId="60" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="24" borderId="56" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="27" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="28" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="28" borderId="57" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="28" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="28" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="28" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="28" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="24" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="24" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="24" borderId="53" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="59" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="60" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="24" borderId="55" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="24" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="24" borderId="57" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="24" borderId="54" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="54" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="24" borderId="54" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="24" borderId="56" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="10" borderId="55" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="10" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="10" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="10" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="10" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="62" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="63" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="65" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="65" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="65" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="67" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="68" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="10" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="69" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="70" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="70" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="70" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="71" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="15" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="7" fillId="10" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="7" fillId="10" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="15" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="10" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" xfId="3" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" xfId="6" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="54" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="56" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="52" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="53" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="52" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="53" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="9" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="9" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="9" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="9" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -3612,8 +4244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F22CCB81-C947-4BF0-A3C3-1CFE163D2C19}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:D9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3638,37 +4270,37 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="202" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="197" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="58" t="s">
+      <c r="D2" s="205" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="58"/>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="203"/>
+      <c r="C3" s="198"/>
+      <c r="D3" s="205"/>
+    </row>
+    <row r="4" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="58"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="204"/>
+      <c r="C4" s="199"/>
+      <c r="D4" s="205"/>
+    </row>
+    <row r="5" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -3682,7 +4314,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -3696,33 +4328,33 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="200" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="54"/>
-      <c r="D8" s="58" t="s">
+      <c r="C8" s="201"/>
+      <c r="D8" s="205" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
@@ -3732,7 +4364,7 @@
       <c r="C9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="59"/>
+      <c r="D9" s="206"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3751,8 +4383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2546DD17-9723-4091-B9ED-D9677931F7C4}">
   <dimension ref="A2:K21"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3771,31 +4403,31 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="210" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="65"/>
+      <c r="B2" s="211"/>
       <c r="C2" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="64" t="s">
+      <c r="E2" s="210" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="65"/>
+      <c r="F2" s="211"/>
       <c r="G2" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="64" t="s">
+      <c r="I2" s="210" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="65"/>
+      <c r="J2" s="211"/>
       <c r="K2" s="27" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="39" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B3" s="40" t="s">
         <v>31</v>
@@ -3827,7 +4459,7 @@
         <v>73</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C4" s="23" t="s">
         <v>33</v>
@@ -3853,10 +4485,10 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="39" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C5" s="30" t="s">
         <v>34</v>
@@ -3882,10 +4514,10 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C6" s="23" t="s">
         <v>35</v>
@@ -3911,10 +4543,10 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="39" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C7" s="30" t="s">
         <v>36</v>
@@ -3940,10 +4572,10 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C8" s="23" t="s">
         <v>37</v>
@@ -3951,10 +4583,10 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="39" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C9" s="30" t="s">
         <v>38</v>
@@ -3962,22 +4594,22 @@
       <c r="E9" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="F9" s="72" t="s">
+      <c r="F9" s="218" t="s">
         <v>67</v>
       </c>
-      <c r="G9" s="72"/>
-      <c r="I9" s="72" t="s">
+      <c r="G9" s="218"/>
+      <c r="I9" s="218" t="s">
         <v>81</v>
       </c>
-      <c r="J9" s="72"/>
-      <c r="K9" s="72"/>
+      <c r="J9" s="218"/>
+      <c r="K9" s="218"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C10" s="23" t="s">
         <v>39</v>
@@ -3986,22 +4618,22 @@
       <c r="E10" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="F10" s="67" t="s">
+      <c r="F10" s="213" t="s">
         <v>70</v>
       </c>
-      <c r="G10" s="68"/>
-      <c r="I10" s="66" t="s">
+      <c r="G10" s="214"/>
+      <c r="I10" s="212" t="s">
         <v>63</v>
       </c>
-      <c r="J10" s="67"/>
-      <c r="K10" s="68"/>
+      <c r="J10" s="213"/>
+      <c r="K10" s="214"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="39" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C11" s="30" t="s">
         <v>40</v>
@@ -4009,22 +4641,22 @@
       <c r="E11" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="73" t="s">
+      <c r="F11" s="219" t="s">
         <v>52</v>
       </c>
-      <c r="G11" s="74"/>
-      <c r="I11" s="69" t="s">
+      <c r="G11" s="220"/>
+      <c r="I11" s="215" t="s">
         <v>64</v>
       </c>
-      <c r="J11" s="70"/>
-      <c r="K11" s="71"/>
+      <c r="J11" s="216"/>
+      <c r="K11" s="217"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C12" s="24" t="s">
         <v>41</v>
@@ -4032,143 +4664,138 @@
       <c r="E12" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="F12" s="67" t="s">
+      <c r="F12" s="213" t="s">
         <v>72</v>
       </c>
-      <c r="G12" s="68"/>
-      <c r="I12" s="66" t="s">
+      <c r="G12" s="214"/>
+      <c r="I12" s="212" t="s">
         <v>65</v>
       </c>
-      <c r="J12" s="67"/>
-      <c r="K12" s="68"/>
+      <c r="J12" s="213"/>
+      <c r="K12" s="214"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="39" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="39" t="s">
-        <v>212</v>
-      </c>
-      <c r="B15" s="40" t="s">
-        <v>213</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>200</v>
+      <c r="A15" s="285" t="s">
+        <v>206</v>
+      </c>
+      <c r="B15" s="286" t="s">
+        <v>207</v>
+      </c>
+      <c r="C15" s="287" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="256" t="s">
-        <v>291</v>
-      </c>
-      <c r="B17" s="249" t="s">
+      <c r="A17" s="275" t="s">
+        <v>285</v>
+      </c>
+      <c r="B17" s="288" t="s">
+        <v>275</v>
+      </c>
+      <c r="C17" s="276" t="s">
+        <v>276</v>
+      </c>
+      <c r="D17" s="276"/>
+      <c r="E17" s="276"/>
+      <c r="F17" s="276"/>
+      <c r="G17" s="276"/>
+      <c r="H17" s="276"/>
+      <c r="I17" s="276"/>
+      <c r="J17" s="276"/>
+      <c r="K17" s="277"/>
+    </row>
+    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="278"/>
+      <c r="B18" s="289" t="s">
+        <v>277</v>
+      </c>
+      <c r="C18" s="208" t="s">
+        <v>278</v>
+      </c>
+      <c r="D18" s="208"/>
+      <c r="E18" s="208"/>
+      <c r="F18" s="208"/>
+      <c r="G18" s="208"/>
+      <c r="H18" s="208"/>
+      <c r="I18" s="208"/>
+      <c r="J18" s="208"/>
+      <c r="K18" s="279"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="278"/>
+      <c r="B19" s="290" t="s">
+        <v>279</v>
+      </c>
+      <c r="C19" s="207" t="s">
+        <v>280</v>
+      </c>
+      <c r="D19" s="207"/>
+      <c r="E19" s="207"/>
+      <c r="F19" s="207"/>
+      <c r="G19" s="207"/>
+      <c r="H19" s="207"/>
+      <c r="I19" s="207"/>
+      <c r="J19" s="207"/>
+      <c r="K19" s="280"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="278"/>
+      <c r="B20" s="291" t="s">
         <v>281</v>
       </c>
-      <c r="C17" s="250" t="s">
+      <c r="C20" s="209" t="s">
         <v>282</v>
       </c>
-      <c r="D17" s="250"/>
-      <c r="E17" s="250"/>
-      <c r="F17" s="250"/>
-      <c r="G17" s="250"/>
-      <c r="H17" s="250"/>
-      <c r="I17" s="250"/>
-      <c r="J17" s="250"/>
-      <c r="K17" s="250"/>
-    </row>
-    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="256"/>
-      <c r="B18" s="255" t="s">
+      <c r="D20" s="209"/>
+      <c r="E20" s="209"/>
+      <c r="F20" s="209"/>
+      <c r="G20" s="209"/>
+      <c r="H20" s="209"/>
+      <c r="I20" s="209"/>
+      <c r="J20" s="209"/>
+      <c r="K20" s="281"/>
+    </row>
+    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="282"/>
+      <c r="B21" s="292" t="s">
         <v>283</v>
       </c>
-      <c r="C18" s="252" t="s">
+      <c r="C21" s="283" t="s">
         <v>284</v>
       </c>
-      <c r="D18" s="252"/>
-      <c r="E18" s="252"/>
-      <c r="F18" s="252"/>
-      <c r="G18" s="252"/>
-      <c r="H18" s="252"/>
-      <c r="I18" s="252"/>
-      <c r="J18" s="252"/>
-      <c r="K18" s="252"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="256"/>
-      <c r="B19" s="254" t="s">
-        <v>285</v>
-      </c>
-      <c r="C19" s="250" t="s">
-        <v>286</v>
-      </c>
-      <c r="D19" s="250"/>
-      <c r="E19" s="250"/>
-      <c r="F19" s="250"/>
-      <c r="G19" s="250"/>
-      <c r="H19" s="250"/>
-      <c r="I19" s="250"/>
-      <c r="J19" s="250"/>
-      <c r="K19" s="250"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="256"/>
-      <c r="B20" s="253" t="s">
-        <v>287</v>
-      </c>
-      <c r="C20" s="251" t="s">
-        <v>288</v>
-      </c>
-      <c r="D20" s="251"/>
-      <c r="E20" s="251"/>
-      <c r="F20" s="251"/>
-      <c r="G20" s="251"/>
-      <c r="H20" s="251"/>
-      <c r="I20" s="251"/>
-      <c r="J20" s="251"/>
-      <c r="K20" s="251"/>
-    </row>
-    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="256"/>
-      <c r="B21" s="254" t="s">
-        <v>289</v>
-      </c>
-      <c r="C21" s="250" t="s">
-        <v>290</v>
-      </c>
-      <c r="D21" s="250"/>
-      <c r="E21" s="250"/>
-      <c r="F21" s="250"/>
-      <c r="G21" s="250"/>
-      <c r="H21" s="250"/>
-      <c r="I21" s="250"/>
-      <c r="J21" s="250"/>
-      <c r="K21" s="250"/>
+      <c r="D21" s="283"/>
+      <c r="E21" s="283"/>
+      <c r="F21" s="283"/>
+      <c r="G21" s="283"/>
+      <c r="H21" s="283"/>
+      <c r="I21" s="283"/>
+      <c r="J21" s="283"/>
+      <c r="K21" s="284"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C17:K17"/>
-    <mergeCell ref="C18:K18"/>
-    <mergeCell ref="C19:K19"/>
-    <mergeCell ref="C20:K20"/>
-    <mergeCell ref="C21:K21"/>
     <mergeCell ref="A17:A21"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="E2:F2"/>
@@ -4181,6 +4808,11 @@
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="I9:K9"/>
+    <mergeCell ref="C17:K17"/>
+    <mergeCell ref="C18:K18"/>
+    <mergeCell ref="C19:K19"/>
+    <mergeCell ref="C20:K20"/>
+    <mergeCell ref="C21:K21"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4191,7 +4823,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D6A4FC1-4453-4F66-8A6E-DB11164B3A80}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F2" sqref="F2:H10"/>
     </sheetView>
   </sheetViews>
@@ -4206,16 +4838,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="221" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="F1" s="60" t="s">
+      <c r="C1" s="221"/>
+      <c r="D1" s="221"/>
+      <c r="F1" s="221" t="s">
         <v>104</v>
       </c>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
+      <c r="G1" s="221"/>
+      <c r="H1" s="221"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="49" t="s">
@@ -4224,13 +4856,13 @@
       <c r="D2" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="F2" s="209" t="s">
+      <c r="F2" s="148" t="s">
         <v>101</v>
       </c>
-      <c r="G2" s="276" t="s">
+      <c r="G2" s="191" t="s">
         <v>102</v>
       </c>
-      <c r="H2" s="276" t="s">
+      <c r="H2" s="191" t="s">
         <v>100</v>
       </c>
     </row>
@@ -4238,19 +4870,19 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="257" t="s">
+      <c r="B3" s="177" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="259" t="s">
+      <c r="D3" s="179" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="265" t="s">
+      <c r="F3" s="230" t="s">
         <v>94</v>
       </c>
-      <c r="G3" s="273" t="s">
+      <c r="G3" s="232" t="s">
         <v>93</v>
       </c>
-      <c r="H3" s="267" t="s">
+      <c r="H3" s="185" t="s">
         <v>59</v>
       </c>
     </row>
@@ -4258,15 +4890,15 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="258" t="s">
+      <c r="B4" s="178" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="262" t="s">
+      <c r="D4" s="182" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="265"/>
-      <c r="G4" s="274"/>
-      <c r="H4" s="268" t="s">
+      <c r="F4" s="230"/>
+      <c r="G4" s="233"/>
+      <c r="H4" s="186" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4274,15 +4906,15 @@
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="259" t="s">
+      <c r="B5" s="179" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="257" t="s">
+      <c r="D5" s="177" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="265"/>
-      <c r="G5" s="274"/>
-      <c r="H5" s="269" t="s">
+      <c r="F5" s="230"/>
+      <c r="G5" s="233"/>
+      <c r="H5" s="187" t="s">
         <v>61</v>
       </c>
     </row>
@@ -4290,15 +4922,15 @@
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="260" t="s">
+      <c r="B6" s="180" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="260" t="s">
+      <c r="D6" s="180" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="265"/>
-      <c r="G6" s="274"/>
-      <c r="H6" s="277" t="s">
+      <c r="F6" s="230"/>
+      <c r="G6" s="233"/>
+      <c r="H6" s="192" t="s">
         <v>62</v>
       </c>
     </row>
@@ -4306,15 +4938,15 @@
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="261" t="s">
+      <c r="B7" s="181" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="261" t="s">
+      <c r="D7" s="181" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="265"/>
-      <c r="G7" s="274"/>
-      <c r="H7" s="276" t="s">
+      <c r="F7" s="230"/>
+      <c r="G7" s="233"/>
+      <c r="H7" s="191" t="s">
         <v>99</v>
       </c>
     </row>
@@ -4322,15 +4954,15 @@
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="262" t="s">
+      <c r="B8" s="182" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="258" t="s">
+      <c r="D8" s="178" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="265"/>
-      <c r="G8" s="274"/>
-      <c r="H8" s="270" t="s">
+      <c r="F8" s="230"/>
+      <c r="G8" s="233"/>
+      <c r="H8" s="188" t="s">
         <v>103</v>
       </c>
     </row>
@@ -4338,15 +4970,15 @@
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="263" t="s">
+      <c r="B9" s="183" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="263" t="s">
+      <c r="D9" s="183" t="s">
         <v>55</v>
       </c>
-      <c r="F9" s="265"/>
-      <c r="G9" s="274"/>
-      <c r="H9" s="271" t="s">
+      <c r="F9" s="230"/>
+      <c r="G9" s="233"/>
+      <c r="H9" s="189" t="s">
         <v>97</v>
       </c>
     </row>
@@ -4354,83 +4986,83 @@
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="264" t="s">
+      <c r="B10" s="184" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="264" t="s">
+      <c r="D10" s="184" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="266"/>
-      <c r="G10" s="275"/>
-      <c r="H10" s="272" t="s">
+      <c r="F10" s="231"/>
+      <c r="G10" s="234"/>
+      <c r="H10" s="190" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="289" t="s">
+      <c r="B12" s="225" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="290"/>
-      <c r="D12" s="290"/>
-      <c r="E12" s="290"/>
-      <c r="F12" s="291"/>
-      <c r="G12" s="281" t="s">
+      <c r="C12" s="226"/>
+      <c r="D12" s="226"/>
+      <c r="E12" s="226"/>
+      <c r="F12" s="227"/>
+      <c r="G12" s="193" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="41" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="282" t="s">
+      <c r="B13" s="194" t="s">
         <v>90</v>
       </c>
-      <c r="C13" s="63" t="s">
+      <c r="C13" s="235" t="s">
         <v>89</v>
       </c>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="283"/>
-      <c r="G13" s="278" t="s">
-        <v>225</v>
+      <c r="D13" s="235"/>
+      <c r="E13" s="235"/>
+      <c r="F13" s="236"/>
+      <c r="G13" s="222" t="s">
+        <v>219</v>
       </c>
       <c r="I13" s="42"/>
     </row>
     <row r="14" spans="1:9" s="41" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="284" t="s">
+      <c r="B14" s="195" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="62" t="s">
+      <c r="C14" s="237" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="285"/>
-      <c r="G14" s="279"/>
+      <c r="D14" s="237"/>
+      <c r="E14" s="237"/>
+      <c r="F14" s="238"/>
+      <c r="G14" s="223"/>
       <c r="I14" s="42"/>
     </row>
     <row r="15" spans="1:9" s="41" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="282" t="s">
+      <c r="B15" s="194" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="63" t="s">
+      <c r="C15" s="235" t="s">
         <v>87</v>
       </c>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="283"/>
-      <c r="G15" s="279"/>
+      <c r="D15" s="235"/>
+      <c r="E15" s="235"/>
+      <c r="F15" s="236"/>
+      <c r="G15" s="223"/>
       <c r="I15" s="42"/>
     </row>
     <row r="16" spans="1:9" s="41" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="286" t="s">
+      <c r="B16" s="196" t="s">
         <v>91</v>
       </c>
-      <c r="C16" s="287" t="s">
+      <c r="C16" s="228" t="s">
         <v>88</v>
       </c>
-      <c r="D16" s="287"/>
-      <c r="E16" s="287"/>
-      <c r="F16" s="288"/>
-      <c r="G16" s="280"/>
+      <c r="D16" s="228"/>
+      <c r="E16" s="228"/>
+      <c r="F16" s="229"/>
+      <c r="G16" s="224"/>
       <c r="I16" s="42"/>
     </row>
     <row r="17" spans="7:7" x14ac:dyDescent="0.25">
@@ -4467,9 +5099,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC782B4E-6927-4C9C-A90D-9AC5B53DF039}">
   <dimension ref="A1:AA24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N2" sqref="N1:N1048576"/>
+      <selection pane="topRight" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4478,7 +5110,7 @@
     <col min="2" max="4" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="2.85546875" customWidth="1"/>
     <col min="6" max="13" width="4.28515625" customWidth="1"/>
-    <col min="14" max="14" width="4.42578125" style="44" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.5703125" style="44" customWidth="1"/>
     <col min="15" max="15" width="3" style="44" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="3.42578125" style="45" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="3.28515625" customWidth="1"/>
@@ -4486,139 +5118,139 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="139" t="s">
-        <v>226</v>
-      </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="F1" s="139" t="s">
-        <v>228</v>
-      </c>
-      <c r="G1" s="140"/>
-      <c r="H1" s="140"/>
-      <c r="I1" s="140"/>
-      <c r="J1" s="140"/>
-      <c r="K1" s="140"/>
-      <c r="L1" s="140"/>
-      <c r="M1" s="140"/>
-      <c r="N1" s="140"/>
-      <c r="O1" s="140"/>
-      <c r="P1" s="141"/>
-      <c r="R1" s="139" t="s">
-        <v>229</v>
-      </c>
-      <c r="S1" s="140"/>
-      <c r="T1" s="140"/>
-      <c r="U1" s="140"/>
-      <c r="V1" s="140"/>
-      <c r="W1" s="140"/>
-      <c r="X1" s="140"/>
-      <c r="Y1" s="140"/>
-      <c r="Z1" s="140"/>
-      <c r="AA1" s="141"/>
+      <c r="A1" s="239" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1" s="240"/>
+      <c r="C1" s="240"/>
+      <c r="D1" s="240"/>
+      <c r="F1" s="239" t="s">
+        <v>222</v>
+      </c>
+      <c r="G1" s="240"/>
+      <c r="H1" s="240"/>
+      <c r="I1" s="240"/>
+      <c r="J1" s="240"/>
+      <c r="K1" s="240"/>
+      <c r="L1" s="240"/>
+      <c r="M1" s="240"/>
+      <c r="N1" s="240"/>
+      <c r="O1" s="240"/>
+      <c r="P1" s="241"/>
+      <c r="R1" s="239" t="s">
+        <v>223</v>
+      </c>
+      <c r="S1" s="240"/>
+      <c r="T1" s="240"/>
+      <c r="U1" s="240"/>
+      <c r="V1" s="240"/>
+      <c r="W1" s="240"/>
+      <c r="X1" s="240"/>
+      <c r="Y1" s="240"/>
+      <c r="Z1" s="240"/>
+      <c r="AA1" s="241"/>
     </row>
     <row r="2" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="246" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="F2" s="112" t="s">
+      <c r="B2" s="245"/>
+      <c r="C2" s="245"/>
+      <c r="D2" s="245"/>
+      <c r="F2" s="242" t="s">
         <v>130</v>
       </c>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
-      <c r="L2" s="113"/>
-      <c r="M2" s="114"/>
-      <c r="N2" s="133" t="s">
+      <c r="G2" s="244"/>
+      <c r="H2" s="244"/>
+      <c r="I2" s="244"/>
+      <c r="J2" s="244"/>
+      <c r="K2" s="244"/>
+      <c r="L2" s="244"/>
+      <c r="M2" s="243"/>
+      <c r="N2" s="104" t="s">
         <v>106</v>
       </c>
-      <c r="O2" s="112" t="s">
+      <c r="O2" s="242" t="s">
         <v>107</v>
       </c>
-      <c r="P2" s="114"/>
-      <c r="R2" s="112" t="s">
+      <c r="P2" s="243"/>
+      <c r="R2" s="242" t="s">
         <v>130</v>
       </c>
-      <c r="S2" s="113"/>
-      <c r="T2" s="113"/>
-      <c r="U2" s="113"/>
-      <c r="V2" s="113"/>
-      <c r="W2" s="113"/>
-      <c r="X2" s="113"/>
-      <c r="Y2" s="114"/>
-      <c r="Z2" s="112" t="s">
+      <c r="S2" s="244"/>
+      <c r="T2" s="244"/>
+      <c r="U2" s="244"/>
+      <c r="V2" s="244"/>
+      <c r="W2" s="244"/>
+      <c r="X2" s="244"/>
+      <c r="Y2" s="243"/>
+      <c r="Z2" s="242" t="s">
         <v>107</v>
       </c>
-      <c r="AA2" s="114"/>
+      <c r="AA2" s="243"/>
     </row>
     <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="51" t="s">
         <v>33</v>
       </c>
       <c r="B3" s="48" t="s">
         <v>117</v>
       </c>
-      <c r="C3" s="77" t="s">
+      <c r="C3" s="51" t="s">
         <v>118</v>
       </c>
       <c r="D3" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="94">
+      <c r="F3" s="68">
         <v>1</v>
       </c>
-      <c r="G3" s="95">
-        <v>0</v>
-      </c>
-      <c r="H3" s="82">
+      <c r="G3" s="69">
+        <v>0</v>
+      </c>
+      <c r="H3" s="56">
         <v>1</v>
       </c>
-      <c r="I3" s="96">
-        <v>0</v>
-      </c>
-      <c r="J3" s="94">
+      <c r="I3" s="70">
+        <v>0</v>
+      </c>
+      <c r="J3" s="68">
         <v>1</v>
       </c>
-      <c r="K3" s="95">
+      <c r="K3" s="69">
         <v>1</v>
       </c>
-      <c r="L3" s="82">
-        <v>0</v>
-      </c>
-      <c r="M3" s="96">
-        <v>0</v>
-      </c>
-      <c r="N3" s="134">
+      <c r="L3" s="56">
+        <v>0</v>
+      </c>
+      <c r="M3" s="70">
+        <v>0</v>
+      </c>
+      <c r="N3" s="293">
         <v>172</v>
       </c>
-      <c r="O3" s="104" t="s">
+      <c r="O3" s="78" t="s">
         <v>116</v>
       </c>
-      <c r="P3" s="105" t="s">
-        <v>164</v>
-      </c>
-      <c r="R3" s="116">
+      <c r="P3" s="79" t="s">
+        <v>160</v>
+      </c>
+      <c r="R3" s="87">
         <v>172</v>
       </c>
-      <c r="S3" s="83">
+      <c r="S3" s="57">
         <v>2</v>
       </c>
-      <c r="T3" s="84"/>
-      <c r="U3" s="83"/>
-      <c r="V3" s="84"/>
-      <c r="W3" s="83"/>
-      <c r="X3" s="84"/>
-      <c r="Y3" s="123"/>
-      <c r="Z3" s="116">
+      <c r="T3" s="58"/>
+      <c r="U3" s="57"/>
+      <c r="V3" s="58"/>
+      <c r="W3" s="57"/>
+      <c r="X3" s="58"/>
+      <c r="Y3" s="94"/>
+      <c r="Z3" s="87">
         <v>172</v>
       </c>
-      <c r="AA3" s="117">
+      <c r="AA3" s="88">
         <v>16</v>
       </c>
     </row>
@@ -4626,133 +5258,133 @@
       <c r="A4" s="48">
         <v>1000</v>
       </c>
-      <c r="B4" s="77">
+      <c r="B4" s="51">
         <v>100</v>
       </c>
       <c r="C4" s="48">
         <v>10</v>
       </c>
-      <c r="D4" s="77">
+      <c r="D4" s="51">
         <v>1</v>
       </c>
-      <c r="F4" s="97">
+      <c r="F4" s="71">
         <v>1</v>
       </c>
-      <c r="G4" s="81">
+      <c r="G4" s="55">
         <v>1</v>
       </c>
-      <c r="H4" s="80">
-        <v>0</v>
-      </c>
-      <c r="I4" s="78">
-        <v>0</v>
-      </c>
-      <c r="J4" s="97">
-        <v>0</v>
-      </c>
-      <c r="K4" s="81">
-        <v>0</v>
-      </c>
-      <c r="L4" s="80">
-        <v>0</v>
-      </c>
-      <c r="M4" s="78">
-        <v>0</v>
-      </c>
-      <c r="N4" s="135">
+      <c r="H4" s="54">
+        <v>0</v>
+      </c>
+      <c r="I4" s="52">
+        <v>0</v>
+      </c>
+      <c r="J4" s="71">
+        <v>0</v>
+      </c>
+      <c r="K4" s="55">
+        <v>0</v>
+      </c>
+      <c r="L4" s="54">
+        <v>0</v>
+      </c>
+      <c r="M4" s="52">
+        <v>0</v>
+      </c>
+      <c r="N4" s="294">
         <v>192</v>
       </c>
-      <c r="O4" s="106" t="s">
+      <c r="O4" s="80" t="s">
         <v>116</v>
       </c>
-      <c r="P4" s="107" t="s">
-        <v>162</v>
-      </c>
-      <c r="R4" s="124">
-        <v>0</v>
-      </c>
-      <c r="S4" s="85">
+      <c r="P4" s="81" t="s">
+        <v>158</v>
+      </c>
+      <c r="R4" s="95">
+        <v>0</v>
+      </c>
+      <c r="S4" s="59">
         <v>86</v>
       </c>
-      <c r="T4" s="83">
+      <c r="T4" s="57">
         <v>2</v>
       </c>
-      <c r="U4" s="84"/>
-      <c r="V4" s="83"/>
-      <c r="W4" s="84"/>
-      <c r="X4" s="83"/>
-      <c r="Y4" s="125"/>
-      <c r="Z4" s="79">
+      <c r="U4" s="58"/>
+      <c r="V4" s="57"/>
+      <c r="W4" s="58"/>
+      <c r="X4" s="57"/>
+      <c r="Y4" s="96"/>
+      <c r="Z4" s="53">
         <v>12</v>
       </c>
-      <c r="AA4" s="118">
+      <c r="AA4" s="89">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="77">
+      <c r="A5" s="51">
         <v>3</v>
       </c>
       <c r="B5" s="48">
         <v>1</v>
       </c>
-      <c r="C5" s="77">
+      <c r="C5" s="51">
         <v>8</v>
       </c>
       <c r="D5" s="48">
         <v>2</v>
       </c>
-      <c r="F5" s="98">
-        <v>0</v>
-      </c>
-      <c r="G5" s="80">
-        <v>0</v>
-      </c>
-      <c r="H5" s="81">
-        <v>0</v>
-      </c>
-      <c r="I5" s="99">
+      <c r="F5" s="72">
+        <v>0</v>
+      </c>
+      <c r="G5" s="54">
+        <v>0</v>
+      </c>
+      <c r="H5" s="55">
+        <v>0</v>
+      </c>
+      <c r="I5" s="73">
         <v>1</v>
       </c>
-      <c r="J5" s="98">
-        <v>0</v>
-      </c>
-      <c r="K5" s="80">
-        <v>0</v>
-      </c>
-      <c r="L5" s="81">
-        <v>0</v>
-      </c>
-      <c r="M5" s="99">
-        <v>0</v>
-      </c>
-      <c r="N5" s="136">
+      <c r="J5" s="72">
+        <v>0</v>
+      </c>
+      <c r="K5" s="54">
+        <v>0</v>
+      </c>
+      <c r="L5" s="55">
+        <v>0</v>
+      </c>
+      <c r="M5" s="73">
+        <v>0</v>
+      </c>
+      <c r="N5" s="295">
         <v>16</v>
       </c>
-      <c r="O5" s="108" t="s">
+      <c r="O5" s="82" t="s">
         <v>116</v>
       </c>
-      <c r="P5" s="109">
+      <c r="P5" s="83">
         <v>10</v>
       </c>
-      <c r="R5" s="86"/>
-      <c r="S5" s="83">
-        <v>0</v>
-      </c>
-      <c r="T5" s="85">
+      <c r="R5" s="60"/>
+      <c r="S5" s="57">
+        <v>0</v>
+      </c>
+      <c r="T5" s="59">
         <v>43</v>
       </c>
-      <c r="U5" s="87">
+      <c r="U5" s="61">
         <v>2</v>
       </c>
-      <c r="V5" s="84"/>
-      <c r="W5" s="83"/>
-      <c r="X5" s="84"/>
-      <c r="Y5" s="123"/>
-      <c r="Z5" s="119" t="s">
+      <c r="V5" s="58"/>
+      <c r="W5" s="57"/>
+      <c r="X5" s="58"/>
+      <c r="Y5" s="94"/>
+      <c r="Z5" s="90" t="s">
         <v>111</v>
       </c>
-      <c r="AA5" s="120" t="s">
+      <c r="AA5" s="91" t="s">
         <v>108</v>
       </c>
     </row>
@@ -4761,185 +5393,185 @@
       <c r="B6" s="46"/>
       <c r="C6" s="46"/>
       <c r="D6" s="46"/>
-      <c r="F6" s="97">
+      <c r="F6" s="71">
         <v>1</v>
       </c>
-      <c r="G6" s="81">
-        <v>0</v>
-      </c>
-      <c r="H6" s="80">
+      <c r="G6" s="55">
+        <v>0</v>
+      </c>
+      <c r="H6" s="54">
         <v>1</v>
       </c>
-      <c r="I6" s="78">
-        <v>0</v>
-      </c>
-      <c r="J6" s="97">
+      <c r="I6" s="52">
+        <v>0</v>
+      </c>
+      <c r="J6" s="71">
         <v>1</v>
       </c>
-      <c r="K6" s="81">
-        <v>0</v>
-      </c>
-      <c r="L6" s="80">
-        <v>0</v>
-      </c>
-      <c r="M6" s="78">
-        <v>0</v>
-      </c>
-      <c r="N6" s="135">
+      <c r="K6" s="55">
+        <v>0</v>
+      </c>
+      <c r="L6" s="54">
+        <v>0</v>
+      </c>
+      <c r="M6" s="52">
+        <v>0</v>
+      </c>
+      <c r="N6" s="294">
         <v>168</v>
       </c>
-      <c r="O6" s="106" t="s">
+      <c r="O6" s="80" t="s">
         <v>116</v>
       </c>
-      <c r="P6" s="107" t="s">
-        <v>163</v>
-      </c>
-      <c r="R6" s="126"/>
-      <c r="S6" s="89"/>
-      <c r="T6" s="83">
+      <c r="P6" s="81" t="s">
+        <v>159</v>
+      </c>
+      <c r="R6" s="97"/>
+      <c r="S6" s="63"/>
+      <c r="T6" s="57">
         <v>1</v>
       </c>
-      <c r="U6" s="90">
+      <c r="U6" s="64">
         <v>21</v>
       </c>
-      <c r="V6" s="87">
+      <c r="V6" s="61">
         <v>2</v>
       </c>
-      <c r="W6" s="84"/>
-      <c r="X6" s="83"/>
-      <c r="Y6" s="125"/>
-      <c r="Z6" s="116">
+      <c r="W6" s="58"/>
+      <c r="X6" s="57"/>
+      <c r="Y6" s="96"/>
+      <c r="Z6" s="87">
         <v>64</v>
       </c>
-      <c r="AA6" s="121">
+      <c r="AA6" s="92">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="245" t="s">
         <v>120</v>
       </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="F7" s="98">
+      <c r="B7" s="245"/>
+      <c r="C7" s="245"/>
+      <c r="D7" s="245"/>
+      <c r="F7" s="72">
         <v>1</v>
       </c>
-      <c r="G7" s="80">
+      <c r="G7" s="54">
         <v>1</v>
       </c>
-      <c r="H7" s="81">
-        <v>0</v>
-      </c>
-      <c r="I7" s="99">
+      <c r="H7" s="55">
+        <v>0</v>
+      </c>
+      <c r="I7" s="73">
         <v>1</v>
       </c>
-      <c r="J7" s="98">
-        <v>0</v>
-      </c>
-      <c r="K7" s="80">
-        <v>0</v>
-      </c>
-      <c r="L7" s="81">
-        <v>0</v>
-      </c>
-      <c r="M7" s="99">
-        <v>0</v>
-      </c>
-      <c r="N7" s="136">
+      <c r="J7" s="72">
+        <v>0</v>
+      </c>
+      <c r="K7" s="54">
+        <v>0</v>
+      </c>
+      <c r="L7" s="55">
+        <v>0</v>
+      </c>
+      <c r="M7" s="73">
+        <v>0</v>
+      </c>
+      <c r="N7" s="295">
         <v>208</v>
       </c>
-      <c r="O7" s="108" t="s">
+      <c r="O7" s="82" t="s">
         <v>116</v>
       </c>
-      <c r="P7" s="109" t="s">
-        <v>165</v>
-      </c>
-      <c r="R7" s="127"/>
-      <c r="S7" s="88"/>
-      <c r="T7" s="89"/>
-      <c r="U7" s="83">
+      <c r="P7" s="83" t="s">
+        <v>161</v>
+      </c>
+      <c r="R7" s="98"/>
+      <c r="S7" s="62"/>
+      <c r="T7" s="63"/>
+      <c r="U7" s="57">
         <v>1</v>
       </c>
-      <c r="V7" s="85">
+      <c r="V7" s="59">
         <v>10</v>
       </c>
-      <c r="W7" s="83">
+      <c r="W7" s="57">
         <v>2</v>
       </c>
-      <c r="X7" s="84"/>
-      <c r="Y7" s="123"/>
-      <c r="Z7" s="119">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="122">
+      <c r="X7" s="58"/>
+      <c r="Y7" s="94"/>
+      <c r="Z7" s="90">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="93">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="77" t="s">
+      <c r="A8" s="51" t="s">
         <v>124</v>
       </c>
       <c r="B8" s="48" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="77" t="s">
+      <c r="C8" s="51" t="s">
         <v>122</v>
       </c>
       <c r="D8" s="48" t="s">
         <v>121</v>
       </c>
-      <c r="F8" s="97">
-        <v>0</v>
-      </c>
-      <c r="G8" s="81">
-        <v>0</v>
-      </c>
-      <c r="H8" s="80">
+      <c r="F8" s="71">
+        <v>0</v>
+      </c>
+      <c r="G8" s="55">
+        <v>0</v>
+      </c>
+      <c r="H8" s="54">
         <v>1</v>
       </c>
-      <c r="I8" s="78">
+      <c r="I8" s="52">
         <v>1</v>
       </c>
-      <c r="J8" s="97">
+      <c r="J8" s="71">
         <v>1</v>
       </c>
-      <c r="K8" s="81">
+      <c r="K8" s="55">
         <v>1</v>
       </c>
-      <c r="L8" s="80">
+      <c r="L8" s="54">
         <v>1</v>
       </c>
-      <c r="M8" s="78">
+      <c r="M8" s="52">
         <v>1</v>
       </c>
-      <c r="N8" s="135">
+      <c r="N8" s="294">
         <v>63</v>
       </c>
-      <c r="O8" s="106" t="s">
+      <c r="O8" s="80" t="s">
         <v>116</v>
       </c>
-      <c r="P8" s="107" t="s">
-        <v>166</v>
-      </c>
-      <c r="R8" s="126"/>
-      <c r="S8" s="91"/>
-      <c r="T8" s="88"/>
-      <c r="U8" s="89"/>
-      <c r="V8" s="83">
-        <v>0</v>
-      </c>
-      <c r="W8" s="85">
+      <c r="P8" s="81" t="s">
+        <v>162</v>
+      </c>
+      <c r="R8" s="97"/>
+      <c r="S8" s="65"/>
+      <c r="T8" s="62"/>
+      <c r="U8" s="63"/>
+      <c r="V8" s="57">
+        <v>0</v>
+      </c>
+      <c r="W8" s="59">
         <v>5</v>
       </c>
-      <c r="X8" s="83">
+      <c r="X8" s="57">
         <v>2</v>
       </c>
-      <c r="Y8" s="125"/>
-      <c r="Z8" s="116">
+      <c r="Y8" s="96"/>
+      <c r="Z8" s="87">
         <v>204</v>
       </c>
-      <c r="AA8" s="117">
+      <c r="AA8" s="88">
         <v>16</v>
       </c>
     </row>
@@ -4947,131 +5579,131 @@
       <c r="A9" s="48">
         <v>8</v>
       </c>
-      <c r="B9" s="77">
+      <c r="B9" s="51">
         <v>4</v>
       </c>
       <c r="C9" s="48">
         <v>2</v>
       </c>
-      <c r="D9" s="77">
+      <c r="D9" s="51">
         <v>1</v>
       </c>
-      <c r="F9" s="98">
+      <c r="F9" s="72">
         <v>1</v>
       </c>
-      <c r="G9" s="80">
+      <c r="G9" s="54">
         <v>1</v>
       </c>
-      <c r="H9" s="81">
+      <c r="H9" s="55">
         <v>1</v>
       </c>
-      <c r="I9" s="99">
+      <c r="I9" s="73">
         <v>1</v>
       </c>
-      <c r="J9" s="98">
+      <c r="J9" s="72">
         <v>1</v>
       </c>
-      <c r="K9" s="80">
-        <v>0</v>
-      </c>
-      <c r="L9" s="81">
-        <v>0</v>
-      </c>
-      <c r="M9" s="99">
-        <v>0</v>
-      </c>
-      <c r="N9" s="136">
+      <c r="K9" s="54">
+        <v>0</v>
+      </c>
+      <c r="L9" s="55">
+        <v>0</v>
+      </c>
+      <c r="M9" s="73">
+        <v>0</v>
+      </c>
+      <c r="N9" s="295">
         <v>248</v>
       </c>
-      <c r="O9" s="108" t="s">
+      <c r="O9" s="82" t="s">
         <v>116</v>
       </c>
-      <c r="P9" s="109" t="s">
-        <v>227</v>
-      </c>
-      <c r="R9" s="127"/>
-      <c r="S9" s="88"/>
-      <c r="T9" s="91"/>
-      <c r="U9" s="88"/>
-      <c r="V9" s="89"/>
-      <c r="W9" s="83">
+      <c r="P9" s="83" t="s">
+        <v>221</v>
+      </c>
+      <c r="R9" s="98"/>
+      <c r="S9" s="62"/>
+      <c r="T9" s="65"/>
+      <c r="U9" s="62"/>
+      <c r="V9" s="63"/>
+      <c r="W9" s="57">
         <v>1</v>
       </c>
-      <c r="X9" s="92">
+      <c r="X9" s="66">
         <v>2</v>
       </c>
-      <c r="Y9" s="115">
+      <c r="Y9" s="86">
         <v>2</v>
       </c>
-      <c r="Z9" s="79">
+      <c r="Z9" s="53">
         <v>12</v>
       </c>
-      <c r="AA9" s="118">
+      <c r="AA9" s="89">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="77">
+      <c r="A10" s="51">
         <v>1</v>
       </c>
       <c r="B10" s="48">
         <v>1</v>
       </c>
-      <c r="C10" s="77">
+      <c r="C10" s="51">
         <v>0</v>
       </c>
       <c r="D10" s="48">
         <v>0</v>
       </c>
-      <c r="F10" s="97">
+      <c r="F10" s="71">
         <v>1</v>
       </c>
-      <c r="G10" s="81">
+      <c r="G10" s="55">
         <v>1</v>
       </c>
-      <c r="H10" s="80">
-        <v>0</v>
-      </c>
-      <c r="I10" s="78">
-        <v>0</v>
-      </c>
-      <c r="J10" s="97">
+      <c r="H10" s="54">
+        <v>0</v>
+      </c>
+      <c r="I10" s="52">
+        <v>0</v>
+      </c>
+      <c r="J10" s="71">
         <v>1</v>
       </c>
-      <c r="K10" s="81">
+      <c r="K10" s="55">
         <v>1</v>
       </c>
-      <c r="L10" s="80">
-        <v>0</v>
-      </c>
-      <c r="M10" s="78">
-        <v>0</v>
-      </c>
-      <c r="N10" s="135">
+      <c r="L10" s="54">
+        <v>0</v>
+      </c>
+      <c r="M10" s="52">
+        <v>0</v>
+      </c>
+      <c r="N10" s="294">
         <v>204</v>
       </c>
-      <c r="O10" s="106" t="s">
+      <c r="O10" s="80" t="s">
         <v>116</v>
       </c>
-      <c r="P10" s="107" t="s">
+      <c r="P10" s="81" t="s">
         <v>110</v>
       </c>
-      <c r="R10" s="128"/>
-      <c r="S10" s="129"/>
-      <c r="T10" s="130"/>
-      <c r="U10" s="129"/>
-      <c r="V10" s="130"/>
-      <c r="W10" s="131"/>
-      <c r="X10" s="93">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="132">
+      <c r="R10" s="99"/>
+      <c r="S10" s="100"/>
+      <c r="T10" s="101"/>
+      <c r="U10" s="100"/>
+      <c r="V10" s="101"/>
+      <c r="W10" s="102"/>
+      <c r="X10" s="67">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="103">
         <v>1</v>
       </c>
-      <c r="Z10" s="119" t="s">
+      <c r="Z10" s="90" t="s">
         <v>111</v>
       </c>
-      <c r="AA10" s="120" t="s">
+      <c r="AA10" s="91" t="s">
         <v>111</v>
       </c>
     </row>
@@ -5080,125 +5712,125 @@
       <c r="B11" s="46"/>
       <c r="C11" s="46"/>
       <c r="D11" s="46"/>
-      <c r="F11" s="98">
+      <c r="F11" s="72">
         <v>1</v>
       </c>
-      <c r="G11" s="80">
-        <v>0</v>
-      </c>
-      <c r="H11" s="81">
-        <v>0</v>
-      </c>
-      <c r="I11" s="99">
+      <c r="G11" s="54">
+        <v>0</v>
+      </c>
+      <c r="H11" s="55">
+        <v>0</v>
+      </c>
+      <c r="I11" s="73">
         <v>1</v>
       </c>
-      <c r="J11" s="98">
+      <c r="J11" s="72">
         <v>1</v>
       </c>
-      <c r="K11" s="80">
+      <c r="K11" s="54">
         <v>1</v>
       </c>
-      <c r="L11" s="81">
+      <c r="L11" s="55">
         <v>1</v>
       </c>
-      <c r="M11" s="99">
+      <c r="M11" s="73">
         <v>1</v>
       </c>
-      <c r="N11" s="136">
+      <c r="N11" s="295">
         <v>159</v>
       </c>
-      <c r="O11" s="108" t="s">
+      <c r="O11" s="82" t="s">
         <v>116</v>
       </c>
-      <c r="P11" s="109" t="s">
-        <v>167</v>
+      <c r="P11" s="83" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="61" t="s">
+      <c r="A12" s="245" t="s">
         <v>125</v>
       </c>
-      <c r="B12" s="61"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="F12" s="97">
-        <v>0</v>
-      </c>
-      <c r="G12" s="81">
-        <v>0</v>
-      </c>
-      <c r="H12" s="80">
-        <v>0</v>
-      </c>
-      <c r="I12" s="78">
+      <c r="B12" s="245"/>
+      <c r="C12" s="245"/>
+      <c r="D12" s="245"/>
+      <c r="F12" s="71">
+        <v>0</v>
+      </c>
+      <c r="G12" s="55">
+        <v>0</v>
+      </c>
+      <c r="H12" s="54">
+        <v>0</v>
+      </c>
+      <c r="I12" s="52">
         <v>1</v>
       </c>
-      <c r="J12" s="97">
+      <c r="J12" s="71">
         <v>1</v>
       </c>
-      <c r="K12" s="81">
-        <v>0</v>
-      </c>
-      <c r="L12" s="80">
-        <v>0</v>
-      </c>
-      <c r="M12" s="78">
+      <c r="K12" s="55">
+        <v>0</v>
+      </c>
+      <c r="L12" s="54">
+        <v>0</v>
+      </c>
+      <c r="M12" s="52">
         <v>1</v>
       </c>
-      <c r="N12" s="135">
+      <c r="N12" s="294">
         <v>25</v>
       </c>
-      <c r="O12" s="106" t="s">
+      <c r="O12" s="80" t="s">
         <v>116</v>
       </c>
-      <c r="P12" s="107">
+      <c r="P12" s="81">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="77" t="s">
+      <c r="A13" s="51" t="s">
         <v>129</v>
       </c>
       <c r="B13" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="C13" s="77" t="s">
+      <c r="C13" s="51" t="s">
         <v>127</v>
       </c>
       <c r="D13" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="F13" s="98">
-        <v>0</v>
-      </c>
-      <c r="G13" s="80">
-        <v>0</v>
-      </c>
-      <c r="H13" s="81">
+      <c r="F13" s="72">
+        <v>0</v>
+      </c>
+      <c r="G13" s="54">
+        <v>0</v>
+      </c>
+      <c r="H13" s="55">
         <v>1</v>
       </c>
-      <c r="I13" s="99">
-        <v>0</v>
-      </c>
-      <c r="J13" s="98">
-        <v>0</v>
-      </c>
-      <c r="K13" s="80">
-        <v>0</v>
-      </c>
-      <c r="L13" s="81">
-        <v>0</v>
-      </c>
-      <c r="M13" s="99">
-        <v>0</v>
-      </c>
-      <c r="N13" s="136">
+      <c r="I13" s="73">
+        <v>0</v>
+      </c>
+      <c r="J13" s="72">
+        <v>0</v>
+      </c>
+      <c r="K13" s="54">
+        <v>0</v>
+      </c>
+      <c r="L13" s="55">
+        <v>0</v>
+      </c>
+      <c r="M13" s="73">
+        <v>0</v>
+      </c>
+      <c r="N13" s="295">
         <v>32</v>
       </c>
-      <c r="O13" s="108" t="s">
+      <c r="O13" s="82" t="s">
         <v>116</v>
       </c>
-      <c r="P13" s="109">
+      <c r="P13" s="83">
         <v>20</v>
       </c>
     </row>
@@ -5207,122 +5839,122 @@
         <f>16^3</f>
         <v>4096</v>
       </c>
-      <c r="B14" s="77">
+      <c r="B14" s="51">
         <v>256</v>
       </c>
       <c r="C14" s="48">
         <v>16</v>
       </c>
-      <c r="D14" s="77">
+      <c r="D14" s="51">
         <v>1</v>
       </c>
-      <c r="F14" s="97">
-        <v>0</v>
-      </c>
-      <c r="G14" s="81">
+      <c r="F14" s="71">
+        <v>0</v>
+      </c>
+      <c r="G14" s="55">
         <v>1</v>
       </c>
-      <c r="H14" s="80">
-        <v>0</v>
-      </c>
-      <c r="I14" s="78">
-        <v>0</v>
-      </c>
-      <c r="J14" s="97">
-        <v>0</v>
-      </c>
-      <c r="K14" s="81">
-        <v>0</v>
-      </c>
-      <c r="L14" s="80">
-        <v>0</v>
-      </c>
-      <c r="M14" s="78">
-        <v>0</v>
-      </c>
-      <c r="N14" s="135">
+      <c r="H14" s="54">
+        <v>0</v>
+      </c>
+      <c r="I14" s="52">
+        <v>0</v>
+      </c>
+      <c r="J14" s="71">
+        <v>0</v>
+      </c>
+      <c r="K14" s="55">
+        <v>0</v>
+      </c>
+      <c r="L14" s="54">
+        <v>0</v>
+      </c>
+      <c r="M14" s="52">
+        <v>0</v>
+      </c>
+      <c r="N14" s="294">
         <v>64</v>
       </c>
-      <c r="O14" s="106" t="s">
+      <c r="O14" s="80" t="s">
         <v>116</v>
       </c>
-      <c r="P14" s="107">
+      <c r="P14" s="81">
         <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="77">
+      <c r="A15" s="51">
         <v>0</v>
       </c>
       <c r="B15" s="48">
         <v>0</v>
       </c>
-      <c r="C15" s="77" t="s">
+      <c r="C15" s="51" t="s">
         <v>114</v>
       </c>
       <c r="D15" s="48" t="s">
         <v>114</v>
       </c>
-      <c r="F15" s="100">
+      <c r="F15" s="74">
         <v>1</v>
       </c>
-      <c r="G15" s="101">
+      <c r="G15" s="75">
         <v>1</v>
       </c>
-      <c r="H15" s="102">
+      <c r="H15" s="76">
         <v>1</v>
       </c>
-      <c r="I15" s="103">
+      <c r="I15" s="77">
         <v>1</v>
       </c>
-      <c r="J15" s="100">
+      <c r="J15" s="74">
         <v>1</v>
       </c>
-      <c r="K15" s="101">
+      <c r="K15" s="75">
         <v>1</v>
       </c>
-      <c r="L15" s="102">
+      <c r="L15" s="76">
         <v>1</v>
       </c>
-      <c r="M15" s="103">
+      <c r="M15" s="77">
         <v>1</v>
       </c>
-      <c r="N15" s="137">
+      <c r="N15" s="296">
         <v>255</v>
       </c>
-      <c r="O15" s="110" t="s">
+      <c r="O15" s="84" t="s">
         <v>116</v>
       </c>
-      <c r="P15" s="111" t="s">
+      <c r="P15" s="85" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="17" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="Q17" s="76"/>
+      <c r="Q17" s="50"/>
     </row>
     <row r="19" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E19" s="46"/>
       <c r="Q19" s="46"/>
     </row>
     <row r="23" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="N23" s="138"/>
+      <c r="N23" s="105"/>
       <c r="Q23" s="46"/>
     </row>
     <row r="24" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="N24" s="138"/>
+      <c r="N24" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:M2"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:P1"/>
     <mergeCell ref="R1:AA1"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="R2:Y2"/>
     <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:M2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5331,13 +5963,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{736925F0-C296-4BA5-A90C-9FBAD4DAF0DB}">
-  <dimension ref="A1:Q12"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="F1:M1"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="5" ySplit="2" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5345,9 +5977,10 @@
     <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" customWidth="1"/>
     <col min="8" max="9" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
@@ -5355,362 +5988,824 @@
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="145" t="s">
-        <v>247</v>
-      </c>
-      <c r="B1" s="203" t="s">
-        <v>239</v>
-      </c>
-      <c r="C1" s="203"/>
-      <c r="D1" s="203"/>
-      <c r="E1" s="204"/>
-      <c r="F1" s="203" t="s">
-        <v>240</v>
-      </c>
-      <c r="G1" s="203"/>
-      <c r="H1" s="203"/>
-      <c r="I1" s="203"/>
-      <c r="J1" s="203"/>
-      <c r="K1" s="203"/>
-      <c r="L1" s="203"/>
-      <c r="M1" s="203"/>
-      <c r="N1" s="244">
+      <c r="A1" s="107" t="s">
+        <v>241</v>
+      </c>
+      <c r="B1" s="250" t="s">
+        <v>233</v>
+      </c>
+      <c r="C1" s="250"/>
+      <c r="D1" s="250"/>
+      <c r="E1" s="251"/>
+      <c r="F1" s="250" t="s">
+        <v>234</v>
+      </c>
+      <c r="G1" s="250"/>
+      <c r="H1" s="250"/>
+      <c r="I1" s="250"/>
+      <c r="J1" s="250"/>
+      <c r="K1" s="250"/>
+      <c r="L1" s="250"/>
+      <c r="M1" s="250"/>
+      <c r="N1" s="297">
         <f>2^32</f>
         <v>4294967296</v>
       </c>
-      <c r="O1" s="244"/>
-      <c r="P1" s="244"/>
-      <c r="Q1" s="245" t="s">
-        <v>248</v>
+      <c r="O1" s="297"/>
+      <c r="P1" s="297"/>
+      <c r="Q1" s="175" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="145" t="s">
-        <v>160</v>
-      </c>
-      <c r="B2" s="241" t="s">
-        <v>231</v>
-      </c>
-      <c r="C2" s="241"/>
-      <c r="D2" s="241" t="s">
+      <c r="A2" s="107" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="252" t="s">
+        <v>225</v>
+      </c>
+      <c r="C2" s="252"/>
+      <c r="D2" s="252" t="s">
         <v>130</v>
       </c>
-      <c r="E2" s="240"/>
-      <c r="F2" s="241" t="s">
-        <v>231</v>
-      </c>
-      <c r="G2" s="241"/>
-      <c r="H2" s="241" t="s">
+      <c r="E2" s="253"/>
+      <c r="F2" s="252" t="s">
+        <v>225</v>
+      </c>
+      <c r="G2" s="252"/>
+      <c r="H2" s="252" t="s">
         <v>130</v>
       </c>
-      <c r="I2" s="241"/>
-      <c r="J2" s="241" t="s">
-        <v>232</v>
-      </c>
-      <c r="K2" s="241"/>
-      <c r="L2" s="241"/>
-      <c r="M2" s="241"/>
-      <c r="N2" s="239" t="s">
+      <c r="I2" s="252"/>
+      <c r="J2" s="252" t="s">
+        <v>226</v>
+      </c>
+      <c r="K2" s="252"/>
+      <c r="L2" s="252"/>
+      <c r="M2" s="252"/>
+      <c r="N2" s="247" t="s">
+        <v>268</v>
+      </c>
+      <c r="O2" s="247"/>
+      <c r="P2" s="247"/>
+      <c r="Q2" s="247"/>
+    </row>
+    <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="174" t="s">
+        <v>157</v>
+      </c>
+      <c r="B3" s="174" t="s">
+        <v>227</v>
+      </c>
+      <c r="C3" s="173" t="s">
+        <v>228</v>
+      </c>
+      <c r="D3" s="174" t="s">
+        <v>227</v>
+      </c>
+      <c r="E3" s="173" t="s">
+        <v>228</v>
+      </c>
+      <c r="F3" s="49" t="s">
+        <v>227</v>
+      </c>
+      <c r="G3" s="173" t="s">
+        <v>228</v>
+      </c>
+      <c r="H3" s="174" t="s">
+        <v>227</v>
+      </c>
+      <c r="I3" s="173" t="s">
+        <v>228</v>
+      </c>
+      <c r="J3" s="174" t="s">
+        <v>270</v>
+      </c>
+      <c r="K3" s="173" t="s">
+        <v>271</v>
+      </c>
+      <c r="L3" s="35" t="s">
+        <v>272</v>
+      </c>
+      <c r="M3" s="144" t="s">
+        <v>273</v>
+      </c>
+      <c r="N3" s="174" t="s">
+        <v>227</v>
+      </c>
+      <c r="O3" s="173" t="s">
+        <v>228</v>
+      </c>
+      <c r="P3" s="174" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q3" s="173" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="168" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" s="302" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="304">
+        <v>127255255255</v>
+      </c>
+      <c r="D4" s="157" t="s">
+        <v>136</v>
+      </c>
+      <c r="E4" s="158" t="s">
+        <v>137</v>
+      </c>
+      <c r="F4" s="108" t="s">
+        <v>146</v>
+      </c>
+      <c r="G4" s="176" t="s">
         <v>274</v>
       </c>
-      <c r="O2" s="239"/>
-      <c r="P2" s="239"/>
-      <c r="Q2" s="239"/>
-    </row>
-    <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="243" t="s">
-        <v>161</v>
-      </c>
-      <c r="B3" s="243" t="s">
-        <v>233</v>
-      </c>
-      <c r="C3" s="242" t="s">
-        <v>234</v>
-      </c>
-      <c r="D3" s="243" t="s">
-        <v>233</v>
-      </c>
-      <c r="E3" s="242" t="s">
-        <v>234</v>
-      </c>
-      <c r="F3" s="49" t="s">
-        <v>233</v>
-      </c>
-      <c r="G3" s="242" t="s">
-        <v>234</v>
-      </c>
-      <c r="H3" s="243" t="s">
-        <v>233</v>
-      </c>
-      <c r="I3" s="242" t="s">
-        <v>234</v>
-      </c>
-      <c r="J3" s="243" t="s">
-        <v>276</v>
-      </c>
-      <c r="K3" s="242" t="s">
-        <v>277</v>
-      </c>
-      <c r="L3" s="35" t="s">
-        <v>278</v>
-      </c>
-      <c r="M3" s="205" t="s">
-        <v>279</v>
-      </c>
-      <c r="N3" s="243" t="s">
-        <v>233</v>
-      </c>
-      <c r="O3" s="242" t="s">
-        <v>234</v>
-      </c>
-      <c r="P3" s="243" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q3" s="242" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="230" t="s">
-        <v>108</v>
-      </c>
-      <c r="B4" s="233" t="s">
-        <v>131</v>
-      </c>
-      <c r="C4" s="234">
-        <v>127255255255</v>
-      </c>
-      <c r="D4" s="218" t="s">
-        <v>136</v>
-      </c>
-      <c r="E4" s="219" t="s">
-        <v>137</v>
-      </c>
-      <c r="F4" s="146" t="s">
-        <v>146</v>
-      </c>
-      <c r="G4" s="248" t="s">
-        <v>280</v>
-      </c>
-      <c r="H4" s="218" t="s">
+      <c r="H4" s="157" t="s">
         <v>147</v>
       </c>
-      <c r="I4" s="219" t="s">
+      <c r="I4" s="158" t="s">
         <v>147</v>
       </c>
-      <c r="J4" s="210" t="s">
-        <v>154</v>
-      </c>
-      <c r="K4" s="215" t="s">
-        <v>157</v>
-      </c>
-      <c r="L4" s="146">
+      <c r="J4" s="149" t="s">
+        <v>150</v>
+      </c>
+      <c r="K4" s="154" t="s">
+        <v>153</v>
+      </c>
+      <c r="L4" s="108">
         <v>1</v>
       </c>
-      <c r="M4" s="206">
+      <c r="M4" s="145">
         <f>2^24-2</f>
         <v>16777214</v>
       </c>
-      <c r="N4" s="233" t="s">
-        <v>168</v>
-      </c>
-      <c r="O4" s="234">
+      <c r="N4" s="302" t="s">
+        <v>164</v>
+      </c>
+      <c r="O4" s="304">
         <v>127255255255</v>
       </c>
-      <c r="P4" s="218" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q4" s="219" t="s">
-        <v>170</v>
+      <c r="P4" s="157" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q4" s="158" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="231" t="s">
+      <c r="A5" s="169" t="s">
         <v>109</v>
       </c>
-      <c r="B5" s="235" t="s">
+      <c r="B5" s="303" t="s">
         <v>132</v>
       </c>
-      <c r="C5" s="236">
+      <c r="C5" s="305">
         <v>191255255255</v>
       </c>
-      <c r="D5" s="226" t="s">
+      <c r="D5" s="164" t="s">
         <v>138</v>
       </c>
-      <c r="E5" s="227" t="s">
+      <c r="E5" s="165" t="s">
         <v>141</v>
       </c>
-      <c r="F5" s="147" t="s">
-        <v>243</v>
-      </c>
-      <c r="G5" s="216" t="s">
-        <v>244</v>
-      </c>
-      <c r="H5" s="220" t="s">
-        <v>148</v>
-      </c>
-      <c r="I5" s="221" t="s">
-        <v>149</v>
-      </c>
-      <c r="J5" s="211" t="s">
-        <v>155</v>
-      </c>
-      <c r="K5" s="216" t="s">
-        <v>158</v>
-      </c>
-      <c r="L5" s="147">
+      <c r="F5" s="109" t="s">
+        <v>237</v>
+      </c>
+      <c r="G5" s="155" t="s">
+        <v>238</v>
+      </c>
+      <c r="H5" s="159" t="s">
+        <v>290</v>
+      </c>
+      <c r="I5" s="160" t="s">
+        <v>291</v>
+      </c>
+      <c r="J5" s="150" t="s">
+        <v>151</v>
+      </c>
+      <c r="K5" s="155" t="s">
+        <v>154</v>
+      </c>
+      <c r="L5" s="109">
         <v>16</v>
       </c>
-      <c r="M5" s="207">
+      <c r="M5" s="146">
         <f>2^16-2</f>
         <v>65534</v>
       </c>
-      <c r="N5" s="235" t="s">
-        <v>169</v>
-      </c>
-      <c r="O5" s="236">
+      <c r="N5" s="303" t="s">
+        <v>165</v>
+      </c>
+      <c r="O5" s="305">
         <v>169254255255</v>
       </c>
-      <c r="P5" s="226" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q5" s="227" t="s">
-        <v>171</v>
+      <c r="P5" s="164" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q5" s="165" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="230" t="s">
+      <c r="A6" s="168" t="s">
         <v>111</v>
       </c>
-      <c r="B6" s="233" t="s">
+      <c r="B6" s="302" t="s">
         <v>133</v>
       </c>
-      <c r="C6" s="234">
+      <c r="C6" s="304">
         <v>223255255255</v>
       </c>
-      <c r="D6" s="218" t="s">
+      <c r="D6" s="157" t="s">
         <v>139</v>
       </c>
-      <c r="E6" s="219" t="s">
+      <c r="E6" s="158" t="s">
         <v>142</v>
       </c>
-      <c r="F6" s="213" t="s">
-        <v>245</v>
-      </c>
-      <c r="G6" s="217" t="s">
-        <v>246</v>
-      </c>
-      <c r="H6" s="222" t="s">
-        <v>150</v>
-      </c>
-      <c r="I6" s="223" t="s">
-        <v>151</v>
-      </c>
-      <c r="J6" s="212" t="s">
-        <v>156</v>
-      </c>
-      <c r="K6" s="217" t="s">
-        <v>159</v>
-      </c>
-      <c r="L6" s="213">
+      <c r="F6" s="152" t="s">
+        <v>239</v>
+      </c>
+      <c r="G6" s="156" t="s">
+        <v>240</v>
+      </c>
+      <c r="H6" s="161" t="s">
+        <v>288</v>
+      </c>
+      <c r="I6" s="162" t="s">
+        <v>289</v>
+      </c>
+      <c r="J6" s="151" t="s">
+        <v>152</v>
+      </c>
+      <c r="K6" s="156" t="s">
+        <v>155</v>
+      </c>
+      <c r="L6" s="152">
         <v>256</v>
       </c>
-      <c r="M6" s="214">
+      <c r="M6" s="153">
         <f>2^8-2</f>
         <v>254</v>
       </c>
-      <c r="N6" s="233"/>
-      <c r="O6" s="234"/>
-      <c r="P6" s="218"/>
-      <c r="Q6" s="219"/>
+      <c r="N6" s="171"/>
+      <c r="O6" s="172"/>
+      <c r="P6" s="157"/>
+      <c r="Q6" s="158"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="231" t="s">
+      <c r="A7" s="169" t="s">
         <v>112</v>
       </c>
-      <c r="B7" s="235" t="s">
+      <c r="B7" s="303" t="s">
         <v>134</v>
       </c>
-      <c r="C7" s="236">
+      <c r="C7" s="305">
         <v>239255255255</v>
       </c>
-      <c r="D7" s="226" t="s">
+      <c r="D7" s="164" t="s">
         <v>140</v>
       </c>
-      <c r="E7" s="227" t="s">
+      <c r="E7" s="165" t="s">
         <v>143</v>
       </c>
-      <c r="F7" s="247" t="s">
-        <v>152</v>
-      </c>
-      <c r="G7" s="144"/>
-      <c r="H7" s="144"/>
-      <c r="I7" s="144"/>
-      <c r="J7" s="144"/>
-      <c r="K7" s="144"/>
-      <c r="L7" s="144"/>
-      <c r="M7" s="144"/>
-      <c r="N7" s="144"/>
-      <c r="O7" s="144"/>
-      <c r="P7" s="144"/>
-      <c r="Q7" s="208"/>
+      <c r="F7" s="300" t="s">
+        <v>148</v>
+      </c>
+      <c r="G7" s="301"/>
+      <c r="H7" s="301"/>
+      <c r="I7" s="301"/>
+      <c r="J7" s="300" t="s">
+        <v>148</v>
+      </c>
+      <c r="K7" s="301"/>
+      <c r="L7" s="301"/>
+      <c r="M7" s="301"/>
+      <c r="N7" s="303" t="s">
+        <v>134</v>
+      </c>
+      <c r="O7" s="305">
+        <v>239255255255</v>
+      </c>
+      <c r="P7" s="299">
+        <v>11100000</v>
+      </c>
+      <c r="Q7" s="147" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="8" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="232" t="s">
+      <c r="A8" s="170" t="s">
         <v>113</v>
       </c>
-      <c r="B8" s="237" t="s">
+      <c r="B8" s="306" t="s">
         <v>135</v>
       </c>
-      <c r="C8" s="238">
+      <c r="C8" s="307">
         <v>255255255255</v>
       </c>
-      <c r="D8" s="228" t="s">
+      <c r="D8" s="166" t="s">
         <v>144</v>
       </c>
-      <c r="E8" s="229" t="s">
+      <c r="E8" s="167" t="s">
         <v>145</v>
       </c>
-      <c r="F8" s="246" t="s">
-        <v>153</v>
-      </c>
-      <c r="G8" s="224"/>
-      <c r="H8" s="224"/>
-      <c r="I8" s="224"/>
-      <c r="J8" s="224"/>
-      <c r="K8" s="224"/>
-      <c r="L8" s="224"/>
-      <c r="M8" s="224"/>
-      <c r="N8" s="224"/>
-      <c r="O8" s="224"/>
-      <c r="P8" s="224"/>
-      <c r="Q8" s="225"/>
+      <c r="F8" s="248" t="s">
+        <v>149</v>
+      </c>
+      <c r="G8" s="249"/>
+      <c r="H8" s="249"/>
+      <c r="I8" s="249"/>
+      <c r="J8" s="248" t="s">
+        <v>149</v>
+      </c>
+      <c r="K8" s="249"/>
+      <c r="L8" s="249"/>
+      <c r="M8" s="249"/>
+      <c r="N8" s="306" t="s">
+        <v>135</v>
+      </c>
+      <c r="O8" s="307">
+        <v>255255255255</v>
+      </c>
+      <c r="P8" s="298">
+        <v>11110000</v>
+      </c>
+      <c r="Q8" s="163" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E9" s="143"/>
+      <c r="E9" s="106"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="46"/>
-      <c r="B10" s="142"/>
-      <c r="C10" s="143"/>
-      <c r="E10" s="143"/>
-      <c r="F10" s="46"/>
-      <c r="H10" s="143"/>
+      <c r="A10" s="308" t="s">
+        <v>292</v>
+      </c>
+      <c r="B10" s="309" t="s">
+        <v>297</v>
+      </c>
+      <c r="C10" s="310" t="s">
+        <v>298</v>
+      </c>
+      <c r="D10" s="309" t="s">
+        <v>299</v>
+      </c>
+      <c r="E10" s="311" t="s">
+        <v>300</v>
+      </c>
+      <c r="F10" s="309" t="s">
+        <v>297</v>
+      </c>
+      <c r="G10" s="310" t="s">
+        <v>298</v>
+      </c>
+      <c r="H10" s="309" t="s">
+        <v>299</v>
+      </c>
+      <c r="I10" s="311" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="312" t="s">
+        <v>293</v>
+      </c>
+      <c r="B11" s="315">
+        <v>10</v>
+      </c>
+      <c r="C11" s="315">
+        <v>12</v>
+      </c>
+      <c r="D11" s="315">
+        <v>81</v>
+      </c>
+      <c r="E11" s="316">
+        <v>101</v>
+      </c>
+      <c r="F11" s="315" t="s">
+        <v>306</v>
+      </c>
+      <c r="G11" s="315" t="s">
+        <v>301</v>
+      </c>
+      <c r="H11" s="315" t="s">
+        <v>302</v>
+      </c>
+      <c r="I11" s="316" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="46"/>
-      <c r="E12" s="46"/>
+      <c r="A12" s="313" t="s">
+        <v>294</v>
+      </c>
+      <c r="B12" s="317">
+        <v>255</v>
+      </c>
+      <c r="C12" s="317">
+        <v>0</v>
+      </c>
+      <c r="D12" s="317">
+        <v>0</v>
+      </c>
+      <c r="E12" s="318">
+        <v>0</v>
+      </c>
+      <c r="F12" s="317" t="s">
+        <v>304</v>
+      </c>
+      <c r="G12" s="317" t="s">
+        <v>305</v>
+      </c>
+      <c r="H12" s="317" t="s">
+        <v>305</v>
+      </c>
+      <c r="I12" s="318" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="312" t="s">
+        <v>295</v>
+      </c>
+      <c r="B13" s="315">
+        <v>10</v>
+      </c>
+      <c r="C13" s="315">
+        <v>0</v>
+      </c>
+      <c r="D13" s="315">
+        <v>0</v>
+      </c>
+      <c r="E13" s="316">
+        <v>0</v>
+      </c>
+      <c r="F13" s="315" t="s">
+        <v>306</v>
+      </c>
+      <c r="G13" s="315" t="s">
+        <v>305</v>
+      </c>
+      <c r="H13" s="315" t="s">
+        <v>305</v>
+      </c>
+      <c r="I13" s="316" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="314" t="s">
+        <v>296</v>
+      </c>
+      <c r="B14" s="319">
+        <v>10</v>
+      </c>
+      <c r="C14" s="319">
+        <v>255</v>
+      </c>
+      <c r="D14" s="319">
+        <v>255</v>
+      </c>
+      <c r="E14" s="320">
+        <v>255</v>
+      </c>
+      <c r="F14" s="319" t="s">
+        <v>306</v>
+      </c>
+      <c r="G14" s="319" t="s">
+        <v>304</v>
+      </c>
+      <c r="H14" s="319" t="s">
+        <v>304</v>
+      </c>
+      <c r="I14" s="320" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="321"/>
+      <c r="C15" s="321"/>
+      <c r="D15" s="321"/>
+      <c r="E15" s="321"/>
+      <c r="F15" s="321"/>
+      <c r="G15" s="321"/>
+      <c r="H15" s="321"/>
+      <c r="I15" s="321"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="308" t="s">
+        <v>292</v>
+      </c>
+      <c r="B16" s="322" t="s">
+        <v>297</v>
+      </c>
+      <c r="C16" s="323" t="s">
+        <v>298</v>
+      </c>
+      <c r="D16" s="322" t="s">
+        <v>299</v>
+      </c>
+      <c r="E16" s="324" t="s">
+        <v>300</v>
+      </c>
+      <c r="F16" s="322" t="s">
+        <v>297</v>
+      </c>
+      <c r="G16" s="323" t="s">
+        <v>298</v>
+      </c>
+      <c r="H16" s="322" t="s">
+        <v>299</v>
+      </c>
+      <c r="I16" s="324" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="312" t="s">
+        <v>293</v>
+      </c>
+      <c r="B17" s="315">
+        <v>172</v>
+      </c>
+      <c r="C17" s="315">
+        <v>16</v>
+      </c>
+      <c r="D17" s="315">
+        <v>22</v>
+      </c>
+      <c r="E17" s="316">
+        <v>13</v>
+      </c>
+      <c r="F17" s="315" t="s">
+        <v>309</v>
+      </c>
+      <c r="G17" s="315" t="s">
+        <v>310</v>
+      </c>
+      <c r="H17" s="315" t="s">
+        <v>307</v>
+      </c>
+      <c r="I17" s="316" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="313" t="s">
+        <v>294</v>
+      </c>
+      <c r="B18" s="317">
+        <v>255</v>
+      </c>
+      <c r="C18" s="317">
+        <v>255</v>
+      </c>
+      <c r="D18" s="317">
+        <v>0</v>
+      </c>
+      <c r="E18" s="318">
+        <v>0</v>
+      </c>
+      <c r="F18" s="317" t="s">
+        <v>304</v>
+      </c>
+      <c r="G18" s="317" t="s">
+        <v>304</v>
+      </c>
+      <c r="H18" s="317" t="s">
+        <v>305</v>
+      </c>
+      <c r="I18" s="318" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="312" t="s">
+        <v>295</v>
+      </c>
+      <c r="B19" s="315">
+        <v>172</v>
+      </c>
+      <c r="C19" s="315">
+        <v>16</v>
+      </c>
+      <c r="D19" s="315">
+        <v>0</v>
+      </c>
+      <c r="E19" s="316">
+        <v>0</v>
+      </c>
+      <c r="F19" s="315" t="s">
+        <v>309</v>
+      </c>
+      <c r="G19" s="315" t="s">
+        <v>310</v>
+      </c>
+      <c r="H19" s="315" t="s">
+        <v>305</v>
+      </c>
+      <c r="I19" s="316" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="314" t="s">
+        <v>296</v>
+      </c>
+      <c r="B20" s="319">
+        <v>172</v>
+      </c>
+      <c r="C20" s="319">
+        <v>16</v>
+      </c>
+      <c r="D20" s="319">
+        <v>255</v>
+      </c>
+      <c r="E20" s="320">
+        <v>255</v>
+      </c>
+      <c r="F20" s="319" t="s">
+        <v>309</v>
+      </c>
+      <c r="G20" s="319" t="s">
+        <v>310</v>
+      </c>
+      <c r="H20" s="319" t="s">
+        <v>304</v>
+      </c>
+      <c r="I20" s="320" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="321"/>
+      <c r="C21" s="321"/>
+      <c r="D21" s="321"/>
+      <c r="E21" s="321"/>
+      <c r="F21" s="321"/>
+      <c r="G21" s="321"/>
+      <c r="H21" s="321"/>
+      <c r="I21" s="321"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="308" t="s">
+        <v>292</v>
+      </c>
+      <c r="B22" s="322" t="s">
+        <v>297</v>
+      </c>
+      <c r="C22" s="323" t="s">
+        <v>298</v>
+      </c>
+      <c r="D22" s="322" t="s">
+        <v>299</v>
+      </c>
+      <c r="E22" s="324" t="s">
+        <v>300</v>
+      </c>
+      <c r="F22" s="322" t="s">
+        <v>297</v>
+      </c>
+      <c r="G22" s="323" t="s">
+        <v>298</v>
+      </c>
+      <c r="H22" s="322" t="s">
+        <v>299</v>
+      </c>
+      <c r="I22" s="324" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="312" t="s">
+        <v>293</v>
+      </c>
+      <c r="B23" s="315">
+        <v>192</v>
+      </c>
+      <c r="C23" s="315">
+        <v>168</v>
+      </c>
+      <c r="D23" s="315">
+        <v>117</v>
+      </c>
+      <c r="E23" s="316">
+        <v>136</v>
+      </c>
+      <c r="F23" s="315" t="s">
+        <v>311</v>
+      </c>
+      <c r="G23" s="315" t="s">
+        <v>312</v>
+      </c>
+      <c r="H23" s="315" t="s">
+        <v>314</v>
+      </c>
+      <c r="I23" s="316" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="313" t="s">
+        <v>294</v>
+      </c>
+      <c r="B24" s="317">
+        <v>255</v>
+      </c>
+      <c r="C24" s="317">
+        <v>255</v>
+      </c>
+      <c r="D24" s="317">
+        <v>255</v>
+      </c>
+      <c r="E24" s="318">
+        <v>0</v>
+      </c>
+      <c r="F24" s="317" t="s">
+        <v>304</v>
+      </c>
+      <c r="G24" s="317" t="s">
+        <v>304</v>
+      </c>
+      <c r="H24" s="317" t="s">
+        <v>304</v>
+      </c>
+      <c r="I24" s="318" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="312" t="s">
+        <v>295</v>
+      </c>
+      <c r="B25" s="315">
+        <v>192</v>
+      </c>
+      <c r="C25" s="315">
+        <v>168</v>
+      </c>
+      <c r="D25" s="315">
+        <v>117</v>
+      </c>
+      <c r="E25" s="316">
+        <v>0</v>
+      </c>
+      <c r="F25" s="315" t="s">
+        <v>311</v>
+      </c>
+      <c r="G25" s="315" t="s">
+        <v>312</v>
+      </c>
+      <c r="H25" s="315" t="s">
+        <v>314</v>
+      </c>
+      <c r="I25" s="316" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="314" t="s">
+        <v>296</v>
+      </c>
+      <c r="B26" s="319">
+        <v>192</v>
+      </c>
+      <c r="C26" s="319">
+        <v>168</v>
+      </c>
+      <c r="D26" s="319">
+        <v>117</v>
+      </c>
+      <c r="E26" s="320">
+        <v>255</v>
+      </c>
+      <c r="F26" s="319" t="s">
+        <v>311</v>
+      </c>
+      <c r="G26" s="319" t="s">
+        <v>312</v>
+      </c>
+      <c r="H26" s="319" t="s">
+        <v>314</v>
+      </c>
+      <c r="I26" s="320" t="s">
+        <v>304</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="13">
     <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="F8:Q8"/>
-    <mergeCell ref="F7:Q7"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:M1"/>
     <mergeCell ref="N1:P1"/>
@@ -5719,11 +6814,16 @@
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="J8:M8"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="D4:E8 H4:I5 G6" numberStoredAsText="1"/>
+    <ignoredError sqref="D4:E8 H4:I4 G6 P4:P5 G4 F23:I26 F17:I20 F11:I14" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -5732,8 +6832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5143342A-0F32-446F-9296-2C5A128AD706}">
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5747,392 +6847,392 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="148" t="s">
-        <v>172</v>
-      </c>
-      <c r="B1" s="149">
+      <c r="A1" s="110" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" s="269">
         <f>2^128</f>
         <v>3.4028236692093846E+38</v>
       </c>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
-      <c r="G1" s="149"/>
-      <c r="H1" s="149"/>
-      <c r="I1" s="149"/>
-      <c r="J1" s="148" t="s">
+      <c r="C1" s="269"/>
+      <c r="D1" s="269"/>
+      <c r="E1" s="269"/>
+      <c r="F1" s="269"/>
+      <c r="G1" s="269"/>
+      <c r="H1" s="269"/>
+      <c r="I1" s="269"/>
+      <c r="J1" s="110" t="s">
+        <v>243</v>
+      </c>
+      <c r="K1" s="270" t="s">
+        <v>229</v>
+      </c>
+      <c r="L1" s="270"/>
+      <c r="M1" s="270"/>
+      <c r="N1" s="270"/>
+    </row>
+    <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="133" t="s">
+        <v>177</v>
+      </c>
+      <c r="B2" s="271" t="s">
+        <v>173</v>
+      </c>
+      <c r="C2" s="272"/>
+      <c r="D2" s="272"/>
+      <c r="E2" s="111" t="s">
+        <v>256</v>
+      </c>
+      <c r="F2" s="272" t="s">
+        <v>174</v>
+      </c>
+      <c r="G2" s="272"/>
+      <c r="H2" s="272"/>
+      <c r="I2" s="273"/>
+      <c r="J2" s="112" t="s">
+        <v>175</v>
+      </c>
+      <c r="K2" s="112" t="s">
+        <v>224</v>
+      </c>
+      <c r="L2" s="116" t="s">
+        <v>227</v>
+      </c>
+      <c r="M2" s="117" t="s">
+        <v>228</v>
+      </c>
+      <c r="N2" s="112" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="118" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3" s="124" t="s">
+        <v>169</v>
+      </c>
+      <c r="C3" s="125" t="s">
+        <v>168</v>
+      </c>
+      <c r="D3" s="125" t="s">
+        <v>170</v>
+      </c>
+      <c r="E3" s="126" t="s">
+        <v>171</v>
+      </c>
+      <c r="F3" s="127" t="s">
+        <v>172</v>
+      </c>
+      <c r="G3" s="127" t="s">
+        <v>172</v>
+      </c>
+      <c r="H3" s="127" t="s">
+        <v>172</v>
+      </c>
+      <c r="I3" s="128" t="s">
+        <v>167</v>
+      </c>
+      <c r="J3" s="113" t="s">
+        <v>176</v>
+      </c>
+      <c r="K3" s="113" t="s">
+        <v>173</v>
+      </c>
+      <c r="L3" s="118" t="s">
+        <v>244</v>
+      </c>
+      <c r="M3" s="119" t="s">
+        <v>245</v>
+      </c>
+      <c r="N3" s="113" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="120" t="s">
+        <v>183</v>
+      </c>
+      <c r="B4" s="124" t="s">
+        <v>169</v>
+      </c>
+      <c r="C4" s="125" t="s">
+        <v>179</v>
+      </c>
+      <c r="D4" s="125" t="s">
+        <v>170</v>
+      </c>
+      <c r="E4" s="126" t="s">
+        <v>180</v>
+      </c>
+      <c r="F4" s="127" t="s">
+        <v>181</v>
+      </c>
+      <c r="G4" s="127" t="s">
+        <v>181</v>
+      </c>
+      <c r="H4" s="127" t="s">
+        <v>181</v>
+      </c>
+      <c r="I4" s="128" t="s">
+        <v>182</v>
+      </c>
+      <c r="J4" s="113" t="s">
+        <v>176</v>
+      </c>
+      <c r="K4" s="115" t="s">
+        <v>187</v>
+      </c>
+      <c r="L4" s="120" t="s">
+        <v>230</v>
+      </c>
+      <c r="M4" s="121" t="s">
+        <v>186</v>
+      </c>
+      <c r="N4" s="115" t="s">
         <v>249</v>
       </c>
-      <c r="K1" s="159" t="s">
-        <v>235</v>
-      </c>
-      <c r="L1" s="159"/>
-      <c r="M1" s="159"/>
-      <c r="N1" s="159"/>
-    </row>
-    <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="179" t="s">
-        <v>183</v>
-      </c>
-      <c r="B2" s="152" t="s">
+    </row>
+    <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="122" t="s">
+        <v>185</v>
+      </c>
+      <c r="B5" s="129" t="s">
+        <v>169</v>
+      </c>
+      <c r="C5" s="130" t="s">
         <v>179</v>
       </c>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="154" t="s">
-        <v>262</v>
-      </c>
-      <c r="F2" s="153" t="s">
-        <v>180</v>
-      </c>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="155"/>
-      <c r="J2" s="156" t="s">
-        <v>181</v>
-      </c>
-      <c r="K2" s="156" t="s">
-        <v>230</v>
-      </c>
-      <c r="L2" s="161" t="s">
-        <v>233</v>
-      </c>
-      <c r="M2" s="162" t="s">
-        <v>234</v>
-      </c>
-      <c r="N2" s="156" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="163" t="s">
+      <c r="D5" s="130" t="s">
+        <v>170</v>
+      </c>
+      <c r="E5" s="131" t="s">
+        <v>182</v>
+      </c>
+      <c r="F5" s="274" t="s">
         <v>184</v>
       </c>
-      <c r="B3" s="169" t="s">
-        <v>175</v>
-      </c>
-      <c r="C3" s="170" t="s">
-        <v>174</v>
-      </c>
-      <c r="D3" s="170" t="s">
+      <c r="G5" s="274"/>
+      <c r="H5" s="274"/>
+      <c r="I5" s="132">
+        <v>1</v>
+      </c>
+      <c r="J5" s="114" t="s">
         <v>176</v>
       </c>
-      <c r="E3" s="171" t="s">
-        <v>177</v>
-      </c>
-      <c r="F3" s="172" t="s">
-        <v>178</v>
-      </c>
-      <c r="G3" s="172" t="s">
-        <v>178</v>
-      </c>
-      <c r="H3" s="172" t="s">
-        <v>178</v>
-      </c>
-      <c r="I3" s="173" t="s">
-        <v>173</v>
-      </c>
-      <c r="J3" s="157" t="s">
-        <v>182</v>
-      </c>
-      <c r="K3" s="157" t="s">
-        <v>179</v>
-      </c>
-      <c r="L3" s="163" t="s">
+      <c r="K5" s="114" t="s">
         <v>250</v>
       </c>
-      <c r="M3" s="164" t="s">
-        <v>251</v>
-      </c>
-      <c r="N3" s="157" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="165" t="s">
-        <v>189</v>
-      </c>
-      <c r="B4" s="169" t="s">
-        <v>175</v>
-      </c>
-      <c r="C4" s="170" t="s">
-        <v>185</v>
-      </c>
-      <c r="D4" s="170" t="s">
-        <v>176</v>
-      </c>
-      <c r="E4" s="171" t="s">
-        <v>186</v>
-      </c>
-      <c r="F4" s="172" t="s">
-        <v>187</v>
-      </c>
-      <c r="G4" s="172" t="s">
-        <v>187</v>
-      </c>
-      <c r="H4" s="172" t="s">
-        <v>187</v>
-      </c>
-      <c r="I4" s="173" t="s">
-        <v>188</v>
-      </c>
-      <c r="J4" s="157" t="s">
-        <v>182</v>
-      </c>
-      <c r="K4" s="160" t="s">
-        <v>193</v>
-      </c>
-      <c r="L4" s="165" t="s">
-        <v>236</v>
-      </c>
-      <c r="M4" s="166" t="s">
-        <v>192</v>
-      </c>
-      <c r="N4" s="160" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="167" t="s">
-        <v>191</v>
-      </c>
-      <c r="B5" s="174" t="s">
-        <v>175</v>
-      </c>
-      <c r="C5" s="175" t="s">
-        <v>185</v>
-      </c>
-      <c r="D5" s="175" t="s">
-        <v>176</v>
-      </c>
-      <c r="E5" s="176" t="s">
-        <v>188</v>
-      </c>
-      <c r="F5" s="177" t="s">
-        <v>190</v>
-      </c>
-      <c r="G5" s="177"/>
-      <c r="H5" s="177"/>
-      <c r="I5" s="178">
-        <v>1</v>
-      </c>
-      <c r="J5" s="158" t="s">
-        <v>182</v>
-      </c>
-      <c r="K5" s="158" t="s">
-        <v>256</v>
-      </c>
-      <c r="L5" s="167" t="s">
-        <v>237</v>
-      </c>
-      <c r="M5" s="168" t="s">
-        <v>238</v>
-      </c>
-      <c r="N5" s="158" t="s">
-        <v>253</v>
+      <c r="L5" s="122" t="s">
+        <v>231</v>
+      </c>
+      <c r="M5" s="123" t="s">
+        <v>232</v>
+      </c>
+      <c r="N5" s="114" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E6" s="47"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="156" t="s">
-        <v>192</v>
-      </c>
-      <c r="B7" s="161" t="s">
-        <v>272</v>
-      </c>
-      <c r="C7" s="188" t="s">
+      <c r="A7" s="112" t="s">
+        <v>186</v>
+      </c>
+      <c r="B7" s="116" t="s">
+        <v>266</v>
+      </c>
+      <c r="C7" s="266" t="s">
+        <v>251</v>
+      </c>
+      <c r="D7" s="266"/>
+      <c r="E7" s="266"/>
+      <c r="F7" s="267"/>
+      <c r="G7" s="140" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="113" t="s">
+        <v>258</v>
+      </c>
+      <c r="B8" s="137" t="s">
+        <v>188</v>
+      </c>
+      <c r="C8" s="136" t="s">
+        <v>265</v>
+      </c>
+      <c r="D8" s="268" t="s">
+        <v>252</v>
+      </c>
+      <c r="E8" s="268"/>
+      <c r="F8" s="134" t="s">
+        <v>253</v>
+      </c>
+      <c r="G8" s="119" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="115" t="s">
+        <v>259</v>
+      </c>
+      <c r="B9" s="138" t="s">
+        <v>188</v>
+      </c>
+      <c r="C9" s="127" t="s">
+        <v>254</v>
+      </c>
+      <c r="D9" s="127" t="s">
+        <v>260</v>
+      </c>
+      <c r="E9" s="127" t="s">
+        <v>261</v>
+      </c>
+      <c r="F9" s="128" t="s">
+        <v>253</v>
+      </c>
+      <c r="G9" s="119" t="s">
         <v>257</v>
       </c>
-      <c r="D7" s="188"/>
-      <c r="E7" s="188"/>
-      <c r="F7" s="189"/>
-      <c r="G7" s="187" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="157" t="s">
-        <v>264</v>
-      </c>
-      <c r="B8" s="184" t="s">
-        <v>194</v>
-      </c>
-      <c r="C8" s="183" t="s">
-        <v>271</v>
-      </c>
-      <c r="D8" s="180" t="s">
-        <v>258</v>
-      </c>
-      <c r="E8" s="180"/>
-      <c r="F8" s="181" t="s">
-        <v>259</v>
-      </c>
-      <c r="G8" s="164" t="s">
+    </row>
+    <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="114" t="s">
+        <v>185</v>
+      </c>
+      <c r="B10" s="139" t="s">
+        <v>189</v>
+      </c>
+      <c r="C10" s="135" t="s">
+        <v>262</v>
+      </c>
+      <c r="D10" s="135" t="s">
+        <v>260</v>
+      </c>
+      <c r="E10" s="135" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="160" t="s">
-        <v>265</v>
-      </c>
-      <c r="B9" s="185" t="s">
-        <v>194</v>
-      </c>
-      <c r="C9" s="172" t="s">
-        <v>260</v>
-      </c>
-      <c r="D9" s="172" t="s">
-        <v>266</v>
-      </c>
-      <c r="E9" s="172" t="s">
-        <v>267</v>
-      </c>
-      <c r="F9" s="173" t="s">
-        <v>259</v>
-      </c>
-      <c r="G9" s="164" t="s">
+      <c r="F10" s="132" t="s">
+        <v>253</v>
+      </c>
+      <c r="G10" s="123" t="s">
         <v>263</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="158" t="s">
-        <v>191</v>
-      </c>
-      <c r="B10" s="186" t="s">
-        <v>195</v>
-      </c>
-      <c r="C10" s="182" t="s">
-        <v>268</v>
-      </c>
-      <c r="D10" s="182" t="s">
-        <v>266</v>
-      </c>
-      <c r="E10" s="182" t="s">
-        <v>267</v>
-      </c>
-      <c r="F10" s="178" t="s">
-        <v>259</v>
-      </c>
-      <c r="G10" s="168" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="202" t="s">
-        <v>272</v>
-      </c>
-      <c r="B12" s="199" t="s">
-        <v>257</v>
-      </c>
-      <c r="C12" s="200"/>
-      <c r="D12" s="201"/>
-      <c r="E12" s="199" t="s">
-        <v>273</v>
-      </c>
-      <c r="F12" s="200"/>
-      <c r="G12" s="201"/>
+      <c r="A12" s="143" t="s">
+        <v>266</v>
+      </c>
+      <c r="B12" s="263" t="s">
+        <v>251</v>
+      </c>
+      <c r="C12" s="264"/>
+      <c r="D12" s="265"/>
+      <c r="E12" s="263" t="s">
+        <v>267</v>
+      </c>
+      <c r="F12" s="264"/>
+      <c r="G12" s="265"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="194" t="s">
-        <v>194</v>
-      </c>
-      <c r="B13" s="196" t="s">
-        <v>196</v>
-      </c>
-      <c r="C13" s="150"/>
-      <c r="D13" s="190"/>
-      <c r="E13" s="150" t="s">
-        <v>197</v>
-      </c>
-      <c r="F13" s="150"/>
-      <c r="G13" s="190"/>
-      <c r="H13" s="76"/>
-      <c r="I13" s="76"/>
-      <c r="J13" s="76"/>
+      <c r="A13" s="141" t="s">
+        <v>188</v>
+      </c>
+      <c r="B13" s="254" t="s">
+        <v>190</v>
+      </c>
+      <c r="C13" s="255"/>
+      <c r="D13" s="256"/>
+      <c r="E13" s="255" t="s">
+        <v>191</v>
+      </c>
+      <c r="F13" s="255"/>
+      <c r="G13" s="256"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="195"/>
-      <c r="B14" s="197"/>
-      <c r="C14" s="151"/>
-      <c r="D14" s="191"/>
-      <c r="E14" s="151"/>
-      <c r="F14" s="151"/>
-      <c r="G14" s="191"/>
+      <c r="A14" s="142"/>
+      <c r="B14" s="257"/>
+      <c r="C14" s="258"/>
+      <c r="D14" s="259"/>
+      <c r="E14" s="258"/>
+      <c r="F14" s="258"/>
+      <c r="G14" s="259"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="194"/>
-      <c r="B15" s="196"/>
-      <c r="C15" s="150"/>
-      <c r="D15" s="190"/>
-      <c r="E15" s="150"/>
-      <c r="F15" s="150"/>
-      <c r="G15" s="190"/>
+      <c r="A15" s="141"/>
+      <c r="B15" s="254"/>
+      <c r="C15" s="255"/>
+      <c r="D15" s="256"/>
+      <c r="E15" s="255"/>
+      <c r="F15" s="255"/>
+      <c r="G15" s="256"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="195"/>
-      <c r="B16" s="197"/>
-      <c r="C16" s="151"/>
-      <c r="D16" s="191"/>
-      <c r="E16" s="151"/>
-      <c r="F16" s="151"/>
-      <c r="G16" s="191"/>
+      <c r="A16" s="142"/>
+      <c r="B16" s="257"/>
+      <c r="C16" s="258"/>
+      <c r="D16" s="259"/>
+      <c r="E16" s="258"/>
+      <c r="F16" s="258"/>
+      <c r="G16" s="259"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="194"/>
-      <c r="B17" s="196"/>
-      <c r="C17" s="150"/>
-      <c r="D17" s="190"/>
-      <c r="E17" s="150"/>
-      <c r="F17" s="150"/>
-      <c r="G17" s="190"/>
+      <c r="A17" s="141"/>
+      <c r="B17" s="254"/>
+      <c r="C17" s="255"/>
+      <c r="D17" s="256"/>
+      <c r="E17" s="255"/>
+      <c r="F17" s="255"/>
+      <c r="G17" s="256"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="195"/>
-      <c r="B18" s="197"/>
-      <c r="C18" s="151"/>
-      <c r="D18" s="191"/>
-      <c r="E18" s="151"/>
-      <c r="F18" s="151"/>
-      <c r="G18" s="191"/>
+      <c r="A18" s="142"/>
+      <c r="B18" s="257"/>
+      <c r="C18" s="258"/>
+      <c r="D18" s="259"/>
+      <c r="E18" s="258"/>
+      <c r="F18" s="258"/>
+      <c r="G18" s="259"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="174"/>
-      <c r="B19" s="198"/>
-      <c r="C19" s="192"/>
-      <c r="D19" s="193"/>
-      <c r="E19" s="192"/>
-      <c r="F19" s="192"/>
-      <c r="G19" s="193"/>
+      <c r="A19" s="129"/>
+      <c r="B19" s="260"/>
+      <c r="C19" s="261"/>
+      <c r="D19" s="262"/>
+      <c r="E19" s="261"/>
+      <c r="F19" s="261"/>
+      <c r="G19" s="262"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="E17:G17"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="E18:G18"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="E19:G19"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="F5:H5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/protocol-suite.xlsx
+++ b/docs/protocol-suite.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24809"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24816"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\redes\saves\ccna-lx19\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7830610E-BF76-4E8F-ADEC-0F58E382A3EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D632B6A5-5F60-4E3E-903B-2D9FB33FE3C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{3415D364-6D1D-489F-8C8D-BD784F513C31}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="315">
   <si>
     <t xml:space="preserve">TCP/IP </t>
   </si>
@@ -938,15 +938,6 @@
     <t>Clasificacion</t>
   </si>
   <si>
-    <t>FE80::/7</t>
-  </si>
-  <si>
-    <t>FC00::/7</t>
-  </si>
-  <si>
-    <t>FDFF::/7</t>
-  </si>
-  <si>
     <t>PUBLICO</t>
   </si>
   <si>
@@ -1639,6 +1630,15 @@
       </rPr>
       <t>1</t>
     </r>
+  </si>
+  <si>
+    <t>AE</t>
+  </si>
+  <si>
+    <t>FC00::</t>
+  </si>
+  <si>
+    <t>FDFF::</t>
   </si>
 </sst>
 </file>
@@ -3310,270 +3310,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="52" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="53" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="54" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="56" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="52" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="53" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="24" borderId="54" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="24" borderId="55" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="24" borderId="56" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="24" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="24" borderId="57" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="59" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="60" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="28" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="15" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="28" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="62" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="63" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="65" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="65" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="65" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="67" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="68" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="10" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3604,85 +3340,349 @@
     <xf numFmtId="0" fontId="0" fillId="21" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="15" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="10" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="10" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="9" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="9" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="9" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="9" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="62" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="63" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="65" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="65" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="65" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="67" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="68" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="52" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="53" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="54" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="56" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="52" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="53" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="15" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="10" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="10" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="9" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="9" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="9" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="9" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="15" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="28" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="24" borderId="54" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="24" borderId="55" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="59" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="60" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="28" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="24" borderId="56" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="24" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="24" borderId="57" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -4274,13 +4274,13 @@
       <c r="A2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="202" t="s">
+      <c r="B2" s="239" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="197" t="s">
+      <c r="C2" s="234" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="205" t="s">
+      <c r="D2" s="242" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4288,17 +4288,17 @@
       <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="203"/>
-      <c r="C3" s="198"/>
-      <c r="D3" s="205"/>
+      <c r="B3" s="240"/>
+      <c r="C3" s="235"/>
+      <c r="D3" s="242"/>
     </row>
     <row r="4" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="204"/>
-      <c r="C4" s="199"/>
-      <c r="D4" s="205"/>
+      <c r="B4" s="241"/>
+      <c r="C4" s="236"/>
+      <c r="D4" s="242"/>
     </row>
     <row r="5" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -4335,7 +4335,7 @@
       <c r="B7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="200" t="s">
+      <c r="C7" s="237" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="15" t="s">
@@ -4349,8 +4349,8 @@
       <c r="B8" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="201"/>
-      <c r="D8" s="205" t="s">
+      <c r="C8" s="238"/>
+      <c r="D8" s="242" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4364,7 +4364,7 @@
       <c r="C9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="206"/>
+      <c r="D9" s="243"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4403,24 +4403,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="210" t="s">
+      <c r="A2" s="247" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="211"/>
+      <c r="B2" s="248"/>
       <c r="C2" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="210" t="s">
+      <c r="E2" s="247" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="211"/>
+      <c r="F2" s="248"/>
       <c r="G2" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="210" t="s">
+      <c r="I2" s="247" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="211"/>
+      <c r="J2" s="248"/>
       <c r="K2" s="27" t="s">
         <v>42</v>
       </c>
@@ -4594,15 +4594,15 @@
       <c r="E9" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="F9" s="218" t="s">
+      <c r="F9" s="255" t="s">
         <v>67</v>
       </c>
-      <c r="G9" s="218"/>
-      <c r="I9" s="218" t="s">
+      <c r="G9" s="255"/>
+      <c r="I9" s="255" t="s">
         <v>81</v>
       </c>
-      <c r="J9" s="218"/>
-      <c r="K9" s="218"/>
+      <c r="J9" s="255"/>
+      <c r="K9" s="255"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
@@ -4618,15 +4618,15 @@
       <c r="E10" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="F10" s="213" t="s">
+      <c r="F10" s="250" t="s">
         <v>70</v>
       </c>
-      <c r="G10" s="214"/>
-      <c r="I10" s="212" t="s">
+      <c r="G10" s="251"/>
+      <c r="I10" s="249" t="s">
         <v>63</v>
       </c>
-      <c r="J10" s="213"/>
-      <c r="K10" s="214"/>
+      <c r="J10" s="250"/>
+      <c r="K10" s="251"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="39" t="s">
@@ -4641,15 +4641,15 @@
       <c r="E11" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="219" t="s">
+      <c r="F11" s="256" t="s">
         <v>52</v>
       </c>
-      <c r="G11" s="220"/>
-      <c r="I11" s="215" t="s">
+      <c r="G11" s="257"/>
+      <c r="I11" s="252" t="s">
         <v>64</v>
       </c>
-      <c r="J11" s="216"/>
-      <c r="K11" s="217"/>
+      <c r="J11" s="253"/>
+      <c r="K11" s="254"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
@@ -4664,15 +4664,15 @@
       <c r="E12" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="F12" s="213" t="s">
+      <c r="F12" s="250" t="s">
         <v>72</v>
       </c>
-      <c r="G12" s="214"/>
-      <c r="I12" s="212" t="s">
+      <c r="G12" s="251"/>
+      <c r="I12" s="249" t="s">
         <v>65</v>
       </c>
-      <c r="J12" s="213"/>
-      <c r="K12" s="214"/>
+      <c r="J12" s="250"/>
+      <c r="K12" s="251"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="39" t="s">
@@ -4697,105 +4697,106 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="285" t="s">
+      <c r="A15" s="197" t="s">
         <v>206</v>
       </c>
-      <c r="B15" s="286" t="s">
+      <c r="B15" s="198" t="s">
         <v>207</v>
       </c>
-      <c r="C15" s="287" t="s">
+      <c r="C15" s="199" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="275" t="s">
-        <v>285</v>
-      </c>
-      <c r="B17" s="288" t="s">
+      <c r="A17" s="244" t="s">
+        <v>282</v>
+      </c>
+      <c r="B17" s="200" t="s">
+        <v>272</v>
+      </c>
+      <c r="C17" s="258" t="s">
+        <v>273</v>
+      </c>
+      <c r="D17" s="258"/>
+      <c r="E17" s="258"/>
+      <c r="F17" s="258"/>
+      <c r="G17" s="258"/>
+      <c r="H17" s="258"/>
+      <c r="I17" s="258"/>
+      <c r="J17" s="258"/>
+      <c r="K17" s="259"/>
+    </row>
+    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="245"/>
+      <c r="B18" s="201" t="s">
+        <v>274</v>
+      </c>
+      <c r="C18" s="260" t="s">
         <v>275</v>
       </c>
-      <c r="C17" s="276" t="s">
+      <c r="D18" s="260"/>
+      <c r="E18" s="260"/>
+      <c r="F18" s="260"/>
+      <c r="G18" s="260"/>
+      <c r="H18" s="260"/>
+      <c r="I18" s="260"/>
+      <c r="J18" s="260"/>
+      <c r="K18" s="261"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="245"/>
+      <c r="B19" s="202" t="s">
         <v>276</v>
       </c>
-      <c r="D17" s="276"/>
-      <c r="E17" s="276"/>
-      <c r="F17" s="276"/>
-      <c r="G17" s="276"/>
-      <c r="H17" s="276"/>
-      <c r="I17" s="276"/>
-      <c r="J17" s="276"/>
-      <c r="K17" s="277"/>
-    </row>
-    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="278"/>
-      <c r="B18" s="289" t="s">
+      <c r="C19" s="262" t="s">
         <v>277</v>
       </c>
-      <c r="C18" s="208" t="s">
+      <c r="D19" s="262"/>
+      <c r="E19" s="262"/>
+      <c r="F19" s="262"/>
+      <c r="G19" s="262"/>
+      <c r="H19" s="262"/>
+      <c r="I19" s="262"/>
+      <c r="J19" s="262"/>
+      <c r="K19" s="263"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="245"/>
+      <c r="B20" s="203" t="s">
         <v>278</v>
       </c>
-      <c r="D18" s="208"/>
-      <c r="E18" s="208"/>
-      <c r="F18" s="208"/>
-      <c r="G18" s="208"/>
-      <c r="H18" s="208"/>
-      <c r="I18" s="208"/>
-      <c r="J18" s="208"/>
-      <c r="K18" s="279"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="278"/>
-      <c r="B19" s="290" t="s">
+      <c r="C20" s="264" t="s">
         <v>279</v>
       </c>
-      <c r="C19" s="207" t="s">
+      <c r="D20" s="264"/>
+      <c r="E20" s="264"/>
+      <c r="F20" s="264"/>
+      <c r="G20" s="264"/>
+      <c r="H20" s="264"/>
+      <c r="I20" s="264"/>
+      <c r="J20" s="264"/>
+      <c r="K20" s="265"/>
+    </row>
+    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="246"/>
+      <c r="B21" s="204" t="s">
         <v>280</v>
       </c>
-      <c r="D19" s="207"/>
-      <c r="E19" s="207"/>
-      <c r="F19" s="207"/>
-      <c r="G19" s="207"/>
-      <c r="H19" s="207"/>
-      <c r="I19" s="207"/>
-      <c r="J19" s="207"/>
-      <c r="K19" s="280"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="278"/>
-      <c r="B20" s="291" t="s">
+      <c r="C21" s="266" t="s">
         <v>281</v>
       </c>
-      <c r="C20" s="209" t="s">
-        <v>282</v>
-      </c>
-      <c r="D20" s="209"/>
-      <c r="E20" s="209"/>
-      <c r="F20" s="209"/>
-      <c r="G20" s="209"/>
-      <c r="H20" s="209"/>
-      <c r="I20" s="209"/>
-      <c r="J20" s="209"/>
-      <c r="K20" s="281"/>
-    </row>
-    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="282"/>
-      <c r="B21" s="292" t="s">
-        <v>283</v>
-      </c>
-      <c r="C21" s="283" t="s">
-        <v>284</v>
-      </c>
-      <c r="D21" s="283"/>
-      <c r="E21" s="283"/>
-      <c r="F21" s="283"/>
-      <c r="G21" s="283"/>
-      <c r="H21" s="283"/>
-      <c r="I21" s="283"/>
-      <c r="J21" s="283"/>
-      <c r="K21" s="284"/>
+      <c r="D21" s="266"/>
+      <c r="E21" s="266"/>
+      <c r="F21" s="266"/>
+      <c r="G21" s="266"/>
+      <c r="H21" s="266"/>
+      <c r="I21" s="266"/>
+      <c r="J21" s="266"/>
+      <c r="K21" s="267"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C21:K21"/>
     <mergeCell ref="A17:A21"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="E2:F2"/>
@@ -4812,7 +4813,6 @@
     <mergeCell ref="C18:K18"/>
     <mergeCell ref="C19:K19"/>
     <mergeCell ref="C20:K20"/>
-    <mergeCell ref="C21:K21"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4838,16 +4838,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="221" t="s">
+      <c r="B1" s="268" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="221"/>
-      <c r="D1" s="221"/>
-      <c r="F1" s="221" t="s">
+      <c r="C1" s="268"/>
+      <c r="D1" s="268"/>
+      <c r="F1" s="268" t="s">
         <v>104</v>
       </c>
-      <c r="G1" s="221"/>
-      <c r="H1" s="221"/>
+      <c r="G1" s="268"/>
+      <c r="H1" s="268"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="49" t="s">
@@ -4876,10 +4876,10 @@
       <c r="D3" s="179" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="230" t="s">
+      <c r="F3" s="277" t="s">
         <v>94</v>
       </c>
-      <c r="G3" s="232" t="s">
+      <c r="G3" s="279" t="s">
         <v>93</v>
       </c>
       <c r="H3" s="185" t="s">
@@ -4896,8 +4896,8 @@
       <c r="D4" s="182" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="230"/>
-      <c r="G4" s="233"/>
+      <c r="F4" s="277"/>
+      <c r="G4" s="280"/>
       <c r="H4" s="186" t="s">
         <v>60</v>
       </c>
@@ -4912,8 +4912,8 @@
       <c r="D5" s="177" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="230"/>
-      <c r="G5" s="233"/>
+      <c r="F5" s="277"/>
+      <c r="G5" s="280"/>
       <c r="H5" s="187" t="s">
         <v>61</v>
       </c>
@@ -4928,8 +4928,8 @@
       <c r="D6" s="180" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="230"/>
-      <c r="G6" s="233"/>
+      <c r="F6" s="277"/>
+      <c r="G6" s="280"/>
       <c r="H6" s="192" t="s">
         <v>62</v>
       </c>
@@ -4944,8 +4944,8 @@
       <c r="D7" s="181" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="230"/>
-      <c r="G7" s="233"/>
+      <c r="F7" s="277"/>
+      <c r="G7" s="280"/>
       <c r="H7" s="191" t="s">
         <v>99</v>
       </c>
@@ -4960,8 +4960,8 @@
       <c r="D8" s="178" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="230"/>
-      <c r="G8" s="233"/>
+      <c r="F8" s="277"/>
+      <c r="G8" s="280"/>
       <c r="H8" s="188" t="s">
         <v>103</v>
       </c>
@@ -4976,8 +4976,8 @@
       <c r="D9" s="183" t="s">
         <v>55</v>
       </c>
-      <c r="F9" s="230"/>
-      <c r="G9" s="233"/>
+      <c r="F9" s="277"/>
+      <c r="G9" s="280"/>
       <c r="H9" s="189" t="s">
         <v>97</v>
       </c>
@@ -4992,21 +4992,21 @@
       <c r="D10" s="184" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="231"/>
-      <c r="G10" s="234"/>
+      <c r="F10" s="278"/>
+      <c r="G10" s="281"/>
       <c r="H10" s="190" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="225" t="s">
+      <c r="B12" s="272" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="226"/>
-      <c r="D12" s="226"/>
-      <c r="E12" s="226"/>
-      <c r="F12" s="227"/>
+      <c r="C12" s="273"/>
+      <c r="D12" s="273"/>
+      <c r="E12" s="273"/>
+      <c r="F12" s="274"/>
       <c r="G12" s="193" t="s">
         <v>56</v>
       </c>
@@ -5015,13 +5015,13 @@
       <c r="B13" s="194" t="s">
         <v>90</v>
       </c>
-      <c r="C13" s="235" t="s">
+      <c r="C13" s="282" t="s">
         <v>89</v>
       </c>
-      <c r="D13" s="235"/>
-      <c r="E13" s="235"/>
-      <c r="F13" s="236"/>
-      <c r="G13" s="222" t="s">
+      <c r="D13" s="282"/>
+      <c r="E13" s="282"/>
+      <c r="F13" s="283"/>
+      <c r="G13" s="269" t="s">
         <v>219</v>
       </c>
       <c r="I13" s="42"/>
@@ -5030,39 +5030,39 @@
       <c r="B14" s="195" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="237" t="s">
+      <c r="C14" s="284" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="237"/>
-      <c r="E14" s="237"/>
-      <c r="F14" s="238"/>
-      <c r="G14" s="223"/>
+      <c r="D14" s="284"/>
+      <c r="E14" s="284"/>
+      <c r="F14" s="285"/>
+      <c r="G14" s="270"/>
       <c r="I14" s="42"/>
     </row>
     <row r="15" spans="1:9" s="41" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="194" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="235" t="s">
+      <c r="C15" s="282" t="s">
         <v>87</v>
       </c>
-      <c r="D15" s="235"/>
-      <c r="E15" s="235"/>
-      <c r="F15" s="236"/>
-      <c r="G15" s="223"/>
+      <c r="D15" s="282"/>
+      <c r="E15" s="282"/>
+      <c r="F15" s="283"/>
+      <c r="G15" s="270"/>
       <c r="I15" s="42"/>
     </row>
     <row r="16" spans="1:9" s="41" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="196" t="s">
         <v>91</v>
       </c>
-      <c r="C16" s="228" t="s">
+      <c r="C16" s="275" t="s">
         <v>88</v>
       </c>
-      <c r="D16" s="228"/>
-      <c r="E16" s="228"/>
-      <c r="F16" s="229"/>
-      <c r="G16" s="224"/>
+      <c r="D16" s="275"/>
+      <c r="E16" s="275"/>
+      <c r="F16" s="276"/>
+      <c r="G16" s="271"/>
       <c r="I16" s="42"/>
     </row>
     <row r="17" spans="7:7" x14ac:dyDescent="0.25">
@@ -5099,9 +5099,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC782B4E-6927-4C9C-A90D-9AC5B53DF039}">
   <dimension ref="A1:AA24"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A8" sqref="A8"/>
+      <selection pane="topRight" activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5118,76 +5118,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="239" t="s">
+      <c r="A1" s="291" t="s">
         <v>220</v>
       </c>
-      <c r="B1" s="240"/>
-      <c r="C1" s="240"/>
-      <c r="D1" s="240"/>
-      <c r="F1" s="239" t="s">
+      <c r="B1" s="292"/>
+      <c r="C1" s="292"/>
+      <c r="D1" s="292"/>
+      <c r="F1" s="291" t="s">
         <v>222</v>
       </c>
-      <c r="G1" s="240"/>
-      <c r="H1" s="240"/>
-      <c r="I1" s="240"/>
-      <c r="J1" s="240"/>
-      <c r="K1" s="240"/>
-      <c r="L1" s="240"/>
-      <c r="M1" s="240"/>
-      <c r="N1" s="240"/>
-      <c r="O1" s="240"/>
-      <c r="P1" s="241"/>
-      <c r="R1" s="239" t="s">
+      <c r="G1" s="292"/>
+      <c r="H1" s="292"/>
+      <c r="I1" s="292"/>
+      <c r="J1" s="292"/>
+      <c r="K1" s="292"/>
+      <c r="L1" s="292"/>
+      <c r="M1" s="292"/>
+      <c r="N1" s="292"/>
+      <c r="O1" s="292"/>
+      <c r="P1" s="293"/>
+      <c r="R1" s="291" t="s">
         <v>223</v>
       </c>
-      <c r="S1" s="240"/>
-      <c r="T1" s="240"/>
-      <c r="U1" s="240"/>
-      <c r="V1" s="240"/>
-      <c r="W1" s="240"/>
-      <c r="X1" s="240"/>
-      <c r="Y1" s="240"/>
-      <c r="Z1" s="240"/>
-      <c r="AA1" s="241"/>
+      <c r="S1" s="292"/>
+      <c r="T1" s="292"/>
+      <c r="U1" s="292"/>
+      <c r="V1" s="292"/>
+      <c r="W1" s="292"/>
+      <c r="X1" s="292"/>
+      <c r="Y1" s="292"/>
+      <c r="Z1" s="292"/>
+      <c r="AA1" s="293"/>
     </row>
     <row r="2" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="246" t="s">
+      <c r="A2" s="287" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="245"/>
-      <c r="C2" s="245"/>
-      <c r="D2" s="245"/>
-      <c r="F2" s="242" t="s">
+      <c r="B2" s="286"/>
+      <c r="C2" s="286"/>
+      <c r="D2" s="286"/>
+      <c r="F2" s="288" t="s">
         <v>130</v>
       </c>
-      <c r="G2" s="244"/>
-      <c r="H2" s="244"/>
-      <c r="I2" s="244"/>
-      <c r="J2" s="244"/>
-      <c r="K2" s="244"/>
-      <c r="L2" s="244"/>
-      <c r="M2" s="243"/>
+      <c r="G2" s="289"/>
+      <c r="H2" s="289"/>
+      <c r="I2" s="289"/>
+      <c r="J2" s="289"/>
+      <c r="K2" s="289"/>
+      <c r="L2" s="289"/>
+      <c r="M2" s="290"/>
       <c r="N2" s="104" t="s">
         <v>106</v>
       </c>
-      <c r="O2" s="242" t="s">
+      <c r="O2" s="288" t="s">
         <v>107</v>
       </c>
-      <c r="P2" s="243"/>
-      <c r="R2" s="242" t="s">
+      <c r="P2" s="290"/>
+      <c r="R2" s="288" t="s">
         <v>130</v>
       </c>
-      <c r="S2" s="244"/>
-      <c r="T2" s="244"/>
-      <c r="U2" s="244"/>
-      <c r="V2" s="244"/>
-      <c r="W2" s="244"/>
-      <c r="X2" s="244"/>
-      <c r="Y2" s="243"/>
-      <c r="Z2" s="242" t="s">
+      <c r="S2" s="289"/>
+      <c r="T2" s="289"/>
+      <c r="U2" s="289"/>
+      <c r="V2" s="289"/>
+      <c r="W2" s="289"/>
+      <c r="X2" s="289"/>
+      <c r="Y2" s="290"/>
+      <c r="Z2" s="288" t="s">
         <v>107</v>
       </c>
-      <c r="AA2" s="243"/>
+      <c r="AA2" s="290"/>
     </row>
     <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="51" t="s">
@@ -5226,7 +5226,7 @@
       <c r="M3" s="70">
         <v>0</v>
       </c>
-      <c r="N3" s="293">
+      <c r="N3" s="205">
         <v>172</v>
       </c>
       <c r="O3" s="78" t="s">
@@ -5291,7 +5291,7 @@
       <c r="M4" s="52">
         <v>0</v>
       </c>
-      <c r="N4" s="294">
+      <c r="N4" s="206">
         <v>192</v>
       </c>
       <c r="O4" s="80" t="s">
@@ -5358,7 +5358,7 @@
       <c r="M5" s="73">
         <v>0</v>
       </c>
-      <c r="N5" s="295">
+      <c r="N5" s="207">
         <v>16</v>
       </c>
       <c r="O5" s="82" t="s">
@@ -5417,7 +5417,7 @@
       <c r="M6" s="52">
         <v>0</v>
       </c>
-      <c r="N6" s="294">
+      <c r="N6" s="206">
         <v>168</v>
       </c>
       <c r="O6" s="80" t="s">
@@ -5448,12 +5448,12 @@
       </c>
     </row>
     <row r="7" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="245" t="s">
+      <c r="A7" s="286" t="s">
         <v>120</v>
       </c>
-      <c r="B7" s="245"/>
-      <c r="C7" s="245"/>
-      <c r="D7" s="245"/>
+      <c r="B7" s="286"/>
+      <c r="C7" s="286"/>
+      <c r="D7" s="286"/>
       <c r="F7" s="72">
         <v>1</v>
       </c>
@@ -5478,7 +5478,7 @@
       <c r="M7" s="73">
         <v>0</v>
       </c>
-      <c r="N7" s="295">
+      <c r="N7" s="207">
         <v>208</v>
       </c>
       <c r="O7" s="82" t="s">
@@ -5545,7 +5545,7 @@
       <c r="M8" s="52">
         <v>1</v>
       </c>
-      <c r="N8" s="294">
+      <c r="N8" s="206">
         <v>63</v>
       </c>
       <c r="O8" s="80" t="s">
@@ -5612,7 +5612,7 @@
       <c r="M9" s="73">
         <v>0</v>
       </c>
-      <c r="N9" s="295">
+      <c r="N9" s="207">
         <v>248</v>
       </c>
       <c r="O9" s="82" t="s">
@@ -5679,7 +5679,7 @@
       <c r="M10" s="52">
         <v>0</v>
       </c>
-      <c r="N10" s="294">
+      <c r="N10" s="206">
         <v>204</v>
       </c>
       <c r="O10" s="80" t="s">
@@ -5736,7 +5736,7 @@
       <c r="M11" s="73">
         <v>1</v>
       </c>
-      <c r="N11" s="295">
+      <c r="N11" s="207">
         <v>159</v>
       </c>
       <c r="O11" s="82" t="s">
@@ -5747,12 +5747,12 @@
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="245" t="s">
+      <c r="A12" s="286" t="s">
         <v>125</v>
       </c>
-      <c r="B12" s="245"/>
-      <c r="C12" s="245"/>
-      <c r="D12" s="245"/>
+      <c r="B12" s="286"/>
+      <c r="C12" s="286"/>
+      <c r="D12" s="286"/>
       <c r="F12" s="71">
         <v>0</v>
       </c>
@@ -5777,7 +5777,7 @@
       <c r="M12" s="52">
         <v>1</v>
       </c>
-      <c r="N12" s="294">
+      <c r="N12" s="206">
         <v>25</v>
       </c>
       <c r="O12" s="80" t="s">
@@ -5824,7 +5824,7 @@
       <c r="M13" s="73">
         <v>0</v>
       </c>
-      <c r="N13" s="295">
+      <c r="N13" s="207">
         <v>32</v>
       </c>
       <c r="O13" s="82" t="s">
@@ -5872,7 +5872,7 @@
       <c r="M14" s="52">
         <v>0</v>
       </c>
-      <c r="N14" s="294">
+      <c r="N14" s="206">
         <v>64</v>
       </c>
       <c r="O14" s="80" t="s">
@@ -5919,7 +5919,7 @@
       <c r="M15" s="77">
         <v>1</v>
       </c>
-      <c r="N15" s="296">
+      <c r="N15" s="208">
         <v>255</v>
       </c>
       <c r="O15" s="84" t="s">
@@ -5927,6 +5927,41 @@
       </c>
       <c r="P15" s="85" t="s">
         <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="F16" s="71">
+        <v>1</v>
+      </c>
+      <c r="G16" s="55">
+        <v>0</v>
+      </c>
+      <c r="H16" s="54">
+        <v>1</v>
+      </c>
+      <c r="I16" s="52">
+        <v>0</v>
+      </c>
+      <c r="J16" s="71">
+        <v>1</v>
+      </c>
+      <c r="K16" s="55">
+        <v>1</v>
+      </c>
+      <c r="L16" s="54">
+        <v>1</v>
+      </c>
+      <c r="M16" s="52">
+        <v>0</v>
+      </c>
+      <c r="N16" s="44">
+        <v>184</v>
+      </c>
+      <c r="O16" s="44" t="s">
+        <v>116</v>
+      </c>
+      <c r="P16" s="45" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="17" spans="5:17" x14ac:dyDescent="0.25">
@@ -5945,16 +5980,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="R1:AA1"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="R2:Y2"/>
+    <mergeCell ref="Z2:AA2"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="F2:M2"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:P1"/>
-    <mergeCell ref="R1:AA1"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="R2:Y2"/>
-    <mergeCell ref="Z2:AA2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5966,7 +6001,7 @@
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="E20" sqref="E20"/>
@@ -5994,24 +6029,24 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="107" t="s">
-        <v>241</v>
-      </c>
-      <c r="B1" s="250" t="s">
-        <v>233</v>
-      </c>
-      <c r="C1" s="250"/>
-      <c r="D1" s="250"/>
-      <c r="E1" s="251"/>
-      <c r="F1" s="250" t="s">
-        <v>234</v>
-      </c>
-      <c r="G1" s="250"/>
-      <c r="H1" s="250"/>
-      <c r="I1" s="250"/>
-      <c r="J1" s="250"/>
-      <c r="K1" s="250"/>
-      <c r="L1" s="250"/>
-      <c r="M1" s="250"/>
+        <v>238</v>
+      </c>
+      <c r="B1" s="295" t="s">
+        <v>230</v>
+      </c>
+      <c r="C1" s="295"/>
+      <c r="D1" s="295"/>
+      <c r="E1" s="296"/>
+      <c r="F1" s="295" t="s">
+        <v>231</v>
+      </c>
+      <c r="G1" s="295"/>
+      <c r="H1" s="295"/>
+      <c r="I1" s="295"/>
+      <c r="J1" s="295"/>
+      <c r="K1" s="295"/>
+      <c r="L1" s="295"/>
+      <c r="M1" s="295"/>
       <c r="N1" s="297">
         <f>2^32</f>
         <v>4294967296</v>
@@ -6019,41 +6054,41 @@
       <c r="O1" s="297"/>
       <c r="P1" s="297"/>
       <c r="Q1" s="175" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="107" t="s">
         <v>156</v>
       </c>
-      <c r="B2" s="252" t="s">
+      <c r="B2" s="298" t="s">
         <v>225</v>
       </c>
-      <c r="C2" s="252"/>
-      <c r="D2" s="252" t="s">
+      <c r="C2" s="298"/>
+      <c r="D2" s="298" t="s">
         <v>130</v>
       </c>
-      <c r="E2" s="253"/>
-      <c r="F2" s="252" t="s">
+      <c r="E2" s="299"/>
+      <c r="F2" s="298" t="s">
         <v>225</v>
       </c>
-      <c r="G2" s="252"/>
-      <c r="H2" s="252" t="s">
+      <c r="G2" s="298"/>
+      <c r="H2" s="298" t="s">
         <v>130</v>
       </c>
-      <c r="I2" s="252"/>
-      <c r="J2" s="252" t="s">
+      <c r="I2" s="298"/>
+      <c r="J2" s="298" t="s">
         <v>226</v>
       </c>
-      <c r="K2" s="252"/>
-      <c r="L2" s="252"/>
-      <c r="M2" s="252"/>
-      <c r="N2" s="247" t="s">
-        <v>268</v>
-      </c>
-      <c r="O2" s="247"/>
-      <c r="P2" s="247"/>
-      <c r="Q2" s="247"/>
+      <c r="K2" s="298"/>
+      <c r="L2" s="298"/>
+      <c r="M2" s="298"/>
+      <c r="N2" s="294" t="s">
+        <v>265</v>
+      </c>
+      <c r="O2" s="294"/>
+      <c r="P2" s="294"/>
+      <c r="Q2" s="294"/>
     </row>
     <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="174" t="s">
@@ -6084,16 +6119,16 @@
         <v>228</v>
       </c>
       <c r="J3" s="174" t="s">
+        <v>267</v>
+      </c>
+      <c r="K3" s="173" t="s">
+        <v>268</v>
+      </c>
+      <c r="L3" s="35" t="s">
+        <v>269</v>
+      </c>
+      <c r="M3" s="144" t="s">
         <v>270</v>
-      </c>
-      <c r="K3" s="173" t="s">
-        <v>271</v>
-      </c>
-      <c r="L3" s="35" t="s">
-        <v>272</v>
-      </c>
-      <c r="M3" s="144" t="s">
-        <v>273</v>
       </c>
       <c r="N3" s="174" t="s">
         <v>227</v>
@@ -6105,17 +6140,17 @@
         <v>130</v>
       </c>
       <c r="Q3" s="173" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="168" t="s">
         <v>108</v>
       </c>
-      <c r="B4" s="302" t="s">
+      <c r="B4" s="211" t="s">
         <v>131</v>
       </c>
-      <c r="C4" s="304">
+      <c r="C4" s="213">
         <v>127255255255</v>
       </c>
       <c r="D4" s="157" t="s">
@@ -6128,7 +6163,7 @@
         <v>146</v>
       </c>
       <c r="G4" s="176" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H4" s="157" t="s">
         <v>147</v>
@@ -6149,27 +6184,27 @@
         <f>2^24-2</f>
         <v>16777214</v>
       </c>
-      <c r="N4" s="302" t="s">
+      <c r="N4" s="211" t="s">
         <v>164</v>
       </c>
-      <c r="O4" s="304">
+      <c r="O4" s="213">
         <v>127255255255</v>
       </c>
       <c r="P4" s="157" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="Q4" s="158" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="169" t="s">
         <v>109</v>
       </c>
-      <c r="B5" s="303" t="s">
+      <c r="B5" s="212" t="s">
         <v>132</v>
       </c>
-      <c r="C5" s="305">
+      <c r="C5" s="214">
         <v>191255255255</v>
       </c>
       <c r="D5" s="164" t="s">
@@ -6179,16 +6214,16 @@
         <v>141</v>
       </c>
       <c r="F5" s="109" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G5" s="155" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H5" s="159" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="I5" s="160" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="J5" s="150" t="s">
         <v>151</v>
@@ -6203,27 +6238,27 @@
         <f>2^16-2</f>
         <v>65534</v>
       </c>
-      <c r="N5" s="303" t="s">
+      <c r="N5" s="212" t="s">
         <v>165</v>
       </c>
-      <c r="O5" s="305">
+      <c r="O5" s="214">
         <v>169254255255</v>
       </c>
       <c r="P5" s="164" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="Q5" s="165" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="168" t="s">
         <v>111</v>
       </c>
-      <c r="B6" s="302" t="s">
+      <c r="B6" s="211" t="s">
         <v>133</v>
       </c>
-      <c r="C6" s="304">
+      <c r="C6" s="213">
         <v>223255255255</v>
       </c>
       <c r="D6" s="157" t="s">
@@ -6233,16 +6268,16 @@
         <v>142</v>
       </c>
       <c r="F6" s="152" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G6" s="156" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H6" s="161" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="I6" s="162" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="J6" s="151" t="s">
         <v>152</v>
@@ -6266,10 +6301,10 @@
       <c r="A7" s="169" t="s">
         <v>112</v>
       </c>
-      <c r="B7" s="303" t="s">
+      <c r="B7" s="212" t="s">
         <v>134</v>
       </c>
-      <c r="C7" s="305">
+      <c r="C7" s="214">
         <v>239255255255</v>
       </c>
       <c r="D7" s="164" t="s">
@@ -6290,13 +6325,13 @@
       <c r="K7" s="301"/>
       <c r="L7" s="301"/>
       <c r="M7" s="301"/>
-      <c r="N7" s="303" t="s">
+      <c r="N7" s="212" t="s">
         <v>134</v>
       </c>
-      <c r="O7" s="305">
+      <c r="O7" s="214">
         <v>239255255255</v>
       </c>
-      <c r="P7" s="299">
+      <c r="P7" s="210">
         <v>11100000</v>
       </c>
       <c r="Q7" s="147" t="s">
@@ -6307,10 +6342,10 @@
       <c r="A8" s="170" t="s">
         <v>113</v>
       </c>
-      <c r="B8" s="306" t="s">
+      <c r="B8" s="215" t="s">
         <v>135</v>
       </c>
-      <c r="C8" s="307">
+      <c r="C8" s="216">
         <v>255255255255</v>
       </c>
       <c r="D8" s="166" t="s">
@@ -6319,25 +6354,25 @@
       <c r="E8" s="167" t="s">
         <v>145</v>
       </c>
-      <c r="F8" s="248" t="s">
+      <c r="F8" s="302" t="s">
         <v>149</v>
       </c>
-      <c r="G8" s="249"/>
-      <c r="H8" s="249"/>
-      <c r="I8" s="249"/>
-      <c r="J8" s="248" t="s">
+      <c r="G8" s="303"/>
+      <c r="H8" s="303"/>
+      <c r="I8" s="303"/>
+      <c r="J8" s="302" t="s">
         <v>149</v>
       </c>
-      <c r="K8" s="249"/>
-      <c r="L8" s="249"/>
-      <c r="M8" s="249"/>
-      <c r="N8" s="306" t="s">
+      <c r="K8" s="303"/>
+      <c r="L8" s="303"/>
+      <c r="M8" s="303"/>
+      <c r="N8" s="215" t="s">
         <v>135</v>
       </c>
-      <c r="O8" s="307">
+      <c r="O8" s="216">
         <v>255255255255</v>
       </c>
-      <c r="P8" s="298">
+      <c r="P8" s="209">
         <v>11110000</v>
       </c>
       <c r="Q8" s="163" t="s">
@@ -6348,463 +6383,467 @@
       <c r="E9" s="106"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="308" t="s">
+      <c r="A10" s="217" t="s">
+        <v>289</v>
+      </c>
+      <c r="B10" s="218" t="s">
+        <v>294</v>
+      </c>
+      <c r="C10" s="219" t="s">
+        <v>295</v>
+      </c>
+      <c r="D10" s="218" t="s">
+        <v>296</v>
+      </c>
+      <c r="E10" s="220" t="s">
+        <v>297</v>
+      </c>
+      <c r="F10" s="218" t="s">
+        <v>294</v>
+      </c>
+      <c r="G10" s="219" t="s">
+        <v>295</v>
+      </c>
+      <c r="H10" s="218" t="s">
+        <v>296</v>
+      </c>
+      <c r="I10" s="220" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="221" t="s">
+        <v>290</v>
+      </c>
+      <c r="B11" s="224">
+        <v>10</v>
+      </c>
+      <c r="C11" s="224">
+        <v>12</v>
+      </c>
+      <c r="D11" s="224">
+        <v>81</v>
+      </c>
+      <c r="E11" s="225">
+        <v>101</v>
+      </c>
+      <c r="F11" s="224" t="s">
+        <v>303</v>
+      </c>
+      <c r="G11" s="224" t="s">
+        <v>298</v>
+      </c>
+      <c r="H11" s="224" t="s">
+        <v>299</v>
+      </c>
+      <c r="I11" s="225" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="222" t="s">
+        <v>291</v>
+      </c>
+      <c r="B12" s="226">
+        <v>255</v>
+      </c>
+      <c r="C12" s="226">
+        <v>0</v>
+      </c>
+      <c r="D12" s="226">
+        <v>0</v>
+      </c>
+      <c r="E12" s="227">
+        <v>0</v>
+      </c>
+      <c r="F12" s="226" t="s">
+        <v>301</v>
+      </c>
+      <c r="G12" s="226" t="s">
+        <v>302</v>
+      </c>
+      <c r="H12" s="226" t="s">
+        <v>302</v>
+      </c>
+      <c r="I12" s="227" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="221" t="s">
         <v>292</v>
       </c>
-      <c r="B10" s="309" t="s">
-        <v>297</v>
-      </c>
-      <c r="C10" s="310" t="s">
-        <v>298</v>
-      </c>
-      <c r="D10" s="309" t="s">
-        <v>299</v>
-      </c>
-      <c r="E10" s="311" t="s">
-        <v>300</v>
-      </c>
-      <c r="F10" s="309" t="s">
-        <v>297</v>
-      </c>
-      <c r="G10" s="310" t="s">
-        <v>298</v>
-      </c>
-      <c r="H10" s="309" t="s">
-        <v>299</v>
-      </c>
-      <c r="I10" s="311" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="312" t="s">
+      <c r="B13" s="224">
+        <v>10</v>
+      </c>
+      <c r="C13" s="224">
+        <v>0</v>
+      </c>
+      <c r="D13" s="224">
+        <v>0</v>
+      </c>
+      <c r="E13" s="225">
+        <v>0</v>
+      </c>
+      <c r="F13" s="224" t="s">
+        <v>303</v>
+      </c>
+      <c r="G13" s="224" t="s">
+        <v>302</v>
+      </c>
+      <c r="H13" s="224" t="s">
+        <v>302</v>
+      </c>
+      <c r="I13" s="225" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="223" t="s">
         <v>293</v>
       </c>
-      <c r="B11" s="315">
+      <c r="B14" s="228">
         <v>10</v>
       </c>
-      <c r="C11" s="315">
-        <v>12</v>
-      </c>
-      <c r="D11" s="315">
-        <v>81</v>
-      </c>
-      <c r="E11" s="316">
-        <v>101</v>
-      </c>
-      <c r="F11" s="315" t="s">
-        <v>306</v>
-      </c>
-      <c r="G11" s="315" t="s">
+      <c r="C14" s="228">
+        <v>255</v>
+      </c>
+      <c r="D14" s="228">
+        <v>255</v>
+      </c>
+      <c r="E14" s="229">
+        <v>255</v>
+      </c>
+      <c r="F14" s="228" t="s">
+        <v>303</v>
+      </c>
+      <c r="G14" s="228" t="s">
         <v>301</v>
       </c>
-      <c r="H11" s="315" t="s">
-        <v>302</v>
-      </c>
-      <c r="I11" s="316" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="313" t="s">
-        <v>294</v>
-      </c>
-      <c r="B12" s="317">
-        <v>255</v>
-      </c>
-      <c r="C12" s="317">
-        <v>0</v>
-      </c>
-      <c r="D12" s="317">
-        <v>0</v>
-      </c>
-      <c r="E12" s="318">
-        <v>0</v>
-      </c>
-      <c r="F12" s="317" t="s">
-        <v>304</v>
-      </c>
-      <c r="G12" s="317" t="s">
-        <v>305</v>
-      </c>
-      <c r="H12" s="317" t="s">
-        <v>305</v>
-      </c>
-      <c r="I12" s="318" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="312" t="s">
-        <v>295</v>
-      </c>
-      <c r="B13" s="315">
-        <v>10</v>
-      </c>
-      <c r="C13" s="315">
-        <v>0</v>
-      </c>
-      <c r="D13" s="315">
-        <v>0</v>
-      </c>
-      <c r="E13" s="316">
-        <v>0</v>
-      </c>
-      <c r="F13" s="315" t="s">
-        <v>306</v>
-      </c>
-      <c r="G13" s="315" t="s">
-        <v>305</v>
-      </c>
-      <c r="H13" s="315" t="s">
-        <v>305</v>
-      </c>
-      <c r="I13" s="316" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="314" t="s">
-        <v>296</v>
-      </c>
-      <c r="B14" s="319">
-        <v>10</v>
-      </c>
-      <c r="C14" s="319">
-        <v>255</v>
-      </c>
-      <c r="D14" s="319">
-        <v>255</v>
-      </c>
-      <c r="E14" s="320">
-        <v>255</v>
-      </c>
-      <c r="F14" s="319" t="s">
-        <v>306</v>
-      </c>
-      <c r="G14" s="319" t="s">
-        <v>304</v>
-      </c>
-      <c r="H14" s="319" t="s">
-        <v>304</v>
-      </c>
-      <c r="I14" s="320" t="s">
-        <v>304</v>
+      <c r="H14" s="228" t="s">
+        <v>301</v>
+      </c>
+      <c r="I14" s="229" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="321"/>
-      <c r="C15" s="321"/>
-      <c r="D15" s="321"/>
-      <c r="E15" s="321"/>
-      <c r="F15" s="321"/>
-      <c r="G15" s="321"/>
-      <c r="H15" s="321"/>
-      <c r="I15" s="321"/>
+      <c r="B15" s="230"/>
+      <c r="C15" s="230"/>
+      <c r="D15" s="230"/>
+      <c r="E15" s="230"/>
+      <c r="F15" s="230"/>
+      <c r="G15" s="230"/>
+      <c r="H15" s="230"/>
+      <c r="I15" s="230"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="308" t="s">
+      <c r="A16" s="217" t="s">
+        <v>289</v>
+      </c>
+      <c r="B16" s="231" t="s">
+        <v>294</v>
+      </c>
+      <c r="C16" s="232" t="s">
+        <v>295</v>
+      </c>
+      <c r="D16" s="231" t="s">
+        <v>296</v>
+      </c>
+      <c r="E16" s="233" t="s">
+        <v>297</v>
+      </c>
+      <c r="F16" s="231" t="s">
+        <v>294</v>
+      </c>
+      <c r="G16" s="232" t="s">
+        <v>295</v>
+      </c>
+      <c r="H16" s="231" t="s">
+        <v>296</v>
+      </c>
+      <c r="I16" s="233" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="221" t="s">
+        <v>290</v>
+      </c>
+      <c r="B17" s="224">
+        <v>172</v>
+      </c>
+      <c r="C17" s="224">
+        <v>16</v>
+      </c>
+      <c r="D17" s="224">
+        <v>22</v>
+      </c>
+      <c r="E17" s="225">
+        <v>13</v>
+      </c>
+      <c r="F17" s="224" t="s">
+        <v>306</v>
+      </c>
+      <c r="G17" s="224" t="s">
+        <v>307</v>
+      </c>
+      <c r="H17" s="224" t="s">
+        <v>304</v>
+      </c>
+      <c r="I17" s="225" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="222" t="s">
+        <v>291</v>
+      </c>
+      <c r="B18" s="226">
+        <v>255</v>
+      </c>
+      <c r="C18" s="226">
+        <v>255</v>
+      </c>
+      <c r="D18" s="226">
+        <v>0</v>
+      </c>
+      <c r="E18" s="227">
+        <v>0</v>
+      </c>
+      <c r="F18" s="226" t="s">
+        <v>301</v>
+      </c>
+      <c r="G18" s="226" t="s">
+        <v>301</v>
+      </c>
+      <c r="H18" s="226" t="s">
+        <v>302</v>
+      </c>
+      <c r="I18" s="227" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="221" t="s">
         <v>292</v>
       </c>
-      <c r="B16" s="322" t="s">
+      <c r="B19" s="224">
+        <v>172</v>
+      </c>
+      <c r="C19" s="224">
+        <v>16</v>
+      </c>
+      <c r="D19" s="224">
+        <v>0</v>
+      </c>
+      <c r="E19" s="225">
+        <v>0</v>
+      </c>
+      <c r="F19" s="224" t="s">
+        <v>306</v>
+      </c>
+      <c r="G19" s="224" t="s">
+        <v>307</v>
+      </c>
+      <c r="H19" s="224" t="s">
+        <v>302</v>
+      </c>
+      <c r="I19" s="225" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="223" t="s">
+        <v>293</v>
+      </c>
+      <c r="B20" s="228">
+        <v>172</v>
+      </c>
+      <c r="C20" s="228">
+        <v>16</v>
+      </c>
+      <c r="D20" s="228">
+        <v>255</v>
+      </c>
+      <c r="E20" s="229">
+        <v>255</v>
+      </c>
+      <c r="F20" s="228" t="s">
+        <v>306</v>
+      </c>
+      <c r="G20" s="228" t="s">
+        <v>307</v>
+      </c>
+      <c r="H20" s="228" t="s">
+        <v>301</v>
+      </c>
+      <c r="I20" s="229" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="230"/>
+      <c r="C21" s="230"/>
+      <c r="D21" s="230"/>
+      <c r="E21" s="230"/>
+      <c r="F21" s="230"/>
+      <c r="G21" s="230"/>
+      <c r="H21" s="230"/>
+      <c r="I21" s="230"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="217" t="s">
+        <v>289</v>
+      </c>
+      <c r="B22" s="231" t="s">
+        <v>294</v>
+      </c>
+      <c r="C22" s="232" t="s">
+        <v>295</v>
+      </c>
+      <c r="D22" s="231" t="s">
+        <v>296</v>
+      </c>
+      <c r="E22" s="233" t="s">
         <v>297</v>
       </c>
-      <c r="C16" s="323" t="s">
-        <v>298</v>
-      </c>
-      <c r="D16" s="322" t="s">
-        <v>299</v>
-      </c>
-      <c r="E16" s="324" t="s">
-        <v>300</v>
-      </c>
-      <c r="F16" s="322" t="s">
+      <c r="F22" s="231" t="s">
+        <v>294</v>
+      </c>
+      <c r="G22" s="232" t="s">
+        <v>295</v>
+      </c>
+      <c r="H22" s="231" t="s">
+        <v>296</v>
+      </c>
+      <c r="I22" s="233" t="s">
         <v>297</v>
       </c>
-      <c r="G16" s="323" t="s">
-        <v>298</v>
-      </c>
-      <c r="H16" s="322" t="s">
-        <v>299</v>
-      </c>
-      <c r="I16" s="324" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="312" t="s">
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="221" t="s">
+        <v>290</v>
+      </c>
+      <c r="B23" s="224">
+        <v>192</v>
+      </c>
+      <c r="C23" s="224">
+        <v>168</v>
+      </c>
+      <c r="D23" s="224">
+        <v>117</v>
+      </c>
+      <c r="E23" s="225">
+        <v>136</v>
+      </c>
+      <c r="F23" s="224" t="s">
+        <v>308</v>
+      </c>
+      <c r="G23" s="224" t="s">
+        <v>309</v>
+      </c>
+      <c r="H23" s="224" t="s">
+        <v>311</v>
+      </c>
+      <c r="I23" s="225" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="222" t="s">
+        <v>291</v>
+      </c>
+      <c r="B24" s="226">
+        <v>255</v>
+      </c>
+      <c r="C24" s="226">
+        <v>255</v>
+      </c>
+      <c r="D24" s="226">
+        <v>255</v>
+      </c>
+      <c r="E24" s="227">
+        <v>0</v>
+      </c>
+      <c r="F24" s="226" t="s">
+        <v>301</v>
+      </c>
+      <c r="G24" s="226" t="s">
+        <v>301</v>
+      </c>
+      <c r="H24" s="226" t="s">
+        <v>301</v>
+      </c>
+      <c r="I24" s="227" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="221" t="s">
+        <v>292</v>
+      </c>
+      <c r="B25" s="224">
+        <v>192</v>
+      </c>
+      <c r="C25" s="224">
+        <v>168</v>
+      </c>
+      <c r="D25" s="224">
+        <v>117</v>
+      </c>
+      <c r="E25" s="225">
+        <v>0</v>
+      </c>
+      <c r="F25" s="224" t="s">
+        <v>308</v>
+      </c>
+      <c r="G25" s="224" t="s">
+        <v>309</v>
+      </c>
+      <c r="H25" s="224" t="s">
+        <v>311</v>
+      </c>
+      <c r="I25" s="225" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="223" t="s">
         <v>293</v>
       </c>
-      <c r="B17" s="315">
-        <v>172</v>
-      </c>
-      <c r="C17" s="315">
-        <v>16</v>
-      </c>
-      <c r="D17" s="315">
-        <v>22</v>
-      </c>
-      <c r="E17" s="316">
-        <v>13</v>
-      </c>
-      <c r="F17" s="315" t="s">
+      <c r="B26" s="228">
+        <v>192</v>
+      </c>
+      <c r="C26" s="228">
+        <v>168</v>
+      </c>
+      <c r="D26" s="228">
+        <v>117</v>
+      </c>
+      <c r="E26" s="229">
+        <v>255</v>
+      </c>
+      <c r="F26" s="228" t="s">
+        <v>308</v>
+      </c>
+      <c r="G26" s="228" t="s">
         <v>309</v>
       </c>
-      <c r="G17" s="315" t="s">
-        <v>310</v>
-      </c>
-      <c r="H17" s="315" t="s">
-        <v>307</v>
-      </c>
-      <c r="I17" s="316" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="313" t="s">
-        <v>294</v>
-      </c>
-      <c r="B18" s="317">
-        <v>255</v>
-      </c>
-      <c r="C18" s="317">
-        <v>255</v>
-      </c>
-      <c r="D18" s="317">
-        <v>0</v>
-      </c>
-      <c r="E18" s="318">
-        <v>0</v>
-      </c>
-      <c r="F18" s="317" t="s">
-        <v>304</v>
-      </c>
-      <c r="G18" s="317" t="s">
-        <v>304</v>
-      </c>
-      <c r="H18" s="317" t="s">
-        <v>305</v>
-      </c>
-      <c r="I18" s="318" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="312" t="s">
-        <v>295</v>
-      </c>
-      <c r="B19" s="315">
-        <v>172</v>
-      </c>
-      <c r="C19" s="315">
-        <v>16</v>
-      </c>
-      <c r="D19" s="315">
-        <v>0</v>
-      </c>
-      <c r="E19" s="316">
-        <v>0</v>
-      </c>
-      <c r="F19" s="315" t="s">
-        <v>309</v>
-      </c>
-      <c r="G19" s="315" t="s">
-        <v>310</v>
-      </c>
-      <c r="H19" s="315" t="s">
-        <v>305</v>
-      </c>
-      <c r="I19" s="316" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="314" t="s">
-        <v>296</v>
-      </c>
-      <c r="B20" s="319">
-        <v>172</v>
-      </c>
-      <c r="C20" s="319">
-        <v>16</v>
-      </c>
-      <c r="D20" s="319">
-        <v>255</v>
-      </c>
-      <c r="E20" s="320">
-        <v>255</v>
-      </c>
-      <c r="F20" s="319" t="s">
-        <v>309</v>
-      </c>
-      <c r="G20" s="319" t="s">
-        <v>310</v>
-      </c>
-      <c r="H20" s="319" t="s">
-        <v>304</v>
-      </c>
-      <c r="I20" s="320" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="321"/>
-      <c r="C21" s="321"/>
-      <c r="D21" s="321"/>
-      <c r="E21" s="321"/>
-      <c r="F21" s="321"/>
-      <c r="G21" s="321"/>
-      <c r="H21" s="321"/>
-      <c r="I21" s="321"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="308" t="s">
-        <v>292</v>
-      </c>
-      <c r="B22" s="322" t="s">
-        <v>297</v>
-      </c>
-      <c r="C22" s="323" t="s">
-        <v>298</v>
-      </c>
-      <c r="D22" s="322" t="s">
-        <v>299</v>
-      </c>
-      <c r="E22" s="324" t="s">
-        <v>300</v>
-      </c>
-      <c r="F22" s="322" t="s">
-        <v>297</v>
-      </c>
-      <c r="G22" s="323" t="s">
-        <v>298</v>
-      </c>
-      <c r="H22" s="322" t="s">
-        <v>299</v>
-      </c>
-      <c r="I22" s="324" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="312" t="s">
-        <v>293</v>
-      </c>
-      <c r="B23" s="315">
-        <v>192</v>
-      </c>
-      <c r="C23" s="315">
-        <v>168</v>
-      </c>
-      <c r="D23" s="315">
-        <v>117</v>
-      </c>
-      <c r="E23" s="316">
-        <v>136</v>
-      </c>
-      <c r="F23" s="315" t="s">
+      <c r="H26" s="228" t="s">
         <v>311</v>
       </c>
-      <c r="G23" s="315" t="s">
-        <v>312</v>
-      </c>
-      <c r="H23" s="315" t="s">
-        <v>314</v>
-      </c>
-      <c r="I23" s="316" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="313" t="s">
-        <v>294</v>
-      </c>
-      <c r="B24" s="317">
-        <v>255</v>
-      </c>
-      <c r="C24" s="317">
-        <v>255</v>
-      </c>
-      <c r="D24" s="317">
-        <v>255</v>
-      </c>
-      <c r="E24" s="318">
-        <v>0</v>
-      </c>
-      <c r="F24" s="317" t="s">
-        <v>304</v>
-      </c>
-      <c r="G24" s="317" t="s">
-        <v>304</v>
-      </c>
-      <c r="H24" s="317" t="s">
-        <v>304</v>
-      </c>
-      <c r="I24" s="318" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="312" t="s">
-        <v>295</v>
-      </c>
-      <c r="B25" s="315">
-        <v>192</v>
-      </c>
-      <c r="C25" s="315">
-        <v>168</v>
-      </c>
-      <c r="D25" s="315">
-        <v>117</v>
-      </c>
-      <c r="E25" s="316">
-        <v>0</v>
-      </c>
-      <c r="F25" s="315" t="s">
-        <v>311</v>
-      </c>
-      <c r="G25" s="315" t="s">
-        <v>312</v>
-      </c>
-      <c r="H25" s="315" t="s">
-        <v>314</v>
-      </c>
-      <c r="I25" s="316" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="314" t="s">
-        <v>296</v>
-      </c>
-      <c r="B26" s="319">
-        <v>192</v>
-      </c>
-      <c r="C26" s="319">
-        <v>168</v>
-      </c>
-      <c r="D26" s="319">
-        <v>117</v>
-      </c>
-      <c r="E26" s="320">
-        <v>255</v>
-      </c>
-      <c r="F26" s="319" t="s">
-        <v>311</v>
-      </c>
-      <c r="G26" s="319" t="s">
-        <v>312</v>
-      </c>
-      <c r="H26" s="319" t="s">
-        <v>314</v>
-      </c>
-      <c r="I26" s="320" t="s">
-        <v>304</v>
+      <c r="I26" s="229" t="s">
+        <v>301</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="J8:M8"/>
     <mergeCell ref="N2:Q2"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:M1"/>
@@ -6814,10 +6853,6 @@
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="J8:M8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6833,16 +6868,16 @@
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:H5"/>
+      <selection activeCell="M3" sqref="L3:M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="10" width="7.28515625" customWidth="1"/>
-    <col min="11" max="11" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6850,45 +6885,45 @@
       <c r="A1" s="110" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="269">
+      <c r="B1" s="304">
         <f>2^128</f>
         <v>3.4028236692093846E+38</v>
       </c>
-      <c r="C1" s="269"/>
-      <c r="D1" s="269"/>
-      <c r="E1" s="269"/>
-      <c r="F1" s="269"/>
-      <c r="G1" s="269"/>
-      <c r="H1" s="269"/>
-      <c r="I1" s="269"/>
+      <c r="C1" s="304"/>
+      <c r="D1" s="304"/>
+      <c r="E1" s="304"/>
+      <c r="F1" s="304"/>
+      <c r="G1" s="304"/>
+      <c r="H1" s="304"/>
+      <c r="I1" s="304"/>
       <c r="J1" s="110" t="s">
-        <v>243</v>
-      </c>
-      <c r="K1" s="270" t="s">
+        <v>240</v>
+      </c>
+      <c r="K1" s="305" t="s">
         <v>229</v>
       </c>
-      <c r="L1" s="270"/>
-      <c r="M1" s="270"/>
-      <c r="N1" s="270"/>
+      <c r="L1" s="305"/>
+      <c r="M1" s="305"/>
+      <c r="N1" s="305"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="133" t="s">
         <v>177</v>
       </c>
-      <c r="B2" s="271" t="s">
+      <c r="B2" s="306" t="s">
         <v>173</v>
       </c>
-      <c r="C2" s="272"/>
-      <c r="D2" s="272"/>
+      <c r="C2" s="307"/>
+      <c r="D2" s="307"/>
       <c r="E2" s="111" t="s">
-        <v>256</v>
-      </c>
-      <c r="F2" s="272" t="s">
+        <v>253</v>
+      </c>
+      <c r="F2" s="307" t="s">
         <v>174</v>
       </c>
-      <c r="G2" s="272"/>
-      <c r="H2" s="272"/>
-      <c r="I2" s="273"/>
+      <c r="G2" s="307"/>
+      <c r="H2" s="307"/>
+      <c r="I2" s="308"/>
       <c r="J2" s="112" t="s">
         <v>175</v>
       </c>
@@ -6902,7 +6937,7 @@
         <v>228</v>
       </c>
       <c r="N2" s="112" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6940,13 +6975,13 @@
         <v>173</v>
       </c>
       <c r="L3" s="118" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="M3" s="119" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="N3" s="113" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6984,13 +7019,13 @@
         <v>187</v>
       </c>
       <c r="L4" s="120" t="s">
-        <v>230</v>
+        <v>188</v>
       </c>
       <c r="M4" s="121" t="s">
         <v>186</v>
       </c>
       <c r="N4" s="115" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7009,11 +7044,11 @@
       <c r="E5" s="131" t="s">
         <v>182</v>
       </c>
-      <c r="F5" s="274" t="s">
+      <c r="F5" s="309" t="s">
         <v>184</v>
       </c>
-      <c r="G5" s="274"/>
-      <c r="H5" s="274"/>
+      <c r="G5" s="309"/>
+      <c r="H5" s="309"/>
       <c r="I5" s="132">
         <v>1</v>
       </c>
@@ -7021,16 +7056,16 @@
         <v>176</v>
       </c>
       <c r="K5" s="114" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="L5" s="122" t="s">
-        <v>231</v>
+        <v>313</v>
       </c>
       <c r="M5" s="123" t="s">
-        <v>232</v>
+        <v>314</v>
       </c>
       <c r="N5" s="114" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7041,60 +7076,60 @@
         <v>186</v>
       </c>
       <c r="B7" s="116" t="s">
-        <v>266</v>
-      </c>
-      <c r="C7" s="266" t="s">
-        <v>251</v>
-      </c>
-      <c r="D7" s="266"/>
-      <c r="E7" s="266"/>
-      <c r="F7" s="267"/>
+        <v>263</v>
+      </c>
+      <c r="C7" s="316" t="s">
+        <v>248</v>
+      </c>
+      <c r="D7" s="316"/>
+      <c r="E7" s="316"/>
+      <c r="F7" s="317"/>
       <c r="G7" s="140" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="113" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B8" s="137" t="s">
         <v>188</v>
       </c>
       <c r="C8" s="136" t="s">
-        <v>265</v>
-      </c>
-      <c r="D8" s="268" t="s">
+        <v>262</v>
+      </c>
+      <c r="D8" s="318" t="s">
+        <v>249</v>
+      </c>
+      <c r="E8" s="318"/>
+      <c r="F8" s="134" t="s">
+        <v>250</v>
+      </c>
+      <c r="G8" s="119" t="s">
         <v>252</v>
-      </c>
-      <c r="E8" s="268"/>
-      <c r="F8" s="134" t="s">
-        <v>253</v>
-      </c>
-      <c r="G8" s="119" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="115" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B9" s="138" t="s">
         <v>188</v>
       </c>
       <c r="C9" s="127" t="s">
+        <v>251</v>
+      </c>
+      <c r="D9" s="127" t="s">
+        <v>257</v>
+      </c>
+      <c r="E9" s="127" t="s">
+        <v>258</v>
+      </c>
+      <c r="F9" s="128" t="s">
+        <v>250</v>
+      </c>
+      <c r="G9" s="119" t="s">
         <v>254</v>
-      </c>
-      <c r="D9" s="127" t="s">
-        <v>260</v>
-      </c>
-      <c r="E9" s="127" t="s">
-        <v>261</v>
-      </c>
-      <c r="F9" s="128" t="s">
-        <v>253</v>
-      </c>
-      <c r="G9" s="119" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7105,134 +7140,134 @@
         <v>189</v>
       </c>
       <c r="C10" s="135" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D10" s="135" t="s">
+        <v>257</v>
+      </c>
+      <c r="E10" s="135" t="s">
+        <v>258</v>
+      </c>
+      <c r="F10" s="132" t="s">
+        <v>250</v>
+      </c>
+      <c r="G10" s="123" t="s">
         <v>260</v>
-      </c>
-      <c r="E10" s="135" t="s">
-        <v>261</v>
-      </c>
-      <c r="F10" s="132" t="s">
-        <v>253</v>
-      </c>
-      <c r="G10" s="123" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="143" t="s">
-        <v>266</v>
-      </c>
-      <c r="B12" s="263" t="s">
-        <v>251</v>
-      </c>
-      <c r="C12" s="264"/>
-      <c r="D12" s="265"/>
-      <c r="E12" s="263" t="s">
-        <v>267</v>
-      </c>
-      <c r="F12" s="264"/>
-      <c r="G12" s="265"/>
+        <v>263</v>
+      </c>
+      <c r="B12" s="313" t="s">
+        <v>248</v>
+      </c>
+      <c r="C12" s="314"/>
+      <c r="D12" s="315"/>
+      <c r="E12" s="313" t="s">
+        <v>264</v>
+      </c>
+      <c r="F12" s="314"/>
+      <c r="G12" s="315"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="141" t="s">
         <v>188</v>
       </c>
-      <c r="B13" s="254" t="s">
+      <c r="B13" s="310" t="s">
         <v>190</v>
       </c>
-      <c r="C13" s="255"/>
-      <c r="D13" s="256"/>
-      <c r="E13" s="255" t="s">
+      <c r="C13" s="311"/>
+      <c r="D13" s="312"/>
+      <c r="E13" s="311" t="s">
         <v>191</v>
       </c>
-      <c r="F13" s="255"/>
-      <c r="G13" s="256"/>
+      <c r="F13" s="311"/>
+      <c r="G13" s="312"/>
       <c r="H13" s="50"/>
       <c r="I13" s="50"/>
       <c r="J13" s="50"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="142"/>
-      <c r="B14" s="257"/>
-      <c r="C14" s="258"/>
-      <c r="D14" s="259"/>
-      <c r="E14" s="258"/>
-      <c r="F14" s="258"/>
-      <c r="G14" s="259"/>
+      <c r="B14" s="319"/>
+      <c r="C14" s="320"/>
+      <c r="D14" s="321"/>
+      <c r="E14" s="320"/>
+      <c r="F14" s="320"/>
+      <c r="G14" s="321"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="141"/>
-      <c r="B15" s="254"/>
-      <c r="C15" s="255"/>
-      <c r="D15" s="256"/>
-      <c r="E15" s="255"/>
-      <c r="F15" s="255"/>
-      <c r="G15" s="256"/>
+      <c r="B15" s="310"/>
+      <c r="C15" s="311"/>
+      <c r="D15" s="312"/>
+      <c r="E15" s="311"/>
+      <c r="F15" s="311"/>
+      <c r="G15" s="312"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="142"/>
-      <c r="B16" s="257"/>
-      <c r="C16" s="258"/>
-      <c r="D16" s="259"/>
-      <c r="E16" s="258"/>
-      <c r="F16" s="258"/>
-      <c r="G16" s="259"/>
+      <c r="B16" s="319"/>
+      <c r="C16" s="320"/>
+      <c r="D16" s="321"/>
+      <c r="E16" s="320"/>
+      <c r="F16" s="320"/>
+      <c r="G16" s="321"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="141"/>
-      <c r="B17" s="254"/>
-      <c r="C17" s="255"/>
-      <c r="D17" s="256"/>
-      <c r="E17" s="255"/>
-      <c r="F17" s="255"/>
-      <c r="G17" s="256"/>
+      <c r="B17" s="310"/>
+      <c r="C17" s="311"/>
+      <c r="D17" s="312"/>
+      <c r="E17" s="311"/>
+      <c r="F17" s="311"/>
+      <c r="G17" s="312"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="142"/>
-      <c r="B18" s="257"/>
-      <c r="C18" s="258"/>
-      <c r="D18" s="259"/>
-      <c r="E18" s="258"/>
-      <c r="F18" s="258"/>
-      <c r="G18" s="259"/>
+      <c r="B18" s="319"/>
+      <c r="C18" s="320"/>
+      <c r="D18" s="321"/>
+      <c r="E18" s="320"/>
+      <c r="F18" s="320"/>
+      <c r="G18" s="321"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="129"/>
-      <c r="B19" s="260"/>
-      <c r="C19" s="261"/>
-      <c r="D19" s="262"/>
-      <c r="E19" s="261"/>
-      <c r="F19" s="261"/>
-      <c r="G19" s="262"/>
+      <c r="B19" s="322"/>
+      <c r="C19" s="323"/>
+      <c r="D19" s="324"/>
+      <c r="E19" s="323"/>
+      <c r="F19" s="323"/>
+      <c r="G19" s="324"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="E13:G13"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="E12:G12"/>
     <mergeCell ref="C7:F7"/>
     <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="F5:H5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/protocol-suite.xlsx
+++ b/docs/protocol-suite.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\redes\saves\ccna-lx19\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D632B6A5-5F60-4E3E-903B-2D9FB33FE3C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{559CF4ED-5A25-49B5-9BC4-1416F600CCD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{3415D364-6D1D-489F-8C8D-BD784F513C31}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{3415D364-6D1D-489F-8C8D-BD784F513C31}"/>
   </bookViews>
   <sheets>
     <sheet name="modelos" sheetId="1" r:id="rId1"/>
@@ -3441,6 +3441,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="67" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="68" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -3507,12 +3513,6 @@
     <xf numFmtId="0" fontId="4" fillId="30" borderId="65" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="67" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="68" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3567,28 +3567,40 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3609,16 +3621,49 @@
     <xf numFmtId="0" fontId="3" fillId="26" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="24" borderId="54" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="24" borderId="55" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="24" borderId="56" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="24" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="24" borderId="57" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="59" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="60" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="28" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="15" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3637,51 +3682,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="28" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="24" borderId="54" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="24" borderId="55" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="59" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="60" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="28" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="24" borderId="56" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="24" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="24" borderId="57" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4403,24 +4403,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="247" t="s">
+      <c r="A2" s="249" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="248"/>
+      <c r="B2" s="250"/>
       <c r="C2" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="247" t="s">
+      <c r="E2" s="249" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="248"/>
+      <c r="F2" s="250"/>
       <c r="G2" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="247" t="s">
+      <c r="I2" s="249" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="248"/>
+      <c r="J2" s="250"/>
       <c r="K2" s="27" t="s">
         <v>42</v>
       </c>
@@ -4594,15 +4594,15 @@
       <c r="E9" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="F9" s="255" t="s">
+      <c r="F9" s="257" t="s">
         <v>67</v>
       </c>
-      <c r="G9" s="255"/>
-      <c r="I9" s="255" t="s">
+      <c r="G9" s="257"/>
+      <c r="I9" s="257" t="s">
         <v>81</v>
       </c>
-      <c r="J9" s="255"/>
-      <c r="K9" s="255"/>
+      <c r="J9" s="257"/>
+      <c r="K9" s="257"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
@@ -4618,15 +4618,15 @@
       <c r="E10" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="F10" s="250" t="s">
+      <c r="F10" s="252" t="s">
         <v>70</v>
       </c>
-      <c r="G10" s="251"/>
-      <c r="I10" s="249" t="s">
+      <c r="G10" s="253"/>
+      <c r="I10" s="251" t="s">
         <v>63</v>
       </c>
-      <c r="J10" s="250"/>
-      <c r="K10" s="251"/>
+      <c r="J10" s="252"/>
+      <c r="K10" s="253"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="39" t="s">
@@ -4641,15 +4641,15 @@
       <c r="E11" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="256" t="s">
+      <c r="F11" s="258" t="s">
         <v>52</v>
       </c>
-      <c r="G11" s="257"/>
-      <c r="I11" s="252" t="s">
+      <c r="G11" s="259"/>
+      <c r="I11" s="254" t="s">
         <v>64</v>
       </c>
-      <c r="J11" s="253"/>
-      <c r="K11" s="254"/>
+      <c r="J11" s="255"/>
+      <c r="K11" s="256"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
@@ -4664,15 +4664,15 @@
       <c r="E12" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="F12" s="250" t="s">
+      <c r="F12" s="252" t="s">
         <v>72</v>
       </c>
-      <c r="G12" s="251"/>
-      <c r="I12" s="249" t="s">
+      <c r="G12" s="253"/>
+      <c r="I12" s="251" t="s">
         <v>65</v>
       </c>
-      <c r="J12" s="250"/>
-      <c r="K12" s="251"/>
+      <c r="J12" s="252"/>
+      <c r="K12" s="253"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="39" t="s">
@@ -4708,94 +4708,95 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="244" t="s">
+      <c r="A17" s="246" t="s">
         <v>282</v>
       </c>
       <c r="B17" s="200" t="s">
         <v>272</v>
       </c>
-      <c r="C17" s="258" t="s">
+      <c r="C17" s="260" t="s">
         <v>273</v>
       </c>
-      <c r="D17" s="258"/>
-      <c r="E17" s="258"/>
-      <c r="F17" s="258"/>
-      <c r="G17" s="258"/>
-      <c r="H17" s="258"/>
-      <c r="I17" s="258"/>
-      <c r="J17" s="258"/>
-      <c r="K17" s="259"/>
+      <c r="D17" s="260"/>
+      <c r="E17" s="260"/>
+      <c r="F17" s="260"/>
+      <c r="G17" s="260"/>
+      <c r="H17" s="260"/>
+      <c r="I17" s="260"/>
+      <c r="J17" s="260"/>
+      <c r="K17" s="261"/>
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="245"/>
+      <c r="A18" s="247"/>
       <c r="B18" s="201" t="s">
         <v>274</v>
       </c>
-      <c r="C18" s="260" t="s">
+      <c r="C18" s="262" t="s">
         <v>275</v>
       </c>
-      <c r="D18" s="260"/>
-      <c r="E18" s="260"/>
-      <c r="F18" s="260"/>
-      <c r="G18" s="260"/>
-      <c r="H18" s="260"/>
-      <c r="I18" s="260"/>
-      <c r="J18" s="260"/>
-      <c r="K18" s="261"/>
+      <c r="D18" s="262"/>
+      <c r="E18" s="262"/>
+      <c r="F18" s="262"/>
+      <c r="G18" s="262"/>
+      <c r="H18" s="262"/>
+      <c r="I18" s="262"/>
+      <c r="J18" s="262"/>
+      <c r="K18" s="263"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="245"/>
+      <c r="A19" s="247"/>
       <c r="B19" s="202" t="s">
         <v>276</v>
       </c>
-      <c r="C19" s="262" t="s">
+      <c r="C19" s="264" t="s">
         <v>277</v>
       </c>
-      <c r="D19" s="262"/>
-      <c r="E19" s="262"/>
-      <c r="F19" s="262"/>
-      <c r="G19" s="262"/>
-      <c r="H19" s="262"/>
-      <c r="I19" s="262"/>
-      <c r="J19" s="262"/>
-      <c r="K19" s="263"/>
+      <c r="D19" s="264"/>
+      <c r="E19" s="264"/>
+      <c r="F19" s="264"/>
+      <c r="G19" s="264"/>
+      <c r="H19" s="264"/>
+      <c r="I19" s="264"/>
+      <c r="J19" s="264"/>
+      <c r="K19" s="265"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="245"/>
+      <c r="A20" s="247"/>
       <c r="B20" s="203" t="s">
         <v>278</v>
       </c>
-      <c r="C20" s="264" t="s">
+      <c r="C20" s="266" t="s">
         <v>279</v>
       </c>
-      <c r="D20" s="264"/>
-      <c r="E20" s="264"/>
-      <c r="F20" s="264"/>
-      <c r="G20" s="264"/>
-      <c r="H20" s="264"/>
-      <c r="I20" s="264"/>
-      <c r="J20" s="264"/>
-      <c r="K20" s="265"/>
+      <c r="D20" s="266"/>
+      <c r="E20" s="266"/>
+      <c r="F20" s="266"/>
+      <c r="G20" s="266"/>
+      <c r="H20" s="266"/>
+      <c r="I20" s="266"/>
+      <c r="J20" s="266"/>
+      <c r="K20" s="267"/>
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="246"/>
+      <c r="A21" s="248"/>
       <c r="B21" s="204" t="s">
         <v>280</v>
       </c>
-      <c r="C21" s="266" t="s">
+      <c r="C21" s="244" t="s">
         <v>281</v>
       </c>
-      <c r="D21" s="266"/>
-      <c r="E21" s="266"/>
-      <c r="F21" s="266"/>
-      <c r="G21" s="266"/>
-      <c r="H21" s="266"/>
-      <c r="I21" s="266"/>
-      <c r="J21" s="266"/>
-      <c r="K21" s="267"/>
+      <c r="D21" s="244"/>
+      <c r="E21" s="244"/>
+      <c r="F21" s="244"/>
+      <c r="G21" s="244"/>
+      <c r="H21" s="244"/>
+      <c r="I21" s="244"/>
+      <c r="J21" s="244"/>
+      <c r="K21" s="245"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C20:K20"/>
     <mergeCell ref="C21:K21"/>
     <mergeCell ref="A17:A21"/>
     <mergeCell ref="I2:J2"/>
@@ -4812,7 +4813,6 @@
     <mergeCell ref="C17:K17"/>
     <mergeCell ref="C18:K18"/>
     <mergeCell ref="C19:K19"/>
-    <mergeCell ref="C20:K20"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5118,73 +5118,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="291" t="s">
+      <c r="A1" s="286" t="s">
         <v>220</v>
       </c>
-      <c r="B1" s="292"/>
-      <c r="C1" s="292"/>
-      <c r="D1" s="292"/>
-      <c r="F1" s="291" t="s">
+      <c r="B1" s="287"/>
+      <c r="C1" s="287"/>
+      <c r="D1" s="287"/>
+      <c r="F1" s="286" t="s">
         <v>222</v>
       </c>
-      <c r="G1" s="292"/>
-      <c r="H1" s="292"/>
-      <c r="I1" s="292"/>
-      <c r="J1" s="292"/>
-      <c r="K1" s="292"/>
-      <c r="L1" s="292"/>
-      <c r="M1" s="292"/>
-      <c r="N1" s="292"/>
-      <c r="O1" s="292"/>
-      <c r="P1" s="293"/>
-      <c r="R1" s="291" t="s">
+      <c r="G1" s="287"/>
+      <c r="H1" s="287"/>
+      <c r="I1" s="287"/>
+      <c r="J1" s="287"/>
+      <c r="K1" s="287"/>
+      <c r="L1" s="287"/>
+      <c r="M1" s="287"/>
+      <c r="N1" s="287"/>
+      <c r="O1" s="287"/>
+      <c r="P1" s="288"/>
+      <c r="R1" s="286" t="s">
         <v>223</v>
       </c>
-      <c r="S1" s="292"/>
-      <c r="T1" s="292"/>
-      <c r="U1" s="292"/>
-      <c r="V1" s="292"/>
-      <c r="W1" s="292"/>
-      <c r="X1" s="292"/>
-      <c r="Y1" s="292"/>
-      <c r="Z1" s="292"/>
-      <c r="AA1" s="293"/>
+      <c r="S1" s="287"/>
+      <c r="T1" s="287"/>
+      <c r="U1" s="287"/>
+      <c r="V1" s="287"/>
+      <c r="W1" s="287"/>
+      <c r="X1" s="287"/>
+      <c r="Y1" s="287"/>
+      <c r="Z1" s="287"/>
+      <c r="AA1" s="288"/>
     </row>
     <row r="2" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="287" t="s">
+      <c r="A2" s="293" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="286"/>
-      <c r="C2" s="286"/>
-      <c r="D2" s="286"/>
-      <c r="F2" s="288" t="s">
+      <c r="B2" s="292"/>
+      <c r="C2" s="292"/>
+      <c r="D2" s="292"/>
+      <c r="F2" s="289" t="s">
         <v>130</v>
       </c>
-      <c r="G2" s="289"/>
-      <c r="H2" s="289"/>
-      <c r="I2" s="289"/>
-      <c r="J2" s="289"/>
-      <c r="K2" s="289"/>
-      <c r="L2" s="289"/>
+      <c r="G2" s="291"/>
+      <c r="H2" s="291"/>
+      <c r="I2" s="291"/>
+      <c r="J2" s="291"/>
+      <c r="K2" s="291"/>
+      <c r="L2" s="291"/>
       <c r="M2" s="290"/>
       <c r="N2" s="104" t="s">
         <v>106</v>
       </c>
-      <c r="O2" s="288" t="s">
+      <c r="O2" s="289" t="s">
         <v>107</v>
       </c>
       <c r="P2" s="290"/>
-      <c r="R2" s="288" t="s">
+      <c r="R2" s="289" t="s">
         <v>130</v>
       </c>
-      <c r="S2" s="289"/>
-      <c r="T2" s="289"/>
-      <c r="U2" s="289"/>
-      <c r="V2" s="289"/>
-      <c r="W2" s="289"/>
-      <c r="X2" s="289"/>
+      <c r="S2" s="291"/>
+      <c r="T2" s="291"/>
+      <c r="U2" s="291"/>
+      <c r="V2" s="291"/>
+      <c r="W2" s="291"/>
+      <c r="X2" s="291"/>
       <c r="Y2" s="290"/>
-      <c r="Z2" s="288" t="s">
+      <c r="Z2" s="289" t="s">
         <v>107</v>
       </c>
       <c r="AA2" s="290"/>
@@ -5448,12 +5448,12 @@
       </c>
     </row>
     <row r="7" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="286" t="s">
+      <c r="A7" s="292" t="s">
         <v>120</v>
       </c>
-      <c r="B7" s="286"/>
-      <c r="C7" s="286"/>
-      <c r="D7" s="286"/>
+      <c r="B7" s="292"/>
+      <c r="C7" s="292"/>
+      <c r="D7" s="292"/>
       <c r="F7" s="72">
         <v>1</v>
       </c>
@@ -5747,12 +5747,12 @@
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="286" t="s">
+      <c r="A12" s="292" t="s">
         <v>125</v>
       </c>
-      <c r="B12" s="286"/>
-      <c r="C12" s="286"/>
-      <c r="D12" s="286"/>
+      <c r="B12" s="292"/>
+      <c r="C12" s="292"/>
+      <c r="D12" s="292"/>
       <c r="F12" s="71">
         <v>0</v>
       </c>
@@ -6000,8 +6000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{736925F0-C296-4BA5-A90C-9FBAD4DAF0DB}">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="5" ySplit="2" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="E20" sqref="E20"/>
@@ -6031,28 +6031,28 @@
       <c r="A1" s="107" t="s">
         <v>238</v>
       </c>
-      <c r="B1" s="295" t="s">
+      <c r="B1" s="299" t="s">
         <v>230</v>
       </c>
-      <c r="C1" s="295"/>
-      <c r="D1" s="295"/>
-      <c r="E1" s="296"/>
-      <c r="F1" s="295" t="s">
+      <c r="C1" s="299"/>
+      <c r="D1" s="299"/>
+      <c r="E1" s="300"/>
+      <c r="F1" s="299" t="s">
         <v>231</v>
       </c>
-      <c r="G1" s="295"/>
-      <c r="H1" s="295"/>
-      <c r="I1" s="295"/>
-      <c r="J1" s="295"/>
-      <c r="K1" s="295"/>
-      <c r="L1" s="295"/>
-      <c r="M1" s="295"/>
-      <c r="N1" s="297">
+      <c r="G1" s="299"/>
+      <c r="H1" s="299"/>
+      <c r="I1" s="299"/>
+      <c r="J1" s="299"/>
+      <c r="K1" s="299"/>
+      <c r="L1" s="299"/>
+      <c r="M1" s="299"/>
+      <c r="N1" s="301">
         <f>2^32</f>
         <v>4294967296</v>
       </c>
-      <c r="O1" s="297"/>
-      <c r="P1" s="297"/>
+      <c r="O1" s="301"/>
+      <c r="P1" s="301"/>
       <c r="Q1" s="175" t="s">
         <v>239</v>
       </c>
@@ -6061,34 +6061,34 @@
       <c r="A2" s="107" t="s">
         <v>156</v>
       </c>
-      <c r="B2" s="298" t="s">
+      <c r="B2" s="302" t="s">
         <v>225</v>
       </c>
-      <c r="C2" s="298"/>
-      <c r="D2" s="298" t="s">
+      <c r="C2" s="302"/>
+      <c r="D2" s="302" t="s">
         <v>130</v>
       </c>
-      <c r="E2" s="299"/>
-      <c r="F2" s="298" t="s">
+      <c r="E2" s="303"/>
+      <c r="F2" s="302" t="s">
         <v>225</v>
       </c>
-      <c r="G2" s="298"/>
-      <c r="H2" s="298" t="s">
+      <c r="G2" s="302"/>
+      <c r="H2" s="302" t="s">
         <v>130</v>
       </c>
-      <c r="I2" s="298"/>
-      <c r="J2" s="298" t="s">
+      <c r="I2" s="302"/>
+      <c r="J2" s="302" t="s">
         <v>226</v>
       </c>
-      <c r="K2" s="298"/>
-      <c r="L2" s="298"/>
-      <c r="M2" s="298"/>
-      <c r="N2" s="294" t="s">
+      <c r="K2" s="302"/>
+      <c r="L2" s="302"/>
+      <c r="M2" s="302"/>
+      <c r="N2" s="298" t="s">
         <v>265</v>
       </c>
-      <c r="O2" s="294"/>
-      <c r="P2" s="294"/>
-      <c r="Q2" s="294"/>
+      <c r="O2" s="298"/>
+      <c r="P2" s="298"/>
+      <c r="Q2" s="298"/>
     </row>
     <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="174" t="s">
@@ -6313,18 +6313,18 @@
       <c r="E7" s="165" t="s">
         <v>143</v>
       </c>
-      <c r="F7" s="300" t="s">
+      <c r="F7" s="294" t="s">
         <v>148</v>
       </c>
-      <c r="G7" s="301"/>
-      <c r="H7" s="301"/>
-      <c r="I7" s="301"/>
-      <c r="J7" s="300" t="s">
+      <c r="G7" s="295"/>
+      <c r="H7" s="295"/>
+      <c r="I7" s="295"/>
+      <c r="J7" s="294" t="s">
         <v>148</v>
       </c>
-      <c r="K7" s="301"/>
-      <c r="L7" s="301"/>
-      <c r="M7" s="301"/>
+      <c r="K7" s="295"/>
+      <c r="L7" s="295"/>
+      <c r="M7" s="295"/>
       <c r="N7" s="212" t="s">
         <v>134</v>
       </c>
@@ -6354,18 +6354,18 @@
       <c r="E8" s="167" t="s">
         <v>145</v>
       </c>
-      <c r="F8" s="302" t="s">
+      <c r="F8" s="296" t="s">
         <v>149</v>
       </c>
-      <c r="G8" s="303"/>
-      <c r="H8" s="303"/>
-      <c r="I8" s="303"/>
-      <c r="J8" s="302" t="s">
+      <c r="G8" s="297"/>
+      <c r="H8" s="297"/>
+      <c r="I8" s="297"/>
+      <c r="J8" s="296" t="s">
         <v>149</v>
       </c>
-      <c r="K8" s="303"/>
-      <c r="L8" s="303"/>
-      <c r="M8" s="303"/>
+      <c r="K8" s="297"/>
+      <c r="L8" s="297"/>
+      <c r="M8" s="297"/>
       <c r="N8" s="215" t="s">
         <v>135</v>
       </c>
@@ -6840,11 +6840,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="N2:Q2"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:M1"/>
     <mergeCell ref="N1:P1"/>
@@ -6853,6 +6848,11 @@
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="N2:Q2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6867,7 +6867,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5143342A-0F32-446F-9296-2C5A128AD706}">
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="M3" sqref="L3:M3"/>
     </sheetView>
   </sheetViews>
@@ -6885,45 +6885,45 @@
       <c r="A1" s="110" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="304">
+      <c r="B1" s="319">
         <f>2^128</f>
         <v>3.4028236692093846E+38</v>
       </c>
-      <c r="C1" s="304"/>
-      <c r="D1" s="304"/>
-      <c r="E1" s="304"/>
-      <c r="F1" s="304"/>
-      <c r="G1" s="304"/>
-      <c r="H1" s="304"/>
-      <c r="I1" s="304"/>
+      <c r="C1" s="319"/>
+      <c r="D1" s="319"/>
+      <c r="E1" s="319"/>
+      <c r="F1" s="319"/>
+      <c r="G1" s="319"/>
+      <c r="H1" s="319"/>
+      <c r="I1" s="319"/>
       <c r="J1" s="110" t="s">
         <v>240</v>
       </c>
-      <c r="K1" s="305" t="s">
+      <c r="K1" s="320" t="s">
         <v>229</v>
       </c>
-      <c r="L1" s="305"/>
-      <c r="M1" s="305"/>
-      <c r="N1" s="305"/>
+      <c r="L1" s="320"/>
+      <c r="M1" s="320"/>
+      <c r="N1" s="320"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="133" t="s">
         <v>177</v>
       </c>
-      <c r="B2" s="306" t="s">
+      <c r="B2" s="321" t="s">
         <v>173</v>
       </c>
-      <c r="C2" s="307"/>
-      <c r="D2" s="307"/>
+      <c r="C2" s="322"/>
+      <c r="D2" s="322"/>
       <c r="E2" s="111" t="s">
         <v>253</v>
       </c>
-      <c r="F2" s="307" t="s">
+      <c r="F2" s="322" t="s">
         <v>174</v>
       </c>
-      <c r="G2" s="307"/>
-      <c r="H2" s="307"/>
-      <c r="I2" s="308"/>
+      <c r="G2" s="322"/>
+      <c r="H2" s="322"/>
+      <c r="I2" s="323"/>
       <c r="J2" s="112" t="s">
         <v>175</v>
       </c>
@@ -7044,11 +7044,11 @@
       <c r="E5" s="131" t="s">
         <v>182</v>
       </c>
-      <c r="F5" s="309" t="s">
+      <c r="F5" s="324" t="s">
         <v>184</v>
       </c>
-      <c r="G5" s="309"/>
-      <c r="H5" s="309"/>
+      <c r="G5" s="324"/>
+      <c r="H5" s="324"/>
       <c r="I5" s="132">
         <v>1</v>
       </c>
@@ -7175,99 +7175,99 @@
       <c r="A13" s="141" t="s">
         <v>188</v>
       </c>
-      <c r="B13" s="310" t="s">
+      <c r="B13" s="304" t="s">
         <v>190</v>
       </c>
-      <c r="C13" s="311"/>
-      <c r="D13" s="312"/>
-      <c r="E13" s="311" t="s">
+      <c r="C13" s="305"/>
+      <c r="D13" s="306"/>
+      <c r="E13" s="305" t="s">
         <v>191</v>
       </c>
-      <c r="F13" s="311"/>
-      <c r="G13" s="312"/>
+      <c r="F13" s="305"/>
+      <c r="G13" s="306"/>
       <c r="H13" s="50"/>
       <c r="I13" s="50"/>
       <c r="J13" s="50"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="142"/>
-      <c r="B14" s="319"/>
-      <c r="C14" s="320"/>
-      <c r="D14" s="321"/>
-      <c r="E14" s="320"/>
-      <c r="F14" s="320"/>
-      <c r="G14" s="321"/>
+      <c r="B14" s="307"/>
+      <c r="C14" s="308"/>
+      <c r="D14" s="309"/>
+      <c r="E14" s="308"/>
+      <c r="F14" s="308"/>
+      <c r="G14" s="309"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="141"/>
-      <c r="B15" s="310"/>
-      <c r="C15" s="311"/>
-      <c r="D15" s="312"/>
-      <c r="E15" s="311"/>
-      <c r="F15" s="311"/>
-      <c r="G15" s="312"/>
+      <c r="B15" s="304"/>
+      <c r="C15" s="305"/>
+      <c r="D15" s="306"/>
+      <c r="E15" s="305"/>
+      <c r="F15" s="305"/>
+      <c r="G15" s="306"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="142"/>
-      <c r="B16" s="319"/>
-      <c r="C16" s="320"/>
-      <c r="D16" s="321"/>
-      <c r="E16" s="320"/>
-      <c r="F16" s="320"/>
-      <c r="G16" s="321"/>
+      <c r="B16" s="307"/>
+      <c r="C16" s="308"/>
+      <c r="D16" s="309"/>
+      <c r="E16" s="308"/>
+      <c r="F16" s="308"/>
+      <c r="G16" s="309"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="141"/>
-      <c r="B17" s="310"/>
-      <c r="C17" s="311"/>
-      <c r="D17" s="312"/>
-      <c r="E17" s="311"/>
-      <c r="F17" s="311"/>
-      <c r="G17" s="312"/>
+      <c r="B17" s="304"/>
+      <c r="C17" s="305"/>
+      <c r="D17" s="306"/>
+      <c r="E17" s="305"/>
+      <c r="F17" s="305"/>
+      <c r="G17" s="306"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="142"/>
-      <c r="B18" s="319"/>
-      <c r="C18" s="320"/>
-      <c r="D18" s="321"/>
-      <c r="E18" s="320"/>
-      <c r="F18" s="320"/>
-      <c r="G18" s="321"/>
+      <c r="B18" s="307"/>
+      <c r="C18" s="308"/>
+      <c r="D18" s="309"/>
+      <c r="E18" s="308"/>
+      <c r="F18" s="308"/>
+      <c r="G18" s="309"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="129"/>
-      <c r="B19" s="322"/>
-      <c r="C19" s="323"/>
-      <c r="D19" s="324"/>
-      <c r="E19" s="323"/>
-      <c r="F19" s="323"/>
-      <c r="G19" s="324"/>
+      <c r="B19" s="310"/>
+      <c r="C19" s="311"/>
+      <c r="D19" s="312"/>
+      <c r="E19" s="311"/>
+      <c r="F19" s="311"/>
+      <c r="G19" s="312"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="E17:G17"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="E18:G18"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="E19:G19"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="F5:H5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/protocol-suite.xlsx
+++ b/docs/protocol-suite.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\redes\saves\ccna-lx19\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D41EE4-9B9A-492A-8601-F7A8BA15D1B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57AC2143-E00C-4C99-B3FF-713FB6597503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3415D364-6D1D-489F-8C8D-BD784F513C31}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="7" xr2:uid="{3415D364-6D1D-489F-8C8D-BD784F513C31}"/>
   </bookViews>
   <sheets>
     <sheet name="modelos" sheetId="1" r:id="rId1"/>
@@ -7652,14 +7652,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9065,53 +9058,30 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="402">
+  <cellXfs count="403">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
@@ -9120,7 +9090,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -9130,7 +9100,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
@@ -9160,7 +9130,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -9321,27 +9291,27 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9353,10 +9323,10 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9404,7 +9374,7 @@
     <xf numFmtId="49" fontId="0" fillId="28" borderId="57" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="28" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9423,51 +9393,51 @@
     <xf numFmtId="49" fontId="0" fillId="24" borderId="53" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="24" borderId="54" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="54" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="10" borderId="55" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="10" borderId="55" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="10" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="10" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="10" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="10" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="10" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="10" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="10" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="10" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="10" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9512,71 +9482,71 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="10" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="10" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="8" fillId="10" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="10" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9591,19 +9561,19 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="10" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="69" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="69" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="70" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="70" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="70" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="70" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="70" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="70" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="71" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="71" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9620,34 +9590,34 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="10" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="10" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="10" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="10" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="9" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="9" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9680,13 +9650,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="9" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="9" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -9702,35 +9672,173 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="3" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="9" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="9" borderId="79" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="9" borderId="80" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="86" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="38" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="38" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="38" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="27" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="27" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="95" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="38" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="27" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="38" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="38" borderId="95" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="65" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -9738,10 +9846,10 @@
     <xf numFmtId="0" fontId="0" fillId="31" borderId="65" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="65" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="65" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="67" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -9750,19 +9858,19 @@
     <xf numFmtId="0" fontId="0" fillId="31" borderId="68" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9783,7 +9891,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -9798,31 +9906,25 @@
     <xf numFmtId="0" fontId="0" fillId="31" borderId="63" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="65" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="52" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="52" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="53" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="53" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9831,19 +9933,19 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="54" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="54" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="56" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="56" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="52" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="52" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="53" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="53" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9858,28 +9960,43 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="15" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -9894,22 +10011,25 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="15" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="15" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="28" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="24" borderId="54" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9921,6 +10041,24 @@
     <xf numFmtId="49" fontId="0" fillId="24" borderId="55" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="59" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="60" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="28" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9939,257 +10077,131 @@
     <xf numFmtId="49" fontId="0" fillId="24" borderId="57" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="59" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="60" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="28" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="15" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="28" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="9" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="9" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="9" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="79" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="80" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="86" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="10" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="38" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="38" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="38" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="27" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="27" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="95" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="38" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="27" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="38" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="38" borderId="95" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -10751,127 +10763,127 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F22CCB81-C947-4BF0-A3C3-1CFE163D2C19}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
     <col min="3" max="3" width="22.85546875" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="389" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="244" t="s">
+      <c r="B2" s="396" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="239" t="s">
+      <c r="C2" s="275" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="247" t="s">
+      <c r="D2" s="385" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="390" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="245"/>
-      <c r="C3" s="240"/>
-      <c r="D3" s="247"/>
-    </row>
-    <row r="4" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
+      <c r="B3" s="397"/>
+      <c r="C3" s="276"/>
+      <c r="D3" s="385"/>
+    </row>
+    <row r="4" spans="1:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="391" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="246"/>
-      <c r="C4" s="241"/>
-      <c r="D4" s="247"/>
-    </row>
-    <row r="5" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="B4" s="398"/>
+      <c r="C4" s="277"/>
+      <c r="D4" s="385"/>
+    </row>
+    <row r="5" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="392" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="399" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="386" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="393" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="400" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="386" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="394" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="401" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="242" t="s">
+      <c r="C7" s="278" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="386" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="1:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="395" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="402" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="243"/>
-      <c r="D8" s="247" t="s">
+      <c r="C8" s="279"/>
+      <c r="D8" s="385" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="388" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="388" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="388" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="248"/>
+      <c r="D9" s="387"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -10881,7 +10893,7 @@
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="D8:D9"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10910,404 +10922,399 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="258" t="s">
+      <c r="A2" s="291" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="259"/>
-      <c r="C2" s="27" t="s">
+      <c r="B2" s="292"/>
+      <c r="C2" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="258" t="s">
+      <c r="E2" s="291" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="259"/>
-      <c r="G2" s="27" t="s">
+      <c r="F2" s="292"/>
+      <c r="G2" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="258" t="s">
+      <c r="I2" s="291" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="259"/>
-      <c r="K2" s="27" t="s">
+      <c r="J2" s="292"/>
+      <c r="K2" s="14" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="26" t="s">
         <v>212</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="G3" s="30" t="s">
+      <c r="G3" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="28" t="s">
+      <c r="I3" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="J3" s="29" t="s">
+      <c r="J3" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="K3" s="30" t="s">
+      <c r="K3" s="17" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="31" t="s">
+      <c r="I4" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="J4" s="32" t="s">
+      <c r="J4" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="K4" s="23" t="s">
+      <c r="K4" s="10" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="26" t="s">
         <v>209</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="27" t="s">
         <v>208</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="G5" s="30" t="s">
+      <c r="G5" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="28" t="s">
+      <c r="I5" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="J5" s="29" t="s">
+      <c r="J5" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="K5" s="30" t="s">
+      <c r="K5" s="17" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="E6" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="32" t="s">
+      <c r="F6" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="G6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="31" t="s">
+      <c r="I6" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="J6" s="32" t="s">
+      <c r="J6" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="K6" s="23" t="s">
+      <c r="K6" s="10" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="26" t="s">
         <v>211</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="G7" s="33" t="s">
+      <c r="G7" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="25" t="s">
+      <c r="I7" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="J7" s="26" t="s">
+      <c r="J7" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="K7" s="33" t="s">
+      <c r="K7" s="20" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="10" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="27" t="s">
         <v>201</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="35" t="s">
+      <c r="E9" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="F9" s="266" t="s">
+      <c r="F9" s="299" t="s">
         <v>67</v>
       </c>
-      <c r="G9" s="266"/>
-      <c r="I9" s="266" t="s">
+      <c r="G9" s="299"/>
+      <c r="I9" s="299" t="s">
         <v>81</v>
       </c>
-      <c r="J9" s="266"/>
-      <c r="K9" s="266"/>
+      <c r="J9" s="299"/>
+      <c r="K9" s="299"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="36"/>
-      <c r="E10" s="37" t="s">
+      <c r="D10" s="23"/>
+      <c r="E10" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="F10" s="261" t="s">
+      <c r="F10" s="294" t="s">
         <v>70</v>
       </c>
-      <c r="G10" s="262"/>
-      <c r="I10" s="260" t="s">
+      <c r="G10" s="295"/>
+      <c r="I10" s="293" t="s">
         <v>63</v>
       </c>
-      <c r="J10" s="261"/>
-      <c r="K10" s="262"/>
+      <c r="J10" s="294"/>
+      <c r="K10" s="295"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="26" t="s">
         <v>216</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="38" t="s">
+      <c r="E11" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="267" t="s">
+      <c r="F11" s="300" t="s">
         <v>52</v>
       </c>
-      <c r="G11" s="268"/>
-      <c r="I11" s="263" t="s">
+      <c r="G11" s="301"/>
+      <c r="I11" s="296" t="s">
         <v>64</v>
       </c>
-      <c r="J11" s="264"/>
-      <c r="K11" s="265"/>
+      <c r="J11" s="297"/>
+      <c r="K11" s="298"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="37" t="s">
+      <c r="E12" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="F12" s="261" t="s">
+      <c r="F12" s="294" t="s">
         <v>72</v>
       </c>
-      <c r="G12" s="262"/>
-      <c r="I12" s="260" t="s">
+      <c r="G12" s="295"/>
+      <c r="I12" s="293" t="s">
         <v>65</v>
       </c>
-      <c r="J12" s="261"/>
-      <c r="K12" s="262"/>
+      <c r="J12" s="294"/>
+      <c r="K12" s="295"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="27" t="s">
         <v>205</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="17" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="11" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="197" t="s">
+      <c r="A15" s="184" t="s">
         <v>206</v>
       </c>
-      <c r="B15" s="198" t="s">
+      <c r="B15" s="185" t="s">
         <v>207</v>
       </c>
-      <c r="C15" s="199" t="s">
+      <c r="C15" s="186" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="255" t="s">
+      <c r="A17" s="288" t="s">
         <v>282</v>
       </c>
-      <c r="B17" s="200" t="s">
+      <c r="B17" s="187" t="s">
         <v>272</v>
       </c>
-      <c r="C17" s="269" t="s">
+      <c r="C17" s="302" t="s">
         <v>273</v>
       </c>
-      <c r="D17" s="269"/>
-      <c r="E17" s="269"/>
-      <c r="F17" s="269"/>
-      <c r="G17" s="269"/>
-      <c r="H17" s="269"/>
-      <c r="I17" s="269"/>
-      <c r="J17" s="269"/>
-      <c r="K17" s="270"/>
+      <c r="D17" s="302"/>
+      <c r="E17" s="302"/>
+      <c r="F17" s="302"/>
+      <c r="G17" s="302"/>
+      <c r="H17" s="302"/>
+      <c r="I17" s="302"/>
+      <c r="J17" s="302"/>
+      <c r="K17" s="303"/>
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="256"/>
-      <c r="B18" s="201" t="s">
+      <c r="A18" s="289"/>
+      <c r="B18" s="188" t="s">
         <v>274</v>
       </c>
-      <c r="C18" s="271" t="s">
+      <c r="C18" s="280" t="s">
         <v>275</v>
       </c>
-      <c r="D18" s="271"/>
-      <c r="E18" s="271"/>
-      <c r="F18" s="271"/>
-      <c r="G18" s="271"/>
-      <c r="H18" s="271"/>
-      <c r="I18" s="271"/>
-      <c r="J18" s="271"/>
-      <c r="K18" s="272"/>
+      <c r="D18" s="280"/>
+      <c r="E18" s="280"/>
+      <c r="F18" s="280"/>
+      <c r="G18" s="280"/>
+      <c r="H18" s="280"/>
+      <c r="I18" s="280"/>
+      <c r="J18" s="280"/>
+      <c r="K18" s="281"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="256"/>
-      <c r="B19" s="202" t="s">
+      <c r="A19" s="289"/>
+      <c r="B19" s="189" t="s">
         <v>276</v>
       </c>
-      <c r="C19" s="249" t="s">
+      <c r="C19" s="282" t="s">
         <v>277</v>
       </c>
-      <c r="D19" s="249"/>
-      <c r="E19" s="249"/>
-      <c r="F19" s="249"/>
-      <c r="G19" s="249"/>
-      <c r="H19" s="249"/>
-      <c r="I19" s="249"/>
-      <c r="J19" s="249"/>
-      <c r="K19" s="250"/>
+      <c r="D19" s="282"/>
+      <c r="E19" s="282"/>
+      <c r="F19" s="282"/>
+      <c r="G19" s="282"/>
+      <c r="H19" s="282"/>
+      <c r="I19" s="282"/>
+      <c r="J19" s="282"/>
+      <c r="K19" s="283"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="256"/>
-      <c r="B20" s="203" t="s">
+      <c r="A20" s="289"/>
+      <c r="B20" s="190" t="s">
         <v>278</v>
       </c>
-      <c r="C20" s="251" t="s">
+      <c r="C20" s="284" t="s">
         <v>279</v>
       </c>
-      <c r="D20" s="251"/>
-      <c r="E20" s="251"/>
-      <c r="F20" s="251"/>
-      <c r="G20" s="251"/>
-      <c r="H20" s="251"/>
-      <c r="I20" s="251"/>
-      <c r="J20" s="251"/>
-      <c r="K20" s="252"/>
+      <c r="D20" s="284"/>
+      <c r="E20" s="284"/>
+      <c r="F20" s="284"/>
+      <c r="G20" s="284"/>
+      <c r="H20" s="284"/>
+      <c r="I20" s="284"/>
+      <c r="J20" s="284"/>
+      <c r="K20" s="285"/>
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="257"/>
-      <c r="B21" s="204" t="s">
+      <c r="A21" s="290"/>
+      <c r="B21" s="191" t="s">
         <v>280</v>
       </c>
-      <c r="C21" s="253" t="s">
+      <c r="C21" s="286" t="s">
         <v>281</v>
       </c>
-      <c r="D21" s="253"/>
-      <c r="E21" s="253"/>
-      <c r="F21" s="253"/>
-      <c r="G21" s="253"/>
-      <c r="H21" s="253"/>
-      <c r="I21" s="253"/>
-      <c r="J21" s="253"/>
-      <c r="K21" s="254"/>
+      <c r="D21" s="286"/>
+      <c r="E21" s="286"/>
+      <c r="F21" s="286"/>
+      <c r="G21" s="286"/>
+      <c r="H21" s="286"/>
+      <c r="I21" s="286"/>
+      <c r="J21" s="286"/>
+      <c r="K21" s="287"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C18:K18"/>
-    <mergeCell ref="C19:K19"/>
-    <mergeCell ref="C20:K20"/>
-    <mergeCell ref="C21:K21"/>
-    <mergeCell ref="A17:A21"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="A2:B2"/>
@@ -11319,9 +11326,14 @@
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="I9:K9"/>
+    <mergeCell ref="C18:K18"/>
+    <mergeCell ref="C19:K19"/>
+    <mergeCell ref="C20:K20"/>
+    <mergeCell ref="C21:K21"/>
+    <mergeCell ref="A17:A21"/>
     <mergeCell ref="C17:K17"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11340,36 +11352,36 @@
     <col min="2" max="2" width="9.7109375" customWidth="1"/>
     <col min="3" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="2.85546875" customWidth="1"/>
-    <col min="6" max="8" width="27.7109375" style="34" customWidth="1"/>
-    <col min="9" max="9" width="28.7109375" style="34" customWidth="1"/>
+    <col min="6" max="8" width="27.7109375" style="21" customWidth="1"/>
+    <col min="9" max="9" width="28.7109375" style="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="273" t="s">
+      <c r="B1" s="304" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="273"/>
-      <c r="D1" s="273"/>
-      <c r="F1" s="273" t="s">
+      <c r="C1" s="304"/>
+      <c r="D1" s="304"/>
+      <c r="F1" s="304" t="s">
         <v>104</v>
       </c>
-      <c r="G1" s="273"/>
-      <c r="H1" s="273"/>
+      <c r="G1" s="304"/>
+      <c r="H1" s="304"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="F2" s="148" t="s">
+      <c r="F2" s="135" t="s">
         <v>101</v>
       </c>
-      <c r="G2" s="191" t="s">
+      <c r="G2" s="178" t="s">
         <v>102</v>
       </c>
-      <c r="H2" s="191" t="s">
+      <c r="H2" s="178" t="s">
         <v>100</v>
       </c>
     </row>
@@ -11377,19 +11389,19 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="177" t="s">
+      <c r="B3" s="164" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="179" t="s">
+      <c r="D3" s="166" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="282" t="s">
+      <c r="F3" s="313" t="s">
         <v>94</v>
       </c>
-      <c r="G3" s="284" t="s">
+      <c r="G3" s="315" t="s">
         <v>93</v>
       </c>
-      <c r="H3" s="185" t="s">
+      <c r="H3" s="172" t="s">
         <v>59</v>
       </c>
     </row>
@@ -11397,15 +11409,15 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="178" t="s">
+      <c r="B4" s="165" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="182" t="s">
+      <c r="D4" s="169" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="282"/>
-      <c r="G4" s="285"/>
-      <c r="H4" s="186" t="s">
+      <c r="F4" s="313"/>
+      <c r="G4" s="316"/>
+      <c r="H4" s="173" t="s">
         <v>60</v>
       </c>
     </row>
@@ -11413,15 +11425,15 @@
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="179" t="s">
+      <c r="B5" s="166" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="177" t="s">
+      <c r="D5" s="164" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="282"/>
-      <c r="G5" s="285"/>
-      <c r="H5" s="187" t="s">
+      <c r="F5" s="313"/>
+      <c r="G5" s="316"/>
+      <c r="H5" s="174" t="s">
         <v>61</v>
       </c>
     </row>
@@ -11429,15 +11441,15 @@
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="180" t="s">
+      <c r="B6" s="167" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="180" t="s">
+      <c r="D6" s="167" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="282"/>
-      <c r="G6" s="285"/>
-      <c r="H6" s="192" t="s">
+      <c r="F6" s="313"/>
+      <c r="G6" s="316"/>
+      <c r="H6" s="179" t="s">
         <v>62</v>
       </c>
     </row>
@@ -11445,15 +11457,15 @@
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="181" t="s">
+      <c r="B7" s="168" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="181" t="s">
+      <c r="D7" s="168" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="282"/>
-      <c r="G7" s="285"/>
-      <c r="H7" s="191" t="s">
+      <c r="F7" s="313"/>
+      <c r="G7" s="316"/>
+      <c r="H7" s="178" t="s">
         <v>99</v>
       </c>
     </row>
@@ -11461,15 +11473,15 @@
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="182" t="s">
+      <c r="B8" s="169" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="178" t="s">
+      <c r="D8" s="165" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="282"/>
-      <c r="G8" s="285"/>
-      <c r="H8" s="188" t="s">
+      <c r="F8" s="313"/>
+      <c r="G8" s="316"/>
+      <c r="H8" s="175" t="s">
         <v>103</v>
       </c>
     </row>
@@ -11477,15 +11489,15 @@
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="183" t="s">
+      <c r="B9" s="170" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="183" t="s">
+      <c r="D9" s="170" t="s">
         <v>55</v>
       </c>
-      <c r="F9" s="282"/>
-      <c r="G9" s="285"/>
-      <c r="H9" s="189" t="s">
+      <c r="F9" s="313"/>
+      <c r="G9" s="316"/>
+      <c r="H9" s="176" t="s">
         <v>97</v>
       </c>
     </row>
@@ -11493,96 +11505,96 @@
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="184" t="s">
+      <c r="B10" s="171" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="184" t="s">
+      <c r="D10" s="171" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="283"/>
-      <c r="G10" s="286"/>
-      <c r="H10" s="190" t="s">
+      <c r="F10" s="314"/>
+      <c r="G10" s="317"/>
+      <c r="H10" s="177" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="277" t="s">
+      <c r="B12" s="308" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="278"/>
-      <c r="D12" s="278"/>
-      <c r="E12" s="278"/>
-      <c r="F12" s="279"/>
-      <c r="G12" s="193" t="s">
+      <c r="C12" s="309"/>
+      <c r="D12" s="309"/>
+      <c r="E12" s="309"/>
+      <c r="F12" s="310"/>
+      <c r="G12" s="180" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="41" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="194" t="s">
+    <row r="13" spans="1:9" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="181" t="s">
         <v>90</v>
       </c>
-      <c r="C13" s="287" t="s">
+      <c r="C13" s="318" t="s">
         <v>89</v>
       </c>
-      <c r="D13" s="287"/>
-      <c r="E13" s="287"/>
-      <c r="F13" s="288"/>
-      <c r="G13" s="274" t="s">
+      <c r="D13" s="318"/>
+      <c r="E13" s="318"/>
+      <c r="F13" s="319"/>
+      <c r="G13" s="305" t="s">
         <v>219</v>
       </c>
-      <c r="I13" s="42"/>
-    </row>
-    <row r="14" spans="1:9" s="41" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="195" t="s">
+      <c r="I13" s="29"/>
+    </row>
+    <row r="14" spans="1:9" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="182" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="289" t="s">
+      <c r="C14" s="320" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="289"/>
-      <c r="E14" s="289"/>
-      <c r="F14" s="290"/>
-      <c r="G14" s="275"/>
-      <c r="I14" s="42"/>
-    </row>
-    <row r="15" spans="1:9" s="41" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="194" t="s">
+      <c r="D14" s="320"/>
+      <c r="E14" s="320"/>
+      <c r="F14" s="321"/>
+      <c r="G14" s="306"/>
+      <c r="I14" s="29"/>
+    </row>
+    <row r="15" spans="1:9" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="181" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="287" t="s">
+      <c r="C15" s="318" t="s">
         <v>87</v>
       </c>
-      <c r="D15" s="287"/>
-      <c r="E15" s="287"/>
-      <c r="F15" s="288"/>
-      <c r="G15" s="275"/>
-      <c r="I15" s="42"/>
-    </row>
-    <row r="16" spans="1:9" s="41" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="196" t="s">
+      <c r="D15" s="318"/>
+      <c r="E15" s="318"/>
+      <c r="F15" s="319"/>
+      <c r="G15" s="306"/>
+      <c r="I15" s="29"/>
+    </row>
+    <row r="16" spans="1:9" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="183" t="s">
         <v>91</v>
       </c>
-      <c r="C16" s="280" t="s">
+      <c r="C16" s="311" t="s">
         <v>88</v>
       </c>
-      <c r="D16" s="280"/>
-      <c r="E16" s="280"/>
-      <c r="F16" s="281"/>
-      <c r="G16" s="276"/>
-      <c r="I16" s="42"/>
+      <c r="D16" s="311"/>
+      <c r="E16" s="311"/>
+      <c r="F16" s="312"/>
+      <c r="G16" s="307"/>
+      <c r="I16" s="29"/>
     </row>
     <row r="17" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G17" s="43"/>
+      <c r="G17" s="30"/>
     </row>
     <row r="18" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G18" s="43"/>
+      <c r="G18" s="30"/>
     </row>
     <row r="19" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G19" s="43"/>
+      <c r="G19" s="30"/>
     </row>
     <row r="20" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G20" s="43"/>
+      <c r="G20" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -11617,873 +11629,873 @@
     <col min="2" max="4" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="2.85546875" customWidth="1"/>
     <col min="6" max="13" width="4.28515625" customWidth="1"/>
-    <col min="14" max="14" width="4.5703125" style="44" customWidth="1"/>
-    <col min="15" max="15" width="3" style="44" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="3.42578125" style="45" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.5703125" style="31" customWidth="1"/>
+    <col min="15" max="15" width="3" style="31" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.42578125" style="32" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="3.28515625" customWidth="1"/>
     <col min="18" max="27" width="4.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="291" t="s">
+      <c r="A1" s="322" t="s">
         <v>220</v>
       </c>
-      <c r="B1" s="292"/>
-      <c r="C1" s="292"/>
-      <c r="D1" s="292"/>
-      <c r="F1" s="291" t="s">
+      <c r="B1" s="323"/>
+      <c r="C1" s="323"/>
+      <c r="D1" s="323"/>
+      <c r="F1" s="322" t="s">
         <v>222</v>
       </c>
-      <c r="G1" s="292"/>
-      <c r="H1" s="292"/>
-      <c r="I1" s="292"/>
-      <c r="J1" s="292"/>
-      <c r="K1" s="292"/>
-      <c r="L1" s="292"/>
-      <c r="M1" s="292"/>
-      <c r="N1" s="292"/>
-      <c r="O1" s="292"/>
-      <c r="P1" s="293"/>
-      <c r="R1" s="291" t="s">
+      <c r="G1" s="323"/>
+      <c r="H1" s="323"/>
+      <c r="I1" s="323"/>
+      <c r="J1" s="323"/>
+      <c r="K1" s="323"/>
+      <c r="L1" s="323"/>
+      <c r="M1" s="323"/>
+      <c r="N1" s="323"/>
+      <c r="O1" s="323"/>
+      <c r="P1" s="324"/>
+      <c r="R1" s="322" t="s">
         <v>223</v>
       </c>
-      <c r="S1" s="292"/>
-      <c r="T1" s="292"/>
-      <c r="U1" s="292"/>
-      <c r="V1" s="292"/>
-      <c r="W1" s="292"/>
-      <c r="X1" s="292"/>
-      <c r="Y1" s="292"/>
-      <c r="Z1" s="292"/>
-      <c r="AA1" s="293"/>
+      <c r="S1" s="323"/>
+      <c r="T1" s="323"/>
+      <c r="U1" s="323"/>
+      <c r="V1" s="323"/>
+      <c r="W1" s="323"/>
+      <c r="X1" s="323"/>
+      <c r="Y1" s="323"/>
+      <c r="Z1" s="323"/>
+      <c r="AA1" s="324"/>
     </row>
     <row r="2" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="298" t="s">
+      <c r="A2" s="329" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="297"/>
-      <c r="C2" s="297"/>
-      <c r="D2" s="297"/>
-      <c r="F2" s="294" t="s">
+      <c r="B2" s="328"/>
+      <c r="C2" s="328"/>
+      <c r="D2" s="328"/>
+      <c r="F2" s="325" t="s">
         <v>130</v>
       </c>
-      <c r="G2" s="296"/>
-      <c r="H2" s="296"/>
-      <c r="I2" s="296"/>
-      <c r="J2" s="296"/>
-      <c r="K2" s="296"/>
-      <c r="L2" s="296"/>
-      <c r="M2" s="295"/>
-      <c r="N2" s="104" t="s">
+      <c r="G2" s="327"/>
+      <c r="H2" s="327"/>
+      <c r="I2" s="327"/>
+      <c r="J2" s="327"/>
+      <c r="K2" s="327"/>
+      <c r="L2" s="327"/>
+      <c r="M2" s="326"/>
+      <c r="N2" s="91" t="s">
         <v>106</v>
       </c>
-      <c r="O2" s="294" t="s">
+      <c r="O2" s="325" t="s">
         <v>107</v>
       </c>
-      <c r="P2" s="295"/>
-      <c r="R2" s="294" t="s">
+      <c r="P2" s="326"/>
+      <c r="R2" s="325" t="s">
         <v>130</v>
       </c>
-      <c r="S2" s="296"/>
-      <c r="T2" s="296"/>
-      <c r="U2" s="296"/>
-      <c r="V2" s="296"/>
-      <c r="W2" s="296"/>
-      <c r="X2" s="296"/>
-      <c r="Y2" s="295"/>
-      <c r="Z2" s="294" t="s">
+      <c r="S2" s="327"/>
+      <c r="T2" s="327"/>
+      <c r="U2" s="327"/>
+      <c r="V2" s="327"/>
+      <c r="W2" s="327"/>
+      <c r="X2" s="327"/>
+      <c r="Y2" s="326"/>
+      <c r="Z2" s="325" t="s">
         <v>107</v>
       </c>
-      <c r="AA2" s="295"/>
+      <c r="AA2" s="326"/>
     </row>
     <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="68">
+      <c r="F3" s="55">
         <v>1</v>
       </c>
-      <c r="G3" s="69">
+      <c r="G3" s="56">
         <v>0</v>
       </c>
-      <c r="H3" s="56">
+      <c r="H3" s="43">
         <v>1</v>
       </c>
-      <c r="I3" s="70">
+      <c r="I3" s="57">
         <v>0</v>
       </c>
-      <c r="J3" s="68">
+      <c r="J3" s="55">
         <v>1</v>
       </c>
-      <c r="K3" s="69">
+      <c r="K3" s="56">
         <v>1</v>
       </c>
-      <c r="L3" s="56">
+      <c r="L3" s="43">
         <v>0</v>
       </c>
-      <c r="M3" s="70">
+      <c r="M3" s="57">
         <v>0</v>
       </c>
-      <c r="N3" s="205">
+      <c r="N3" s="192">
         <v>172</v>
       </c>
-      <c r="O3" s="78" t="s">
+      <c r="O3" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="P3" s="79" t="s">
+      <c r="P3" s="66" t="s">
         <v>160</v>
       </c>
-      <c r="R3" s="87">
+      <c r="R3" s="74">
         <v>172</v>
       </c>
-      <c r="S3" s="57">
+      <c r="S3" s="44">
         <v>2</v>
       </c>
-      <c r="T3" s="58"/>
-      <c r="U3" s="57"/>
-      <c r="V3" s="58"/>
-      <c r="W3" s="57"/>
-      <c r="X3" s="58"/>
-      <c r="Y3" s="94"/>
-      <c r="Z3" s="87">
+      <c r="T3" s="45"/>
+      <c r="U3" s="44"/>
+      <c r="V3" s="45"/>
+      <c r="W3" s="44"/>
+      <c r="X3" s="45"/>
+      <c r="Y3" s="81"/>
+      <c r="Z3" s="74">
         <v>172</v>
       </c>
-      <c r="AA3" s="88">
+      <c r="AA3" s="75">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="48">
+      <c r="A4" s="35">
         <v>1000</v>
       </c>
-      <c r="B4" s="51">
+      <c r="B4" s="38">
         <v>100</v>
       </c>
-      <c r="C4" s="48">
+      <c r="C4" s="35">
         <v>10</v>
       </c>
-      <c r="D4" s="51">
+      <c r="D4" s="38">
         <v>1</v>
       </c>
-      <c r="F4" s="71">
+      <c r="F4" s="58">
         <v>1</v>
       </c>
-      <c r="G4" s="55">
+      <c r="G4" s="42">
         <v>1</v>
       </c>
-      <c r="H4" s="54">
+      <c r="H4" s="41">
         <v>0</v>
       </c>
-      <c r="I4" s="52">
+      <c r="I4" s="39">
         <v>0</v>
       </c>
-      <c r="J4" s="71">
+      <c r="J4" s="58">
         <v>0</v>
       </c>
-      <c r="K4" s="55">
+      <c r="K4" s="42">
         <v>0</v>
       </c>
-      <c r="L4" s="54">
+      <c r="L4" s="41">
         <v>0</v>
       </c>
-      <c r="M4" s="52">
+      <c r="M4" s="39">
         <v>0</v>
       </c>
-      <c r="N4" s="206">
+      <c r="N4" s="193">
         <v>192</v>
       </c>
-      <c r="O4" s="80" t="s">
+      <c r="O4" s="67" t="s">
         <v>116</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="68" t="s">
         <v>158</v>
       </c>
-      <c r="R4" s="95">
+      <c r="R4" s="82">
         <v>0</v>
       </c>
-      <c r="S4" s="59">
+      <c r="S4" s="46">
         <v>86</v>
       </c>
-      <c r="T4" s="57">
+      <c r="T4" s="44">
         <v>2</v>
       </c>
-      <c r="U4" s="58"/>
-      <c r="V4" s="57"/>
-      <c r="W4" s="58"/>
-      <c r="X4" s="57"/>
-      <c r="Y4" s="96"/>
-      <c r="Z4" s="53">
+      <c r="U4" s="45"/>
+      <c r="V4" s="44"/>
+      <c r="W4" s="45"/>
+      <c r="X4" s="44"/>
+      <c r="Y4" s="83"/>
+      <c r="Z4" s="40">
         <v>12</v>
       </c>
-      <c r="AA4" s="89">
+      <c r="AA4" s="76">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="51">
+      <c r="A5" s="38">
         <v>3</v>
       </c>
-      <c r="B5" s="48">
+      <c r="B5" s="35">
         <v>1</v>
       </c>
-      <c r="C5" s="51">
+      <c r="C5" s="38">
         <v>8</v>
       </c>
-      <c r="D5" s="48">
+      <c r="D5" s="35">
         <v>2</v>
       </c>
-      <c r="F5" s="72">
+      <c r="F5" s="59">
         <v>0</v>
       </c>
-      <c r="G5" s="54">
+      <c r="G5" s="41">
         <v>0</v>
       </c>
-      <c r="H5" s="55">
+      <c r="H5" s="42">
         <v>0</v>
       </c>
-      <c r="I5" s="73">
+      <c r="I5" s="60">
         <v>1</v>
       </c>
-      <c r="J5" s="72">
+      <c r="J5" s="59">
         <v>0</v>
       </c>
-      <c r="K5" s="54">
+      <c r="K5" s="41">
         <v>0</v>
       </c>
-      <c r="L5" s="55">
+      <c r="L5" s="42">
         <v>0</v>
       </c>
-      <c r="M5" s="73">
+      <c r="M5" s="60">
         <v>0</v>
       </c>
-      <c r="N5" s="207">
+      <c r="N5" s="194">
         <v>16</v>
       </c>
-      <c r="O5" s="82" t="s">
+      <c r="O5" s="69" t="s">
         <v>116</v>
       </c>
-      <c r="P5" s="83">
+      <c r="P5" s="70">
         <v>10</v>
       </c>
-      <c r="R5" s="60"/>
-      <c r="S5" s="57">
+      <c r="R5" s="47"/>
+      <c r="S5" s="44">
         <v>0</v>
       </c>
-      <c r="T5" s="59">
+      <c r="T5" s="46">
         <v>43</v>
       </c>
-      <c r="U5" s="61">
+      <c r="U5" s="48">
         <v>2</v>
       </c>
-      <c r="V5" s="58"/>
-      <c r="W5" s="57"/>
-      <c r="X5" s="58"/>
-      <c r="Y5" s="94"/>
-      <c r="Z5" s="90" t="s">
+      <c r="V5" s="45"/>
+      <c r="W5" s="44"/>
+      <c r="X5" s="45"/>
+      <c r="Y5" s="81"/>
+      <c r="Z5" s="77" t="s">
         <v>111</v>
       </c>
-      <c r="AA5" s="91" t="s">
+      <c r="AA5" s="78" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="46"/>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="F6" s="71">
+      <c r="A6" s="33"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="F6" s="58">
         <v>1</v>
       </c>
-      <c r="G6" s="55">
+      <c r="G6" s="42">
         <v>0</v>
       </c>
-      <c r="H6" s="54">
+      <c r="H6" s="41">
         <v>1</v>
       </c>
-      <c r="I6" s="52">
+      <c r="I6" s="39">
         <v>0</v>
       </c>
-      <c r="J6" s="71">
+      <c r="J6" s="58">
         <v>1</v>
       </c>
-      <c r="K6" s="55">
+      <c r="K6" s="42">
         <v>0</v>
       </c>
-      <c r="L6" s="54">
+      <c r="L6" s="41">
         <v>0</v>
       </c>
-      <c r="M6" s="52">
+      <c r="M6" s="39">
         <v>0</v>
       </c>
-      <c r="N6" s="206">
+      <c r="N6" s="193">
         <v>168</v>
       </c>
-      <c r="O6" s="80" t="s">
+      <c r="O6" s="67" t="s">
         <v>116</v>
       </c>
-      <c r="P6" s="81" t="s">
+      <c r="P6" s="68" t="s">
         <v>159</v>
       </c>
-      <c r="R6" s="97"/>
-      <c r="S6" s="63"/>
-      <c r="T6" s="57">
+      <c r="R6" s="84"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="44">
         <v>1</v>
       </c>
-      <c r="U6" s="64">
+      <c r="U6" s="51">
         <v>21</v>
       </c>
-      <c r="V6" s="61">
+      <c r="V6" s="48">
         <v>2</v>
       </c>
-      <c r="W6" s="58"/>
-      <c r="X6" s="57"/>
-      <c r="Y6" s="96"/>
-      <c r="Z6" s="87">
+      <c r="W6" s="45"/>
+      <c r="X6" s="44"/>
+      <c r="Y6" s="83"/>
+      <c r="Z6" s="74">
         <v>64</v>
       </c>
-      <c r="AA6" s="92">
+      <c r="AA6" s="79">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="297" t="s">
+      <c r="A7" s="328" t="s">
         <v>120</v>
       </c>
-      <c r="B7" s="297"/>
-      <c r="C7" s="297"/>
-      <c r="D7" s="297"/>
-      <c r="F7" s="72">
+      <c r="B7" s="328"/>
+      <c r="C7" s="328"/>
+      <c r="D7" s="328"/>
+      <c r="F7" s="59">
         <v>1</v>
       </c>
-      <c r="G7" s="54">
+      <c r="G7" s="41">
         <v>1</v>
       </c>
-      <c r="H7" s="55">
+      <c r="H7" s="42">
         <v>0</v>
       </c>
-      <c r="I7" s="73">
+      <c r="I7" s="60">
         <v>1</v>
       </c>
-      <c r="J7" s="72">
+      <c r="J7" s="59">
         <v>0</v>
       </c>
-      <c r="K7" s="54">
+      <c r="K7" s="41">
         <v>0</v>
       </c>
-      <c r="L7" s="55">
+      <c r="L7" s="42">
         <v>0</v>
       </c>
-      <c r="M7" s="73">
+      <c r="M7" s="60">
         <v>0</v>
       </c>
-      <c r="N7" s="207">
+      <c r="N7" s="194">
         <v>208</v>
       </c>
-      <c r="O7" s="82" t="s">
+      <c r="O7" s="69" t="s">
         <v>116</v>
       </c>
-      <c r="P7" s="83" t="s">
+      <c r="P7" s="70" t="s">
         <v>161</v>
       </c>
-      <c r="R7" s="98"/>
-      <c r="S7" s="62"/>
-      <c r="T7" s="63"/>
-      <c r="U7" s="57">
+      <c r="R7" s="85"/>
+      <c r="S7" s="49"/>
+      <c r="T7" s="50"/>
+      <c r="U7" s="44">
         <v>1</v>
       </c>
-      <c r="V7" s="59">
+      <c r="V7" s="46">
         <v>10</v>
       </c>
-      <c r="W7" s="57">
+      <c r="W7" s="44">
         <v>2</v>
       </c>
-      <c r="X7" s="58"/>
-      <c r="Y7" s="94"/>
-      <c r="Z7" s="90">
+      <c r="X7" s="45"/>
+      <c r="Y7" s="81"/>
+      <c r="Z7" s="77">
         <v>0</v>
       </c>
-      <c r="AA7" s="93">
+      <c r="AA7" s="80">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="D8" s="48" t="s">
+      <c r="D8" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="F8" s="71">
+      <c r="F8" s="58">
         <v>0</v>
       </c>
-      <c r="G8" s="55">
+      <c r="G8" s="42">
         <v>0</v>
       </c>
-      <c r="H8" s="54">
+      <c r="H8" s="41">
         <v>1</v>
       </c>
-      <c r="I8" s="52">
+      <c r="I8" s="39">
         <v>1</v>
       </c>
-      <c r="J8" s="71">
+      <c r="J8" s="58">
         <v>1</v>
       </c>
-      <c r="K8" s="55">
+      <c r="K8" s="42">
         <v>1</v>
       </c>
-      <c r="L8" s="54">
+      <c r="L8" s="41">
         <v>1</v>
       </c>
-      <c r="M8" s="52">
+      <c r="M8" s="39">
         <v>1</v>
       </c>
-      <c r="N8" s="206">
+      <c r="N8" s="193">
         <v>63</v>
       </c>
-      <c r="O8" s="80" t="s">
+      <c r="O8" s="67" t="s">
         <v>116</v>
       </c>
-      <c r="P8" s="81" t="s">
+      <c r="P8" s="68" t="s">
         <v>162</v>
       </c>
-      <c r="R8" s="97"/>
-      <c r="S8" s="65"/>
-      <c r="T8" s="62"/>
-      <c r="U8" s="63"/>
-      <c r="V8" s="57">
+      <c r="R8" s="84"/>
+      <c r="S8" s="52"/>
+      <c r="T8" s="49"/>
+      <c r="U8" s="50"/>
+      <c r="V8" s="44">
         <v>0</v>
       </c>
-      <c r="W8" s="59">
+      <c r="W8" s="46">
         <v>5</v>
       </c>
-      <c r="X8" s="57">
+      <c r="X8" s="44">
         <v>2</v>
       </c>
-      <c r="Y8" s="96"/>
-      <c r="Z8" s="87">
+      <c r="Y8" s="83"/>
+      <c r="Z8" s="74">
         <v>204</v>
       </c>
-      <c r="AA8" s="88">
+      <c r="AA8" s="75">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="48">
+      <c r="A9" s="35">
         <v>8</v>
       </c>
-      <c r="B9" s="51">
+      <c r="B9" s="38">
         <v>4</v>
       </c>
-      <c r="C9" s="48">
+      <c r="C9" s="35">
         <v>2</v>
       </c>
-      <c r="D9" s="51">
+      <c r="D9" s="38">
         <v>1</v>
       </c>
-      <c r="F9" s="72">
+      <c r="F9" s="59">
         <v>1</v>
       </c>
-      <c r="G9" s="54">
+      <c r="G9" s="41">
         <v>1</v>
       </c>
-      <c r="H9" s="55">
+      <c r="H9" s="42">
         <v>1</v>
       </c>
-      <c r="I9" s="73">
+      <c r="I9" s="60">
         <v>1</v>
       </c>
-      <c r="J9" s="72">
+      <c r="J9" s="59">
         <v>1</v>
       </c>
-      <c r="K9" s="54">
+      <c r="K9" s="41">
         <v>0</v>
       </c>
-      <c r="L9" s="55">
+      <c r="L9" s="42">
         <v>0</v>
       </c>
-      <c r="M9" s="73">
+      <c r="M9" s="60">
         <v>0</v>
       </c>
-      <c r="N9" s="207">
+      <c r="N9" s="194">
         <v>248</v>
       </c>
-      <c r="O9" s="82" t="s">
+      <c r="O9" s="69" t="s">
         <v>116</v>
       </c>
-      <c r="P9" s="83" t="s">
+      <c r="P9" s="70" t="s">
         <v>221</v>
       </c>
-      <c r="R9" s="98"/>
-      <c r="S9" s="62"/>
-      <c r="T9" s="65"/>
-      <c r="U9" s="62"/>
-      <c r="V9" s="63"/>
-      <c r="W9" s="57">
+      <c r="R9" s="85"/>
+      <c r="S9" s="49"/>
+      <c r="T9" s="52"/>
+      <c r="U9" s="49"/>
+      <c r="V9" s="50"/>
+      <c r="W9" s="44">
         <v>1</v>
       </c>
-      <c r="X9" s="66">
+      <c r="X9" s="53">
         <v>2</v>
       </c>
-      <c r="Y9" s="86">
+      <c r="Y9" s="73">
         <v>2</v>
       </c>
-      <c r="Z9" s="53">
+      <c r="Z9" s="40">
         <v>12</v>
       </c>
-      <c r="AA9" s="89">
+      <c r="AA9" s="76">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="51">
+      <c r="A10" s="38">
         <v>1</v>
       </c>
-      <c r="B10" s="48">
+      <c r="B10" s="35">
         <v>1</v>
       </c>
-      <c r="C10" s="51">
+      <c r="C10" s="38">
         <v>0</v>
       </c>
-      <c r="D10" s="48">
+      <c r="D10" s="35">
         <v>0</v>
       </c>
-      <c r="F10" s="71">
+      <c r="F10" s="58">
         <v>1</v>
       </c>
-      <c r="G10" s="55">
+      <c r="G10" s="42">
         <v>1</v>
       </c>
-      <c r="H10" s="54">
+      <c r="H10" s="41">
         <v>0</v>
       </c>
-      <c r="I10" s="52">
+      <c r="I10" s="39">
         <v>0</v>
       </c>
-      <c r="J10" s="71">
+      <c r="J10" s="58">
         <v>1</v>
       </c>
-      <c r="K10" s="55">
+      <c r="K10" s="42">
         <v>1</v>
       </c>
-      <c r="L10" s="54">
+      <c r="L10" s="41">
         <v>0</v>
       </c>
-      <c r="M10" s="52">
+      <c r="M10" s="39">
         <v>0</v>
       </c>
-      <c r="N10" s="206">
+      <c r="N10" s="193">
         <v>204</v>
       </c>
-      <c r="O10" s="80" t="s">
+      <c r="O10" s="67" t="s">
         <v>116</v>
       </c>
-      <c r="P10" s="81" t="s">
+      <c r="P10" s="68" t="s">
         <v>110</v>
       </c>
-      <c r="R10" s="99"/>
-      <c r="S10" s="100"/>
-      <c r="T10" s="101"/>
-      <c r="U10" s="100"/>
-      <c r="V10" s="101"/>
-      <c r="W10" s="102"/>
-      <c r="X10" s="67">
+      <c r="R10" s="86"/>
+      <c r="S10" s="87"/>
+      <c r="T10" s="88"/>
+      <c r="U10" s="87"/>
+      <c r="V10" s="88"/>
+      <c r="W10" s="89"/>
+      <c r="X10" s="54">
         <v>0</v>
       </c>
-      <c r="Y10" s="103">
+      <c r="Y10" s="90">
         <v>1</v>
       </c>
-      <c r="Z10" s="90" t="s">
+      <c r="Z10" s="77" t="s">
         <v>111</v>
       </c>
-      <c r="AA10" s="91" t="s">
+      <c r="AA10" s="78" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="46"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="F11" s="72">
+      <c r="A11" s="33"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="F11" s="59">
         <v>1</v>
       </c>
-      <c r="G11" s="54">
+      <c r="G11" s="41">
         <v>0</v>
       </c>
-      <c r="H11" s="55">
+      <c r="H11" s="42">
         <v>0</v>
       </c>
-      <c r="I11" s="73">
+      <c r="I11" s="60">
         <v>1</v>
       </c>
-      <c r="J11" s="72">
+      <c r="J11" s="59">
         <v>1</v>
       </c>
-      <c r="K11" s="54">
+      <c r="K11" s="41">
         <v>1</v>
       </c>
-      <c r="L11" s="55">
+      <c r="L11" s="42">
         <v>1</v>
       </c>
-      <c r="M11" s="73">
+      <c r="M11" s="60">
         <v>1</v>
       </c>
-      <c r="N11" s="207">
+      <c r="N11" s="194">
         <v>159</v>
       </c>
-      <c r="O11" s="82" t="s">
+      <c r="O11" s="69" t="s">
         <v>116</v>
       </c>
-      <c r="P11" s="83" t="s">
+      <c r="P11" s="70" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="297" t="s">
+      <c r="A12" s="328" t="s">
         <v>125</v>
       </c>
-      <c r="B12" s="297"/>
-      <c r="C12" s="297"/>
-      <c r="D12" s="297"/>
-      <c r="F12" s="71">
+      <c r="B12" s="328"/>
+      <c r="C12" s="328"/>
+      <c r="D12" s="328"/>
+      <c r="F12" s="58">
         <v>0</v>
       </c>
-      <c r="G12" s="55">
+      <c r="G12" s="42">
         <v>0</v>
       </c>
-      <c r="H12" s="54">
+      <c r="H12" s="41">
         <v>0</v>
       </c>
-      <c r="I12" s="52">
+      <c r="I12" s="39">
         <v>1</v>
       </c>
-      <c r="J12" s="71">
+      <c r="J12" s="58">
         <v>1</v>
       </c>
-      <c r="K12" s="55">
+      <c r="K12" s="42">
         <v>0</v>
       </c>
-      <c r="L12" s="54">
+      <c r="L12" s="41">
         <v>0</v>
       </c>
-      <c r="M12" s="52">
+      <c r="M12" s="39">
         <v>1</v>
       </c>
-      <c r="N12" s="206">
+      <c r="N12" s="193">
         <v>25</v>
       </c>
-      <c r="O12" s="80" t="s">
+      <c r="O12" s="67" t="s">
         <v>116</v>
       </c>
-      <c r="P12" s="81">
+      <c r="P12" s="68">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="51" t="s">
+      <c r="A13" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="C13" s="51" t="s">
+      <c r="C13" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="D13" s="48" t="s">
+      <c r="D13" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="F13" s="72">
+      <c r="F13" s="59">
         <v>0</v>
       </c>
-      <c r="G13" s="54">
+      <c r="G13" s="41">
         <v>0</v>
       </c>
-      <c r="H13" s="55">
+      <c r="H13" s="42">
         <v>1</v>
       </c>
-      <c r="I13" s="73">
+      <c r="I13" s="60">
         <v>0</v>
       </c>
-      <c r="J13" s="72">
+      <c r="J13" s="59">
         <v>0</v>
       </c>
-      <c r="K13" s="54">
+      <c r="K13" s="41">
         <v>0</v>
       </c>
-      <c r="L13" s="55">
+      <c r="L13" s="42">
         <v>0</v>
       </c>
-      <c r="M13" s="73">
+      <c r="M13" s="60">
         <v>0</v>
       </c>
-      <c r="N13" s="207">
+      <c r="N13" s="194">
         <v>32</v>
       </c>
-      <c r="O13" s="82" t="s">
+      <c r="O13" s="69" t="s">
         <v>116</v>
       </c>
-      <c r="P13" s="83">
+      <c r="P13" s="70">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="48">
+      <c r="A14" s="35">
         <f>16^3</f>
         <v>4096</v>
       </c>
-      <c r="B14" s="51">
+      <c r="B14" s="38">
         <v>256</v>
       </c>
-      <c r="C14" s="48">
+      <c r="C14" s="35">
         <v>16</v>
       </c>
-      <c r="D14" s="51">
+      <c r="D14" s="38">
         <v>1</v>
       </c>
-      <c r="F14" s="71">
+      <c r="F14" s="58">
         <v>0</v>
       </c>
-      <c r="G14" s="55">
+      <c r="G14" s="42">
         <v>1</v>
       </c>
-      <c r="H14" s="54">
+      <c r="H14" s="41">
         <v>0</v>
       </c>
-      <c r="I14" s="52">
+      <c r="I14" s="39">
         <v>0</v>
       </c>
-      <c r="J14" s="71">
+      <c r="J14" s="58">
         <v>0</v>
       </c>
-      <c r="K14" s="55">
+      <c r="K14" s="42">
         <v>0</v>
       </c>
-      <c r="L14" s="54">
+      <c r="L14" s="41">
         <v>0</v>
       </c>
-      <c r="M14" s="52">
+      <c r="M14" s="39">
         <v>0</v>
       </c>
-      <c r="N14" s="206">
+      <c r="N14" s="193">
         <v>64</v>
       </c>
-      <c r="O14" s="80" t="s">
+      <c r="O14" s="67" t="s">
         <v>116</v>
       </c>
-      <c r="P14" s="81">
+      <c r="P14" s="68">
         <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="51">
+      <c r="A15" s="38">
         <v>0</v>
       </c>
-      <c r="B15" s="48">
+      <c r="B15" s="35">
         <v>0</v>
       </c>
-      <c r="C15" s="51" t="s">
+      <c r="C15" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="D15" s="48" t="s">
+      <c r="D15" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="F15" s="74">
+      <c r="F15" s="61">
         <v>1</v>
       </c>
-      <c r="G15" s="75">
+      <c r="G15" s="62">
         <v>1</v>
       </c>
-      <c r="H15" s="76">
+      <c r="H15" s="63">
         <v>1</v>
       </c>
-      <c r="I15" s="77">
+      <c r="I15" s="64">
         <v>1</v>
       </c>
-      <c r="J15" s="74">
+      <c r="J15" s="61">
         <v>1</v>
       </c>
-      <c r="K15" s="75">
+      <c r="K15" s="62">
         <v>1</v>
       </c>
-      <c r="L15" s="76">
+      <c r="L15" s="63">
         <v>1</v>
       </c>
-      <c r="M15" s="77">
+      <c r="M15" s="64">
         <v>1</v>
       </c>
-      <c r="N15" s="208">
+      <c r="N15" s="195">
         <v>255</v>
       </c>
-      <c r="O15" s="84" t="s">
+      <c r="O15" s="71" t="s">
         <v>116</v>
       </c>
-      <c r="P15" s="85" t="s">
+      <c r="P15" s="72" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="F16" s="71">
+      <c r="F16" s="58">
         <v>1</v>
       </c>
-      <c r="G16" s="55">
+      <c r="G16" s="42">
         <v>0</v>
       </c>
-      <c r="H16" s="54">
+      <c r="H16" s="41">
         <v>1</v>
       </c>
-      <c r="I16" s="52">
+      <c r="I16" s="39">
         <v>0</v>
       </c>
-      <c r="J16" s="71">
+      <c r="J16" s="58">
         <v>1</v>
       </c>
-      <c r="K16" s="55">
+      <c r="K16" s="42">
         <v>1</v>
       </c>
-      <c r="L16" s="54">
+      <c r="L16" s="41">
         <v>1</v>
       </c>
-      <c r="M16" s="52">
+      <c r="M16" s="39">
         <v>0</v>
       </c>
-      <c r="N16" s="44">
+      <c r="N16" s="31">
         <v>184</v>
       </c>
-      <c r="O16" s="44" t="s">
+      <c r="O16" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="P16" s="45" t="s">
+      <c r="P16" s="32" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="17" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="Q17" s="50"/>
+      <c r="Q17" s="37"/>
     </row>
     <row r="19" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E19" s="46"/>
-      <c r="Q19" s="46"/>
+      <c r="E19" s="33"/>
+      <c r="Q19" s="33"/>
     </row>
     <row r="23" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="N23" s="105"/>
-      <c r="Q23" s="46"/>
+      <c r="N23" s="92"/>
+      <c r="Q23" s="33"/>
     </row>
     <row r="24" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="N24" s="105"/>
+      <c r="N24" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -12498,7 +12510,7 @@
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:P1"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -12508,7 +12520,7 @@
   <dimension ref="A1:AG26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="9" ySplit="8" topLeftCell="W20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="8" topLeftCell="T9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
       <selection pane="bottomRight" activeCell="F29" sqref="F29"/>
@@ -12535,1060 +12547,1065 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="94" t="s">
         <v>238</v>
       </c>
-      <c r="B1" s="304" t="s">
+      <c r="B1" s="330" t="s">
         <v>230</v>
       </c>
-      <c r="C1" s="304"/>
-      <c r="D1" s="304"/>
-      <c r="E1" s="305"/>
-      <c r="F1" s="304" t="s">
+      <c r="C1" s="330"/>
+      <c r="D1" s="330"/>
+      <c r="E1" s="331"/>
+      <c r="F1" s="330" t="s">
         <v>231</v>
       </c>
-      <c r="G1" s="304"/>
-      <c r="H1" s="304"/>
-      <c r="I1" s="304"/>
-      <c r="J1" s="304"/>
-      <c r="K1" s="304"/>
-      <c r="L1" s="304"/>
-      <c r="M1" s="304"/>
-      <c r="N1" s="306">
+      <c r="G1" s="330"/>
+      <c r="H1" s="330"/>
+      <c r="I1" s="330"/>
+      <c r="J1" s="330"/>
+      <c r="K1" s="330"/>
+      <c r="L1" s="330"/>
+      <c r="M1" s="330"/>
+      <c r="N1" s="332">
         <f>2^32</f>
         <v>4294967296</v>
       </c>
-      <c r="O1" s="306"/>
-      <c r="P1" s="306"/>
-      <c r="Q1" s="175" t="s">
+      <c r="O1" s="332"/>
+      <c r="P1" s="332"/>
+      <c r="Q1" s="162" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="107" t="s">
+      <c r="A2" s="94" t="s">
         <v>156</v>
       </c>
-      <c r="B2" s="307" t="s">
+      <c r="B2" s="333" t="s">
         <v>225</v>
       </c>
-      <c r="C2" s="307"/>
-      <c r="D2" s="307" t="s">
+      <c r="C2" s="333"/>
+      <c r="D2" s="333" t="s">
         <v>130</v>
       </c>
-      <c r="E2" s="308"/>
-      <c r="F2" s="307" t="s">
+      <c r="E2" s="334"/>
+      <c r="F2" s="333" t="s">
         <v>225</v>
       </c>
-      <c r="G2" s="307"/>
-      <c r="H2" s="307" t="s">
+      <c r="G2" s="333"/>
+      <c r="H2" s="333" t="s">
         <v>130</v>
       </c>
-      <c r="I2" s="307"/>
-      <c r="J2" s="307" t="s">
+      <c r="I2" s="333"/>
+      <c r="J2" s="333" t="s">
         <v>226</v>
       </c>
-      <c r="K2" s="307"/>
-      <c r="L2" s="307"/>
-      <c r="M2" s="307"/>
-      <c r="N2" s="303" t="s">
+      <c r="K2" s="333"/>
+      <c r="L2" s="333"/>
+      <c r="M2" s="333"/>
+      <c r="N2" s="339" t="s">
         <v>265</v>
       </c>
-      <c r="O2" s="303"/>
-      <c r="P2" s="303"/>
-      <c r="Q2" s="303"/>
+      <c r="O2" s="339"/>
+      <c r="P2" s="339"/>
+      <c r="Q2" s="339"/>
     </row>
     <row r="3" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="174" t="s">
+      <c r="A3" s="161" t="s">
         <v>157</v>
       </c>
-      <c r="B3" s="174" t="s">
+      <c r="B3" s="161" t="s">
         <v>227</v>
       </c>
-      <c r="C3" s="173" t="s">
+      <c r="C3" s="160" t="s">
         <v>228</v>
       </c>
-      <c r="D3" s="174" t="s">
+      <c r="D3" s="161" t="s">
         <v>227</v>
       </c>
-      <c r="E3" s="173" t="s">
+      <c r="E3" s="160" t="s">
         <v>228</v>
       </c>
-      <c r="F3" s="49" t="s">
+      <c r="F3" s="36" t="s">
         <v>227</v>
       </c>
-      <c r="G3" s="173" t="s">
+      <c r="G3" s="160" t="s">
         <v>228</v>
       </c>
-      <c r="H3" s="174" t="s">
+      <c r="H3" s="161" t="s">
         <v>227</v>
       </c>
-      <c r="I3" s="173" t="s">
+      <c r="I3" s="160" t="s">
         <v>228</v>
       </c>
-      <c r="J3" s="174" t="s">
+      <c r="J3" s="161" t="s">
         <v>267</v>
       </c>
-      <c r="K3" s="173" t="s">
+      <c r="K3" s="160" t="s">
         <v>268</v>
       </c>
-      <c r="L3" s="35" t="s">
+      <c r="L3" s="22" t="s">
         <v>269</v>
       </c>
-      <c r="M3" s="144" t="s">
+      <c r="M3" s="131" t="s">
         <v>270</v>
       </c>
-      <c r="N3" s="174" t="s">
+      <c r="N3" s="161" t="s">
         <v>227</v>
       </c>
-      <c r="O3" s="173" t="s">
+      <c r="O3" s="160" t="s">
         <v>228</v>
       </c>
-      <c r="P3" s="174" t="s">
+      <c r="P3" s="161" t="s">
         <v>130</v>
       </c>
-      <c r="Q3" s="173" t="s">
+      <c r="Q3" s="160" t="s">
         <v>266</v>
       </c>
-      <c r="V3" s="235"/>
-      <c r="W3" s="235"/>
+      <c r="V3" s="222"/>
+      <c r="W3" s="222"/>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A4" s="168" t="s">
+      <c r="A4" s="155" t="s">
         <v>108</v>
       </c>
-      <c r="B4" s="211" t="s">
+      <c r="B4" s="198" t="s">
         <v>131</v>
       </c>
-      <c r="C4" s="213">
+      <c r="C4" s="200">
         <v>127255255255</v>
       </c>
-      <c r="D4" s="157" t="s">
+      <c r="D4" s="144" t="s">
         <v>136</v>
       </c>
-      <c r="E4" s="158" t="s">
+      <c r="E4" s="145" t="s">
         <v>137</v>
       </c>
-      <c r="F4" s="108" t="s">
+      <c r="F4" s="95" t="s">
         <v>146</v>
       </c>
-      <c r="G4" s="176" t="s">
+      <c r="G4" s="163" t="s">
         <v>271</v>
       </c>
-      <c r="H4" s="157" t="s">
+      <c r="H4" s="144" t="s">
         <v>147</v>
       </c>
-      <c r="I4" s="158" t="s">
+      <c r="I4" s="145" t="s">
         <v>147</v>
       </c>
-      <c r="J4" s="149" t="s">
+      <c r="J4" s="136" t="s">
         <v>150</v>
       </c>
-      <c r="K4" s="154" t="s">
+      <c r="K4" s="141" t="s">
         <v>153</v>
       </c>
-      <c r="L4" s="108">
+      <c r="L4" s="95">
         <v>1</v>
       </c>
-      <c r="M4" s="145">
+      <c r="M4" s="132">
         <f>2^24-2</f>
         <v>16777214</v>
       </c>
-      <c r="N4" s="211" t="s">
+      <c r="N4" s="198" t="s">
         <v>164</v>
       </c>
-      <c r="O4" s="213">
+      <c r="O4" s="200">
         <v>127255255255</v>
       </c>
-      <c r="P4" s="157" t="s">
+      <c r="P4" s="144" t="s">
         <v>232</v>
       </c>
-      <c r="Q4" s="158" t="s">
+      <c r="Q4" s="145" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="5" spans="1:33" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="169" t="s">
+      <c r="A5" s="156" t="s">
         <v>109</v>
       </c>
-      <c r="B5" s="212" t="s">
+      <c r="B5" s="199" t="s">
         <v>132</v>
       </c>
-      <c r="C5" s="214">
+      <c r="C5" s="201">
         <v>191255255255</v>
       </c>
-      <c r="D5" s="164" t="s">
+      <c r="D5" s="151" t="s">
         <v>138</v>
       </c>
-      <c r="E5" s="165" t="s">
+      <c r="E5" s="152" t="s">
         <v>141</v>
       </c>
-      <c r="F5" s="109" t="s">
+      <c r="F5" s="96" t="s">
         <v>234</v>
       </c>
-      <c r="G5" s="155" t="s">
+      <c r="G5" s="142" t="s">
         <v>235</v>
       </c>
-      <c r="H5" s="159" t="s">
+      <c r="H5" s="146" t="s">
         <v>287</v>
       </c>
-      <c r="I5" s="160" t="s">
+      <c r="I5" s="147" t="s">
         <v>288</v>
       </c>
-      <c r="J5" s="150" t="s">
+      <c r="J5" s="137" t="s">
         <v>151</v>
       </c>
-      <c r="K5" s="155" t="s">
+      <c r="K5" s="142" t="s">
         <v>154</v>
       </c>
-      <c r="L5" s="109">
+      <c r="L5" s="96">
         <v>16</v>
       </c>
-      <c r="M5" s="146">
+      <c r="M5" s="133">
         <f>2^16-2</f>
         <v>65534</v>
       </c>
-      <c r="N5" s="212" t="s">
+      <c r="N5" s="199" t="s">
         <v>165</v>
       </c>
-      <c r="O5" s="214">
+      <c r="O5" s="201">
         <v>169254255255</v>
       </c>
-      <c r="P5" s="164" t="s">
+      <c r="P5" s="151" t="s">
         <v>233</v>
       </c>
-      <c r="Q5" s="165" t="s">
+      <c r="Q5" s="152" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:33" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="168" t="s">
+      <c r="A6" s="155" t="s">
         <v>111</v>
       </c>
-      <c r="B6" s="211" t="s">
+      <c r="B6" s="198" t="s">
         <v>133</v>
       </c>
-      <c r="C6" s="213">
+      <c r="C6" s="200">
         <v>223255255255</v>
       </c>
-      <c r="D6" s="157" t="s">
+      <c r="D6" s="144" t="s">
         <v>139</v>
       </c>
-      <c r="E6" s="158" t="s">
+      <c r="E6" s="145" t="s">
         <v>142</v>
       </c>
-      <c r="F6" s="152" t="s">
+      <c r="F6" s="139" t="s">
         <v>236</v>
       </c>
-      <c r="G6" s="156" t="s">
+      <c r="G6" s="143" t="s">
         <v>237</v>
       </c>
-      <c r="H6" s="161" t="s">
+      <c r="H6" s="148" t="s">
         <v>285</v>
       </c>
-      <c r="I6" s="162" t="s">
+      <c r="I6" s="149" t="s">
         <v>286</v>
       </c>
-      <c r="J6" s="151" t="s">
+      <c r="J6" s="138" t="s">
         <v>152</v>
       </c>
-      <c r="K6" s="156" t="s">
+      <c r="K6" s="143" t="s">
         <v>155</v>
       </c>
-      <c r="L6" s="152">
+      <c r="L6" s="139">
         <v>256</v>
       </c>
-      <c r="M6" s="153">
+      <c r="M6" s="140">
         <f>2^8-2</f>
         <v>254</v>
       </c>
-      <c r="N6" s="171"/>
-      <c r="O6" s="172"/>
-      <c r="P6" s="157"/>
-      <c r="Q6" s="158"/>
+      <c r="N6" s="158"/>
+      <c r="O6" s="159"/>
+      <c r="P6" s="144"/>
+      <c r="Q6" s="145"/>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A7" s="169" t="s">
+      <c r="A7" s="156" t="s">
         <v>112</v>
       </c>
-      <c r="B7" s="212" t="s">
+      <c r="B7" s="199" t="s">
         <v>134</v>
       </c>
-      <c r="C7" s="214">
+      <c r="C7" s="201">
         <v>239255255255</v>
       </c>
-      <c r="D7" s="164" t="s">
+      <c r="D7" s="151" t="s">
         <v>140</v>
       </c>
-      <c r="E7" s="165" t="s">
+      <c r="E7" s="152" t="s">
         <v>143</v>
       </c>
-      <c r="F7" s="299" t="s">
+      <c r="F7" s="335" t="s">
         <v>148</v>
       </c>
-      <c r="G7" s="300"/>
-      <c r="H7" s="300"/>
-      <c r="I7" s="300"/>
-      <c r="J7" s="299" t="s">
+      <c r="G7" s="336"/>
+      <c r="H7" s="336"/>
+      <c r="I7" s="336"/>
+      <c r="J7" s="335" t="s">
         <v>148</v>
       </c>
-      <c r="K7" s="300"/>
-      <c r="L7" s="300"/>
-      <c r="M7" s="300"/>
-      <c r="N7" s="212" t="s">
+      <c r="K7" s="336"/>
+      <c r="L7" s="336"/>
+      <c r="M7" s="336"/>
+      <c r="N7" s="199" t="s">
         <v>134</v>
       </c>
-      <c r="O7" s="214">
+      <c r="O7" s="201">
         <v>239255255255</v>
       </c>
-      <c r="P7" s="210">
+      <c r="P7" s="197">
         <v>11100000</v>
       </c>
-      <c r="Q7" s="147" t="s">
+      <c r="Q7" s="134" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="170" t="s">
+      <c r="A8" s="157" t="s">
         <v>113</v>
       </c>
-      <c r="B8" s="215" t="s">
+      <c r="B8" s="202" t="s">
         <v>135</v>
       </c>
-      <c r="C8" s="216">
+      <c r="C8" s="203">
         <v>255255255255</v>
       </c>
-      <c r="D8" s="166" t="s">
+      <c r="D8" s="153" t="s">
         <v>144</v>
       </c>
-      <c r="E8" s="167" t="s">
+      <c r="E8" s="154" t="s">
         <v>145</v>
       </c>
-      <c r="F8" s="301" t="s">
+      <c r="F8" s="337" t="s">
         <v>149</v>
       </c>
-      <c r="G8" s="302"/>
-      <c r="H8" s="302"/>
-      <c r="I8" s="302"/>
-      <c r="J8" s="301" t="s">
+      <c r="G8" s="338"/>
+      <c r="H8" s="338"/>
+      <c r="I8" s="338"/>
+      <c r="J8" s="337" t="s">
         <v>149</v>
       </c>
-      <c r="K8" s="302"/>
-      <c r="L8" s="302"/>
-      <c r="M8" s="302"/>
-      <c r="N8" s="215" t="s">
+      <c r="K8" s="338"/>
+      <c r="L8" s="338"/>
+      <c r="M8" s="338"/>
+      <c r="N8" s="202" t="s">
         <v>135</v>
       </c>
-      <c r="O8" s="216">
+      <c r="O8" s="203">
         <v>255255255255</v>
       </c>
-      <c r="P8" s="209">
+      <c r="P8" s="196">
         <v>11110000</v>
       </c>
-      <c r="Q8" s="163" t="s">
+      <c r="Q8" s="150" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="E9" s="106"/>
+      <c r="E9" s="93"/>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A10" s="217" t="s">
+      <c r="A10" s="204" t="s">
         <v>289</v>
       </c>
-      <c r="B10" s="218" t="s">
+      <c r="B10" s="205" t="s">
         <v>294</v>
       </c>
-      <c r="C10" s="219" t="s">
+      <c r="C10" s="206" t="s">
         <v>295</v>
       </c>
-      <c r="D10" s="218" t="s">
+      <c r="D10" s="205" t="s">
         <v>296</v>
       </c>
-      <c r="E10" s="220" t="s">
+      <c r="E10" s="207" t="s">
         <v>297</v>
       </c>
-      <c r="F10" s="218" t="s">
+      <c r="F10" s="205" t="s">
         <v>294</v>
       </c>
-      <c r="G10" s="219" t="s">
+      <c r="G10" s="206" t="s">
         <v>295</v>
       </c>
-      <c r="H10" s="218" t="s">
+      <c r="H10" s="205" t="s">
         <v>296</v>
       </c>
-      <c r="I10" s="220" t="s">
+      <c r="I10" s="207" t="s">
         <v>297</v>
       </c>
-      <c r="R10" s="218" t="s">
+      <c r="R10" s="205" t="s">
         <v>294</v>
       </c>
-      <c r="S10" s="219" t="s">
+      <c r="S10" s="206" t="s">
         <v>295</v>
       </c>
-      <c r="T10" s="218" t="s">
+      <c r="T10" s="205" t="s">
         <v>296</v>
       </c>
-      <c r="U10" s="220" t="s">
+      <c r="U10" s="207" t="s">
         <v>297</v>
       </c>
-      <c r="V10" s="218" t="s">
+      <c r="V10" s="205" t="s">
         <v>294</v>
       </c>
-      <c r="W10" s="219" t="s">
+      <c r="W10" s="206" t="s">
         <v>295</v>
       </c>
-      <c r="X10" s="218" t="s">
+      <c r="X10" s="205" t="s">
         <v>296</v>
       </c>
-      <c r="Y10" s="220" t="s">
+      <c r="Y10" s="207" t="s">
         <v>297</v>
       </c>
-      <c r="Z10" s="218" t="s">
+      <c r="Z10" s="205" t="s">
         <v>294</v>
       </c>
-      <c r="AA10" s="219" t="s">
+      <c r="AA10" s="206" t="s">
         <v>295</v>
       </c>
-      <c r="AB10" s="218" t="s">
+      <c r="AB10" s="205" t="s">
         <v>296</v>
       </c>
-      <c r="AC10" s="220" t="s">
+      <c r="AC10" s="207" t="s">
         <v>297</v>
       </c>
-      <c r="AD10" s="218" t="s">
+      <c r="AD10" s="205" t="s">
         <v>294</v>
       </c>
-      <c r="AE10" s="219" t="s">
+      <c r="AE10" s="206" t="s">
         <v>295</v>
       </c>
-      <c r="AF10" s="218" t="s">
+      <c r="AF10" s="205" t="s">
         <v>296</v>
       </c>
-      <c r="AG10" s="220" t="s">
+      <c r="AG10" s="207" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A11" s="221" t="s">
+      <c r="A11" s="208" t="s">
         <v>290</v>
       </c>
-      <c r="B11" s="224">
+      <c r="B11" s="211">
         <v>10</v>
       </c>
-      <c r="C11" s="224">
+      <c r="C11" s="211">
         <v>12</v>
       </c>
-      <c r="D11" s="224">
+      <c r="D11" s="211">
         <v>81</v>
       </c>
-      <c r="E11" s="225">
+      <c r="E11" s="212">
         <v>101</v>
       </c>
-      <c r="F11" s="224" t="s">
+      <c r="F11" s="211" t="s">
         <v>303</v>
       </c>
-      <c r="G11" s="224" t="s">
+      <c r="G11" s="211" t="s">
         <v>298</v>
       </c>
-      <c r="H11" s="224" t="s">
+      <c r="H11" s="211" t="s">
         <v>299</v>
       </c>
-      <c r="I11" s="225" t="s">
+      <c r="I11" s="212" t="s">
         <v>300</v>
       </c>
-      <c r="R11" s="224">
+      <c r="R11" s="211">
         <v>12</v>
       </c>
-      <c r="S11" s="224">
+      <c r="S11" s="211">
         <v>170</v>
       </c>
-      <c r="T11" s="224">
+      <c r="T11" s="211">
         <v>234</v>
       </c>
-      <c r="U11" s="225">
+      <c r="U11" s="212">
         <v>138</v>
       </c>
-      <c r="V11" s="224" t="s">
+      <c r="V11" s="211" t="s">
         <v>298</v>
       </c>
-      <c r="W11" s="224" t="s">
+      <c r="W11" s="211" t="s">
         <v>317</v>
       </c>
-      <c r="X11" s="224" t="s">
+      <c r="X11" s="211" t="s">
         <v>318</v>
       </c>
-      <c r="Y11" s="225" t="s">
+      <c r="Y11" s="212" t="s">
         <v>319</v>
       </c>
-      <c r="Z11" s="224">
+      <c r="Z11" s="211">
         <v>10</v>
       </c>
-      <c r="AA11" s="224">
+      <c r="AA11" s="211">
         <v>0</v>
       </c>
-      <c r="AB11" s="224">
+      <c r="AB11" s="211">
         <v>0</v>
       </c>
-      <c r="AC11" s="225">
+      <c r="AC11" s="212">
         <v>64</v>
       </c>
-      <c r="AD11" s="224" t="s">
+      <c r="AD11" s="211" t="s">
         <v>147</v>
       </c>
-      <c r="AE11" s="224" t="s">
+      <c r="AE11" s="211" t="s">
         <v>302</v>
       </c>
-      <c r="AF11" s="224" t="s">
+      <c r="AF11" s="211" t="s">
         <v>302</v>
       </c>
-      <c r="AG11" s="225" t="s">
+      <c r="AG11" s="212" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A12" s="222" t="s">
+      <c r="A12" s="209" t="s">
         <v>291</v>
       </c>
-      <c r="B12" s="226">
+      <c r="B12" s="213">
         <v>255</v>
       </c>
-      <c r="C12" s="226">
+      <c r="C12" s="213">
         <v>0</v>
       </c>
-      <c r="D12" s="226">
+      <c r="D12" s="213">
         <v>0</v>
       </c>
-      <c r="E12" s="227">
+      <c r="E12" s="214">
         <v>0</v>
       </c>
-      <c r="F12" s="226" t="s">
+      <c r="F12" s="213" t="s">
         <v>301</v>
       </c>
-      <c r="G12" s="226" t="s">
+      <c r="G12" s="213" t="s">
         <v>302</v>
       </c>
-      <c r="H12" s="226" t="s">
+      <c r="H12" s="213" t="s">
         <v>302</v>
       </c>
-      <c r="I12" s="227" t="s">
+      <c r="I12" s="214" t="s">
         <v>302</v>
       </c>
-      <c r="R12" s="226">
+      <c r="R12" s="213">
         <v>255</v>
       </c>
-      <c r="S12" s="226">
+      <c r="S12" s="213">
         <v>0</v>
       </c>
-      <c r="T12" s="226">
+      <c r="T12" s="213">
         <v>0</v>
       </c>
-      <c r="U12" s="227">
+      <c r="U12" s="214">
         <v>0</v>
       </c>
-      <c r="V12" s="226" t="s">
+      <c r="V12" s="213" t="s">
         <v>301</v>
       </c>
-      <c r="W12" s="226" t="s">
+      <c r="W12" s="213" t="s">
         <v>302</v>
       </c>
-      <c r="X12" s="226" t="s">
+      <c r="X12" s="213" t="s">
         <v>302</v>
       </c>
-      <c r="Y12" s="227" t="s">
+      <c r="Y12" s="214" t="s">
         <v>302</v>
       </c>
-      <c r="Z12" s="226">
+      <c r="Z12" s="213">
         <v>255</v>
       </c>
-      <c r="AA12" s="226">
+      <c r="AA12" s="213">
         <v>255</v>
       </c>
-      <c r="AB12" s="226">
+      <c r="AB12" s="213">
         <v>255</v>
       </c>
-      <c r="AC12" s="227">
+      <c r="AC12" s="214">
         <v>128</v>
       </c>
-      <c r="AD12" s="226" t="s">
+      <c r="AD12" s="213" t="s">
         <v>301</v>
       </c>
-      <c r="AE12" s="226" t="s">
+      <c r="AE12" s="213" t="s">
         <v>301</v>
       </c>
-      <c r="AF12" s="226" t="s">
+      <c r="AF12" s="213" t="s">
         <v>301</v>
       </c>
-      <c r="AG12" s="227" t="s">
+      <c r="AG12" s="214" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A13" s="221" t="s">
+      <c r="A13" s="208" t="s">
         <v>292</v>
       </c>
-      <c r="B13" s="224">
+      <c r="B13" s="211">
         <v>10</v>
       </c>
-      <c r="C13" s="224">
+      <c r="C13" s="211">
         <v>0</v>
       </c>
-      <c r="D13" s="224">
+      <c r="D13" s="211">
         <v>0</v>
       </c>
-      <c r="E13" s="225">
+      <c r="E13" s="212">
         <v>0</v>
       </c>
-      <c r="F13" s="224" t="s">
+      <c r="F13" s="211" t="s">
         <v>303</v>
       </c>
-      <c r="G13" s="224" t="s">
+      <c r="G13" s="211" t="s">
         <v>302</v>
       </c>
-      <c r="H13" s="224" t="s">
+      <c r="H13" s="211" t="s">
         <v>302</v>
       </c>
-      <c r="I13" s="225" t="s">
+      <c r="I13" s="212" t="s">
         <v>302</v>
       </c>
-      <c r="R13" s="224">
+      <c r="R13" s="211">
         <v>12</v>
       </c>
-      <c r="S13" s="224">
+      <c r="S13" s="211">
         <v>0</v>
       </c>
-      <c r="T13" s="224">
+      <c r="T13" s="211">
         <v>0</v>
       </c>
-      <c r="U13" s="225">
+      <c r="U13" s="212">
         <v>0</v>
       </c>
-      <c r="V13" s="224" t="s">
+      <c r="V13" s="211" t="s">
         <v>298</v>
       </c>
-      <c r="W13" s="224" t="s">
+      <c r="W13" s="211" t="s">
         <v>302</v>
       </c>
-      <c r="X13" s="224" t="s">
+      <c r="X13" s="211" t="s">
         <v>302</v>
       </c>
-      <c r="Y13" s="225" t="s">
+      <c r="Y13" s="212" t="s">
         <v>302</v>
       </c>
-      <c r="Z13" s="224">
+      <c r="Z13" s="211">
         <v>10</v>
       </c>
-      <c r="AA13" s="224">
+      <c r="AA13" s="211">
         <v>0</v>
       </c>
-      <c r="AB13" s="224">
+      <c r="AB13" s="211">
         <v>0</v>
       </c>
-      <c r="AC13" s="225">
+      <c r="AC13" s="212">
         <v>0</v>
       </c>
-      <c r="AD13" s="224" t="s">
+      <c r="AD13" s="211" t="s">
         <v>147</v>
       </c>
-      <c r="AE13" s="224" t="s">
+      <c r="AE13" s="211" t="s">
         <v>302</v>
       </c>
-      <c r="AF13" s="224" t="s">
+      <c r="AF13" s="211" t="s">
         <v>302</v>
       </c>
-      <c r="AG13" s="225" t="s">
+      <c r="AG13" s="212" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A14" s="223" t="s">
+      <c r="A14" s="210" t="s">
         <v>293</v>
       </c>
-      <c r="B14" s="228">
+      <c r="B14" s="215">
         <v>10</v>
       </c>
-      <c r="C14" s="228">
+      <c r="C14" s="215">
         <v>255</v>
       </c>
-      <c r="D14" s="228">
+      <c r="D14" s="215">
         <v>255</v>
       </c>
-      <c r="E14" s="229">
+      <c r="E14" s="216">
         <v>255</v>
       </c>
-      <c r="F14" s="228" t="s">
+      <c r="F14" s="215" t="s">
         <v>303</v>
       </c>
-      <c r="G14" s="228" t="s">
+      <c r="G14" s="215" t="s">
         <v>301</v>
       </c>
-      <c r="H14" s="228" t="s">
+      <c r="H14" s="215" t="s">
         <v>301</v>
       </c>
-      <c r="I14" s="229" t="s">
+      <c r="I14" s="216" t="s">
         <v>301</v>
       </c>
-      <c r="R14" s="228">
+      <c r="R14" s="215">
         <v>12</v>
       </c>
-      <c r="S14" s="228">
+      <c r="S14" s="215">
         <v>255</v>
       </c>
-      <c r="T14" s="228">
+      <c r="T14" s="215">
         <v>255</v>
       </c>
-      <c r="U14" s="229">
+      <c r="U14" s="216">
         <v>255</v>
       </c>
-      <c r="V14" s="228" t="s">
+      <c r="V14" s="215" t="s">
         <v>298</v>
       </c>
-      <c r="W14" s="228" t="s">
+      <c r="W14" s="215" t="s">
         <v>301</v>
       </c>
-      <c r="X14" s="228" t="s">
+      <c r="X14" s="215" t="s">
         <v>301</v>
       </c>
-      <c r="Y14" s="229" t="s">
+      <c r="Y14" s="216" t="s">
         <v>301</v>
       </c>
-      <c r="Z14" s="228">
+      <c r="Z14" s="215">
         <v>10</v>
       </c>
-      <c r="AA14" s="228">
+      <c r="AA14" s="215">
         <v>0</v>
       </c>
-      <c r="AB14" s="228">
+      <c r="AB14" s="215">
         <v>0</v>
       </c>
-      <c r="AC14" s="229">
+      <c r="AC14" s="216">
         <v>127</v>
       </c>
-      <c r="AD14" s="228" t="s">
+      <c r="AD14" s="215" t="s">
         <v>147</v>
       </c>
-      <c r="AE14" s="228" t="s">
+      <c r="AE14" s="215" t="s">
         <v>302</v>
       </c>
-      <c r="AF14" s="228" t="s">
+      <c r="AF14" s="215" t="s">
         <v>302</v>
       </c>
-      <c r="AG14" s="229" t="s">
+      <c r="AG14" s="216" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="230"/>
-      <c r="C15" s="230"/>
-      <c r="D15" s="230"/>
-      <c r="E15" s="230"/>
-      <c r="F15" s="230"/>
-      <c r="G15" s="230"/>
-      <c r="H15" s="230"/>
-      <c r="I15" s="230"/>
+      <c r="B15" s="217"/>
+      <c r="C15" s="217"/>
+      <c r="D15" s="217"/>
+      <c r="E15" s="217"/>
+      <c r="F15" s="217"/>
+      <c r="G15" s="217"/>
+      <c r="H15" s="217"/>
+      <c r="I15" s="217"/>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A16" s="217" t="s">
+      <c r="A16" s="204" t="s">
         <v>289</v>
       </c>
-      <c r="B16" s="231" t="s">
+      <c r="B16" s="218" t="s">
         <v>294</v>
       </c>
-      <c r="C16" s="232" t="s">
+      <c r="C16" s="219" t="s">
         <v>295</v>
       </c>
-      <c r="D16" s="231" t="s">
+      <c r="D16" s="218" t="s">
         <v>296</v>
       </c>
-      <c r="E16" s="233" t="s">
+      <c r="E16" s="220" t="s">
         <v>297</v>
       </c>
-      <c r="F16" s="231" t="s">
+      <c r="F16" s="218" t="s">
         <v>294</v>
       </c>
-      <c r="G16" s="232" t="s">
+      <c r="G16" s="219" t="s">
         <v>295</v>
       </c>
-      <c r="H16" s="231" t="s">
+      <c r="H16" s="218" t="s">
         <v>296</v>
       </c>
-      <c r="I16" s="233" t="s">
+      <c r="I16" s="220" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="221" t="s">
+      <c r="A17" s="208" t="s">
         <v>290</v>
       </c>
-      <c r="B17" s="224">
+      <c r="B17" s="211">
         <v>172</v>
       </c>
-      <c r="C17" s="224">
+      <c r="C17" s="211">
         <v>16</v>
       </c>
-      <c r="D17" s="224">
+      <c r="D17" s="211">
         <v>22</v>
       </c>
-      <c r="E17" s="225">
+      <c r="E17" s="212">
         <v>13</v>
       </c>
-      <c r="F17" s="224" t="s">
+      <c r="F17" s="211" t="s">
         <v>306</v>
       </c>
-      <c r="G17" s="224" t="s">
+      <c r="G17" s="211" t="s">
         <v>307</v>
       </c>
-      <c r="H17" s="224" t="s">
+      <c r="H17" s="211" t="s">
         <v>304</v>
       </c>
-      <c r="I17" s="225" t="s">
+      <c r="I17" s="212" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="222" t="s">
+      <c r="A18" s="209" t="s">
         <v>291</v>
       </c>
-      <c r="B18" s="226">
+      <c r="B18" s="213">
         <v>255</v>
       </c>
-      <c r="C18" s="226">
+      <c r="C18" s="213">
         <v>255</v>
       </c>
-      <c r="D18" s="226">
+      <c r="D18" s="213">
         <v>0</v>
       </c>
-      <c r="E18" s="227">
+      <c r="E18" s="214">
         <v>0</v>
       </c>
-      <c r="F18" s="226" t="s">
+      <c r="F18" s="213" t="s">
         <v>301</v>
       </c>
-      <c r="G18" s="226" t="s">
+      <c r="G18" s="213" t="s">
         <v>301</v>
       </c>
-      <c r="H18" s="226" t="s">
+      <c r="H18" s="213" t="s">
         <v>302</v>
       </c>
-      <c r="I18" s="227" t="s">
+      <c r="I18" s="214" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="221" t="s">
+      <c r="A19" s="208" t="s">
         <v>292</v>
       </c>
-      <c r="B19" s="224">
+      <c r="B19" s="211">
         <v>172</v>
       </c>
-      <c r="C19" s="224">
+      <c r="C19" s="211">
         <v>16</v>
       </c>
-      <c r="D19" s="224">
+      <c r="D19" s="211">
         <v>0</v>
       </c>
-      <c r="E19" s="225">
+      <c r="E19" s="212">
         <v>0</v>
       </c>
-      <c r="F19" s="224" t="s">
+      <c r="F19" s="211" t="s">
         <v>306</v>
       </c>
-      <c r="G19" s="224" t="s">
+      <c r="G19" s="211" t="s">
         <v>307</v>
       </c>
-      <c r="H19" s="224" t="s">
+      <c r="H19" s="211" t="s">
         <v>302</v>
       </c>
-      <c r="I19" s="225" t="s">
+      <c r="I19" s="212" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="223" t="s">
+      <c r="A20" s="210" t="s">
         <v>293</v>
       </c>
-      <c r="B20" s="228">
+      <c r="B20" s="215">
         <v>172</v>
       </c>
-      <c r="C20" s="228">
+      <c r="C20" s="215">
         <v>16</v>
       </c>
-      <c r="D20" s="228">
+      <c r="D20" s="215">
         <v>255</v>
       </c>
-      <c r="E20" s="229">
+      <c r="E20" s="216">
         <v>255</v>
       </c>
-      <c r="F20" s="228" t="s">
+      <c r="F20" s="215" t="s">
         <v>306</v>
       </c>
-      <c r="G20" s="228" t="s">
+      <c r="G20" s="215" t="s">
         <v>307</v>
       </c>
-      <c r="H20" s="228" t="s">
+      <c r="H20" s="215" t="s">
         <v>301</v>
       </c>
-      <c r="I20" s="229" t="s">
+      <c r="I20" s="216" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="230"/>
-      <c r="C21" s="230"/>
-      <c r="D21" s="230"/>
-      <c r="E21" s="230"/>
-      <c r="F21" s="230"/>
-      <c r="G21" s="230"/>
-      <c r="H21" s="230"/>
-      <c r="I21" s="230"/>
+      <c r="B21" s="217"/>
+      <c r="C21" s="217"/>
+      <c r="D21" s="217"/>
+      <c r="E21" s="217"/>
+      <c r="F21" s="217"/>
+      <c r="G21" s="217"/>
+      <c r="H21" s="217"/>
+      <c r="I21" s="217"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="217" t="s">
+      <c r="A22" s="204" t="s">
         <v>289</v>
       </c>
-      <c r="B22" s="231" t="s">
+      <c r="B22" s="218" t="s">
         <v>294</v>
       </c>
-      <c r="C22" s="232" t="s">
+      <c r="C22" s="219" t="s">
         <v>295</v>
       </c>
-      <c r="D22" s="231" t="s">
+      <c r="D22" s="218" t="s">
         <v>296</v>
       </c>
-      <c r="E22" s="233" t="s">
+      <c r="E22" s="220" t="s">
         <v>297</v>
       </c>
-      <c r="F22" s="231" t="s">
+      <c r="F22" s="218" t="s">
         <v>294</v>
       </c>
-      <c r="G22" s="232" t="s">
+      <c r="G22" s="219" t="s">
         <v>295</v>
       </c>
-      <c r="H22" s="231" t="s">
+      <c r="H22" s="218" t="s">
         <v>296</v>
       </c>
-      <c r="I22" s="233" t="s">
+      <c r="I22" s="220" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="221" t="s">
+      <c r="A23" s="208" t="s">
         <v>290</v>
       </c>
-      <c r="B23" s="224">
+      <c r="B23" s="211">
         <v>192</v>
       </c>
-      <c r="C23" s="224">
+      <c r="C23" s="211">
         <v>168</v>
       </c>
-      <c r="D23" s="224">
+      <c r="D23" s="211">
         <v>117</v>
       </c>
-      <c r="E23" s="225">
+      <c r="E23" s="212">
         <v>136</v>
       </c>
-      <c r="F23" s="224" t="s">
+      <c r="F23" s="211" t="s">
         <v>308</v>
       </c>
-      <c r="G23" s="224" t="s">
+      <c r="G23" s="211" t="s">
         <v>309</v>
       </c>
-      <c r="H23" s="224" t="s">
+      <c r="H23" s="211" t="s">
         <v>311</v>
       </c>
-      <c r="I23" s="225" t="s">
+      <c r="I23" s="212" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="222" t="s">
+      <c r="A24" s="209" t="s">
         <v>291</v>
       </c>
-      <c r="B24" s="226">
+      <c r="B24" s="213">
         <v>255</v>
       </c>
-      <c r="C24" s="226">
+      <c r="C24" s="213">
         <v>255</v>
       </c>
-      <c r="D24" s="226">
+      <c r="D24" s="213">
         <v>255</v>
       </c>
-      <c r="E24" s="227">
+      <c r="E24" s="214">
         <v>0</v>
       </c>
-      <c r="F24" s="226" t="s">
+      <c r="F24" s="213" t="s">
         <v>301</v>
       </c>
-      <c r="G24" s="226" t="s">
+      <c r="G24" s="213" t="s">
         <v>301</v>
       </c>
-      <c r="H24" s="226" t="s">
+      <c r="H24" s="213" t="s">
         <v>301</v>
       </c>
-      <c r="I24" s="227" t="s">
+      <c r="I24" s="214" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="221" t="s">
+      <c r="A25" s="208" t="s">
         <v>292</v>
       </c>
-      <c r="B25" s="224">
+      <c r="B25" s="211">
         <v>192</v>
       </c>
-      <c r="C25" s="224">
+      <c r="C25" s="211">
         <v>168</v>
       </c>
-      <c r="D25" s="224">
+      <c r="D25" s="211">
         <v>117</v>
       </c>
-      <c r="E25" s="225">
+      <c r="E25" s="212">
         <v>0</v>
       </c>
-      <c r="F25" s="224" t="s">
+      <c r="F25" s="211" t="s">
         <v>308</v>
       </c>
-      <c r="G25" s="224" t="s">
+      <c r="G25" s="211" t="s">
         <v>309</v>
       </c>
-      <c r="H25" s="224" t="s">
+      <c r="H25" s="211" t="s">
         <v>311</v>
       </c>
-      <c r="I25" s="225" t="s">
+      <c r="I25" s="212" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="223" t="s">
+      <c r="A26" s="210" t="s">
         <v>293</v>
       </c>
-      <c r="B26" s="228">
+      <c r="B26" s="215">
         <v>192</v>
       </c>
-      <c r="C26" s="228">
+      <c r="C26" s="215">
         <v>168</v>
       </c>
-      <c r="D26" s="228">
+      <c r="D26" s="215">
         <v>117</v>
       </c>
-      <c r="E26" s="229">
+      <c r="E26" s="216">
         <v>255</v>
       </c>
-      <c r="F26" s="228" t="s">
+      <c r="F26" s="215" t="s">
         <v>308</v>
       </c>
-      <c r="G26" s="228" t="s">
+      <c r="G26" s="215" t="s">
         <v>309</v>
       </c>
-      <c r="H26" s="228" t="s">
+      <c r="H26" s="215" t="s">
         <v>311</v>
       </c>
-      <c r="I26" s="229" t="s">
+      <c r="I26" s="216" t="s">
         <v>301</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="N2:Q2"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:M1"/>
     <mergeCell ref="N1:P1"/>
@@ -13597,13 +13614,8 @@
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="N2:Q2"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
@@ -13631,394 +13643,394 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="97" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="324">
+      <c r="B1" s="340">
         <f>2^128</f>
         <v>3.4028236692093846E+38</v>
       </c>
-      <c r="C1" s="324"/>
-      <c r="D1" s="324"/>
-      <c r="E1" s="324"/>
-      <c r="F1" s="324"/>
-      <c r="G1" s="324"/>
-      <c r="H1" s="324"/>
-      <c r="I1" s="324"/>
-      <c r="J1" s="110" t="s">
+      <c r="C1" s="340"/>
+      <c r="D1" s="340"/>
+      <c r="E1" s="340"/>
+      <c r="F1" s="340"/>
+      <c r="G1" s="340"/>
+      <c r="H1" s="340"/>
+      <c r="I1" s="340"/>
+      <c r="J1" s="97" t="s">
         <v>240</v>
       </c>
-      <c r="K1" s="325" t="s">
+      <c r="K1" s="341" t="s">
         <v>229</v>
       </c>
-      <c r="L1" s="325"/>
-      <c r="M1" s="325"/>
-      <c r="N1" s="325"/>
+      <c r="L1" s="341"/>
+      <c r="M1" s="341"/>
+      <c r="N1" s="341"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="133" t="s">
+      <c r="A2" s="120" t="s">
         <v>177</v>
       </c>
-      <c r="B2" s="326" t="s">
+      <c r="B2" s="342" t="s">
         <v>173</v>
       </c>
-      <c r="C2" s="327"/>
-      <c r="D2" s="327"/>
-      <c r="E2" s="111" t="s">
+      <c r="C2" s="343"/>
+      <c r="D2" s="343"/>
+      <c r="E2" s="98" t="s">
         <v>253</v>
       </c>
-      <c r="F2" s="327" t="s">
+      <c r="F2" s="343" t="s">
         <v>174</v>
       </c>
-      <c r="G2" s="327"/>
-      <c r="H2" s="327"/>
-      <c r="I2" s="328"/>
-      <c r="J2" s="112" t="s">
+      <c r="G2" s="343"/>
+      <c r="H2" s="343"/>
+      <c r="I2" s="344"/>
+      <c r="J2" s="99" t="s">
         <v>175</v>
       </c>
-      <c r="K2" s="112" t="s">
+      <c r="K2" s="99" t="s">
         <v>224</v>
       </c>
-      <c r="L2" s="116" t="s">
+      <c r="L2" s="103" t="s">
         <v>227</v>
       </c>
-      <c r="M2" s="117" t="s">
+      <c r="M2" s="104" t="s">
         <v>228</v>
       </c>
-      <c r="N2" s="112" t="s">
+      <c r="N2" s="99" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="118" t="s">
+      <c r="A3" s="105" t="s">
         <v>178</v>
       </c>
-      <c r="B3" s="124" t="s">
+      <c r="B3" s="111" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="125" t="s">
+      <c r="C3" s="112" t="s">
         <v>168</v>
       </c>
-      <c r="D3" s="125" t="s">
+      <c r="D3" s="112" t="s">
         <v>170</v>
       </c>
-      <c r="E3" s="126" t="s">
+      <c r="E3" s="113" t="s">
         <v>171</v>
       </c>
-      <c r="F3" s="127" t="s">
+      <c r="F3" s="114" t="s">
         <v>172</v>
       </c>
-      <c r="G3" s="127" t="s">
+      <c r="G3" s="114" t="s">
         <v>172</v>
       </c>
-      <c r="H3" s="127" t="s">
+      <c r="H3" s="114" t="s">
         <v>172</v>
       </c>
-      <c r="I3" s="128" t="s">
+      <c r="I3" s="115" t="s">
         <v>167</v>
       </c>
-      <c r="J3" s="113" t="s">
+      <c r="J3" s="100" t="s">
         <v>176</v>
       </c>
-      <c r="K3" s="113" t="s">
+      <c r="K3" s="100" t="s">
         <v>173</v>
       </c>
-      <c r="L3" s="118" t="s">
+      <c r="L3" s="105" t="s">
         <v>241</v>
       </c>
-      <c r="M3" s="119" t="s">
+      <c r="M3" s="106" t="s">
         <v>242</v>
       </c>
-      <c r="N3" s="113" t="s">
+      <c r="N3" s="100" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="120" t="s">
+      <c r="A4" s="107" t="s">
         <v>183</v>
       </c>
-      <c r="B4" s="124" t="s">
+      <c r="B4" s="111" t="s">
         <v>169</v>
       </c>
-      <c r="C4" s="125" t="s">
+      <c r="C4" s="112" t="s">
         <v>179</v>
       </c>
-      <c r="D4" s="125" t="s">
+      <c r="D4" s="112" t="s">
         <v>170</v>
       </c>
-      <c r="E4" s="126" t="s">
+      <c r="E4" s="113" t="s">
         <v>180</v>
       </c>
-      <c r="F4" s="127" t="s">
+      <c r="F4" s="114" t="s">
         <v>181</v>
       </c>
-      <c r="G4" s="127" t="s">
+      <c r="G4" s="114" t="s">
         <v>181</v>
       </c>
-      <c r="H4" s="127" t="s">
+      <c r="H4" s="114" t="s">
         <v>181</v>
       </c>
-      <c r="I4" s="128" t="s">
+      <c r="I4" s="115" t="s">
         <v>182</v>
       </c>
-      <c r="J4" s="113" t="s">
+      <c r="J4" s="100" t="s">
         <v>176</v>
       </c>
-      <c r="K4" s="115" t="s">
+      <c r="K4" s="102" t="s">
         <v>187</v>
       </c>
-      <c r="L4" s="120" t="s">
+      <c r="L4" s="107" t="s">
         <v>188</v>
       </c>
-      <c r="M4" s="121" t="s">
+      <c r="M4" s="108" t="s">
         <v>186</v>
       </c>
-      <c r="N4" s="115" t="s">
+      <c r="N4" s="102" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="122" t="s">
+      <c r="A5" s="109" t="s">
         <v>185</v>
       </c>
-      <c r="B5" s="129" t="s">
+      <c r="B5" s="116" t="s">
         <v>169</v>
       </c>
-      <c r="C5" s="130" t="s">
+      <c r="C5" s="117" t="s">
         <v>179</v>
       </c>
-      <c r="D5" s="130" t="s">
+      <c r="D5" s="117" t="s">
         <v>170</v>
       </c>
-      <c r="E5" s="131" t="s">
+      <c r="E5" s="118" t="s">
         <v>182</v>
       </c>
-      <c r="F5" s="329" t="s">
+      <c r="F5" s="345" t="s">
         <v>184</v>
       </c>
-      <c r="G5" s="329"/>
-      <c r="H5" s="329"/>
-      <c r="I5" s="132">
+      <c r="G5" s="345"/>
+      <c r="H5" s="345"/>
+      <c r="I5" s="119">
         <v>1</v>
       </c>
-      <c r="J5" s="114" t="s">
+      <c r="J5" s="101" t="s">
         <v>176</v>
       </c>
-      <c r="K5" s="114" t="s">
+      <c r="K5" s="101" t="s">
         <v>247</v>
       </c>
-      <c r="L5" s="122" t="s">
+      <c r="L5" s="109" t="s">
         <v>313</v>
       </c>
-      <c r="M5" s="123" t="s">
+      <c r="M5" s="110" t="s">
         <v>314</v>
       </c>
-      <c r="N5" s="114" t="s">
+      <c r="N5" s="101" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E6" s="47"/>
+      <c r="E6" s="34"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="112" t="s">
+      <c r="A7" s="99" t="s">
         <v>186</v>
       </c>
-      <c r="B7" s="116" t="s">
+      <c r="B7" s="103" t="s">
         <v>263</v>
       </c>
-      <c r="C7" s="321" t="s">
+      <c r="C7" s="352" t="s">
         <v>248</v>
       </c>
-      <c r="D7" s="321"/>
-      <c r="E7" s="321"/>
-      <c r="F7" s="322"/>
-      <c r="G7" s="140" t="s">
+      <c r="D7" s="352"/>
+      <c r="E7" s="352"/>
+      <c r="F7" s="353"/>
+      <c r="G7" s="127" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="113" t="s">
+      <c r="A8" s="100" t="s">
         <v>255</v>
       </c>
-      <c r="B8" s="137" t="s">
+      <c r="B8" s="124" t="s">
         <v>188</v>
       </c>
-      <c r="C8" s="136" t="s">
+      <c r="C8" s="123" t="s">
         <v>262</v>
       </c>
-      <c r="D8" s="323" t="s">
+      <c r="D8" s="354" t="s">
         <v>249</v>
       </c>
-      <c r="E8" s="323"/>
-      <c r="F8" s="134" t="s">
+      <c r="E8" s="354"/>
+      <c r="F8" s="121" t="s">
         <v>250</v>
       </c>
-      <c r="G8" s="119" t="s">
+      <c r="G8" s="106" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="115" t="s">
+      <c r="A9" s="102" t="s">
         <v>256</v>
       </c>
-      <c r="B9" s="138" t="s">
+      <c r="B9" s="125" t="s">
         <v>188</v>
       </c>
-      <c r="C9" s="127" t="s">
+      <c r="C9" s="114" t="s">
         <v>251</v>
       </c>
-      <c r="D9" s="127" t="s">
+      <c r="D9" s="114" t="s">
         <v>257</v>
       </c>
-      <c r="E9" s="127" t="s">
+      <c r="E9" s="114" t="s">
         <v>258</v>
       </c>
-      <c r="F9" s="128" t="s">
+      <c r="F9" s="115" t="s">
         <v>250</v>
       </c>
-      <c r="G9" s="119" t="s">
+      <c r="G9" s="106" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="114" t="s">
+      <c r="A10" s="101" t="s">
         <v>185</v>
       </c>
-      <c r="B10" s="139" t="s">
+      <c r="B10" s="126" t="s">
         <v>189</v>
       </c>
-      <c r="C10" s="135" t="s">
+      <c r="C10" s="122" t="s">
         <v>259</v>
       </c>
-      <c r="D10" s="135" t="s">
+      <c r="D10" s="122" t="s">
         <v>257</v>
       </c>
-      <c r="E10" s="135" t="s">
+      <c r="E10" s="122" t="s">
         <v>258</v>
       </c>
-      <c r="F10" s="132" t="s">
+      <c r="F10" s="119" t="s">
         <v>250</v>
       </c>
-      <c r="G10" s="123" t="s">
+      <c r="G10" s="110" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="143" t="s">
+      <c r="A12" s="130" t="s">
         <v>263</v>
       </c>
-      <c r="B12" s="318" t="s">
+      <c r="B12" s="349" t="s">
         <v>248</v>
       </c>
-      <c r="C12" s="319"/>
-      <c r="D12" s="320"/>
-      <c r="E12" s="318" t="s">
+      <c r="C12" s="350"/>
+      <c r="D12" s="351"/>
+      <c r="E12" s="349" t="s">
         <v>264</v>
       </c>
-      <c r="F12" s="319"/>
-      <c r="G12" s="320"/>
+      <c r="F12" s="350"/>
+      <c r="G12" s="351"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="141" t="s">
+      <c r="A13" s="128" t="s">
         <v>188</v>
       </c>
-      <c r="B13" s="309" t="s">
+      <c r="B13" s="346" t="s">
         <v>190</v>
       </c>
-      <c r="C13" s="310"/>
-      <c r="D13" s="311"/>
-      <c r="E13" s="310" t="s">
+      <c r="C13" s="347"/>
+      <c r="D13" s="348"/>
+      <c r="E13" s="347" t="s">
         <v>191</v>
       </c>
-      <c r="F13" s="310"/>
-      <c r="G13" s="311"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
+      <c r="F13" s="347"/>
+      <c r="G13" s="348"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="142"/>
-      <c r="B14" s="312"/>
-      <c r="C14" s="313"/>
-      <c r="D14" s="314"/>
-      <c r="E14" s="313"/>
-      <c r="F14" s="313"/>
-      <c r="G14" s="314"/>
+      <c r="A14" s="129"/>
+      <c r="B14" s="355"/>
+      <c r="C14" s="356"/>
+      <c r="D14" s="357"/>
+      <c r="E14" s="356"/>
+      <c r="F14" s="356"/>
+      <c r="G14" s="357"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="141"/>
-      <c r="B15" s="309"/>
-      <c r="C15" s="310"/>
-      <c r="D15" s="311"/>
-      <c r="E15" s="310"/>
-      <c r="F15" s="310"/>
-      <c r="G15" s="311"/>
+      <c r="A15" s="128"/>
+      <c r="B15" s="346"/>
+      <c r="C15" s="347"/>
+      <c r="D15" s="348"/>
+      <c r="E15" s="347"/>
+      <c r="F15" s="347"/>
+      <c r="G15" s="348"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="142"/>
-      <c r="B16" s="312"/>
-      <c r="C16" s="313"/>
-      <c r="D16" s="314"/>
-      <c r="E16" s="313"/>
-      <c r="F16" s="313"/>
-      <c r="G16" s="314"/>
+      <c r="A16" s="129"/>
+      <c r="B16" s="355"/>
+      <c r="C16" s="356"/>
+      <c r="D16" s="357"/>
+      <c r="E16" s="356"/>
+      <c r="F16" s="356"/>
+      <c r="G16" s="357"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="141"/>
-      <c r="B17" s="309"/>
-      <c r="C17" s="310"/>
-      <c r="D17" s="311"/>
-      <c r="E17" s="310"/>
-      <c r="F17" s="310"/>
-      <c r="G17" s="311"/>
+      <c r="A17" s="128"/>
+      <c r="B17" s="346"/>
+      <c r="C17" s="347"/>
+      <c r="D17" s="348"/>
+      <c r="E17" s="347"/>
+      <c r="F17" s="347"/>
+      <c r="G17" s="348"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="142"/>
-      <c r="B18" s="312"/>
-      <c r="C18" s="313"/>
-      <c r="D18" s="314"/>
-      <c r="E18" s="313"/>
-      <c r="F18" s="313"/>
-      <c r="G18" s="314"/>
+      <c r="A18" s="129"/>
+      <c r="B18" s="355"/>
+      <c r="C18" s="356"/>
+      <c r="D18" s="357"/>
+      <c r="E18" s="356"/>
+      <c r="F18" s="356"/>
+      <c r="G18" s="357"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="129"/>
-      <c r="B19" s="315"/>
-      <c r="C19" s="316"/>
-      <c r="D19" s="317"/>
-      <c r="E19" s="316"/>
-      <c r="F19" s="316"/>
-      <c r="G19" s="317"/>
+      <c r="A19" s="116"/>
+      <c r="B19" s="358"/>
+      <c r="C19" s="359"/>
+      <c r="D19" s="360"/>
+      <c r="E19" s="359"/>
+      <c r="F19" s="359"/>
+      <c r="G19" s="360"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="E13:G13"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="E12:G12"/>
     <mergeCell ref="C7:F7"/>
     <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="F5:H5"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="I3:I4 E5" numberStoredAsText="1"/>
@@ -14030,21 +14042,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24D7D516-A0F2-40A5-9B09-E073F45C46B9}">
   <dimension ref="A1:P53"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="6" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D51" sqref="D51"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="234" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13.7109375" style="235" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" style="235" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" style="235" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" style="235" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.85546875" style="235" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" style="221" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="14.85546875" style="222" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" style="222" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.85546875" style="222" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.5703125" bestFit="1" customWidth="1"/>
@@ -14053,36 +14063,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="339" t="s">
+      <c r="A1" s="376" t="s">
         <v>320</v>
       </c>
-      <c r="B1" s="339"/>
-      <c r="C1" s="339"/>
-      <c r="D1" s="331" t="s">
+      <c r="B1" s="376"/>
+      <c r="C1" s="376"/>
+      <c r="D1" s="226" t="s">
         <v>471</v>
       </c>
-      <c r="E1" s="231" t="s">
+      <c r="E1" s="218" t="s">
         <v>473</v>
       </c>
-      <c r="F1" s="331" t="s">
+      <c r="F1" s="226" t="s">
         <v>472</v>
       </c>
-      <c r="G1" s="231" t="s">
+      <c r="G1" s="218" t="s">
         <v>572</v>
       </c>
-      <c r="H1" s="331" t="s">
+      <c r="H1" s="226" t="s">
         <v>573</v>
       </c>
-      <c r="I1" s="231" t="s">
+      <c r="I1" s="218" t="s">
         <v>323</v>
       </c>
-      <c r="J1" s="331" t="s">
+      <c r="J1" s="226" t="s">
         <v>446</v>
       </c>
-      <c r="K1" s="231" t="s">
+      <c r="K1" s="218" t="s">
         <v>322</v>
       </c>
-      <c r="P1" s="47"/>
+      <c r="P1" s="34"/>
     </row>
     <row r="2" spans="1:16" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="373" t="s">
@@ -14090,1390 +14100,1376 @@
       </c>
       <c r="B2" s="374"/>
       <c r="C2" s="375"/>
-      <c r="D2" s="337" t="s">
+      <c r="D2" s="230" t="s">
         <v>321</v>
       </c>
-      <c r="E2" s="338" t="s">
+      <c r="E2" s="231" t="s">
         <v>576</v>
       </c>
-      <c r="F2" s="337" t="s">
+      <c r="F2" s="230" t="s">
         <v>329</v>
       </c>
-      <c r="G2" s="338" t="s">
+      <c r="G2" s="231" t="s">
+        <v>111</v>
+      </c>
+      <c r="H2" s="384">
+        <v>20</v>
+      </c>
+      <c r="I2" s="231">
+        <f>IF(H2="","",IF(H2&lt;=2,1,IF(H2&lt;=4,2,IF(H2&lt;=8,3,IF(H2&lt;=16,4,IF(H2&lt;=32,5,IF(H2&lt;=64,6,IF(H2&lt;=128,7,8))))))))</f>
+        <v>5</v>
+      </c>
+      <c r="J2" s="230">
+        <f>IF(G2="","",IF(G2="A",8+I2,IF(G2="B",16+I2,IF(G2="C",24+I2,"invalid"))))</f>
+        <v>29</v>
+      </c>
+      <c r="K2" s="231">
+        <f>IF(J2="","",2^(32-J2))</f>
+        <v>8</v>
+      </c>
+      <c r="P2" s="34"/>
+    </row>
+    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="232" t="s">
+        <v>327</v>
+      </c>
+      <c r="B3" s="233" t="s">
+        <v>292</v>
+      </c>
+      <c r="C3" s="233" t="s">
+        <v>324</v>
+      </c>
+      <c r="D3" s="234" t="s">
+        <v>325</v>
+      </c>
+      <c r="E3" s="233" t="s">
+        <v>293</v>
+      </c>
+      <c r="F3" s="234" t="s">
+        <v>316</v>
+      </c>
+      <c r="G3" s="234" t="s">
+        <v>315</v>
+      </c>
+      <c r="H3" s="234" t="s">
+        <v>570</v>
+      </c>
+      <c r="I3" s="234" t="s">
+        <v>571</v>
+      </c>
+      <c r="J3" s="234" t="s">
+        <v>267</v>
+      </c>
+      <c r="K3" s="235" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="242" t="s">
+        <v>330</v>
+      </c>
+      <c r="B4" s="243" t="s">
+        <v>328</v>
+      </c>
+      <c r="C4" s="243" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4" s="243" t="s">
+        <v>344</v>
+      </c>
+      <c r="E4" s="243" t="s">
+        <v>340</v>
+      </c>
+      <c r="F4" s="244" t="s">
+        <v>326</v>
+      </c>
+      <c r="G4" s="364" t="s">
         <v>108</v>
       </c>
-      <c r="H2" s="337">
-        <v>5</v>
-      </c>
-      <c r="I2" s="338">
-        <f>IF(H2="","",IF(H2&lt;=2,1,IF(H2&lt;=4,2,IF(H2&lt;=8,3,IF(H2&lt;=16,4,IF(H2&lt;=32,5,IF(H2&lt;=64,6,IF(H2&lt;=128,7,8))))))))</f>
+      <c r="H4" s="364">
         <v>3</v>
       </c>
-      <c r="J2" s="337">
-        <f>IF(G2="","",IF(G2="A",8+I2,IF(G2="B",16+I2,IF(G2="C",24+I2,"invalid"))))</f>
-        <v>11</v>
-      </c>
-      <c r="K2" s="338">
-        <f>IF(J2="","",2^(32-J2))</f>
-        <v>2097152</v>
-      </c>
-      <c r="P2" s="47"/>
-    </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="340" t="s">
-        <v>327</v>
-      </c>
-      <c r="B3" s="341" t="s">
-        <v>292</v>
-      </c>
-      <c r="C3" s="341" t="s">
-        <v>324</v>
-      </c>
-      <c r="D3" s="342" t="s">
-        <v>325</v>
-      </c>
-      <c r="E3" s="341" t="s">
-        <v>293</v>
-      </c>
-      <c r="F3" s="342" t="s">
-        <v>316</v>
-      </c>
-      <c r="G3" s="342" t="s">
-        <v>315</v>
-      </c>
-      <c r="H3" s="342" t="s">
-        <v>570</v>
-      </c>
-      <c r="I3" s="342" t="s">
-        <v>571</v>
-      </c>
-      <c r="J3" s="342" t="s">
-        <v>267</v>
-      </c>
-      <c r="K3" s="343" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="354" t="s">
-        <v>330</v>
-      </c>
-      <c r="B4" s="355" t="s">
-        <v>328</v>
-      </c>
-      <c r="C4" s="355" t="s">
-        <v>348</v>
-      </c>
-      <c r="D4" s="355" t="s">
-        <v>344</v>
-      </c>
-      <c r="E4" s="355" t="s">
-        <v>340</v>
-      </c>
-      <c r="F4" s="356" t="s">
-        <v>326</v>
-      </c>
-      <c r="G4" s="357" t="s">
-        <v>108</v>
-      </c>
-      <c r="H4" s="357">
-        <v>3</v>
-      </c>
-      <c r="I4" s="357">
+      <c r="I4" s="364">
         <f>IF(H4="","",IF(H4&lt;=2,1,IF(H4&lt;=4,2,IF(H4&lt;=8,3,IF(H4&lt;=16,4,IF(H4&lt;=32,5,IF(H4&lt;=64,6,IF(H4&lt;=128,7,8))))))))</f>
         <v>2</v>
       </c>
-      <c r="J4" s="357">
+      <c r="J4" s="364">
         <f>IF(G4="","",IF(G4="A",8+I4,IF(G4="B",16+I4,IF(G4="C",24+I4,"invalid"))))</f>
         <v>10</v>
       </c>
-      <c r="K4" s="358">
+      <c r="K4" s="367">
         <f>IF(J4="","",2^(32-J4))</f>
         <v>4194304</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="344" t="s">
+      <c r="A5" s="236" t="s">
         <v>331</v>
       </c>
-      <c r="B5" s="226" t="s">
+      <c r="B5" s="213" t="s">
         <v>334</v>
       </c>
-      <c r="C5" s="226" t="s">
+      <c r="C5" s="213" t="s">
         <v>337</v>
       </c>
-      <c r="D5" s="226" t="s">
+      <c r="D5" s="213" t="s">
         <v>345</v>
       </c>
-      <c r="E5" s="226" t="s">
+      <c r="E5" s="213" t="s">
         <v>341</v>
       </c>
-      <c r="F5" s="227" t="s">
+      <c r="F5" s="214" t="s">
         <v>326</v>
       </c>
-      <c r="G5" s="336"/>
-      <c r="H5" s="336"/>
-      <c r="I5" s="336"/>
-      <c r="J5" s="336"/>
-      <c r="K5" s="345"/>
+      <c r="G5" s="365"/>
+      <c r="H5" s="365"/>
+      <c r="I5" s="365"/>
+      <c r="J5" s="365"/>
+      <c r="K5" s="368"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="346" t="s">
+      <c r="A6" s="237" t="s">
         <v>332</v>
       </c>
-      <c r="B6" s="224" t="s">
+      <c r="B6" s="211" t="s">
         <v>335</v>
       </c>
-      <c r="C6" s="224" t="s">
+      <c r="C6" s="211" t="s">
         <v>338</v>
       </c>
-      <c r="D6" s="224" t="s">
+      <c r="D6" s="211" t="s">
         <v>346</v>
       </c>
-      <c r="E6" s="224" t="s">
+      <c r="E6" s="211" t="s">
         <v>342</v>
       </c>
-      <c r="F6" s="225" t="s">
+      <c r="F6" s="212" t="s">
         <v>326</v>
       </c>
-      <c r="G6" s="336"/>
-      <c r="H6" s="336"/>
-      <c r="I6" s="336"/>
-      <c r="J6" s="336"/>
-      <c r="K6" s="345"/>
+      <c r="G6" s="365"/>
+      <c r="H6" s="365"/>
+      <c r="I6" s="365"/>
+      <c r="J6" s="365"/>
+      <c r="K6" s="368"/>
     </row>
     <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="349" t="s">
+      <c r="A7" s="239" t="s">
         <v>333</v>
       </c>
-      <c r="B7" s="350" t="s">
+      <c r="B7" s="240" t="s">
         <v>336</v>
       </c>
-      <c r="C7" s="350" t="s">
+      <c r="C7" s="240" t="s">
         <v>339</v>
       </c>
-      <c r="D7" s="350" t="s">
+      <c r="D7" s="240" t="s">
         <v>347</v>
       </c>
-      <c r="E7" s="350" t="s">
+      <c r="E7" s="240" t="s">
         <v>343</v>
       </c>
-      <c r="F7" s="351" t="s">
+      <c r="F7" s="241" t="s">
         <v>326</v>
       </c>
-      <c r="G7" s="352"/>
-      <c r="H7" s="352"/>
-      <c r="I7" s="352"/>
-      <c r="J7" s="352"/>
-      <c r="K7" s="353"/>
+      <c r="G7" s="366"/>
+      <c r="H7" s="366"/>
+      <c r="I7" s="366"/>
+      <c r="J7" s="366"/>
+      <c r="K7" s="369"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="354" t="s">
+      <c r="A8" s="242" t="s">
         <v>349</v>
       </c>
-      <c r="B8" s="355" t="s">
+      <c r="B8" s="243" t="s">
         <v>357</v>
       </c>
-      <c r="C8" s="355" t="s">
+      <c r="C8" s="243" t="s">
         <v>358</v>
       </c>
-      <c r="D8" s="355" t="s">
+      <c r="D8" s="243" t="s">
         <v>381</v>
       </c>
-      <c r="E8" s="355" t="s">
+      <c r="E8" s="243" t="s">
         <v>380</v>
       </c>
-      <c r="F8" s="356" t="s">
+      <c r="F8" s="244" t="s">
         <v>389</v>
       </c>
-      <c r="G8" s="359" t="s">
+      <c r="G8" s="361" t="s">
         <v>109</v>
       </c>
-      <c r="H8" s="359">
+      <c r="H8" s="361">
         <v>5</v>
       </c>
-      <c r="I8" s="359">
+      <c r="I8" s="361">
         <f t="shared" ref="I8:I44" si="0">IF(H8="","",IF(H8&lt;=2,1,IF(H8&lt;=4,2,IF(H8&lt;=8,3,IF(H8&lt;=16,4,IF(H8&lt;=32,5,IF(H8&lt;=64,6,IF(H8&lt;=128,7,8))))))))</f>
         <v>3</v>
       </c>
-      <c r="J8" s="359">
+      <c r="J8" s="361">
         <f t="shared" ref="J8:J20" si="1">IF(G8="","",IF(G8="A",8+I8,IF(G8="B",16+I8,IF(G8="C",24+I8,"invalid"))))</f>
         <v>19</v>
       </c>
-      <c r="K8" s="360">
+      <c r="K8" s="370">
         <f t="shared" ref="K8:K44" si="2">IF(J8="","",2^(32-J8))</f>
         <v>8192</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="344" t="s">
+      <c r="A9" s="236" t="s">
         <v>350</v>
       </c>
-      <c r="B9" s="226" t="s">
+      <c r="B9" s="213" t="s">
         <v>359</v>
       </c>
-      <c r="C9" s="226" t="s">
+      <c r="C9" s="213" t="s">
         <v>366</v>
       </c>
-      <c r="D9" s="226" t="s">
+      <c r="D9" s="213" t="s">
         <v>382</v>
       </c>
-      <c r="E9" s="226" t="s">
+      <c r="E9" s="213" t="s">
         <v>379</v>
       </c>
-      <c r="F9" s="227" t="s">
+      <c r="F9" s="214" t="s">
         <v>389</v>
       </c>
-      <c r="G9" s="335"/>
-      <c r="H9" s="335"/>
-      <c r="I9" s="335"/>
-      <c r="J9" s="335"/>
-      <c r="K9" s="347"/>
+      <c r="G9" s="362"/>
+      <c r="H9" s="362"/>
+      <c r="I9" s="362"/>
+      <c r="J9" s="362"/>
+      <c r="K9" s="371"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="346" t="s">
+      <c r="A10" s="237" t="s">
         <v>351</v>
       </c>
-      <c r="B10" s="224" t="s">
+      <c r="B10" s="211" t="s">
         <v>360</v>
       </c>
-      <c r="C10" s="224" t="s">
+      <c r="C10" s="211" t="s">
         <v>367</v>
       </c>
-      <c r="D10" s="224" t="s">
+      <c r="D10" s="211" t="s">
         <v>383</v>
       </c>
-      <c r="E10" s="224" t="s">
+      <c r="E10" s="211" t="s">
         <v>378</v>
       </c>
-      <c r="F10" s="225" t="s">
+      <c r="F10" s="212" t="s">
         <v>389</v>
       </c>
-      <c r="G10" s="335"/>
-      <c r="H10" s="335"/>
-      <c r="I10" s="335"/>
-      <c r="J10" s="335"/>
-      <c r="K10" s="347"/>
+      <c r="G10" s="362"/>
+      <c r="H10" s="362"/>
+      <c r="I10" s="362"/>
+      <c r="J10" s="362"/>
+      <c r="K10" s="371"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="348" t="s">
+      <c r="A11" s="238" t="s">
         <v>352</v>
       </c>
-      <c r="B11" s="228" t="s">
+      <c r="B11" s="215" t="s">
         <v>361</v>
       </c>
-      <c r="C11" s="228" t="s">
+      <c r="C11" s="215" t="s">
         <v>368</v>
       </c>
-      <c r="D11" s="228" t="s">
+      <c r="D11" s="215" t="s">
         <v>384</v>
       </c>
-      <c r="E11" s="228" t="s">
+      <c r="E11" s="215" t="s">
         <v>377</v>
       </c>
-      <c r="F11" s="229" t="s">
+      <c r="F11" s="216" t="s">
         <v>389</v>
       </c>
-      <c r="G11" s="335"/>
-      <c r="H11" s="335"/>
-      <c r="I11" s="335"/>
-      <c r="J11" s="335"/>
-      <c r="K11" s="347"/>
+      <c r="G11" s="362"/>
+      <c r="H11" s="362"/>
+      <c r="I11" s="362"/>
+      <c r="J11" s="362"/>
+      <c r="K11" s="371"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="346" t="s">
+      <c r="A12" s="237" t="s">
         <v>353</v>
       </c>
-      <c r="B12" s="224" t="s">
+      <c r="B12" s="211" t="s">
         <v>362</v>
       </c>
-      <c r="C12" s="224" t="s">
+      <c r="C12" s="211" t="s">
         <v>369</v>
       </c>
-      <c r="D12" s="224" t="s">
+      <c r="D12" s="211" t="s">
         <v>385</v>
       </c>
-      <c r="E12" s="224" t="s">
+      <c r="E12" s="211" t="s">
         <v>376</v>
       </c>
-      <c r="F12" s="225" t="s">
+      <c r="F12" s="212" t="s">
         <v>389</v>
       </c>
-      <c r="G12" s="335"/>
-      <c r="H12" s="335"/>
-      <c r="I12" s="335"/>
-      <c r="J12" s="335"/>
-      <c r="K12" s="347"/>
+      <c r="G12" s="362"/>
+      <c r="H12" s="362"/>
+      <c r="I12" s="362"/>
+      <c r="J12" s="362"/>
+      <c r="K12" s="371"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="344" t="s">
+      <c r="A13" s="236" t="s">
         <v>354</v>
       </c>
-      <c r="B13" s="226" t="s">
+      <c r="B13" s="213" t="s">
         <v>363</v>
       </c>
-      <c r="C13" s="226" t="s">
+      <c r="C13" s="213" t="s">
         <v>370</v>
       </c>
-      <c r="D13" s="226" t="s">
+      <c r="D13" s="213" t="s">
         <v>386</v>
       </c>
-      <c r="E13" s="226" t="s">
+      <c r="E13" s="213" t="s">
         <v>375</v>
       </c>
-      <c r="F13" s="227" t="s">
+      <c r="F13" s="214" t="s">
         <v>389</v>
       </c>
-      <c r="G13" s="335"/>
-      <c r="H13" s="335"/>
-      <c r="I13" s="335"/>
-      <c r="J13" s="335"/>
-      <c r="K13" s="347"/>
+      <c r="G13" s="362"/>
+      <c r="H13" s="362"/>
+      <c r="I13" s="362"/>
+      <c r="J13" s="362"/>
+      <c r="K13" s="371"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="346" t="s">
+      <c r="A14" s="237" t="s">
         <v>355</v>
       </c>
-      <c r="B14" s="224" t="s">
+      <c r="B14" s="211" t="s">
         <v>364</v>
       </c>
-      <c r="C14" s="224" t="s">
+      <c r="C14" s="211" t="s">
         <v>371</v>
       </c>
-      <c r="D14" s="224" t="s">
+      <c r="D14" s="211" t="s">
         <v>387</v>
       </c>
-      <c r="E14" s="224" t="s">
+      <c r="E14" s="211" t="s">
         <v>374</v>
       </c>
-      <c r="F14" s="225" t="s">
+      <c r="F14" s="212" t="s">
         <v>389</v>
       </c>
-      <c r="G14" s="335"/>
-      <c r="H14" s="335"/>
-      <c r="I14" s="335"/>
-      <c r="J14" s="335"/>
-      <c r="K14" s="347"/>
+      <c r="G14" s="362"/>
+      <c r="H14" s="362"/>
+      <c r="I14" s="362"/>
+      <c r="J14" s="362"/>
+      <c r="K14" s="371"/>
     </row>
     <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="349" t="s">
+      <c r="A15" s="239" t="s">
         <v>356</v>
       </c>
-      <c r="B15" s="350" t="s">
+      <c r="B15" s="240" t="s">
         <v>365</v>
       </c>
-      <c r="C15" s="350" t="s">
+      <c r="C15" s="240" t="s">
         <v>372</v>
       </c>
-      <c r="D15" s="350" t="s">
+      <c r="D15" s="240" t="s">
         <v>388</v>
       </c>
-      <c r="E15" s="350" t="s">
+      <c r="E15" s="240" t="s">
         <v>373</v>
       </c>
-      <c r="F15" s="351" t="s">
+      <c r="F15" s="241" t="s">
         <v>389</v>
       </c>
-      <c r="G15" s="361"/>
-      <c r="H15" s="361"/>
-      <c r="I15" s="361"/>
-      <c r="J15" s="361"/>
-      <c r="K15" s="362"/>
+      <c r="G15" s="363"/>
+      <c r="H15" s="363"/>
+      <c r="I15" s="363"/>
+      <c r="J15" s="363"/>
+      <c r="K15" s="372"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="354" t="s">
+      <c r="A16" s="242" t="s">
         <v>330</v>
       </c>
-      <c r="B16" s="355" t="s">
+      <c r="B16" s="243" t="s">
         <v>532</v>
       </c>
-      <c r="C16" s="355" t="s">
+      <c r="C16" s="243" t="s">
         <v>566</v>
       </c>
-      <c r="D16" s="355" t="s">
+      <c r="D16" s="243" t="s">
         <v>619</v>
       </c>
-      <c r="E16" s="355" t="s">
+      <c r="E16" s="243" t="s">
         <v>620</v>
       </c>
-      <c r="F16" s="363">
+      <c r="F16" s="245">
         <v>255255255192</v>
       </c>
-      <c r="G16" s="357" t="s">
+      <c r="G16" s="364" t="s">
         <v>111</v>
       </c>
-      <c r="H16" s="357">
+      <c r="H16" s="364">
         <v>4</v>
       </c>
-      <c r="I16" s="357">
+      <c r="I16" s="364">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J16" s="357">
+      <c r="J16" s="364">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="K16" s="358">
+      <c r="K16" s="367">
         <f t="shared" si="2"/>
         <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="344" t="s">
+      <c r="A17" s="236" t="s">
         <v>331</v>
       </c>
-      <c r="B17" s="226" t="s">
+      <c r="B17" s="213" t="s">
         <v>533</v>
       </c>
-      <c r="C17" s="226" t="s">
+      <c r="C17" s="213" t="s">
         <v>567</v>
       </c>
-      <c r="D17" s="226" t="s">
+      <c r="D17" s="213" t="s">
         <v>616</v>
       </c>
-      <c r="E17" s="226" t="s">
+      <c r="E17" s="213" t="s">
         <v>621</v>
       </c>
-      <c r="F17" s="238">
+      <c r="F17" s="225">
         <v>255255255192</v>
       </c>
-      <c r="G17" s="336"/>
-      <c r="H17" s="336"/>
-      <c r="I17" s="336"/>
-      <c r="J17" s="336"/>
-      <c r="K17" s="345"/>
+      <c r="G17" s="365"/>
+      <c r="H17" s="365"/>
+      <c r="I17" s="365"/>
+      <c r="J17" s="365"/>
+      <c r="K17" s="368"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="346" t="s">
+      <c r="A18" s="237" t="s">
         <v>450</v>
       </c>
-      <c r="B18" s="224" t="s">
+      <c r="B18" s="211" t="s">
         <v>534</v>
       </c>
-      <c r="C18" s="224" t="s">
+      <c r="C18" s="211" t="s">
         <v>568</v>
       </c>
-      <c r="D18" s="224" t="s">
+      <c r="D18" s="211" t="s">
         <v>617</v>
       </c>
-      <c r="E18" s="224" t="s">
+      <c r="E18" s="211" t="s">
         <v>622</v>
       </c>
-      <c r="F18" s="237">
+      <c r="F18" s="224">
         <v>255255255192</v>
       </c>
-      <c r="G18" s="336"/>
-      <c r="H18" s="336"/>
-      <c r="I18" s="336"/>
-      <c r="J18" s="336"/>
-      <c r="K18" s="345"/>
+      <c r="G18" s="365"/>
+      <c r="H18" s="365"/>
+      <c r="I18" s="365"/>
+      <c r="J18" s="365"/>
+      <c r="K18" s="368"/>
     </row>
     <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="349" t="s">
+      <c r="A19" s="239" t="s">
         <v>333</v>
       </c>
-      <c r="B19" s="350" t="s">
+      <c r="B19" s="240" t="s">
         <v>535</v>
       </c>
-      <c r="C19" s="350" t="s">
+      <c r="C19" s="240" t="s">
         <v>569</v>
       </c>
-      <c r="D19" s="350" t="s">
+      <c r="D19" s="240" t="s">
         <v>618</v>
       </c>
-      <c r="E19" s="350" t="s">
+      <c r="E19" s="240" t="s">
         <v>623</v>
       </c>
-      <c r="F19" s="364">
+      <c r="F19" s="246">
         <v>255255255192</v>
       </c>
-      <c r="G19" s="352"/>
-      <c r="H19" s="352"/>
-      <c r="I19" s="352"/>
-      <c r="J19" s="352"/>
-      <c r="K19" s="353"/>
+      <c r="G19" s="366"/>
+      <c r="H19" s="366"/>
+      <c r="I19" s="366"/>
+      <c r="J19" s="366"/>
+      <c r="K19" s="369"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="354" t="s">
+      <c r="A20" s="242" t="s">
         <v>436</v>
       </c>
-      <c r="B20" s="355" t="s">
+      <c r="B20" s="243" t="s">
         <v>328</v>
       </c>
-      <c r="C20" s="355" t="s">
+      <c r="C20" s="243" t="s">
         <v>504</v>
       </c>
-      <c r="D20" s="355" t="s">
+      <c r="D20" s="243" t="s">
         <v>624</v>
       </c>
-      <c r="E20" s="355" t="s">
+      <c r="E20" s="243" t="s">
         <v>632</v>
       </c>
-      <c r="F20" s="356" t="s">
+      <c r="F20" s="244" t="s">
         <v>440</v>
       </c>
-      <c r="G20" s="359" t="s">
+      <c r="G20" s="361" t="s">
         <v>108</v>
       </c>
-      <c r="H20" s="359">
+      <c r="H20" s="361">
         <v>20</v>
       </c>
-      <c r="I20" s="359">
+      <c r="I20" s="361">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J20" s="359">
+      <c r="J20" s="361">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="K20" s="360">
+      <c r="K20" s="370">
         <f t="shared" si="2"/>
         <v>524288</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="344" t="s">
+      <c r="A21" s="236" t="s">
         <v>439</v>
       </c>
-      <c r="B21" s="226" t="s">
+      <c r="B21" s="213" t="s">
         <v>437</v>
       </c>
-      <c r="C21" s="226" t="s">
+      <c r="C21" s="213" t="s">
         <v>505</v>
       </c>
-      <c r="D21" s="226" t="s">
+      <c r="D21" s="213" t="s">
         <v>625</v>
       </c>
-      <c r="E21" s="226" t="s">
+      <c r="E21" s="213" t="s">
         <v>633</v>
       </c>
-      <c r="F21" s="227" t="s">
+      <c r="F21" s="214" t="s">
         <v>440</v>
       </c>
-      <c r="G21" s="335"/>
-      <c r="H21" s="335"/>
-      <c r="I21" s="335"/>
-      <c r="J21" s="335"/>
-      <c r="K21" s="347"/>
+      <c r="G21" s="362"/>
+      <c r="H21" s="362"/>
+      <c r="I21" s="362"/>
+      <c r="J21" s="362"/>
+      <c r="K21" s="371"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="346" t="s">
+      <c r="A22" s="237" t="s">
         <v>503</v>
       </c>
-      <c r="B22" s="224" t="s">
+      <c r="B22" s="211" t="s">
         <v>438</v>
       </c>
-      <c r="C22" s="224" t="s">
+      <c r="C22" s="211" t="s">
         <v>536</v>
       </c>
-      <c r="D22" s="224" t="s">
+      <c r="D22" s="211" t="s">
         <v>626</v>
       </c>
-      <c r="E22" s="224" t="s">
+      <c r="E22" s="211" t="s">
         <v>634</v>
       </c>
-      <c r="F22" s="225" t="s">
+      <c r="F22" s="212" t="s">
         <v>440</v>
       </c>
-      <c r="G22" s="335"/>
-      <c r="H22" s="335"/>
-      <c r="I22" s="335"/>
-      <c r="J22" s="335"/>
-      <c r="K22" s="347"/>
+      <c r="G22" s="362"/>
+      <c r="H22" s="362"/>
+      <c r="I22" s="362"/>
+      <c r="J22" s="362"/>
+      <c r="K22" s="371"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="348" t="s">
+      <c r="A23" s="238" t="s">
         <v>502</v>
       </c>
-      <c r="B23" s="228" t="s">
+      <c r="B23" s="215" t="s">
         <v>506</v>
       </c>
-      <c r="C23" s="228" t="s">
+      <c r="C23" s="215" t="s">
         <v>537</v>
       </c>
-      <c r="D23" s="228" t="s">
+      <c r="D23" s="215" t="s">
         <v>627</v>
       </c>
-      <c r="E23" s="228" t="s">
+      <c r="E23" s="215" t="s">
         <v>635</v>
       </c>
-      <c r="F23" s="229" t="s">
+      <c r="F23" s="216" t="s">
         <v>440</v>
       </c>
-      <c r="G23" s="335"/>
-      <c r="H23" s="335"/>
-      <c r="I23" s="335"/>
-      <c r="J23" s="335"/>
-      <c r="K23" s="347"/>
+      <c r="G23" s="362"/>
+      <c r="H23" s="362"/>
+      <c r="I23" s="362"/>
+      <c r="J23" s="362"/>
+      <c r="K23" s="371"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="346" t="s">
+      <c r="A24" s="237" t="s">
         <v>501</v>
       </c>
-      <c r="B24" s="224" t="s">
+      <c r="B24" s="211" t="s">
         <v>507</v>
       </c>
-      <c r="C24" s="224" t="s">
+      <c r="C24" s="211" t="s">
         <v>538</v>
       </c>
-      <c r="D24" s="224" t="s">
+      <c r="D24" s="211" t="s">
         <v>628</v>
       </c>
-      <c r="E24" s="224" t="s">
+      <c r="E24" s="211" t="s">
         <v>636</v>
       </c>
-      <c r="F24" s="225" t="s">
+      <c r="F24" s="212" t="s">
         <v>440</v>
       </c>
-      <c r="G24" s="335"/>
-      <c r="H24" s="335"/>
-      <c r="I24" s="335"/>
-      <c r="J24" s="335"/>
-      <c r="K24" s="347"/>
+      <c r="G24" s="362"/>
+      <c r="H24" s="362"/>
+      <c r="I24" s="362"/>
+      <c r="J24" s="362"/>
+      <c r="K24" s="371"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="344" t="s">
+      <c r="A25" s="236" t="s">
         <v>500</v>
       </c>
-      <c r="B25" s="226" t="s">
+      <c r="B25" s="213" t="s">
         <v>526</v>
       </c>
-      <c r="C25" s="226" t="s">
+      <c r="C25" s="213" t="s">
         <v>539</v>
       </c>
-      <c r="D25" s="226" t="s">
+      <c r="D25" s="213" t="s">
         <v>629</v>
       </c>
-      <c r="E25" s="226" t="s">
+      <c r="E25" s="213" t="s">
         <v>637</v>
       </c>
-      <c r="F25" s="227" t="s">
+      <c r="F25" s="214" t="s">
         <v>440</v>
       </c>
-      <c r="G25" s="335"/>
-      <c r="H25" s="335"/>
-      <c r="I25" s="335"/>
-      <c r="J25" s="335"/>
-      <c r="K25" s="347"/>
+      <c r="G25" s="362"/>
+      <c r="H25" s="362"/>
+      <c r="I25" s="362"/>
+      <c r="J25" s="362"/>
+      <c r="K25" s="371"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="346" t="s">
+      <c r="A26" s="237" t="s">
         <v>499</v>
       </c>
-      <c r="B26" s="224" t="s">
+      <c r="B26" s="211" t="s">
         <v>527</v>
       </c>
-      <c r="C26" s="224" t="s">
+      <c r="C26" s="211" t="s">
         <v>540</v>
       </c>
-      <c r="D26" s="224" t="s">
+      <c r="D26" s="211" t="s">
         <v>630</v>
       </c>
-      <c r="E26" s="224" t="s">
+      <c r="E26" s="211" t="s">
         <v>638</v>
       </c>
-      <c r="F26" s="225" t="s">
+      <c r="F26" s="212" t="s">
         <v>440</v>
       </c>
-      <c r="G26" s="335"/>
-      <c r="H26" s="335"/>
-      <c r="I26" s="335"/>
-      <c r="J26" s="335"/>
-      <c r="K26" s="347"/>
+      <c r="G26" s="362"/>
+      <c r="H26" s="362"/>
+      <c r="I26" s="362"/>
+      <c r="J26" s="362"/>
+      <c r="K26" s="371"/>
     </row>
     <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="349" t="s">
+      <c r="A27" s="239" t="s">
         <v>498</v>
       </c>
-      <c r="B27" s="350" t="s">
+      <c r="B27" s="240" t="s">
         <v>528</v>
       </c>
-      <c r="C27" s="350" t="s">
+      <c r="C27" s="240" t="s">
         <v>541</v>
       </c>
-      <c r="D27" s="350" t="s">
+      <c r="D27" s="240" t="s">
         <v>631</v>
       </c>
-      <c r="E27" s="350" t="s">
+      <c r="E27" s="240" t="s">
         <v>340</v>
       </c>
-      <c r="F27" s="351" t="s">
+      <c r="F27" s="241" t="s">
         <v>440</v>
       </c>
-      <c r="G27" s="361"/>
-      <c r="H27" s="361"/>
-      <c r="I27" s="361"/>
-      <c r="J27" s="361"/>
-      <c r="K27" s="362"/>
+      <c r="G27" s="363"/>
+      <c r="H27" s="363"/>
+      <c r="I27" s="363"/>
+      <c r="J27" s="363"/>
+      <c r="K27" s="372"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="354" t="s">
+      <c r="A28" s="242" t="s">
         <v>497</v>
       </c>
-      <c r="B28" s="355" t="s">
+      <c r="B28" s="243" t="s">
         <v>334</v>
       </c>
-      <c r="C28" s="355" t="s">
+      <c r="C28" s="243" t="s">
         <v>542</v>
       </c>
-      <c r="D28" s="355" t="s">
+      <c r="D28" s="243" t="s">
         <v>639</v>
       </c>
-      <c r="E28" s="355" t="s">
+      <c r="E28" s="243" t="s">
         <v>393</v>
       </c>
-      <c r="F28" s="356" t="s">
+      <c r="F28" s="244" t="s">
         <v>440</v>
       </c>
-      <c r="G28" s="357" t="s">
+      <c r="G28" s="364" t="s">
         <v>108</v>
       </c>
-      <c r="H28" s="357">
+      <c r="H28" s="364">
         <v>20</v>
       </c>
-      <c r="I28" s="357">
+      <c r="I28" s="364">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J28" s="357">
+      <c r="J28" s="364">
         <f t="shared" ref="J28" si="3">IF(G28="","",IF(G28="A",8+I28,IF(G28="B",16+I28,IF(G28="C",24+I28,"invalid"))))</f>
         <v>13</v>
       </c>
-      <c r="K28" s="358">
+      <c r="K28" s="367">
         <f t="shared" si="2"/>
         <v>524288</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="344" t="s">
+      <c r="A29" s="236" t="s">
         <v>496</v>
       </c>
-      <c r="B29" s="226" t="s">
+      <c r="B29" s="213" t="s">
         <v>529</v>
       </c>
-      <c r="C29" s="226" t="s">
+      <c r="C29" s="213" t="s">
         <v>543</v>
       </c>
-      <c r="D29" s="226" t="s">
+      <c r="D29" s="213" t="s">
         <v>640</v>
       </c>
-      <c r="E29" s="226" t="s">
+      <c r="E29" s="213" t="s">
         <v>394</v>
       </c>
-      <c r="F29" s="227" t="s">
+      <c r="F29" s="214" t="s">
         <v>440</v>
       </c>
-      <c r="G29" s="336"/>
-      <c r="H29" s="336"/>
-      <c r="I29" s="336"/>
-      <c r="J29" s="336"/>
-      <c r="K29" s="345"/>
+      <c r="G29" s="365"/>
+      <c r="H29" s="365"/>
+      <c r="I29" s="365"/>
+      <c r="J29" s="365"/>
+      <c r="K29" s="368"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="346" t="s">
+      <c r="A30" s="237" t="s">
         <v>495</v>
       </c>
-      <c r="B30" s="224" t="s">
+      <c r="B30" s="211" t="s">
         <v>530</v>
       </c>
-      <c r="C30" s="224" t="s">
+      <c r="C30" s="211" t="s">
         <v>544</v>
       </c>
-      <c r="D30" s="224" t="s">
+      <c r="D30" s="211" t="s">
         <v>641</v>
       </c>
-      <c r="E30" s="224" t="s">
+      <c r="E30" s="211" t="s">
         <v>395</v>
       </c>
-      <c r="F30" s="225" t="s">
+      <c r="F30" s="212" t="s">
         <v>440</v>
       </c>
-      <c r="G30" s="336"/>
-      <c r="H30" s="336"/>
-      <c r="I30" s="336"/>
-      <c r="J30" s="336"/>
-      <c r="K30" s="345"/>
+      <c r="G30" s="365"/>
+      <c r="H30" s="365"/>
+      <c r="I30" s="365"/>
+      <c r="J30" s="365"/>
+      <c r="K30" s="368"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="348" t="s">
+      <c r="A31" s="238" t="s">
         <v>494</v>
       </c>
-      <c r="B31" s="228" t="s">
+      <c r="B31" s="215" t="s">
         <v>531</v>
       </c>
-      <c r="C31" s="228" t="s">
+      <c r="C31" s="215" t="s">
         <v>545</v>
       </c>
-      <c r="D31" s="228" t="s">
+      <c r="D31" s="215" t="s">
         <v>642</v>
       </c>
-      <c r="E31" s="228" t="s">
+      <c r="E31" s="215" t="s">
         <v>396</v>
       </c>
-      <c r="F31" s="229" t="s">
+      <c r="F31" s="216" t="s">
         <v>440</v>
       </c>
-      <c r="G31" s="336"/>
-      <c r="H31" s="336"/>
-      <c r="I31" s="336"/>
-      <c r="J31" s="336"/>
-      <c r="K31" s="345"/>
+      <c r="G31" s="365"/>
+      <c r="H31" s="365"/>
+      <c r="I31" s="365"/>
+      <c r="J31" s="365"/>
+      <c r="K31" s="368"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="346" t="s">
+      <c r="A32" s="237" t="s">
         <v>493</v>
       </c>
-      <c r="B32" s="224" t="s">
+      <c r="B32" s="211" t="s">
         <v>525</v>
       </c>
-      <c r="C32" s="224" t="s">
+      <c r="C32" s="211" t="s">
         <v>546</v>
       </c>
-      <c r="D32" s="224" t="s">
+      <c r="D32" s="211" t="s">
         <v>416</v>
       </c>
-      <c r="E32" s="224" t="s">
+      <c r="E32" s="211" t="s">
         <v>397</v>
       </c>
-      <c r="F32" s="225" t="s">
+      <c r="F32" s="212" t="s">
         <v>440</v>
       </c>
-      <c r="G32" s="336"/>
-      <c r="H32" s="336"/>
-      <c r="I32" s="336"/>
-      <c r="J32" s="336"/>
-      <c r="K32" s="345"/>
+      <c r="G32" s="365"/>
+      <c r="H32" s="365"/>
+      <c r="I32" s="365"/>
+      <c r="J32" s="365"/>
+      <c r="K32" s="368"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="344" t="s">
+      <c r="A33" s="236" t="s">
         <v>492</v>
       </c>
-      <c r="B33" s="226" t="s">
+      <c r="B33" s="213" t="s">
         <v>524</v>
       </c>
-      <c r="C33" s="226" t="s">
+      <c r="C33" s="213" t="s">
         <v>547</v>
       </c>
-      <c r="D33" s="226" t="s">
+      <c r="D33" s="213" t="s">
         <v>417</v>
       </c>
-      <c r="E33" s="226" t="s">
+      <c r="E33" s="213" t="s">
         <v>398</v>
       </c>
-      <c r="F33" s="227" t="s">
+      <c r="F33" s="214" t="s">
         <v>440</v>
       </c>
-      <c r="G33" s="336"/>
-      <c r="H33" s="336"/>
-      <c r="I33" s="336"/>
-      <c r="J33" s="336"/>
-      <c r="K33" s="345"/>
+      <c r="G33" s="365"/>
+      <c r="H33" s="365"/>
+      <c r="I33" s="365"/>
+      <c r="J33" s="365"/>
+      <c r="K33" s="368"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="346" t="s">
+      <c r="A34" s="237" t="s">
         <v>491</v>
       </c>
-      <c r="B34" s="224" t="s">
+      <c r="B34" s="211" t="s">
         <v>523</v>
       </c>
-      <c r="C34" s="224" t="s">
+      <c r="C34" s="211" t="s">
         <v>548</v>
       </c>
-      <c r="D34" s="224" t="s">
+      <c r="D34" s="211" t="s">
         <v>418</v>
       </c>
-      <c r="E34" s="224" t="s">
+      <c r="E34" s="211" t="s">
         <v>399</v>
       </c>
-      <c r="F34" s="225" t="s">
+      <c r="F34" s="212" t="s">
         <v>440</v>
       </c>
-      <c r="G34" s="336"/>
-      <c r="H34" s="336"/>
-      <c r="I34" s="336"/>
-      <c r="J34" s="336"/>
-      <c r="K34" s="345"/>
+      <c r="G34" s="365"/>
+      <c r="H34" s="365"/>
+      <c r="I34" s="365"/>
+      <c r="J34" s="365"/>
+      <c r="K34" s="368"/>
     </row>
     <row r="35" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="349" t="s">
+      <c r="A35" s="239" t="s">
         <v>490</v>
       </c>
-      <c r="B35" s="350" t="s">
+      <c r="B35" s="240" t="s">
         <v>522</v>
       </c>
-      <c r="C35" s="350" t="s">
+      <c r="C35" s="240" t="s">
         <v>549</v>
       </c>
-      <c r="D35" s="350" t="s">
+      <c r="D35" s="240" t="s">
         <v>419</v>
       </c>
-      <c r="E35" s="350" t="s">
+      <c r="E35" s="240" t="s">
         <v>400</v>
       </c>
-      <c r="F35" s="351" t="s">
+      <c r="F35" s="241" t="s">
         <v>440</v>
       </c>
-      <c r="G35" s="352"/>
-      <c r="H35" s="352"/>
-      <c r="I35" s="352"/>
-      <c r="J35" s="352"/>
-      <c r="K35" s="353"/>
+      <c r="G35" s="366"/>
+      <c r="H35" s="366"/>
+      <c r="I35" s="366"/>
+      <c r="J35" s="366"/>
+      <c r="K35" s="369"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="354" t="s">
+      <c r="A36" s="242" t="s">
         <v>489</v>
       </c>
-      <c r="B36" s="355" t="s">
+      <c r="B36" s="243" t="s">
         <v>335</v>
       </c>
-      <c r="C36" s="355" t="s">
+      <c r="C36" s="243" t="s">
         <v>550</v>
       </c>
-      <c r="D36" s="355" t="s">
+      <c r="D36" s="243" t="s">
         <v>420</v>
       </c>
-      <c r="E36" s="355" t="s">
+      <c r="E36" s="243" t="s">
         <v>401</v>
       </c>
-      <c r="F36" s="356" t="s">
+      <c r="F36" s="244" t="s">
         <v>440</v>
       </c>
-      <c r="G36" s="359" t="s">
+      <c r="G36" s="361" t="s">
         <v>108</v>
       </c>
-      <c r="H36" s="359">
+      <c r="H36" s="361">
         <v>20</v>
       </c>
-      <c r="I36" s="359">
+      <c r="I36" s="361">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J36" s="359">
+      <c r="J36" s="361">
         <f t="shared" ref="J36" si="4">IF(G36="","",IF(G36="A",8+I36,IF(G36="B",16+I36,IF(G36="C",24+I36,"invalid"))))</f>
         <v>13</v>
       </c>
-      <c r="K36" s="360">
+      <c r="K36" s="370">
         <f t="shared" si="2"/>
         <v>524288</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="344" t="s">
+      <c r="A37" s="236" t="s">
         <v>488</v>
       </c>
-      <c r="B37" s="226" t="s">
+      <c r="B37" s="213" t="s">
         <v>521</v>
       </c>
-      <c r="C37" s="226" t="s">
+      <c r="C37" s="213" t="s">
         <v>551</v>
       </c>
-      <c r="D37" s="226" t="s">
+      <c r="D37" s="213" t="s">
         <v>421</v>
       </c>
-      <c r="E37" s="226" t="s">
+      <c r="E37" s="213" t="s">
         <v>402</v>
       </c>
-      <c r="F37" s="227" t="s">
+      <c r="F37" s="214" t="s">
         <v>440</v>
       </c>
-      <c r="G37" s="335"/>
-      <c r="H37" s="335"/>
-      <c r="I37" s="335"/>
-      <c r="J37" s="335"/>
-      <c r="K37" s="347"/>
+      <c r="G37" s="362"/>
+      <c r="H37" s="362"/>
+      <c r="I37" s="362"/>
+      <c r="J37" s="362"/>
+      <c r="K37" s="371"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="346" t="s">
+      <c r="A38" s="237" t="s">
         <v>487</v>
       </c>
-      <c r="B38" s="224" t="s">
+      <c r="B38" s="211" t="s">
         <v>520</v>
       </c>
-      <c r="C38" s="224" t="s">
+      <c r="C38" s="211" t="s">
         <v>552</v>
       </c>
-      <c r="D38" s="224" t="s">
+      <c r="D38" s="211" t="s">
         <v>422</v>
       </c>
-      <c r="E38" s="224" t="s">
+      <c r="E38" s="211" t="s">
         <v>403</v>
       </c>
-      <c r="F38" s="225" t="s">
+      <c r="F38" s="212" t="s">
         <v>440</v>
       </c>
-      <c r="G38" s="335"/>
-      <c r="H38" s="335"/>
-      <c r="I38" s="335"/>
-      <c r="J38" s="335"/>
-      <c r="K38" s="347"/>
+      <c r="G38" s="362"/>
+      <c r="H38" s="362"/>
+      <c r="I38" s="362"/>
+      <c r="J38" s="362"/>
+      <c r="K38" s="371"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="348" t="s">
+      <c r="A39" s="238" t="s">
         <v>486</v>
       </c>
-      <c r="B39" s="228" t="s">
+      <c r="B39" s="215" t="s">
         <v>519</v>
       </c>
-      <c r="C39" s="228" t="s">
+      <c r="C39" s="215" t="s">
         <v>553</v>
       </c>
-      <c r="D39" s="228" t="s">
+      <c r="D39" s="215" t="s">
         <v>423</v>
       </c>
-      <c r="E39" s="228" t="s">
+      <c r="E39" s="215" t="s">
         <v>404</v>
       </c>
-      <c r="F39" s="229" t="s">
+      <c r="F39" s="216" t="s">
         <v>440</v>
       </c>
-      <c r="G39" s="335"/>
-      <c r="H39" s="335"/>
-      <c r="I39" s="335"/>
-      <c r="J39" s="335"/>
-      <c r="K39" s="347"/>
+      <c r="G39" s="362"/>
+      <c r="H39" s="362"/>
+      <c r="I39" s="362"/>
+      <c r="J39" s="362"/>
+      <c r="K39" s="371"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="346" t="s">
+      <c r="A40" s="237" t="s">
         <v>485</v>
       </c>
-      <c r="B40" s="224" t="s">
+      <c r="B40" s="211" t="s">
         <v>518</v>
       </c>
-      <c r="C40" s="224" t="s">
+      <c r="C40" s="211" t="s">
         <v>554</v>
       </c>
-      <c r="D40" s="224" t="s">
+      <c r="D40" s="211" t="s">
         <v>424</v>
       </c>
-      <c r="E40" s="224" t="s">
+      <c r="E40" s="211" t="s">
         <v>405</v>
       </c>
-      <c r="F40" s="225" t="s">
+      <c r="F40" s="212" t="s">
         <v>440</v>
       </c>
-      <c r="G40" s="335"/>
-      <c r="H40" s="335"/>
-      <c r="I40" s="335"/>
-      <c r="J40" s="335"/>
-      <c r="K40" s="347"/>
+      <c r="G40" s="362"/>
+      <c r="H40" s="362"/>
+      <c r="I40" s="362"/>
+      <c r="J40" s="362"/>
+      <c r="K40" s="371"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="344" t="s">
+      <c r="A41" s="236" t="s">
         <v>484</v>
       </c>
-      <c r="B41" s="226" t="s">
+      <c r="B41" s="213" t="s">
         <v>517</v>
       </c>
-      <c r="C41" s="226" t="s">
+      <c r="C41" s="213" t="s">
         <v>555</v>
       </c>
-      <c r="D41" s="226" t="s">
+      <c r="D41" s="213" t="s">
         <v>425</v>
       </c>
-      <c r="E41" s="226" t="s">
+      <c r="E41" s="213" t="s">
         <v>406</v>
       </c>
-      <c r="F41" s="227" t="s">
+      <c r="F41" s="214" t="s">
         <v>440</v>
       </c>
-      <c r="G41" s="335"/>
-      <c r="H41" s="335"/>
-      <c r="I41" s="335"/>
-      <c r="J41" s="335"/>
-      <c r="K41" s="347"/>
+      <c r="G41" s="362"/>
+      <c r="H41" s="362"/>
+      <c r="I41" s="362"/>
+      <c r="J41" s="362"/>
+      <c r="K41" s="371"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="346" t="s">
+      <c r="A42" s="237" t="s">
         <v>483</v>
       </c>
-      <c r="B42" s="224" t="s">
+      <c r="B42" s="211" t="s">
         <v>516</v>
       </c>
-      <c r="C42" s="224" t="s">
+      <c r="C42" s="211" t="s">
         <v>556</v>
       </c>
-      <c r="D42" s="224" t="s">
+      <c r="D42" s="211" t="s">
         <v>426</v>
       </c>
-      <c r="E42" s="224" t="s">
+      <c r="E42" s="211" t="s">
         <v>407</v>
       </c>
-      <c r="F42" s="225" t="s">
+      <c r="F42" s="212" t="s">
         <v>440</v>
       </c>
-      <c r="G42" s="335"/>
-      <c r="H42" s="335"/>
-      <c r="I42" s="335"/>
-      <c r="J42" s="335"/>
-      <c r="K42" s="347"/>
+      <c r="G42" s="362"/>
+      <c r="H42" s="362"/>
+      <c r="I42" s="362"/>
+      <c r="J42" s="362"/>
+      <c r="K42" s="371"/>
     </row>
     <row r="43" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="349" t="s">
+      <c r="A43" s="239" t="s">
         <v>482</v>
       </c>
-      <c r="B43" s="350" t="s">
+      <c r="B43" s="240" t="s">
         <v>515</v>
       </c>
-      <c r="C43" s="350" t="s">
+      <c r="C43" s="240" t="s">
         <v>557</v>
       </c>
-      <c r="D43" s="350" t="s">
+      <c r="D43" s="240" t="s">
         <v>427</v>
       </c>
-      <c r="E43" s="350" t="s">
+      <c r="E43" s="240" t="s">
         <v>408</v>
       </c>
-      <c r="F43" s="351" t="s">
+      <c r="F43" s="241" t="s">
         <v>440</v>
       </c>
-      <c r="G43" s="361"/>
-      <c r="H43" s="361"/>
-      <c r="I43" s="361"/>
-      <c r="J43" s="361"/>
-      <c r="K43" s="362"/>
+      <c r="G43" s="363"/>
+      <c r="H43" s="363"/>
+      <c r="I43" s="363"/>
+      <c r="J43" s="363"/>
+      <c r="K43" s="372"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="354" t="s">
+      <c r="A44" s="242" t="s">
         <v>481</v>
       </c>
-      <c r="B44" s="355" t="s">
+      <c r="B44" s="243" t="s">
         <v>336</v>
       </c>
-      <c r="C44" s="355" t="s">
+      <c r="C44" s="243" t="s">
         <v>558</v>
       </c>
-      <c r="D44" s="355" t="s">
+      <c r="D44" s="243" t="s">
         <v>428</v>
       </c>
-      <c r="E44" s="355" t="s">
+      <c r="E44" s="243" t="s">
         <v>409</v>
       </c>
-      <c r="F44" s="356" t="s">
+      <c r="F44" s="244" t="s">
         <v>440</v>
       </c>
-      <c r="G44" s="357" t="s">
+      <c r="G44" s="364" t="s">
         <v>108</v>
       </c>
-      <c r="H44" s="357">
+      <c r="H44" s="364">
         <v>20</v>
       </c>
-      <c r="I44" s="357">
+      <c r="I44" s="364">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J44" s="357">
+      <c r="J44" s="364">
         <f t="shared" ref="J44" si="5">IF(G44="","",IF(G44="A",8+I44,IF(G44="B",16+I44,IF(G44="C",24+I44,"invalid"))))</f>
         <v>13</v>
       </c>
-      <c r="K44" s="358">
+      <c r="K44" s="367">
         <f t="shared" si="2"/>
         <v>524288</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="344" t="s">
+      <c r="A45" s="236" t="s">
         <v>480</v>
       </c>
-      <c r="B45" s="226" t="s">
+      <c r="B45" s="213" t="s">
         <v>514</v>
       </c>
-      <c r="C45" s="226" t="s">
+      <c r="C45" s="213" t="s">
         <v>559</v>
       </c>
-      <c r="D45" s="226" t="s">
+      <c r="D45" s="213" t="s">
         <v>429</v>
       </c>
-      <c r="E45" s="226" t="s">
+      <c r="E45" s="213" t="s">
         <v>410</v>
       </c>
-      <c r="F45" s="227" t="s">
+      <c r="F45" s="214" t="s">
         <v>440</v>
       </c>
-      <c r="G45" s="336"/>
-      <c r="H45" s="336"/>
-      <c r="I45" s="336"/>
-      <c r="J45" s="336"/>
-      <c r="K45" s="345"/>
+      <c r="G45" s="365"/>
+      <c r="H45" s="365"/>
+      <c r="I45" s="365"/>
+      <c r="J45" s="365"/>
+      <c r="K45" s="368"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="346" t="s">
+      <c r="A46" s="237" t="s">
         <v>479</v>
       </c>
-      <c r="B46" s="224" t="s">
+      <c r="B46" s="211" t="s">
         <v>513</v>
       </c>
-      <c r="C46" s="224" t="s">
+      <c r="C46" s="211" t="s">
         <v>560</v>
       </c>
-      <c r="D46" s="224" t="s">
+      <c r="D46" s="211" t="s">
         <v>430</v>
       </c>
-      <c r="E46" s="224" t="s">
+      <c r="E46" s="211" t="s">
         <v>411</v>
       </c>
-      <c r="F46" s="225" t="s">
+      <c r="F46" s="212" t="s">
         <v>440</v>
       </c>
-      <c r="G46" s="336"/>
-      <c r="H46" s="336"/>
-      <c r="I46" s="336"/>
-      <c r="J46" s="336"/>
-      <c r="K46" s="345"/>
+      <c r="G46" s="365"/>
+      <c r="H46" s="365"/>
+      <c r="I46" s="365"/>
+      <c r="J46" s="365"/>
+      <c r="K46" s="368"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="348" t="s">
+      <c r="A47" s="238" t="s">
         <v>478</v>
       </c>
-      <c r="B47" s="228" t="s">
+      <c r="B47" s="215" t="s">
         <v>512</v>
       </c>
-      <c r="C47" s="228" t="s">
+      <c r="C47" s="215" t="s">
         <v>561</v>
       </c>
-      <c r="D47" s="228" t="s">
+      <c r="D47" s="215" t="s">
         <v>431</v>
       </c>
-      <c r="E47" s="228" t="s">
+      <c r="E47" s="215" t="s">
         <v>412</v>
       </c>
-      <c r="F47" s="229" t="s">
+      <c r="F47" s="216" t="s">
         <v>440</v>
       </c>
-      <c r="G47" s="336"/>
-      <c r="H47" s="336"/>
-      <c r="I47" s="336"/>
-      <c r="J47" s="336"/>
-      <c r="K47" s="345"/>
+      <c r="G47" s="365"/>
+      <c r="H47" s="365"/>
+      <c r="I47" s="365"/>
+      <c r="J47" s="365"/>
+      <c r="K47" s="368"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="346" t="s">
+      <c r="A48" s="237" t="s">
         <v>477</v>
       </c>
-      <c r="B48" s="224" t="s">
+      <c r="B48" s="211" t="s">
         <v>511</v>
       </c>
-      <c r="C48" s="224" t="s">
+      <c r="C48" s="211" t="s">
         <v>562</v>
       </c>
-      <c r="D48" s="224" t="s">
+      <c r="D48" s="211" t="s">
         <v>432</v>
       </c>
-      <c r="E48" s="224" t="s">
+      <c r="E48" s="211" t="s">
         <v>413</v>
       </c>
-      <c r="F48" s="225" t="s">
+      <c r="F48" s="212" t="s">
         <v>440</v>
       </c>
-      <c r="G48" s="336"/>
-      <c r="H48" s="336"/>
-      <c r="I48" s="336"/>
-      <c r="J48" s="336"/>
-      <c r="K48" s="345"/>
+      <c r="G48" s="365"/>
+      <c r="H48" s="365"/>
+      <c r="I48" s="365"/>
+      <c r="J48" s="365"/>
+      <c r="K48" s="368"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="344" t="s">
+      <c r="A49" s="236" t="s">
         <v>476</v>
       </c>
-      <c r="B49" s="226" t="s">
+      <c r="B49" s="213" t="s">
         <v>510</v>
       </c>
-      <c r="C49" s="226" t="s">
+      <c r="C49" s="213" t="s">
         <v>563</v>
       </c>
-      <c r="D49" s="226" t="s">
+      <c r="D49" s="213" t="s">
         <v>433</v>
       </c>
-      <c r="E49" s="226" t="s">
+      <c r="E49" s="213" t="s">
         <v>414</v>
       </c>
-      <c r="F49" s="227" t="s">
+      <c r="F49" s="214" t="s">
         <v>440</v>
       </c>
-      <c r="G49" s="336"/>
-      <c r="H49" s="336"/>
-      <c r="I49" s="336"/>
-      <c r="J49" s="336"/>
-      <c r="K49" s="345"/>
+      <c r="G49" s="365"/>
+      <c r="H49" s="365"/>
+      <c r="I49" s="365"/>
+      <c r="J49" s="365"/>
+      <c r="K49" s="368"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="346" t="s">
+      <c r="A50" s="237" t="s">
         <v>475</v>
       </c>
-      <c r="B50" s="224" t="s">
+      <c r="B50" s="211" t="s">
         <v>509</v>
       </c>
-      <c r="C50" s="224" t="s">
+      <c r="C50" s="211" t="s">
         <v>564</v>
       </c>
-      <c r="D50" s="224" t="s">
+      <c r="D50" s="211" t="s">
         <v>434</v>
       </c>
-      <c r="E50" s="224" t="s">
+      <c r="E50" s="211" t="s">
         <v>415</v>
       </c>
-      <c r="F50" s="225" t="s">
+      <c r="F50" s="212" t="s">
         <v>440</v>
       </c>
-      <c r="G50" s="336"/>
-      <c r="H50" s="336"/>
-      <c r="I50" s="336"/>
-      <c r="J50" s="336"/>
-      <c r="K50" s="345"/>
+      <c r="G50" s="365"/>
+      <c r="H50" s="365"/>
+      <c r="I50" s="365"/>
+      <c r="J50" s="365"/>
+      <c r="K50" s="368"/>
     </row>
     <row r="51" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="349" t="s">
+      <c r="A51" s="239" t="s">
         <v>474</v>
       </c>
-      <c r="B51" s="350" t="s">
+      <c r="B51" s="240" t="s">
         <v>508</v>
       </c>
-      <c r="C51" s="350" t="s">
+      <c r="C51" s="240" t="s">
         <v>565</v>
       </c>
-      <c r="D51" s="350" t="s">
+      <c r="D51" s="240" t="s">
         <v>435</v>
       </c>
-      <c r="E51" s="350" t="s">
+      <c r="E51" s="240" t="s">
         <v>271</v>
       </c>
-      <c r="F51" s="351" t="s">
+      <c r="F51" s="241" t="s">
         <v>440</v>
       </c>
-      <c r="G51" s="352"/>
-      <c r="H51" s="352"/>
-      <c r="I51" s="352"/>
-      <c r="J51" s="352"/>
-      <c r="K51" s="353"/>
+      <c r="G51" s="366"/>
+      <c r="H51" s="366"/>
+      <c r="I51" s="366"/>
+      <c r="J51" s="366"/>
+      <c r="K51" s="369"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G52" s="334"/>
+      <c r="G52" s="229"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G53" s="334"/>
+      <c r="G53" s="229"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="H36:H43"/>
-    <mergeCell ref="H44:H51"/>
-    <mergeCell ref="I44:I51"/>
-    <mergeCell ref="J44:J51"/>
-    <mergeCell ref="K44:K51"/>
-    <mergeCell ref="K36:K43"/>
-    <mergeCell ref="J36:J43"/>
-    <mergeCell ref="I36:I43"/>
-    <mergeCell ref="H20:H27"/>
-    <mergeCell ref="I20:I27"/>
-    <mergeCell ref="J20:J27"/>
-    <mergeCell ref="K20:K27"/>
-    <mergeCell ref="H28:H35"/>
-    <mergeCell ref="I28:I35"/>
-    <mergeCell ref="J28:J35"/>
-    <mergeCell ref="K28:K35"/>
-    <mergeCell ref="G20:G27"/>
-    <mergeCell ref="G28:G35"/>
-    <mergeCell ref="G36:G43"/>
-    <mergeCell ref="G44:G51"/>
-    <mergeCell ref="G16:G19"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="K4:K7"/>
+    <mergeCell ref="J4:J7"/>
+    <mergeCell ref="I4:I7"/>
+    <mergeCell ref="H4:H7"/>
+    <mergeCell ref="G4:G7"/>
     <mergeCell ref="H16:H19"/>
     <mergeCell ref="I16:I19"/>
     <mergeCell ref="J16:J19"/>
@@ -15483,15 +15479,29 @@
     <mergeCell ref="I8:I15"/>
     <mergeCell ref="J8:J15"/>
     <mergeCell ref="K8:K15"/>
-    <mergeCell ref="K4:K7"/>
-    <mergeCell ref="J4:J7"/>
-    <mergeCell ref="I4:I7"/>
-    <mergeCell ref="H4:H7"/>
-    <mergeCell ref="G4:G7"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="G20:G27"/>
+    <mergeCell ref="G28:G35"/>
+    <mergeCell ref="G36:G43"/>
+    <mergeCell ref="G44:G51"/>
+    <mergeCell ref="G16:G19"/>
+    <mergeCell ref="H20:H27"/>
+    <mergeCell ref="I20:I27"/>
+    <mergeCell ref="J20:J27"/>
+    <mergeCell ref="K20:K27"/>
+    <mergeCell ref="H28:H35"/>
+    <mergeCell ref="I28:I35"/>
+    <mergeCell ref="J28:J35"/>
+    <mergeCell ref="K28:K35"/>
+    <mergeCell ref="H36:H43"/>
+    <mergeCell ref="H44:H51"/>
+    <mergeCell ref="I44:I51"/>
+    <mergeCell ref="J44:J51"/>
+    <mergeCell ref="K44:K51"/>
+    <mergeCell ref="K36:K43"/>
+    <mergeCell ref="J36:J43"/>
+    <mergeCell ref="I36:I43"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
@@ -15504,12 +15514,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{963295A7-C08D-4985-AE26-C42B99DF00BB}">
   <dimension ref="A1:AC20"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="6" ySplit="3" topLeftCell="M4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
-      <selection pane="bottomRight" activeCell="Q1" sqref="Q1"/>
+      <selection pane="bottomRight" activeCell="R9" sqref="G9:R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15517,13 +15527,13 @@
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="7.28515625" customWidth="1"/>
     <col min="3" max="4" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="47" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" style="34" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="5.140625" bestFit="1" customWidth="1"/>
@@ -15531,86 +15541,86 @@
     <col min="17" max="17" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="4" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>392</v>
       </c>
-      <c r="G1" s="339" t="s">
+      <c r="G1" s="376" t="s">
         <v>574</v>
       </c>
-      <c r="H1" s="339"/>
-      <c r="I1" s="339"/>
-      <c r="J1" s="331" t="s">
+      <c r="H1" s="376"/>
+      <c r="I1" s="376"/>
+      <c r="J1" s="226" t="s">
         <v>471</v>
       </c>
-      <c r="K1" s="231" t="s">
+      <c r="K1" s="218" t="s">
         <v>578</v>
       </c>
-      <c r="L1" s="331" t="s">
+      <c r="L1" s="226" t="s">
         <v>472</v>
       </c>
-      <c r="M1" s="331" t="s">
+      <c r="M1" s="226" t="s">
         <v>615</v>
       </c>
-      <c r="N1" s="231" t="s">
+      <c r="N1" s="218" t="s">
         <v>322</v>
       </c>
-      <c r="O1" s="331" t="s">
+      <c r="O1" s="226" t="s">
         <v>573</v>
       </c>
-      <c r="P1" s="231" t="s">
+      <c r="P1" s="218" t="s">
         <v>581</v>
       </c>
-      <c r="Q1" s="331" t="s">
+      <c r="Q1" s="226" t="s">
         <v>446</v>
       </c>
-      <c r="R1" s="386" t="s">
+      <c r="R1" s="265" t="s">
         <v>610</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="330"/>
-      <c r="B2" s="330"/>
-      <c r="C2" s="330"/>
-      <c r="D2" s="330"/>
-      <c r="E2" s="330"/>
-      <c r="F2" s="330"/>
+      <c r="A2" s="383"/>
+      <c r="B2" s="383"/>
+      <c r="C2" s="383"/>
+      <c r="D2" s="383"/>
+      <c r="E2" s="383"/>
+      <c r="F2" s="383"/>
       <c r="G2" s="373" t="s">
         <v>575</v>
       </c>
       <c r="H2" s="374"/>
       <c r="I2" s="375"/>
-      <c r="J2" s="337" t="s">
+      <c r="J2" s="230" t="s">
         <v>445</v>
       </c>
-      <c r="K2" s="338" t="s">
+      <c r="K2" s="231" t="s">
         <v>577</v>
       </c>
-      <c r="L2" s="365" t="s">
+      <c r="L2" s="247" t="s">
         <v>579</v>
       </c>
-      <c r="M2" s="365">
+      <c r="M2" s="247">
         <v>1</v>
       </c>
-      <c r="N2" s="338">
+      <c r="N2" s="231">
         <v>20</v>
       </c>
-      <c r="O2" s="338">
+      <c r="O2" s="231">
         <f>IF(N2="","",IF(N2&lt;2-2,1,IF(N2&lt;=4-2,2,IF(N2&lt;=8-2,3,IF(N2&lt;=16-2,4,IF(N2&lt;=32-2,5,IF(N2&lt;=64-2,6,IF(N2&lt;=128-2,7,IF(N2&lt;=256-2,8,9)))))))))</f>
         <v>5</v>
       </c>
-      <c r="P2" s="338">
+      <c r="P2" s="231">
         <f>IF(O2="","",2^O2)</f>
         <v>32</v>
       </c>
-      <c r="Q2" s="338">
+      <c r="Q2" s="231">
         <f>IF(O2="","",32-O2)</f>
         <v>27</v>
       </c>
-      <c r="R2" s="387" t="s">
+      <c r="R2" s="266" t="s">
         <v>611</v>
       </c>
     </row>
@@ -15627,46 +15637,46 @@
       <c r="D3" t="s">
         <v>446</v>
       </c>
-      <c r="E3" s="47" t="s">
+      <c r="E3" s="34" t="s">
         <v>327</v>
       </c>
       <c r="F3" t="s">
         <v>292</v>
       </c>
-      <c r="G3" s="340" t="s">
+      <c r="G3" s="232" t="s">
         <v>327</v>
       </c>
-      <c r="H3" s="341" t="s">
+      <c r="H3" s="233" t="s">
         <v>292</v>
       </c>
-      <c r="I3" s="341" t="s">
+      <c r="I3" s="233" t="s">
         <v>324</v>
       </c>
-      <c r="J3" s="342" t="s">
+      <c r="J3" s="234" t="s">
         <v>325</v>
       </c>
-      <c r="K3" s="341" t="s">
+      <c r="K3" s="233" t="s">
         <v>293</v>
       </c>
-      <c r="L3" s="342" t="s">
+      <c r="L3" s="234" t="s">
         <v>316</v>
       </c>
-      <c r="M3" s="342" t="s">
+      <c r="M3" s="234" t="s">
         <v>580</v>
       </c>
-      <c r="N3" s="343" t="s">
+      <c r="N3" s="235" t="s">
         <v>270</v>
       </c>
-      <c r="O3" s="342" t="s">
+      <c r="O3" s="234" t="s">
         <v>571</v>
       </c>
-      <c r="P3" s="342" t="s">
+      <c r="P3" s="234" t="s">
         <v>582</v>
       </c>
-      <c r="Q3" s="342" t="s">
+      <c r="Q3" s="234" t="s">
         <v>267</v>
       </c>
-      <c r="R3" s="342" t="s">
+      <c r="R3" s="234" t="s">
         <v>614</v>
       </c>
     </row>
@@ -15677,49 +15687,49 @@
       <c r="B4">
         <v>120</v>
       </c>
-      <c r="C4" s="230">
+      <c r="C4" s="217">
         <v>7</v>
       </c>
-      <c r="D4" s="230">
+      <c r="D4" s="217">
         <v>25</v>
       </c>
-      <c r="G4" s="354" t="s">
+      <c r="G4" s="242" t="s">
         <v>448</v>
       </c>
-      <c r="H4" s="355" t="s">
+      <c r="H4" s="243" t="s">
         <v>447</v>
       </c>
-      <c r="I4" s="355" t="s">
+      <c r="I4" s="243" t="s">
         <v>455</v>
       </c>
-      <c r="J4" s="355" t="s">
+      <c r="J4" s="243" t="s">
         <v>592</v>
       </c>
-      <c r="K4" s="355" t="s">
+      <c r="K4" s="243" t="s">
         <v>587</v>
       </c>
-      <c r="L4" s="369" t="s">
+      <c r="L4" s="251" t="s">
         <v>583</v>
       </c>
-      <c r="M4" s="355" t="s">
+      <c r="M4" s="243" t="s">
         <v>212</v>
       </c>
-      <c r="N4" s="369">
+      <c r="N4" s="251">
         <v>120</v>
       </c>
-      <c r="O4" s="355">
+      <c r="O4" s="243">
         <f>IF(N4="","",IF(N4&lt;=2,1,IF(N4&lt;=4,2,IF(N4&lt;=8,3,IF(N4&lt;=16,4,IF(N4&lt;=32,5,IF(N4&lt;=64,6,IF(N4&lt;=128,7,8))))))))</f>
         <v>7</v>
       </c>
-      <c r="P4" s="355">
+      <c r="P4" s="243">
         <f>IF(O4="","",2^O4)</f>
         <v>128</v>
       </c>
-      <c r="Q4" s="355">
+      <c r="Q4" s="243">
         <f>IF(O4="","",32-O4)</f>
         <v>25</v>
       </c>
-      <c r="R4" s="396" t="s">
+      <c r="R4" s="380" t="s">
         <v>612</v>
       </c>
     </row>
@@ -15730,49 +15740,49 @@
       <c r="B5">
         <v>50</v>
       </c>
-      <c r="C5" s="230">
+      <c r="C5" s="217">
         <v>6</v>
       </c>
-      <c r="D5" s="230">
+      <c r="D5" s="217">
         <v>26</v>
       </c>
-      <c r="G5" s="344" t="s">
+      <c r="G5" s="236" t="s">
         <v>450</v>
       </c>
-      <c r="H5" s="226" t="s">
+      <c r="H5" s="213" t="s">
         <v>449</v>
       </c>
-      <c r="I5" s="226" t="s">
+      <c r="I5" s="213" t="s">
         <v>454</v>
       </c>
-      <c r="J5" s="226" t="s">
+      <c r="J5" s="213" t="s">
         <v>593</v>
       </c>
-      <c r="K5" s="226" t="s">
+      <c r="K5" s="213" t="s">
         <v>588</v>
       </c>
-      <c r="L5" s="333" t="s">
+      <c r="L5" s="228" t="s">
         <v>584</v>
       </c>
-      <c r="M5" s="367" t="s">
+      <c r="M5" s="249" t="s">
         <v>444</v>
       </c>
-      <c r="N5" s="366">
+      <c r="N5" s="248">
         <v>50</v>
       </c>
-      <c r="O5" s="367">
-        <f t="shared" ref="O5:O13" si="0">IF(N5="","",IF(N5&lt;=2,1,IF(N5&lt;=4,2,IF(N5&lt;=8,3,IF(N5&lt;=16,4,IF(N5&lt;=32,5,IF(N5&lt;=64,6,IF(N5&lt;=128,7,8))))))))</f>
+      <c r="O5" s="249">
+        <f t="shared" ref="O5:O8" si="0">IF(N5="","",IF(N5&lt;=2,1,IF(N5&lt;=4,2,IF(N5&lt;=8,3,IF(N5&lt;=16,4,IF(N5&lt;=32,5,IF(N5&lt;=64,6,IF(N5&lt;=128,7,8))))))))</f>
         <v>6</v>
       </c>
-      <c r="P5" s="367">
+      <c r="P5" s="249">
         <f t="shared" ref="P5:P8" si="1">IF(O5="","",2^O5)</f>
         <v>64</v>
       </c>
-      <c r="Q5" s="367">
+      <c r="Q5" s="249">
         <f t="shared" ref="Q5:Q8" si="2">IF(O5="","",32-O5)</f>
         <v>26</v>
       </c>
-      <c r="R5" s="397"/>
+      <c r="R5" s="381"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -15781,50 +15791,50 @@
       <c r="B6">
         <v>40</v>
       </c>
-      <c r="C6" s="230">
+      <c r="C6" s="217">
         <v>6</v>
       </c>
-      <c r="D6" s="230">
+      <c r="D6" s="217">
         <v>26</v>
       </c>
-      <c r="G6" s="346" t="s">
+      <c r="G6" s="237" t="s">
         <v>452</v>
       </c>
-      <c r="H6" s="224" t="s">
+      <c r="H6" s="211" t="s">
         <v>451</v>
       </c>
-      <c r="I6" s="224" t="s">
+      <c r="I6" s="211" t="s">
         <v>453</v>
       </c>
-      <c r="J6" s="224" t="s">
+      <c r="J6" s="211" t="s">
         <v>594</v>
       </c>
-      <c r="K6" s="224" t="s">
+      <c r="K6" s="211" t="s">
         <v>589</v>
       </c>
-      <c r="L6" s="332" t="s">
+      <c r="L6" s="227" t="s">
         <v>584</v>
       </c>
-      <c r="M6" s="57" t="s">
+      <c r="M6" s="44" t="s">
         <v>441</v>
       </c>
-      <c r="N6" s="368">
+      <c r="N6" s="250">
         <v>40</v>
       </c>
-      <c r="O6" s="57">
+      <c r="O6" s="44">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="P6" s="57">
+      <c r="P6" s="44">
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="Q6" s="57">
+      <c r="Q6" s="44">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="R6" s="397"/>
-      <c r="AC6" s="46"/>
+      <c r="R6" s="381"/>
+      <c r="AC6" s="33"/>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -15833,50 +15843,50 @@
       <c r="B7">
         <v>25</v>
       </c>
-      <c r="C7" s="230">
+      <c r="C7" s="217">
         <v>5</v>
       </c>
-      <c r="D7" s="230">
+      <c r="D7" s="217">
         <v>27</v>
       </c>
-      <c r="G7" s="370" t="s">
+      <c r="G7" s="252" t="s">
         <v>349</v>
       </c>
-      <c r="H7" s="367" t="s">
+      <c r="H7" s="249" t="s">
         <v>456</v>
       </c>
-      <c r="I7" s="367" t="s">
+      <c r="I7" s="249" t="s">
         <v>458</v>
       </c>
-      <c r="J7" s="367" t="s">
+      <c r="J7" s="249" t="s">
         <v>595</v>
       </c>
-      <c r="K7" s="367" t="s">
+      <c r="K7" s="249" t="s">
         <v>590</v>
       </c>
-      <c r="L7" s="366" t="s">
+      <c r="L7" s="248" t="s">
         <v>585</v>
       </c>
-      <c r="M7" s="367" t="s">
+      <c r="M7" s="249" t="s">
         <v>442</v>
       </c>
-      <c r="N7" s="366">
+      <c r="N7" s="248">
         <v>25</v>
       </c>
-      <c r="O7" s="367">
+      <c r="O7" s="249">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="P7" s="367">
+      <c r="P7" s="249">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="Q7" s="367">
+      <c r="Q7" s="249">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="R7" s="397"/>
-      <c r="AC7" s="46"/>
+      <c r="R7" s="381"/>
+      <c r="AC7" s="33"/>
     </row>
     <row r="8" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -15885,135 +15895,135 @@
       <c r="B8">
         <v>8</v>
       </c>
-      <c r="C8" s="230">
+      <c r="C8" s="217">
         <v>4</v>
       </c>
-      <c r="D8" s="230">
+      <c r="D8" s="217">
         <v>28</v>
       </c>
-      <c r="G8" s="371" t="s">
+      <c r="G8" s="253" t="s">
         <v>459</v>
       </c>
-      <c r="H8" s="372" t="s">
+      <c r="H8" s="254" t="s">
         <v>457</v>
       </c>
-      <c r="I8" s="372" t="s">
+      <c r="I8" s="254" t="s">
         <v>461</v>
       </c>
-      <c r="J8" s="372" t="s">
+      <c r="J8" s="254" t="s">
         <v>596</v>
       </c>
-      <c r="K8" s="372" t="s">
+      <c r="K8" s="254" t="s">
         <v>591</v>
       </c>
-      <c r="L8" s="388" t="s">
+      <c r="L8" s="267" t="s">
         <v>586</v>
       </c>
-      <c r="M8" s="372" t="s">
+      <c r="M8" s="254" t="s">
         <v>443</v>
       </c>
-      <c r="N8" s="388">
+      <c r="N8" s="267">
         <v>8</v>
       </c>
-      <c r="O8" s="372">
+      <c r="O8" s="254">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="P8" s="372">
+      <c r="P8" s="254">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="Q8" s="372">
+      <c r="Q8" s="254">
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="R8" s="398"/>
-      <c r="AC8" s="46"/>
+      <c r="R8" s="382"/>
+      <c r="AC8" s="33"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
         <v>460</v>
       </c>
-      <c r="G9" s="376" t="s">
+      <c r="G9" s="255" t="s">
         <v>448</v>
       </c>
-      <c r="H9" s="377" t="s">
+      <c r="H9" s="256" t="s">
         <v>447</v>
       </c>
-      <c r="I9" s="377" t="s">
+      <c r="I9" s="256" t="s">
         <v>455</v>
       </c>
-      <c r="J9" s="377" t="s">
+      <c r="J9" s="256" t="s">
         <v>598</v>
       </c>
-      <c r="K9" s="377" t="s">
+      <c r="K9" s="256" t="s">
         <v>597</v>
       </c>
-      <c r="L9" s="389" t="s">
+      <c r="L9" s="268" t="s">
         <v>584</v>
       </c>
-      <c r="M9" s="377" t="s">
+      <c r="M9" s="256" t="s">
         <v>212</v>
       </c>
-      <c r="N9" s="389">
+      <c r="N9" s="268">
         <v>120</v>
       </c>
-      <c r="O9" s="377">
+      <c r="O9" s="256">
         <f>IF(N9="","",IF(N9&lt;=2,1,IF(N9&lt;=4,2,IF(N9&lt;=8,3,IF(N9&lt;=16,4,IF(N9&lt;=32,5,IF(N9&lt;=64,6,IF(N9&lt;=128,7,8))))))))</f>
         <v>7</v>
       </c>
-      <c r="P9" s="377">
+      <c r="P9" s="256">
         <f>IF(O9="","",2^O9)</f>
         <v>128</v>
       </c>
-      <c r="Q9" s="377">
+      <c r="Q9" s="256">
         <f>IF(O9="","",32-O9)</f>
         <v>25</v>
       </c>
-      <c r="R9" s="399" t="s">
+      <c r="R9" s="377" t="s">
         <v>613</v>
       </c>
-      <c r="AC9" s="46"/>
+      <c r="AC9" s="33"/>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="G10" s="382" t="s">
+      <c r="G10" s="261" t="s">
         <v>452</v>
       </c>
-      <c r="H10" s="383" t="s">
+      <c r="H10" s="262" t="s">
         <v>599</v>
       </c>
-      <c r="I10" s="383" t="s">
+      <c r="I10" s="262" t="s">
         <v>600</v>
       </c>
-      <c r="J10" s="383" t="s">
+      <c r="J10" s="262" t="s">
         <v>593</v>
       </c>
-      <c r="K10" s="383" t="s">
+      <c r="K10" s="262" t="s">
         <v>588</v>
       </c>
-      <c r="L10" s="390" t="s">
+      <c r="L10" s="269" t="s">
         <v>583</v>
       </c>
-      <c r="M10" s="385" t="s">
+      <c r="M10" s="264" t="s">
         <v>441</v>
       </c>
-      <c r="N10" s="392">
+      <c r="N10" s="271">
         <v>40</v>
       </c>
-      <c r="O10" s="385">
+      <c r="O10" s="264">
         <f>IF(N10="","",IF(N10&lt;=2,1,IF(N10&lt;=4,2,IF(N10&lt;=8,3,IF(N10&lt;=16,4,IF(N10&lt;=32,5,IF(N10&lt;=64,6,IF(N10&lt;=128,7,8))))))))</f>
         <v>6</v>
       </c>
-      <c r="P10" s="385">
+      <c r="P10" s="264">
         <f>IF(O10="","",2^O10)</f>
         <v>64</v>
       </c>
-      <c r="Q10" s="385">
+      <c r="Q10" s="264">
         <f>IF(O10="","",32-O10)</f>
         <v>26</v>
       </c>
-      <c r="R10" s="400"/>
-      <c r="AC10" s="46"/>
+      <c r="R10" s="378"/>
+      <c r="AC10" s="33"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -16022,55 +16032,55 @@
       <c r="B11">
         <v>40</v>
       </c>
-      <c r="C11" s="230">
+      <c r="C11" s="217">
         <v>6</v>
       </c>
-      <c r="D11" s="230">
+      <c r="D11" s="217">
         <v>26</v>
       </c>
-      <c r="E11" s="47" t="s">
+      <c r="E11" s="34" t="s">
         <v>464</v>
       </c>
       <c r="F11" t="s">
         <v>447</v>
       </c>
-      <c r="G11" s="378" t="s">
+      <c r="G11" s="257" t="s">
         <v>349</v>
       </c>
-      <c r="H11" s="379" t="s">
+      <c r="H11" s="258" t="s">
         <v>451</v>
       </c>
-      <c r="I11" s="379" t="s">
+      <c r="I11" s="258" t="s">
         <v>601</v>
       </c>
-      <c r="J11" s="379" t="s">
+      <c r="J11" s="258" t="s">
         <v>603</v>
       </c>
-      <c r="K11" s="379" t="s">
+      <c r="K11" s="258" t="s">
         <v>602</v>
       </c>
-      <c r="L11" s="391" t="s">
+      <c r="L11" s="270" t="s">
         <v>585</v>
       </c>
-      <c r="M11" s="394" t="s">
+      <c r="M11" s="273" t="s">
         <v>442</v>
       </c>
-      <c r="N11" s="395">
+      <c r="N11" s="274">
         <v>25</v>
       </c>
-      <c r="O11" s="394">
+      <c r="O11" s="273">
         <f>IF(N11="","",IF(N11&lt;=2,1,IF(N11&lt;=4,2,IF(N11&lt;=8,3,IF(N11&lt;=16,4,IF(N11&lt;=32,5,IF(N11&lt;=64,6,IF(N11&lt;=128,7,8))))))))</f>
         <v>5</v>
       </c>
-      <c r="P11" s="394">
+      <c r="P11" s="273">
         <f>IF(O11="","",2^O11)</f>
         <v>32</v>
       </c>
-      <c r="Q11" s="394">
+      <c r="Q11" s="273">
         <f>IF(O11="","",32-O11)</f>
         <v>27</v>
       </c>
-      <c r="R11" s="400"/>
+      <c r="R11" s="378"/>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -16079,55 +16089,55 @@
       <c r="B12">
         <v>120</v>
       </c>
-      <c r="C12" s="230">
+      <c r="C12" s="217">
         <v>7</v>
       </c>
-      <c r="D12" s="230">
+      <c r="D12" s="217">
         <v>25</v>
       </c>
-      <c r="E12" s="47" t="s">
+      <c r="E12" s="34" t="s">
         <v>465</v>
       </c>
       <c r="F12" t="s">
         <v>462</v>
       </c>
-      <c r="G12" s="384" t="s">
+      <c r="G12" s="263" t="s">
         <v>459</v>
       </c>
-      <c r="H12" s="385" t="s">
+      <c r="H12" s="264" t="s">
         <v>604</v>
       </c>
-      <c r="I12" s="385" t="s">
+      <c r="I12" s="264" t="s">
         <v>605</v>
       </c>
-      <c r="J12" s="385" t="s">
+      <c r="J12" s="264" t="s">
         <v>606</v>
       </c>
-      <c r="K12" s="385" t="s">
+      <c r="K12" s="264" t="s">
         <v>607</v>
       </c>
-      <c r="L12" s="392" t="s">
+      <c r="L12" s="271" t="s">
         <v>586</v>
       </c>
-      <c r="M12" s="385" t="s">
+      <c r="M12" s="264" t="s">
         <v>443</v>
       </c>
-      <c r="N12" s="392">
+      <c r="N12" s="271">
         <v>8</v>
       </c>
-      <c r="O12" s="385">
+      <c r="O12" s="264">
         <f>IF(N12="","",IF(N12&lt;=2,1,IF(N12&lt;=4,2,IF(N12&lt;=8,3,IF(N12&lt;=16,4,IF(N12&lt;=32,5,IF(N12&lt;=64,6,IF(N12&lt;=128,7,8))))))))</f>
         <v>3</v>
       </c>
-      <c r="P12" s="385">
+      <c r="P12" s="264">
         <f>IF(O12="","",2^O12)</f>
         <v>8</v>
       </c>
-      <c r="Q12" s="385">
+      <c r="Q12" s="264">
         <f>IF(O12="","",32-O12)</f>
         <v>29</v>
       </c>
-      <c r="R12" s="400"/>
+      <c r="R12" s="378"/>
     </row>
     <row r="13" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -16136,55 +16146,55 @@
       <c r="B13">
         <v>25</v>
       </c>
-      <c r="C13" s="230">
+      <c r="C13" s="217">
         <v>5</v>
       </c>
-      <c r="D13" s="230">
+      <c r="D13" s="217">
         <v>27</v>
       </c>
-      <c r="E13" s="47" t="s">
+      <c r="E13" s="34" t="s">
         <v>355</v>
       </c>
       <c r="F13" t="s">
         <v>463</v>
       </c>
-      <c r="G13" s="380" t="s">
+      <c r="G13" s="259" t="s">
         <v>450</v>
       </c>
-      <c r="H13" s="381" t="s">
+      <c r="H13" s="260" t="s">
         <v>608</v>
       </c>
-      <c r="I13" s="381" t="s">
+      <c r="I13" s="260" t="s">
         <v>609</v>
       </c>
-      <c r="J13" s="381" t="s">
+      <c r="J13" s="260" t="s">
         <v>596</v>
       </c>
-      <c r="K13" s="381" t="s">
+      <c r="K13" s="260" t="s">
         <v>591</v>
       </c>
-      <c r="L13" s="393" t="s">
+      <c r="L13" s="272" t="s">
         <v>584</v>
       </c>
-      <c r="M13" s="381" t="s">
+      <c r="M13" s="260" t="s">
         <v>444</v>
       </c>
-      <c r="N13" s="393">
+      <c r="N13" s="272">
         <v>50</v>
       </c>
-      <c r="O13" s="381">
+      <c r="O13" s="260">
         <f>IF(N13="","",IF(N13&lt;=2,1,IF(N13&lt;=4,2,IF(N13&lt;=8,3,IF(N13&lt;=16,4,IF(N13&lt;=32,5,IF(N13&lt;=64,6,IF(N13&lt;=128,7,8))))))))</f>
         <v>6</v>
       </c>
-      <c r="P13" s="381">
+      <c r="P13" s="260">
         <f>IF(O13="","",2^O13)</f>
         <v>64</v>
       </c>
-      <c r="Q13" s="381">
+      <c r="Q13" s="260">
         <f>IF(O13="","",32-O13)</f>
         <v>26</v>
       </c>
-      <c r="R13" s="401"/>
+      <c r="R13" s="379"/>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -16193,13 +16203,13 @@
       <c r="B14">
         <v>8</v>
       </c>
-      <c r="C14" s="230">
+      <c r="C14" s="217">
         <v>4</v>
       </c>
-      <c r="D14" s="230">
+      <c r="D14" s="217">
         <v>28</v>
       </c>
-      <c r="E14" s="47" t="s">
+      <c r="E14" s="34" t="s">
         <v>467</v>
       </c>
       <c r="F14" t="s">
@@ -16213,13 +16223,13 @@
       <c r="B15">
         <v>50</v>
       </c>
-      <c r="C15" s="230">
+      <c r="C15" s="217">
         <v>6</v>
       </c>
-      <c r="D15" s="230">
+      <c r="D15" s="217">
         <v>26</v>
       </c>
-      <c r="E15" s="47" t="s">
+      <c r="E15" s="34" t="s">
         <v>469</v>
       </c>
       <c r="F15" t="s">
@@ -16230,19 +16240,19 @@
       <c r="F16" t="s">
         <v>460</v>
       </c>
-      <c r="J16" s="236"/>
+      <c r="J16" s="223"/>
     </row>
     <row r="17" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J17" s="236"/>
+      <c r="J17" s="223"/>
     </row>
     <row r="18" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J18" s="236"/>
+      <c r="J18" s="223"/>
     </row>
     <row r="19" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J19" s="236"/>
+      <c r="J19" s="223"/>
     </row>
     <row r="20" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J20" s="236"/>
+      <c r="J20" s="223"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -16252,7 +16262,7 @@
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="G2:I2"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="L4:L8 G4:G13 L11:L13 L9:L10" numberStoredAsText="1"/>

--- a/docs/protocol-suite.xlsx
+++ b/docs/protocol-suite.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\redes\saves\ccna-lx19\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57AC2143-E00C-4C99-B3FF-713FB6597503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D06783-A92B-4722-BE09-A1E23C931976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="7" xr2:uid="{3415D364-6D1D-489F-8C8D-BD784F513C31}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="8" xr2:uid="{3415D364-6D1D-489F-8C8D-BD784F513C31}"/>
   </bookViews>
   <sheets>
     <sheet name="modelos" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="IPv6" sheetId="6" r:id="rId6"/>
     <sheet name="Subnetting" sheetId="7" r:id="rId7"/>
     <sheet name="VLSM" sheetId="8" r:id="rId8"/>
+    <sheet name="Port" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="651">
   <si>
     <t xml:space="preserve">TCP/IP </t>
   </si>
@@ -7642,6 +7643,30 @@
       </rPr>
       <t>.255.254</t>
     </r>
+  </si>
+  <si>
+    <t>registrados</t>
+  </si>
+  <si>
+    <t>conocidos</t>
+  </si>
+  <si>
+    <t>dinamicos</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>INI</t>
+  </si>
+  <si>
+    <t>reservados por la IANA</t>
+  </si>
+  <si>
+    <t>reservados para aplicaciones concretas</t>
+  </si>
+  <si>
+    <t>puedes usarlos libremente</t>
   </si>
 </sst>
 </file>
@@ -7963,7 +7988,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="97">
+  <borders count="101">
     <border>
       <left/>
       <right/>
@@ -9055,6 +9080,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -9065,7 +9130,7 @@
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="403">
+  <cellXfs count="411">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -9819,7 +9884,52 @@
     <xf numFmtId="49" fontId="0" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="10" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9833,6 +9943,54 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -9867,39 +10025,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="62" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -9984,6 +10109,21 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9999,19 +10139,49 @@
     <xf numFmtId="0" fontId="3" fillId="26" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="24" borderId="54" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="24" borderId="55" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="24" borderId="56" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="24" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="24" borderId="57" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="59" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="60" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="28" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="15" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -10032,87 +10202,6 @@
     <xf numFmtId="49" fontId="0" fillId="28" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="24" borderId="54" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="24" borderId="55" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="59" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="60" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="28" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="24" borderId="56" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="24" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="24" borderId="57" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="10" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -10125,6 +10214,42 @@
     <xf numFmtId="49" fontId="3" fillId="9" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -10146,62 +10271,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="10" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -10764,7 +10845,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10790,100 +10871,100 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="389" t="s">
+      <c r="A2" s="279" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="396" t="s">
+      <c r="B2" s="295" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="275" t="s">
+      <c r="C2" s="290" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="385" t="s">
+      <c r="D2" s="298" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="390" t="s">
+      <c r="A3" s="280" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="397"/>
-      <c r="C3" s="276"/>
-      <c r="D3" s="385"/>
+      <c r="B3" s="296"/>
+      <c r="C3" s="291"/>
+      <c r="D3" s="298"/>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="391" t="s">
+      <c r="A4" s="281" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="398"/>
-      <c r="C4" s="277"/>
-      <c r="D4" s="385"/>
+      <c r="B4" s="297"/>
+      <c r="C4" s="292"/>
+      <c r="D4" s="298"/>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="392" t="s">
+      <c r="A5" s="282" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="399" t="s">
+      <c r="B5" s="286" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="386" t="s">
+      <c r="D5" s="277" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="393" t="s">
+      <c r="A6" s="283" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="400" t="s">
+      <c r="B6" s="287" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="386" t="s">
+      <c r="D6" s="277" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="394" t="s">
+      <c r="A7" s="284" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="401" t="s">
+      <c r="B7" s="288" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="278" t="s">
+      <c r="C7" s="293" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="386" t="s">
+      <c r="D7" s="277" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="395" t="s">
+      <c r="A8" s="285" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="402" t="s">
+      <c r="B8" s="289" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="279"/>
-      <c r="D8" s="385" t="s">
+      <c r="C8" s="294"/>
+      <c r="D8" s="298" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="388" t="s">
+      <c r="A9" s="278" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="388" t="s">
+      <c r="B9" s="278" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="388" t="s">
+      <c r="C9" s="278" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="387"/>
+      <c r="D9" s="299"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -10902,7 +10983,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2546DD17-9723-4091-B9ED-D9677931F7C4}">
   <dimension ref="A2:K21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C3"/>
     </sheetView>
   </sheetViews>
@@ -10922,24 +11003,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="291" t="s">
+      <c r="A2" s="300" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="292"/>
+      <c r="B2" s="301"/>
       <c r="C2" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="291" t="s">
+      <c r="E2" s="300" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="292"/>
+      <c r="F2" s="301"/>
       <c r="G2" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="291" t="s">
+      <c r="I2" s="300" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="292"/>
+      <c r="J2" s="301"/>
       <c r="K2" s="14" t="s">
         <v>42</v>
       </c>
@@ -11113,15 +11194,15 @@
       <c r="E9" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="F9" s="299" t="s">
+      <c r="F9" s="308" t="s">
         <v>67</v>
       </c>
-      <c r="G9" s="299"/>
-      <c r="I9" s="299" t="s">
+      <c r="G9" s="308"/>
+      <c r="I9" s="308" t="s">
         <v>81</v>
       </c>
-      <c r="J9" s="299"/>
-      <c r="K9" s="299"/>
+      <c r="J9" s="308"/>
+      <c r="K9" s="308"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
@@ -11137,15 +11218,15 @@
       <c r="E10" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="F10" s="294" t="s">
+      <c r="F10" s="303" t="s">
         <v>70</v>
       </c>
-      <c r="G10" s="295"/>
-      <c r="I10" s="293" t="s">
+      <c r="G10" s="304"/>
+      <c r="I10" s="302" t="s">
         <v>63</v>
       </c>
-      <c r="J10" s="294"/>
-      <c r="K10" s="295"/>
+      <c r="J10" s="303"/>
+      <c r="K10" s="304"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
@@ -11160,15 +11241,15 @@
       <c r="E11" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="300" t="s">
+      <c r="F11" s="309" t="s">
         <v>52</v>
       </c>
-      <c r="G11" s="301"/>
-      <c r="I11" s="296" t="s">
+      <c r="G11" s="310"/>
+      <c r="I11" s="305" t="s">
         <v>64</v>
       </c>
-      <c r="J11" s="297"/>
-      <c r="K11" s="298"/>
+      <c r="J11" s="306"/>
+      <c r="K11" s="307"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
@@ -11183,15 +11264,15 @@
       <c r="E12" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="F12" s="294" t="s">
+      <c r="F12" s="303" t="s">
         <v>72</v>
       </c>
-      <c r="G12" s="295"/>
-      <c r="I12" s="293" t="s">
+      <c r="G12" s="304"/>
+      <c r="I12" s="302" t="s">
         <v>65</v>
       </c>
-      <c r="J12" s="294"/>
-      <c r="K12" s="295"/>
+      <c r="J12" s="303"/>
+      <c r="K12" s="304"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
@@ -11227,94 +11308,100 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="288" t="s">
+      <c r="A17" s="319" t="s">
         <v>282</v>
       </c>
       <c r="B17" s="187" t="s">
         <v>272</v>
       </c>
-      <c r="C17" s="302" t="s">
+      <c r="C17" s="322" t="s">
         <v>273</v>
       </c>
-      <c r="D17" s="302"/>
-      <c r="E17" s="302"/>
-      <c r="F17" s="302"/>
-      <c r="G17" s="302"/>
-      <c r="H17" s="302"/>
-      <c r="I17" s="302"/>
-      <c r="J17" s="302"/>
-      <c r="K17" s="303"/>
+      <c r="D17" s="322"/>
+      <c r="E17" s="322"/>
+      <c r="F17" s="322"/>
+      <c r="G17" s="322"/>
+      <c r="H17" s="322"/>
+      <c r="I17" s="322"/>
+      <c r="J17" s="322"/>
+      <c r="K17" s="323"/>
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="289"/>
+      <c r="A18" s="320"/>
       <c r="B18" s="188" t="s">
         <v>274</v>
       </c>
-      <c r="C18" s="280" t="s">
+      <c r="C18" s="311" t="s">
         <v>275</v>
       </c>
-      <c r="D18" s="280"/>
-      <c r="E18" s="280"/>
-      <c r="F18" s="280"/>
-      <c r="G18" s="280"/>
-      <c r="H18" s="280"/>
-      <c r="I18" s="280"/>
-      <c r="J18" s="280"/>
-      <c r="K18" s="281"/>
+      <c r="D18" s="311"/>
+      <c r="E18" s="311"/>
+      <c r="F18" s="311"/>
+      <c r="G18" s="311"/>
+      <c r="H18" s="311"/>
+      <c r="I18" s="311"/>
+      <c r="J18" s="311"/>
+      <c r="K18" s="312"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="289"/>
+      <c r="A19" s="320"/>
       <c r="B19" s="189" t="s">
         <v>276</v>
       </c>
-      <c r="C19" s="282" t="s">
+      <c r="C19" s="313" t="s">
         <v>277</v>
       </c>
-      <c r="D19" s="282"/>
-      <c r="E19" s="282"/>
-      <c r="F19" s="282"/>
-      <c r="G19" s="282"/>
-      <c r="H19" s="282"/>
-      <c r="I19" s="282"/>
-      <c r="J19" s="282"/>
-      <c r="K19" s="283"/>
+      <c r="D19" s="313"/>
+      <c r="E19" s="313"/>
+      <c r="F19" s="313"/>
+      <c r="G19" s="313"/>
+      <c r="H19" s="313"/>
+      <c r="I19" s="313"/>
+      <c r="J19" s="313"/>
+      <c r="K19" s="314"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="289"/>
+      <c r="A20" s="320"/>
       <c r="B20" s="190" t="s">
         <v>278</v>
       </c>
-      <c r="C20" s="284" t="s">
+      <c r="C20" s="315" t="s">
         <v>279</v>
       </c>
-      <c r="D20" s="284"/>
-      <c r="E20" s="284"/>
-      <c r="F20" s="284"/>
-      <c r="G20" s="284"/>
-      <c r="H20" s="284"/>
-      <c r="I20" s="284"/>
-      <c r="J20" s="284"/>
-      <c r="K20" s="285"/>
+      <c r="D20" s="315"/>
+      <c r="E20" s="315"/>
+      <c r="F20" s="315"/>
+      <c r="G20" s="315"/>
+      <c r="H20" s="315"/>
+      <c r="I20" s="315"/>
+      <c r="J20" s="315"/>
+      <c r="K20" s="316"/>
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="290"/>
+      <c r="A21" s="321"/>
       <c r="B21" s="191" t="s">
         <v>280</v>
       </c>
-      <c r="C21" s="286" t="s">
+      <c r="C21" s="317" t="s">
         <v>281</v>
       </c>
-      <c r="D21" s="286"/>
-      <c r="E21" s="286"/>
-      <c r="F21" s="286"/>
-      <c r="G21" s="286"/>
-      <c r="H21" s="286"/>
-      <c r="I21" s="286"/>
-      <c r="J21" s="286"/>
-      <c r="K21" s="287"/>
+      <c r="D21" s="317"/>
+      <c r="E21" s="317"/>
+      <c r="F21" s="317"/>
+      <c r="G21" s="317"/>
+      <c r="H21" s="317"/>
+      <c r="I21" s="317"/>
+      <c r="J21" s="317"/>
+      <c r="K21" s="318"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C18:K18"/>
+    <mergeCell ref="C19:K19"/>
+    <mergeCell ref="C20:K20"/>
+    <mergeCell ref="C21:K21"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="C17:K17"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="A2:B2"/>
@@ -11326,12 +11413,6 @@
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="I9:K9"/>
-    <mergeCell ref="C18:K18"/>
-    <mergeCell ref="C19:K19"/>
-    <mergeCell ref="C20:K20"/>
-    <mergeCell ref="C21:K21"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="C17:K17"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11357,16 +11438,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="304" t="s">
+      <c r="B1" s="324" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="304"/>
-      <c r="D1" s="304"/>
-      <c r="F1" s="304" t="s">
+      <c r="C1" s="324"/>
+      <c r="D1" s="324"/>
+      <c r="F1" s="324" t="s">
         <v>104</v>
       </c>
-      <c r="G1" s="304"/>
-      <c r="H1" s="304"/>
+      <c r="G1" s="324"/>
+      <c r="H1" s="324"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="36" t="s">
@@ -11395,10 +11476,10 @@
       <c r="D3" s="166" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="313" t="s">
+      <c r="F3" s="333" t="s">
         <v>94</v>
       </c>
-      <c r="G3" s="315" t="s">
+      <c r="G3" s="335" t="s">
         <v>93</v>
       </c>
       <c r="H3" s="172" t="s">
@@ -11415,8 +11496,8 @@
       <c r="D4" s="169" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="313"/>
-      <c r="G4" s="316"/>
+      <c r="F4" s="333"/>
+      <c r="G4" s="336"/>
       <c r="H4" s="173" t="s">
         <v>60</v>
       </c>
@@ -11431,8 +11512,8 @@
       <c r="D5" s="164" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="313"/>
-      <c r="G5" s="316"/>
+      <c r="F5" s="333"/>
+      <c r="G5" s="336"/>
       <c r="H5" s="174" t="s">
         <v>61</v>
       </c>
@@ -11447,8 +11528,8 @@
       <c r="D6" s="167" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="313"/>
-      <c r="G6" s="316"/>
+      <c r="F6" s="333"/>
+      <c r="G6" s="336"/>
       <c r="H6" s="179" t="s">
         <v>62</v>
       </c>
@@ -11463,8 +11544,8 @@
       <c r="D7" s="168" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="313"/>
-      <c r="G7" s="316"/>
+      <c r="F7" s="333"/>
+      <c r="G7" s="336"/>
       <c r="H7" s="178" t="s">
         <v>99</v>
       </c>
@@ -11479,8 +11560,8 @@
       <c r="D8" s="165" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="313"/>
-      <c r="G8" s="316"/>
+      <c r="F8" s="333"/>
+      <c r="G8" s="336"/>
       <c r="H8" s="175" t="s">
         <v>103</v>
       </c>
@@ -11495,8 +11576,8 @@
       <c r="D9" s="170" t="s">
         <v>55</v>
       </c>
-      <c r="F9" s="313"/>
-      <c r="G9" s="316"/>
+      <c r="F9" s="333"/>
+      <c r="G9" s="336"/>
       <c r="H9" s="176" t="s">
         <v>97</v>
       </c>
@@ -11511,21 +11592,21 @@
       <c r="D10" s="171" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="314"/>
-      <c r="G10" s="317"/>
+      <c r="F10" s="334"/>
+      <c r="G10" s="337"/>
       <c r="H10" s="177" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="308" t="s">
+      <c r="B12" s="328" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="309"/>
-      <c r="D12" s="309"/>
-      <c r="E12" s="309"/>
-      <c r="F12" s="310"/>
+      <c r="C12" s="329"/>
+      <c r="D12" s="329"/>
+      <c r="E12" s="329"/>
+      <c r="F12" s="330"/>
       <c r="G12" s="180" t="s">
         <v>56</v>
       </c>
@@ -11534,13 +11615,13 @@
       <c r="B13" s="181" t="s">
         <v>90</v>
       </c>
-      <c r="C13" s="318" t="s">
+      <c r="C13" s="338" t="s">
         <v>89</v>
       </c>
-      <c r="D13" s="318"/>
-      <c r="E13" s="318"/>
-      <c r="F13" s="319"/>
-      <c r="G13" s="305" t="s">
+      <c r="D13" s="338"/>
+      <c r="E13" s="338"/>
+      <c r="F13" s="339"/>
+      <c r="G13" s="325" t="s">
         <v>219</v>
       </c>
       <c r="I13" s="29"/>
@@ -11549,39 +11630,39 @@
       <c r="B14" s="182" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="320" t="s">
+      <c r="C14" s="340" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="320"/>
-      <c r="E14" s="320"/>
-      <c r="F14" s="321"/>
-      <c r="G14" s="306"/>
+      <c r="D14" s="340"/>
+      <c r="E14" s="340"/>
+      <c r="F14" s="341"/>
+      <c r="G14" s="326"/>
       <c r="I14" s="29"/>
     </row>
     <row r="15" spans="1:9" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="181" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="318" t="s">
+      <c r="C15" s="338" t="s">
         <v>87</v>
       </c>
-      <c r="D15" s="318"/>
-      <c r="E15" s="318"/>
-      <c r="F15" s="319"/>
-      <c r="G15" s="306"/>
+      <c r="D15" s="338"/>
+      <c r="E15" s="338"/>
+      <c r="F15" s="339"/>
+      <c r="G15" s="326"/>
       <c r="I15" s="29"/>
     </row>
     <row r="16" spans="1:9" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="183" t="s">
         <v>91</v>
       </c>
-      <c r="C16" s="311" t="s">
+      <c r="C16" s="331" t="s">
         <v>88</v>
       </c>
-      <c r="D16" s="311"/>
-      <c r="E16" s="311"/>
-      <c r="F16" s="312"/>
-      <c r="G16" s="307"/>
+      <c r="D16" s="331"/>
+      <c r="E16" s="331"/>
+      <c r="F16" s="332"/>
+      <c r="G16" s="327"/>
       <c r="I16" s="29"/>
     </row>
     <row r="17" spans="7:7" x14ac:dyDescent="0.25">
@@ -11637,76 +11718,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="322" t="s">
+      <c r="A1" s="342" t="s">
         <v>220</v>
       </c>
-      <c r="B1" s="323"/>
-      <c r="C1" s="323"/>
-      <c r="D1" s="323"/>
-      <c r="F1" s="322" t="s">
+      <c r="B1" s="343"/>
+      <c r="C1" s="343"/>
+      <c r="D1" s="343"/>
+      <c r="F1" s="342" t="s">
         <v>222</v>
       </c>
-      <c r="G1" s="323"/>
-      <c r="H1" s="323"/>
-      <c r="I1" s="323"/>
-      <c r="J1" s="323"/>
-      <c r="K1" s="323"/>
-      <c r="L1" s="323"/>
-      <c r="M1" s="323"/>
-      <c r="N1" s="323"/>
-      <c r="O1" s="323"/>
-      <c r="P1" s="324"/>
-      <c r="R1" s="322" t="s">
+      <c r="G1" s="343"/>
+      <c r="H1" s="343"/>
+      <c r="I1" s="343"/>
+      <c r="J1" s="343"/>
+      <c r="K1" s="343"/>
+      <c r="L1" s="343"/>
+      <c r="M1" s="343"/>
+      <c r="N1" s="343"/>
+      <c r="O1" s="343"/>
+      <c r="P1" s="344"/>
+      <c r="R1" s="342" t="s">
         <v>223</v>
       </c>
-      <c r="S1" s="323"/>
-      <c r="T1" s="323"/>
-      <c r="U1" s="323"/>
-      <c r="V1" s="323"/>
-      <c r="W1" s="323"/>
-      <c r="X1" s="323"/>
-      <c r="Y1" s="323"/>
-      <c r="Z1" s="323"/>
-      <c r="AA1" s="324"/>
+      <c r="S1" s="343"/>
+      <c r="T1" s="343"/>
+      <c r="U1" s="343"/>
+      <c r="V1" s="343"/>
+      <c r="W1" s="343"/>
+      <c r="X1" s="343"/>
+      <c r="Y1" s="343"/>
+      <c r="Z1" s="343"/>
+      <c r="AA1" s="344"/>
     </row>
     <row r="2" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="329" t="s">
+      <c r="A2" s="349" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="328"/>
-      <c r="C2" s="328"/>
-      <c r="D2" s="328"/>
-      <c r="F2" s="325" t="s">
+      <c r="B2" s="348"/>
+      <c r="C2" s="348"/>
+      <c r="D2" s="348"/>
+      <c r="F2" s="345" t="s">
         <v>130</v>
       </c>
-      <c r="G2" s="327"/>
-      <c r="H2" s="327"/>
-      <c r="I2" s="327"/>
-      <c r="J2" s="327"/>
-      <c r="K2" s="327"/>
-      <c r="L2" s="327"/>
-      <c r="M2" s="326"/>
+      <c r="G2" s="347"/>
+      <c r="H2" s="347"/>
+      <c r="I2" s="347"/>
+      <c r="J2" s="347"/>
+      <c r="K2" s="347"/>
+      <c r="L2" s="347"/>
+      <c r="M2" s="346"/>
       <c r="N2" s="91" t="s">
         <v>106</v>
       </c>
-      <c r="O2" s="325" t="s">
+      <c r="O2" s="345" t="s">
         <v>107</v>
       </c>
-      <c r="P2" s="326"/>
-      <c r="R2" s="325" t="s">
+      <c r="P2" s="346"/>
+      <c r="R2" s="345" t="s">
         <v>130</v>
       </c>
-      <c r="S2" s="327"/>
-      <c r="T2" s="327"/>
-      <c r="U2" s="327"/>
-      <c r="V2" s="327"/>
-      <c r="W2" s="327"/>
-      <c r="X2" s="327"/>
-      <c r="Y2" s="326"/>
-      <c r="Z2" s="325" t="s">
+      <c r="S2" s="347"/>
+      <c r="T2" s="347"/>
+      <c r="U2" s="347"/>
+      <c r="V2" s="347"/>
+      <c r="W2" s="347"/>
+      <c r="X2" s="347"/>
+      <c r="Y2" s="346"/>
+      <c r="Z2" s="345" t="s">
         <v>107</v>
       </c>
-      <c r="AA2" s="326"/>
+      <c r="AA2" s="346"/>
     </row>
     <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="38" t="s">
@@ -11967,12 +12048,12 @@
       </c>
     </row>
     <row r="7" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="328" t="s">
+      <c r="A7" s="348" t="s">
         <v>120</v>
       </c>
-      <c r="B7" s="328"/>
-      <c r="C7" s="328"/>
-      <c r="D7" s="328"/>
+      <c r="B7" s="348"/>
+      <c r="C7" s="348"/>
+      <c r="D7" s="348"/>
       <c r="F7" s="59">
         <v>1</v>
       </c>
@@ -12266,12 +12347,12 @@
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="328" t="s">
+      <c r="A12" s="348" t="s">
         <v>125</v>
       </c>
-      <c r="B12" s="328"/>
-      <c r="C12" s="328"/>
-      <c r="D12" s="328"/>
+      <c r="B12" s="348"/>
+      <c r="C12" s="348"/>
+      <c r="D12" s="348"/>
       <c r="F12" s="58">
         <v>0</v>
       </c>
@@ -12550,28 +12631,28 @@
       <c r="A1" s="94" t="s">
         <v>238</v>
       </c>
-      <c r="B1" s="330" t="s">
+      <c r="B1" s="355" t="s">
         <v>230</v>
       </c>
-      <c r="C1" s="330"/>
-      <c r="D1" s="330"/>
-      <c r="E1" s="331"/>
-      <c r="F1" s="330" t="s">
+      <c r="C1" s="355"/>
+      <c r="D1" s="355"/>
+      <c r="E1" s="356"/>
+      <c r="F1" s="355" t="s">
         <v>231</v>
       </c>
-      <c r="G1" s="330"/>
-      <c r="H1" s="330"/>
-      <c r="I1" s="330"/>
-      <c r="J1" s="330"/>
-      <c r="K1" s="330"/>
-      <c r="L1" s="330"/>
-      <c r="M1" s="330"/>
-      <c r="N1" s="332">
+      <c r="G1" s="355"/>
+      <c r="H1" s="355"/>
+      <c r="I1" s="355"/>
+      <c r="J1" s="355"/>
+      <c r="K1" s="355"/>
+      <c r="L1" s="355"/>
+      <c r="M1" s="355"/>
+      <c r="N1" s="357">
         <f>2^32</f>
         <v>4294967296</v>
       </c>
-      <c r="O1" s="332"/>
-      <c r="P1" s="332"/>
+      <c r="O1" s="357"/>
+      <c r="P1" s="357"/>
       <c r="Q1" s="162" t="s">
         <v>239</v>
       </c>
@@ -12580,34 +12661,34 @@
       <c r="A2" s="94" t="s">
         <v>156</v>
       </c>
-      <c r="B2" s="333" t="s">
+      <c r="B2" s="358" t="s">
         <v>225</v>
       </c>
-      <c r="C2" s="333"/>
-      <c r="D2" s="333" t="s">
+      <c r="C2" s="358"/>
+      <c r="D2" s="358" t="s">
         <v>130</v>
       </c>
-      <c r="E2" s="334"/>
-      <c r="F2" s="333" t="s">
+      <c r="E2" s="359"/>
+      <c r="F2" s="358" t="s">
         <v>225</v>
       </c>
-      <c r="G2" s="333"/>
-      <c r="H2" s="333" t="s">
+      <c r="G2" s="358"/>
+      <c r="H2" s="358" t="s">
         <v>130</v>
       </c>
-      <c r="I2" s="333"/>
-      <c r="J2" s="333" t="s">
+      <c r="I2" s="358"/>
+      <c r="J2" s="358" t="s">
         <v>226</v>
       </c>
-      <c r="K2" s="333"/>
-      <c r="L2" s="333"/>
-      <c r="M2" s="333"/>
-      <c r="N2" s="339" t="s">
+      <c r="K2" s="358"/>
+      <c r="L2" s="358"/>
+      <c r="M2" s="358"/>
+      <c r="N2" s="354" t="s">
         <v>265</v>
       </c>
-      <c r="O2" s="339"/>
-      <c r="P2" s="339"/>
-      <c r="Q2" s="339"/>
+      <c r="O2" s="354"/>
+      <c r="P2" s="354"/>
+      <c r="Q2" s="354"/>
     </row>
     <row r="3" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="161" t="s">
@@ -12834,18 +12915,18 @@
       <c r="E7" s="152" t="s">
         <v>143</v>
       </c>
-      <c r="F7" s="335" t="s">
+      <c r="F7" s="350" t="s">
         <v>148</v>
       </c>
-      <c r="G7" s="336"/>
-      <c r="H7" s="336"/>
-      <c r="I7" s="336"/>
-      <c r="J7" s="335" t="s">
+      <c r="G7" s="351"/>
+      <c r="H7" s="351"/>
+      <c r="I7" s="351"/>
+      <c r="J7" s="350" t="s">
         <v>148</v>
       </c>
-      <c r="K7" s="336"/>
-      <c r="L7" s="336"/>
-      <c r="M7" s="336"/>
+      <c r="K7" s="351"/>
+      <c r="L7" s="351"/>
+      <c r="M7" s="351"/>
       <c r="N7" s="199" t="s">
         <v>134</v>
       </c>
@@ -12875,18 +12956,18 @@
       <c r="E8" s="154" t="s">
         <v>145</v>
       </c>
-      <c r="F8" s="337" t="s">
+      <c r="F8" s="352" t="s">
         <v>149</v>
       </c>
-      <c r="G8" s="338"/>
-      <c r="H8" s="338"/>
-      <c r="I8" s="338"/>
-      <c r="J8" s="337" t="s">
+      <c r="G8" s="353"/>
+      <c r="H8" s="353"/>
+      <c r="I8" s="353"/>
+      <c r="J8" s="352" t="s">
         <v>149</v>
       </c>
-      <c r="K8" s="338"/>
-      <c r="L8" s="338"/>
-      <c r="M8" s="338"/>
+      <c r="K8" s="353"/>
+      <c r="L8" s="353"/>
+      <c r="M8" s="353"/>
       <c r="N8" s="202" t="s">
         <v>135</v>
       </c>
@@ -13601,11 +13682,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="N2:Q2"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:M1"/>
     <mergeCell ref="N1:P1"/>
@@ -13614,6 +13690,11 @@
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="N2:Q2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13646,45 +13727,45 @@
       <c r="A1" s="97" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="340">
+      <c r="B1" s="375">
         <f>2^128</f>
         <v>3.4028236692093846E+38</v>
       </c>
-      <c r="C1" s="340"/>
-      <c r="D1" s="340"/>
-      <c r="E1" s="340"/>
-      <c r="F1" s="340"/>
-      <c r="G1" s="340"/>
-      <c r="H1" s="340"/>
-      <c r="I1" s="340"/>
+      <c r="C1" s="375"/>
+      <c r="D1" s="375"/>
+      <c r="E1" s="375"/>
+      <c r="F1" s="375"/>
+      <c r="G1" s="375"/>
+      <c r="H1" s="375"/>
+      <c r="I1" s="375"/>
       <c r="J1" s="97" t="s">
         <v>240</v>
       </c>
-      <c r="K1" s="341" t="s">
+      <c r="K1" s="376" t="s">
         <v>229</v>
       </c>
-      <c r="L1" s="341"/>
-      <c r="M1" s="341"/>
-      <c r="N1" s="341"/>
+      <c r="L1" s="376"/>
+      <c r="M1" s="376"/>
+      <c r="N1" s="376"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="120" t="s">
         <v>177</v>
       </c>
-      <c r="B2" s="342" t="s">
+      <c r="B2" s="377" t="s">
         <v>173</v>
       </c>
-      <c r="C2" s="343"/>
-      <c r="D2" s="343"/>
+      <c r="C2" s="378"/>
+      <c r="D2" s="378"/>
       <c r="E2" s="98" t="s">
         <v>253</v>
       </c>
-      <c r="F2" s="343" t="s">
+      <c r="F2" s="378" t="s">
         <v>174</v>
       </c>
-      <c r="G2" s="343"/>
-      <c r="H2" s="343"/>
-      <c r="I2" s="344"/>
+      <c r="G2" s="378"/>
+      <c r="H2" s="378"/>
+      <c r="I2" s="379"/>
       <c r="J2" s="99" t="s">
         <v>175</v>
       </c>
@@ -13805,11 +13886,11 @@
       <c r="E5" s="118" t="s">
         <v>182</v>
       </c>
-      <c r="F5" s="345" t="s">
+      <c r="F5" s="380" t="s">
         <v>184</v>
       </c>
-      <c r="G5" s="345"/>
-      <c r="H5" s="345"/>
+      <c r="G5" s="380"/>
+      <c r="H5" s="380"/>
       <c r="I5" s="119">
         <v>1</v>
       </c>
@@ -13839,12 +13920,12 @@
       <c r="B7" s="103" t="s">
         <v>263</v>
       </c>
-      <c r="C7" s="352" t="s">
+      <c r="C7" s="372" t="s">
         <v>248</v>
       </c>
-      <c r="D7" s="352"/>
-      <c r="E7" s="352"/>
-      <c r="F7" s="353"/>
+      <c r="D7" s="372"/>
+      <c r="E7" s="372"/>
+      <c r="F7" s="373"/>
       <c r="G7" s="127" t="s">
         <v>261</v>
       </c>
@@ -13859,10 +13940,10 @@
       <c r="C8" s="123" t="s">
         <v>262</v>
       </c>
-      <c r="D8" s="354" t="s">
+      <c r="D8" s="374" t="s">
         <v>249</v>
       </c>
-      <c r="E8" s="354"/>
+      <c r="E8" s="374"/>
       <c r="F8" s="121" t="s">
         <v>250</v>
       </c>
@@ -13921,114 +14002,114 @@
       <c r="A12" s="130" t="s">
         <v>263</v>
       </c>
-      <c r="B12" s="349" t="s">
+      <c r="B12" s="369" t="s">
         <v>248</v>
       </c>
-      <c r="C12" s="350"/>
-      <c r="D12" s="351"/>
-      <c r="E12" s="349" t="s">
+      <c r="C12" s="370"/>
+      <c r="D12" s="371"/>
+      <c r="E12" s="369" t="s">
         <v>264</v>
       </c>
-      <c r="F12" s="350"/>
-      <c r="G12" s="351"/>
+      <c r="F12" s="370"/>
+      <c r="G12" s="371"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="128" t="s">
         <v>188</v>
       </c>
-      <c r="B13" s="346" t="s">
+      <c r="B13" s="360" t="s">
         <v>190</v>
       </c>
-      <c r="C13" s="347"/>
-      <c r="D13" s="348"/>
-      <c r="E13" s="347" t="s">
+      <c r="C13" s="361"/>
+      <c r="D13" s="362"/>
+      <c r="E13" s="361" t="s">
         <v>191</v>
       </c>
-      <c r="F13" s="347"/>
-      <c r="G13" s="348"/>
+      <c r="F13" s="361"/>
+      <c r="G13" s="362"/>
       <c r="H13" s="37"/>
       <c r="I13" s="37"/>
       <c r="J13" s="37"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="129"/>
-      <c r="B14" s="355"/>
-      <c r="C14" s="356"/>
-      <c r="D14" s="357"/>
-      <c r="E14" s="356"/>
-      <c r="F14" s="356"/>
-      <c r="G14" s="357"/>
+      <c r="B14" s="363"/>
+      <c r="C14" s="364"/>
+      <c r="D14" s="365"/>
+      <c r="E14" s="364"/>
+      <c r="F14" s="364"/>
+      <c r="G14" s="365"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="128"/>
-      <c r="B15" s="346"/>
-      <c r="C15" s="347"/>
-      <c r="D15" s="348"/>
-      <c r="E15" s="347"/>
-      <c r="F15" s="347"/>
-      <c r="G15" s="348"/>
+      <c r="B15" s="360"/>
+      <c r="C15" s="361"/>
+      <c r="D15" s="362"/>
+      <c r="E15" s="361"/>
+      <c r="F15" s="361"/>
+      <c r="G15" s="362"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="129"/>
-      <c r="B16" s="355"/>
-      <c r="C16" s="356"/>
-      <c r="D16" s="357"/>
-      <c r="E16" s="356"/>
-      <c r="F16" s="356"/>
-      <c r="G16" s="357"/>
+      <c r="B16" s="363"/>
+      <c r="C16" s="364"/>
+      <c r="D16" s="365"/>
+      <c r="E16" s="364"/>
+      <c r="F16" s="364"/>
+      <c r="G16" s="365"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="128"/>
-      <c r="B17" s="346"/>
-      <c r="C17" s="347"/>
-      <c r="D17" s="348"/>
-      <c r="E17" s="347"/>
-      <c r="F17" s="347"/>
-      <c r="G17" s="348"/>
+      <c r="B17" s="360"/>
+      <c r="C17" s="361"/>
+      <c r="D17" s="362"/>
+      <c r="E17" s="361"/>
+      <c r="F17" s="361"/>
+      <c r="G17" s="362"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="129"/>
-      <c r="B18" s="355"/>
-      <c r="C18" s="356"/>
-      <c r="D18" s="357"/>
-      <c r="E18" s="356"/>
-      <c r="F18" s="356"/>
-      <c r="G18" s="357"/>
+      <c r="B18" s="363"/>
+      <c r="C18" s="364"/>
+      <c r="D18" s="365"/>
+      <c r="E18" s="364"/>
+      <c r="F18" s="364"/>
+      <c r="G18" s="365"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="116"/>
-      <c r="B19" s="358"/>
-      <c r="C19" s="359"/>
-      <c r="D19" s="360"/>
-      <c r="E19" s="359"/>
-      <c r="F19" s="359"/>
-      <c r="G19" s="360"/>
+      <c r="B19" s="366"/>
+      <c r="C19" s="367"/>
+      <c r="D19" s="368"/>
+      <c r="E19" s="367"/>
+      <c r="F19" s="367"/>
+      <c r="G19" s="368"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="E17:G17"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="E18:G18"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="E19:G19"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="F5:H5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14046,7 +14127,7 @@
       <pane xSplit="6" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomRight" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14063,11 +14144,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="376" t="s">
+      <c r="A1" s="384" t="s">
         <v>320</v>
       </c>
-      <c r="B1" s="376"/>
-      <c r="C1" s="376"/>
+      <c r="B1" s="384"/>
+      <c r="C1" s="384"/>
       <c r="D1" s="226" t="s">
         <v>471</v>
       </c>
@@ -14095,11 +14176,11 @@
       <c r="P1" s="34"/>
     </row>
     <row r="2" spans="1:16" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="373" t="s">
+      <c r="A2" s="381" t="s">
         <v>470</v>
       </c>
-      <c r="B2" s="374"/>
-      <c r="C2" s="375"/>
+      <c r="B2" s="382"/>
+      <c r="C2" s="383"/>
       <c r="D2" s="230" t="s">
         <v>321</v>
       </c>
@@ -14112,7 +14193,7 @@
       <c r="G2" s="231" t="s">
         <v>111</v>
       </c>
-      <c r="H2" s="384">
+      <c r="H2" s="276">
         <v>20</v>
       </c>
       <c r="I2" s="231">
@@ -14183,21 +14264,21 @@
       <c r="F4" s="244" t="s">
         <v>326</v>
       </c>
-      <c r="G4" s="364" t="s">
+      <c r="G4" s="388" t="s">
         <v>108</v>
       </c>
-      <c r="H4" s="364">
+      <c r="H4" s="388">
         <v>3</v>
       </c>
-      <c r="I4" s="364">
+      <c r="I4" s="388">
         <f>IF(H4="","",IF(H4&lt;=2,1,IF(H4&lt;=4,2,IF(H4&lt;=8,3,IF(H4&lt;=16,4,IF(H4&lt;=32,5,IF(H4&lt;=64,6,IF(H4&lt;=128,7,8))))))))</f>
         <v>2</v>
       </c>
-      <c r="J4" s="364">
+      <c r="J4" s="388">
         <f>IF(G4="","",IF(G4="A",8+I4,IF(G4="B",16+I4,IF(G4="C",24+I4,"invalid"))))</f>
         <v>10</v>
       </c>
-      <c r="K4" s="367">
+      <c r="K4" s="385">
         <f>IF(J4="","",2^(32-J4))</f>
         <v>4194304</v>
       </c>
@@ -14221,11 +14302,11 @@
       <c r="F5" s="214" t="s">
         <v>326</v>
       </c>
-      <c r="G5" s="365"/>
-      <c r="H5" s="365"/>
-      <c r="I5" s="365"/>
-      <c r="J5" s="365"/>
-      <c r="K5" s="368"/>
+      <c r="G5" s="389"/>
+      <c r="H5" s="389"/>
+      <c r="I5" s="389"/>
+      <c r="J5" s="389"/>
+      <c r="K5" s="386"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="237" t="s">
@@ -14246,11 +14327,11 @@
       <c r="F6" s="212" t="s">
         <v>326</v>
       </c>
-      <c r="G6" s="365"/>
-      <c r="H6" s="365"/>
-      <c r="I6" s="365"/>
-      <c r="J6" s="365"/>
-      <c r="K6" s="368"/>
+      <c r="G6" s="389"/>
+      <c r="H6" s="389"/>
+      <c r="I6" s="389"/>
+      <c r="J6" s="389"/>
+      <c r="K6" s="386"/>
     </row>
     <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="239" t="s">
@@ -14271,11 +14352,11 @@
       <c r="F7" s="241" t="s">
         <v>326</v>
       </c>
-      <c r="G7" s="366"/>
-      <c r="H7" s="366"/>
-      <c r="I7" s="366"/>
-      <c r="J7" s="366"/>
-      <c r="K7" s="369"/>
+      <c r="G7" s="390"/>
+      <c r="H7" s="390"/>
+      <c r="I7" s="390"/>
+      <c r="J7" s="390"/>
+      <c r="K7" s="387"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="242" t="s">
@@ -14296,21 +14377,21 @@
       <c r="F8" s="244" t="s">
         <v>389</v>
       </c>
-      <c r="G8" s="361" t="s">
+      <c r="G8" s="391" t="s">
         <v>109</v>
       </c>
-      <c r="H8" s="361">
+      <c r="H8" s="391">
         <v>5</v>
       </c>
-      <c r="I8" s="361">
+      <c r="I8" s="391">
         <f t="shared" ref="I8:I44" si="0">IF(H8="","",IF(H8&lt;=2,1,IF(H8&lt;=4,2,IF(H8&lt;=8,3,IF(H8&lt;=16,4,IF(H8&lt;=32,5,IF(H8&lt;=64,6,IF(H8&lt;=128,7,8))))))))</f>
         <v>3</v>
       </c>
-      <c r="J8" s="361">
+      <c r="J8" s="391">
         <f t="shared" ref="J8:J20" si="1">IF(G8="","",IF(G8="A",8+I8,IF(G8="B",16+I8,IF(G8="C",24+I8,"invalid"))))</f>
         <v>19</v>
       </c>
-      <c r="K8" s="370">
+      <c r="K8" s="394">
         <f t="shared" ref="K8:K44" si="2">IF(J8="","",2^(32-J8))</f>
         <v>8192</v>
       </c>
@@ -14334,11 +14415,11 @@
       <c r="F9" s="214" t="s">
         <v>389</v>
       </c>
-      <c r="G9" s="362"/>
-      <c r="H9" s="362"/>
-      <c r="I9" s="362"/>
-      <c r="J9" s="362"/>
-      <c r="K9" s="371"/>
+      <c r="G9" s="392"/>
+      <c r="H9" s="392"/>
+      <c r="I9" s="392"/>
+      <c r="J9" s="392"/>
+      <c r="K9" s="395"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="237" t="s">
@@ -14359,11 +14440,11 @@
       <c r="F10" s="212" t="s">
         <v>389</v>
       </c>
-      <c r="G10" s="362"/>
-      <c r="H10" s="362"/>
-      <c r="I10" s="362"/>
-      <c r="J10" s="362"/>
-      <c r="K10" s="371"/>
+      <c r="G10" s="392"/>
+      <c r="H10" s="392"/>
+      <c r="I10" s="392"/>
+      <c r="J10" s="392"/>
+      <c r="K10" s="395"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="238" t="s">
@@ -14384,11 +14465,11 @@
       <c r="F11" s="216" t="s">
         <v>389</v>
       </c>
-      <c r="G11" s="362"/>
-      <c r="H11" s="362"/>
-      <c r="I11" s="362"/>
-      <c r="J11" s="362"/>
-      <c r="K11" s="371"/>
+      <c r="G11" s="392"/>
+      <c r="H11" s="392"/>
+      <c r="I11" s="392"/>
+      <c r="J11" s="392"/>
+      <c r="K11" s="395"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="237" t="s">
@@ -14409,11 +14490,11 @@
       <c r="F12" s="212" t="s">
         <v>389</v>
       </c>
-      <c r="G12" s="362"/>
-      <c r="H12" s="362"/>
-      <c r="I12" s="362"/>
-      <c r="J12" s="362"/>
-      <c r="K12" s="371"/>
+      <c r="G12" s="392"/>
+      <c r="H12" s="392"/>
+      <c r="I12" s="392"/>
+      <c r="J12" s="392"/>
+      <c r="K12" s="395"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="236" t="s">
@@ -14434,11 +14515,11 @@
       <c r="F13" s="214" t="s">
         <v>389</v>
       </c>
-      <c r="G13" s="362"/>
-      <c r="H13" s="362"/>
-      <c r="I13" s="362"/>
-      <c r="J13" s="362"/>
-      <c r="K13" s="371"/>
+      <c r="G13" s="392"/>
+      <c r="H13" s="392"/>
+      <c r="I13" s="392"/>
+      <c r="J13" s="392"/>
+      <c r="K13" s="395"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="237" t="s">
@@ -14459,11 +14540,11 @@
       <c r="F14" s="212" t="s">
         <v>389</v>
       </c>
-      <c r="G14" s="362"/>
-      <c r="H14" s="362"/>
-      <c r="I14" s="362"/>
-      <c r="J14" s="362"/>
-      <c r="K14" s="371"/>
+      <c r="G14" s="392"/>
+      <c r="H14" s="392"/>
+      <c r="I14" s="392"/>
+      <c r="J14" s="392"/>
+      <c r="K14" s="395"/>
     </row>
     <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="239" t="s">
@@ -14484,11 +14565,11 @@
       <c r="F15" s="241" t="s">
         <v>389</v>
       </c>
-      <c r="G15" s="363"/>
-      <c r="H15" s="363"/>
-      <c r="I15" s="363"/>
-      <c r="J15" s="363"/>
-      <c r="K15" s="372"/>
+      <c r="G15" s="393"/>
+      <c r="H15" s="393"/>
+      <c r="I15" s="393"/>
+      <c r="J15" s="393"/>
+      <c r="K15" s="396"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="242" t="s">
@@ -14509,21 +14590,21 @@
       <c r="F16" s="245">
         <v>255255255192</v>
       </c>
-      <c r="G16" s="364" t="s">
+      <c r="G16" s="388" t="s">
         <v>111</v>
       </c>
-      <c r="H16" s="364">
+      <c r="H16" s="388">
         <v>4</v>
       </c>
-      <c r="I16" s="364">
+      <c r="I16" s="388">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J16" s="364">
+      <c r="J16" s="388">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="K16" s="367">
+      <c r="K16" s="385">
         <f t="shared" si="2"/>
         <v>64</v>
       </c>
@@ -14547,11 +14628,11 @@
       <c r="F17" s="225">
         <v>255255255192</v>
       </c>
-      <c r="G17" s="365"/>
-      <c r="H17" s="365"/>
-      <c r="I17" s="365"/>
-      <c r="J17" s="365"/>
-      <c r="K17" s="368"/>
+      <c r="G17" s="389"/>
+      <c r="H17" s="389"/>
+      <c r="I17" s="389"/>
+      <c r="J17" s="389"/>
+      <c r="K17" s="386"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="237" t="s">
@@ -14572,11 +14653,11 @@
       <c r="F18" s="224">
         <v>255255255192</v>
       </c>
-      <c r="G18" s="365"/>
-      <c r="H18" s="365"/>
-      <c r="I18" s="365"/>
-      <c r="J18" s="365"/>
-      <c r="K18" s="368"/>
+      <c r="G18" s="389"/>
+      <c r="H18" s="389"/>
+      <c r="I18" s="389"/>
+      <c r="J18" s="389"/>
+      <c r="K18" s="386"/>
     </row>
     <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="239" t="s">
@@ -14597,11 +14678,11 @@
       <c r="F19" s="246">
         <v>255255255192</v>
       </c>
-      <c r="G19" s="366"/>
-      <c r="H19" s="366"/>
-      <c r="I19" s="366"/>
-      <c r="J19" s="366"/>
-      <c r="K19" s="369"/>
+      <c r="G19" s="390"/>
+      <c r="H19" s="390"/>
+      <c r="I19" s="390"/>
+      <c r="J19" s="390"/>
+      <c r="K19" s="387"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="242" t="s">
@@ -14622,21 +14703,21 @@
       <c r="F20" s="244" t="s">
         <v>440</v>
       </c>
-      <c r="G20" s="361" t="s">
+      <c r="G20" s="391" t="s">
         <v>108</v>
       </c>
-      <c r="H20" s="361">
+      <c r="H20" s="391">
         <v>20</v>
       </c>
-      <c r="I20" s="361">
+      <c r="I20" s="391">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J20" s="361">
+      <c r="J20" s="391">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="K20" s="370">
+      <c r="K20" s="394">
         <f t="shared" si="2"/>
         <v>524288</v>
       </c>
@@ -14660,11 +14741,11 @@
       <c r="F21" s="214" t="s">
         <v>440</v>
       </c>
-      <c r="G21" s="362"/>
-      <c r="H21" s="362"/>
-      <c r="I21" s="362"/>
-      <c r="J21" s="362"/>
-      <c r="K21" s="371"/>
+      <c r="G21" s="392"/>
+      <c r="H21" s="392"/>
+      <c r="I21" s="392"/>
+      <c r="J21" s="392"/>
+      <c r="K21" s="395"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="237" t="s">
@@ -14685,11 +14766,11 @@
       <c r="F22" s="212" t="s">
         <v>440</v>
       </c>
-      <c r="G22" s="362"/>
-      <c r="H22" s="362"/>
-      <c r="I22" s="362"/>
-      <c r="J22" s="362"/>
-      <c r="K22" s="371"/>
+      <c r="G22" s="392"/>
+      <c r="H22" s="392"/>
+      <c r="I22" s="392"/>
+      <c r="J22" s="392"/>
+      <c r="K22" s="395"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="238" t="s">
@@ -14710,11 +14791,11 @@
       <c r="F23" s="216" t="s">
         <v>440</v>
       </c>
-      <c r="G23" s="362"/>
-      <c r="H23" s="362"/>
-      <c r="I23" s="362"/>
-      <c r="J23" s="362"/>
-      <c r="K23" s="371"/>
+      <c r="G23" s="392"/>
+      <c r="H23" s="392"/>
+      <c r="I23" s="392"/>
+      <c r="J23" s="392"/>
+      <c r="K23" s="395"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="237" t="s">
@@ -14735,11 +14816,11 @@
       <c r="F24" s="212" t="s">
         <v>440</v>
       </c>
-      <c r="G24" s="362"/>
-      <c r="H24" s="362"/>
-      <c r="I24" s="362"/>
-      <c r="J24" s="362"/>
-      <c r="K24" s="371"/>
+      <c r="G24" s="392"/>
+      <c r="H24" s="392"/>
+      <c r="I24" s="392"/>
+      <c r="J24" s="392"/>
+      <c r="K24" s="395"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="236" t="s">
@@ -14760,11 +14841,11 @@
       <c r="F25" s="214" t="s">
         <v>440</v>
       </c>
-      <c r="G25" s="362"/>
-      <c r="H25" s="362"/>
-      <c r="I25" s="362"/>
-      <c r="J25" s="362"/>
-      <c r="K25" s="371"/>
+      <c r="G25" s="392"/>
+      <c r="H25" s="392"/>
+      <c r="I25" s="392"/>
+      <c r="J25" s="392"/>
+      <c r="K25" s="395"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="237" t="s">
@@ -14785,11 +14866,11 @@
       <c r="F26" s="212" t="s">
         <v>440</v>
       </c>
-      <c r="G26" s="362"/>
-      <c r="H26" s="362"/>
-      <c r="I26" s="362"/>
-      <c r="J26" s="362"/>
-      <c r="K26" s="371"/>
+      <c r="G26" s="392"/>
+      <c r="H26" s="392"/>
+      <c r="I26" s="392"/>
+      <c r="J26" s="392"/>
+      <c r="K26" s="395"/>
     </row>
     <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="239" t="s">
@@ -14810,11 +14891,11 @@
       <c r="F27" s="241" t="s">
         <v>440</v>
       </c>
-      <c r="G27" s="363"/>
-      <c r="H27" s="363"/>
-      <c r="I27" s="363"/>
-      <c r="J27" s="363"/>
-      <c r="K27" s="372"/>
+      <c r="G27" s="393"/>
+      <c r="H27" s="393"/>
+      <c r="I27" s="393"/>
+      <c r="J27" s="393"/>
+      <c r="K27" s="396"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="242" t="s">
@@ -14835,21 +14916,21 @@
       <c r="F28" s="244" t="s">
         <v>440</v>
       </c>
-      <c r="G28" s="364" t="s">
+      <c r="G28" s="388" t="s">
         <v>108</v>
       </c>
-      <c r="H28" s="364">
+      <c r="H28" s="388">
         <v>20</v>
       </c>
-      <c r="I28" s="364">
+      <c r="I28" s="388">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J28" s="364">
+      <c r="J28" s="388">
         <f t="shared" ref="J28" si="3">IF(G28="","",IF(G28="A",8+I28,IF(G28="B",16+I28,IF(G28="C",24+I28,"invalid"))))</f>
         <v>13</v>
       </c>
-      <c r="K28" s="367">
+      <c r="K28" s="385">
         <f t="shared" si="2"/>
         <v>524288</v>
       </c>
@@ -14873,11 +14954,11 @@
       <c r="F29" s="214" t="s">
         <v>440</v>
       </c>
-      <c r="G29" s="365"/>
-      <c r="H29" s="365"/>
-      <c r="I29" s="365"/>
-      <c r="J29" s="365"/>
-      <c r="K29" s="368"/>
+      <c r="G29" s="389"/>
+      <c r="H29" s="389"/>
+      <c r="I29" s="389"/>
+      <c r="J29" s="389"/>
+      <c r="K29" s="386"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="237" t="s">
@@ -14898,11 +14979,11 @@
       <c r="F30" s="212" t="s">
         <v>440</v>
       </c>
-      <c r="G30" s="365"/>
-      <c r="H30" s="365"/>
-      <c r="I30" s="365"/>
-      <c r="J30" s="365"/>
-      <c r="K30" s="368"/>
+      <c r="G30" s="389"/>
+      <c r="H30" s="389"/>
+      <c r="I30" s="389"/>
+      <c r="J30" s="389"/>
+      <c r="K30" s="386"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="238" t="s">
@@ -14923,11 +15004,11 @@
       <c r="F31" s="216" t="s">
         <v>440</v>
       </c>
-      <c r="G31" s="365"/>
-      <c r="H31" s="365"/>
-      <c r="I31" s="365"/>
-      <c r="J31" s="365"/>
-      <c r="K31" s="368"/>
+      <c r="G31" s="389"/>
+      <c r="H31" s="389"/>
+      <c r="I31" s="389"/>
+      <c r="J31" s="389"/>
+      <c r="K31" s="386"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="237" t="s">
@@ -14948,11 +15029,11 @@
       <c r="F32" s="212" t="s">
         <v>440</v>
       </c>
-      <c r="G32" s="365"/>
-      <c r="H32" s="365"/>
-      <c r="I32" s="365"/>
-      <c r="J32" s="365"/>
-      <c r="K32" s="368"/>
+      <c r="G32" s="389"/>
+      <c r="H32" s="389"/>
+      <c r="I32" s="389"/>
+      <c r="J32" s="389"/>
+      <c r="K32" s="386"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="236" t="s">
@@ -14973,11 +15054,11 @@
       <c r="F33" s="214" t="s">
         <v>440</v>
       </c>
-      <c r="G33" s="365"/>
-      <c r="H33" s="365"/>
-      <c r="I33" s="365"/>
-      <c r="J33" s="365"/>
-      <c r="K33" s="368"/>
+      <c r="G33" s="389"/>
+      <c r="H33" s="389"/>
+      <c r="I33" s="389"/>
+      <c r="J33" s="389"/>
+      <c r="K33" s="386"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="237" t="s">
@@ -14998,11 +15079,11 @@
       <c r="F34" s="212" t="s">
         <v>440</v>
       </c>
-      <c r="G34" s="365"/>
-      <c r="H34" s="365"/>
-      <c r="I34" s="365"/>
-      <c r="J34" s="365"/>
-      <c r="K34" s="368"/>
+      <c r="G34" s="389"/>
+      <c r="H34" s="389"/>
+      <c r="I34" s="389"/>
+      <c r="J34" s="389"/>
+      <c r="K34" s="386"/>
     </row>
     <row r="35" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="239" t="s">
@@ -15023,11 +15104,11 @@
       <c r="F35" s="241" t="s">
         <v>440</v>
       </c>
-      <c r="G35" s="366"/>
-      <c r="H35" s="366"/>
-      <c r="I35" s="366"/>
-      <c r="J35" s="366"/>
-      <c r="K35" s="369"/>
+      <c r="G35" s="390"/>
+      <c r="H35" s="390"/>
+      <c r="I35" s="390"/>
+      <c r="J35" s="390"/>
+      <c r="K35" s="387"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="242" t="s">
@@ -15048,21 +15129,21 @@
       <c r="F36" s="244" t="s">
         <v>440</v>
       </c>
-      <c r="G36" s="361" t="s">
+      <c r="G36" s="391" t="s">
         <v>108</v>
       </c>
-      <c r="H36" s="361">
+      <c r="H36" s="391">
         <v>20</v>
       </c>
-      <c r="I36" s="361">
+      <c r="I36" s="391">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J36" s="361">
+      <c r="J36" s="391">
         <f t="shared" ref="J36" si="4">IF(G36="","",IF(G36="A",8+I36,IF(G36="B",16+I36,IF(G36="C",24+I36,"invalid"))))</f>
         <v>13</v>
       </c>
-      <c r="K36" s="370">
+      <c r="K36" s="394">
         <f t="shared" si="2"/>
         <v>524288</v>
       </c>
@@ -15086,11 +15167,11 @@
       <c r="F37" s="214" t="s">
         <v>440</v>
       </c>
-      <c r="G37" s="362"/>
-      <c r="H37" s="362"/>
-      <c r="I37" s="362"/>
-      <c r="J37" s="362"/>
-      <c r="K37" s="371"/>
+      <c r="G37" s="392"/>
+      <c r="H37" s="392"/>
+      <c r="I37" s="392"/>
+      <c r="J37" s="392"/>
+      <c r="K37" s="395"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="237" t="s">
@@ -15111,11 +15192,11 @@
       <c r="F38" s="212" t="s">
         <v>440</v>
       </c>
-      <c r="G38" s="362"/>
-      <c r="H38" s="362"/>
-      <c r="I38" s="362"/>
-      <c r="J38" s="362"/>
-      <c r="K38" s="371"/>
+      <c r="G38" s="392"/>
+      <c r="H38" s="392"/>
+      <c r="I38" s="392"/>
+      <c r="J38" s="392"/>
+      <c r="K38" s="395"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="238" t="s">
@@ -15136,11 +15217,11 @@
       <c r="F39" s="216" t="s">
         <v>440</v>
       </c>
-      <c r="G39" s="362"/>
-      <c r="H39" s="362"/>
-      <c r="I39" s="362"/>
-      <c r="J39" s="362"/>
-      <c r="K39" s="371"/>
+      <c r="G39" s="392"/>
+      <c r="H39" s="392"/>
+      <c r="I39" s="392"/>
+      <c r="J39" s="392"/>
+      <c r="K39" s="395"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="237" t="s">
@@ -15161,11 +15242,11 @@
       <c r="F40" s="212" t="s">
         <v>440</v>
       </c>
-      <c r="G40" s="362"/>
-      <c r="H40" s="362"/>
-      <c r="I40" s="362"/>
-      <c r="J40" s="362"/>
-      <c r="K40" s="371"/>
+      <c r="G40" s="392"/>
+      <c r="H40" s="392"/>
+      <c r="I40" s="392"/>
+      <c r="J40" s="392"/>
+      <c r="K40" s="395"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="236" t="s">
@@ -15186,11 +15267,11 @@
       <c r="F41" s="214" t="s">
         <v>440</v>
       </c>
-      <c r="G41" s="362"/>
-      <c r="H41" s="362"/>
-      <c r="I41" s="362"/>
-      <c r="J41" s="362"/>
-      <c r="K41" s="371"/>
+      <c r="G41" s="392"/>
+      <c r="H41" s="392"/>
+      <c r="I41" s="392"/>
+      <c r="J41" s="392"/>
+      <c r="K41" s="395"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="237" t="s">
@@ -15211,11 +15292,11 @@
       <c r="F42" s="212" t="s">
         <v>440</v>
       </c>
-      <c r="G42" s="362"/>
-      <c r="H42" s="362"/>
-      <c r="I42" s="362"/>
-      <c r="J42" s="362"/>
-      <c r="K42" s="371"/>
+      <c r="G42" s="392"/>
+      <c r="H42" s="392"/>
+      <c r="I42" s="392"/>
+      <c r="J42" s="392"/>
+      <c r="K42" s="395"/>
     </row>
     <row r="43" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="239" t="s">
@@ -15236,11 +15317,11 @@
       <c r="F43" s="241" t="s">
         <v>440</v>
       </c>
-      <c r="G43" s="363"/>
-      <c r="H43" s="363"/>
-      <c r="I43" s="363"/>
-      <c r="J43" s="363"/>
-      <c r="K43" s="372"/>
+      <c r="G43" s="393"/>
+      <c r="H43" s="393"/>
+      <c r="I43" s="393"/>
+      <c r="J43" s="393"/>
+      <c r="K43" s="396"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="242" t="s">
@@ -15261,21 +15342,21 @@
       <c r="F44" s="244" t="s">
         <v>440</v>
       </c>
-      <c r="G44" s="364" t="s">
+      <c r="G44" s="388" t="s">
         <v>108</v>
       </c>
-      <c r="H44" s="364">
+      <c r="H44" s="388">
         <v>20</v>
       </c>
-      <c r="I44" s="364">
+      <c r="I44" s="388">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J44" s="364">
+      <c r="J44" s="388">
         <f t="shared" ref="J44" si="5">IF(G44="","",IF(G44="A",8+I44,IF(G44="B",16+I44,IF(G44="C",24+I44,"invalid"))))</f>
         <v>13</v>
       </c>
-      <c r="K44" s="367">
+      <c r="K44" s="385">
         <f t="shared" si="2"/>
         <v>524288</v>
       </c>
@@ -15299,11 +15380,11 @@
       <c r="F45" s="214" t="s">
         <v>440</v>
       </c>
-      <c r="G45" s="365"/>
-      <c r="H45" s="365"/>
-      <c r="I45" s="365"/>
-      <c r="J45" s="365"/>
-      <c r="K45" s="368"/>
+      <c r="G45" s="389"/>
+      <c r="H45" s="389"/>
+      <c r="I45" s="389"/>
+      <c r="J45" s="389"/>
+      <c r="K45" s="386"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="237" t="s">
@@ -15324,11 +15405,11 @@
       <c r="F46" s="212" t="s">
         <v>440</v>
       </c>
-      <c r="G46" s="365"/>
-      <c r="H46" s="365"/>
-      <c r="I46" s="365"/>
-      <c r="J46" s="365"/>
-      <c r="K46" s="368"/>
+      <c r="G46" s="389"/>
+      <c r="H46" s="389"/>
+      <c r="I46" s="389"/>
+      <c r="J46" s="389"/>
+      <c r="K46" s="386"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="238" t="s">
@@ -15349,11 +15430,11 @@
       <c r="F47" s="216" t="s">
         <v>440</v>
       </c>
-      <c r="G47" s="365"/>
-      <c r="H47" s="365"/>
-      <c r="I47" s="365"/>
-      <c r="J47" s="365"/>
-      <c r="K47" s="368"/>
+      <c r="G47" s="389"/>
+      <c r="H47" s="389"/>
+      <c r="I47" s="389"/>
+      <c r="J47" s="389"/>
+      <c r="K47" s="386"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="237" t="s">
@@ -15374,11 +15455,11 @@
       <c r="F48" s="212" t="s">
         <v>440</v>
       </c>
-      <c r="G48" s="365"/>
-      <c r="H48" s="365"/>
-      <c r="I48" s="365"/>
-      <c r="J48" s="365"/>
-      <c r="K48" s="368"/>
+      <c r="G48" s="389"/>
+      <c r="H48" s="389"/>
+      <c r="I48" s="389"/>
+      <c r="J48" s="389"/>
+      <c r="K48" s="386"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="236" t="s">
@@ -15399,11 +15480,11 @@
       <c r="F49" s="214" t="s">
         <v>440</v>
       </c>
-      <c r="G49" s="365"/>
-      <c r="H49" s="365"/>
-      <c r="I49" s="365"/>
-      <c r="J49" s="365"/>
-      <c r="K49" s="368"/>
+      <c r="G49" s="389"/>
+      <c r="H49" s="389"/>
+      <c r="I49" s="389"/>
+      <c r="J49" s="389"/>
+      <c r="K49" s="386"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="237" t="s">
@@ -15424,11 +15505,11 @@
       <c r="F50" s="212" t="s">
         <v>440</v>
       </c>
-      <c r="G50" s="365"/>
-      <c r="H50" s="365"/>
-      <c r="I50" s="365"/>
-      <c r="J50" s="365"/>
-      <c r="K50" s="368"/>
+      <c r="G50" s="389"/>
+      <c r="H50" s="389"/>
+      <c r="I50" s="389"/>
+      <c r="J50" s="389"/>
+      <c r="K50" s="386"/>
     </row>
     <row r="51" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="239" t="s">
@@ -15449,11 +15530,11 @@
       <c r="F51" s="241" t="s">
         <v>440</v>
       </c>
-      <c r="G51" s="366"/>
-      <c r="H51" s="366"/>
-      <c r="I51" s="366"/>
-      <c r="J51" s="366"/>
-      <c r="K51" s="369"/>
+      <c r="G51" s="390"/>
+      <c r="H51" s="390"/>
+      <c r="I51" s="390"/>
+      <c r="J51" s="390"/>
+      <c r="K51" s="387"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G52" s="229"/>
@@ -15463,13 +15544,27 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="K4:K7"/>
-    <mergeCell ref="J4:J7"/>
-    <mergeCell ref="I4:I7"/>
-    <mergeCell ref="H4:H7"/>
-    <mergeCell ref="G4:G7"/>
+    <mergeCell ref="H36:H43"/>
+    <mergeCell ref="H44:H51"/>
+    <mergeCell ref="I44:I51"/>
+    <mergeCell ref="J44:J51"/>
+    <mergeCell ref="K44:K51"/>
+    <mergeCell ref="K36:K43"/>
+    <mergeCell ref="J36:J43"/>
+    <mergeCell ref="I36:I43"/>
+    <mergeCell ref="H20:H27"/>
+    <mergeCell ref="I20:I27"/>
+    <mergeCell ref="J20:J27"/>
+    <mergeCell ref="K20:K27"/>
+    <mergeCell ref="H28:H35"/>
+    <mergeCell ref="I28:I35"/>
+    <mergeCell ref="J28:J35"/>
+    <mergeCell ref="K28:K35"/>
+    <mergeCell ref="G20:G27"/>
+    <mergeCell ref="G28:G35"/>
+    <mergeCell ref="G36:G43"/>
+    <mergeCell ref="G44:G51"/>
+    <mergeCell ref="G16:G19"/>
     <mergeCell ref="H16:H19"/>
     <mergeCell ref="I16:I19"/>
     <mergeCell ref="J16:J19"/>
@@ -15479,27 +15574,13 @@
     <mergeCell ref="I8:I15"/>
     <mergeCell ref="J8:J15"/>
     <mergeCell ref="K8:K15"/>
-    <mergeCell ref="G20:G27"/>
-    <mergeCell ref="G28:G35"/>
-    <mergeCell ref="G36:G43"/>
-    <mergeCell ref="G44:G51"/>
-    <mergeCell ref="G16:G19"/>
-    <mergeCell ref="H20:H27"/>
-    <mergeCell ref="I20:I27"/>
-    <mergeCell ref="J20:J27"/>
-    <mergeCell ref="K20:K27"/>
-    <mergeCell ref="H28:H35"/>
-    <mergeCell ref="I28:I35"/>
-    <mergeCell ref="J28:J35"/>
-    <mergeCell ref="K28:K35"/>
-    <mergeCell ref="H36:H43"/>
-    <mergeCell ref="H44:H51"/>
-    <mergeCell ref="I44:I51"/>
-    <mergeCell ref="J44:J51"/>
-    <mergeCell ref="K44:K51"/>
-    <mergeCell ref="K36:K43"/>
-    <mergeCell ref="J36:J43"/>
-    <mergeCell ref="I36:I43"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="K4:K7"/>
+    <mergeCell ref="J4:J7"/>
+    <mergeCell ref="I4:I7"/>
+    <mergeCell ref="H4:H7"/>
+    <mergeCell ref="G4:G7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15514,12 +15595,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{963295A7-C08D-4985-AE26-C42B99DF00BB}">
   <dimension ref="A1:AC20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="6" ySplit="3" topLeftCell="M4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
-      <selection pane="bottomRight" activeCell="R9" sqref="G9:R13"/>
+      <selection pane="bottomRight" activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15548,11 +15629,11 @@
       <c r="A1" t="s">
         <v>392</v>
       </c>
-      <c r="G1" s="376" t="s">
+      <c r="G1" s="384" t="s">
         <v>574</v>
       </c>
-      <c r="H1" s="376"/>
-      <c r="I1" s="376"/>
+      <c r="H1" s="384"/>
+      <c r="I1" s="384"/>
       <c r="J1" s="226" t="s">
         <v>471</v>
       </c>
@@ -15582,17 +15663,17 @@
       </c>
     </row>
     <row r="2" spans="1:29" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="383"/>
-      <c r="B2" s="383"/>
-      <c r="C2" s="383"/>
-      <c r="D2" s="383"/>
-      <c r="E2" s="383"/>
-      <c r="F2" s="383"/>
-      <c r="G2" s="373" t="s">
+      <c r="A2" s="403"/>
+      <c r="B2" s="403"/>
+      <c r="C2" s="403"/>
+      <c r="D2" s="403"/>
+      <c r="E2" s="403"/>
+      <c r="F2" s="403"/>
+      <c r="G2" s="381" t="s">
         <v>575</v>
       </c>
-      <c r="H2" s="374"/>
-      <c r="I2" s="375"/>
+      <c r="H2" s="382"/>
+      <c r="I2" s="383"/>
       <c r="J2" s="230" t="s">
         <v>445</v>
       </c>
@@ -15609,7 +15690,7 @@
         <v>20</v>
       </c>
       <c r="O2" s="231">
-        <f>IF(N2="","",IF(N2&lt;2-2,1,IF(N2&lt;=4-2,2,IF(N2&lt;=8-2,3,IF(N2&lt;=16-2,4,IF(N2&lt;=32-2,5,IF(N2&lt;=64-2,6,IF(N2&lt;=128-2,7,IF(N2&lt;=256-2,8,9)))))))))</f>
+        <f>IF(N2="","",IF(N2&lt;2-2,1,IF(N2&lt;=4-2,2,IF(N2&lt;=8-2,3,IF(N2&lt;=16-2,4,IF(N2&lt;=32-2,5,IF(N2&lt;=64-2,6,IF(N2&lt;=128-2,7,IF(N2&lt;=256-2,8,IF(N2&lt;=512-2,9,IF(N2&lt;=1024-2,10,IF(N2&lt;=2048-2,11.12))))))))))))</f>
         <v>5</v>
       </c>
       <c r="P2" s="231">
@@ -15729,7 +15810,7 @@
         <f>IF(O4="","",32-O4)</f>
         <v>25</v>
       </c>
-      <c r="R4" s="380" t="s">
+      <c r="R4" s="400" t="s">
         <v>612</v>
       </c>
     </row>
@@ -15782,7 +15863,7 @@
         <f t="shared" ref="Q5:Q8" si="2">IF(O5="","",32-O5)</f>
         <v>26</v>
       </c>
-      <c r="R5" s="381"/>
+      <c r="R5" s="401"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -15833,7 +15914,7 @@
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="R6" s="381"/>
+      <c r="R6" s="401"/>
       <c r="AC6" s="33"/>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
@@ -15885,7 +15966,7 @@
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="R7" s="381"/>
+      <c r="R7" s="401"/>
       <c r="AC7" s="33"/>
     </row>
     <row r="8" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15937,7 +16018,7 @@
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="R8" s="382"/>
+      <c r="R8" s="402"/>
       <c r="AC8" s="33"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
@@ -15980,7 +16061,7 @@
         <f>IF(O9="","",32-O9)</f>
         <v>25</v>
       </c>
-      <c r="R9" s="377" t="s">
+      <c r="R9" s="397" t="s">
         <v>613</v>
       </c>
       <c r="AC9" s="33"/>
@@ -16022,7 +16103,7 @@
         <f>IF(O10="","",32-O10)</f>
         <v>26</v>
       </c>
-      <c r="R10" s="378"/>
+      <c r="R10" s="398"/>
       <c r="AC10" s="33"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
@@ -16080,7 +16161,7 @@
         <f>IF(O11="","",32-O11)</f>
         <v>27</v>
       </c>
-      <c r="R11" s="378"/>
+      <c r="R11" s="398"/>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -16137,7 +16218,7 @@
         <f>IF(O12="","",32-O12)</f>
         <v>29</v>
       </c>
-      <c r="R12" s="378"/>
+      <c r="R12" s="398"/>
     </row>
     <row r="13" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -16194,7 +16275,7 @@
         <f>IF(O13="","",32-O13)</f>
         <v>26</v>
       </c>
-      <c r="R13" s="379"/>
+      <c r="R13" s="399"/>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -16268,4 +16349,77 @@
     <ignoredError sqref="L4:L8 G4:G13 L11:L13 L9:L10" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCF9BCDD-FD43-410A-9645-E36DC57C747A}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="6.28515625" style="222" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="404" t="s">
+        <v>646</v>
+      </c>
+      <c r="B1" s="275" t="s">
+        <v>647</v>
+      </c>
+      <c r="C1" s="275" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="405" t="s">
+        <v>644</v>
+      </c>
+      <c r="B2" s="406">
+        <v>0</v>
+      </c>
+      <c r="C2" s="406">
+        <v>1023</v>
+      </c>
+      <c r="D2" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="407" t="s">
+        <v>643</v>
+      </c>
+      <c r="B3" s="408">
+        <v>1024</v>
+      </c>
+      <c r="C3" s="408">
+        <v>49151</v>
+      </c>
+      <c r="D3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="409" t="s">
+        <v>645</v>
+      </c>
+      <c r="B4" s="410">
+        <v>49152</v>
+      </c>
+      <c r="C4" s="410">
+        <v>65535</v>
+      </c>
+      <c r="D4" t="s">
+        <v>650</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/docs/protocol-suite.xlsx
+++ b/docs/protocol-suite.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\redes\saves\ccna-lx19\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D06783-A92B-4722-BE09-A1E23C931976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79F895D3-C35C-42F7-A197-48A7C61BFAA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="8" xr2:uid="{3415D364-6D1D-489F-8C8D-BD784F513C31}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="683">
   <si>
     <t xml:space="preserve">TCP/IP </t>
   </si>
@@ -7663,10 +7663,106 @@
     <t>reservados por la IANA</t>
   </si>
   <si>
-    <t>reservados para aplicaciones concretas</t>
-  </si>
-  <si>
     <t>puedes usarlos libremente</t>
+  </si>
+  <si>
+    <t>orientado a la conexión</t>
+  </si>
+  <si>
+    <t>sin conexión</t>
+  </si>
+  <si>
+    <t>reenvia datos perdidos</t>
+  </si>
+  <si>
+    <t>baja sobrecarga</t>
+  </si>
+  <si>
+    <t>tipo</t>
+  </si>
+  <si>
+    <t>aplicación</t>
+  </si>
+  <si>
+    <t>TCP</t>
+  </si>
+  <si>
+    <t>UDP</t>
+  </si>
+  <si>
+    <t>Protocolo</t>
+  </si>
+  <si>
+    <t>recepcion</t>
+  </si>
+  <si>
+    <t>acuses de recibo (ACK)</t>
+  </si>
+  <si>
+    <t>no reenvia datos (corrupto)</t>
+  </si>
+  <si>
+    <t>Puertos</t>
+  </si>
+  <si>
+    <t>Implementacion</t>
+  </si>
+  <si>
+    <t>reservados para aplicaciones</t>
+  </si>
+  <si>
+    <t>protocolos</t>
+  </si>
+  <si>
+    <t>Segmento</t>
+  </si>
+  <si>
+    <t>Datagrama</t>
+  </si>
+  <si>
+    <t>unidad</t>
+  </si>
+  <si>
+    <t>20 bytes</t>
+  </si>
+  <si>
+    <t>8 bytes</t>
+  </si>
+  <si>
+    <t>sentido</t>
+  </si>
+  <si>
+    <t>cabecera</t>
+  </si>
+  <si>
+    <t>confiable (lento)</t>
+  </si>
+  <si>
+    <t>rapido (no fidedigno)</t>
+  </si>
+  <si>
+    <t>significado</t>
+  </si>
+  <si>
+    <t>Transport Control Protocol</t>
+  </si>
+  <si>
+    <t>User Datagram Protocol</t>
+  </si>
+  <si>
+    <t>verificacion</t>
+  </si>
+  <si>
+    <t>Entrega en el orden enviado</t>
+  </si>
+  <si>
+    <t>Entrega en el orden recibido</t>
+  </si>
+  <si>
+    <t>http, ftp, pop, imap, smtp</t>
+  </si>
+  <si>
+    <t>dhcp, dns, snmp, tftp</t>
   </si>
 </sst>
 </file>
@@ -9130,7 +9226,7 @@
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="411">
+  <cellXfs count="417">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -9884,229 +9980,220 @@
     <xf numFmtId="49" fontId="0" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="10" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="65" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="65" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="65" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="67" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="68" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="62" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="63" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="52" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="53" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="54" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="56" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="52" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="53" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="10" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="65" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="65" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="65" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="67" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="68" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="62" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="63" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="15" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="52" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="53" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="54" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="56" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="52" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="53" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -10124,19 +10211,22 @@
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="15" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="15" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="28" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="24" borderId="54" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10148,6 +10238,24 @@
     <xf numFmtId="49" fontId="0" fillId="24" borderId="55" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="59" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="60" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="28" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -10166,41 +10274,41 @@
     <xf numFmtId="49" fontId="0" fillId="24" borderId="57" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="59" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="60" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="28" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="15" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="28" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="10" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -10214,42 +10322,6 @@
     <xf numFmtId="49" fontId="3" fillId="9" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -10271,18 +10343,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -10845,7 +10967,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="D2" sqref="D2:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10871,100 +10993,100 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="279" t="s">
+      <c r="A2" s="278" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="295" t="s">
+      <c r="B2" s="396" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="290" t="s">
+      <c r="C2" s="285" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="298" t="s">
+      <c r="D2" s="290" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="280" t="s">
+      <c r="A3" s="279" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="296"/>
-      <c r="C3" s="291"/>
-      <c r="D3" s="298"/>
+      <c r="B3" s="397"/>
+      <c r="C3" s="286"/>
+      <c r="D3" s="290"/>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="281" t="s">
+      <c r="A4" s="280" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="297"/>
-      <c r="C4" s="292"/>
-      <c r="D4" s="298"/>
+      <c r="B4" s="398"/>
+      <c r="C4" s="287"/>
+      <c r="D4" s="290"/>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="282" t="s">
+      <c r="A5" s="281" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="286" t="s">
+      <c r="B5" s="399" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="277" t="s">
+      <c r="D5" s="276" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="283" t="s">
+      <c r="A6" s="282" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="287" t="s">
+      <c r="B6" s="400" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="277" t="s">
+      <c r="D6" s="276" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="284" t="s">
+      <c r="A7" s="283" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="288" t="s">
+      <c r="B7" s="401" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="293" t="s">
+      <c r="C7" s="288" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="277" t="s">
+      <c r="D7" s="276" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="285" t="s">
+      <c r="A8" s="284" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="289" t="s">
+      <c r="B8" s="402" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="294"/>
-      <c r="D8" s="298" t="s">
+      <c r="C8" s="289"/>
+      <c r="D8" s="290" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="278" t="s">
+      <c r="A9" s="277" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="278" t="s">
+      <c r="B9" s="277" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="278" t="s">
+      <c r="C9" s="277" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="299"/>
+      <c r="D9" s="291"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -10983,8 +11105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2546DD17-9723-4091-B9ED-D9677931F7C4}">
   <dimension ref="A2:K21"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C3"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H2" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11003,24 +11125,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="300" t="s">
+      <c r="A2" s="305" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="301"/>
+      <c r="B2" s="306"/>
       <c r="C2" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="300" t="s">
+      <c r="E2" s="305" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="301"/>
+      <c r="F2" s="306"/>
       <c r="G2" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="300" t="s">
+      <c r="I2" s="305" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="301"/>
+      <c r="J2" s="306"/>
       <c r="K2" s="14" t="s">
         <v>42</v>
       </c>
@@ -11194,15 +11316,15 @@
       <c r="E9" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="F9" s="308" t="s">
+      <c r="F9" s="313" t="s">
         <v>67</v>
       </c>
-      <c r="G9" s="308"/>
-      <c r="I9" s="308" t="s">
+      <c r="G9" s="313"/>
+      <c r="I9" s="313" t="s">
         <v>81</v>
       </c>
-      <c r="J9" s="308"/>
-      <c r="K9" s="308"/>
+      <c r="J9" s="313"/>
+      <c r="K9" s="313"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
@@ -11218,15 +11340,15 @@
       <c r="E10" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="F10" s="303" t="s">
+      <c r="F10" s="308" t="s">
         <v>70</v>
       </c>
-      <c r="G10" s="304"/>
-      <c r="I10" s="302" t="s">
+      <c r="G10" s="309"/>
+      <c r="I10" s="307" t="s">
         <v>63</v>
       </c>
-      <c r="J10" s="303"/>
-      <c r="K10" s="304"/>
+      <c r="J10" s="308"/>
+      <c r="K10" s="309"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
@@ -11241,15 +11363,15 @@
       <c r="E11" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="309" t="s">
+      <c r="F11" s="314" t="s">
         <v>52</v>
       </c>
-      <c r="G11" s="310"/>
-      <c r="I11" s="305" t="s">
+      <c r="G11" s="315"/>
+      <c r="I11" s="310" t="s">
         <v>64</v>
       </c>
-      <c r="J11" s="306"/>
-      <c r="K11" s="307"/>
+      <c r="J11" s="311"/>
+      <c r="K11" s="312"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
@@ -11264,15 +11386,15 @@
       <c r="E12" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="F12" s="303" t="s">
+      <c r="F12" s="308" t="s">
         <v>72</v>
       </c>
-      <c r="G12" s="304"/>
-      <c r="I12" s="302" t="s">
+      <c r="G12" s="309"/>
+      <c r="I12" s="307" t="s">
         <v>65</v>
       </c>
-      <c r="J12" s="303"/>
-      <c r="K12" s="304"/>
+      <c r="J12" s="308"/>
+      <c r="K12" s="309"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
@@ -11308,100 +11430,94 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="319" t="s">
+      <c r="A17" s="300" t="s">
         <v>282</v>
       </c>
       <c r="B17" s="187" t="s">
         <v>272</v>
       </c>
-      <c r="C17" s="322" t="s">
+      <c r="C17" s="303" t="s">
         <v>273</v>
       </c>
-      <c r="D17" s="322"/>
-      <c r="E17" s="322"/>
-      <c r="F17" s="322"/>
-      <c r="G17" s="322"/>
-      <c r="H17" s="322"/>
-      <c r="I17" s="322"/>
-      <c r="J17" s="322"/>
-      <c r="K17" s="323"/>
+      <c r="D17" s="303"/>
+      <c r="E17" s="303"/>
+      <c r="F17" s="303"/>
+      <c r="G17" s="303"/>
+      <c r="H17" s="303"/>
+      <c r="I17" s="303"/>
+      <c r="J17" s="303"/>
+      <c r="K17" s="304"/>
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="320"/>
+      <c r="A18" s="301"/>
       <c r="B18" s="188" t="s">
         <v>274</v>
       </c>
-      <c r="C18" s="311" t="s">
+      <c r="C18" s="292" t="s">
         <v>275</v>
       </c>
-      <c r="D18" s="311"/>
-      <c r="E18" s="311"/>
-      <c r="F18" s="311"/>
-      <c r="G18" s="311"/>
-      <c r="H18" s="311"/>
-      <c r="I18" s="311"/>
-      <c r="J18" s="311"/>
-      <c r="K18" s="312"/>
+      <c r="D18" s="292"/>
+      <c r="E18" s="292"/>
+      <c r="F18" s="292"/>
+      <c r="G18" s="292"/>
+      <c r="H18" s="292"/>
+      <c r="I18" s="292"/>
+      <c r="J18" s="292"/>
+      <c r="K18" s="293"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="320"/>
+      <c r="A19" s="301"/>
       <c r="B19" s="189" t="s">
         <v>276</v>
       </c>
-      <c r="C19" s="313" t="s">
+      <c r="C19" s="294" t="s">
         <v>277</v>
       </c>
-      <c r="D19" s="313"/>
-      <c r="E19" s="313"/>
-      <c r="F19" s="313"/>
-      <c r="G19" s="313"/>
-      <c r="H19" s="313"/>
-      <c r="I19" s="313"/>
-      <c r="J19" s="313"/>
-      <c r="K19" s="314"/>
+      <c r="D19" s="294"/>
+      <c r="E19" s="294"/>
+      <c r="F19" s="294"/>
+      <c r="G19" s="294"/>
+      <c r="H19" s="294"/>
+      <c r="I19" s="294"/>
+      <c r="J19" s="294"/>
+      <c r="K19" s="295"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="320"/>
+      <c r="A20" s="301"/>
       <c r="B20" s="190" t="s">
         <v>278</v>
       </c>
-      <c r="C20" s="315" t="s">
+      <c r="C20" s="296" t="s">
         <v>279</v>
       </c>
-      <c r="D20" s="315"/>
-      <c r="E20" s="315"/>
-      <c r="F20" s="315"/>
-      <c r="G20" s="315"/>
-      <c r="H20" s="315"/>
-      <c r="I20" s="315"/>
-      <c r="J20" s="315"/>
-      <c r="K20" s="316"/>
+      <c r="D20" s="296"/>
+      <c r="E20" s="296"/>
+      <c r="F20" s="296"/>
+      <c r="G20" s="296"/>
+      <c r="H20" s="296"/>
+      <c r="I20" s="296"/>
+      <c r="J20" s="296"/>
+      <c r="K20" s="297"/>
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="321"/>
+      <c r="A21" s="302"/>
       <c r="B21" s="191" t="s">
         <v>280</v>
       </c>
-      <c r="C21" s="317" t="s">
+      <c r="C21" s="298" t="s">
         <v>281</v>
       </c>
-      <c r="D21" s="317"/>
-      <c r="E21" s="317"/>
-      <c r="F21" s="317"/>
-      <c r="G21" s="317"/>
-      <c r="H21" s="317"/>
-      <c r="I21" s="317"/>
-      <c r="J21" s="317"/>
-      <c r="K21" s="318"/>
+      <c r="D21" s="298"/>
+      <c r="E21" s="298"/>
+      <c r="F21" s="298"/>
+      <c r="G21" s="298"/>
+      <c r="H21" s="298"/>
+      <c r="I21" s="298"/>
+      <c r="J21" s="298"/>
+      <c r="K21" s="299"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C18:K18"/>
-    <mergeCell ref="C19:K19"/>
-    <mergeCell ref="C20:K20"/>
-    <mergeCell ref="C21:K21"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="C17:K17"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="A2:B2"/>
@@ -11413,6 +11529,12 @@
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="I9:K9"/>
+    <mergeCell ref="C18:K18"/>
+    <mergeCell ref="C19:K19"/>
+    <mergeCell ref="C20:K20"/>
+    <mergeCell ref="C21:K21"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="C17:K17"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11424,7 +11546,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13:G16"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11438,16 +11560,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="324" t="s">
+      <c r="B1" s="316" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="324"/>
-      <c r="D1" s="324"/>
-      <c r="F1" s="324" t="s">
+      <c r="C1" s="316"/>
+      <c r="D1" s="316"/>
+      <c r="F1" s="316" t="s">
         <v>104</v>
       </c>
-      <c r="G1" s="324"/>
-      <c r="H1" s="324"/>
+      <c r="G1" s="316"/>
+      <c r="H1" s="316"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="36" t="s">
@@ -11476,10 +11598,10 @@
       <c r="D3" s="166" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="333" t="s">
+      <c r="F3" s="325" t="s">
         <v>94</v>
       </c>
-      <c r="G3" s="335" t="s">
+      <c r="G3" s="327" t="s">
         <v>93</v>
       </c>
       <c r="H3" s="172" t="s">
@@ -11496,8 +11618,8 @@
       <c r="D4" s="169" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="333"/>
-      <c r="G4" s="336"/>
+      <c r="F4" s="325"/>
+      <c r="G4" s="328"/>
       <c r="H4" s="173" t="s">
         <v>60</v>
       </c>
@@ -11512,8 +11634,8 @@
       <c r="D5" s="164" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="333"/>
-      <c r="G5" s="336"/>
+      <c r="F5" s="325"/>
+      <c r="G5" s="328"/>
       <c r="H5" s="174" t="s">
         <v>61</v>
       </c>
@@ -11528,8 +11650,8 @@
       <c r="D6" s="167" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="333"/>
-      <c r="G6" s="336"/>
+      <c r="F6" s="325"/>
+      <c r="G6" s="328"/>
       <c r="H6" s="179" t="s">
         <v>62</v>
       </c>
@@ -11544,8 +11666,8 @@
       <c r="D7" s="168" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="333"/>
-      <c r="G7" s="336"/>
+      <c r="F7" s="325"/>
+      <c r="G7" s="328"/>
       <c r="H7" s="178" t="s">
         <v>99</v>
       </c>
@@ -11560,8 +11682,8 @@
       <c r="D8" s="165" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="333"/>
-      <c r="G8" s="336"/>
+      <c r="F8" s="325"/>
+      <c r="G8" s="328"/>
       <c r="H8" s="175" t="s">
         <v>103</v>
       </c>
@@ -11576,8 +11698,8 @@
       <c r="D9" s="170" t="s">
         <v>55</v>
       </c>
-      <c r="F9" s="333"/>
-      <c r="G9" s="336"/>
+      <c r="F9" s="325"/>
+      <c r="G9" s="328"/>
       <c r="H9" s="176" t="s">
         <v>97</v>
       </c>
@@ -11592,21 +11714,21 @@
       <c r="D10" s="171" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="334"/>
-      <c r="G10" s="337"/>
+      <c r="F10" s="326"/>
+      <c r="G10" s="329"/>
       <c r="H10" s="177" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="328" t="s">
+      <c r="B12" s="320" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="329"/>
-      <c r="D12" s="329"/>
-      <c r="E12" s="329"/>
-      <c r="F12" s="330"/>
+      <c r="C12" s="321"/>
+      <c r="D12" s="321"/>
+      <c r="E12" s="321"/>
+      <c r="F12" s="322"/>
       <c r="G12" s="180" t="s">
         <v>56</v>
       </c>
@@ -11615,13 +11737,13 @@
       <c r="B13" s="181" t="s">
         <v>90</v>
       </c>
-      <c r="C13" s="338" t="s">
+      <c r="C13" s="330" t="s">
         <v>89</v>
       </c>
-      <c r="D13" s="338"/>
-      <c r="E13" s="338"/>
-      <c r="F13" s="339"/>
-      <c r="G13" s="325" t="s">
+      <c r="D13" s="330"/>
+      <c r="E13" s="330"/>
+      <c r="F13" s="331"/>
+      <c r="G13" s="317" t="s">
         <v>219</v>
       </c>
       <c r="I13" s="29"/>
@@ -11630,39 +11752,39 @@
       <c r="B14" s="182" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="340" t="s">
+      <c r="C14" s="332" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="340"/>
-      <c r="E14" s="340"/>
-      <c r="F14" s="341"/>
-      <c r="G14" s="326"/>
+      <c r="D14" s="332"/>
+      <c r="E14" s="332"/>
+      <c r="F14" s="333"/>
+      <c r="G14" s="318"/>
       <c r="I14" s="29"/>
     </row>
     <row r="15" spans="1:9" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="181" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="338" t="s">
+      <c r="C15" s="330" t="s">
         <v>87</v>
       </c>
-      <c r="D15" s="338"/>
-      <c r="E15" s="338"/>
-      <c r="F15" s="339"/>
-      <c r="G15" s="326"/>
+      <c r="D15" s="330"/>
+      <c r="E15" s="330"/>
+      <c r="F15" s="331"/>
+      <c r="G15" s="318"/>
       <c r="I15" s="29"/>
     </row>
     <row r="16" spans="1:9" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="183" t="s">
         <v>91</v>
       </c>
-      <c r="C16" s="331" t="s">
+      <c r="C16" s="323" t="s">
         <v>88</v>
       </c>
-      <c r="D16" s="331"/>
-      <c r="E16" s="331"/>
-      <c r="F16" s="332"/>
-      <c r="G16" s="327"/>
+      <c r="D16" s="323"/>
+      <c r="E16" s="323"/>
+      <c r="F16" s="324"/>
+      <c r="G16" s="319"/>
       <c r="I16" s="29"/>
     </row>
     <row r="17" spans="7:7" x14ac:dyDescent="0.25">
@@ -11701,7 +11823,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="R12" sqref="R12"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11718,76 +11840,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="342" t="s">
+      <c r="A1" s="334" t="s">
         <v>220</v>
       </c>
-      <c r="B1" s="343"/>
-      <c r="C1" s="343"/>
-      <c r="D1" s="343"/>
-      <c r="F1" s="342" t="s">
+      <c r="B1" s="335"/>
+      <c r="C1" s="335"/>
+      <c r="D1" s="335"/>
+      <c r="F1" s="334" t="s">
         <v>222</v>
       </c>
-      <c r="G1" s="343"/>
-      <c r="H1" s="343"/>
-      <c r="I1" s="343"/>
-      <c r="J1" s="343"/>
-      <c r="K1" s="343"/>
-      <c r="L1" s="343"/>
-      <c r="M1" s="343"/>
-      <c r="N1" s="343"/>
-      <c r="O1" s="343"/>
-      <c r="P1" s="344"/>
-      <c r="R1" s="342" t="s">
+      <c r="G1" s="335"/>
+      <c r="H1" s="335"/>
+      <c r="I1" s="335"/>
+      <c r="J1" s="335"/>
+      <c r="K1" s="335"/>
+      <c r="L1" s="335"/>
+      <c r="M1" s="335"/>
+      <c r="N1" s="335"/>
+      <c r="O1" s="335"/>
+      <c r="P1" s="336"/>
+      <c r="R1" s="334" t="s">
         <v>223</v>
       </c>
-      <c r="S1" s="343"/>
-      <c r="T1" s="343"/>
-      <c r="U1" s="343"/>
-      <c r="V1" s="343"/>
-      <c r="W1" s="343"/>
-      <c r="X1" s="343"/>
-      <c r="Y1" s="343"/>
-      <c r="Z1" s="343"/>
-      <c r="AA1" s="344"/>
+      <c r="S1" s="335"/>
+      <c r="T1" s="335"/>
+      <c r="U1" s="335"/>
+      <c r="V1" s="335"/>
+      <c r="W1" s="335"/>
+      <c r="X1" s="335"/>
+      <c r="Y1" s="335"/>
+      <c r="Z1" s="335"/>
+      <c r="AA1" s="336"/>
     </row>
     <row r="2" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="349" t="s">
+      <c r="A2" s="341" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="348"/>
-      <c r="C2" s="348"/>
-      <c r="D2" s="348"/>
-      <c r="F2" s="345" t="s">
+      <c r="B2" s="340"/>
+      <c r="C2" s="340"/>
+      <c r="D2" s="340"/>
+      <c r="F2" s="337" t="s">
         <v>130</v>
       </c>
-      <c r="G2" s="347"/>
-      <c r="H2" s="347"/>
-      <c r="I2" s="347"/>
-      <c r="J2" s="347"/>
-      <c r="K2" s="347"/>
-      <c r="L2" s="347"/>
-      <c r="M2" s="346"/>
+      <c r="G2" s="339"/>
+      <c r="H2" s="339"/>
+      <c r="I2" s="339"/>
+      <c r="J2" s="339"/>
+      <c r="K2" s="339"/>
+      <c r="L2" s="339"/>
+      <c r="M2" s="338"/>
       <c r="N2" s="91" t="s">
         <v>106</v>
       </c>
-      <c r="O2" s="345" t="s">
+      <c r="O2" s="337" t="s">
         <v>107</v>
       </c>
-      <c r="P2" s="346"/>
-      <c r="R2" s="345" t="s">
+      <c r="P2" s="338"/>
+      <c r="R2" s="337" t="s">
         <v>130</v>
       </c>
-      <c r="S2" s="347"/>
-      <c r="T2" s="347"/>
-      <c r="U2" s="347"/>
-      <c r="V2" s="347"/>
-      <c r="W2" s="347"/>
-      <c r="X2" s="347"/>
-      <c r="Y2" s="346"/>
-      <c r="Z2" s="345" t="s">
+      <c r="S2" s="339"/>
+      <c r="T2" s="339"/>
+      <c r="U2" s="339"/>
+      <c r="V2" s="339"/>
+      <c r="W2" s="339"/>
+      <c r="X2" s="339"/>
+      <c r="Y2" s="338"/>
+      <c r="Z2" s="337" t="s">
         <v>107</v>
       </c>
-      <c r="AA2" s="346"/>
+      <c r="AA2" s="338"/>
     </row>
     <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="38" t="s">
@@ -12048,12 +12170,12 @@
       </c>
     </row>
     <row r="7" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="348" t="s">
+      <c r="A7" s="340" t="s">
         <v>120</v>
       </c>
-      <c r="B7" s="348"/>
-      <c r="C7" s="348"/>
-      <c r="D7" s="348"/>
+      <c r="B7" s="340"/>
+      <c r="C7" s="340"/>
+      <c r="D7" s="340"/>
       <c r="F7" s="59">
         <v>1</v>
       </c>
@@ -12347,12 +12469,12 @@
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="348" t="s">
+      <c r="A12" s="340" t="s">
         <v>125</v>
       </c>
-      <c r="B12" s="348"/>
-      <c r="C12" s="348"/>
-      <c r="D12" s="348"/>
+      <c r="B12" s="340"/>
+      <c r="C12" s="340"/>
+      <c r="D12" s="340"/>
       <c r="F12" s="58">
         <v>0</v>
       </c>
@@ -12601,7 +12723,7 @@
   <dimension ref="A1:AG26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="9" ySplit="8" topLeftCell="T9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="8" topLeftCell="J15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
       <selection pane="bottomRight" activeCell="F29" sqref="F29"/>
@@ -12631,28 +12753,28 @@
       <c r="A1" s="94" t="s">
         <v>238</v>
       </c>
-      <c r="B1" s="355" t="s">
+      <c r="B1" s="342" t="s">
         <v>230</v>
       </c>
-      <c r="C1" s="355"/>
-      <c r="D1" s="355"/>
-      <c r="E1" s="356"/>
-      <c r="F1" s="355" t="s">
+      <c r="C1" s="342"/>
+      <c r="D1" s="342"/>
+      <c r="E1" s="343"/>
+      <c r="F1" s="342" t="s">
         <v>231</v>
       </c>
-      <c r="G1" s="355"/>
-      <c r="H1" s="355"/>
-      <c r="I1" s="355"/>
-      <c r="J1" s="355"/>
-      <c r="K1" s="355"/>
-      <c r="L1" s="355"/>
-      <c r="M1" s="355"/>
-      <c r="N1" s="357">
+      <c r="G1" s="342"/>
+      <c r="H1" s="342"/>
+      <c r="I1" s="342"/>
+      <c r="J1" s="342"/>
+      <c r="K1" s="342"/>
+      <c r="L1" s="342"/>
+      <c r="M1" s="342"/>
+      <c r="N1" s="344">
         <f>2^32</f>
         <v>4294967296</v>
       </c>
-      <c r="O1" s="357"/>
-      <c r="P1" s="357"/>
+      <c r="O1" s="344"/>
+      <c r="P1" s="344"/>
       <c r="Q1" s="162" t="s">
         <v>239</v>
       </c>
@@ -12661,34 +12783,34 @@
       <c r="A2" s="94" t="s">
         <v>156</v>
       </c>
-      <c r="B2" s="358" t="s">
+      <c r="B2" s="345" t="s">
         <v>225</v>
       </c>
-      <c r="C2" s="358"/>
-      <c r="D2" s="358" t="s">
+      <c r="C2" s="345"/>
+      <c r="D2" s="345" t="s">
         <v>130</v>
       </c>
-      <c r="E2" s="359"/>
-      <c r="F2" s="358" t="s">
+      <c r="E2" s="346"/>
+      <c r="F2" s="345" t="s">
         <v>225</v>
       </c>
-      <c r="G2" s="358"/>
-      <c r="H2" s="358" t="s">
+      <c r="G2" s="345"/>
+      <c r="H2" s="345" t="s">
         <v>130</v>
       </c>
-      <c r="I2" s="358"/>
-      <c r="J2" s="358" t="s">
+      <c r="I2" s="345"/>
+      <c r="J2" s="345" t="s">
         <v>226</v>
       </c>
-      <c r="K2" s="358"/>
-      <c r="L2" s="358"/>
-      <c r="M2" s="358"/>
-      <c r="N2" s="354" t="s">
+      <c r="K2" s="345"/>
+      <c r="L2" s="345"/>
+      <c r="M2" s="345"/>
+      <c r="N2" s="351" t="s">
         <v>265</v>
       </c>
-      <c r="O2" s="354"/>
-      <c r="P2" s="354"/>
-      <c r="Q2" s="354"/>
+      <c r="O2" s="351"/>
+      <c r="P2" s="351"/>
+      <c r="Q2" s="351"/>
     </row>
     <row r="3" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="161" t="s">
@@ -12915,18 +13037,18 @@
       <c r="E7" s="152" t="s">
         <v>143</v>
       </c>
-      <c r="F7" s="350" t="s">
+      <c r="F7" s="347" t="s">
         <v>148</v>
       </c>
-      <c r="G7" s="351"/>
-      <c r="H7" s="351"/>
-      <c r="I7" s="351"/>
-      <c r="J7" s="350" t="s">
+      <c r="G7" s="348"/>
+      <c r="H7" s="348"/>
+      <c r="I7" s="348"/>
+      <c r="J7" s="347" t="s">
         <v>148</v>
       </c>
-      <c r="K7" s="351"/>
-      <c r="L7" s="351"/>
-      <c r="M7" s="351"/>
+      <c r="K7" s="348"/>
+      <c r="L7" s="348"/>
+      <c r="M7" s="348"/>
       <c r="N7" s="199" t="s">
         <v>134</v>
       </c>
@@ -12956,18 +13078,18 @@
       <c r="E8" s="154" t="s">
         <v>145</v>
       </c>
-      <c r="F8" s="352" t="s">
+      <c r="F8" s="349" t="s">
         <v>149</v>
       </c>
-      <c r="G8" s="353"/>
-      <c r="H8" s="353"/>
-      <c r="I8" s="353"/>
-      <c r="J8" s="352" t="s">
+      <c r="G8" s="350"/>
+      <c r="H8" s="350"/>
+      <c r="I8" s="350"/>
+      <c r="J8" s="349" t="s">
         <v>149</v>
       </c>
-      <c r="K8" s="353"/>
-      <c r="L8" s="353"/>
-      <c r="M8" s="353"/>
+      <c r="K8" s="350"/>
+      <c r="L8" s="350"/>
+      <c r="M8" s="350"/>
       <c r="N8" s="202" t="s">
         <v>135</v>
       </c>
@@ -13682,6 +13804,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="N2:Q2"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:M1"/>
     <mergeCell ref="N1:P1"/>
@@ -13690,11 +13817,6 @@
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="N2:Q2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13727,45 +13849,45 @@
       <c r="A1" s="97" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="375">
+      <c r="B1" s="352">
         <f>2^128</f>
         <v>3.4028236692093846E+38</v>
       </c>
-      <c r="C1" s="375"/>
-      <c r="D1" s="375"/>
-      <c r="E1" s="375"/>
-      <c r="F1" s="375"/>
-      <c r="G1" s="375"/>
-      <c r="H1" s="375"/>
-      <c r="I1" s="375"/>
+      <c r="C1" s="352"/>
+      <c r="D1" s="352"/>
+      <c r="E1" s="352"/>
+      <c r="F1" s="352"/>
+      <c r="G1" s="352"/>
+      <c r="H1" s="352"/>
+      <c r="I1" s="352"/>
       <c r="J1" s="97" t="s">
         <v>240</v>
       </c>
-      <c r="K1" s="376" t="s">
+      <c r="K1" s="353" t="s">
         <v>229</v>
       </c>
-      <c r="L1" s="376"/>
-      <c r="M1" s="376"/>
-      <c r="N1" s="376"/>
+      <c r="L1" s="353"/>
+      <c r="M1" s="353"/>
+      <c r="N1" s="353"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="120" t="s">
         <v>177</v>
       </c>
-      <c r="B2" s="377" t="s">
+      <c r="B2" s="354" t="s">
         <v>173</v>
       </c>
-      <c r="C2" s="378"/>
-      <c r="D2" s="378"/>
+      <c r="C2" s="355"/>
+      <c r="D2" s="355"/>
       <c r="E2" s="98" t="s">
         <v>253</v>
       </c>
-      <c r="F2" s="378" t="s">
+      <c r="F2" s="355" t="s">
         <v>174</v>
       </c>
-      <c r="G2" s="378"/>
-      <c r="H2" s="378"/>
-      <c r="I2" s="379"/>
+      <c r="G2" s="355"/>
+      <c r="H2" s="355"/>
+      <c r="I2" s="356"/>
       <c r="J2" s="99" t="s">
         <v>175</v>
       </c>
@@ -13886,11 +14008,11 @@
       <c r="E5" s="118" t="s">
         <v>182</v>
       </c>
-      <c r="F5" s="380" t="s">
+      <c r="F5" s="357" t="s">
         <v>184</v>
       </c>
-      <c r="G5" s="380"/>
-      <c r="H5" s="380"/>
+      <c r="G5" s="357"/>
+      <c r="H5" s="357"/>
       <c r="I5" s="119">
         <v>1</v>
       </c>
@@ -13920,12 +14042,12 @@
       <c r="B7" s="103" t="s">
         <v>263</v>
       </c>
-      <c r="C7" s="372" t="s">
+      <c r="C7" s="364" t="s">
         <v>248</v>
       </c>
-      <c r="D7" s="372"/>
-      <c r="E7" s="372"/>
-      <c r="F7" s="373"/>
+      <c r="D7" s="364"/>
+      <c r="E7" s="364"/>
+      <c r="F7" s="365"/>
       <c r="G7" s="127" t="s">
         <v>261</v>
       </c>
@@ -13940,10 +14062,10 @@
       <c r="C8" s="123" t="s">
         <v>262</v>
       </c>
-      <c r="D8" s="374" t="s">
+      <c r="D8" s="366" t="s">
         <v>249</v>
       </c>
-      <c r="E8" s="374"/>
+      <c r="E8" s="366"/>
       <c r="F8" s="121" t="s">
         <v>250</v>
       </c>
@@ -14002,114 +14124,114 @@
       <c r="A12" s="130" t="s">
         <v>263</v>
       </c>
-      <c r="B12" s="369" t="s">
+      <c r="B12" s="361" t="s">
         <v>248</v>
       </c>
-      <c r="C12" s="370"/>
-      <c r="D12" s="371"/>
-      <c r="E12" s="369" t="s">
+      <c r="C12" s="362"/>
+      <c r="D12" s="363"/>
+      <c r="E12" s="361" t="s">
         <v>264</v>
       </c>
-      <c r="F12" s="370"/>
-      <c r="G12" s="371"/>
+      <c r="F12" s="362"/>
+      <c r="G12" s="363"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="128" t="s">
         <v>188</v>
       </c>
-      <c r="B13" s="360" t="s">
+      <c r="B13" s="358" t="s">
         <v>190</v>
       </c>
-      <c r="C13" s="361"/>
-      <c r="D13" s="362"/>
-      <c r="E13" s="361" t="s">
+      <c r="C13" s="359"/>
+      <c r="D13" s="360"/>
+      <c r="E13" s="359" t="s">
         <v>191</v>
       </c>
-      <c r="F13" s="361"/>
-      <c r="G13" s="362"/>
+      <c r="F13" s="359"/>
+      <c r="G13" s="360"/>
       <c r="H13" s="37"/>
       <c r="I13" s="37"/>
       <c r="J13" s="37"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="129"/>
-      <c r="B14" s="363"/>
-      <c r="C14" s="364"/>
-      <c r="D14" s="365"/>
-      <c r="E14" s="364"/>
-      <c r="F14" s="364"/>
-      <c r="G14" s="365"/>
+      <c r="B14" s="367"/>
+      <c r="C14" s="368"/>
+      <c r="D14" s="369"/>
+      <c r="E14" s="368"/>
+      <c r="F14" s="368"/>
+      <c r="G14" s="369"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="128"/>
-      <c r="B15" s="360"/>
-      <c r="C15" s="361"/>
-      <c r="D15" s="362"/>
-      <c r="E15" s="361"/>
-      <c r="F15" s="361"/>
-      <c r="G15" s="362"/>
+      <c r="B15" s="358"/>
+      <c r="C15" s="359"/>
+      <c r="D15" s="360"/>
+      <c r="E15" s="359"/>
+      <c r="F15" s="359"/>
+      <c r="G15" s="360"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="129"/>
-      <c r="B16" s="363"/>
-      <c r="C16" s="364"/>
-      <c r="D16" s="365"/>
-      <c r="E16" s="364"/>
-      <c r="F16" s="364"/>
-      <c r="G16" s="365"/>
+      <c r="B16" s="367"/>
+      <c r="C16" s="368"/>
+      <c r="D16" s="369"/>
+      <c r="E16" s="368"/>
+      <c r="F16" s="368"/>
+      <c r="G16" s="369"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="128"/>
-      <c r="B17" s="360"/>
-      <c r="C17" s="361"/>
-      <c r="D17" s="362"/>
-      <c r="E17" s="361"/>
-      <c r="F17" s="361"/>
-      <c r="G17" s="362"/>
+      <c r="B17" s="358"/>
+      <c r="C17" s="359"/>
+      <c r="D17" s="360"/>
+      <c r="E17" s="359"/>
+      <c r="F17" s="359"/>
+      <c r="G17" s="360"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="129"/>
-      <c r="B18" s="363"/>
-      <c r="C18" s="364"/>
-      <c r="D18" s="365"/>
-      <c r="E18" s="364"/>
-      <c r="F18" s="364"/>
-      <c r="G18" s="365"/>
+      <c r="B18" s="367"/>
+      <c r="C18" s="368"/>
+      <c r="D18" s="369"/>
+      <c r="E18" s="368"/>
+      <c r="F18" s="368"/>
+      <c r="G18" s="369"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="116"/>
-      <c r="B19" s="366"/>
-      <c r="C19" s="367"/>
-      <c r="D19" s="368"/>
-      <c r="E19" s="367"/>
-      <c r="F19" s="367"/>
-      <c r="G19" s="368"/>
+      <c r="B19" s="370"/>
+      <c r="C19" s="371"/>
+      <c r="D19" s="372"/>
+      <c r="E19" s="371"/>
+      <c r="F19" s="371"/>
+      <c r="G19" s="372"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="E13:G13"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="E12:G12"/>
     <mergeCell ref="C7:F7"/>
     <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="F5:H5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14124,7 +14246,7 @@
   <dimension ref="A1:P53"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="6" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="3" topLeftCell="G45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="K2" sqref="K2"/>
@@ -14144,11 +14266,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="384" t="s">
+      <c r="A1" s="388" t="s">
         <v>320</v>
       </c>
-      <c r="B1" s="384"/>
-      <c r="C1" s="384"/>
+      <c r="B1" s="388"/>
+      <c r="C1" s="388"/>
       <c r="D1" s="226" t="s">
         <v>471</v>
       </c>
@@ -14176,11 +14298,11 @@
       <c r="P1" s="34"/>
     </row>
     <row r="2" spans="1:16" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="381" t="s">
+      <c r="A2" s="385" t="s">
         <v>470</v>
       </c>
-      <c r="B2" s="382"/>
-      <c r="C2" s="383"/>
+      <c r="B2" s="386"/>
+      <c r="C2" s="387"/>
       <c r="D2" s="230" t="s">
         <v>321</v>
       </c>
@@ -14193,7 +14315,7 @@
       <c r="G2" s="231" t="s">
         <v>111</v>
       </c>
-      <c r="H2" s="276">
+      <c r="H2" s="275">
         <v>20</v>
       </c>
       <c r="I2" s="231">
@@ -14264,21 +14386,21 @@
       <c r="F4" s="244" t="s">
         <v>326</v>
       </c>
-      <c r="G4" s="388" t="s">
+      <c r="G4" s="376" t="s">
         <v>108</v>
       </c>
-      <c r="H4" s="388">
+      <c r="H4" s="376">
         <v>3</v>
       </c>
-      <c r="I4" s="388">
+      <c r="I4" s="376">
         <f>IF(H4="","",IF(H4&lt;=2,1,IF(H4&lt;=4,2,IF(H4&lt;=8,3,IF(H4&lt;=16,4,IF(H4&lt;=32,5,IF(H4&lt;=64,6,IF(H4&lt;=128,7,8))))))))</f>
         <v>2</v>
       </c>
-      <c r="J4" s="388">
+      <c r="J4" s="376">
         <f>IF(G4="","",IF(G4="A",8+I4,IF(G4="B",16+I4,IF(G4="C",24+I4,"invalid"))))</f>
         <v>10</v>
       </c>
-      <c r="K4" s="385">
+      <c r="K4" s="379">
         <f>IF(J4="","",2^(32-J4))</f>
         <v>4194304</v>
       </c>
@@ -14302,11 +14424,11 @@
       <c r="F5" s="214" t="s">
         <v>326</v>
       </c>
-      <c r="G5" s="389"/>
-      <c r="H5" s="389"/>
-      <c r="I5" s="389"/>
-      <c r="J5" s="389"/>
-      <c r="K5" s="386"/>
+      <c r="G5" s="377"/>
+      <c r="H5" s="377"/>
+      <c r="I5" s="377"/>
+      <c r="J5" s="377"/>
+      <c r="K5" s="380"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="237" t="s">
@@ -14327,11 +14449,11 @@
       <c r="F6" s="212" t="s">
         <v>326</v>
       </c>
-      <c r="G6" s="389"/>
-      <c r="H6" s="389"/>
-      <c r="I6" s="389"/>
-      <c r="J6" s="389"/>
-      <c r="K6" s="386"/>
+      <c r="G6" s="377"/>
+      <c r="H6" s="377"/>
+      <c r="I6" s="377"/>
+      <c r="J6" s="377"/>
+      <c r="K6" s="380"/>
     </row>
     <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="239" t="s">
@@ -14352,11 +14474,11 @@
       <c r="F7" s="241" t="s">
         <v>326</v>
       </c>
-      <c r="G7" s="390"/>
-      <c r="H7" s="390"/>
-      <c r="I7" s="390"/>
-      <c r="J7" s="390"/>
-      <c r="K7" s="387"/>
+      <c r="G7" s="378"/>
+      <c r="H7" s="378"/>
+      <c r="I7" s="378"/>
+      <c r="J7" s="378"/>
+      <c r="K7" s="381"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="242" t="s">
@@ -14377,21 +14499,21 @@
       <c r="F8" s="244" t="s">
         <v>389</v>
       </c>
-      <c r="G8" s="391" t="s">
+      <c r="G8" s="373" t="s">
         <v>109</v>
       </c>
-      <c r="H8" s="391">
+      <c r="H8" s="373">
         <v>5</v>
       </c>
-      <c r="I8" s="391">
+      <c r="I8" s="373">
         <f t="shared" ref="I8:I44" si="0">IF(H8="","",IF(H8&lt;=2,1,IF(H8&lt;=4,2,IF(H8&lt;=8,3,IF(H8&lt;=16,4,IF(H8&lt;=32,5,IF(H8&lt;=64,6,IF(H8&lt;=128,7,8))))))))</f>
         <v>3</v>
       </c>
-      <c r="J8" s="391">
+      <c r="J8" s="373">
         <f t="shared" ref="J8:J20" si="1">IF(G8="","",IF(G8="A",8+I8,IF(G8="B",16+I8,IF(G8="C",24+I8,"invalid"))))</f>
         <v>19</v>
       </c>
-      <c r="K8" s="394">
+      <c r="K8" s="382">
         <f t="shared" ref="K8:K44" si="2">IF(J8="","",2^(32-J8))</f>
         <v>8192</v>
       </c>
@@ -14415,11 +14537,11 @@
       <c r="F9" s="214" t="s">
         <v>389</v>
       </c>
-      <c r="G9" s="392"/>
-      <c r="H9" s="392"/>
-      <c r="I9" s="392"/>
-      <c r="J9" s="392"/>
-      <c r="K9" s="395"/>
+      <c r="G9" s="374"/>
+      <c r="H9" s="374"/>
+      <c r="I9" s="374"/>
+      <c r="J9" s="374"/>
+      <c r="K9" s="383"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="237" t="s">
@@ -14440,11 +14562,11 @@
       <c r="F10" s="212" t="s">
         <v>389</v>
       </c>
-      <c r="G10" s="392"/>
-      <c r="H10" s="392"/>
-      <c r="I10" s="392"/>
-      <c r="J10" s="392"/>
-      <c r="K10" s="395"/>
+      <c r="G10" s="374"/>
+      <c r="H10" s="374"/>
+      <c r="I10" s="374"/>
+      <c r="J10" s="374"/>
+      <c r="K10" s="383"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="238" t="s">
@@ -14465,11 +14587,11 @@
       <c r="F11" s="216" t="s">
         <v>389</v>
       </c>
-      <c r="G11" s="392"/>
-      <c r="H11" s="392"/>
-      <c r="I11" s="392"/>
-      <c r="J11" s="392"/>
-      <c r="K11" s="395"/>
+      <c r="G11" s="374"/>
+      <c r="H11" s="374"/>
+      <c r="I11" s="374"/>
+      <c r="J11" s="374"/>
+      <c r="K11" s="383"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="237" t="s">
@@ -14490,11 +14612,11 @@
       <c r="F12" s="212" t="s">
         <v>389</v>
       </c>
-      <c r="G12" s="392"/>
-      <c r="H12" s="392"/>
-      <c r="I12" s="392"/>
-      <c r="J12" s="392"/>
-      <c r="K12" s="395"/>
+      <c r="G12" s="374"/>
+      <c r="H12" s="374"/>
+      <c r="I12" s="374"/>
+      <c r="J12" s="374"/>
+      <c r="K12" s="383"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="236" t="s">
@@ -14515,11 +14637,11 @@
       <c r="F13" s="214" t="s">
         <v>389</v>
       </c>
-      <c r="G13" s="392"/>
-      <c r="H13" s="392"/>
-      <c r="I13" s="392"/>
-      <c r="J13" s="392"/>
-      <c r="K13" s="395"/>
+      <c r="G13" s="374"/>
+      <c r="H13" s="374"/>
+      <c r="I13" s="374"/>
+      <c r="J13" s="374"/>
+      <c r="K13" s="383"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="237" t="s">
@@ -14540,11 +14662,11 @@
       <c r="F14" s="212" t="s">
         <v>389</v>
       </c>
-      <c r="G14" s="392"/>
-      <c r="H14" s="392"/>
-      <c r="I14" s="392"/>
-      <c r="J14" s="392"/>
-      <c r="K14" s="395"/>
+      <c r="G14" s="374"/>
+      <c r="H14" s="374"/>
+      <c r="I14" s="374"/>
+      <c r="J14" s="374"/>
+      <c r="K14" s="383"/>
     </row>
     <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="239" t="s">
@@ -14565,11 +14687,11 @@
       <c r="F15" s="241" t="s">
         <v>389</v>
       </c>
-      <c r="G15" s="393"/>
-      <c r="H15" s="393"/>
-      <c r="I15" s="393"/>
-      <c r="J15" s="393"/>
-      <c r="K15" s="396"/>
+      <c r="G15" s="375"/>
+      <c r="H15" s="375"/>
+      <c r="I15" s="375"/>
+      <c r="J15" s="375"/>
+      <c r="K15" s="384"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="242" t="s">
@@ -14590,21 +14712,21 @@
       <c r="F16" s="245">
         <v>255255255192</v>
       </c>
-      <c r="G16" s="388" t="s">
+      <c r="G16" s="376" t="s">
         <v>111</v>
       </c>
-      <c r="H16" s="388">
+      <c r="H16" s="376">
         <v>4</v>
       </c>
-      <c r="I16" s="388">
+      <c r="I16" s="376">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J16" s="388">
+      <c r="J16" s="376">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="K16" s="385">
+      <c r="K16" s="379">
         <f t="shared" si="2"/>
         <v>64</v>
       </c>
@@ -14628,11 +14750,11 @@
       <c r="F17" s="225">
         <v>255255255192</v>
       </c>
-      <c r="G17" s="389"/>
-      <c r="H17" s="389"/>
-      <c r="I17" s="389"/>
-      <c r="J17" s="389"/>
-      <c r="K17" s="386"/>
+      <c r="G17" s="377"/>
+      <c r="H17" s="377"/>
+      <c r="I17" s="377"/>
+      <c r="J17" s="377"/>
+      <c r="K17" s="380"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="237" t="s">
@@ -14653,11 +14775,11 @@
       <c r="F18" s="224">
         <v>255255255192</v>
       </c>
-      <c r="G18" s="389"/>
-      <c r="H18" s="389"/>
-      <c r="I18" s="389"/>
-      <c r="J18" s="389"/>
-      <c r="K18" s="386"/>
+      <c r="G18" s="377"/>
+      <c r="H18" s="377"/>
+      <c r="I18" s="377"/>
+      <c r="J18" s="377"/>
+      <c r="K18" s="380"/>
     </row>
     <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="239" t="s">
@@ -14678,11 +14800,11 @@
       <c r="F19" s="246">
         <v>255255255192</v>
       </c>
-      <c r="G19" s="390"/>
-      <c r="H19" s="390"/>
-      <c r="I19" s="390"/>
-      <c r="J19" s="390"/>
-      <c r="K19" s="387"/>
+      <c r="G19" s="378"/>
+      <c r="H19" s="378"/>
+      <c r="I19" s="378"/>
+      <c r="J19" s="378"/>
+      <c r="K19" s="381"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="242" t="s">
@@ -14703,21 +14825,21 @@
       <c r="F20" s="244" t="s">
         <v>440</v>
       </c>
-      <c r="G20" s="391" t="s">
+      <c r="G20" s="373" t="s">
         <v>108</v>
       </c>
-      <c r="H20" s="391">
+      <c r="H20" s="373">
         <v>20</v>
       </c>
-      <c r="I20" s="391">
+      <c r="I20" s="373">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J20" s="391">
+      <c r="J20" s="373">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="K20" s="394">
+      <c r="K20" s="382">
         <f t="shared" si="2"/>
         <v>524288</v>
       </c>
@@ -14741,11 +14863,11 @@
       <c r="F21" s="214" t="s">
         <v>440</v>
       </c>
-      <c r="G21" s="392"/>
-      <c r="H21" s="392"/>
-      <c r="I21" s="392"/>
-      <c r="J21" s="392"/>
-      <c r="K21" s="395"/>
+      <c r="G21" s="374"/>
+      <c r="H21" s="374"/>
+      <c r="I21" s="374"/>
+      <c r="J21" s="374"/>
+      <c r="K21" s="383"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="237" t="s">
@@ -14766,11 +14888,11 @@
       <c r="F22" s="212" t="s">
         <v>440</v>
       </c>
-      <c r="G22" s="392"/>
-      <c r="H22" s="392"/>
-      <c r="I22" s="392"/>
-      <c r="J22" s="392"/>
-      <c r="K22" s="395"/>
+      <c r="G22" s="374"/>
+      <c r="H22" s="374"/>
+      <c r="I22" s="374"/>
+      <c r="J22" s="374"/>
+      <c r="K22" s="383"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="238" t="s">
@@ -14791,11 +14913,11 @@
       <c r="F23" s="216" t="s">
         <v>440</v>
       </c>
-      <c r="G23" s="392"/>
-      <c r="H23" s="392"/>
-      <c r="I23" s="392"/>
-      <c r="J23" s="392"/>
-      <c r="K23" s="395"/>
+      <c r="G23" s="374"/>
+      <c r="H23" s="374"/>
+      <c r="I23" s="374"/>
+      <c r="J23" s="374"/>
+      <c r="K23" s="383"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="237" t="s">
@@ -14816,11 +14938,11 @@
       <c r="F24" s="212" t="s">
         <v>440</v>
       </c>
-      <c r="G24" s="392"/>
-      <c r="H24" s="392"/>
-      <c r="I24" s="392"/>
-      <c r="J24" s="392"/>
-      <c r="K24" s="395"/>
+      <c r="G24" s="374"/>
+      <c r="H24" s="374"/>
+      <c r="I24" s="374"/>
+      <c r="J24" s="374"/>
+      <c r="K24" s="383"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="236" t="s">
@@ -14841,11 +14963,11 @@
       <c r="F25" s="214" t="s">
         <v>440</v>
       </c>
-      <c r="G25" s="392"/>
-      <c r="H25" s="392"/>
-      <c r="I25" s="392"/>
-      <c r="J25" s="392"/>
-      <c r="K25" s="395"/>
+      <c r="G25" s="374"/>
+      <c r="H25" s="374"/>
+      <c r="I25" s="374"/>
+      <c r="J25" s="374"/>
+      <c r="K25" s="383"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="237" t="s">
@@ -14866,11 +14988,11 @@
       <c r="F26" s="212" t="s">
         <v>440</v>
       </c>
-      <c r="G26" s="392"/>
-      <c r="H26" s="392"/>
-      <c r="I26" s="392"/>
-      <c r="J26" s="392"/>
-      <c r="K26" s="395"/>
+      <c r="G26" s="374"/>
+      <c r="H26" s="374"/>
+      <c r="I26" s="374"/>
+      <c r="J26" s="374"/>
+      <c r="K26" s="383"/>
     </row>
     <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="239" t="s">
@@ -14891,11 +15013,11 @@
       <c r="F27" s="241" t="s">
         <v>440</v>
       </c>
-      <c r="G27" s="393"/>
-      <c r="H27" s="393"/>
-      <c r="I27" s="393"/>
-      <c r="J27" s="393"/>
-      <c r="K27" s="396"/>
+      <c r="G27" s="375"/>
+      <c r="H27" s="375"/>
+      <c r="I27" s="375"/>
+      <c r="J27" s="375"/>
+      <c r="K27" s="384"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="242" t="s">
@@ -14916,21 +15038,21 @@
       <c r="F28" s="244" t="s">
         <v>440</v>
       </c>
-      <c r="G28" s="388" t="s">
+      <c r="G28" s="376" t="s">
         <v>108</v>
       </c>
-      <c r="H28" s="388">
+      <c r="H28" s="376">
         <v>20</v>
       </c>
-      <c r="I28" s="388">
+      <c r="I28" s="376">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J28" s="388">
+      <c r="J28" s="376">
         <f t="shared" ref="J28" si="3">IF(G28="","",IF(G28="A",8+I28,IF(G28="B",16+I28,IF(G28="C",24+I28,"invalid"))))</f>
         <v>13</v>
       </c>
-      <c r="K28" s="385">
+      <c r="K28" s="379">
         <f t="shared" si="2"/>
         <v>524288</v>
       </c>
@@ -14954,11 +15076,11 @@
       <c r="F29" s="214" t="s">
         <v>440</v>
       </c>
-      <c r="G29" s="389"/>
-      <c r="H29" s="389"/>
-      <c r="I29" s="389"/>
-      <c r="J29" s="389"/>
-      <c r="K29" s="386"/>
+      <c r="G29" s="377"/>
+      <c r="H29" s="377"/>
+      <c r="I29" s="377"/>
+      <c r="J29" s="377"/>
+      <c r="K29" s="380"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="237" t="s">
@@ -14979,11 +15101,11 @@
       <c r="F30" s="212" t="s">
         <v>440</v>
       </c>
-      <c r="G30" s="389"/>
-      <c r="H30" s="389"/>
-      <c r="I30" s="389"/>
-      <c r="J30" s="389"/>
-      <c r="K30" s="386"/>
+      <c r="G30" s="377"/>
+      <c r="H30" s="377"/>
+      <c r="I30" s="377"/>
+      <c r="J30" s="377"/>
+      <c r="K30" s="380"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="238" t="s">
@@ -15004,11 +15126,11 @@
       <c r="F31" s="216" t="s">
         <v>440</v>
       </c>
-      <c r="G31" s="389"/>
-      <c r="H31" s="389"/>
-      <c r="I31" s="389"/>
-      <c r="J31" s="389"/>
-      <c r="K31" s="386"/>
+      <c r="G31" s="377"/>
+      <c r="H31" s="377"/>
+      <c r="I31" s="377"/>
+      <c r="J31" s="377"/>
+      <c r="K31" s="380"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="237" t="s">
@@ -15029,11 +15151,11 @@
       <c r="F32" s="212" t="s">
         <v>440</v>
       </c>
-      <c r="G32" s="389"/>
-      <c r="H32" s="389"/>
-      <c r="I32" s="389"/>
-      <c r="J32" s="389"/>
-      <c r="K32" s="386"/>
+      <c r="G32" s="377"/>
+      <c r="H32" s="377"/>
+      <c r="I32" s="377"/>
+      <c r="J32" s="377"/>
+      <c r="K32" s="380"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="236" t="s">
@@ -15054,11 +15176,11 @@
       <c r="F33" s="214" t="s">
         <v>440</v>
       </c>
-      <c r="G33" s="389"/>
-      <c r="H33" s="389"/>
-      <c r="I33" s="389"/>
-      <c r="J33" s="389"/>
-      <c r="K33" s="386"/>
+      <c r="G33" s="377"/>
+      <c r="H33" s="377"/>
+      <c r="I33" s="377"/>
+      <c r="J33" s="377"/>
+      <c r="K33" s="380"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="237" t="s">
@@ -15079,11 +15201,11 @@
       <c r="F34" s="212" t="s">
         <v>440</v>
       </c>
-      <c r="G34" s="389"/>
-      <c r="H34" s="389"/>
-      <c r="I34" s="389"/>
-      <c r="J34" s="389"/>
-      <c r="K34" s="386"/>
+      <c r="G34" s="377"/>
+      <c r="H34" s="377"/>
+      <c r="I34" s="377"/>
+      <c r="J34" s="377"/>
+      <c r="K34" s="380"/>
     </row>
     <row r="35" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="239" t="s">
@@ -15104,11 +15226,11 @@
       <c r="F35" s="241" t="s">
         <v>440</v>
       </c>
-      <c r="G35" s="390"/>
-      <c r="H35" s="390"/>
-      <c r="I35" s="390"/>
-      <c r="J35" s="390"/>
-      <c r="K35" s="387"/>
+      <c r="G35" s="378"/>
+      <c r="H35" s="378"/>
+      <c r="I35" s="378"/>
+      <c r="J35" s="378"/>
+      <c r="K35" s="381"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="242" t="s">
@@ -15129,21 +15251,21 @@
       <c r="F36" s="244" t="s">
         <v>440</v>
       </c>
-      <c r="G36" s="391" t="s">
+      <c r="G36" s="373" t="s">
         <v>108</v>
       </c>
-      <c r="H36" s="391">
+      <c r="H36" s="373">
         <v>20</v>
       </c>
-      <c r="I36" s="391">
+      <c r="I36" s="373">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J36" s="391">
+      <c r="J36" s="373">
         <f t="shared" ref="J36" si="4">IF(G36="","",IF(G36="A",8+I36,IF(G36="B",16+I36,IF(G36="C",24+I36,"invalid"))))</f>
         <v>13</v>
       </c>
-      <c r="K36" s="394">
+      <c r="K36" s="382">
         <f t="shared" si="2"/>
         <v>524288</v>
       </c>
@@ -15167,11 +15289,11 @@
       <c r="F37" s="214" t="s">
         <v>440</v>
       </c>
-      <c r="G37" s="392"/>
-      <c r="H37" s="392"/>
-      <c r="I37" s="392"/>
-      <c r="J37" s="392"/>
-      <c r="K37" s="395"/>
+      <c r="G37" s="374"/>
+      <c r="H37" s="374"/>
+      <c r="I37" s="374"/>
+      <c r="J37" s="374"/>
+      <c r="K37" s="383"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="237" t="s">
@@ -15192,11 +15314,11 @@
       <c r="F38" s="212" t="s">
         <v>440</v>
       </c>
-      <c r="G38" s="392"/>
-      <c r="H38" s="392"/>
-      <c r="I38" s="392"/>
-      <c r="J38" s="392"/>
-      <c r="K38" s="395"/>
+      <c r="G38" s="374"/>
+      <c r="H38" s="374"/>
+      <c r="I38" s="374"/>
+      <c r="J38" s="374"/>
+      <c r="K38" s="383"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="238" t="s">
@@ -15217,11 +15339,11 @@
       <c r="F39" s="216" t="s">
         <v>440</v>
       </c>
-      <c r="G39" s="392"/>
-      <c r="H39" s="392"/>
-      <c r="I39" s="392"/>
-      <c r="J39" s="392"/>
-      <c r="K39" s="395"/>
+      <c r="G39" s="374"/>
+      <c r="H39" s="374"/>
+      <c r="I39" s="374"/>
+      <c r="J39" s="374"/>
+      <c r="K39" s="383"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="237" t="s">
@@ -15242,11 +15364,11 @@
       <c r="F40" s="212" t="s">
         <v>440</v>
       </c>
-      <c r="G40" s="392"/>
-      <c r="H40" s="392"/>
-      <c r="I40" s="392"/>
-      <c r="J40" s="392"/>
-      <c r="K40" s="395"/>
+      <c r="G40" s="374"/>
+      <c r="H40" s="374"/>
+      <c r="I40" s="374"/>
+      <c r="J40" s="374"/>
+      <c r="K40" s="383"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="236" t="s">
@@ -15267,11 +15389,11 @@
       <c r="F41" s="214" t="s">
         <v>440</v>
       </c>
-      <c r="G41" s="392"/>
-      <c r="H41" s="392"/>
-      <c r="I41" s="392"/>
-      <c r="J41" s="392"/>
-      <c r="K41" s="395"/>
+      <c r="G41" s="374"/>
+      <c r="H41" s="374"/>
+      <c r="I41" s="374"/>
+      <c r="J41" s="374"/>
+      <c r="K41" s="383"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="237" t="s">
@@ -15292,11 +15414,11 @@
       <c r="F42" s="212" t="s">
         <v>440</v>
       </c>
-      <c r="G42" s="392"/>
-      <c r="H42" s="392"/>
-      <c r="I42" s="392"/>
-      <c r="J42" s="392"/>
-      <c r="K42" s="395"/>
+      <c r="G42" s="374"/>
+      <c r="H42" s="374"/>
+      <c r="I42" s="374"/>
+      <c r="J42" s="374"/>
+      <c r="K42" s="383"/>
     </row>
     <row r="43" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="239" t="s">
@@ -15317,11 +15439,11 @@
       <c r="F43" s="241" t="s">
         <v>440</v>
       </c>
-      <c r="G43" s="393"/>
-      <c r="H43" s="393"/>
-      <c r="I43" s="393"/>
-      <c r="J43" s="393"/>
-      <c r="K43" s="396"/>
+      <c r="G43" s="375"/>
+      <c r="H43" s="375"/>
+      <c r="I43" s="375"/>
+      <c r="J43" s="375"/>
+      <c r="K43" s="384"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="242" t="s">
@@ -15342,21 +15464,21 @@
       <c r="F44" s="244" t="s">
         <v>440</v>
       </c>
-      <c r="G44" s="388" t="s">
+      <c r="G44" s="376" t="s">
         <v>108</v>
       </c>
-      <c r="H44" s="388">
+      <c r="H44" s="376">
         <v>20</v>
       </c>
-      <c r="I44" s="388">
+      <c r="I44" s="376">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J44" s="388">
+      <c r="J44" s="376">
         <f t="shared" ref="J44" si="5">IF(G44="","",IF(G44="A",8+I44,IF(G44="B",16+I44,IF(G44="C",24+I44,"invalid"))))</f>
         <v>13</v>
       </c>
-      <c r="K44" s="385">
+      <c r="K44" s="379">
         <f t="shared" si="2"/>
         <v>524288</v>
       </c>
@@ -15380,11 +15502,11 @@
       <c r="F45" s="214" t="s">
         <v>440</v>
       </c>
-      <c r="G45" s="389"/>
-      <c r="H45" s="389"/>
-      <c r="I45" s="389"/>
-      <c r="J45" s="389"/>
-      <c r="K45" s="386"/>
+      <c r="G45" s="377"/>
+      <c r="H45" s="377"/>
+      <c r="I45" s="377"/>
+      <c r="J45" s="377"/>
+      <c r="K45" s="380"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="237" t="s">
@@ -15405,11 +15527,11 @@
       <c r="F46" s="212" t="s">
         <v>440</v>
       </c>
-      <c r="G46" s="389"/>
-      <c r="H46" s="389"/>
-      <c r="I46" s="389"/>
-      <c r="J46" s="389"/>
-      <c r="K46" s="386"/>
+      <c r="G46" s="377"/>
+      <c r="H46" s="377"/>
+      <c r="I46" s="377"/>
+      <c r="J46" s="377"/>
+      <c r="K46" s="380"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="238" t="s">
@@ -15430,11 +15552,11 @@
       <c r="F47" s="216" t="s">
         <v>440</v>
       </c>
-      <c r="G47" s="389"/>
-      <c r="H47" s="389"/>
-      <c r="I47" s="389"/>
-      <c r="J47" s="389"/>
-      <c r="K47" s="386"/>
+      <c r="G47" s="377"/>
+      <c r="H47" s="377"/>
+      <c r="I47" s="377"/>
+      <c r="J47" s="377"/>
+      <c r="K47" s="380"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="237" t="s">
@@ -15455,11 +15577,11 @@
       <c r="F48" s="212" t="s">
         <v>440</v>
       </c>
-      <c r="G48" s="389"/>
-      <c r="H48" s="389"/>
-      <c r="I48" s="389"/>
-      <c r="J48" s="389"/>
-      <c r="K48" s="386"/>
+      <c r="G48" s="377"/>
+      <c r="H48" s="377"/>
+      <c r="I48" s="377"/>
+      <c r="J48" s="377"/>
+      <c r="K48" s="380"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="236" t="s">
@@ -15480,11 +15602,11 @@
       <c r="F49" s="214" t="s">
         <v>440</v>
       </c>
-      <c r="G49" s="389"/>
-      <c r="H49" s="389"/>
-      <c r="I49" s="389"/>
-      <c r="J49" s="389"/>
-      <c r="K49" s="386"/>
+      <c r="G49" s="377"/>
+      <c r="H49" s="377"/>
+      <c r="I49" s="377"/>
+      <c r="J49" s="377"/>
+      <c r="K49" s="380"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="237" t="s">
@@ -15505,11 +15627,11 @@
       <c r="F50" s="212" t="s">
         <v>440</v>
       </c>
-      <c r="G50" s="389"/>
-      <c r="H50" s="389"/>
-      <c r="I50" s="389"/>
-      <c r="J50" s="389"/>
-      <c r="K50" s="386"/>
+      <c r="G50" s="377"/>
+      <c r="H50" s="377"/>
+      <c r="I50" s="377"/>
+      <c r="J50" s="377"/>
+      <c r="K50" s="380"/>
     </row>
     <row r="51" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="239" t="s">
@@ -15530,11 +15652,11 @@
       <c r="F51" s="241" t="s">
         <v>440</v>
       </c>
-      <c r="G51" s="390"/>
-      <c r="H51" s="390"/>
-      <c r="I51" s="390"/>
-      <c r="J51" s="390"/>
-      <c r="K51" s="387"/>
+      <c r="G51" s="378"/>
+      <c r="H51" s="378"/>
+      <c r="I51" s="378"/>
+      <c r="J51" s="378"/>
+      <c r="K51" s="381"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G52" s="229"/>
@@ -15544,27 +15666,13 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="H36:H43"/>
-    <mergeCell ref="H44:H51"/>
-    <mergeCell ref="I44:I51"/>
-    <mergeCell ref="J44:J51"/>
-    <mergeCell ref="K44:K51"/>
-    <mergeCell ref="K36:K43"/>
-    <mergeCell ref="J36:J43"/>
-    <mergeCell ref="I36:I43"/>
-    <mergeCell ref="H20:H27"/>
-    <mergeCell ref="I20:I27"/>
-    <mergeCell ref="J20:J27"/>
-    <mergeCell ref="K20:K27"/>
-    <mergeCell ref="H28:H35"/>
-    <mergeCell ref="I28:I35"/>
-    <mergeCell ref="J28:J35"/>
-    <mergeCell ref="K28:K35"/>
-    <mergeCell ref="G20:G27"/>
-    <mergeCell ref="G28:G35"/>
-    <mergeCell ref="G36:G43"/>
-    <mergeCell ref="G44:G51"/>
-    <mergeCell ref="G16:G19"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="K4:K7"/>
+    <mergeCell ref="J4:J7"/>
+    <mergeCell ref="I4:I7"/>
+    <mergeCell ref="H4:H7"/>
+    <mergeCell ref="G4:G7"/>
     <mergeCell ref="H16:H19"/>
     <mergeCell ref="I16:I19"/>
     <mergeCell ref="J16:J19"/>
@@ -15574,13 +15682,27 @@
     <mergeCell ref="I8:I15"/>
     <mergeCell ref="J8:J15"/>
     <mergeCell ref="K8:K15"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="K4:K7"/>
-    <mergeCell ref="J4:J7"/>
-    <mergeCell ref="I4:I7"/>
-    <mergeCell ref="H4:H7"/>
-    <mergeCell ref="G4:G7"/>
+    <mergeCell ref="G20:G27"/>
+    <mergeCell ref="G28:G35"/>
+    <mergeCell ref="G36:G43"/>
+    <mergeCell ref="G44:G51"/>
+    <mergeCell ref="G16:G19"/>
+    <mergeCell ref="H20:H27"/>
+    <mergeCell ref="I20:I27"/>
+    <mergeCell ref="J20:J27"/>
+    <mergeCell ref="K20:K27"/>
+    <mergeCell ref="H28:H35"/>
+    <mergeCell ref="I28:I35"/>
+    <mergeCell ref="J28:J35"/>
+    <mergeCell ref="K28:K35"/>
+    <mergeCell ref="H36:H43"/>
+    <mergeCell ref="H44:H51"/>
+    <mergeCell ref="I44:I51"/>
+    <mergeCell ref="J44:J51"/>
+    <mergeCell ref="K44:K51"/>
+    <mergeCell ref="K36:K43"/>
+    <mergeCell ref="J36:J43"/>
+    <mergeCell ref="I36:I43"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15629,11 +15751,11 @@
       <c r="A1" t="s">
         <v>392</v>
       </c>
-      <c r="G1" s="384" t="s">
+      <c r="G1" s="388" t="s">
         <v>574</v>
       </c>
-      <c r="H1" s="384"/>
-      <c r="I1" s="384"/>
+      <c r="H1" s="388"/>
+      <c r="I1" s="388"/>
       <c r="J1" s="226" t="s">
         <v>471</v>
       </c>
@@ -15663,17 +15785,17 @@
       </c>
     </row>
     <row r="2" spans="1:29" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="403"/>
-      <c r="B2" s="403"/>
-      <c r="C2" s="403"/>
-      <c r="D2" s="403"/>
-      <c r="E2" s="403"/>
-      <c r="F2" s="403"/>
-      <c r="G2" s="381" t="s">
+      <c r="A2" s="395"/>
+      <c r="B2" s="395"/>
+      <c r="C2" s="395"/>
+      <c r="D2" s="395"/>
+      <c r="E2" s="395"/>
+      <c r="F2" s="395"/>
+      <c r="G2" s="385" t="s">
         <v>575</v>
       </c>
-      <c r="H2" s="382"/>
-      <c r="I2" s="383"/>
+      <c r="H2" s="386"/>
+      <c r="I2" s="387"/>
       <c r="J2" s="230" t="s">
         <v>445</v>
       </c>
@@ -15810,7 +15932,7 @@
         <f>IF(O4="","",32-O4)</f>
         <v>25</v>
       </c>
-      <c r="R4" s="400" t="s">
+      <c r="R4" s="392" t="s">
         <v>612</v>
       </c>
     </row>
@@ -15863,7 +15985,7 @@
         <f t="shared" ref="Q5:Q8" si="2">IF(O5="","",32-O5)</f>
         <v>26</v>
       </c>
-      <c r="R5" s="401"/>
+      <c r="R5" s="393"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -15914,7 +16036,7 @@
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="R6" s="401"/>
+      <c r="R6" s="393"/>
       <c r="AC6" s="33"/>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
@@ -15966,7 +16088,7 @@
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="R7" s="401"/>
+      <c r="R7" s="393"/>
       <c r="AC7" s="33"/>
     </row>
     <row r="8" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16018,7 +16140,7 @@
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="R8" s="402"/>
+      <c r="R8" s="394"/>
       <c r="AC8" s="33"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
@@ -16061,7 +16183,7 @@
         <f>IF(O9="","",32-O9)</f>
         <v>25</v>
       </c>
-      <c r="R9" s="397" t="s">
+      <c r="R9" s="389" t="s">
         <v>613</v>
       </c>
       <c r="AC9" s="33"/>
@@ -16103,7 +16225,7 @@
         <f>IF(O10="","",32-O10)</f>
         <v>26</v>
       </c>
-      <c r="R10" s="398"/>
+      <c r="R10" s="390"/>
       <c r="AC10" s="33"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
@@ -16161,7 +16283,7 @@
         <f>IF(O11="","",32-O11)</f>
         <v>27</v>
       </c>
-      <c r="R11" s="398"/>
+      <c r="R11" s="390"/>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -16218,7 +16340,7 @@
         <f>IF(O12="","",32-O12)</f>
         <v>29</v>
       </c>
-      <c r="R12" s="398"/>
+      <c r="R12" s="390"/>
     </row>
     <row r="13" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -16275,7 +16397,7 @@
         <f>IF(O13="","",32-O13)</f>
         <v>26</v>
       </c>
-      <c r="R13" s="399"/>
+      <c r="R13" s="391"/>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -16353,72 +16475,196 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCF9BCDD-FD43-410A-9645-E36DC57C747A}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="6.28515625" style="222" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" style="222" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" style="222" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="404" t="s">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="403" t="s">
+        <v>658</v>
+      </c>
+      <c r="B1" s="404" t="s">
+        <v>656</v>
+      </c>
+      <c r="C1" s="404" t="s">
+        <v>657</v>
+      </c>
+      <c r="E1" s="316" t="s">
+        <v>662</v>
+      </c>
+      <c r="F1" s="316"/>
+      <c r="G1" s="316"/>
+      <c r="H1" s="316"/>
+    </row>
+    <row r="2" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="411" t="s">
+        <v>675</v>
+      </c>
+      <c r="B2" s="412" t="s">
+        <v>676</v>
+      </c>
+      <c r="C2" s="412" t="s">
+        <v>677</v>
+      </c>
+      <c r="E2" s="403" t="s">
         <v>646</v>
       </c>
-      <c r="B1" s="275" t="s">
+      <c r="F2" s="404" t="s">
         <v>647</v>
       </c>
-      <c r="C1" s="275" t="s">
+      <c r="G2" s="404" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="405" t="s">
+      <c r="H2" s="403" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="413" t="s">
+        <v>668</v>
+      </c>
+      <c r="B3" s="414" t="s">
+        <v>666</v>
+      </c>
+      <c r="C3" s="414" t="s">
+        <v>667</v>
+      </c>
+      <c r="E3" s="408" t="s">
         <v>644</v>
       </c>
-      <c r="B2" s="406">
+      <c r="F3" s="405">
         <v>0</v>
       </c>
-      <c r="C2" s="406">
+      <c r="G3" s="405">
         <v>1023</v>
       </c>
-      <c r="D2" t="s">
+      <c r="H3" s="408" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="407" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="415" t="s">
+        <v>672</v>
+      </c>
+      <c r="B4" s="416" t="s">
+        <v>669</v>
+      </c>
+      <c r="C4" s="416" t="s">
+        <v>670</v>
+      </c>
+      <c r="E4" s="409" t="s">
         <v>643</v>
       </c>
-      <c r="B3" s="408">
+      <c r="F4" s="406">
         <v>1024</v>
       </c>
-      <c r="C3" s="408">
+      <c r="G4" s="406">
         <v>49151</v>
       </c>
-      <c r="D3" t="s">
+      <c r="H4" s="409" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="413" t="s">
+        <v>654</v>
+      </c>
+      <c r="B5" s="414" t="s">
+        <v>673</v>
+      </c>
+      <c r="C5" s="414" t="s">
+        <v>674</v>
+      </c>
+      <c r="E5" s="410" t="s">
+        <v>645</v>
+      </c>
+      <c r="F5" s="407">
+        <v>49152</v>
+      </c>
+      <c r="G5" s="407">
+        <v>65535</v>
+      </c>
+      <c r="H5" s="410" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="409" t="s">
-        <v>645</v>
-      </c>
-      <c r="B4" s="410">
-        <v>49152</v>
-      </c>
-      <c r="C4" s="410">
-        <v>65535</v>
-      </c>
-      <c r="D4" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="415" t="s">
+        <v>671</v>
+      </c>
+      <c r="B6" s="416" t="s">
         <v>650</v>
       </c>
+      <c r="C6" s="416" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="413" t="s">
+        <v>659</v>
+      </c>
+      <c r="B7" s="414" t="s">
+        <v>660</v>
+      </c>
+      <c r="C7" s="414" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="415" t="s">
+        <v>678</v>
+      </c>
+      <c r="B8" s="416" t="s">
+        <v>652</v>
+      </c>
+      <c r="C8" s="416" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="413" t="s">
+        <v>655</v>
+      </c>
+      <c r="B9" s="414" t="s">
+        <v>679</v>
+      </c>
+      <c r="C9" s="414" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="415" t="s">
+        <v>665</v>
+      </c>
+      <c r="B10" s="416" t="s">
+        <v>681</v>
+      </c>
+      <c r="C10" s="416" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="413"/>
+      <c r="B11" s="414"/>
+      <c r="C11" s="414"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E1:H1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/docs/protocol-suite.xlsx
+++ b/docs/protocol-suite.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\redes\saves\ccna-lx19\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79F895D3-C35C-42F7-A197-48A7C61BFAA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E698E0-E3E7-4B9F-A29B-4DFEF3D1EAAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="8" xr2:uid="{3415D364-6D1D-489F-8C8D-BD784F513C31}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="8" xr2:uid="{3415D364-6D1D-489F-8C8D-BD784F513C31}"/>
   </bookViews>
   <sheets>
     <sheet name="modelos" sheetId="1" r:id="rId1"/>
@@ -10010,6 +10010,60 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -10023,6 +10077,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -10031,6 +10094,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -10070,39 +10166,6 @@
     <xf numFmtId="0" fontId="0" fillId="31" borderId="63" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -10181,6 +10244,21 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -10196,19 +10274,49 @@
     <xf numFmtId="0" fontId="3" fillId="26" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="24" borderId="54" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="24" borderId="55" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="24" borderId="56" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="24" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="24" borderId="57" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="59" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="60" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="28" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="15" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -10229,87 +10337,6 @@
     <xf numFmtId="49" fontId="0" fillId="28" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="24" borderId="54" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="24" borderId="55" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="59" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="60" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="28" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="24" borderId="56" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="24" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="24" borderId="57" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="10" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -10322,6 +10349,42 @@
     <xf numFmtId="49" fontId="3" fillId="9" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -10342,69 +10405,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -10996,13 +10996,13 @@
       <c r="A2" s="278" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="396" t="s">
+      <c r="B2" s="308" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="285" t="s">
+      <c r="C2" s="303" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="290" t="s">
+      <c r="D2" s="311" t="s">
         <v>23</v>
       </c>
     </row>
@@ -11010,23 +11010,23 @@
       <c r="A3" s="279" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="397"/>
-      <c r="C3" s="286"/>
-      <c r="D3" s="290"/>
+      <c r="B3" s="309"/>
+      <c r="C3" s="304"/>
+      <c r="D3" s="311"/>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="280" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="398"/>
-      <c r="C4" s="287"/>
-      <c r="D4" s="290"/>
+      <c r="B4" s="310"/>
+      <c r="C4" s="305"/>
+      <c r="D4" s="311"/>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="281" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="399" t="s">
+      <c r="B5" s="285" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -11040,7 +11040,7 @@
       <c r="A6" s="282" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="400" t="s">
+      <c r="B6" s="286" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -11054,10 +11054,10 @@
       <c r="A7" s="283" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="401" t="s">
+      <c r="B7" s="287" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="288" t="s">
+      <c r="C7" s="306" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="276" t="s">
@@ -11068,11 +11068,11 @@
       <c r="A8" s="284" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="402" t="s">
+      <c r="B8" s="288" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="289"/>
-      <c r="D8" s="290" t="s">
+      <c r="C8" s="307"/>
+      <c r="D8" s="311" t="s">
         <v>20</v>
       </c>
     </row>
@@ -11086,7 +11086,7 @@
       <c r="C9" s="277" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="291"/>
+      <c r="D9" s="312"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -11105,8 +11105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2546DD17-9723-4091-B9ED-D9677931F7C4}">
   <dimension ref="A2:K21"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H2" sqref="H1:H1048576"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19:K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11125,24 +11125,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="305" t="s">
+      <c r="A2" s="313" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="306"/>
+      <c r="B2" s="314"/>
       <c r="C2" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="305" t="s">
+      <c r="E2" s="313" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="306"/>
+      <c r="F2" s="314"/>
       <c r="G2" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="305" t="s">
+      <c r="I2" s="313" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="306"/>
+      <c r="J2" s="314"/>
       <c r="K2" s="14" t="s">
         <v>42</v>
       </c>
@@ -11316,15 +11316,15 @@
       <c r="E9" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="F9" s="313" t="s">
+      <c r="F9" s="321" t="s">
         <v>67</v>
       </c>
-      <c r="G9" s="313"/>
-      <c r="I9" s="313" t="s">
+      <c r="G9" s="321"/>
+      <c r="I9" s="321" t="s">
         <v>81</v>
       </c>
-      <c r="J9" s="313"/>
-      <c r="K9" s="313"/>
+      <c r="J9" s="321"/>
+      <c r="K9" s="321"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
@@ -11340,15 +11340,15 @@
       <c r="E10" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="F10" s="308" t="s">
+      <c r="F10" s="316" t="s">
         <v>70</v>
       </c>
-      <c r="G10" s="309"/>
-      <c r="I10" s="307" t="s">
+      <c r="G10" s="317"/>
+      <c r="I10" s="315" t="s">
         <v>63</v>
       </c>
-      <c r="J10" s="308"/>
-      <c r="K10" s="309"/>
+      <c r="J10" s="316"/>
+      <c r="K10" s="317"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
@@ -11363,15 +11363,15 @@
       <c r="E11" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="314" t="s">
+      <c r="F11" s="322" t="s">
         <v>52</v>
       </c>
-      <c r="G11" s="315"/>
-      <c r="I11" s="310" t="s">
+      <c r="G11" s="323"/>
+      <c r="I11" s="318" t="s">
         <v>64</v>
       </c>
-      <c r="J11" s="311"/>
-      <c r="K11" s="312"/>
+      <c r="J11" s="319"/>
+      <c r="K11" s="320"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
@@ -11386,15 +11386,15 @@
       <c r="E12" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="F12" s="308" t="s">
+      <c r="F12" s="316" t="s">
         <v>72</v>
       </c>
-      <c r="G12" s="309"/>
-      <c r="I12" s="307" t="s">
+      <c r="G12" s="317"/>
+      <c r="I12" s="315" t="s">
         <v>65</v>
       </c>
-      <c r="J12" s="308"/>
-      <c r="K12" s="309"/>
+      <c r="J12" s="316"/>
+      <c r="K12" s="317"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
@@ -11430,94 +11430,100 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="300" t="s">
+      <c r="A17" s="332" t="s">
         <v>282</v>
       </c>
       <c r="B17" s="187" t="s">
         <v>272</v>
       </c>
-      <c r="C17" s="303" t="s">
+      <c r="C17" s="335" t="s">
         <v>273</v>
       </c>
-      <c r="D17" s="303"/>
-      <c r="E17" s="303"/>
-      <c r="F17" s="303"/>
-      <c r="G17" s="303"/>
-      <c r="H17" s="303"/>
-      <c r="I17" s="303"/>
-      <c r="J17" s="303"/>
-      <c r="K17" s="304"/>
+      <c r="D17" s="335"/>
+      <c r="E17" s="335"/>
+      <c r="F17" s="335"/>
+      <c r="G17" s="335"/>
+      <c r="H17" s="335"/>
+      <c r="I17" s="335"/>
+      <c r="J17" s="335"/>
+      <c r="K17" s="336"/>
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="301"/>
+      <c r="A18" s="333"/>
       <c r="B18" s="188" t="s">
         <v>274</v>
       </c>
-      <c r="C18" s="292" t="s">
+      <c r="C18" s="324" t="s">
         <v>275</v>
       </c>
-      <c r="D18" s="292"/>
-      <c r="E18" s="292"/>
-      <c r="F18" s="292"/>
-      <c r="G18" s="292"/>
-      <c r="H18" s="292"/>
-      <c r="I18" s="292"/>
-      <c r="J18" s="292"/>
-      <c r="K18" s="293"/>
+      <c r="D18" s="324"/>
+      <c r="E18" s="324"/>
+      <c r="F18" s="324"/>
+      <c r="G18" s="324"/>
+      <c r="H18" s="324"/>
+      <c r="I18" s="324"/>
+      <c r="J18" s="324"/>
+      <c r="K18" s="325"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="301"/>
+      <c r="A19" s="333"/>
       <c r="B19" s="189" t="s">
         <v>276</v>
       </c>
-      <c r="C19" s="294" t="s">
+      <c r="C19" s="326" t="s">
         <v>277</v>
       </c>
-      <c r="D19" s="294"/>
-      <c r="E19" s="294"/>
-      <c r="F19" s="294"/>
-      <c r="G19" s="294"/>
-      <c r="H19" s="294"/>
-      <c r="I19" s="294"/>
-      <c r="J19" s="294"/>
-      <c r="K19" s="295"/>
+      <c r="D19" s="326"/>
+      <c r="E19" s="326"/>
+      <c r="F19" s="326"/>
+      <c r="G19" s="326"/>
+      <c r="H19" s="326"/>
+      <c r="I19" s="326"/>
+      <c r="J19" s="326"/>
+      <c r="K19" s="327"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="301"/>
+      <c r="A20" s="333"/>
       <c r="B20" s="190" t="s">
         <v>278</v>
       </c>
-      <c r="C20" s="296" t="s">
+      <c r="C20" s="328" t="s">
         <v>279</v>
       </c>
-      <c r="D20" s="296"/>
-      <c r="E20" s="296"/>
-      <c r="F20" s="296"/>
-      <c r="G20" s="296"/>
-      <c r="H20" s="296"/>
-      <c r="I20" s="296"/>
-      <c r="J20" s="296"/>
-      <c r="K20" s="297"/>
+      <c r="D20" s="328"/>
+      <c r="E20" s="328"/>
+      <c r="F20" s="328"/>
+      <c r="G20" s="328"/>
+      <c r="H20" s="328"/>
+      <c r="I20" s="328"/>
+      <c r="J20" s="328"/>
+      <c r="K20" s="329"/>
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="302"/>
+      <c r="A21" s="334"/>
       <c r="B21" s="191" t="s">
         <v>280</v>
       </c>
-      <c r="C21" s="298" t="s">
+      <c r="C21" s="330" t="s">
         <v>281</v>
       </c>
-      <c r="D21" s="298"/>
-      <c r="E21" s="298"/>
-      <c r="F21" s="298"/>
-      <c r="G21" s="298"/>
-      <c r="H21" s="298"/>
-      <c r="I21" s="298"/>
-      <c r="J21" s="298"/>
-      <c r="K21" s="299"/>
+      <c r="D21" s="330"/>
+      <c r="E21" s="330"/>
+      <c r="F21" s="330"/>
+      <c r="G21" s="330"/>
+      <c r="H21" s="330"/>
+      <c r="I21" s="330"/>
+      <c r="J21" s="330"/>
+      <c r="K21" s="331"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C18:K18"/>
+    <mergeCell ref="C19:K19"/>
+    <mergeCell ref="C20:K20"/>
+    <mergeCell ref="C21:K21"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="C17:K17"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="A2:B2"/>
@@ -11529,12 +11535,6 @@
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="I9:K9"/>
-    <mergeCell ref="C18:K18"/>
-    <mergeCell ref="C19:K19"/>
-    <mergeCell ref="C20:K20"/>
-    <mergeCell ref="C21:K21"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="C17:K17"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11546,7 +11546,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="H2" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11555,21 +11555,22 @@
     <col min="2" max="2" width="9.7109375" customWidth="1"/>
     <col min="3" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="2.85546875" customWidth="1"/>
-    <col min="6" max="8" width="27.7109375" style="21" customWidth="1"/>
+    <col min="6" max="7" width="27.7109375" style="21" customWidth="1"/>
+    <col min="8" max="8" width="29.140625" style="21" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28.7109375" style="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="316" t="s">
+      <c r="B1" s="337" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="316"/>
-      <c r="D1" s="316"/>
-      <c r="F1" s="316" t="s">
+      <c r="C1" s="337"/>
+      <c r="D1" s="337"/>
+      <c r="F1" s="337" t="s">
         <v>104</v>
       </c>
-      <c r="G1" s="316"/>
-      <c r="H1" s="316"/>
+      <c r="G1" s="337"/>
+      <c r="H1" s="337"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="36" t="s">
@@ -11598,10 +11599,10 @@
       <c r="D3" s="166" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="325" t="s">
+      <c r="F3" s="346" t="s">
         <v>94</v>
       </c>
-      <c r="G3" s="327" t="s">
+      <c r="G3" s="348" t="s">
         <v>93</v>
       </c>
       <c r="H3" s="172" t="s">
@@ -11618,8 +11619,8 @@
       <c r="D4" s="169" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="325"/>
-      <c r="G4" s="328"/>
+      <c r="F4" s="346"/>
+      <c r="G4" s="349"/>
       <c r="H4" s="173" t="s">
         <v>60</v>
       </c>
@@ -11634,8 +11635,8 @@
       <c r="D5" s="164" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="325"/>
-      <c r="G5" s="328"/>
+      <c r="F5" s="346"/>
+      <c r="G5" s="349"/>
       <c r="H5" s="174" t="s">
         <v>61</v>
       </c>
@@ -11650,8 +11651,8 @@
       <c r="D6" s="167" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="325"/>
-      <c r="G6" s="328"/>
+      <c r="F6" s="346"/>
+      <c r="G6" s="349"/>
       <c r="H6" s="179" t="s">
         <v>62</v>
       </c>
@@ -11666,8 +11667,8 @@
       <c r="D7" s="168" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="325"/>
-      <c r="G7" s="328"/>
+      <c r="F7" s="346"/>
+      <c r="G7" s="349"/>
       <c r="H7" s="178" t="s">
         <v>99</v>
       </c>
@@ -11682,8 +11683,8 @@
       <c r="D8" s="165" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="325"/>
-      <c r="G8" s="328"/>
+      <c r="F8" s="346"/>
+      <c r="G8" s="349"/>
       <c r="H8" s="175" t="s">
         <v>103</v>
       </c>
@@ -11698,8 +11699,8 @@
       <c r="D9" s="170" t="s">
         <v>55</v>
       </c>
-      <c r="F9" s="325"/>
-      <c r="G9" s="328"/>
+      <c r="F9" s="346"/>
+      <c r="G9" s="349"/>
       <c r="H9" s="176" t="s">
         <v>97</v>
       </c>
@@ -11714,21 +11715,21 @@
       <c r="D10" s="171" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="326"/>
-      <c r="G10" s="329"/>
+      <c r="F10" s="347"/>
+      <c r="G10" s="350"/>
       <c r="H10" s="177" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="320" t="s">
+      <c r="B12" s="341" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="321"/>
-      <c r="D12" s="321"/>
-      <c r="E12" s="321"/>
-      <c r="F12" s="322"/>
+      <c r="C12" s="342"/>
+      <c r="D12" s="342"/>
+      <c r="E12" s="342"/>
+      <c r="F12" s="343"/>
       <c r="G12" s="180" t="s">
         <v>56</v>
       </c>
@@ -11737,13 +11738,13 @@
       <c r="B13" s="181" t="s">
         <v>90</v>
       </c>
-      <c r="C13" s="330" t="s">
+      <c r="C13" s="351" t="s">
         <v>89</v>
       </c>
-      <c r="D13" s="330"/>
-      <c r="E13" s="330"/>
-      <c r="F13" s="331"/>
-      <c r="G13" s="317" t="s">
+      <c r="D13" s="351"/>
+      <c r="E13" s="351"/>
+      <c r="F13" s="352"/>
+      <c r="G13" s="338" t="s">
         <v>219</v>
       </c>
       <c r="I13" s="29"/>
@@ -11752,39 +11753,39 @@
       <c r="B14" s="182" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="332" t="s">
+      <c r="C14" s="353" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="332"/>
-      <c r="E14" s="332"/>
-      <c r="F14" s="333"/>
-      <c r="G14" s="318"/>
+      <c r="D14" s="353"/>
+      <c r="E14" s="353"/>
+      <c r="F14" s="354"/>
+      <c r="G14" s="339"/>
       <c r="I14" s="29"/>
     </row>
     <row r="15" spans="1:9" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="181" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="330" t="s">
+      <c r="C15" s="351" t="s">
         <v>87</v>
       </c>
-      <c r="D15" s="330"/>
-      <c r="E15" s="330"/>
-      <c r="F15" s="331"/>
-      <c r="G15" s="318"/>
+      <c r="D15" s="351"/>
+      <c r="E15" s="351"/>
+      <c r="F15" s="352"/>
+      <c r="G15" s="339"/>
       <c r="I15" s="29"/>
     </row>
     <row r="16" spans="1:9" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="183" t="s">
         <v>91</v>
       </c>
-      <c r="C16" s="323" t="s">
+      <c r="C16" s="344" t="s">
         <v>88</v>
       </c>
-      <c r="D16" s="323"/>
-      <c r="E16" s="323"/>
-      <c r="F16" s="324"/>
-      <c r="G16" s="319"/>
+      <c r="D16" s="344"/>
+      <c r="E16" s="344"/>
+      <c r="F16" s="345"/>
+      <c r="G16" s="340"/>
       <c r="I16" s="29"/>
     </row>
     <row r="17" spans="7:7" x14ac:dyDescent="0.25">
@@ -11840,76 +11841,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="334" t="s">
+      <c r="A1" s="355" t="s">
         <v>220</v>
       </c>
-      <c r="B1" s="335"/>
-      <c r="C1" s="335"/>
-      <c r="D1" s="335"/>
-      <c r="F1" s="334" t="s">
+      <c r="B1" s="356"/>
+      <c r="C1" s="356"/>
+      <c r="D1" s="356"/>
+      <c r="F1" s="355" t="s">
         <v>222</v>
       </c>
-      <c r="G1" s="335"/>
-      <c r="H1" s="335"/>
-      <c r="I1" s="335"/>
-      <c r="J1" s="335"/>
-      <c r="K1" s="335"/>
-      <c r="L1" s="335"/>
-      <c r="M1" s="335"/>
-      <c r="N1" s="335"/>
-      <c r="O1" s="335"/>
-      <c r="P1" s="336"/>
-      <c r="R1" s="334" t="s">
+      <c r="G1" s="356"/>
+      <c r="H1" s="356"/>
+      <c r="I1" s="356"/>
+      <c r="J1" s="356"/>
+      <c r="K1" s="356"/>
+      <c r="L1" s="356"/>
+      <c r="M1" s="356"/>
+      <c r="N1" s="356"/>
+      <c r="O1" s="356"/>
+      <c r="P1" s="357"/>
+      <c r="R1" s="355" t="s">
         <v>223</v>
       </c>
-      <c r="S1" s="335"/>
-      <c r="T1" s="335"/>
-      <c r="U1" s="335"/>
-      <c r="V1" s="335"/>
-      <c r="W1" s="335"/>
-      <c r="X1" s="335"/>
-      <c r="Y1" s="335"/>
-      <c r="Z1" s="335"/>
-      <c r="AA1" s="336"/>
+      <c r="S1" s="356"/>
+      <c r="T1" s="356"/>
+      <c r="U1" s="356"/>
+      <c r="V1" s="356"/>
+      <c r="W1" s="356"/>
+      <c r="X1" s="356"/>
+      <c r="Y1" s="356"/>
+      <c r="Z1" s="356"/>
+      <c r="AA1" s="357"/>
     </row>
     <row r="2" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="341" t="s">
+      <c r="A2" s="362" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="340"/>
-      <c r="C2" s="340"/>
-      <c r="D2" s="340"/>
-      <c r="F2" s="337" t="s">
+      <c r="B2" s="361"/>
+      <c r="C2" s="361"/>
+      <c r="D2" s="361"/>
+      <c r="F2" s="358" t="s">
         <v>130</v>
       </c>
-      <c r="G2" s="339"/>
-      <c r="H2" s="339"/>
-      <c r="I2" s="339"/>
-      <c r="J2" s="339"/>
-      <c r="K2" s="339"/>
-      <c r="L2" s="339"/>
-      <c r="M2" s="338"/>
+      <c r="G2" s="360"/>
+      <c r="H2" s="360"/>
+      <c r="I2" s="360"/>
+      <c r="J2" s="360"/>
+      <c r="K2" s="360"/>
+      <c r="L2" s="360"/>
+      <c r="M2" s="359"/>
       <c r="N2" s="91" t="s">
         <v>106</v>
       </c>
-      <c r="O2" s="337" t="s">
+      <c r="O2" s="358" t="s">
         <v>107</v>
       </c>
-      <c r="P2" s="338"/>
-      <c r="R2" s="337" t="s">
+      <c r="P2" s="359"/>
+      <c r="R2" s="358" t="s">
         <v>130</v>
       </c>
-      <c r="S2" s="339"/>
-      <c r="T2" s="339"/>
-      <c r="U2" s="339"/>
-      <c r="V2" s="339"/>
-      <c r="W2" s="339"/>
-      <c r="X2" s="339"/>
-      <c r="Y2" s="338"/>
-      <c r="Z2" s="337" t="s">
+      <c r="S2" s="360"/>
+      <c r="T2" s="360"/>
+      <c r="U2" s="360"/>
+      <c r="V2" s="360"/>
+      <c r="W2" s="360"/>
+      <c r="X2" s="360"/>
+      <c r="Y2" s="359"/>
+      <c r="Z2" s="358" t="s">
         <v>107</v>
       </c>
-      <c r="AA2" s="338"/>
+      <c r="AA2" s="359"/>
     </row>
     <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="38" t="s">
@@ -12170,12 +12171,12 @@
       </c>
     </row>
     <row r="7" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="340" t="s">
+      <c r="A7" s="361" t="s">
         <v>120</v>
       </c>
-      <c r="B7" s="340"/>
-      <c r="C7" s="340"/>
-      <c r="D7" s="340"/>
+      <c r="B7" s="361"/>
+      <c r="C7" s="361"/>
+      <c r="D7" s="361"/>
       <c r="F7" s="59">
         <v>1</v>
       </c>
@@ -12469,12 +12470,12 @@
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="340" t="s">
+      <c r="A12" s="361" t="s">
         <v>125</v>
       </c>
-      <c r="B12" s="340"/>
-      <c r="C12" s="340"/>
-      <c r="D12" s="340"/>
+      <c r="B12" s="361"/>
+      <c r="C12" s="361"/>
+      <c r="D12" s="361"/>
       <c r="F12" s="58">
         <v>0</v>
       </c>
@@ -12753,28 +12754,28 @@
       <c r="A1" s="94" t="s">
         <v>238</v>
       </c>
-      <c r="B1" s="342" t="s">
+      <c r="B1" s="368" t="s">
         <v>230</v>
       </c>
-      <c r="C1" s="342"/>
-      <c r="D1" s="342"/>
-      <c r="E1" s="343"/>
-      <c r="F1" s="342" t="s">
+      <c r="C1" s="368"/>
+      <c r="D1" s="368"/>
+      <c r="E1" s="369"/>
+      <c r="F1" s="368" t="s">
         <v>231</v>
       </c>
-      <c r="G1" s="342"/>
-      <c r="H1" s="342"/>
-      <c r="I1" s="342"/>
-      <c r="J1" s="342"/>
-      <c r="K1" s="342"/>
-      <c r="L1" s="342"/>
-      <c r="M1" s="342"/>
-      <c r="N1" s="344">
+      <c r="G1" s="368"/>
+      <c r="H1" s="368"/>
+      <c r="I1" s="368"/>
+      <c r="J1" s="368"/>
+      <c r="K1" s="368"/>
+      <c r="L1" s="368"/>
+      <c r="M1" s="368"/>
+      <c r="N1" s="370">
         <f>2^32</f>
         <v>4294967296</v>
       </c>
-      <c r="O1" s="344"/>
-      <c r="P1" s="344"/>
+      <c r="O1" s="370"/>
+      <c r="P1" s="370"/>
       <c r="Q1" s="162" t="s">
         <v>239</v>
       </c>
@@ -12783,34 +12784,34 @@
       <c r="A2" s="94" t="s">
         <v>156</v>
       </c>
-      <c r="B2" s="345" t="s">
+      <c r="B2" s="371" t="s">
         <v>225</v>
       </c>
-      <c r="C2" s="345"/>
-      <c r="D2" s="345" t="s">
+      <c r="C2" s="371"/>
+      <c r="D2" s="371" t="s">
         <v>130</v>
       </c>
-      <c r="E2" s="346"/>
-      <c r="F2" s="345" t="s">
+      <c r="E2" s="372"/>
+      <c r="F2" s="371" t="s">
         <v>225</v>
       </c>
-      <c r="G2" s="345"/>
-      <c r="H2" s="345" t="s">
+      <c r="G2" s="371"/>
+      <c r="H2" s="371" t="s">
         <v>130</v>
       </c>
-      <c r="I2" s="345"/>
-      <c r="J2" s="345" t="s">
+      <c r="I2" s="371"/>
+      <c r="J2" s="371" t="s">
         <v>226</v>
       </c>
-      <c r="K2" s="345"/>
-      <c r="L2" s="345"/>
-      <c r="M2" s="345"/>
-      <c r="N2" s="351" t="s">
+      <c r="K2" s="371"/>
+      <c r="L2" s="371"/>
+      <c r="M2" s="371"/>
+      <c r="N2" s="367" t="s">
         <v>265</v>
       </c>
-      <c r="O2" s="351"/>
-      <c r="P2" s="351"/>
-      <c r="Q2" s="351"/>
+      <c r="O2" s="367"/>
+      <c r="P2" s="367"/>
+      <c r="Q2" s="367"/>
     </row>
     <row r="3" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="161" t="s">
@@ -13037,18 +13038,18 @@
       <c r="E7" s="152" t="s">
         <v>143</v>
       </c>
-      <c r="F7" s="347" t="s">
+      <c r="F7" s="363" t="s">
         <v>148</v>
       </c>
-      <c r="G7" s="348"/>
-      <c r="H7" s="348"/>
-      <c r="I7" s="348"/>
-      <c r="J7" s="347" t="s">
+      <c r="G7" s="364"/>
+      <c r="H7" s="364"/>
+      <c r="I7" s="364"/>
+      <c r="J7" s="363" t="s">
         <v>148</v>
       </c>
-      <c r="K7" s="348"/>
-      <c r="L7" s="348"/>
-      <c r="M7" s="348"/>
+      <c r="K7" s="364"/>
+      <c r="L7" s="364"/>
+      <c r="M7" s="364"/>
       <c r="N7" s="199" t="s">
         <v>134</v>
       </c>
@@ -13078,18 +13079,18 @@
       <c r="E8" s="154" t="s">
         <v>145</v>
       </c>
-      <c r="F8" s="349" t="s">
+      <c r="F8" s="365" t="s">
         <v>149</v>
       </c>
-      <c r="G8" s="350"/>
-      <c r="H8" s="350"/>
-      <c r="I8" s="350"/>
-      <c r="J8" s="349" t="s">
+      <c r="G8" s="366"/>
+      <c r="H8" s="366"/>
+      <c r="I8" s="366"/>
+      <c r="J8" s="365" t="s">
         <v>149</v>
       </c>
-      <c r="K8" s="350"/>
-      <c r="L8" s="350"/>
-      <c r="M8" s="350"/>
+      <c r="K8" s="366"/>
+      <c r="L8" s="366"/>
+      <c r="M8" s="366"/>
       <c r="N8" s="202" t="s">
         <v>135</v>
       </c>
@@ -13804,11 +13805,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="N2:Q2"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:M1"/>
     <mergeCell ref="N1:P1"/>
@@ -13817,6 +13813,11 @@
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="N2:Q2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13849,45 +13850,45 @@
       <c r="A1" s="97" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="352">
+      <c r="B1" s="388">
         <f>2^128</f>
         <v>3.4028236692093846E+38</v>
       </c>
-      <c r="C1" s="352"/>
-      <c r="D1" s="352"/>
-      <c r="E1" s="352"/>
-      <c r="F1" s="352"/>
-      <c r="G1" s="352"/>
-      <c r="H1" s="352"/>
-      <c r="I1" s="352"/>
+      <c r="C1" s="388"/>
+      <c r="D1" s="388"/>
+      <c r="E1" s="388"/>
+      <c r="F1" s="388"/>
+      <c r="G1" s="388"/>
+      <c r="H1" s="388"/>
+      <c r="I1" s="388"/>
       <c r="J1" s="97" t="s">
         <v>240</v>
       </c>
-      <c r="K1" s="353" t="s">
+      <c r="K1" s="389" t="s">
         <v>229</v>
       </c>
-      <c r="L1" s="353"/>
-      <c r="M1" s="353"/>
-      <c r="N1" s="353"/>
+      <c r="L1" s="389"/>
+      <c r="M1" s="389"/>
+      <c r="N1" s="389"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="120" t="s">
         <v>177</v>
       </c>
-      <c r="B2" s="354" t="s">
+      <c r="B2" s="390" t="s">
         <v>173</v>
       </c>
-      <c r="C2" s="355"/>
-      <c r="D2" s="355"/>
+      <c r="C2" s="391"/>
+      <c r="D2" s="391"/>
       <c r="E2" s="98" t="s">
         <v>253</v>
       </c>
-      <c r="F2" s="355" t="s">
+      <c r="F2" s="391" t="s">
         <v>174</v>
       </c>
-      <c r="G2" s="355"/>
-      <c r="H2" s="355"/>
-      <c r="I2" s="356"/>
+      <c r="G2" s="391"/>
+      <c r="H2" s="391"/>
+      <c r="I2" s="392"/>
       <c r="J2" s="99" t="s">
         <v>175</v>
       </c>
@@ -14008,11 +14009,11 @@
       <c r="E5" s="118" t="s">
         <v>182</v>
       </c>
-      <c r="F5" s="357" t="s">
+      <c r="F5" s="393" t="s">
         <v>184</v>
       </c>
-      <c r="G5" s="357"/>
-      <c r="H5" s="357"/>
+      <c r="G5" s="393"/>
+      <c r="H5" s="393"/>
       <c r="I5" s="119">
         <v>1</v>
       </c>
@@ -14042,12 +14043,12 @@
       <c r="B7" s="103" t="s">
         <v>263</v>
       </c>
-      <c r="C7" s="364" t="s">
+      <c r="C7" s="385" t="s">
         <v>248</v>
       </c>
-      <c r="D7" s="364"/>
-      <c r="E7" s="364"/>
-      <c r="F7" s="365"/>
+      <c r="D7" s="385"/>
+      <c r="E7" s="385"/>
+      <c r="F7" s="386"/>
       <c r="G7" s="127" t="s">
         <v>261</v>
       </c>
@@ -14062,10 +14063,10 @@
       <c r="C8" s="123" t="s">
         <v>262</v>
       </c>
-      <c r="D8" s="366" t="s">
+      <c r="D8" s="387" t="s">
         <v>249</v>
       </c>
-      <c r="E8" s="366"/>
+      <c r="E8" s="387"/>
       <c r="F8" s="121" t="s">
         <v>250</v>
       </c>
@@ -14124,114 +14125,114 @@
       <c r="A12" s="130" t="s">
         <v>263</v>
       </c>
-      <c r="B12" s="361" t="s">
+      <c r="B12" s="382" t="s">
         <v>248</v>
       </c>
-      <c r="C12" s="362"/>
-      <c r="D12" s="363"/>
-      <c r="E12" s="361" t="s">
+      <c r="C12" s="383"/>
+      <c r="D12" s="384"/>
+      <c r="E12" s="382" t="s">
         <v>264</v>
       </c>
-      <c r="F12" s="362"/>
-      <c r="G12" s="363"/>
+      <c r="F12" s="383"/>
+      <c r="G12" s="384"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="128" t="s">
         <v>188</v>
       </c>
-      <c r="B13" s="358" t="s">
+      <c r="B13" s="373" t="s">
         <v>190</v>
       </c>
-      <c r="C13" s="359"/>
-      <c r="D13" s="360"/>
-      <c r="E13" s="359" t="s">
+      <c r="C13" s="374"/>
+      <c r="D13" s="375"/>
+      <c r="E13" s="374" t="s">
         <v>191</v>
       </c>
-      <c r="F13" s="359"/>
-      <c r="G13" s="360"/>
+      <c r="F13" s="374"/>
+      <c r="G13" s="375"/>
       <c r="H13" s="37"/>
       <c r="I13" s="37"/>
       <c r="J13" s="37"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="129"/>
-      <c r="B14" s="367"/>
-      <c r="C14" s="368"/>
-      <c r="D14" s="369"/>
-      <c r="E14" s="368"/>
-      <c r="F14" s="368"/>
-      <c r="G14" s="369"/>
+      <c r="B14" s="376"/>
+      <c r="C14" s="377"/>
+      <c r="D14" s="378"/>
+      <c r="E14" s="377"/>
+      <c r="F14" s="377"/>
+      <c r="G14" s="378"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="128"/>
-      <c r="B15" s="358"/>
-      <c r="C15" s="359"/>
-      <c r="D15" s="360"/>
-      <c r="E15" s="359"/>
-      <c r="F15" s="359"/>
-      <c r="G15" s="360"/>
+      <c r="B15" s="373"/>
+      <c r="C15" s="374"/>
+      <c r="D15" s="375"/>
+      <c r="E15" s="374"/>
+      <c r="F15" s="374"/>
+      <c r="G15" s="375"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="129"/>
-      <c r="B16" s="367"/>
-      <c r="C16" s="368"/>
-      <c r="D16" s="369"/>
-      <c r="E16" s="368"/>
-      <c r="F16" s="368"/>
-      <c r="G16" s="369"/>
+      <c r="B16" s="376"/>
+      <c r="C16" s="377"/>
+      <c r="D16" s="378"/>
+      <c r="E16" s="377"/>
+      <c r="F16" s="377"/>
+      <c r="G16" s="378"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="128"/>
-      <c r="B17" s="358"/>
-      <c r="C17" s="359"/>
-      <c r="D17" s="360"/>
-      <c r="E17" s="359"/>
-      <c r="F17" s="359"/>
-      <c r="G17" s="360"/>
+      <c r="B17" s="373"/>
+      <c r="C17" s="374"/>
+      <c r="D17" s="375"/>
+      <c r="E17" s="374"/>
+      <c r="F17" s="374"/>
+      <c r="G17" s="375"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="129"/>
-      <c r="B18" s="367"/>
-      <c r="C18" s="368"/>
-      <c r="D18" s="369"/>
-      <c r="E18" s="368"/>
-      <c r="F18" s="368"/>
-      <c r="G18" s="369"/>
+      <c r="B18" s="376"/>
+      <c r="C18" s="377"/>
+      <c r="D18" s="378"/>
+      <c r="E18" s="377"/>
+      <c r="F18" s="377"/>
+      <c r="G18" s="378"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="116"/>
-      <c r="B19" s="370"/>
-      <c r="C19" s="371"/>
-      <c r="D19" s="372"/>
-      <c r="E19" s="371"/>
-      <c r="F19" s="371"/>
-      <c r="G19" s="372"/>
+      <c r="B19" s="379"/>
+      <c r="C19" s="380"/>
+      <c r="D19" s="381"/>
+      <c r="E19" s="380"/>
+      <c r="F19" s="380"/>
+      <c r="G19" s="381"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="E17:G17"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="E18:G18"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="E19:G19"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="F5:H5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14266,11 +14267,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="388" t="s">
+      <c r="A1" s="397" t="s">
         <v>320</v>
       </c>
-      <c r="B1" s="388"/>
-      <c r="C1" s="388"/>
+      <c r="B1" s="397"/>
+      <c r="C1" s="397"/>
       <c r="D1" s="226" t="s">
         <v>471</v>
       </c>
@@ -14298,11 +14299,11 @@
       <c r="P1" s="34"/>
     </row>
     <row r="2" spans="1:16" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="385" t="s">
+      <c r="A2" s="394" t="s">
         <v>470</v>
       </c>
-      <c r="B2" s="386"/>
-      <c r="C2" s="387"/>
+      <c r="B2" s="395"/>
+      <c r="C2" s="396"/>
       <c r="D2" s="230" t="s">
         <v>321</v>
       </c>
@@ -14386,21 +14387,21 @@
       <c r="F4" s="244" t="s">
         <v>326</v>
       </c>
-      <c r="G4" s="376" t="s">
+      <c r="G4" s="401" t="s">
         <v>108</v>
       </c>
-      <c r="H4" s="376">
+      <c r="H4" s="401">
         <v>3</v>
       </c>
-      <c r="I4" s="376">
+      <c r="I4" s="401">
         <f>IF(H4="","",IF(H4&lt;=2,1,IF(H4&lt;=4,2,IF(H4&lt;=8,3,IF(H4&lt;=16,4,IF(H4&lt;=32,5,IF(H4&lt;=64,6,IF(H4&lt;=128,7,8))))))))</f>
         <v>2</v>
       </c>
-      <c r="J4" s="376">
+      <c r="J4" s="401">
         <f>IF(G4="","",IF(G4="A",8+I4,IF(G4="B",16+I4,IF(G4="C",24+I4,"invalid"))))</f>
         <v>10</v>
       </c>
-      <c r="K4" s="379">
+      <c r="K4" s="398">
         <f>IF(J4="","",2^(32-J4))</f>
         <v>4194304</v>
       </c>
@@ -14424,11 +14425,11 @@
       <c r="F5" s="214" t="s">
         <v>326</v>
       </c>
-      <c r="G5" s="377"/>
-      <c r="H5" s="377"/>
-      <c r="I5" s="377"/>
-      <c r="J5" s="377"/>
-      <c r="K5" s="380"/>
+      <c r="G5" s="402"/>
+      <c r="H5" s="402"/>
+      <c r="I5" s="402"/>
+      <c r="J5" s="402"/>
+      <c r="K5" s="399"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="237" t="s">
@@ -14449,11 +14450,11 @@
       <c r="F6" s="212" t="s">
         <v>326</v>
       </c>
-      <c r="G6" s="377"/>
-      <c r="H6" s="377"/>
-      <c r="I6" s="377"/>
-      <c r="J6" s="377"/>
-      <c r="K6" s="380"/>
+      <c r="G6" s="402"/>
+      <c r="H6" s="402"/>
+      <c r="I6" s="402"/>
+      <c r="J6" s="402"/>
+      <c r="K6" s="399"/>
     </row>
     <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="239" t="s">
@@ -14474,11 +14475,11 @@
       <c r="F7" s="241" t="s">
         <v>326</v>
       </c>
-      <c r="G7" s="378"/>
-      <c r="H7" s="378"/>
-      <c r="I7" s="378"/>
-      <c r="J7" s="378"/>
-      <c r="K7" s="381"/>
+      <c r="G7" s="403"/>
+      <c r="H7" s="403"/>
+      <c r="I7" s="403"/>
+      <c r="J7" s="403"/>
+      <c r="K7" s="400"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="242" t="s">
@@ -14499,21 +14500,21 @@
       <c r="F8" s="244" t="s">
         <v>389</v>
       </c>
-      <c r="G8" s="373" t="s">
+      <c r="G8" s="404" t="s">
         <v>109</v>
       </c>
-      <c r="H8" s="373">
+      <c r="H8" s="404">
         <v>5</v>
       </c>
-      <c r="I8" s="373">
+      <c r="I8" s="404">
         <f t="shared" ref="I8:I44" si="0">IF(H8="","",IF(H8&lt;=2,1,IF(H8&lt;=4,2,IF(H8&lt;=8,3,IF(H8&lt;=16,4,IF(H8&lt;=32,5,IF(H8&lt;=64,6,IF(H8&lt;=128,7,8))))))))</f>
         <v>3</v>
       </c>
-      <c r="J8" s="373">
+      <c r="J8" s="404">
         <f t="shared" ref="J8:J20" si="1">IF(G8="","",IF(G8="A",8+I8,IF(G8="B",16+I8,IF(G8="C",24+I8,"invalid"))))</f>
         <v>19</v>
       </c>
-      <c r="K8" s="382">
+      <c r="K8" s="407">
         <f t="shared" ref="K8:K44" si="2">IF(J8="","",2^(32-J8))</f>
         <v>8192</v>
       </c>
@@ -14537,11 +14538,11 @@
       <c r="F9" s="214" t="s">
         <v>389</v>
       </c>
-      <c r="G9" s="374"/>
-      <c r="H9" s="374"/>
-      <c r="I9" s="374"/>
-      <c r="J9" s="374"/>
-      <c r="K9" s="383"/>
+      <c r="G9" s="405"/>
+      <c r="H9" s="405"/>
+      <c r="I9" s="405"/>
+      <c r="J9" s="405"/>
+      <c r="K9" s="408"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="237" t="s">
@@ -14562,11 +14563,11 @@
       <c r="F10" s="212" t="s">
         <v>389</v>
       </c>
-      <c r="G10" s="374"/>
-      <c r="H10" s="374"/>
-      <c r="I10" s="374"/>
-      <c r="J10" s="374"/>
-      <c r="K10" s="383"/>
+      <c r="G10" s="405"/>
+      <c r="H10" s="405"/>
+      <c r="I10" s="405"/>
+      <c r="J10" s="405"/>
+      <c r="K10" s="408"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="238" t="s">
@@ -14587,11 +14588,11 @@
       <c r="F11" s="216" t="s">
         <v>389</v>
       </c>
-      <c r="G11" s="374"/>
-      <c r="H11" s="374"/>
-      <c r="I11" s="374"/>
-      <c r="J11" s="374"/>
-      <c r="K11" s="383"/>
+      <c r="G11" s="405"/>
+      <c r="H11" s="405"/>
+      <c r="I11" s="405"/>
+      <c r="J11" s="405"/>
+      <c r="K11" s="408"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="237" t="s">
@@ -14612,11 +14613,11 @@
       <c r="F12" s="212" t="s">
         <v>389</v>
       </c>
-      <c r="G12" s="374"/>
-      <c r="H12" s="374"/>
-      <c r="I12" s="374"/>
-      <c r="J12" s="374"/>
-      <c r="K12" s="383"/>
+      <c r="G12" s="405"/>
+      <c r="H12" s="405"/>
+      <c r="I12" s="405"/>
+      <c r="J12" s="405"/>
+      <c r="K12" s="408"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="236" t="s">
@@ -14637,11 +14638,11 @@
       <c r="F13" s="214" t="s">
         <v>389</v>
       </c>
-      <c r="G13" s="374"/>
-      <c r="H13" s="374"/>
-      <c r="I13" s="374"/>
-      <c r="J13" s="374"/>
-      <c r="K13" s="383"/>
+      <c r="G13" s="405"/>
+      <c r="H13" s="405"/>
+      <c r="I13" s="405"/>
+      <c r="J13" s="405"/>
+      <c r="K13" s="408"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="237" t="s">
@@ -14662,11 +14663,11 @@
       <c r="F14" s="212" t="s">
         <v>389</v>
       </c>
-      <c r="G14" s="374"/>
-      <c r="H14" s="374"/>
-      <c r="I14" s="374"/>
-      <c r="J14" s="374"/>
-      <c r="K14" s="383"/>
+      <c r="G14" s="405"/>
+      <c r="H14" s="405"/>
+      <c r="I14" s="405"/>
+      <c r="J14" s="405"/>
+      <c r="K14" s="408"/>
     </row>
     <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="239" t="s">
@@ -14687,11 +14688,11 @@
       <c r="F15" s="241" t="s">
         <v>389</v>
       </c>
-      <c r="G15" s="375"/>
-      <c r="H15" s="375"/>
-      <c r="I15" s="375"/>
-      <c r="J15" s="375"/>
-      <c r="K15" s="384"/>
+      <c r="G15" s="406"/>
+      <c r="H15" s="406"/>
+      <c r="I15" s="406"/>
+      <c r="J15" s="406"/>
+      <c r="K15" s="409"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="242" t="s">
@@ -14712,21 +14713,21 @@
       <c r="F16" s="245">
         <v>255255255192</v>
       </c>
-      <c r="G16" s="376" t="s">
+      <c r="G16" s="401" t="s">
         <v>111</v>
       </c>
-      <c r="H16" s="376">
+      <c r="H16" s="401">
         <v>4</v>
       </c>
-      <c r="I16" s="376">
+      <c r="I16" s="401">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J16" s="376">
+      <c r="J16" s="401">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="K16" s="379">
+      <c r="K16" s="398">
         <f t="shared" si="2"/>
         <v>64</v>
       </c>
@@ -14750,11 +14751,11 @@
       <c r="F17" s="225">
         <v>255255255192</v>
       </c>
-      <c r="G17" s="377"/>
-      <c r="H17" s="377"/>
-      <c r="I17" s="377"/>
-      <c r="J17" s="377"/>
-      <c r="K17" s="380"/>
+      <c r="G17" s="402"/>
+      <c r="H17" s="402"/>
+      <c r="I17" s="402"/>
+      <c r="J17" s="402"/>
+      <c r="K17" s="399"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="237" t="s">
@@ -14775,11 +14776,11 @@
       <c r="F18" s="224">
         <v>255255255192</v>
       </c>
-      <c r="G18" s="377"/>
-      <c r="H18" s="377"/>
-      <c r="I18" s="377"/>
-      <c r="J18" s="377"/>
-      <c r="K18" s="380"/>
+      <c r="G18" s="402"/>
+      <c r="H18" s="402"/>
+      <c r="I18" s="402"/>
+      <c r="J18" s="402"/>
+      <c r="K18" s="399"/>
     </row>
     <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="239" t="s">
@@ -14800,11 +14801,11 @@
       <c r="F19" s="246">
         <v>255255255192</v>
       </c>
-      <c r="G19" s="378"/>
-      <c r="H19" s="378"/>
-      <c r="I19" s="378"/>
-      <c r="J19" s="378"/>
-      <c r="K19" s="381"/>
+      <c r="G19" s="403"/>
+      <c r="H19" s="403"/>
+      <c r="I19" s="403"/>
+      <c r="J19" s="403"/>
+      <c r="K19" s="400"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="242" t="s">
@@ -14825,21 +14826,21 @@
       <c r="F20" s="244" t="s">
         <v>440</v>
       </c>
-      <c r="G20" s="373" t="s">
+      <c r="G20" s="404" t="s">
         <v>108</v>
       </c>
-      <c r="H20" s="373">
+      <c r="H20" s="404">
         <v>20</v>
       </c>
-      <c r="I20" s="373">
+      <c r="I20" s="404">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J20" s="373">
+      <c r="J20" s="404">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="K20" s="382">
+      <c r="K20" s="407">
         <f t="shared" si="2"/>
         <v>524288</v>
       </c>
@@ -14863,11 +14864,11 @@
       <c r="F21" s="214" t="s">
         <v>440</v>
       </c>
-      <c r="G21" s="374"/>
-      <c r="H21" s="374"/>
-      <c r="I21" s="374"/>
-      <c r="J21" s="374"/>
-      <c r="K21" s="383"/>
+      <c r="G21" s="405"/>
+      <c r="H21" s="405"/>
+      <c r="I21" s="405"/>
+      <c r="J21" s="405"/>
+      <c r="K21" s="408"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="237" t="s">
@@ -14888,11 +14889,11 @@
       <c r="F22" s="212" t="s">
         <v>440</v>
       </c>
-      <c r="G22" s="374"/>
-      <c r="H22" s="374"/>
-      <c r="I22" s="374"/>
-      <c r="J22" s="374"/>
-      <c r="K22" s="383"/>
+      <c r="G22" s="405"/>
+      <c r="H22" s="405"/>
+      <c r="I22" s="405"/>
+      <c r="J22" s="405"/>
+      <c r="K22" s="408"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="238" t="s">
@@ -14913,11 +14914,11 @@
       <c r="F23" s="216" t="s">
         <v>440</v>
       </c>
-      <c r="G23" s="374"/>
-      <c r="H23" s="374"/>
-      <c r="I23" s="374"/>
-      <c r="J23" s="374"/>
-      <c r="K23" s="383"/>
+      <c r="G23" s="405"/>
+      <c r="H23" s="405"/>
+      <c r="I23" s="405"/>
+      <c r="J23" s="405"/>
+      <c r="K23" s="408"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="237" t="s">
@@ -14938,11 +14939,11 @@
       <c r="F24" s="212" t="s">
         <v>440</v>
       </c>
-      <c r="G24" s="374"/>
-      <c r="H24" s="374"/>
-      <c r="I24" s="374"/>
-      <c r="J24" s="374"/>
-      <c r="K24" s="383"/>
+      <c r="G24" s="405"/>
+      <c r="H24" s="405"/>
+      <c r="I24" s="405"/>
+      <c r="J24" s="405"/>
+      <c r="K24" s="408"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="236" t="s">
@@ -14963,11 +14964,11 @@
       <c r="F25" s="214" t="s">
         <v>440</v>
       </c>
-      <c r="G25" s="374"/>
-      <c r="H25" s="374"/>
-      <c r="I25" s="374"/>
-      <c r="J25" s="374"/>
-      <c r="K25" s="383"/>
+      <c r="G25" s="405"/>
+      <c r="H25" s="405"/>
+      <c r="I25" s="405"/>
+      <c r="J25" s="405"/>
+      <c r="K25" s="408"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="237" t="s">
@@ -14988,11 +14989,11 @@
       <c r="F26" s="212" t="s">
         <v>440</v>
       </c>
-      <c r="G26" s="374"/>
-      <c r="H26" s="374"/>
-      <c r="I26" s="374"/>
-      <c r="J26" s="374"/>
-      <c r="K26" s="383"/>
+      <c r="G26" s="405"/>
+      <c r="H26" s="405"/>
+      <c r="I26" s="405"/>
+      <c r="J26" s="405"/>
+      <c r="K26" s="408"/>
     </row>
     <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="239" t="s">
@@ -15013,11 +15014,11 @@
       <c r="F27" s="241" t="s">
         <v>440</v>
       </c>
-      <c r="G27" s="375"/>
-      <c r="H27" s="375"/>
-      <c r="I27" s="375"/>
-      <c r="J27" s="375"/>
-      <c r="K27" s="384"/>
+      <c r="G27" s="406"/>
+      <c r="H27" s="406"/>
+      <c r="I27" s="406"/>
+      <c r="J27" s="406"/>
+      <c r="K27" s="409"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="242" t="s">
@@ -15038,21 +15039,21 @@
       <c r="F28" s="244" t="s">
         <v>440</v>
       </c>
-      <c r="G28" s="376" t="s">
+      <c r="G28" s="401" t="s">
         <v>108</v>
       </c>
-      <c r="H28" s="376">
+      <c r="H28" s="401">
         <v>20</v>
       </c>
-      <c r="I28" s="376">
+      <c r="I28" s="401">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J28" s="376">
+      <c r="J28" s="401">
         <f t="shared" ref="J28" si="3">IF(G28="","",IF(G28="A",8+I28,IF(G28="B",16+I28,IF(G28="C",24+I28,"invalid"))))</f>
         <v>13</v>
       </c>
-      <c r="K28" s="379">
+      <c r="K28" s="398">
         <f t="shared" si="2"/>
         <v>524288</v>
       </c>
@@ -15076,11 +15077,11 @@
       <c r="F29" s="214" t="s">
         <v>440</v>
       </c>
-      <c r="G29" s="377"/>
-      <c r="H29" s="377"/>
-      <c r="I29" s="377"/>
-      <c r="J29" s="377"/>
-      <c r="K29" s="380"/>
+      <c r="G29" s="402"/>
+      <c r="H29" s="402"/>
+      <c r="I29" s="402"/>
+      <c r="J29" s="402"/>
+      <c r="K29" s="399"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="237" t="s">
@@ -15101,11 +15102,11 @@
       <c r="F30" s="212" t="s">
         <v>440</v>
       </c>
-      <c r="G30" s="377"/>
-      <c r="H30" s="377"/>
-      <c r="I30" s="377"/>
-      <c r="J30" s="377"/>
-      <c r="K30" s="380"/>
+      <c r="G30" s="402"/>
+      <c r="H30" s="402"/>
+      <c r="I30" s="402"/>
+      <c r="J30" s="402"/>
+      <c r="K30" s="399"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="238" t="s">
@@ -15126,11 +15127,11 @@
       <c r="F31" s="216" t="s">
         <v>440</v>
       </c>
-      <c r="G31" s="377"/>
-      <c r="H31" s="377"/>
-      <c r="I31" s="377"/>
-      <c r="J31" s="377"/>
-      <c r="K31" s="380"/>
+      <c r="G31" s="402"/>
+      <c r="H31" s="402"/>
+      <c r="I31" s="402"/>
+      <c r="J31" s="402"/>
+      <c r="K31" s="399"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="237" t="s">
@@ -15151,11 +15152,11 @@
       <c r="F32" s="212" t="s">
         <v>440</v>
       </c>
-      <c r="G32" s="377"/>
-      <c r="H32" s="377"/>
-      <c r="I32" s="377"/>
-      <c r="J32" s="377"/>
-      <c r="K32" s="380"/>
+      <c r="G32" s="402"/>
+      <c r="H32" s="402"/>
+      <c r="I32" s="402"/>
+      <c r="J32" s="402"/>
+      <c r="K32" s="399"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="236" t="s">
@@ -15176,11 +15177,11 @@
       <c r="F33" s="214" t="s">
         <v>440</v>
       </c>
-      <c r="G33" s="377"/>
-      <c r="H33" s="377"/>
-      <c r="I33" s="377"/>
-      <c r="J33" s="377"/>
-      <c r="K33" s="380"/>
+      <c r="G33" s="402"/>
+      <c r="H33" s="402"/>
+      <c r="I33" s="402"/>
+      <c r="J33" s="402"/>
+      <c r="K33" s="399"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="237" t="s">
@@ -15201,11 +15202,11 @@
       <c r="F34" s="212" t="s">
         <v>440</v>
       </c>
-      <c r="G34" s="377"/>
-      <c r="H34" s="377"/>
-      <c r="I34" s="377"/>
-      <c r="J34" s="377"/>
-      <c r="K34" s="380"/>
+      <c r="G34" s="402"/>
+      <c r="H34" s="402"/>
+      <c r="I34" s="402"/>
+      <c r="J34" s="402"/>
+      <c r="K34" s="399"/>
     </row>
     <row r="35" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="239" t="s">
@@ -15226,11 +15227,11 @@
       <c r="F35" s="241" t="s">
         <v>440</v>
       </c>
-      <c r="G35" s="378"/>
-      <c r="H35" s="378"/>
-      <c r="I35" s="378"/>
-      <c r="J35" s="378"/>
-      <c r="K35" s="381"/>
+      <c r="G35" s="403"/>
+      <c r="H35" s="403"/>
+      <c r="I35" s="403"/>
+      <c r="J35" s="403"/>
+      <c r="K35" s="400"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="242" t="s">
@@ -15251,21 +15252,21 @@
       <c r="F36" s="244" t="s">
         <v>440</v>
       </c>
-      <c r="G36" s="373" t="s">
+      <c r="G36" s="404" t="s">
         <v>108</v>
       </c>
-      <c r="H36" s="373">
+      <c r="H36" s="404">
         <v>20</v>
       </c>
-      <c r="I36" s="373">
+      <c r="I36" s="404">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J36" s="373">
+      <c r="J36" s="404">
         <f t="shared" ref="J36" si="4">IF(G36="","",IF(G36="A",8+I36,IF(G36="B",16+I36,IF(G36="C",24+I36,"invalid"))))</f>
         <v>13</v>
       </c>
-      <c r="K36" s="382">
+      <c r="K36" s="407">
         <f t="shared" si="2"/>
         <v>524288</v>
       </c>
@@ -15289,11 +15290,11 @@
       <c r="F37" s="214" t="s">
         <v>440</v>
       </c>
-      <c r="G37" s="374"/>
-      <c r="H37" s="374"/>
-      <c r="I37" s="374"/>
-      <c r="J37" s="374"/>
-      <c r="K37" s="383"/>
+      <c r="G37" s="405"/>
+      <c r="H37" s="405"/>
+      <c r="I37" s="405"/>
+      <c r="J37" s="405"/>
+      <c r="K37" s="408"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="237" t="s">
@@ -15314,11 +15315,11 @@
       <c r="F38" s="212" t="s">
         <v>440</v>
       </c>
-      <c r="G38" s="374"/>
-      <c r="H38" s="374"/>
-      <c r="I38" s="374"/>
-      <c r="J38" s="374"/>
-      <c r="K38" s="383"/>
+      <c r="G38" s="405"/>
+      <c r="H38" s="405"/>
+      <c r="I38" s="405"/>
+      <c r="J38" s="405"/>
+      <c r="K38" s="408"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="238" t="s">
@@ -15339,11 +15340,11 @@
       <c r="F39" s="216" t="s">
         <v>440</v>
       </c>
-      <c r="G39" s="374"/>
-      <c r="H39" s="374"/>
-      <c r="I39" s="374"/>
-      <c r="J39" s="374"/>
-      <c r="K39" s="383"/>
+      <c r="G39" s="405"/>
+      <c r="H39" s="405"/>
+      <c r="I39" s="405"/>
+      <c r="J39" s="405"/>
+      <c r="K39" s="408"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="237" t="s">
@@ -15364,11 +15365,11 @@
       <c r="F40" s="212" t="s">
         <v>440</v>
       </c>
-      <c r="G40" s="374"/>
-      <c r="H40" s="374"/>
-      <c r="I40" s="374"/>
-      <c r="J40" s="374"/>
-      <c r="K40" s="383"/>
+      <c r="G40" s="405"/>
+      <c r="H40" s="405"/>
+      <c r="I40" s="405"/>
+      <c r="J40" s="405"/>
+      <c r="K40" s="408"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="236" t="s">
@@ -15389,11 +15390,11 @@
       <c r="F41" s="214" t="s">
         <v>440</v>
       </c>
-      <c r="G41" s="374"/>
-      <c r="H41" s="374"/>
-      <c r="I41" s="374"/>
-      <c r="J41" s="374"/>
-      <c r="K41" s="383"/>
+      <c r="G41" s="405"/>
+      <c r="H41" s="405"/>
+      <c r="I41" s="405"/>
+      <c r="J41" s="405"/>
+      <c r="K41" s="408"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="237" t="s">
@@ -15414,11 +15415,11 @@
       <c r="F42" s="212" t="s">
         <v>440</v>
       </c>
-      <c r="G42" s="374"/>
-      <c r="H42" s="374"/>
-      <c r="I42" s="374"/>
-      <c r="J42" s="374"/>
-      <c r="K42" s="383"/>
+      <c r="G42" s="405"/>
+      <c r="H42" s="405"/>
+      <c r="I42" s="405"/>
+      <c r="J42" s="405"/>
+      <c r="K42" s="408"/>
     </row>
     <row r="43" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="239" t="s">
@@ -15439,11 +15440,11 @@
       <c r="F43" s="241" t="s">
         <v>440</v>
       </c>
-      <c r="G43" s="375"/>
-      <c r="H43" s="375"/>
-      <c r="I43" s="375"/>
-      <c r="J43" s="375"/>
-      <c r="K43" s="384"/>
+      <c r="G43" s="406"/>
+      <c r="H43" s="406"/>
+      <c r="I43" s="406"/>
+      <c r="J43" s="406"/>
+      <c r="K43" s="409"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="242" t="s">
@@ -15464,21 +15465,21 @@
       <c r="F44" s="244" t="s">
         <v>440</v>
       </c>
-      <c r="G44" s="376" t="s">
+      <c r="G44" s="401" t="s">
         <v>108</v>
       </c>
-      <c r="H44" s="376">
+      <c r="H44" s="401">
         <v>20</v>
       </c>
-      <c r="I44" s="376">
+      <c r="I44" s="401">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J44" s="376">
+      <c r="J44" s="401">
         <f t="shared" ref="J44" si="5">IF(G44="","",IF(G44="A",8+I44,IF(G44="B",16+I44,IF(G44="C",24+I44,"invalid"))))</f>
         <v>13</v>
       </c>
-      <c r="K44" s="379">
+      <c r="K44" s="398">
         <f t="shared" si="2"/>
         <v>524288</v>
       </c>
@@ -15502,11 +15503,11 @@
       <c r="F45" s="214" t="s">
         <v>440</v>
       </c>
-      <c r="G45" s="377"/>
-      <c r="H45" s="377"/>
-      <c r="I45" s="377"/>
-      <c r="J45" s="377"/>
-      <c r="K45" s="380"/>
+      <c r="G45" s="402"/>
+      <c r="H45" s="402"/>
+      <c r="I45" s="402"/>
+      <c r="J45" s="402"/>
+      <c r="K45" s="399"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="237" t="s">
@@ -15527,11 +15528,11 @@
       <c r="F46" s="212" t="s">
         <v>440</v>
       </c>
-      <c r="G46" s="377"/>
-      <c r="H46" s="377"/>
-      <c r="I46" s="377"/>
-      <c r="J46" s="377"/>
-      <c r="K46" s="380"/>
+      <c r="G46" s="402"/>
+      <c r="H46" s="402"/>
+      <c r="I46" s="402"/>
+      <c r="J46" s="402"/>
+      <c r="K46" s="399"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="238" t="s">
@@ -15552,11 +15553,11 @@
       <c r="F47" s="216" t="s">
         <v>440</v>
       </c>
-      <c r="G47" s="377"/>
-      <c r="H47" s="377"/>
-      <c r="I47" s="377"/>
-      <c r="J47" s="377"/>
-      <c r="K47" s="380"/>
+      <c r="G47" s="402"/>
+      <c r="H47" s="402"/>
+      <c r="I47" s="402"/>
+      <c r="J47" s="402"/>
+      <c r="K47" s="399"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="237" t="s">
@@ -15577,11 +15578,11 @@
       <c r="F48" s="212" t="s">
         <v>440</v>
       </c>
-      <c r="G48" s="377"/>
-      <c r="H48" s="377"/>
-      <c r="I48" s="377"/>
-      <c r="J48" s="377"/>
-      <c r="K48" s="380"/>
+      <c r="G48" s="402"/>
+      <c r="H48" s="402"/>
+      <c r="I48" s="402"/>
+      <c r="J48" s="402"/>
+      <c r="K48" s="399"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="236" t="s">
@@ -15602,11 +15603,11 @@
       <c r="F49" s="214" t="s">
         <v>440</v>
       </c>
-      <c r="G49" s="377"/>
-      <c r="H49" s="377"/>
-      <c r="I49" s="377"/>
-      <c r="J49" s="377"/>
-      <c r="K49" s="380"/>
+      <c r="G49" s="402"/>
+      <c r="H49" s="402"/>
+      <c r="I49" s="402"/>
+      <c r="J49" s="402"/>
+      <c r="K49" s="399"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="237" t="s">
@@ -15627,11 +15628,11 @@
       <c r="F50" s="212" t="s">
         <v>440</v>
       </c>
-      <c r="G50" s="377"/>
-      <c r="H50" s="377"/>
-      <c r="I50" s="377"/>
-      <c r="J50" s="377"/>
-      <c r="K50" s="380"/>
+      <c r="G50" s="402"/>
+      <c r="H50" s="402"/>
+      <c r="I50" s="402"/>
+      <c r="J50" s="402"/>
+      <c r="K50" s="399"/>
     </row>
     <row r="51" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="239" t="s">
@@ -15652,11 +15653,11 @@
       <c r="F51" s="241" t="s">
         <v>440</v>
       </c>
-      <c r="G51" s="378"/>
-      <c r="H51" s="378"/>
-      <c r="I51" s="378"/>
-      <c r="J51" s="378"/>
-      <c r="K51" s="381"/>
+      <c r="G51" s="403"/>
+      <c r="H51" s="403"/>
+      <c r="I51" s="403"/>
+      <c r="J51" s="403"/>
+      <c r="K51" s="400"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G52" s="229"/>
@@ -15666,13 +15667,27 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="K4:K7"/>
-    <mergeCell ref="J4:J7"/>
-    <mergeCell ref="I4:I7"/>
-    <mergeCell ref="H4:H7"/>
-    <mergeCell ref="G4:G7"/>
+    <mergeCell ref="H36:H43"/>
+    <mergeCell ref="H44:H51"/>
+    <mergeCell ref="I44:I51"/>
+    <mergeCell ref="J44:J51"/>
+    <mergeCell ref="K44:K51"/>
+    <mergeCell ref="K36:K43"/>
+    <mergeCell ref="J36:J43"/>
+    <mergeCell ref="I36:I43"/>
+    <mergeCell ref="H20:H27"/>
+    <mergeCell ref="I20:I27"/>
+    <mergeCell ref="J20:J27"/>
+    <mergeCell ref="K20:K27"/>
+    <mergeCell ref="H28:H35"/>
+    <mergeCell ref="I28:I35"/>
+    <mergeCell ref="J28:J35"/>
+    <mergeCell ref="K28:K35"/>
+    <mergeCell ref="G20:G27"/>
+    <mergeCell ref="G28:G35"/>
+    <mergeCell ref="G36:G43"/>
+    <mergeCell ref="G44:G51"/>
+    <mergeCell ref="G16:G19"/>
     <mergeCell ref="H16:H19"/>
     <mergeCell ref="I16:I19"/>
     <mergeCell ref="J16:J19"/>
@@ -15682,27 +15697,13 @@
     <mergeCell ref="I8:I15"/>
     <mergeCell ref="J8:J15"/>
     <mergeCell ref="K8:K15"/>
-    <mergeCell ref="G20:G27"/>
-    <mergeCell ref="G28:G35"/>
-    <mergeCell ref="G36:G43"/>
-    <mergeCell ref="G44:G51"/>
-    <mergeCell ref="G16:G19"/>
-    <mergeCell ref="H20:H27"/>
-    <mergeCell ref="I20:I27"/>
-    <mergeCell ref="J20:J27"/>
-    <mergeCell ref="K20:K27"/>
-    <mergeCell ref="H28:H35"/>
-    <mergeCell ref="I28:I35"/>
-    <mergeCell ref="J28:J35"/>
-    <mergeCell ref="K28:K35"/>
-    <mergeCell ref="H36:H43"/>
-    <mergeCell ref="H44:H51"/>
-    <mergeCell ref="I44:I51"/>
-    <mergeCell ref="J44:J51"/>
-    <mergeCell ref="K44:K51"/>
-    <mergeCell ref="K36:K43"/>
-    <mergeCell ref="J36:J43"/>
-    <mergeCell ref="I36:I43"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="K4:K7"/>
+    <mergeCell ref="J4:J7"/>
+    <mergeCell ref="I4:I7"/>
+    <mergeCell ref="H4:H7"/>
+    <mergeCell ref="G4:G7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15751,11 +15752,11 @@
       <c r="A1" t="s">
         <v>392</v>
       </c>
-      <c r="G1" s="388" t="s">
+      <c r="G1" s="397" t="s">
         <v>574</v>
       </c>
-      <c r="H1" s="388"/>
-      <c r="I1" s="388"/>
+      <c r="H1" s="397"/>
+      <c r="I1" s="397"/>
       <c r="J1" s="226" t="s">
         <v>471</v>
       </c>
@@ -15785,17 +15786,17 @@
       </c>
     </row>
     <row r="2" spans="1:29" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="395"/>
-      <c r="B2" s="395"/>
-      <c r="C2" s="395"/>
-      <c r="D2" s="395"/>
-      <c r="E2" s="395"/>
-      <c r="F2" s="395"/>
-      <c r="G2" s="385" t="s">
+      <c r="A2" s="416"/>
+      <c r="B2" s="416"/>
+      <c r="C2" s="416"/>
+      <c r="D2" s="416"/>
+      <c r="E2" s="416"/>
+      <c r="F2" s="416"/>
+      <c r="G2" s="394" t="s">
         <v>575</v>
       </c>
-      <c r="H2" s="386"/>
-      <c r="I2" s="387"/>
+      <c r="H2" s="395"/>
+      <c r="I2" s="396"/>
       <c r="J2" s="230" t="s">
         <v>445</v>
       </c>
@@ -15932,7 +15933,7 @@
         <f>IF(O4="","",32-O4)</f>
         <v>25</v>
       </c>
-      <c r="R4" s="392" t="s">
+      <c r="R4" s="413" t="s">
         <v>612</v>
       </c>
     </row>
@@ -15985,7 +15986,7 @@
         <f t="shared" ref="Q5:Q8" si="2">IF(O5="","",32-O5)</f>
         <v>26</v>
       </c>
-      <c r="R5" s="393"/>
+      <c r="R5" s="414"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -16036,7 +16037,7 @@
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="R6" s="393"/>
+      <c r="R6" s="414"/>
       <c r="AC6" s="33"/>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
@@ -16088,7 +16089,7 @@
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="R7" s="393"/>
+      <c r="R7" s="414"/>
       <c r="AC7" s="33"/>
     </row>
     <row r="8" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16140,7 +16141,7 @@
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="R8" s="394"/>
+      <c r="R8" s="415"/>
       <c r="AC8" s="33"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
@@ -16183,7 +16184,7 @@
         <f>IF(O9="","",32-O9)</f>
         <v>25</v>
       </c>
-      <c r="R9" s="389" t="s">
+      <c r="R9" s="410" t="s">
         <v>613</v>
       </c>
       <c r="AC9" s="33"/>
@@ -16225,7 +16226,7 @@
         <f>IF(O10="","",32-O10)</f>
         <v>26</v>
       </c>
-      <c r="R10" s="390"/>
+      <c r="R10" s="411"/>
       <c r="AC10" s="33"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
@@ -16283,7 +16284,7 @@
         <f>IF(O11="","",32-O11)</f>
         <v>27</v>
       </c>
-      <c r="R11" s="390"/>
+      <c r="R11" s="411"/>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -16340,7 +16341,7 @@
         <f>IF(O12="","",32-O12)</f>
         <v>29</v>
       </c>
-      <c r="R12" s="390"/>
+      <c r="R12" s="411"/>
     </row>
     <row r="13" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -16397,7 +16398,7 @@
         <f>IF(O13="","",32-O13)</f>
         <v>26</v>
       </c>
-      <c r="R13" s="391"/>
+      <c r="R13" s="412"/>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -16478,7 +16479,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16493,173 +16494,173 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="403" t="s">
+      <c r="A1" s="289" t="s">
         <v>658</v>
       </c>
-      <c r="B1" s="404" t="s">
+      <c r="B1" s="290" t="s">
         <v>656</v>
       </c>
-      <c r="C1" s="404" t="s">
+      <c r="C1" s="290" t="s">
         <v>657</v>
       </c>
-      <c r="E1" s="316" t="s">
+      <c r="E1" s="337" t="s">
         <v>662</v>
       </c>
-      <c r="F1" s="316"/>
-      <c r="G1" s="316"/>
-      <c r="H1" s="316"/>
+      <c r="F1" s="337"/>
+      <c r="G1" s="337"/>
+      <c r="H1" s="337"/>
     </row>
     <row r="2" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="411" t="s">
+      <c r="A2" s="297" t="s">
         <v>675</v>
       </c>
-      <c r="B2" s="412" t="s">
+      <c r="B2" s="298" t="s">
         <v>676</v>
       </c>
-      <c r="C2" s="412" t="s">
+      <c r="C2" s="298" t="s">
         <v>677</v>
       </c>
-      <c r="E2" s="403" t="s">
+      <c r="E2" s="289" t="s">
         <v>646</v>
       </c>
-      <c r="F2" s="404" t="s">
+      <c r="F2" s="290" t="s">
         <v>647</v>
       </c>
-      <c r="G2" s="404" t="s">
+      <c r="G2" s="290" t="s">
         <v>228</v>
       </c>
-      <c r="H2" s="403" t="s">
+      <c r="H2" s="289" t="s">
         <v>663</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="413" t="s">
+      <c r="A3" s="299" t="s">
         <v>668</v>
       </c>
-      <c r="B3" s="414" t="s">
+      <c r="B3" s="300" t="s">
         <v>666</v>
       </c>
-      <c r="C3" s="414" t="s">
+      <c r="C3" s="300" t="s">
         <v>667</v>
       </c>
-      <c r="E3" s="408" t="s">
+      <c r="E3" s="294" t="s">
         <v>644</v>
       </c>
-      <c r="F3" s="405">
+      <c r="F3" s="291">
         <v>0</v>
       </c>
-      <c r="G3" s="405">
+      <c r="G3" s="291">
         <v>1023</v>
       </c>
-      <c r="H3" s="408" t="s">
+      <c r="H3" s="294" t="s">
         <v>648</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="415" t="s">
+      <c r="A4" s="301" t="s">
         <v>672</v>
       </c>
-      <c r="B4" s="416" t="s">
+      <c r="B4" s="302" t="s">
         <v>669</v>
       </c>
-      <c r="C4" s="416" t="s">
+      <c r="C4" s="302" t="s">
         <v>670</v>
       </c>
-      <c r="E4" s="409" t="s">
+      <c r="E4" s="295" t="s">
         <v>643</v>
       </c>
-      <c r="F4" s="406">
+      <c r="F4" s="292">
         <v>1024</v>
       </c>
-      <c r="G4" s="406">
+      <c r="G4" s="292">
         <v>49151</v>
       </c>
-      <c r="H4" s="409" t="s">
+      <c r="H4" s="295" t="s">
         <v>664</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="413" t="s">
+      <c r="A5" s="299" t="s">
         <v>654</v>
       </c>
-      <c r="B5" s="414" t="s">
+      <c r="B5" s="300" t="s">
         <v>673</v>
       </c>
-      <c r="C5" s="414" t="s">
+      <c r="C5" s="300" t="s">
         <v>674</v>
       </c>
-      <c r="E5" s="410" t="s">
+      <c r="E5" s="296" t="s">
         <v>645</v>
       </c>
-      <c r="F5" s="407">
+      <c r="F5" s="293">
         <v>49152</v>
       </c>
-      <c r="G5" s="407">
+      <c r="G5" s="293">
         <v>65535</v>
       </c>
-      <c r="H5" s="410" t="s">
+      <c r="H5" s="296" t="s">
         <v>649</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="415" t="s">
+      <c r="A6" s="301" t="s">
         <v>671</v>
       </c>
-      <c r="B6" s="416" t="s">
+      <c r="B6" s="302" t="s">
         <v>650</v>
       </c>
-      <c r="C6" s="416" t="s">
+      <c r="C6" s="302" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="413" t="s">
+      <c r="A7" s="299" t="s">
         <v>659</v>
       </c>
-      <c r="B7" s="414" t="s">
+      <c r="B7" s="300" t="s">
         <v>660</v>
       </c>
-      <c r="C7" s="414" t="s">
+      <c r="C7" s="300" t="s">
         <v>653</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="415" t="s">
+      <c r="A8" s="301" t="s">
         <v>678</v>
       </c>
-      <c r="B8" s="416" t="s">
+      <c r="B8" s="302" t="s">
         <v>652</v>
       </c>
-      <c r="C8" s="416" t="s">
+      <c r="C8" s="302" t="s">
         <v>661</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="413" t="s">
+      <c r="A9" s="299" t="s">
         <v>655</v>
       </c>
-      <c r="B9" s="414" t="s">
+      <c r="B9" s="300" t="s">
         <v>679</v>
       </c>
-      <c r="C9" s="414" t="s">
+      <c r="C9" s="300" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="415" t="s">
+      <c r="A10" s="301" t="s">
         <v>665</v>
       </c>
-      <c r="B10" s="416" t="s">
+      <c r="B10" s="302" t="s">
         <v>681</v>
       </c>
-      <c r="C10" s="416" t="s">
+      <c r="C10" s="302" t="s">
         <v>682</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="413"/>
-      <c r="B11" s="414"/>
-      <c r="C11" s="414"/>
+      <c r="A11" s="299"/>
+      <c r="B11" s="300"/>
+      <c r="C11" s="300"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/docs/protocol-suite.xlsx
+++ b/docs/protocol-suite.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\redes\saves\ccna1-mj10\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5601271F-ABE3-435B-B3B1-12564F1B7FC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{149798FF-0CC9-4123-9477-BBC1A28BE4E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="2" xr2:uid="{3415D364-6D1D-489F-8C8D-BD784F513C31}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="4" xr2:uid="{3415D364-6D1D-489F-8C8D-BD784F513C31}"/>
   </bookViews>
   <sheets>
     <sheet name="modelos" sheetId="1" r:id="rId1"/>
@@ -8084,7 +8084,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="101">
+  <borders count="119">
     <border>
       <left/>
       <right/>
@@ -9216,6 +9216,208 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -9226,7 +9428,7 @@
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="417">
+  <cellXfs count="442">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -9562,76 +9764,25 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="54" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="36" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="10" borderId="55" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="10" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="10" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="10" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="10" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="10" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9649,15 +9800,8 @@
     <xf numFmtId="3" fontId="7" fillId="10" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="7" fillId="10" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -9749,7 +9893,6 @@
     <xf numFmtId="0" fontId="0" fillId="21" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -9763,12 +9906,6 @@
     <xf numFmtId="3" fontId="7" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="10" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -10064,6 +10201,9 @@
     <xf numFmtId="0" fontId="0" fillId="21" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -10094,6 +10234,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -10133,39 +10306,6 @@
     <xf numFmtId="0" fontId="0" fillId="31" borderId="63" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -10244,34 +10384,58 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="24" borderId="54" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="15" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="24" borderId="55" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="24" borderId="56" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="24" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="24" borderId="57" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="59" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="60" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="28" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="15" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -10292,87 +10456,6 @@
     <xf numFmtId="49" fontId="0" fillId="28" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="24" borderId="54" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="24" borderId="55" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="59" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="60" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="28" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="24" borderId="56" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="24" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="24" borderId="57" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="10" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -10385,6 +10468,42 @@
     <xf numFmtId="49" fontId="3" fillId="9" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -10405,6 +10524,154 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="10" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="9" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="9" borderId="105" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="15" borderId="100" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="106" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="107" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="107" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="108" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="109" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="110" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="116" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="116" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="10" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="10" borderId="110" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="117" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="118" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="10" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="10" borderId="110" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="10" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="10" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="10" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -10993,100 +11260,100 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="278" t="s">
+      <c r="A2" s="255" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="308" t="s">
+      <c r="B2" s="286" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="303" t="s">
+      <c r="C2" s="281" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="311" t="s">
+      <c r="D2" s="289" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="279" t="s">
+      <c r="A3" s="256" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="309"/>
-      <c r="C3" s="304"/>
-      <c r="D3" s="311"/>
+      <c r="B3" s="287"/>
+      <c r="C3" s="282"/>
+      <c r="D3" s="289"/>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="280" t="s">
+      <c r="A4" s="257" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="310"/>
-      <c r="C4" s="305"/>
-      <c r="D4" s="311"/>
+      <c r="B4" s="288"/>
+      <c r="C4" s="283"/>
+      <c r="D4" s="289"/>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="281" t="s">
+      <c r="A5" s="258" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="285" t="s">
+      <c r="B5" s="262" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="276" t="s">
+      <c r="D5" s="253" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="282" t="s">
+      <c r="A6" s="259" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="286" t="s">
+      <c r="B6" s="263" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="276" t="s">
+      <c r="D6" s="253" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="283" t="s">
+      <c r="A7" s="260" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="287" t="s">
+      <c r="B7" s="264" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="306" t="s">
+      <c r="C7" s="284" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="276" t="s">
+      <c r="D7" s="253" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="284" t="s">
+      <c r="A8" s="261" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="288" t="s">
+      <c r="B8" s="265" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="307"/>
-      <c r="D8" s="311" t="s">
+      <c r="C8" s="285"/>
+      <c r="D8" s="289" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="277" t="s">
+      <c r="A9" s="254" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="277" t="s">
+      <c r="B9" s="254" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="277" t="s">
+      <c r="C9" s="254" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="312"/>
+      <c r="D9" s="290"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -11125,24 +11392,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="326" t="s">
+      <c r="A2" s="291" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="327"/>
+      <c r="B2" s="292"/>
       <c r="C2" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="326" t="s">
+      <c r="E2" s="291" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="327"/>
+      <c r="F2" s="292"/>
       <c r="G2" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="326" t="s">
+      <c r="I2" s="291" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="327"/>
+      <c r="J2" s="292"/>
       <c r="K2" s="14" t="s">
         <v>42</v>
       </c>
@@ -11316,15 +11583,15 @@
       <c r="E9" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="F9" s="334" t="s">
+      <c r="F9" s="299" t="s">
         <v>67</v>
       </c>
-      <c r="G9" s="334"/>
-      <c r="I9" s="334" t="s">
+      <c r="G9" s="299"/>
+      <c r="I9" s="299" t="s">
         <v>81</v>
       </c>
-      <c r="J9" s="334"/>
-      <c r="K9" s="334"/>
+      <c r="J9" s="299"/>
+      <c r="K9" s="299"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
@@ -11340,15 +11607,15 @@
       <c r="E10" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="F10" s="329" t="s">
+      <c r="F10" s="294" t="s">
         <v>70</v>
       </c>
-      <c r="G10" s="330"/>
-      <c r="I10" s="328" t="s">
+      <c r="G10" s="295"/>
+      <c r="I10" s="293" t="s">
         <v>63</v>
       </c>
-      <c r="J10" s="329"/>
-      <c r="K10" s="330"/>
+      <c r="J10" s="294"/>
+      <c r="K10" s="295"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
@@ -11363,15 +11630,15 @@
       <c r="E11" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="335" t="s">
+      <c r="F11" s="300" t="s">
         <v>52</v>
       </c>
-      <c r="G11" s="336"/>
-      <c r="I11" s="331" t="s">
+      <c r="G11" s="301"/>
+      <c r="I11" s="296" t="s">
         <v>64</v>
       </c>
-      <c r="J11" s="332"/>
-      <c r="K11" s="333"/>
+      <c r="J11" s="297"/>
+      <c r="K11" s="298"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
@@ -11386,15 +11653,15 @@
       <c r="E12" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="F12" s="329" t="s">
+      <c r="F12" s="294" t="s">
         <v>72</v>
       </c>
-      <c r="G12" s="330"/>
-      <c r="I12" s="328" t="s">
+      <c r="G12" s="295"/>
+      <c r="I12" s="293" t="s">
         <v>65</v>
       </c>
-      <c r="J12" s="329"/>
-      <c r="K12" s="330"/>
+      <c r="J12" s="294"/>
+      <c r="K12" s="295"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
@@ -11419,105 +11686,111 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="184" t="s">
+      <c r="A15" s="164" t="s">
         <v>206</v>
       </c>
-      <c r="B15" s="185" t="s">
+      <c r="B15" s="165" t="s">
         <v>207</v>
       </c>
-      <c r="C15" s="186" t="s">
+      <c r="C15" s="166" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="321" t="s">
+      <c r="A17" s="310" t="s">
         <v>282</v>
       </c>
-      <c r="B17" s="187" t="s">
+      <c r="B17" s="167" t="s">
         <v>272</v>
       </c>
-      <c r="C17" s="324" t="s">
+      <c r="C17" s="313" t="s">
         <v>273</v>
       </c>
-      <c r="D17" s="324"/>
-      <c r="E17" s="324"/>
-      <c r="F17" s="324"/>
-      <c r="G17" s="324"/>
-      <c r="H17" s="324"/>
-      <c r="I17" s="324"/>
-      <c r="J17" s="324"/>
-      <c r="K17" s="325"/>
+      <c r="D17" s="313"/>
+      <c r="E17" s="313"/>
+      <c r="F17" s="313"/>
+      <c r="G17" s="313"/>
+      <c r="H17" s="313"/>
+      <c r="I17" s="313"/>
+      <c r="J17" s="313"/>
+      <c r="K17" s="314"/>
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="322"/>
-      <c r="B18" s="188" t="s">
+      <c r="A18" s="311"/>
+      <c r="B18" s="168" t="s">
         <v>274</v>
       </c>
-      <c r="C18" s="313" t="s">
+      <c r="C18" s="302" t="s">
         <v>275</v>
       </c>
-      <c r="D18" s="313"/>
-      <c r="E18" s="313"/>
-      <c r="F18" s="313"/>
-      <c r="G18" s="313"/>
-      <c r="H18" s="313"/>
-      <c r="I18" s="313"/>
-      <c r="J18" s="313"/>
-      <c r="K18" s="314"/>
+      <c r="D18" s="302"/>
+      <c r="E18" s="302"/>
+      <c r="F18" s="302"/>
+      <c r="G18" s="302"/>
+      <c r="H18" s="302"/>
+      <c r="I18" s="302"/>
+      <c r="J18" s="302"/>
+      <c r="K18" s="303"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="322"/>
-      <c r="B19" s="189" t="s">
+      <c r="A19" s="311"/>
+      <c r="B19" s="169" t="s">
         <v>276</v>
       </c>
-      <c r="C19" s="315" t="s">
+      <c r="C19" s="304" t="s">
         <v>277</v>
       </c>
-      <c r="D19" s="315"/>
-      <c r="E19" s="315"/>
-      <c r="F19" s="315"/>
-      <c r="G19" s="315"/>
-      <c r="H19" s="315"/>
-      <c r="I19" s="315"/>
-      <c r="J19" s="315"/>
-      <c r="K19" s="316"/>
+      <c r="D19" s="304"/>
+      <c r="E19" s="304"/>
+      <c r="F19" s="304"/>
+      <c r="G19" s="304"/>
+      <c r="H19" s="304"/>
+      <c r="I19" s="304"/>
+      <c r="J19" s="304"/>
+      <c r="K19" s="305"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="322"/>
-      <c r="B20" s="190" t="s">
+      <c r="A20" s="311"/>
+      <c r="B20" s="170" t="s">
         <v>278</v>
       </c>
-      <c r="C20" s="317" t="s">
+      <c r="C20" s="306" t="s">
         <v>279</v>
       </c>
-      <c r="D20" s="317"/>
-      <c r="E20" s="317"/>
-      <c r="F20" s="317"/>
-      <c r="G20" s="317"/>
-      <c r="H20" s="317"/>
-      <c r="I20" s="317"/>
-      <c r="J20" s="317"/>
-      <c r="K20" s="318"/>
+      <c r="D20" s="306"/>
+      <c r="E20" s="306"/>
+      <c r="F20" s="306"/>
+      <c r="G20" s="306"/>
+      <c r="H20" s="306"/>
+      <c r="I20" s="306"/>
+      <c r="J20" s="306"/>
+      <c r="K20" s="307"/>
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="323"/>
-      <c r="B21" s="191" t="s">
+      <c r="A21" s="312"/>
+      <c r="B21" s="171" t="s">
         <v>280</v>
       </c>
-      <c r="C21" s="319" t="s">
+      <c r="C21" s="308" t="s">
         <v>281</v>
       </c>
-      <c r="D21" s="319"/>
-      <c r="E21" s="319"/>
-      <c r="F21" s="319"/>
-      <c r="G21" s="319"/>
-      <c r="H21" s="319"/>
-      <c r="I21" s="319"/>
-      <c r="J21" s="319"/>
-      <c r="K21" s="320"/>
+      <c r="D21" s="308"/>
+      <c r="E21" s="308"/>
+      <c r="F21" s="308"/>
+      <c r="G21" s="308"/>
+      <c r="H21" s="308"/>
+      <c r="I21" s="308"/>
+      <c r="J21" s="308"/>
+      <c r="K21" s="309"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C18:K18"/>
+    <mergeCell ref="C19:K19"/>
+    <mergeCell ref="C20:K20"/>
+    <mergeCell ref="C21:K21"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="C17:K17"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="A2:B2"/>
@@ -11529,12 +11802,6 @@
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="I9:K9"/>
-    <mergeCell ref="C18:K18"/>
-    <mergeCell ref="C19:K19"/>
-    <mergeCell ref="C20:K20"/>
-    <mergeCell ref="C21:K21"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="C17:K17"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11545,8 +11812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D6A4FC1-4453-4F66-8A6E-DB11164B3A80}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G10"/>
+    <sheetView topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11561,16 +11828,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="337" t="s">
+      <c r="B1" s="315" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="337"/>
-      <c r="D1" s="337"/>
-      <c r="F1" s="337" t="s">
+      <c r="C1" s="315"/>
+      <c r="D1" s="315"/>
+      <c r="F1" s="315" t="s">
         <v>104</v>
       </c>
-      <c r="G1" s="337"/>
-      <c r="H1" s="337"/>
+      <c r="G1" s="315"/>
+      <c r="H1" s="315"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="36" t="s">
@@ -11579,13 +11846,13 @@
       <c r="D2" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="F2" s="135" t="s">
+      <c r="F2" s="133" t="s">
         <v>101</v>
       </c>
-      <c r="G2" s="178" t="s">
+      <c r="G2" s="158" t="s">
         <v>102</v>
       </c>
-      <c r="H2" s="178" t="s">
+      <c r="H2" s="158" t="s">
         <v>100</v>
       </c>
     </row>
@@ -11593,19 +11860,19 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="164" t="s">
+      <c r="B3" s="144" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="166" t="s">
+      <c r="D3" s="146" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="346" t="s">
+      <c r="F3" s="324" t="s">
         <v>94</v>
       </c>
-      <c r="G3" s="348" t="s">
+      <c r="G3" s="326" t="s">
         <v>93</v>
       </c>
-      <c r="H3" s="172" t="s">
+      <c r="H3" s="152" t="s">
         <v>59</v>
       </c>
     </row>
@@ -11613,15 +11880,15 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="165" t="s">
+      <c r="B4" s="145" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="169" t="s">
+      <c r="D4" s="149" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="346"/>
-      <c r="G4" s="349"/>
-      <c r="H4" s="173" t="s">
+      <c r="F4" s="324"/>
+      <c r="G4" s="327"/>
+      <c r="H4" s="153" t="s">
         <v>60</v>
       </c>
     </row>
@@ -11629,15 +11896,15 @@
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="166" t="s">
+      <c r="B5" s="146" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="164" t="s">
+      <c r="D5" s="144" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="346"/>
-      <c r="G5" s="349"/>
-      <c r="H5" s="174" t="s">
+      <c r="F5" s="324"/>
+      <c r="G5" s="327"/>
+      <c r="H5" s="154" t="s">
         <v>61</v>
       </c>
     </row>
@@ -11645,15 +11912,15 @@
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="167" t="s">
+      <c r="B6" s="147" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="167" t="s">
+      <c r="D6" s="147" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="346"/>
-      <c r="G6" s="349"/>
-      <c r="H6" s="179" t="s">
+      <c r="F6" s="324"/>
+      <c r="G6" s="327"/>
+      <c r="H6" s="159" t="s">
         <v>62</v>
       </c>
     </row>
@@ -11661,15 +11928,15 @@
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="168" t="s">
+      <c r="B7" s="148" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="168" t="s">
+      <c r="D7" s="148" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="346"/>
-      <c r="G7" s="349"/>
-      <c r="H7" s="178" t="s">
+      <c r="F7" s="324"/>
+      <c r="G7" s="327"/>
+      <c r="H7" s="158" t="s">
         <v>99</v>
       </c>
     </row>
@@ -11677,15 +11944,15 @@
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="169" t="s">
+      <c r="B8" s="149" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="165" t="s">
+      <c r="D8" s="145" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="346"/>
-      <c r="G8" s="349"/>
-      <c r="H8" s="175" t="s">
+      <c r="F8" s="324"/>
+      <c r="G8" s="327"/>
+      <c r="H8" s="155" t="s">
         <v>103</v>
       </c>
     </row>
@@ -11693,15 +11960,15 @@
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="170" t="s">
+      <c r="B9" s="150" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="170" t="s">
+      <c r="D9" s="150" t="s">
         <v>55</v>
       </c>
-      <c r="F9" s="346"/>
-      <c r="G9" s="349"/>
-      <c r="H9" s="176" t="s">
+      <c r="F9" s="324"/>
+      <c r="G9" s="327"/>
+      <c r="H9" s="156" t="s">
         <v>97</v>
       </c>
     </row>
@@ -11709,83 +11976,83 @@
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="171" t="s">
+      <c r="B10" s="151" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="171" t="s">
+      <c r="D10" s="151" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="347"/>
-      <c r="G10" s="350"/>
-      <c r="H10" s="177" t="s">
+      <c r="F10" s="325"/>
+      <c r="G10" s="328"/>
+      <c r="H10" s="157" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="341" t="s">
+      <c r="B12" s="319" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="342"/>
-      <c r="D12" s="342"/>
-      <c r="E12" s="342"/>
-      <c r="F12" s="343"/>
-      <c r="G12" s="180" t="s">
+      <c r="C12" s="320"/>
+      <c r="D12" s="320"/>
+      <c r="E12" s="320"/>
+      <c r="F12" s="321"/>
+      <c r="G12" s="160" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="181" t="s">
+      <c r="B13" s="161" t="s">
         <v>90</v>
       </c>
-      <c r="C13" s="351" t="s">
+      <c r="C13" s="329" t="s">
         <v>89</v>
       </c>
-      <c r="D13" s="351"/>
-      <c r="E13" s="351"/>
-      <c r="F13" s="352"/>
-      <c r="G13" s="338" t="s">
+      <c r="D13" s="329"/>
+      <c r="E13" s="329"/>
+      <c r="F13" s="330"/>
+      <c r="G13" s="316" t="s">
         <v>219</v>
       </c>
       <c r="I13" s="29"/>
     </row>
     <row r="14" spans="1:9" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="182" t="s">
+      <c r="B14" s="162" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="353" t="s">
+      <c r="C14" s="331" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="353"/>
-      <c r="E14" s="353"/>
-      <c r="F14" s="354"/>
-      <c r="G14" s="339"/>
+      <c r="D14" s="331"/>
+      <c r="E14" s="331"/>
+      <c r="F14" s="332"/>
+      <c r="G14" s="317"/>
       <c r="I14" s="29"/>
     </row>
     <row r="15" spans="1:9" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="181" t="s">
+      <c r="B15" s="161" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="351" t="s">
+      <c r="C15" s="329" t="s">
         <v>87</v>
       </c>
-      <c r="D15" s="351"/>
-      <c r="E15" s="351"/>
-      <c r="F15" s="352"/>
-      <c r="G15" s="339"/>
+      <c r="D15" s="329"/>
+      <c r="E15" s="329"/>
+      <c r="F15" s="330"/>
+      <c r="G15" s="317"/>
       <c r="I15" s="29"/>
     </row>
     <row r="16" spans="1:9" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="183" t="s">
+      <c r="B16" s="163" t="s">
         <v>91</v>
       </c>
-      <c r="C16" s="344" t="s">
+      <c r="C16" s="322" t="s">
         <v>88</v>
       </c>
-      <c r="D16" s="344"/>
-      <c r="E16" s="344"/>
-      <c r="F16" s="345"/>
-      <c r="G16" s="340"/>
+      <c r="D16" s="322"/>
+      <c r="E16" s="322"/>
+      <c r="F16" s="323"/>
+      <c r="G16" s="318"/>
       <c r="I16" s="29"/>
     </row>
     <row r="17" spans="7:7" x14ac:dyDescent="0.25">
@@ -11824,7 +12091,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E1" sqref="E1:E1048576"/>
+      <selection pane="topRight" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11841,76 +12108,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="355" t="s">
+      <c r="A1" s="333" t="s">
         <v>220</v>
       </c>
-      <c r="B1" s="356"/>
-      <c r="C1" s="356"/>
-      <c r="D1" s="356"/>
-      <c r="F1" s="355" t="s">
+      <c r="B1" s="334"/>
+      <c r="C1" s="334"/>
+      <c r="D1" s="334"/>
+      <c r="F1" s="333" t="s">
         <v>222</v>
       </c>
-      <c r="G1" s="356"/>
-      <c r="H1" s="356"/>
-      <c r="I1" s="356"/>
-      <c r="J1" s="356"/>
-      <c r="K1" s="356"/>
-      <c r="L1" s="356"/>
-      <c r="M1" s="356"/>
-      <c r="N1" s="356"/>
-      <c r="O1" s="356"/>
-      <c r="P1" s="357"/>
-      <c r="R1" s="355" t="s">
+      <c r="G1" s="334"/>
+      <c r="H1" s="334"/>
+      <c r="I1" s="334"/>
+      <c r="J1" s="334"/>
+      <c r="K1" s="334"/>
+      <c r="L1" s="334"/>
+      <c r="M1" s="334"/>
+      <c r="N1" s="334"/>
+      <c r="O1" s="334"/>
+      <c r="P1" s="335"/>
+      <c r="R1" s="333" t="s">
         <v>223</v>
       </c>
-      <c r="S1" s="356"/>
-      <c r="T1" s="356"/>
-      <c r="U1" s="356"/>
-      <c r="V1" s="356"/>
-      <c r="W1" s="356"/>
-      <c r="X1" s="356"/>
-      <c r="Y1" s="356"/>
-      <c r="Z1" s="356"/>
-      <c r="AA1" s="357"/>
+      <c r="S1" s="334"/>
+      <c r="T1" s="334"/>
+      <c r="U1" s="334"/>
+      <c r="V1" s="334"/>
+      <c r="W1" s="334"/>
+      <c r="X1" s="334"/>
+      <c r="Y1" s="334"/>
+      <c r="Z1" s="334"/>
+      <c r="AA1" s="335"/>
     </row>
     <row r="2" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="362" t="s">
+      <c r="A2" s="340" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="361"/>
-      <c r="C2" s="361"/>
-      <c r="D2" s="361"/>
-      <c r="F2" s="358" t="s">
+      <c r="B2" s="339"/>
+      <c r="C2" s="339"/>
+      <c r="D2" s="339"/>
+      <c r="F2" s="336" t="s">
         <v>130</v>
       </c>
-      <c r="G2" s="360"/>
-      <c r="H2" s="360"/>
-      <c r="I2" s="360"/>
-      <c r="J2" s="360"/>
-      <c r="K2" s="360"/>
-      <c r="L2" s="360"/>
-      <c r="M2" s="359"/>
+      <c r="G2" s="338"/>
+      <c r="H2" s="338"/>
+      <c r="I2" s="338"/>
+      <c r="J2" s="338"/>
+      <c r="K2" s="338"/>
+      <c r="L2" s="338"/>
+      <c r="M2" s="337"/>
       <c r="N2" s="91" t="s">
         <v>106</v>
       </c>
-      <c r="O2" s="358" t="s">
+      <c r="O2" s="336" t="s">
         <v>107</v>
       </c>
-      <c r="P2" s="359"/>
-      <c r="R2" s="358" t="s">
+      <c r="P2" s="337"/>
+      <c r="R2" s="336" t="s">
         <v>130</v>
       </c>
-      <c r="S2" s="360"/>
-      <c r="T2" s="360"/>
-      <c r="U2" s="360"/>
-      <c r="V2" s="360"/>
-      <c r="W2" s="360"/>
-      <c r="X2" s="360"/>
-      <c r="Y2" s="359"/>
-      <c r="Z2" s="358" t="s">
+      <c r="S2" s="338"/>
+      <c r="T2" s="338"/>
+      <c r="U2" s="338"/>
+      <c r="V2" s="338"/>
+      <c r="W2" s="338"/>
+      <c r="X2" s="338"/>
+      <c r="Y2" s="337"/>
+      <c r="Z2" s="336" t="s">
         <v>107</v>
       </c>
-      <c r="AA2" s="359"/>
+      <c r="AA2" s="337"/>
     </row>
     <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="38" t="s">
@@ -11949,7 +12216,7 @@
       <c r="M3" s="57">
         <v>0</v>
       </c>
-      <c r="N3" s="192">
+      <c r="N3" s="172">
         <v>172</v>
       </c>
       <c r="O3" s="65" t="s">
@@ -12014,7 +12281,7 @@
       <c r="M4" s="39">
         <v>0</v>
       </c>
-      <c r="N4" s="193">
+      <c r="N4" s="173">
         <v>192</v>
       </c>
       <c r="O4" s="67" t="s">
@@ -12081,7 +12348,7 @@
       <c r="M5" s="60">
         <v>0</v>
       </c>
-      <c r="N5" s="194">
+      <c r="N5" s="174">
         <v>16</v>
       </c>
       <c r="O5" s="69" t="s">
@@ -12140,7 +12407,7 @@
       <c r="M6" s="39">
         <v>0</v>
       </c>
-      <c r="N6" s="193">
+      <c r="N6" s="173">
         <v>168</v>
       </c>
       <c r="O6" s="67" t="s">
@@ -12171,12 +12438,12 @@
       </c>
     </row>
     <row r="7" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="361" t="s">
+      <c r="A7" s="339" t="s">
         <v>120</v>
       </c>
-      <c r="B7" s="361"/>
-      <c r="C7" s="361"/>
-      <c r="D7" s="361"/>
+      <c r="B7" s="339"/>
+      <c r="C7" s="339"/>
+      <c r="D7" s="339"/>
       <c r="F7" s="59">
         <v>1</v>
       </c>
@@ -12201,7 +12468,7 @@
       <c r="M7" s="60">
         <v>0</v>
       </c>
-      <c r="N7" s="194">
+      <c r="N7" s="174">
         <v>208</v>
       </c>
       <c r="O7" s="69" t="s">
@@ -12268,7 +12535,7 @@
       <c r="M8" s="39">
         <v>1</v>
       </c>
-      <c r="N8" s="193">
+      <c r="N8" s="173">
         <v>63</v>
       </c>
       <c r="O8" s="67" t="s">
@@ -12335,7 +12602,7 @@
       <c r="M9" s="60">
         <v>0</v>
       </c>
-      <c r="N9" s="194">
+      <c r="N9" s="174">
         <v>248</v>
       </c>
       <c r="O9" s="69" t="s">
@@ -12402,7 +12669,7 @@
       <c r="M10" s="39">
         <v>0</v>
       </c>
-      <c r="N10" s="193">
+      <c r="N10" s="173">
         <v>204</v>
       </c>
       <c r="O10" s="67" t="s">
@@ -12459,7 +12726,7 @@
       <c r="M11" s="60">
         <v>1</v>
       </c>
-      <c r="N11" s="194">
+      <c r="N11" s="174">
         <v>159</v>
       </c>
       <c r="O11" s="69" t="s">
@@ -12470,12 +12737,12 @@
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="361" t="s">
+      <c r="A12" s="339" t="s">
         <v>125</v>
       </c>
-      <c r="B12" s="361"/>
-      <c r="C12" s="361"/>
-      <c r="D12" s="361"/>
+      <c r="B12" s="339"/>
+      <c r="C12" s="339"/>
+      <c r="D12" s="339"/>
       <c r="F12" s="58">
         <v>0</v>
       </c>
@@ -12500,7 +12767,7 @@
       <c r="M12" s="39">
         <v>1</v>
       </c>
-      <c r="N12" s="193">
+      <c r="N12" s="173">
         <v>25</v>
       </c>
       <c r="O12" s="67" t="s">
@@ -12547,7 +12814,7 @@
       <c r="M13" s="60">
         <v>0</v>
       </c>
-      <c r="N13" s="194">
+      <c r="N13" s="174">
         <v>32</v>
       </c>
       <c r="O13" s="69" t="s">
@@ -12595,7 +12862,7 @@
       <c r="M14" s="39">
         <v>0</v>
       </c>
-      <c r="N14" s="193">
+      <c r="N14" s="173">
         <v>64</v>
       </c>
       <c r="O14" s="67" t="s">
@@ -12642,7 +12909,7 @@
       <c r="M15" s="64">
         <v>1</v>
       </c>
-      <c r="N15" s="195">
+      <c r="N15" s="175">
         <v>255</v>
       </c>
       <c r="O15" s="71" t="s">
@@ -12723,11 +12990,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{736925F0-C296-4BA5-A90C-9FBAD4DAF0DB}">
   <dimension ref="A1:AG26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="9" ySplit="8" topLeftCell="J15" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="9" ySplit="8" topLeftCell="J9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="F29" sqref="F29"/>
+      <selection pane="bottomRight" activeCell="Q8" sqref="F1:Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12754,1062 +13021,1078 @@
       <c r="A1" s="94" t="s">
         <v>238</v>
       </c>
-      <c r="B1" s="363" t="s">
+      <c r="B1" s="343" t="s">
         <v>230</v>
       </c>
-      <c r="C1" s="363"/>
-      <c r="D1" s="363"/>
-      <c r="E1" s="364"/>
-      <c r="F1" s="363" t="s">
+      <c r="C1" s="343"/>
+      <c r="D1" s="343"/>
+      <c r="E1" s="343"/>
+      <c r="F1" s="395" t="s">
         <v>231</v>
       </c>
-      <c r="G1" s="363"/>
-      <c r="H1" s="363"/>
-      <c r="I1" s="363"/>
-      <c r="J1" s="363"/>
-      <c r="K1" s="363"/>
-      <c r="L1" s="363"/>
-      <c r="M1" s="363"/>
-      <c r="N1" s="365">
+      <c r="G1" s="396"/>
+      <c r="H1" s="396"/>
+      <c r="I1" s="396"/>
+      <c r="J1" s="396"/>
+      <c r="K1" s="396"/>
+      <c r="L1" s="396"/>
+      <c r="M1" s="396"/>
+      <c r="N1" s="397">
         <f>2^32</f>
         <v>4294967296</v>
       </c>
-      <c r="O1" s="365"/>
-      <c r="P1" s="365"/>
-      <c r="Q1" s="162" t="s">
+      <c r="O1" s="397"/>
+      <c r="P1" s="397"/>
+      <c r="Q1" s="411" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="2" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R1" s="398"/>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="94" t="s">
         <v>156</v>
       </c>
-      <c r="B2" s="366" t="s">
+      <c r="B2" s="342" t="s">
         <v>225</v>
       </c>
-      <c r="C2" s="366"/>
-      <c r="D2" s="366" t="s">
+      <c r="C2" s="342"/>
+      <c r="D2" s="342" t="s">
         <v>130</v>
       </c>
-      <c r="E2" s="367"/>
-      <c r="F2" s="366" t="s">
+      <c r="E2" s="342"/>
+      <c r="F2" s="419" t="s">
         <v>225</v>
       </c>
-      <c r="G2" s="366"/>
-      <c r="H2" s="366" t="s">
+      <c r="G2" s="342"/>
+      <c r="H2" s="342" t="s">
         <v>130</v>
       </c>
-      <c r="I2" s="366"/>
-      <c r="J2" s="366" t="s">
+      <c r="I2" s="342"/>
+      <c r="J2" s="342" t="s">
         <v>226</v>
       </c>
-      <c r="K2" s="366"/>
-      <c r="L2" s="366"/>
-      <c r="M2" s="366"/>
-      <c r="N2" s="372" t="s">
+      <c r="K2" s="342"/>
+      <c r="L2" s="342"/>
+      <c r="M2" s="342"/>
+      <c r="N2" s="342" t="s">
         <v>265</v>
       </c>
-      <c r="O2" s="372"/>
-      <c r="P2" s="372"/>
-      <c r="Q2" s="372"/>
+      <c r="O2" s="342"/>
+      <c r="P2" s="342"/>
+      <c r="Q2" s="410"/>
+      <c r="R2" s="399"/>
     </row>
     <row r="3" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="161" t="s">
+      <c r="A3" s="143" t="s">
         <v>157</v>
       </c>
-      <c r="B3" s="161" t="s">
+      <c r="B3" s="412" t="s">
         <v>227</v>
       </c>
-      <c r="C3" s="160" t="s">
+      <c r="C3" s="415" t="s">
         <v>228</v>
       </c>
-      <c r="D3" s="161" t="s">
+      <c r="D3" s="418" t="s">
         <v>227</v>
       </c>
-      <c r="E3" s="160" t="s">
+      <c r="E3" s="418" t="s">
         <v>228</v>
       </c>
-      <c r="F3" s="36" t="s">
+      <c r="F3" s="412" t="s">
         <v>227</v>
       </c>
-      <c r="G3" s="160" t="s">
+      <c r="G3" s="415" t="s">
         <v>228</v>
       </c>
-      <c r="H3" s="161" t="s">
+      <c r="H3" s="418" t="s">
         <v>227</v>
       </c>
-      <c r="I3" s="160" t="s">
+      <c r="I3" s="420" t="s">
         <v>228</v>
       </c>
-      <c r="J3" s="161" t="s">
+      <c r="J3" s="412" t="s">
         <v>267</v>
       </c>
-      <c r="K3" s="160" t="s">
+      <c r="K3" s="415" t="s">
         <v>268</v>
       </c>
-      <c r="L3" s="22" t="s">
+      <c r="L3" s="416" t="s">
         <v>269</v>
       </c>
-      <c r="M3" s="131" t="s">
+      <c r="M3" s="417" t="s">
         <v>270</v>
       </c>
-      <c r="N3" s="161" t="s">
+      <c r="N3" s="412" t="s">
         <v>227</v>
       </c>
-      <c r="O3" s="160" t="s">
+      <c r="O3" s="413" t="s">
         <v>228</v>
       </c>
-      <c r="P3" s="161" t="s">
+      <c r="P3" s="414" t="s">
         <v>130</v>
       </c>
-      <c r="Q3" s="160" t="s">
+      <c r="Q3" s="415" t="s">
         <v>266</v>
       </c>
-      <c r="V3" s="222"/>
-      <c r="W3" s="222"/>
+      <c r="R3" s="400"/>
+      <c r="V3" s="199"/>
+      <c r="W3" s="199"/>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A4" s="155" t="s">
+      <c r="A4" s="138" t="s">
         <v>108</v>
       </c>
-      <c r="B4" s="198" t="s">
+      <c r="B4" s="401" t="s">
         <v>131</v>
       </c>
-      <c r="C4" s="200">
+      <c r="C4" s="421">
         <v>127255255255</v>
       </c>
-      <c r="D4" s="144" t="s">
+      <c r="D4" s="227" t="s">
         <v>136</v>
       </c>
-      <c r="E4" s="145" t="s">
+      <c r="E4" s="227" t="s">
         <v>137</v>
       </c>
-      <c r="F4" s="95" t="s">
+      <c r="F4" s="401" t="s">
         <v>146</v>
       </c>
-      <c r="G4" s="163" t="s">
+      <c r="G4" s="435" t="s">
         <v>271</v>
       </c>
-      <c r="H4" s="144" t="s">
+      <c r="H4" s="227" t="s">
         <v>147</v>
       </c>
-      <c r="I4" s="145" t="s">
+      <c r="I4" s="406" t="s">
         <v>147</v>
       </c>
-      <c r="J4" s="136" t="s">
+      <c r="J4" s="438" t="s">
         <v>150</v>
       </c>
-      <c r="K4" s="141" t="s">
+      <c r="K4" s="439" t="s">
         <v>153</v>
       </c>
       <c r="L4" s="95">
         <v>1</v>
       </c>
-      <c r="M4" s="132">
+      <c r="M4" s="131">
         <f>2^24-2</f>
         <v>16777214</v>
       </c>
-      <c r="N4" s="198" t="s">
+      <c r="N4" s="177" t="s">
         <v>164</v>
       </c>
-      <c r="O4" s="200">
+      <c r="O4" s="179">
         <v>127255255255</v>
       </c>
-      <c r="P4" s="144" t="s">
+      <c r="P4" s="136" t="s">
         <v>232</v>
       </c>
-      <c r="Q4" s="145" t="s">
+      <c r="Q4" s="406" t="s">
         <v>283</v>
       </c>
+      <c r="R4" s="399"/>
     </row>
     <row r="5" spans="1:33" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="156" t="s">
+      <c r="A5" s="139" t="s">
         <v>109</v>
       </c>
-      <c r="B5" s="199" t="s">
+      <c r="B5" s="402" t="s">
         <v>132</v>
       </c>
-      <c r="C5" s="201">
+      <c r="C5" s="422">
         <v>191255255255</v>
       </c>
-      <c r="D5" s="151" t="s">
+      <c r="D5" s="225" t="s">
         <v>138</v>
       </c>
-      <c r="E5" s="152" t="s">
+      <c r="E5" s="225" t="s">
         <v>141</v>
       </c>
-      <c r="F5" s="96" t="s">
+      <c r="F5" s="402" t="s">
         <v>234</v>
       </c>
-      <c r="G5" s="142" t="s">
+      <c r="G5" s="436" t="s">
         <v>235</v>
       </c>
-      <c r="H5" s="146" t="s">
+      <c r="H5" s="431" t="s">
         <v>287</v>
       </c>
-      <c r="I5" s="147" t="s">
+      <c r="I5" s="425" t="s">
         <v>288</v>
       </c>
-      <c r="J5" s="137" t="s">
+      <c r="J5" s="440" t="s">
         <v>151</v>
       </c>
-      <c r="K5" s="142" t="s">
+      <c r="K5" s="436" t="s">
         <v>154</v>
       </c>
       <c r="L5" s="96">
         <v>16</v>
       </c>
-      <c r="M5" s="133">
+      <c r="M5" s="132">
         <f>2^16-2</f>
         <v>65534</v>
       </c>
-      <c r="N5" s="199" t="s">
+      <c r="N5" s="178" t="s">
         <v>165</v>
       </c>
-      <c r="O5" s="201">
+      <c r="O5" s="180">
         <v>169254255255</v>
       </c>
-      <c r="P5" s="151" t="s">
+      <c r="P5" s="137" t="s">
         <v>233</v>
       </c>
-      <c r="Q5" s="152" t="s">
+      <c r="Q5" s="407" t="s">
         <v>284</v>
       </c>
+      <c r="R5" s="399"/>
     </row>
     <row r="6" spans="1:33" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="155" t="s">
+      <c r="A6" s="138" t="s">
         <v>111</v>
       </c>
-      <c r="B6" s="198" t="s">
+      <c r="B6" s="401" t="s">
         <v>133</v>
       </c>
-      <c r="C6" s="200">
+      <c r="C6" s="421">
         <v>223255255255</v>
       </c>
-      <c r="D6" s="144" t="s">
+      <c r="D6" s="227" t="s">
         <v>139</v>
       </c>
-      <c r="E6" s="145" t="s">
+      <c r="E6" s="227" t="s">
         <v>142</v>
       </c>
-      <c r="F6" s="139" t="s">
+      <c r="F6" s="423" t="s">
         <v>236</v>
       </c>
-      <c r="G6" s="143" t="s">
+      <c r="G6" s="437" t="s">
         <v>237</v>
       </c>
-      <c r="H6" s="148" t="s">
+      <c r="H6" s="432" t="s">
         <v>285</v>
       </c>
-      <c r="I6" s="149" t="s">
+      <c r="I6" s="426" t="s">
         <v>286</v>
       </c>
-      <c r="J6" s="138" t="s">
+      <c r="J6" s="441" t="s">
         <v>152</v>
       </c>
-      <c r="K6" s="143" t="s">
+      <c r="K6" s="437" t="s">
         <v>155</v>
       </c>
-      <c r="L6" s="139">
+      <c r="L6" s="134">
         <v>256</v>
       </c>
-      <c r="M6" s="140">
+      <c r="M6" s="135">
         <f>2^8-2</f>
         <v>254</v>
       </c>
-      <c r="N6" s="158"/>
-      <c r="O6" s="159"/>
-      <c r="P6" s="144"/>
-      <c r="Q6" s="145"/>
+      <c r="N6" s="141"/>
+      <c r="O6" s="142"/>
+      <c r="P6" s="136"/>
+      <c r="Q6" s="406"/>
+      <c r="R6" s="399"/>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A7" s="156" t="s">
+      <c r="A7" s="139" t="s">
         <v>112</v>
       </c>
-      <c r="B7" s="199" t="s">
+      <c r="B7" s="402" t="s">
         <v>134</v>
       </c>
-      <c r="C7" s="201">
+      <c r="C7" s="422">
         <v>239255255255</v>
       </c>
-      <c r="D7" s="151" t="s">
+      <c r="D7" s="225" t="s">
         <v>140</v>
       </c>
-      <c r="E7" s="152" t="s">
+      <c r="E7" s="225" t="s">
         <v>143</v>
       </c>
-      <c r="F7" s="368" t="s">
+      <c r="F7" s="433" t="s">
         <v>148</v>
       </c>
-      <c r="G7" s="369"/>
-      <c r="H7" s="369"/>
-      <c r="I7" s="369"/>
-      <c r="J7" s="368" t="s">
+      <c r="G7" s="434"/>
+      <c r="H7" s="341"/>
+      <c r="I7" s="427"/>
+      <c r="J7" s="434" t="s">
         <v>148</v>
       </c>
-      <c r="K7" s="369"/>
-      <c r="L7" s="369"/>
-      <c r="M7" s="369"/>
-      <c r="N7" s="199" t="s">
+      <c r="K7" s="434"/>
+      <c r="L7" s="341"/>
+      <c r="M7" s="341"/>
+      <c r="N7" s="178" t="s">
         <v>134</v>
       </c>
-      <c r="O7" s="201">
+      <c r="O7" s="180">
         <v>239255255255</v>
       </c>
-      <c r="P7" s="197">
+      <c r="P7" s="176">
         <v>11100000</v>
       </c>
-      <c r="Q7" s="134" t="s">
+      <c r="Q7" s="408" t="s">
         <v>148</v>
       </c>
+      <c r="R7" s="399"/>
     </row>
     <row r="8" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="157" t="s">
+      <c r="A8" s="140" t="s">
         <v>113</v>
       </c>
-      <c r="B8" s="202" t="s">
+      <c r="B8" s="423" t="s">
         <v>135</v>
       </c>
-      <c r="C8" s="203">
+      <c r="C8" s="424">
         <v>255255255255</v>
       </c>
-      <c r="D8" s="153" t="s">
+      <c r="D8" s="388" t="s">
         <v>144</v>
       </c>
-      <c r="E8" s="154" t="s">
+      <c r="E8" s="388" t="s">
         <v>145</v>
       </c>
-      <c r="F8" s="370" t="s">
+      <c r="F8" s="428" t="s">
         <v>149</v>
       </c>
-      <c r="G8" s="371"/>
-      <c r="H8" s="371"/>
-      <c r="I8" s="371"/>
-      <c r="J8" s="370" t="s">
+      <c r="G8" s="429"/>
+      <c r="H8" s="429"/>
+      <c r="I8" s="430"/>
+      <c r="J8" s="389" t="s">
         <v>149</v>
       </c>
-      <c r="K8" s="371"/>
-      <c r="L8" s="371"/>
-      <c r="M8" s="371"/>
-      <c r="N8" s="202" t="s">
+      <c r="K8" s="389"/>
+      <c r="L8" s="389"/>
+      <c r="M8" s="389"/>
+      <c r="N8" s="390" t="s">
         <v>135</v>
       </c>
-      <c r="O8" s="203">
+      <c r="O8" s="391">
         <v>255255255255</v>
       </c>
-      <c r="P8" s="196">
+      <c r="P8" s="392">
         <v>11110000</v>
       </c>
-      <c r="Q8" s="150" t="s">
+      <c r="Q8" s="409" t="s">
         <v>149</v>
       </c>
+      <c r="R8" s="399"/>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="E9" s="93"/>
+      <c r="F9" s="403"/>
+      <c r="G9" s="404"/>
+      <c r="H9" s="404"/>
+      <c r="I9" s="404"/>
+      <c r="J9" s="404"/>
+      <c r="K9" s="404"/>
+      <c r="L9" s="404"/>
+      <c r="M9" s="404"/>
+      <c r="N9" s="404"/>
+      <c r="O9" s="404"/>
+      <c r="P9" s="404"/>
+      <c r="Q9" s="404"/>
+      <c r="R9" s="405"/>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A10" s="204" t="s">
+      <c r="A10" s="181" t="s">
         <v>289</v>
       </c>
-      <c r="B10" s="205" t="s">
+      <c r="B10" s="182" t="s">
         <v>294</v>
       </c>
-      <c r="C10" s="206" t="s">
+      <c r="C10" s="183" t="s">
         <v>295</v>
       </c>
-      <c r="D10" s="205" t="s">
+      <c r="D10" s="182" t="s">
         <v>296</v>
       </c>
-      <c r="E10" s="207" t="s">
+      <c r="E10" s="184" t="s">
         <v>297</v>
       </c>
-      <c r="F10" s="205" t="s">
+      <c r="F10" s="280" t="s">
         <v>294</v>
       </c>
-      <c r="G10" s="206" t="s">
+      <c r="G10" s="393" t="s">
         <v>295</v>
       </c>
-      <c r="H10" s="205" t="s">
+      <c r="H10" s="280" t="s">
         <v>296</v>
       </c>
-      <c r="I10" s="207" t="s">
+      <c r="I10" s="394" t="s">
         <v>297</v>
       </c>
-      <c r="R10" s="205" t="s">
+      <c r="R10" s="280" t="s">
         <v>294</v>
       </c>
-      <c r="S10" s="206" t="s">
+      <c r="S10" s="183" t="s">
         <v>295</v>
       </c>
-      <c r="T10" s="205" t="s">
+      <c r="T10" s="182" t="s">
         <v>296</v>
       </c>
-      <c r="U10" s="207" t="s">
+      <c r="U10" s="184" t="s">
         <v>297</v>
       </c>
-      <c r="V10" s="205" t="s">
+      <c r="V10" s="182" t="s">
         <v>294</v>
       </c>
-      <c r="W10" s="206" t="s">
+      <c r="W10" s="183" t="s">
         <v>295</v>
       </c>
-      <c r="X10" s="205" t="s">
+      <c r="X10" s="182" t="s">
         <v>296</v>
       </c>
-      <c r="Y10" s="207" t="s">
+      <c r="Y10" s="184" t="s">
         <v>297</v>
       </c>
-      <c r="Z10" s="205" t="s">
+      <c r="Z10" s="182" t="s">
         <v>294</v>
       </c>
-      <c r="AA10" s="206" t="s">
+      <c r="AA10" s="183" t="s">
         <v>295</v>
       </c>
-      <c r="AB10" s="205" t="s">
+      <c r="AB10" s="182" t="s">
         <v>296</v>
       </c>
-      <c r="AC10" s="207" t="s">
+      <c r="AC10" s="184" t="s">
         <v>297</v>
       </c>
-      <c r="AD10" s="205" t="s">
+      <c r="AD10" s="182" t="s">
         <v>294</v>
       </c>
-      <c r="AE10" s="206" t="s">
+      <c r="AE10" s="183" t="s">
         <v>295</v>
       </c>
-      <c r="AF10" s="205" t="s">
+      <c r="AF10" s="182" t="s">
         <v>296</v>
       </c>
-      <c r="AG10" s="207" t="s">
+      <c r="AG10" s="184" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A11" s="208" t="s">
+      <c r="A11" s="185" t="s">
         <v>290</v>
       </c>
-      <c r="B11" s="211">
+      <c r="B11" s="188">
         <v>10</v>
       </c>
-      <c r="C11" s="211">
+      <c r="C11" s="188">
         <v>12</v>
       </c>
-      <c r="D11" s="211">
+      <c r="D11" s="188">
         <v>81</v>
       </c>
-      <c r="E11" s="212">
+      <c r="E11" s="189">
         <v>101</v>
       </c>
-      <c r="F11" s="211" t="s">
+      <c r="F11" s="188" t="s">
         <v>303</v>
       </c>
-      <c r="G11" s="211" t="s">
+      <c r="G11" s="188" t="s">
         <v>298</v>
       </c>
-      <c r="H11" s="211" t="s">
+      <c r="H11" s="188" t="s">
         <v>299</v>
       </c>
-      <c r="I11" s="212" t="s">
+      <c r="I11" s="189" t="s">
         <v>300</v>
       </c>
-      <c r="R11" s="211">
+      <c r="R11" s="188">
         <v>12</v>
       </c>
-      <c r="S11" s="211">
+      <c r="S11" s="188">
         <v>170</v>
       </c>
-      <c r="T11" s="211">
+      <c r="T11" s="188">
         <v>234</v>
       </c>
-      <c r="U11" s="212">
+      <c r="U11" s="189">
         <v>138</v>
       </c>
-      <c r="V11" s="211" t="s">
+      <c r="V11" s="188" t="s">
         <v>298</v>
       </c>
-      <c r="W11" s="211" t="s">
+      <c r="W11" s="188" t="s">
         <v>317</v>
       </c>
-      <c r="X11" s="211" t="s">
+      <c r="X11" s="188" t="s">
         <v>318</v>
       </c>
-      <c r="Y11" s="212" t="s">
+      <c r="Y11" s="189" t="s">
         <v>319</v>
       </c>
-      <c r="Z11" s="211">
+      <c r="Z11" s="188">
         <v>10</v>
       </c>
-      <c r="AA11" s="211">
+      <c r="AA11" s="188">
         <v>0</v>
       </c>
-      <c r="AB11" s="211">
+      <c r="AB11" s="188">
         <v>0</v>
       </c>
-      <c r="AC11" s="212">
+      <c r="AC11" s="189">
         <v>64</v>
       </c>
-      <c r="AD11" s="211" t="s">
+      <c r="AD11" s="188" t="s">
         <v>147</v>
       </c>
-      <c r="AE11" s="211" t="s">
+      <c r="AE11" s="188" t="s">
         <v>302</v>
       </c>
-      <c r="AF11" s="211" t="s">
+      <c r="AF11" s="188" t="s">
         <v>302</v>
       </c>
-      <c r="AG11" s="212" t="s">
+      <c r="AG11" s="189" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A12" s="209" t="s">
+      <c r="A12" s="186" t="s">
         <v>291</v>
       </c>
-      <c r="B12" s="213">
+      <c r="B12" s="190">
         <v>255</v>
       </c>
-      <c r="C12" s="213">
+      <c r="C12" s="190">
         <v>0</v>
       </c>
-      <c r="D12" s="213">
+      <c r="D12" s="190">
         <v>0</v>
       </c>
-      <c r="E12" s="214">
+      <c r="E12" s="191">
         <v>0</v>
       </c>
-      <c r="F12" s="213" t="s">
+      <c r="F12" s="190" t="s">
         <v>301</v>
       </c>
-      <c r="G12" s="213" t="s">
+      <c r="G12" s="190" t="s">
         <v>302</v>
       </c>
-      <c r="H12" s="213" t="s">
+      <c r="H12" s="190" t="s">
         <v>302</v>
       </c>
-      <c r="I12" s="214" t="s">
+      <c r="I12" s="191" t="s">
         <v>302</v>
       </c>
-      <c r="R12" s="213">
+      <c r="R12" s="190">
         <v>255</v>
       </c>
-      <c r="S12" s="213">
+      <c r="S12" s="190">
         <v>0</v>
       </c>
-      <c r="T12" s="213">
+      <c r="T12" s="190">
         <v>0</v>
       </c>
-      <c r="U12" s="214">
+      <c r="U12" s="191">
         <v>0</v>
       </c>
-      <c r="V12" s="213" t="s">
+      <c r="V12" s="190" t="s">
         <v>301</v>
       </c>
-      <c r="W12" s="213" t="s">
+      <c r="W12" s="190" t="s">
         <v>302</v>
       </c>
-      <c r="X12" s="213" t="s">
+      <c r="X12" s="190" t="s">
         <v>302</v>
       </c>
-      <c r="Y12" s="214" t="s">
+      <c r="Y12" s="191" t="s">
         <v>302</v>
       </c>
-      <c r="Z12" s="213">
+      <c r="Z12" s="190">
         <v>255</v>
       </c>
-      <c r="AA12" s="213">
+      <c r="AA12" s="190">
         <v>255</v>
       </c>
-      <c r="AB12" s="213">
+      <c r="AB12" s="190">
         <v>255</v>
       </c>
-      <c r="AC12" s="214">
+      <c r="AC12" s="191">
         <v>128</v>
       </c>
-      <c r="AD12" s="213" t="s">
+      <c r="AD12" s="190" t="s">
         <v>301</v>
       </c>
-      <c r="AE12" s="213" t="s">
+      <c r="AE12" s="190" t="s">
         <v>301</v>
       </c>
-      <c r="AF12" s="213" t="s">
+      <c r="AF12" s="190" t="s">
         <v>301</v>
       </c>
-      <c r="AG12" s="214" t="s">
+      <c r="AG12" s="191" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A13" s="208" t="s">
+      <c r="A13" s="185" t="s">
         <v>292</v>
       </c>
-      <c r="B13" s="211">
+      <c r="B13" s="188">
         <v>10</v>
       </c>
-      <c r="C13" s="211">
+      <c r="C13" s="188">
         <v>0</v>
       </c>
-      <c r="D13" s="211">
+      <c r="D13" s="188">
         <v>0</v>
       </c>
-      <c r="E13" s="212">
+      <c r="E13" s="189">
         <v>0</v>
       </c>
-      <c r="F13" s="211" t="s">
+      <c r="F13" s="188" t="s">
         <v>303</v>
       </c>
-      <c r="G13" s="211" t="s">
+      <c r="G13" s="188" t="s">
         <v>302</v>
       </c>
-      <c r="H13" s="211" t="s">
+      <c r="H13" s="188" t="s">
         <v>302</v>
       </c>
-      <c r="I13" s="212" t="s">
+      <c r="I13" s="189" t="s">
         <v>302</v>
       </c>
-      <c r="R13" s="211">
+      <c r="R13" s="188">
         <v>12</v>
       </c>
-      <c r="S13" s="211">
+      <c r="S13" s="188">
         <v>0</v>
       </c>
-      <c r="T13" s="211">
+      <c r="T13" s="188">
         <v>0</v>
       </c>
-      <c r="U13" s="212">
+      <c r="U13" s="189">
         <v>0</v>
       </c>
-      <c r="V13" s="211" t="s">
+      <c r="V13" s="188" t="s">
         <v>298</v>
       </c>
-      <c r="W13" s="211" t="s">
+      <c r="W13" s="188" t="s">
         <v>302</v>
       </c>
-      <c r="X13" s="211" t="s">
+      <c r="X13" s="188" t="s">
         <v>302</v>
       </c>
-      <c r="Y13" s="212" t="s">
+      <c r="Y13" s="189" t="s">
         <v>302</v>
       </c>
-      <c r="Z13" s="211">
+      <c r="Z13" s="188">
         <v>10</v>
       </c>
-      <c r="AA13" s="211">
+      <c r="AA13" s="188">
         <v>0</v>
       </c>
-      <c r="AB13" s="211">
+      <c r="AB13" s="188">
         <v>0</v>
       </c>
-      <c r="AC13" s="212">
+      <c r="AC13" s="189">
         <v>0</v>
       </c>
-      <c r="AD13" s="211" t="s">
+      <c r="AD13" s="188" t="s">
         <v>147</v>
       </c>
-      <c r="AE13" s="211" t="s">
+      <c r="AE13" s="188" t="s">
         <v>302</v>
       </c>
-      <c r="AF13" s="211" t="s">
+      <c r="AF13" s="188" t="s">
         <v>302</v>
       </c>
-      <c r="AG13" s="212" t="s">
+      <c r="AG13" s="189" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A14" s="210" t="s">
+      <c r="A14" s="187" t="s">
         <v>293</v>
       </c>
-      <c r="B14" s="215">
+      <c r="B14" s="192">
         <v>10</v>
       </c>
-      <c r="C14" s="215">
+      <c r="C14" s="192">
         <v>255</v>
       </c>
-      <c r="D14" s="215">
+      <c r="D14" s="192">
         <v>255</v>
       </c>
-      <c r="E14" s="216">
+      <c r="E14" s="193">
         <v>255</v>
       </c>
-      <c r="F14" s="215" t="s">
+      <c r="F14" s="192" t="s">
         <v>303</v>
       </c>
-      <c r="G14" s="215" t="s">
+      <c r="G14" s="192" t="s">
         <v>301</v>
       </c>
-      <c r="H14" s="215" t="s">
+      <c r="H14" s="192" t="s">
         <v>301</v>
       </c>
-      <c r="I14" s="216" t="s">
+      <c r="I14" s="193" t="s">
         <v>301</v>
       </c>
-      <c r="R14" s="215">
+      <c r="R14" s="192">
         <v>12</v>
       </c>
-      <c r="S14" s="215">
+      <c r="S14" s="192">
         <v>255</v>
       </c>
-      <c r="T14" s="215">
+      <c r="T14" s="192">
         <v>255</v>
       </c>
-      <c r="U14" s="216">
+      <c r="U14" s="193">
         <v>255</v>
       </c>
-      <c r="V14" s="215" t="s">
+      <c r="V14" s="192" t="s">
         <v>298</v>
       </c>
-      <c r="W14" s="215" t="s">
+      <c r="W14" s="192" t="s">
         <v>301</v>
       </c>
-      <c r="X14" s="215" t="s">
+      <c r="X14" s="192" t="s">
         <v>301</v>
       </c>
-      <c r="Y14" s="216" t="s">
+      <c r="Y14" s="193" t="s">
         <v>301</v>
       </c>
-      <c r="Z14" s="215">
+      <c r="Z14" s="192">
         <v>10</v>
       </c>
-      <c r="AA14" s="215">
+      <c r="AA14" s="192">
         <v>0</v>
       </c>
-      <c r="AB14" s="215">
+      <c r="AB14" s="192">
         <v>0</v>
       </c>
-      <c r="AC14" s="216">
+      <c r="AC14" s="193">
         <v>127</v>
       </c>
-      <c r="AD14" s="215" t="s">
+      <c r="AD14" s="192" t="s">
         <v>147</v>
       </c>
-      <c r="AE14" s="215" t="s">
+      <c r="AE14" s="192" t="s">
         <v>302</v>
       </c>
-      <c r="AF14" s="215" t="s">
+      <c r="AF14" s="192" t="s">
         <v>302</v>
       </c>
-      <c r="AG14" s="216" t="s">
+      <c r="AG14" s="193" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="217"/>
-      <c r="C15" s="217"/>
-      <c r="D15" s="217"/>
-      <c r="E15" s="217"/>
-      <c r="F15" s="217"/>
-      <c r="G15" s="217"/>
-      <c r="H15" s="217"/>
-      <c r="I15" s="217"/>
+      <c r="B15" s="194"/>
+      <c r="C15" s="194"/>
+      <c r="D15" s="194"/>
+      <c r="E15" s="194"/>
+      <c r="F15" s="194"/>
+      <c r="G15" s="194"/>
+      <c r="H15" s="194"/>
+      <c r="I15" s="194"/>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A16" s="204" t="s">
+      <c r="A16" s="181" t="s">
         <v>289</v>
       </c>
-      <c r="B16" s="218" t="s">
+      <c r="B16" s="195" t="s">
         <v>294</v>
       </c>
-      <c r="C16" s="219" t="s">
+      <c r="C16" s="196" t="s">
         <v>295</v>
       </c>
-      <c r="D16" s="218" t="s">
+      <c r="D16" s="195" t="s">
         <v>296</v>
       </c>
-      <c r="E16" s="220" t="s">
+      <c r="E16" s="197" t="s">
         <v>297</v>
       </c>
-      <c r="F16" s="218" t="s">
+      <c r="F16" s="195" t="s">
         <v>294</v>
       </c>
-      <c r="G16" s="219" t="s">
+      <c r="G16" s="196" t="s">
         <v>295</v>
       </c>
-      <c r="H16" s="218" t="s">
+      <c r="H16" s="195" t="s">
         <v>296</v>
       </c>
-      <c r="I16" s="220" t="s">
+      <c r="I16" s="197" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="208" t="s">
+      <c r="A17" s="185" t="s">
         <v>290</v>
       </c>
-      <c r="B17" s="211">
+      <c r="B17" s="188">
         <v>172</v>
       </c>
-      <c r="C17" s="211">
+      <c r="C17" s="188">
         <v>16</v>
       </c>
-      <c r="D17" s="211">
+      <c r="D17" s="188">
         <v>22</v>
       </c>
-      <c r="E17" s="212">
+      <c r="E17" s="189">
         <v>13</v>
       </c>
-      <c r="F17" s="211" t="s">
+      <c r="F17" s="188" t="s">
         <v>306</v>
       </c>
-      <c r="G17" s="211" t="s">
+      <c r="G17" s="188" t="s">
         <v>307</v>
       </c>
-      <c r="H17" s="211" t="s">
+      <c r="H17" s="188" t="s">
         <v>304</v>
       </c>
-      <c r="I17" s="212" t="s">
+      <c r="I17" s="189" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="209" t="s">
+      <c r="A18" s="186" t="s">
         <v>291</v>
       </c>
-      <c r="B18" s="213">
+      <c r="B18" s="190">
         <v>255</v>
       </c>
-      <c r="C18" s="213">
+      <c r="C18" s="190">
         <v>255</v>
       </c>
-      <c r="D18" s="213">
+      <c r="D18" s="190">
         <v>0</v>
       </c>
-      <c r="E18" s="214">
+      <c r="E18" s="191">
         <v>0</v>
       </c>
-      <c r="F18" s="213" t="s">
+      <c r="F18" s="190" t="s">
         <v>301</v>
       </c>
-      <c r="G18" s="213" t="s">
+      <c r="G18" s="190" t="s">
         <v>301</v>
       </c>
-      <c r="H18" s="213" t="s">
+      <c r="H18" s="190" t="s">
         <v>302</v>
       </c>
-      <c r="I18" s="214" t="s">
+      <c r="I18" s="191" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="208" t="s">
+      <c r="A19" s="185" t="s">
         <v>292</v>
       </c>
-      <c r="B19" s="211">
+      <c r="B19" s="188">
         <v>172</v>
       </c>
-      <c r="C19" s="211">
+      <c r="C19" s="188">
         <v>16</v>
       </c>
-      <c r="D19" s="211">
+      <c r="D19" s="188">
         <v>0</v>
       </c>
-      <c r="E19" s="212">
+      <c r="E19" s="189">
         <v>0</v>
       </c>
-      <c r="F19" s="211" t="s">
+      <c r="F19" s="188" t="s">
         <v>306</v>
       </c>
-      <c r="G19" s="211" t="s">
+      <c r="G19" s="188" t="s">
         <v>307</v>
       </c>
-      <c r="H19" s="211" t="s">
+      <c r="H19" s="188" t="s">
         <v>302</v>
       </c>
-      <c r="I19" s="212" t="s">
+      <c r="I19" s="189" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="210" t="s">
+      <c r="A20" s="187" t="s">
         <v>293</v>
       </c>
-      <c r="B20" s="215">
+      <c r="B20" s="192">
         <v>172</v>
       </c>
-      <c r="C20" s="215">
+      <c r="C20" s="192">
         <v>16</v>
       </c>
-      <c r="D20" s="215">
+      <c r="D20" s="192">
         <v>255</v>
       </c>
-      <c r="E20" s="216">
+      <c r="E20" s="193">
         <v>255</v>
       </c>
-      <c r="F20" s="215" t="s">
+      <c r="F20" s="192" t="s">
         <v>306</v>
       </c>
-      <c r="G20" s="215" t="s">
+      <c r="G20" s="192" t="s">
         <v>307</v>
       </c>
-      <c r="H20" s="215" t="s">
+      <c r="H20" s="192" t="s">
         <v>301</v>
       </c>
-      <c r="I20" s="216" t="s">
+      <c r="I20" s="193" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="217"/>
-      <c r="C21" s="217"/>
-      <c r="D21" s="217"/>
-      <c r="E21" s="217"/>
-      <c r="F21" s="217"/>
-      <c r="G21" s="217"/>
-      <c r="H21" s="217"/>
-      <c r="I21" s="217"/>
+      <c r="B21" s="194"/>
+      <c r="C21" s="194"/>
+      <c r="D21" s="194"/>
+      <c r="E21" s="194"/>
+      <c r="F21" s="194"/>
+      <c r="G21" s="194"/>
+      <c r="H21" s="194"/>
+      <c r="I21" s="194"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="204" t="s">
+      <c r="A22" s="181" t="s">
         <v>289</v>
       </c>
-      <c r="B22" s="218" t="s">
+      <c r="B22" s="195" t="s">
         <v>294</v>
       </c>
-      <c r="C22" s="219" t="s">
+      <c r="C22" s="196" t="s">
         <v>295</v>
       </c>
-      <c r="D22" s="218" t="s">
+      <c r="D22" s="195" t="s">
         <v>296</v>
       </c>
-      <c r="E22" s="220" t="s">
+      <c r="E22" s="197" t="s">
         <v>297</v>
       </c>
-      <c r="F22" s="218" t="s">
+      <c r="F22" s="195" t="s">
         <v>294</v>
       </c>
-      <c r="G22" s="219" t="s">
+      <c r="G22" s="196" t="s">
         <v>295</v>
       </c>
-      <c r="H22" s="218" t="s">
+      <c r="H22" s="195" t="s">
         <v>296</v>
       </c>
-      <c r="I22" s="220" t="s">
+      <c r="I22" s="197" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="208" t="s">
+      <c r="A23" s="185" t="s">
         <v>290</v>
       </c>
-      <c r="B23" s="211">
+      <c r="B23" s="188">
         <v>192</v>
       </c>
-      <c r="C23" s="211">
+      <c r="C23" s="188">
         <v>168</v>
       </c>
-      <c r="D23" s="211">
+      <c r="D23" s="188">
         <v>117</v>
       </c>
-      <c r="E23" s="212">
+      <c r="E23" s="189">
         <v>136</v>
       </c>
-      <c r="F23" s="211" t="s">
+      <c r="F23" s="188" t="s">
         <v>308</v>
       </c>
-      <c r="G23" s="211" t="s">
+      <c r="G23" s="188" t="s">
         <v>309</v>
       </c>
-      <c r="H23" s="211" t="s">
+      <c r="H23" s="188" t="s">
         <v>311</v>
       </c>
-      <c r="I23" s="212" t="s">
+      <c r="I23" s="189" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="209" t="s">
+      <c r="A24" s="186" t="s">
         <v>291</v>
       </c>
-      <c r="B24" s="213">
+      <c r="B24" s="190">
         <v>255</v>
       </c>
-      <c r="C24" s="213">
+      <c r="C24" s="190">
         <v>255</v>
       </c>
-      <c r="D24" s="213">
+      <c r="D24" s="190">
         <v>255</v>
       </c>
-      <c r="E24" s="214">
+      <c r="E24" s="191">
         <v>0</v>
       </c>
-      <c r="F24" s="213" t="s">
+      <c r="F24" s="190" t="s">
         <v>301</v>
       </c>
-      <c r="G24" s="213" t="s">
+      <c r="G24" s="190" t="s">
         <v>301</v>
       </c>
-      <c r="H24" s="213" t="s">
+      <c r="H24" s="190" t="s">
         <v>301</v>
       </c>
-      <c r="I24" s="214" t="s">
+      <c r="I24" s="191" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="208" t="s">
+      <c r="A25" s="185" t="s">
         <v>292</v>
       </c>
-      <c r="B25" s="211">
+      <c r="B25" s="188">
         <v>192</v>
       </c>
-      <c r="C25" s="211">
+      <c r="C25" s="188">
         <v>168</v>
       </c>
-      <c r="D25" s="211">
+      <c r="D25" s="188">
         <v>117</v>
       </c>
-      <c r="E25" s="212">
+      <c r="E25" s="189">
         <v>0</v>
       </c>
-      <c r="F25" s="211" t="s">
+      <c r="F25" s="188" t="s">
         <v>308</v>
       </c>
-      <c r="G25" s="211" t="s">
+      <c r="G25" s="188" t="s">
         <v>309</v>
       </c>
-      <c r="H25" s="211" t="s">
+      <c r="H25" s="188" t="s">
         <v>311</v>
       </c>
-      <c r="I25" s="212" t="s">
+      <c r="I25" s="189" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="210" t="s">
+      <c r="A26" s="187" t="s">
         <v>293</v>
       </c>
-      <c r="B26" s="215">
+      <c r="B26" s="192">
         <v>192</v>
       </c>
-      <c r="C26" s="215">
+      <c r="C26" s="192">
         <v>168</v>
       </c>
-      <c r="D26" s="215">
+      <c r="D26" s="192">
         <v>117</v>
       </c>
-      <c r="E26" s="216">
+      <c r="E26" s="193">
         <v>255</v>
       </c>
-      <c r="F26" s="215" t="s">
+      <c r="F26" s="192" t="s">
         <v>308</v>
       </c>
-      <c r="G26" s="215" t="s">
+      <c r="G26" s="192" t="s">
         <v>309</v>
       </c>
-      <c r="H26" s="215" t="s">
+      <c r="H26" s="192" t="s">
         <v>311</v>
       </c>
-      <c r="I26" s="216" t="s">
+      <c r="I26" s="193" t="s">
         <v>301</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="N2:Q2"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:M1"/>
     <mergeCell ref="N1:P1"/>
@@ -13818,6 +14101,11 @@
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="N2:Q2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13850,45 +14138,45 @@
       <c r="A1" s="97" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="373">
+      <c r="B1" s="359">
         <f>2^128</f>
         <v>3.4028236692093846E+38</v>
       </c>
-      <c r="C1" s="373"/>
-      <c r="D1" s="373"/>
-      <c r="E1" s="373"/>
-      <c r="F1" s="373"/>
-      <c r="G1" s="373"/>
-      <c r="H1" s="373"/>
-      <c r="I1" s="373"/>
+      <c r="C1" s="359"/>
+      <c r="D1" s="359"/>
+      <c r="E1" s="359"/>
+      <c r="F1" s="359"/>
+      <c r="G1" s="359"/>
+      <c r="H1" s="359"/>
+      <c r="I1" s="359"/>
       <c r="J1" s="97" t="s">
         <v>240</v>
       </c>
-      <c r="K1" s="374" t="s">
+      <c r="K1" s="360" t="s">
         <v>229</v>
       </c>
-      <c r="L1" s="374"/>
-      <c r="M1" s="374"/>
-      <c r="N1" s="374"/>
+      <c r="L1" s="360"/>
+      <c r="M1" s="360"/>
+      <c r="N1" s="360"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="120" t="s">
         <v>177</v>
       </c>
-      <c r="B2" s="375" t="s">
+      <c r="B2" s="361" t="s">
         <v>173</v>
       </c>
-      <c r="C2" s="376"/>
-      <c r="D2" s="376"/>
+      <c r="C2" s="362"/>
+      <c r="D2" s="362"/>
       <c r="E2" s="98" t="s">
         <v>253</v>
       </c>
-      <c r="F2" s="376" t="s">
+      <c r="F2" s="362" t="s">
         <v>174</v>
       </c>
-      <c r="G2" s="376"/>
-      <c r="H2" s="376"/>
-      <c r="I2" s="377"/>
+      <c r="G2" s="362"/>
+      <c r="H2" s="362"/>
+      <c r="I2" s="363"/>
       <c r="J2" s="99" t="s">
         <v>175</v>
       </c>
@@ -14009,11 +14297,11 @@
       <c r="E5" s="118" t="s">
         <v>182</v>
       </c>
-      <c r="F5" s="378" t="s">
+      <c r="F5" s="364" t="s">
         <v>184</v>
       </c>
-      <c r="G5" s="378"/>
-      <c r="H5" s="378"/>
+      <c r="G5" s="364"/>
+      <c r="H5" s="364"/>
       <c r="I5" s="119">
         <v>1</v>
       </c>
@@ -14043,12 +14331,12 @@
       <c r="B7" s="103" t="s">
         <v>263</v>
       </c>
-      <c r="C7" s="385" t="s">
+      <c r="C7" s="356" t="s">
         <v>248</v>
       </c>
-      <c r="D7" s="385"/>
-      <c r="E7" s="385"/>
-      <c r="F7" s="386"/>
+      <c r="D7" s="356"/>
+      <c r="E7" s="356"/>
+      <c r="F7" s="357"/>
       <c r="G7" s="127" t="s">
         <v>261</v>
       </c>
@@ -14063,10 +14351,10 @@
       <c r="C8" s="123" t="s">
         <v>262</v>
       </c>
-      <c r="D8" s="387" t="s">
+      <c r="D8" s="358" t="s">
         <v>249</v>
       </c>
-      <c r="E8" s="387"/>
+      <c r="E8" s="358"/>
       <c r="F8" s="121" t="s">
         <v>250</v>
       </c>
@@ -14125,114 +14413,114 @@
       <c r="A12" s="130" t="s">
         <v>263</v>
       </c>
-      <c r="B12" s="382" t="s">
+      <c r="B12" s="353" t="s">
         <v>248</v>
       </c>
-      <c r="C12" s="383"/>
-      <c r="D12" s="384"/>
-      <c r="E12" s="382" t="s">
+      <c r="C12" s="354"/>
+      <c r="D12" s="355"/>
+      <c r="E12" s="353" t="s">
         <v>264</v>
       </c>
-      <c r="F12" s="383"/>
-      <c r="G12" s="384"/>
+      <c r="F12" s="354"/>
+      <c r="G12" s="355"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="128" t="s">
         <v>188</v>
       </c>
-      <c r="B13" s="379" t="s">
+      <c r="B13" s="344" t="s">
         <v>190</v>
       </c>
-      <c r="C13" s="380"/>
-      <c r="D13" s="381"/>
-      <c r="E13" s="380" t="s">
+      <c r="C13" s="345"/>
+      <c r="D13" s="346"/>
+      <c r="E13" s="345" t="s">
         <v>191</v>
       </c>
-      <c r="F13" s="380"/>
-      <c r="G13" s="381"/>
+      <c r="F13" s="345"/>
+      <c r="G13" s="346"/>
       <c r="H13" s="37"/>
       <c r="I13" s="37"/>
       <c r="J13" s="37"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="129"/>
-      <c r="B14" s="388"/>
-      <c r="C14" s="389"/>
-      <c r="D14" s="390"/>
-      <c r="E14" s="389"/>
-      <c r="F14" s="389"/>
-      <c r="G14" s="390"/>
+      <c r="B14" s="347"/>
+      <c r="C14" s="348"/>
+      <c r="D14" s="349"/>
+      <c r="E14" s="348"/>
+      <c r="F14" s="348"/>
+      <c r="G14" s="349"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="128"/>
-      <c r="B15" s="379"/>
-      <c r="C15" s="380"/>
-      <c r="D15" s="381"/>
-      <c r="E15" s="380"/>
-      <c r="F15" s="380"/>
-      <c r="G15" s="381"/>
+      <c r="B15" s="344"/>
+      <c r="C15" s="345"/>
+      <c r="D15" s="346"/>
+      <c r="E15" s="345"/>
+      <c r="F15" s="345"/>
+      <c r="G15" s="346"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="129"/>
-      <c r="B16" s="388"/>
-      <c r="C16" s="389"/>
-      <c r="D16" s="390"/>
-      <c r="E16" s="389"/>
-      <c r="F16" s="389"/>
-      <c r="G16" s="390"/>
+      <c r="B16" s="347"/>
+      <c r="C16" s="348"/>
+      <c r="D16" s="349"/>
+      <c r="E16" s="348"/>
+      <c r="F16" s="348"/>
+      <c r="G16" s="349"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="128"/>
-      <c r="B17" s="379"/>
-      <c r="C17" s="380"/>
-      <c r="D17" s="381"/>
-      <c r="E17" s="380"/>
-      <c r="F17" s="380"/>
-      <c r="G17" s="381"/>
+      <c r="B17" s="344"/>
+      <c r="C17" s="345"/>
+      <c r="D17" s="346"/>
+      <c r="E17" s="345"/>
+      <c r="F17" s="345"/>
+      <c r="G17" s="346"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="129"/>
-      <c r="B18" s="388"/>
-      <c r="C18" s="389"/>
-      <c r="D18" s="390"/>
-      <c r="E18" s="389"/>
-      <c r="F18" s="389"/>
-      <c r="G18" s="390"/>
+      <c r="B18" s="347"/>
+      <c r="C18" s="348"/>
+      <c r="D18" s="349"/>
+      <c r="E18" s="348"/>
+      <c r="F18" s="348"/>
+      <c r="G18" s="349"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="116"/>
-      <c r="B19" s="391"/>
-      <c r="C19" s="392"/>
-      <c r="D19" s="393"/>
-      <c r="E19" s="392"/>
-      <c r="F19" s="392"/>
-      <c r="G19" s="393"/>
+      <c r="B19" s="350"/>
+      <c r="C19" s="351"/>
+      <c r="D19" s="352"/>
+      <c r="E19" s="351"/>
+      <c r="F19" s="351"/>
+      <c r="G19" s="352"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="E17:G17"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="E18:G18"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="E19:G19"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="F5:H5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14255,10 +14543,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="221" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="14.85546875" style="222" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" style="222" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.85546875" style="222" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" style="198" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="14.85546875" style="199" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" style="199" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.85546875" style="199" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.5703125" bestFit="1" customWidth="1"/>
@@ -14267,1413 +14555,1427 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="409" t="s">
+      <c r="A1" s="368" t="s">
         <v>320</v>
       </c>
-      <c r="B1" s="409"/>
-      <c r="C1" s="409"/>
-      <c r="D1" s="226" t="s">
+      <c r="B1" s="368"/>
+      <c r="C1" s="368"/>
+      <c r="D1" s="203" t="s">
         <v>471</v>
       </c>
-      <c r="E1" s="218" t="s">
+      <c r="E1" s="195" t="s">
         <v>473</v>
       </c>
-      <c r="F1" s="226" t="s">
+      <c r="F1" s="203" t="s">
         <v>472</v>
       </c>
-      <c r="G1" s="218" t="s">
+      <c r="G1" s="195" t="s">
         <v>572</v>
       </c>
-      <c r="H1" s="226" t="s">
+      <c r="H1" s="203" t="s">
         <v>573</v>
       </c>
-      <c r="I1" s="218" t="s">
+      <c r="I1" s="195" t="s">
         <v>323</v>
       </c>
-      <c r="J1" s="226" t="s">
+      <c r="J1" s="203" t="s">
         <v>446</v>
       </c>
-      <c r="K1" s="218" t="s">
+      <c r="K1" s="195" t="s">
         <v>322</v>
       </c>
       <c r="P1" s="34"/>
     </row>
     <row r="2" spans="1:16" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="406" t="s">
+      <c r="A2" s="365" t="s">
         <v>470</v>
       </c>
-      <c r="B2" s="407"/>
-      <c r="C2" s="408"/>
-      <c r="D2" s="230" t="s">
+      <c r="B2" s="366"/>
+      <c r="C2" s="367"/>
+      <c r="D2" s="207" t="s">
         <v>321</v>
       </c>
-      <c r="E2" s="231" t="s">
+      <c r="E2" s="208" t="s">
         <v>576</v>
       </c>
-      <c r="F2" s="230" t="s">
+      <c r="F2" s="207" t="s">
         <v>329</v>
       </c>
-      <c r="G2" s="231" t="s">
+      <c r="G2" s="208" t="s">
         <v>111</v>
       </c>
-      <c r="H2" s="275">
+      <c r="H2" s="252">
         <v>20</v>
       </c>
-      <c r="I2" s="231">
+      <c r="I2" s="208">
         <f>IF(H2="","",IF(H2&lt;=2,1,IF(H2&lt;=4,2,IF(H2&lt;=8,3,IF(H2&lt;=16,4,IF(H2&lt;=32,5,IF(H2&lt;=64,6,IF(H2&lt;=128,7,8))))))))</f>
         <v>5</v>
       </c>
-      <c r="J2" s="230">
+      <c r="J2" s="207">
         <f>IF(G2="","",IF(G2="A",8+I2,IF(G2="B",16+I2,IF(G2="C",24+I2,"invalid"))))</f>
         <v>29</v>
       </c>
-      <c r="K2" s="231">
+      <c r="K2" s="208">
         <f>IF(J2="","",2^(32-J2))</f>
         <v>8</v>
       </c>
       <c r="P2" s="34"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="232" t="s">
+      <c r="A3" s="209" t="s">
         <v>327</v>
       </c>
-      <c r="B3" s="233" t="s">
+      <c r="B3" s="210" t="s">
         <v>292</v>
       </c>
-      <c r="C3" s="233" t="s">
+      <c r="C3" s="210" t="s">
         <v>324</v>
       </c>
-      <c r="D3" s="234" t="s">
+      <c r="D3" s="211" t="s">
         <v>325</v>
       </c>
-      <c r="E3" s="233" t="s">
+      <c r="E3" s="210" t="s">
         <v>293</v>
       </c>
-      <c r="F3" s="234" t="s">
+      <c r="F3" s="211" t="s">
         <v>316</v>
       </c>
-      <c r="G3" s="234" t="s">
+      <c r="G3" s="211" t="s">
         <v>315</v>
       </c>
-      <c r="H3" s="234" t="s">
+      <c r="H3" s="211" t="s">
         <v>570</v>
       </c>
-      <c r="I3" s="234" t="s">
+      <c r="I3" s="211" t="s">
         <v>571</v>
       </c>
-      <c r="J3" s="234" t="s">
+      <c r="J3" s="211" t="s">
         <v>267</v>
       </c>
-      <c r="K3" s="235" t="s">
+      <c r="K3" s="212" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="242" t="s">
+      <c r="A4" s="219" t="s">
         <v>330</v>
       </c>
-      <c r="B4" s="243" t="s">
+      <c r="B4" s="220" t="s">
         <v>328</v>
       </c>
-      <c r="C4" s="243" t="s">
+      <c r="C4" s="220" t="s">
         <v>348</v>
       </c>
-      <c r="D4" s="243" t="s">
+      <c r="D4" s="220" t="s">
         <v>344</v>
       </c>
-      <c r="E4" s="243" t="s">
+      <c r="E4" s="220" t="s">
         <v>340</v>
       </c>
-      <c r="F4" s="244" t="s">
+      <c r="F4" s="221" t="s">
         <v>326</v>
       </c>
-      <c r="G4" s="397" t="s">
+      <c r="G4" s="372" t="s">
         <v>108</v>
       </c>
-      <c r="H4" s="397">
+      <c r="H4" s="372">
         <v>3</v>
       </c>
-      <c r="I4" s="397">
+      <c r="I4" s="372">
         <f>IF(H4="","",IF(H4&lt;=2,1,IF(H4&lt;=4,2,IF(H4&lt;=8,3,IF(H4&lt;=16,4,IF(H4&lt;=32,5,IF(H4&lt;=64,6,IF(H4&lt;=128,7,8))))))))</f>
         <v>2</v>
       </c>
-      <c r="J4" s="397">
+      <c r="J4" s="372">
         <f>IF(G4="","",IF(G4="A",8+I4,IF(G4="B",16+I4,IF(G4="C",24+I4,"invalid"))))</f>
         <v>10</v>
       </c>
-      <c r="K4" s="400">
+      <c r="K4" s="369">
         <f>IF(J4="","",2^(32-J4))</f>
         <v>4194304</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="236" t="s">
+      <c r="A5" s="213" t="s">
         <v>331</v>
       </c>
-      <c r="B5" s="213" t="s">
+      <c r="B5" s="190" t="s">
         <v>334</v>
       </c>
-      <c r="C5" s="213" t="s">
+      <c r="C5" s="190" t="s">
         <v>337</v>
       </c>
-      <c r="D5" s="213" t="s">
+      <c r="D5" s="190" t="s">
         <v>345</v>
       </c>
-      <c r="E5" s="213" t="s">
+      <c r="E5" s="190" t="s">
         <v>341</v>
       </c>
-      <c r="F5" s="214" t="s">
+      <c r="F5" s="191" t="s">
         <v>326</v>
       </c>
-      <c r="G5" s="398"/>
-      <c r="H5" s="398"/>
-      <c r="I5" s="398"/>
-      <c r="J5" s="398"/>
-      <c r="K5" s="401"/>
+      <c r="G5" s="373"/>
+      <c r="H5" s="373"/>
+      <c r="I5" s="373"/>
+      <c r="J5" s="373"/>
+      <c r="K5" s="370"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="237" t="s">
+      <c r="A6" s="214" t="s">
         <v>332</v>
       </c>
-      <c r="B6" s="211" t="s">
+      <c r="B6" s="188" t="s">
         <v>335</v>
       </c>
-      <c r="C6" s="211" t="s">
+      <c r="C6" s="188" t="s">
         <v>338</v>
       </c>
-      <c r="D6" s="211" t="s">
+      <c r="D6" s="188" t="s">
         <v>346</v>
       </c>
-      <c r="E6" s="211" t="s">
+      <c r="E6" s="188" t="s">
         <v>342</v>
       </c>
-      <c r="F6" s="212" t="s">
+      <c r="F6" s="189" t="s">
         <v>326</v>
       </c>
-      <c r="G6" s="398"/>
-      <c r="H6" s="398"/>
-      <c r="I6" s="398"/>
-      <c r="J6" s="398"/>
-      <c r="K6" s="401"/>
+      <c r="G6" s="373"/>
+      <c r="H6" s="373"/>
+      <c r="I6" s="373"/>
+      <c r="J6" s="373"/>
+      <c r="K6" s="370"/>
     </row>
     <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="239" t="s">
+      <c r="A7" s="216" t="s">
         <v>333</v>
       </c>
-      <c r="B7" s="240" t="s">
+      <c r="B7" s="217" t="s">
         <v>336</v>
       </c>
-      <c r="C7" s="240" t="s">
+      <c r="C7" s="217" t="s">
         <v>339</v>
       </c>
-      <c r="D7" s="240" t="s">
+      <c r="D7" s="217" t="s">
         <v>347</v>
       </c>
-      <c r="E7" s="240" t="s">
+      <c r="E7" s="217" t="s">
         <v>343</v>
       </c>
-      <c r="F7" s="241" t="s">
+      <c r="F7" s="218" t="s">
         <v>326</v>
       </c>
-      <c r="G7" s="399"/>
-      <c r="H7" s="399"/>
-      <c r="I7" s="399"/>
-      <c r="J7" s="399"/>
-      <c r="K7" s="402"/>
+      <c r="G7" s="374"/>
+      <c r="H7" s="374"/>
+      <c r="I7" s="374"/>
+      <c r="J7" s="374"/>
+      <c r="K7" s="371"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="242" t="s">
+      <c r="A8" s="219" t="s">
         <v>349</v>
       </c>
-      <c r="B8" s="243" t="s">
+      <c r="B8" s="220" t="s">
         <v>357</v>
       </c>
-      <c r="C8" s="243" t="s">
+      <c r="C8" s="220" t="s">
         <v>358</v>
       </c>
-      <c r="D8" s="243" t="s">
+      <c r="D8" s="220" t="s">
         <v>381</v>
       </c>
-      <c r="E8" s="243" t="s">
+      <c r="E8" s="220" t="s">
         <v>380</v>
       </c>
-      <c r="F8" s="244" t="s">
+      <c r="F8" s="221" t="s">
         <v>389</v>
       </c>
-      <c r="G8" s="394" t="s">
+      <c r="G8" s="375" t="s">
         <v>109</v>
       </c>
-      <c r="H8" s="394">
+      <c r="H8" s="375">
         <v>5</v>
       </c>
-      <c r="I8" s="394">
+      <c r="I8" s="375">
         <f t="shared" ref="I8:I44" si="0">IF(H8="","",IF(H8&lt;=2,1,IF(H8&lt;=4,2,IF(H8&lt;=8,3,IF(H8&lt;=16,4,IF(H8&lt;=32,5,IF(H8&lt;=64,6,IF(H8&lt;=128,7,8))))))))</f>
         <v>3</v>
       </c>
-      <c r="J8" s="394">
+      <c r="J8" s="375">
         <f t="shared" ref="J8:J20" si="1">IF(G8="","",IF(G8="A",8+I8,IF(G8="B",16+I8,IF(G8="C",24+I8,"invalid"))))</f>
         <v>19</v>
       </c>
-      <c r="K8" s="403">
+      <c r="K8" s="378">
         <f t="shared" ref="K8:K44" si="2">IF(J8="","",2^(32-J8))</f>
         <v>8192</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="236" t="s">
+      <c r="A9" s="213" t="s">
         <v>350</v>
       </c>
-      <c r="B9" s="213" t="s">
+      <c r="B9" s="190" t="s">
         <v>359</v>
       </c>
-      <c r="C9" s="213" t="s">
+      <c r="C9" s="190" t="s">
         <v>366</v>
       </c>
-      <c r="D9" s="213" t="s">
+      <c r="D9" s="190" t="s">
         <v>382</v>
       </c>
-      <c r="E9" s="213" t="s">
+      <c r="E9" s="190" t="s">
         <v>379</v>
       </c>
-      <c r="F9" s="214" t="s">
+      <c r="F9" s="191" t="s">
         <v>389</v>
       </c>
-      <c r="G9" s="395"/>
-      <c r="H9" s="395"/>
-      <c r="I9" s="395"/>
-      <c r="J9" s="395"/>
-      <c r="K9" s="404"/>
+      <c r="G9" s="376"/>
+      <c r="H9" s="376"/>
+      <c r="I9" s="376"/>
+      <c r="J9" s="376"/>
+      <c r="K9" s="379"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="237" t="s">
+      <c r="A10" s="214" t="s">
         <v>351</v>
       </c>
-      <c r="B10" s="211" t="s">
+      <c r="B10" s="188" t="s">
         <v>360</v>
       </c>
-      <c r="C10" s="211" t="s">
+      <c r="C10" s="188" t="s">
         <v>367</v>
       </c>
-      <c r="D10" s="211" t="s">
+      <c r="D10" s="188" t="s">
         <v>383</v>
       </c>
-      <c r="E10" s="211" t="s">
+      <c r="E10" s="188" t="s">
         <v>378</v>
       </c>
-      <c r="F10" s="212" t="s">
+      <c r="F10" s="189" t="s">
         <v>389</v>
       </c>
-      <c r="G10" s="395"/>
-      <c r="H10" s="395"/>
-      <c r="I10" s="395"/>
-      <c r="J10" s="395"/>
-      <c r="K10" s="404"/>
+      <c r="G10" s="376"/>
+      <c r="H10" s="376"/>
+      <c r="I10" s="376"/>
+      <c r="J10" s="376"/>
+      <c r="K10" s="379"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="238" t="s">
+      <c r="A11" s="215" t="s">
         <v>352</v>
       </c>
-      <c r="B11" s="215" t="s">
+      <c r="B11" s="192" t="s">
         <v>361</v>
       </c>
-      <c r="C11" s="215" t="s">
+      <c r="C11" s="192" t="s">
         <v>368</v>
       </c>
-      <c r="D11" s="215" t="s">
+      <c r="D11" s="192" t="s">
         <v>384</v>
       </c>
-      <c r="E11" s="215" t="s">
+      <c r="E11" s="192" t="s">
         <v>377</v>
       </c>
-      <c r="F11" s="216" t="s">
+      <c r="F11" s="193" t="s">
         <v>389</v>
       </c>
-      <c r="G11" s="395"/>
-      <c r="H11" s="395"/>
-      <c r="I11" s="395"/>
-      <c r="J11" s="395"/>
-      <c r="K11" s="404"/>
+      <c r="G11" s="376"/>
+      <c r="H11" s="376"/>
+      <c r="I11" s="376"/>
+      <c r="J11" s="376"/>
+      <c r="K11" s="379"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="237" t="s">
+      <c r="A12" s="214" t="s">
         <v>353</v>
       </c>
-      <c r="B12" s="211" t="s">
+      <c r="B12" s="188" t="s">
         <v>362</v>
       </c>
-      <c r="C12" s="211" t="s">
+      <c r="C12" s="188" t="s">
         <v>369</v>
       </c>
-      <c r="D12" s="211" t="s">
+      <c r="D12" s="188" t="s">
         <v>385</v>
       </c>
-      <c r="E12" s="211" t="s">
+      <c r="E12" s="188" t="s">
         <v>376</v>
       </c>
-      <c r="F12" s="212" t="s">
+      <c r="F12" s="189" t="s">
         <v>389</v>
       </c>
-      <c r="G12" s="395"/>
-      <c r="H12" s="395"/>
-      <c r="I12" s="395"/>
-      <c r="J12" s="395"/>
-      <c r="K12" s="404"/>
+      <c r="G12" s="376"/>
+      <c r="H12" s="376"/>
+      <c r="I12" s="376"/>
+      <c r="J12" s="376"/>
+      <c r="K12" s="379"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="236" t="s">
+      <c r="A13" s="213" t="s">
         <v>354</v>
       </c>
-      <c r="B13" s="213" t="s">
+      <c r="B13" s="190" t="s">
         <v>363</v>
       </c>
-      <c r="C13" s="213" t="s">
+      <c r="C13" s="190" t="s">
         <v>370</v>
       </c>
-      <c r="D13" s="213" t="s">
+      <c r="D13" s="190" t="s">
         <v>386</v>
       </c>
-      <c r="E13" s="213" t="s">
+      <c r="E13" s="190" t="s">
         <v>375</v>
       </c>
-      <c r="F13" s="214" t="s">
+      <c r="F13" s="191" t="s">
         <v>389</v>
       </c>
-      <c r="G13" s="395"/>
-      <c r="H13" s="395"/>
-      <c r="I13" s="395"/>
-      <c r="J13" s="395"/>
-      <c r="K13" s="404"/>
+      <c r="G13" s="376"/>
+      <c r="H13" s="376"/>
+      <c r="I13" s="376"/>
+      <c r="J13" s="376"/>
+      <c r="K13" s="379"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="237" t="s">
+      <c r="A14" s="214" t="s">
         <v>355</v>
       </c>
-      <c r="B14" s="211" t="s">
+      <c r="B14" s="188" t="s">
         <v>364</v>
       </c>
-      <c r="C14" s="211" t="s">
+      <c r="C14" s="188" t="s">
         <v>371</v>
       </c>
-      <c r="D14" s="211" t="s">
+      <c r="D14" s="188" t="s">
         <v>387</v>
       </c>
-      <c r="E14" s="211" t="s">
+      <c r="E14" s="188" t="s">
         <v>374</v>
       </c>
-      <c r="F14" s="212" t="s">
+      <c r="F14" s="189" t="s">
         <v>389</v>
       </c>
-      <c r="G14" s="395"/>
-      <c r="H14" s="395"/>
-      <c r="I14" s="395"/>
-      <c r="J14" s="395"/>
-      <c r="K14" s="404"/>
+      <c r="G14" s="376"/>
+      <c r="H14" s="376"/>
+      <c r="I14" s="376"/>
+      <c r="J14" s="376"/>
+      <c r="K14" s="379"/>
     </row>
     <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="239" t="s">
+      <c r="A15" s="216" t="s">
         <v>356</v>
       </c>
-      <c r="B15" s="240" t="s">
+      <c r="B15" s="217" t="s">
         <v>365</v>
       </c>
-      <c r="C15" s="240" t="s">
+      <c r="C15" s="217" t="s">
         <v>372</v>
       </c>
-      <c r="D15" s="240" t="s">
+      <c r="D15" s="217" t="s">
         <v>388</v>
       </c>
-      <c r="E15" s="240" t="s">
+      <c r="E15" s="217" t="s">
         <v>373</v>
       </c>
-      <c r="F15" s="241" t="s">
+      <c r="F15" s="218" t="s">
         <v>389</v>
       </c>
-      <c r="G15" s="396"/>
-      <c r="H15" s="396"/>
-      <c r="I15" s="396"/>
-      <c r="J15" s="396"/>
-      <c r="K15" s="405"/>
+      <c r="G15" s="377"/>
+      <c r="H15" s="377"/>
+      <c r="I15" s="377"/>
+      <c r="J15" s="377"/>
+      <c r="K15" s="380"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="242" t="s">
+      <c r="A16" s="219" t="s">
         <v>330</v>
       </c>
-      <c r="B16" s="243" t="s">
+      <c r="B16" s="220" t="s">
         <v>532</v>
       </c>
-      <c r="C16" s="243" t="s">
+      <c r="C16" s="220" t="s">
         <v>566</v>
       </c>
-      <c r="D16" s="243" t="s">
+      <c r="D16" s="220" t="s">
         <v>619</v>
       </c>
-      <c r="E16" s="243" t="s">
+      <c r="E16" s="220" t="s">
         <v>620</v>
       </c>
-      <c r="F16" s="245">
+      <c r="F16" s="222">
         <v>255255255192</v>
       </c>
-      <c r="G16" s="397" t="s">
+      <c r="G16" s="372" t="s">
         <v>111</v>
       </c>
-      <c r="H16" s="397">
+      <c r="H16" s="372">
         <v>4</v>
       </c>
-      <c r="I16" s="397">
+      <c r="I16" s="372">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J16" s="397">
+      <c r="J16" s="372">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="K16" s="400">
+      <c r="K16" s="369">
         <f t="shared" si="2"/>
         <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="236" t="s">
+      <c r="A17" s="213" t="s">
         <v>331</v>
       </c>
-      <c r="B17" s="213" t="s">
+      <c r="B17" s="190" t="s">
         <v>533</v>
       </c>
-      <c r="C17" s="213" t="s">
+      <c r="C17" s="190" t="s">
         <v>567</v>
       </c>
-      <c r="D17" s="213" t="s">
+      <c r="D17" s="190" t="s">
         <v>616</v>
       </c>
-      <c r="E17" s="213" t="s">
+      <c r="E17" s="190" t="s">
         <v>621</v>
       </c>
-      <c r="F17" s="225">
+      <c r="F17" s="202">
         <v>255255255192</v>
       </c>
-      <c r="G17" s="398"/>
-      <c r="H17" s="398"/>
-      <c r="I17" s="398"/>
-      <c r="J17" s="398"/>
-      <c r="K17" s="401"/>
+      <c r="G17" s="373"/>
+      <c r="H17" s="373"/>
+      <c r="I17" s="373"/>
+      <c r="J17" s="373"/>
+      <c r="K17" s="370"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="237" t="s">
+      <c r="A18" s="214" t="s">
         <v>450</v>
       </c>
-      <c r="B18" s="211" t="s">
+      <c r="B18" s="188" t="s">
         <v>534</v>
       </c>
-      <c r="C18" s="211" t="s">
+      <c r="C18" s="188" t="s">
         <v>568</v>
       </c>
-      <c r="D18" s="211" t="s">
+      <c r="D18" s="188" t="s">
         <v>617</v>
       </c>
-      <c r="E18" s="211" t="s">
+      <c r="E18" s="188" t="s">
         <v>622</v>
       </c>
-      <c r="F18" s="224">
+      <c r="F18" s="201">
         <v>255255255192</v>
       </c>
-      <c r="G18" s="398"/>
-      <c r="H18" s="398"/>
-      <c r="I18" s="398"/>
-      <c r="J18" s="398"/>
-      <c r="K18" s="401"/>
+      <c r="G18" s="373"/>
+      <c r="H18" s="373"/>
+      <c r="I18" s="373"/>
+      <c r="J18" s="373"/>
+      <c r="K18" s="370"/>
     </row>
     <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="239" t="s">
+      <c r="A19" s="216" t="s">
         <v>333</v>
       </c>
-      <c r="B19" s="240" t="s">
+      <c r="B19" s="217" t="s">
         <v>535</v>
       </c>
-      <c r="C19" s="240" t="s">
+      <c r="C19" s="217" t="s">
         <v>569</v>
       </c>
-      <c r="D19" s="240" t="s">
+      <c r="D19" s="217" t="s">
         <v>618</v>
       </c>
-      <c r="E19" s="240" t="s">
+      <c r="E19" s="217" t="s">
         <v>623</v>
       </c>
-      <c r="F19" s="246">
+      <c r="F19" s="223">
         <v>255255255192</v>
       </c>
-      <c r="G19" s="399"/>
-      <c r="H19" s="399"/>
-      <c r="I19" s="399"/>
-      <c r="J19" s="399"/>
-      <c r="K19" s="402"/>
+      <c r="G19" s="374"/>
+      <c r="H19" s="374"/>
+      <c r="I19" s="374"/>
+      <c r="J19" s="374"/>
+      <c r="K19" s="371"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="242" t="s">
+      <c r="A20" s="219" t="s">
         <v>436</v>
       </c>
-      <c r="B20" s="243" t="s">
+      <c r="B20" s="220" t="s">
         <v>328</v>
       </c>
-      <c r="C20" s="243" t="s">
+      <c r="C20" s="220" t="s">
         <v>504</v>
       </c>
-      <c r="D20" s="243" t="s">
+      <c r="D20" s="220" t="s">
         <v>624</v>
       </c>
-      <c r="E20" s="243" t="s">
+      <c r="E20" s="220" t="s">
         <v>632</v>
       </c>
-      <c r="F20" s="244" t="s">
+      <c r="F20" s="221" t="s">
         <v>440</v>
       </c>
-      <c r="G20" s="394" t="s">
+      <c r="G20" s="375" t="s">
         <v>108</v>
       </c>
-      <c r="H20" s="394">
+      <c r="H20" s="375">
         <v>20</v>
       </c>
-      <c r="I20" s="394">
+      <c r="I20" s="375">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J20" s="394">
+      <c r="J20" s="375">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="K20" s="403">
+      <c r="K20" s="378">
         <f t="shared" si="2"/>
         <v>524288</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="236" t="s">
+      <c r="A21" s="213" t="s">
         <v>439</v>
       </c>
-      <c r="B21" s="213" t="s">
+      <c r="B21" s="190" t="s">
         <v>437</v>
       </c>
-      <c r="C21" s="213" t="s">
+      <c r="C21" s="190" t="s">
         <v>505</v>
       </c>
-      <c r="D21" s="213" t="s">
+      <c r="D21" s="190" t="s">
         <v>625</v>
       </c>
-      <c r="E21" s="213" t="s">
+      <c r="E21" s="190" t="s">
         <v>633</v>
       </c>
-      <c r="F21" s="214" t="s">
+      <c r="F21" s="191" t="s">
         <v>440</v>
       </c>
-      <c r="G21" s="395"/>
-      <c r="H21" s="395"/>
-      <c r="I21" s="395"/>
-      <c r="J21" s="395"/>
-      <c r="K21" s="404"/>
+      <c r="G21" s="376"/>
+      <c r="H21" s="376"/>
+      <c r="I21" s="376"/>
+      <c r="J21" s="376"/>
+      <c r="K21" s="379"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="237" t="s">
+      <c r="A22" s="214" t="s">
         <v>503</v>
       </c>
-      <c r="B22" s="211" t="s">
+      <c r="B22" s="188" t="s">
         <v>438</v>
       </c>
-      <c r="C22" s="211" t="s">
+      <c r="C22" s="188" t="s">
         <v>536</v>
       </c>
-      <c r="D22" s="211" t="s">
+      <c r="D22" s="188" t="s">
         <v>626</v>
       </c>
-      <c r="E22" s="211" t="s">
+      <c r="E22" s="188" t="s">
         <v>634</v>
       </c>
-      <c r="F22" s="212" t="s">
+      <c r="F22" s="189" t="s">
         <v>440</v>
       </c>
-      <c r="G22" s="395"/>
-      <c r="H22" s="395"/>
-      <c r="I22" s="395"/>
-      <c r="J22" s="395"/>
-      <c r="K22" s="404"/>
+      <c r="G22" s="376"/>
+      <c r="H22" s="376"/>
+      <c r="I22" s="376"/>
+      <c r="J22" s="376"/>
+      <c r="K22" s="379"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="238" t="s">
+      <c r="A23" s="215" t="s">
         <v>502</v>
       </c>
-      <c r="B23" s="215" t="s">
+      <c r="B23" s="192" t="s">
         <v>506</v>
       </c>
-      <c r="C23" s="215" t="s">
+      <c r="C23" s="192" t="s">
         <v>537</v>
       </c>
-      <c r="D23" s="215" t="s">
+      <c r="D23" s="192" t="s">
         <v>627</v>
       </c>
-      <c r="E23" s="215" t="s">
+      <c r="E23" s="192" t="s">
         <v>635</v>
       </c>
-      <c r="F23" s="216" t="s">
+      <c r="F23" s="193" t="s">
         <v>440</v>
       </c>
-      <c r="G23" s="395"/>
-      <c r="H23" s="395"/>
-      <c r="I23" s="395"/>
-      <c r="J23" s="395"/>
-      <c r="K23" s="404"/>
+      <c r="G23" s="376"/>
+      <c r="H23" s="376"/>
+      <c r="I23" s="376"/>
+      <c r="J23" s="376"/>
+      <c r="K23" s="379"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="237" t="s">
+      <c r="A24" s="214" t="s">
         <v>501</v>
       </c>
-      <c r="B24" s="211" t="s">
+      <c r="B24" s="188" t="s">
         <v>507</v>
       </c>
-      <c r="C24" s="211" t="s">
+      <c r="C24" s="188" t="s">
         <v>538</v>
       </c>
-      <c r="D24" s="211" t="s">
+      <c r="D24" s="188" t="s">
         <v>628</v>
       </c>
-      <c r="E24" s="211" t="s">
+      <c r="E24" s="188" t="s">
         <v>636</v>
       </c>
-      <c r="F24" s="212" t="s">
+      <c r="F24" s="189" t="s">
         <v>440</v>
       </c>
-      <c r="G24" s="395"/>
-      <c r="H24" s="395"/>
-      <c r="I24" s="395"/>
-      <c r="J24" s="395"/>
-      <c r="K24" s="404"/>
+      <c r="G24" s="376"/>
+      <c r="H24" s="376"/>
+      <c r="I24" s="376"/>
+      <c r="J24" s="376"/>
+      <c r="K24" s="379"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="236" t="s">
+      <c r="A25" s="213" t="s">
         <v>500</v>
       </c>
-      <c r="B25" s="213" t="s">
+      <c r="B25" s="190" t="s">
         <v>526</v>
       </c>
-      <c r="C25" s="213" t="s">
+      <c r="C25" s="190" t="s">
         <v>539</v>
       </c>
-      <c r="D25" s="213" t="s">
+      <c r="D25" s="190" t="s">
         <v>629</v>
       </c>
-      <c r="E25" s="213" t="s">
+      <c r="E25" s="190" t="s">
         <v>637</v>
       </c>
-      <c r="F25" s="214" t="s">
+      <c r="F25" s="191" t="s">
         <v>440</v>
       </c>
-      <c r="G25" s="395"/>
-      <c r="H25" s="395"/>
-      <c r="I25" s="395"/>
-      <c r="J25" s="395"/>
-      <c r="K25" s="404"/>
+      <c r="G25" s="376"/>
+      <c r="H25" s="376"/>
+      <c r="I25" s="376"/>
+      <c r="J25" s="376"/>
+      <c r="K25" s="379"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="237" t="s">
+      <c r="A26" s="214" t="s">
         <v>499</v>
       </c>
-      <c r="B26" s="211" t="s">
+      <c r="B26" s="188" t="s">
         <v>527</v>
       </c>
-      <c r="C26" s="211" t="s">
+      <c r="C26" s="188" t="s">
         <v>540</v>
       </c>
-      <c r="D26" s="211" t="s">
+      <c r="D26" s="188" t="s">
         <v>630</v>
       </c>
-      <c r="E26" s="211" t="s">
+      <c r="E26" s="188" t="s">
         <v>638</v>
       </c>
-      <c r="F26" s="212" t="s">
+      <c r="F26" s="189" t="s">
         <v>440</v>
       </c>
-      <c r="G26" s="395"/>
-      <c r="H26" s="395"/>
-      <c r="I26" s="395"/>
-      <c r="J26" s="395"/>
-      <c r="K26" s="404"/>
+      <c r="G26" s="376"/>
+      <c r="H26" s="376"/>
+      <c r="I26" s="376"/>
+      <c r="J26" s="376"/>
+      <c r="K26" s="379"/>
     </row>
     <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="239" t="s">
+      <c r="A27" s="216" t="s">
         <v>498</v>
       </c>
-      <c r="B27" s="240" t="s">
+      <c r="B27" s="217" t="s">
         <v>528</v>
       </c>
-      <c r="C27" s="240" t="s">
+      <c r="C27" s="217" t="s">
         <v>541</v>
       </c>
-      <c r="D27" s="240" t="s">
+      <c r="D27" s="217" t="s">
         <v>631</v>
       </c>
-      <c r="E27" s="240" t="s">
+      <c r="E27" s="217" t="s">
         <v>340</v>
       </c>
-      <c r="F27" s="241" t="s">
+      <c r="F27" s="218" t="s">
         <v>440</v>
       </c>
-      <c r="G27" s="396"/>
-      <c r="H27" s="396"/>
-      <c r="I27" s="396"/>
-      <c r="J27" s="396"/>
-      <c r="K27" s="405"/>
+      <c r="G27" s="377"/>
+      <c r="H27" s="377"/>
+      <c r="I27" s="377"/>
+      <c r="J27" s="377"/>
+      <c r="K27" s="380"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="242" t="s">
+      <c r="A28" s="219" t="s">
         <v>497</v>
       </c>
-      <c r="B28" s="243" t="s">
+      <c r="B28" s="220" t="s">
         <v>334</v>
       </c>
-      <c r="C28" s="243" t="s">
+      <c r="C28" s="220" t="s">
         <v>542</v>
       </c>
-      <c r="D28" s="243" t="s">
+      <c r="D28" s="220" t="s">
         <v>639</v>
       </c>
-      <c r="E28" s="243" t="s">
+      <c r="E28" s="220" t="s">
         <v>393</v>
       </c>
-      <c r="F28" s="244" t="s">
+      <c r="F28" s="221" t="s">
         <v>440</v>
       </c>
-      <c r="G28" s="397" t="s">
+      <c r="G28" s="372" t="s">
         <v>108</v>
       </c>
-      <c r="H28" s="397">
+      <c r="H28" s="372">
         <v>20</v>
       </c>
-      <c r="I28" s="397">
+      <c r="I28" s="372">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J28" s="397">
+      <c r="J28" s="372">
         <f t="shared" ref="J28" si="3">IF(G28="","",IF(G28="A",8+I28,IF(G28="B",16+I28,IF(G28="C",24+I28,"invalid"))))</f>
         <v>13</v>
       </c>
-      <c r="K28" s="400">
+      <c r="K28" s="369">
         <f t="shared" si="2"/>
         <v>524288</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="236" t="s">
+      <c r="A29" s="213" t="s">
         <v>496</v>
       </c>
-      <c r="B29" s="213" t="s">
+      <c r="B29" s="190" t="s">
         <v>529</v>
       </c>
-      <c r="C29" s="213" t="s">
+      <c r="C29" s="190" t="s">
         <v>543</v>
       </c>
-      <c r="D29" s="213" t="s">
+      <c r="D29" s="190" t="s">
         <v>640</v>
       </c>
-      <c r="E29" s="213" t="s">
+      <c r="E29" s="190" t="s">
         <v>394</v>
       </c>
-      <c r="F29" s="214" t="s">
+      <c r="F29" s="191" t="s">
         <v>440</v>
       </c>
-      <c r="G29" s="398"/>
-      <c r="H29" s="398"/>
-      <c r="I29" s="398"/>
-      <c r="J29" s="398"/>
-      <c r="K29" s="401"/>
+      <c r="G29" s="373"/>
+      <c r="H29" s="373"/>
+      <c r="I29" s="373"/>
+      <c r="J29" s="373"/>
+      <c r="K29" s="370"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="237" t="s">
+      <c r="A30" s="214" t="s">
         <v>495</v>
       </c>
-      <c r="B30" s="211" t="s">
+      <c r="B30" s="188" t="s">
         <v>530</v>
       </c>
-      <c r="C30" s="211" t="s">
+      <c r="C30" s="188" t="s">
         <v>544</v>
       </c>
-      <c r="D30" s="211" t="s">
+      <c r="D30" s="188" t="s">
         <v>641</v>
       </c>
-      <c r="E30" s="211" t="s">
+      <c r="E30" s="188" t="s">
         <v>395</v>
       </c>
-      <c r="F30" s="212" t="s">
+      <c r="F30" s="189" t="s">
         <v>440</v>
       </c>
-      <c r="G30" s="398"/>
-      <c r="H30" s="398"/>
-      <c r="I30" s="398"/>
-      <c r="J30" s="398"/>
-      <c r="K30" s="401"/>
+      <c r="G30" s="373"/>
+      <c r="H30" s="373"/>
+      <c r="I30" s="373"/>
+      <c r="J30" s="373"/>
+      <c r="K30" s="370"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="238" t="s">
+      <c r="A31" s="215" t="s">
         <v>494</v>
       </c>
-      <c r="B31" s="215" t="s">
+      <c r="B31" s="192" t="s">
         <v>531</v>
       </c>
-      <c r="C31" s="215" t="s">
+      <c r="C31" s="192" t="s">
         <v>545</v>
       </c>
-      <c r="D31" s="215" t="s">
+      <c r="D31" s="192" t="s">
         <v>642</v>
       </c>
-      <c r="E31" s="215" t="s">
+      <c r="E31" s="192" t="s">
         <v>396</v>
       </c>
-      <c r="F31" s="216" t="s">
+      <c r="F31" s="193" t="s">
         <v>440</v>
       </c>
-      <c r="G31" s="398"/>
-      <c r="H31" s="398"/>
-      <c r="I31" s="398"/>
-      <c r="J31" s="398"/>
-      <c r="K31" s="401"/>
+      <c r="G31" s="373"/>
+      <c r="H31" s="373"/>
+      <c r="I31" s="373"/>
+      <c r="J31" s="373"/>
+      <c r="K31" s="370"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="237" t="s">
+      <c r="A32" s="214" t="s">
         <v>493</v>
       </c>
-      <c r="B32" s="211" t="s">
+      <c r="B32" s="188" t="s">
         <v>525</v>
       </c>
-      <c r="C32" s="211" t="s">
+      <c r="C32" s="188" t="s">
         <v>546</v>
       </c>
-      <c r="D32" s="211" t="s">
+      <c r="D32" s="188" t="s">
         <v>416</v>
       </c>
-      <c r="E32" s="211" t="s">
+      <c r="E32" s="188" t="s">
         <v>397</v>
       </c>
-      <c r="F32" s="212" t="s">
+      <c r="F32" s="189" t="s">
         <v>440</v>
       </c>
-      <c r="G32" s="398"/>
-      <c r="H32" s="398"/>
-      <c r="I32" s="398"/>
-      <c r="J32" s="398"/>
-      <c r="K32" s="401"/>
+      <c r="G32" s="373"/>
+      <c r="H32" s="373"/>
+      <c r="I32" s="373"/>
+      <c r="J32" s="373"/>
+      <c r="K32" s="370"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="236" t="s">
+      <c r="A33" s="213" t="s">
         <v>492</v>
       </c>
-      <c r="B33" s="213" t="s">
+      <c r="B33" s="190" t="s">
         <v>524</v>
       </c>
-      <c r="C33" s="213" t="s">
+      <c r="C33" s="190" t="s">
         <v>547</v>
       </c>
-      <c r="D33" s="213" t="s">
+      <c r="D33" s="190" t="s">
         <v>417</v>
       </c>
-      <c r="E33" s="213" t="s">
+      <c r="E33" s="190" t="s">
         <v>398</v>
       </c>
-      <c r="F33" s="214" t="s">
+      <c r="F33" s="191" t="s">
         <v>440</v>
       </c>
-      <c r="G33" s="398"/>
-      <c r="H33" s="398"/>
-      <c r="I33" s="398"/>
-      <c r="J33" s="398"/>
-      <c r="K33" s="401"/>
+      <c r="G33" s="373"/>
+      <c r="H33" s="373"/>
+      <c r="I33" s="373"/>
+      <c r="J33" s="373"/>
+      <c r="K33" s="370"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="237" t="s">
+      <c r="A34" s="214" t="s">
         <v>491</v>
       </c>
-      <c r="B34" s="211" t="s">
+      <c r="B34" s="188" t="s">
         <v>523</v>
       </c>
-      <c r="C34" s="211" t="s">
+      <c r="C34" s="188" t="s">
         <v>548</v>
       </c>
-      <c r="D34" s="211" t="s">
+      <c r="D34" s="188" t="s">
         <v>418</v>
       </c>
-      <c r="E34" s="211" t="s">
+      <c r="E34" s="188" t="s">
         <v>399</v>
       </c>
-      <c r="F34" s="212" t="s">
+      <c r="F34" s="189" t="s">
         <v>440</v>
       </c>
-      <c r="G34" s="398"/>
-      <c r="H34" s="398"/>
-      <c r="I34" s="398"/>
-      <c r="J34" s="398"/>
-      <c r="K34" s="401"/>
+      <c r="G34" s="373"/>
+      <c r="H34" s="373"/>
+      <c r="I34" s="373"/>
+      <c r="J34" s="373"/>
+      <c r="K34" s="370"/>
     </row>
     <row r="35" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="239" t="s">
+      <c r="A35" s="216" t="s">
         <v>490</v>
       </c>
-      <c r="B35" s="240" t="s">
+      <c r="B35" s="217" t="s">
         <v>522</v>
       </c>
-      <c r="C35" s="240" t="s">
+      <c r="C35" s="217" t="s">
         <v>549</v>
       </c>
-      <c r="D35" s="240" t="s">
+      <c r="D35" s="217" t="s">
         <v>419</v>
       </c>
-      <c r="E35" s="240" t="s">
+      <c r="E35" s="217" t="s">
         <v>400</v>
       </c>
-      <c r="F35" s="241" t="s">
+      <c r="F35" s="218" t="s">
         <v>440</v>
       </c>
-      <c r="G35" s="399"/>
-      <c r="H35" s="399"/>
-      <c r="I35" s="399"/>
-      <c r="J35" s="399"/>
-      <c r="K35" s="402"/>
+      <c r="G35" s="374"/>
+      <c r="H35" s="374"/>
+      <c r="I35" s="374"/>
+      <c r="J35" s="374"/>
+      <c r="K35" s="371"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="242" t="s">
+      <c r="A36" s="219" t="s">
         <v>489</v>
       </c>
-      <c r="B36" s="243" t="s">
+      <c r="B36" s="220" t="s">
         <v>335</v>
       </c>
-      <c r="C36" s="243" t="s">
+      <c r="C36" s="220" t="s">
         <v>550</v>
       </c>
-      <c r="D36" s="243" t="s">
+      <c r="D36" s="220" t="s">
         <v>420</v>
       </c>
-      <c r="E36" s="243" t="s">
+      <c r="E36" s="220" t="s">
         <v>401</v>
       </c>
-      <c r="F36" s="244" t="s">
+      <c r="F36" s="221" t="s">
         <v>440</v>
       </c>
-      <c r="G36" s="394" t="s">
+      <c r="G36" s="375" t="s">
         <v>108</v>
       </c>
-      <c r="H36" s="394">
+      <c r="H36" s="375">
         <v>20</v>
       </c>
-      <c r="I36" s="394">
+      <c r="I36" s="375">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J36" s="394">
+      <c r="J36" s="375">
         <f t="shared" ref="J36" si="4">IF(G36="","",IF(G36="A",8+I36,IF(G36="B",16+I36,IF(G36="C",24+I36,"invalid"))))</f>
         <v>13</v>
       </c>
-      <c r="K36" s="403">
+      <c r="K36" s="378">
         <f t="shared" si="2"/>
         <v>524288</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="236" t="s">
+      <c r="A37" s="213" t="s">
         <v>488</v>
       </c>
-      <c r="B37" s="213" t="s">
+      <c r="B37" s="190" t="s">
         <v>521</v>
       </c>
-      <c r="C37" s="213" t="s">
+      <c r="C37" s="190" t="s">
         <v>551</v>
       </c>
-      <c r="D37" s="213" t="s">
+      <c r="D37" s="190" t="s">
         <v>421</v>
       </c>
-      <c r="E37" s="213" t="s">
+      <c r="E37" s="190" t="s">
         <v>402</v>
       </c>
-      <c r="F37" s="214" t="s">
+      <c r="F37" s="191" t="s">
         <v>440</v>
       </c>
-      <c r="G37" s="395"/>
-      <c r="H37" s="395"/>
-      <c r="I37" s="395"/>
-      <c r="J37" s="395"/>
-      <c r="K37" s="404"/>
+      <c r="G37" s="376"/>
+      <c r="H37" s="376"/>
+      <c r="I37" s="376"/>
+      <c r="J37" s="376"/>
+      <c r="K37" s="379"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="237" t="s">
+      <c r="A38" s="214" t="s">
         <v>487</v>
       </c>
-      <c r="B38" s="211" t="s">
+      <c r="B38" s="188" t="s">
         <v>520</v>
       </c>
-      <c r="C38" s="211" t="s">
+      <c r="C38" s="188" t="s">
         <v>552</v>
       </c>
-      <c r="D38" s="211" t="s">
+      <c r="D38" s="188" t="s">
         <v>422</v>
       </c>
-      <c r="E38" s="211" t="s">
+      <c r="E38" s="188" t="s">
         <v>403</v>
       </c>
-      <c r="F38" s="212" t="s">
+      <c r="F38" s="189" t="s">
         <v>440</v>
       </c>
-      <c r="G38" s="395"/>
-      <c r="H38" s="395"/>
-      <c r="I38" s="395"/>
-      <c r="J38" s="395"/>
-      <c r="K38" s="404"/>
+      <c r="G38" s="376"/>
+      <c r="H38" s="376"/>
+      <c r="I38" s="376"/>
+      <c r="J38" s="376"/>
+      <c r="K38" s="379"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="238" t="s">
+      <c r="A39" s="215" t="s">
         <v>486</v>
       </c>
-      <c r="B39" s="215" t="s">
+      <c r="B39" s="192" t="s">
         <v>519</v>
       </c>
-      <c r="C39" s="215" t="s">
+      <c r="C39" s="192" t="s">
         <v>553</v>
       </c>
-      <c r="D39" s="215" t="s">
+      <c r="D39" s="192" t="s">
         <v>423</v>
       </c>
-      <c r="E39" s="215" t="s">
+      <c r="E39" s="192" t="s">
         <v>404</v>
       </c>
-      <c r="F39" s="216" t="s">
+      <c r="F39" s="193" t="s">
         <v>440</v>
       </c>
-      <c r="G39" s="395"/>
-      <c r="H39" s="395"/>
-      <c r="I39" s="395"/>
-      <c r="J39" s="395"/>
-      <c r="K39" s="404"/>
+      <c r="G39" s="376"/>
+      <c r="H39" s="376"/>
+      <c r="I39" s="376"/>
+      <c r="J39" s="376"/>
+      <c r="K39" s="379"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="237" t="s">
+      <c r="A40" s="214" t="s">
         <v>485</v>
       </c>
-      <c r="B40" s="211" t="s">
+      <c r="B40" s="188" t="s">
         <v>518</v>
       </c>
-      <c r="C40" s="211" t="s">
+      <c r="C40" s="188" t="s">
         <v>554</v>
       </c>
-      <c r="D40" s="211" t="s">
+      <c r="D40" s="188" t="s">
         <v>424</v>
       </c>
-      <c r="E40" s="211" t="s">
+      <c r="E40" s="188" t="s">
         <v>405</v>
       </c>
-      <c r="F40" s="212" t="s">
+      <c r="F40" s="189" t="s">
         <v>440</v>
       </c>
-      <c r="G40" s="395"/>
-      <c r="H40" s="395"/>
-      <c r="I40" s="395"/>
-      <c r="J40" s="395"/>
-      <c r="K40" s="404"/>
+      <c r="G40" s="376"/>
+      <c r="H40" s="376"/>
+      <c r="I40" s="376"/>
+      <c r="J40" s="376"/>
+      <c r="K40" s="379"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="236" t="s">
+      <c r="A41" s="213" t="s">
         <v>484</v>
       </c>
-      <c r="B41" s="213" t="s">
+      <c r="B41" s="190" t="s">
         <v>517</v>
       </c>
-      <c r="C41" s="213" t="s">
+      <c r="C41" s="190" t="s">
         <v>555</v>
       </c>
-      <c r="D41" s="213" t="s">
+      <c r="D41" s="190" t="s">
         <v>425</v>
       </c>
-      <c r="E41" s="213" t="s">
+      <c r="E41" s="190" t="s">
         <v>406</v>
       </c>
-      <c r="F41" s="214" t="s">
+      <c r="F41" s="191" t="s">
         <v>440</v>
       </c>
-      <c r="G41" s="395"/>
-      <c r="H41" s="395"/>
-      <c r="I41" s="395"/>
-      <c r="J41" s="395"/>
-      <c r="K41" s="404"/>
+      <c r="G41" s="376"/>
+      <c r="H41" s="376"/>
+      <c r="I41" s="376"/>
+      <c r="J41" s="376"/>
+      <c r="K41" s="379"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="237" t="s">
+      <c r="A42" s="214" t="s">
         <v>483</v>
       </c>
-      <c r="B42" s="211" t="s">
+      <c r="B42" s="188" t="s">
         <v>516</v>
       </c>
-      <c r="C42" s="211" t="s">
+      <c r="C42" s="188" t="s">
         <v>556</v>
       </c>
-      <c r="D42" s="211" t="s">
+      <c r="D42" s="188" t="s">
         <v>426</v>
       </c>
-      <c r="E42" s="211" t="s">
+      <c r="E42" s="188" t="s">
         <v>407</v>
       </c>
-      <c r="F42" s="212" t="s">
+      <c r="F42" s="189" t="s">
         <v>440</v>
       </c>
-      <c r="G42" s="395"/>
-      <c r="H42" s="395"/>
-      <c r="I42" s="395"/>
-      <c r="J42" s="395"/>
-      <c r="K42" s="404"/>
+      <c r="G42" s="376"/>
+      <c r="H42" s="376"/>
+      <c r="I42" s="376"/>
+      <c r="J42" s="376"/>
+      <c r="K42" s="379"/>
     </row>
     <row r="43" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="239" t="s">
+      <c r="A43" s="216" t="s">
         <v>482</v>
       </c>
-      <c r="B43" s="240" t="s">
+      <c r="B43" s="217" t="s">
         <v>515</v>
       </c>
-      <c r="C43" s="240" t="s">
+      <c r="C43" s="217" t="s">
         <v>557</v>
       </c>
-      <c r="D43" s="240" t="s">
+      <c r="D43" s="217" t="s">
         <v>427</v>
       </c>
-      <c r="E43" s="240" t="s">
+      <c r="E43" s="217" t="s">
         <v>408</v>
       </c>
-      <c r="F43" s="241" t="s">
+      <c r="F43" s="218" t="s">
         <v>440</v>
       </c>
-      <c r="G43" s="396"/>
-      <c r="H43" s="396"/>
-      <c r="I43" s="396"/>
-      <c r="J43" s="396"/>
-      <c r="K43" s="405"/>
+      <c r="G43" s="377"/>
+      <c r="H43" s="377"/>
+      <c r="I43" s="377"/>
+      <c r="J43" s="377"/>
+      <c r="K43" s="380"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="242" t="s">
+      <c r="A44" s="219" t="s">
         <v>481</v>
       </c>
-      <c r="B44" s="243" t="s">
+      <c r="B44" s="220" t="s">
         <v>336</v>
       </c>
-      <c r="C44" s="243" t="s">
+      <c r="C44" s="220" t="s">
         <v>558</v>
       </c>
-      <c r="D44" s="243" t="s">
+      <c r="D44" s="220" t="s">
         <v>428</v>
       </c>
-      <c r="E44" s="243" t="s">
+      <c r="E44" s="220" t="s">
         <v>409</v>
       </c>
-      <c r="F44" s="244" t="s">
+      <c r="F44" s="221" t="s">
         <v>440</v>
       </c>
-      <c r="G44" s="397" t="s">
+      <c r="G44" s="372" t="s">
         <v>108</v>
       </c>
-      <c r="H44" s="397">
+      <c r="H44" s="372">
         <v>20</v>
       </c>
-      <c r="I44" s="397">
+      <c r="I44" s="372">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J44" s="397">
+      <c r="J44" s="372">
         <f t="shared" ref="J44" si="5">IF(G44="","",IF(G44="A",8+I44,IF(G44="B",16+I44,IF(G44="C",24+I44,"invalid"))))</f>
         <v>13</v>
       </c>
-      <c r="K44" s="400">
+      <c r="K44" s="369">
         <f t="shared" si="2"/>
         <v>524288</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="236" t="s">
+      <c r="A45" s="213" t="s">
         <v>480</v>
       </c>
-      <c r="B45" s="213" t="s">
+      <c r="B45" s="190" t="s">
         <v>514</v>
       </c>
-      <c r="C45" s="213" t="s">
+      <c r="C45" s="190" t="s">
         <v>559</v>
       </c>
-      <c r="D45" s="213" t="s">
+      <c r="D45" s="190" t="s">
         <v>429</v>
       </c>
-      <c r="E45" s="213" t="s">
+      <c r="E45" s="190" t="s">
         <v>410</v>
       </c>
-      <c r="F45" s="214" t="s">
+      <c r="F45" s="191" t="s">
         <v>440</v>
       </c>
-      <c r="G45" s="398"/>
-      <c r="H45" s="398"/>
-      <c r="I45" s="398"/>
-      <c r="J45" s="398"/>
-      <c r="K45" s="401"/>
+      <c r="G45" s="373"/>
+      <c r="H45" s="373"/>
+      <c r="I45" s="373"/>
+      <c r="J45" s="373"/>
+      <c r="K45" s="370"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="237" t="s">
+      <c r="A46" s="214" t="s">
         <v>479</v>
       </c>
-      <c r="B46" s="211" t="s">
+      <c r="B46" s="188" t="s">
         <v>513</v>
       </c>
-      <c r="C46" s="211" t="s">
+      <c r="C46" s="188" t="s">
         <v>560</v>
       </c>
-      <c r="D46" s="211" t="s">
+      <c r="D46" s="188" t="s">
         <v>430</v>
       </c>
-      <c r="E46" s="211" t="s">
+      <c r="E46" s="188" t="s">
         <v>411</v>
       </c>
-      <c r="F46" s="212" t="s">
+      <c r="F46" s="189" t="s">
         <v>440</v>
       </c>
-      <c r="G46" s="398"/>
-      <c r="H46" s="398"/>
-      <c r="I46" s="398"/>
-      <c r="J46" s="398"/>
-      <c r="K46" s="401"/>
+      <c r="G46" s="373"/>
+      <c r="H46" s="373"/>
+      <c r="I46" s="373"/>
+      <c r="J46" s="373"/>
+      <c r="K46" s="370"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="238" t="s">
+      <c r="A47" s="215" t="s">
         <v>478</v>
       </c>
-      <c r="B47" s="215" t="s">
+      <c r="B47" s="192" t="s">
         <v>512</v>
       </c>
-      <c r="C47" s="215" t="s">
+      <c r="C47" s="192" t="s">
         <v>561</v>
       </c>
-      <c r="D47" s="215" t="s">
+      <c r="D47" s="192" t="s">
         <v>431</v>
       </c>
-      <c r="E47" s="215" t="s">
+      <c r="E47" s="192" t="s">
         <v>412</v>
       </c>
-      <c r="F47" s="216" t="s">
+      <c r="F47" s="193" t="s">
         <v>440</v>
       </c>
-      <c r="G47" s="398"/>
-      <c r="H47" s="398"/>
-      <c r="I47" s="398"/>
-      <c r="J47" s="398"/>
-      <c r="K47" s="401"/>
+      <c r="G47" s="373"/>
+      <c r="H47" s="373"/>
+      <c r="I47" s="373"/>
+      <c r="J47" s="373"/>
+      <c r="K47" s="370"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="237" t="s">
+      <c r="A48" s="214" t="s">
         <v>477</v>
       </c>
-      <c r="B48" s="211" t="s">
+      <c r="B48" s="188" t="s">
         <v>511</v>
       </c>
-      <c r="C48" s="211" t="s">
+      <c r="C48" s="188" t="s">
         <v>562</v>
       </c>
-      <c r="D48" s="211" t="s">
+      <c r="D48" s="188" t="s">
         <v>432</v>
       </c>
-      <c r="E48" s="211" t="s">
+      <c r="E48" s="188" t="s">
         <v>413</v>
       </c>
-      <c r="F48" s="212" t="s">
+      <c r="F48" s="189" t="s">
         <v>440</v>
       </c>
-      <c r="G48" s="398"/>
-      <c r="H48" s="398"/>
-      <c r="I48" s="398"/>
-      <c r="J48" s="398"/>
-      <c r="K48" s="401"/>
+      <c r="G48" s="373"/>
+      <c r="H48" s="373"/>
+      <c r="I48" s="373"/>
+      <c r="J48" s="373"/>
+      <c r="K48" s="370"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="236" t="s">
+      <c r="A49" s="213" t="s">
         <v>476</v>
       </c>
-      <c r="B49" s="213" t="s">
+      <c r="B49" s="190" t="s">
         <v>510</v>
       </c>
-      <c r="C49" s="213" t="s">
+      <c r="C49" s="190" t="s">
         <v>563</v>
       </c>
-      <c r="D49" s="213" t="s">
+      <c r="D49" s="190" t="s">
         <v>433</v>
       </c>
-      <c r="E49" s="213" t="s">
+      <c r="E49" s="190" t="s">
         <v>414</v>
       </c>
-      <c r="F49" s="214" t="s">
+      <c r="F49" s="191" t="s">
         <v>440</v>
       </c>
-      <c r="G49" s="398"/>
-      <c r="H49" s="398"/>
-      <c r="I49" s="398"/>
-      <c r="J49" s="398"/>
-      <c r="K49" s="401"/>
+      <c r="G49" s="373"/>
+      <c r="H49" s="373"/>
+      <c r="I49" s="373"/>
+      <c r="J49" s="373"/>
+      <c r="K49" s="370"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="237" t="s">
+      <c r="A50" s="214" t="s">
         <v>475</v>
       </c>
-      <c r="B50" s="211" t="s">
+      <c r="B50" s="188" t="s">
         <v>509</v>
       </c>
-      <c r="C50" s="211" t="s">
+      <c r="C50" s="188" t="s">
         <v>564</v>
       </c>
-      <c r="D50" s="211" t="s">
+      <c r="D50" s="188" t="s">
         <v>434</v>
       </c>
-      <c r="E50" s="211" t="s">
+      <c r="E50" s="188" t="s">
         <v>415</v>
       </c>
-      <c r="F50" s="212" t="s">
+      <c r="F50" s="189" t="s">
         <v>440</v>
       </c>
-      <c r="G50" s="398"/>
-      <c r="H50" s="398"/>
-      <c r="I50" s="398"/>
-      <c r="J50" s="398"/>
-      <c r="K50" s="401"/>
+      <c r="G50" s="373"/>
+      <c r="H50" s="373"/>
+      <c r="I50" s="373"/>
+      <c r="J50" s="373"/>
+      <c r="K50" s="370"/>
     </row>
     <row r="51" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="239" t="s">
+      <c r="A51" s="216" t="s">
         <v>474</v>
       </c>
-      <c r="B51" s="240" t="s">
+      <c r="B51" s="217" t="s">
         <v>508</v>
       </c>
-      <c r="C51" s="240" t="s">
+      <c r="C51" s="217" t="s">
         <v>565</v>
       </c>
-      <c r="D51" s="240" t="s">
+      <c r="D51" s="217" t="s">
         <v>435</v>
       </c>
-      <c r="E51" s="240" t="s">
+      <c r="E51" s="217" t="s">
         <v>271</v>
       </c>
-      <c r="F51" s="241" t="s">
+      <c r="F51" s="218" t="s">
         <v>440</v>
       </c>
-      <c r="G51" s="399"/>
-      <c r="H51" s="399"/>
-      <c r="I51" s="399"/>
-      <c r="J51" s="399"/>
-      <c r="K51" s="402"/>
+      <c r="G51" s="374"/>
+      <c r="H51" s="374"/>
+      <c r="I51" s="374"/>
+      <c r="J51" s="374"/>
+      <c r="K51" s="371"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G52" s="229"/>
+      <c r="G52" s="206"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G53" s="229"/>
+      <c r="G53" s="206"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="K4:K7"/>
-    <mergeCell ref="J4:J7"/>
-    <mergeCell ref="I4:I7"/>
-    <mergeCell ref="H4:H7"/>
-    <mergeCell ref="G4:G7"/>
+    <mergeCell ref="H36:H43"/>
+    <mergeCell ref="H44:H51"/>
+    <mergeCell ref="I44:I51"/>
+    <mergeCell ref="J44:J51"/>
+    <mergeCell ref="K44:K51"/>
+    <mergeCell ref="K36:K43"/>
+    <mergeCell ref="J36:J43"/>
+    <mergeCell ref="I36:I43"/>
+    <mergeCell ref="H20:H27"/>
+    <mergeCell ref="I20:I27"/>
+    <mergeCell ref="J20:J27"/>
+    <mergeCell ref="K20:K27"/>
+    <mergeCell ref="H28:H35"/>
+    <mergeCell ref="I28:I35"/>
+    <mergeCell ref="J28:J35"/>
+    <mergeCell ref="K28:K35"/>
+    <mergeCell ref="G20:G27"/>
+    <mergeCell ref="G28:G35"/>
+    <mergeCell ref="G36:G43"/>
+    <mergeCell ref="G44:G51"/>
+    <mergeCell ref="G16:G19"/>
     <mergeCell ref="H16:H19"/>
     <mergeCell ref="I16:I19"/>
     <mergeCell ref="J16:J19"/>
@@ -15683,27 +15985,13 @@
     <mergeCell ref="I8:I15"/>
     <mergeCell ref="J8:J15"/>
     <mergeCell ref="K8:K15"/>
-    <mergeCell ref="G20:G27"/>
-    <mergeCell ref="G28:G35"/>
-    <mergeCell ref="G36:G43"/>
-    <mergeCell ref="G44:G51"/>
-    <mergeCell ref="G16:G19"/>
-    <mergeCell ref="H20:H27"/>
-    <mergeCell ref="I20:I27"/>
-    <mergeCell ref="J20:J27"/>
-    <mergeCell ref="K20:K27"/>
-    <mergeCell ref="H28:H35"/>
-    <mergeCell ref="I28:I35"/>
-    <mergeCell ref="J28:J35"/>
-    <mergeCell ref="K28:K35"/>
-    <mergeCell ref="H36:H43"/>
-    <mergeCell ref="H44:H51"/>
-    <mergeCell ref="I44:I51"/>
-    <mergeCell ref="J44:J51"/>
-    <mergeCell ref="K44:K51"/>
-    <mergeCell ref="K36:K43"/>
-    <mergeCell ref="J36:J43"/>
-    <mergeCell ref="I36:I43"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="K4:K7"/>
+    <mergeCell ref="J4:J7"/>
+    <mergeCell ref="I4:I7"/>
+    <mergeCell ref="H4:H7"/>
+    <mergeCell ref="G4:G7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15752,79 +16040,79 @@
       <c r="A1" t="s">
         <v>392</v>
       </c>
-      <c r="G1" s="409" t="s">
+      <c r="G1" s="368" t="s">
         <v>574</v>
       </c>
-      <c r="H1" s="409"/>
-      <c r="I1" s="409"/>
-      <c r="J1" s="226" t="s">
+      <c r="H1" s="368"/>
+      <c r="I1" s="368"/>
+      <c r="J1" s="203" t="s">
         <v>471</v>
       </c>
-      <c r="K1" s="218" t="s">
+      <c r="K1" s="195" t="s">
         <v>578</v>
       </c>
-      <c r="L1" s="226" t="s">
+      <c r="L1" s="203" t="s">
         <v>472</v>
       </c>
-      <c r="M1" s="226" t="s">
+      <c r="M1" s="203" t="s">
         <v>615</v>
       </c>
-      <c r="N1" s="218" t="s">
+      <c r="N1" s="195" t="s">
         <v>322</v>
       </c>
-      <c r="O1" s="226" t="s">
+      <c r="O1" s="203" t="s">
         <v>573</v>
       </c>
-      <c r="P1" s="218" t="s">
+      <c r="P1" s="195" t="s">
         <v>581</v>
       </c>
-      <c r="Q1" s="226" t="s">
+      <c r="Q1" s="203" t="s">
         <v>446</v>
       </c>
-      <c r="R1" s="265" t="s">
+      <c r="R1" s="242" t="s">
         <v>610</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="416"/>
-      <c r="B2" s="416"/>
-      <c r="C2" s="416"/>
-      <c r="D2" s="416"/>
-      <c r="E2" s="416"/>
-      <c r="F2" s="416"/>
-      <c r="G2" s="406" t="s">
+      <c r="A2" s="387"/>
+      <c r="B2" s="387"/>
+      <c r="C2" s="387"/>
+      <c r="D2" s="387"/>
+      <c r="E2" s="387"/>
+      <c r="F2" s="387"/>
+      <c r="G2" s="365" t="s">
         <v>575</v>
       </c>
-      <c r="H2" s="407"/>
-      <c r="I2" s="408"/>
-      <c r="J2" s="230" t="s">
+      <c r="H2" s="366"/>
+      <c r="I2" s="367"/>
+      <c r="J2" s="207" t="s">
         <v>445</v>
       </c>
-      <c r="K2" s="231" t="s">
+      <c r="K2" s="208" t="s">
         <v>577</v>
       </c>
-      <c r="L2" s="247" t="s">
+      <c r="L2" s="224" t="s">
         <v>579</v>
       </c>
-      <c r="M2" s="247">
+      <c r="M2" s="224">
         <v>1</v>
       </c>
-      <c r="N2" s="231">
+      <c r="N2" s="208">
         <v>20</v>
       </c>
-      <c r="O2" s="231">
+      <c r="O2" s="208">
         <f>IF(N2="","",IF(N2&lt;2-2,1,IF(N2&lt;=4-2,2,IF(N2&lt;=8-2,3,IF(N2&lt;=16-2,4,IF(N2&lt;=32-2,5,IF(N2&lt;=64-2,6,IF(N2&lt;=128-2,7,IF(N2&lt;=256-2,8,IF(N2&lt;=512-2,9,IF(N2&lt;=1024-2,10,IF(N2&lt;=2048-2,11.12))))))))))))</f>
         <v>5</v>
       </c>
-      <c r="P2" s="231">
+      <c r="P2" s="208">
         <f>IF(O2="","",2^O2)</f>
         <v>32</v>
       </c>
-      <c r="Q2" s="231">
+      <c r="Q2" s="208">
         <f>IF(O2="","",32-O2)</f>
         <v>27</v>
       </c>
-      <c r="R2" s="266" t="s">
+      <c r="R2" s="243" t="s">
         <v>611</v>
       </c>
     </row>
@@ -15847,40 +16135,40 @@
       <c r="F3" t="s">
         <v>292</v>
       </c>
-      <c r="G3" s="232" t="s">
+      <c r="G3" s="209" t="s">
         <v>327</v>
       </c>
-      <c r="H3" s="233" t="s">
+      <c r="H3" s="210" t="s">
         <v>292</v>
       </c>
-      <c r="I3" s="233" t="s">
+      <c r="I3" s="210" t="s">
         <v>324</v>
       </c>
-      <c r="J3" s="234" t="s">
+      <c r="J3" s="211" t="s">
         <v>325</v>
       </c>
-      <c r="K3" s="233" t="s">
+      <c r="K3" s="210" t="s">
         <v>293</v>
       </c>
-      <c r="L3" s="234" t="s">
+      <c r="L3" s="211" t="s">
         <v>316</v>
       </c>
-      <c r="M3" s="234" t="s">
+      <c r="M3" s="211" t="s">
         <v>580</v>
       </c>
-      <c r="N3" s="235" t="s">
+      <c r="N3" s="212" t="s">
         <v>270</v>
       </c>
-      <c r="O3" s="234" t="s">
+      <c r="O3" s="211" t="s">
         <v>571</v>
       </c>
-      <c r="P3" s="234" t="s">
+      <c r="P3" s="211" t="s">
         <v>582</v>
       </c>
-      <c r="Q3" s="234" t="s">
+      <c r="Q3" s="211" t="s">
         <v>267</v>
       </c>
-      <c r="R3" s="234" t="s">
+      <c r="R3" s="211" t="s">
         <v>614</v>
       </c>
     </row>
@@ -15891,49 +16179,49 @@
       <c r="B4">
         <v>120</v>
       </c>
-      <c r="C4" s="217">
+      <c r="C4" s="194">
         <v>7</v>
       </c>
-      <c r="D4" s="217">
+      <c r="D4" s="194">
         <v>25</v>
       </c>
-      <c r="G4" s="242" t="s">
+      <c r="G4" s="219" t="s">
         <v>448</v>
       </c>
-      <c r="H4" s="243" t="s">
+      <c r="H4" s="220" t="s">
         <v>447</v>
       </c>
-      <c r="I4" s="243" t="s">
+      <c r="I4" s="220" t="s">
         <v>455</v>
       </c>
-      <c r="J4" s="243" t="s">
+      <c r="J4" s="220" t="s">
         <v>592</v>
       </c>
-      <c r="K4" s="243" t="s">
+      <c r="K4" s="220" t="s">
         <v>587</v>
       </c>
-      <c r="L4" s="251" t="s">
+      <c r="L4" s="228" t="s">
         <v>583</v>
       </c>
-      <c r="M4" s="243" t="s">
+      <c r="M4" s="220" t="s">
         <v>212</v>
       </c>
-      <c r="N4" s="251">
+      <c r="N4" s="228">
         <v>120</v>
       </c>
-      <c r="O4" s="243">
+      <c r="O4" s="220">
         <f>IF(N4="","",IF(N4&lt;=2,1,IF(N4&lt;=4,2,IF(N4&lt;=8,3,IF(N4&lt;=16,4,IF(N4&lt;=32,5,IF(N4&lt;=64,6,IF(N4&lt;=128,7,8))))))))</f>
         <v>7</v>
       </c>
-      <c r="P4" s="243">
+      <c r="P4" s="220">
         <f>IF(O4="","",2^O4)</f>
         <v>128</v>
       </c>
-      <c r="Q4" s="243">
+      <c r="Q4" s="220">
         <f>IF(O4="","",32-O4)</f>
         <v>25</v>
       </c>
-      <c r="R4" s="413" t="s">
+      <c r="R4" s="384" t="s">
         <v>612</v>
       </c>
     </row>
@@ -15944,49 +16232,49 @@
       <c r="B5">
         <v>50</v>
       </c>
-      <c r="C5" s="217">
+      <c r="C5" s="194">
         <v>6</v>
       </c>
-      <c r="D5" s="217">
+      <c r="D5" s="194">
         <v>26</v>
       </c>
-      <c r="G5" s="236" t="s">
+      <c r="G5" s="213" t="s">
         <v>450</v>
       </c>
-      <c r="H5" s="213" t="s">
+      <c r="H5" s="190" t="s">
         <v>449</v>
       </c>
-      <c r="I5" s="213" t="s">
+      <c r="I5" s="190" t="s">
         <v>454</v>
       </c>
-      <c r="J5" s="213" t="s">
+      <c r="J5" s="190" t="s">
         <v>593</v>
       </c>
-      <c r="K5" s="213" t="s">
+      <c r="K5" s="190" t="s">
         <v>588</v>
       </c>
-      <c r="L5" s="228" t="s">
+      <c r="L5" s="205" t="s">
         <v>584</v>
       </c>
-      <c r="M5" s="249" t="s">
+      <c r="M5" s="226" t="s">
         <v>444</v>
       </c>
-      <c r="N5" s="248">
+      <c r="N5" s="225">
         <v>50</v>
       </c>
-      <c r="O5" s="249">
+      <c r="O5" s="226">
         <f t="shared" ref="O5:O8" si="0">IF(N5="","",IF(N5&lt;=2,1,IF(N5&lt;=4,2,IF(N5&lt;=8,3,IF(N5&lt;=16,4,IF(N5&lt;=32,5,IF(N5&lt;=64,6,IF(N5&lt;=128,7,8))))))))</f>
         <v>6</v>
       </c>
-      <c r="P5" s="249">
+      <c r="P5" s="226">
         <f t="shared" ref="P5:P8" si="1">IF(O5="","",2^O5)</f>
         <v>64</v>
       </c>
-      <c r="Q5" s="249">
+      <c r="Q5" s="226">
         <f t="shared" ref="Q5:Q8" si="2">IF(O5="","",32-O5)</f>
         <v>26</v>
       </c>
-      <c r="R5" s="414"/>
+      <c r="R5" s="385"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -15995,34 +16283,34 @@
       <c r="B6">
         <v>40</v>
       </c>
-      <c r="C6" s="217">
+      <c r="C6" s="194">
         <v>6</v>
       </c>
-      <c r="D6" s="217">
+      <c r="D6" s="194">
         <v>26</v>
       </c>
-      <c r="G6" s="237" t="s">
+      <c r="G6" s="214" t="s">
         <v>452</v>
       </c>
-      <c r="H6" s="211" t="s">
+      <c r="H6" s="188" t="s">
         <v>451</v>
       </c>
-      <c r="I6" s="211" t="s">
+      <c r="I6" s="188" t="s">
         <v>453</v>
       </c>
-      <c r="J6" s="211" t="s">
+      <c r="J6" s="188" t="s">
         <v>594</v>
       </c>
-      <c r="K6" s="211" t="s">
+      <c r="K6" s="188" t="s">
         <v>589</v>
       </c>
-      <c r="L6" s="227" t="s">
+      <c r="L6" s="204" t="s">
         <v>584</v>
       </c>
       <c r="M6" s="44" t="s">
         <v>441</v>
       </c>
-      <c r="N6" s="250">
+      <c r="N6" s="227">
         <v>40</v>
       </c>
       <c r="O6" s="44">
@@ -16037,7 +16325,7 @@
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="R6" s="414"/>
+      <c r="R6" s="385"/>
       <c r="AC6" s="33"/>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
@@ -16047,49 +16335,49 @@
       <c r="B7">
         <v>25</v>
       </c>
-      <c r="C7" s="217">
+      <c r="C7" s="194">
         <v>5</v>
       </c>
-      <c r="D7" s="217">
+      <c r="D7" s="194">
         <v>27</v>
       </c>
-      <c r="G7" s="252" t="s">
+      <c r="G7" s="229" t="s">
         <v>349</v>
       </c>
-      <c r="H7" s="249" t="s">
+      <c r="H7" s="226" t="s">
         <v>456</v>
       </c>
-      <c r="I7" s="249" t="s">
+      <c r="I7" s="226" t="s">
         <v>458</v>
       </c>
-      <c r="J7" s="249" t="s">
+      <c r="J7" s="226" t="s">
         <v>595</v>
       </c>
-      <c r="K7" s="249" t="s">
+      <c r="K7" s="226" t="s">
         <v>590</v>
       </c>
-      <c r="L7" s="248" t="s">
+      <c r="L7" s="225" t="s">
         <v>585</v>
       </c>
-      <c r="M7" s="249" t="s">
+      <c r="M7" s="226" t="s">
         <v>442</v>
       </c>
-      <c r="N7" s="248">
+      <c r="N7" s="225">
         <v>25</v>
       </c>
-      <c r="O7" s="249">
+      <c r="O7" s="226">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="P7" s="249">
+      <c r="P7" s="226">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="Q7" s="249">
+      <c r="Q7" s="226">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="R7" s="414"/>
+      <c r="R7" s="385"/>
       <c r="AC7" s="33"/>
     </row>
     <row r="8" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16099,134 +16387,134 @@
       <c r="B8">
         <v>8</v>
       </c>
-      <c r="C8" s="217">
+      <c r="C8" s="194">
         <v>4</v>
       </c>
-      <c r="D8" s="217">
+      <c r="D8" s="194">
         <v>28</v>
       </c>
-      <c r="G8" s="253" t="s">
+      <c r="G8" s="230" t="s">
         <v>459</v>
       </c>
-      <c r="H8" s="254" t="s">
+      <c r="H8" s="231" t="s">
         <v>457</v>
       </c>
-      <c r="I8" s="254" t="s">
+      <c r="I8" s="231" t="s">
         <v>461</v>
       </c>
-      <c r="J8" s="254" t="s">
+      <c r="J8" s="231" t="s">
         <v>596</v>
       </c>
-      <c r="K8" s="254" t="s">
+      <c r="K8" s="231" t="s">
         <v>591</v>
       </c>
-      <c r="L8" s="267" t="s">
+      <c r="L8" s="244" t="s">
         <v>586</v>
       </c>
-      <c r="M8" s="254" t="s">
+      <c r="M8" s="231" t="s">
         <v>443</v>
       </c>
-      <c r="N8" s="267">
+      <c r="N8" s="244">
         <v>8</v>
       </c>
-      <c r="O8" s="254">
+      <c r="O8" s="231">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="P8" s="254">
+      <c r="P8" s="231">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="Q8" s="254">
+      <c r="Q8" s="231">
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="R8" s="415"/>
+      <c r="R8" s="386"/>
       <c r="AC8" s="33"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
         <v>460</v>
       </c>
-      <c r="G9" s="255" t="s">
+      <c r="G9" s="232" t="s">
         <v>448</v>
       </c>
-      <c r="H9" s="256" t="s">
+      <c r="H9" s="233" t="s">
         <v>447</v>
       </c>
-      <c r="I9" s="256" t="s">
+      <c r="I9" s="233" t="s">
         <v>455</v>
       </c>
-      <c r="J9" s="256" t="s">
+      <c r="J9" s="233" t="s">
         <v>598</v>
       </c>
-      <c r="K9" s="256" t="s">
+      <c r="K9" s="233" t="s">
         <v>597</v>
       </c>
-      <c r="L9" s="268" t="s">
+      <c r="L9" s="245" t="s">
         <v>584</v>
       </c>
-      <c r="M9" s="256" t="s">
+      <c r="M9" s="233" t="s">
         <v>212</v>
       </c>
-      <c r="N9" s="268">
+      <c r="N9" s="245">
         <v>120</v>
       </c>
-      <c r="O9" s="256">
+      <c r="O9" s="233">
         <f>IF(N9="","",IF(N9&lt;=2,1,IF(N9&lt;=4,2,IF(N9&lt;=8,3,IF(N9&lt;=16,4,IF(N9&lt;=32,5,IF(N9&lt;=64,6,IF(N9&lt;=128,7,8))))))))</f>
         <v>7</v>
       </c>
-      <c r="P9" s="256">
+      <c r="P9" s="233">
         <f>IF(O9="","",2^O9)</f>
         <v>128</v>
       </c>
-      <c r="Q9" s="256">
+      <c r="Q9" s="233">
         <f>IF(O9="","",32-O9)</f>
         <v>25</v>
       </c>
-      <c r="R9" s="410" t="s">
+      <c r="R9" s="381" t="s">
         <v>613</v>
       </c>
       <c r="AC9" s="33"/>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="G10" s="261" t="s">
+      <c r="G10" s="238" t="s">
         <v>452</v>
       </c>
-      <c r="H10" s="262" t="s">
+      <c r="H10" s="239" t="s">
         <v>599</v>
       </c>
-      <c r="I10" s="262" t="s">
+      <c r="I10" s="239" t="s">
         <v>600</v>
       </c>
-      <c r="J10" s="262" t="s">
+      <c r="J10" s="239" t="s">
         <v>593</v>
       </c>
-      <c r="K10" s="262" t="s">
+      <c r="K10" s="239" t="s">
         <v>588</v>
       </c>
-      <c r="L10" s="269" t="s">
+      <c r="L10" s="246" t="s">
         <v>583</v>
       </c>
-      <c r="M10" s="264" t="s">
+      <c r="M10" s="241" t="s">
         <v>441</v>
       </c>
-      <c r="N10" s="271">
+      <c r="N10" s="248">
         <v>40</v>
       </c>
-      <c r="O10" s="264">
+      <c r="O10" s="241">
         <f>IF(N10="","",IF(N10&lt;=2,1,IF(N10&lt;=4,2,IF(N10&lt;=8,3,IF(N10&lt;=16,4,IF(N10&lt;=32,5,IF(N10&lt;=64,6,IF(N10&lt;=128,7,8))))))))</f>
         <v>6</v>
       </c>
-      <c r="P10" s="264">
+      <c r="P10" s="241">
         <f>IF(O10="","",2^O10)</f>
         <v>64</v>
       </c>
-      <c r="Q10" s="264">
+      <c r="Q10" s="241">
         <f>IF(O10="","",32-O10)</f>
         <v>26</v>
       </c>
-      <c r="R10" s="411"/>
+      <c r="R10" s="382"/>
       <c r="AC10" s="33"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
@@ -16236,10 +16524,10 @@
       <c r="B11">
         <v>40</v>
       </c>
-      <c r="C11" s="217">
+      <c r="C11" s="194">
         <v>6</v>
       </c>
-      <c r="D11" s="217">
+      <c r="D11" s="194">
         <v>26</v>
       </c>
       <c r="E11" s="34" t="s">
@@ -16248,43 +16536,43 @@
       <c r="F11" t="s">
         <v>447</v>
       </c>
-      <c r="G11" s="257" t="s">
+      <c r="G11" s="234" t="s">
         <v>349</v>
       </c>
-      <c r="H11" s="258" t="s">
+      <c r="H11" s="235" t="s">
         <v>451</v>
       </c>
-      <c r="I11" s="258" t="s">
+      <c r="I11" s="235" t="s">
         <v>601</v>
       </c>
-      <c r="J11" s="258" t="s">
+      <c r="J11" s="235" t="s">
         <v>603</v>
       </c>
-      <c r="K11" s="258" t="s">
+      <c r="K11" s="235" t="s">
         <v>602</v>
       </c>
-      <c r="L11" s="270" t="s">
+      <c r="L11" s="247" t="s">
         <v>585</v>
       </c>
-      <c r="M11" s="273" t="s">
+      <c r="M11" s="250" t="s">
         <v>442</v>
       </c>
-      <c r="N11" s="274">
+      <c r="N11" s="251">
         <v>25</v>
       </c>
-      <c r="O11" s="273">
+      <c r="O11" s="250">
         <f>IF(N11="","",IF(N11&lt;=2,1,IF(N11&lt;=4,2,IF(N11&lt;=8,3,IF(N11&lt;=16,4,IF(N11&lt;=32,5,IF(N11&lt;=64,6,IF(N11&lt;=128,7,8))))))))</f>
         <v>5</v>
       </c>
-      <c r="P11" s="273">
+      <c r="P11" s="250">
         <f>IF(O11="","",2^O11)</f>
         <v>32</v>
       </c>
-      <c r="Q11" s="273">
+      <c r="Q11" s="250">
         <f>IF(O11="","",32-O11)</f>
         <v>27</v>
       </c>
-      <c r="R11" s="411"/>
+      <c r="R11" s="382"/>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -16293,10 +16581,10 @@
       <c r="B12">
         <v>120</v>
       </c>
-      <c r="C12" s="217">
+      <c r="C12" s="194">
         <v>7</v>
       </c>
-      <c r="D12" s="217">
+      <c r="D12" s="194">
         <v>25</v>
       </c>
       <c r="E12" s="34" t="s">
@@ -16305,43 +16593,43 @@
       <c r="F12" t="s">
         <v>462</v>
       </c>
-      <c r="G12" s="263" t="s">
+      <c r="G12" s="240" t="s">
         <v>459</v>
       </c>
-      <c r="H12" s="264" t="s">
+      <c r="H12" s="241" t="s">
         <v>604</v>
       </c>
-      <c r="I12" s="264" t="s">
+      <c r="I12" s="241" t="s">
         <v>605</v>
       </c>
-      <c r="J12" s="264" t="s">
+      <c r="J12" s="241" t="s">
         <v>606</v>
       </c>
-      <c r="K12" s="264" t="s">
+      <c r="K12" s="241" t="s">
         <v>607</v>
       </c>
-      <c r="L12" s="271" t="s">
+      <c r="L12" s="248" t="s">
         <v>586</v>
       </c>
-      <c r="M12" s="264" t="s">
+      <c r="M12" s="241" t="s">
         <v>443</v>
       </c>
-      <c r="N12" s="271">
+      <c r="N12" s="248">
         <v>8</v>
       </c>
-      <c r="O12" s="264">
+      <c r="O12" s="241">
         <f>IF(N12="","",IF(N12&lt;=2,1,IF(N12&lt;=4,2,IF(N12&lt;=8,3,IF(N12&lt;=16,4,IF(N12&lt;=32,5,IF(N12&lt;=64,6,IF(N12&lt;=128,7,8))))))))</f>
         <v>3</v>
       </c>
-      <c r="P12" s="264">
+      <c r="P12" s="241">
         <f>IF(O12="","",2^O12)</f>
         <v>8</v>
       </c>
-      <c r="Q12" s="264">
+      <c r="Q12" s="241">
         <f>IF(O12="","",32-O12)</f>
         <v>29</v>
       </c>
-      <c r="R12" s="411"/>
+      <c r="R12" s="382"/>
     </row>
     <row r="13" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -16350,10 +16638,10 @@
       <c r="B13">
         <v>25</v>
       </c>
-      <c r="C13" s="217">
+      <c r="C13" s="194">
         <v>5</v>
       </c>
-      <c r="D13" s="217">
+      <c r="D13" s="194">
         <v>27</v>
       </c>
       <c r="E13" s="34" t="s">
@@ -16362,43 +16650,43 @@
       <c r="F13" t="s">
         <v>463</v>
       </c>
-      <c r="G13" s="259" t="s">
+      <c r="G13" s="236" t="s">
         <v>450</v>
       </c>
-      <c r="H13" s="260" t="s">
+      <c r="H13" s="237" t="s">
         <v>608</v>
       </c>
-      <c r="I13" s="260" t="s">
+      <c r="I13" s="237" t="s">
         <v>609</v>
       </c>
-      <c r="J13" s="260" t="s">
+      <c r="J13" s="237" t="s">
         <v>596</v>
       </c>
-      <c r="K13" s="260" t="s">
+      <c r="K13" s="237" t="s">
         <v>591</v>
       </c>
-      <c r="L13" s="272" t="s">
+      <c r="L13" s="249" t="s">
         <v>584</v>
       </c>
-      <c r="M13" s="260" t="s">
+      <c r="M13" s="237" t="s">
         <v>444</v>
       </c>
-      <c r="N13" s="272">
+      <c r="N13" s="249">
         <v>50</v>
       </c>
-      <c r="O13" s="260">
+      <c r="O13" s="237">
         <f>IF(N13="","",IF(N13&lt;=2,1,IF(N13&lt;=4,2,IF(N13&lt;=8,3,IF(N13&lt;=16,4,IF(N13&lt;=32,5,IF(N13&lt;=64,6,IF(N13&lt;=128,7,8))))))))</f>
         <v>6</v>
       </c>
-      <c r="P13" s="260">
+      <c r="P13" s="237">
         <f>IF(O13="","",2^O13)</f>
         <v>64</v>
       </c>
-      <c r="Q13" s="260">
+      <c r="Q13" s="237">
         <f>IF(O13="","",32-O13)</f>
         <v>26</v>
       </c>
-      <c r="R13" s="412"/>
+      <c r="R13" s="383"/>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -16407,10 +16695,10 @@
       <c r="B14">
         <v>8</v>
       </c>
-      <c r="C14" s="217">
+      <c r="C14" s="194">
         <v>4</v>
       </c>
-      <c r="D14" s="217">
+      <c r="D14" s="194">
         <v>28</v>
       </c>
       <c r="E14" s="34" t="s">
@@ -16427,10 +16715,10 @@
       <c r="B15">
         <v>50</v>
       </c>
-      <c r="C15" s="217">
+      <c r="C15" s="194">
         <v>6</v>
       </c>
-      <c r="D15" s="217">
+      <c r="D15" s="194">
         <v>26</v>
       </c>
       <c r="E15" s="34" t="s">
@@ -16444,19 +16732,19 @@
       <c r="F16" t="s">
         <v>460</v>
       </c>
-      <c r="J16" s="223"/>
+      <c r="J16" s="200"/>
     </row>
     <row r="17" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J17" s="223"/>
+      <c r="J17" s="200"/>
     </row>
     <row r="18" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J18" s="223"/>
+      <c r="J18" s="200"/>
     </row>
     <row r="19" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J19" s="223"/>
+      <c r="J19" s="200"/>
     </row>
     <row r="20" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J20" s="223"/>
+      <c r="J20" s="200"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -16485,8 +16773,8 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" style="222" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" style="222" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" style="199" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" style="199" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="2.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="6.5703125" bestFit="1" customWidth="1"/>
@@ -16494,173 +16782,173 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="289" t="s">
+      <c r="A1" s="266" t="s">
         <v>658</v>
       </c>
-      <c r="B1" s="290" t="s">
+      <c r="B1" s="267" t="s">
         <v>656</v>
       </c>
-      <c r="C1" s="290" t="s">
+      <c r="C1" s="267" t="s">
         <v>657</v>
       </c>
-      <c r="E1" s="337" t="s">
+      <c r="E1" s="315" t="s">
         <v>662</v>
       </c>
-      <c r="F1" s="337"/>
-      <c r="G1" s="337"/>
-      <c r="H1" s="337"/>
+      <c r="F1" s="315"/>
+      <c r="G1" s="315"/>
+      <c r="H1" s="315"/>
     </row>
     <row r="2" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="297" t="s">
+      <c r="A2" s="274" t="s">
         <v>675</v>
       </c>
-      <c r="B2" s="298" t="s">
+      <c r="B2" s="275" t="s">
         <v>676</v>
       </c>
-      <c r="C2" s="298" t="s">
+      <c r="C2" s="275" t="s">
         <v>677</v>
       </c>
-      <c r="E2" s="289" t="s">
+      <c r="E2" s="266" t="s">
         <v>646</v>
       </c>
-      <c r="F2" s="290" t="s">
+      <c r="F2" s="267" t="s">
         <v>647</v>
       </c>
-      <c r="G2" s="290" t="s">
+      <c r="G2" s="267" t="s">
         <v>228</v>
       </c>
-      <c r="H2" s="289" t="s">
+      <c r="H2" s="266" t="s">
         <v>663</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="299" t="s">
+      <c r="A3" s="276" t="s">
         <v>668</v>
       </c>
-      <c r="B3" s="300" t="s">
+      <c r="B3" s="277" t="s">
         <v>666</v>
       </c>
-      <c r="C3" s="300" t="s">
+      <c r="C3" s="277" t="s">
         <v>667</v>
       </c>
-      <c r="E3" s="294" t="s">
+      <c r="E3" s="271" t="s">
         <v>644</v>
       </c>
-      <c r="F3" s="291">
+      <c r="F3" s="268">
         <v>0</v>
       </c>
-      <c r="G3" s="291">
+      <c r="G3" s="268">
         <v>1023</v>
       </c>
-      <c r="H3" s="294" t="s">
+      <c r="H3" s="271" t="s">
         <v>648</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="301" t="s">
+      <c r="A4" s="278" t="s">
         <v>672</v>
       </c>
-      <c r="B4" s="302" t="s">
+      <c r="B4" s="279" t="s">
         <v>669</v>
       </c>
-      <c r="C4" s="302" t="s">
+      <c r="C4" s="279" t="s">
         <v>670</v>
       </c>
-      <c r="E4" s="295" t="s">
+      <c r="E4" s="272" t="s">
         <v>643</v>
       </c>
-      <c r="F4" s="292">
+      <c r="F4" s="269">
         <v>1024</v>
       </c>
-      <c r="G4" s="292">
+      <c r="G4" s="269">
         <v>49151</v>
       </c>
-      <c r="H4" s="295" t="s">
+      <c r="H4" s="272" t="s">
         <v>664</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="299" t="s">
+      <c r="A5" s="276" t="s">
         <v>654</v>
       </c>
-      <c r="B5" s="300" t="s">
+      <c r="B5" s="277" t="s">
         <v>673</v>
       </c>
-      <c r="C5" s="300" t="s">
+      <c r="C5" s="277" t="s">
         <v>674</v>
       </c>
-      <c r="E5" s="296" t="s">
+      <c r="E5" s="273" t="s">
         <v>645</v>
       </c>
-      <c r="F5" s="293">
+      <c r="F5" s="270">
         <v>49152</v>
       </c>
-      <c r="G5" s="293">
+      <c r="G5" s="270">
         <v>65535</v>
       </c>
-      <c r="H5" s="296" t="s">
+      <c r="H5" s="273" t="s">
         <v>649</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="301" t="s">
+      <c r="A6" s="278" t="s">
         <v>671</v>
       </c>
-      <c r="B6" s="302" t="s">
+      <c r="B6" s="279" t="s">
         <v>650</v>
       </c>
-      <c r="C6" s="302" t="s">
+      <c r="C6" s="279" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="299" t="s">
+      <c r="A7" s="276" t="s">
         <v>659</v>
       </c>
-      <c r="B7" s="300" t="s">
+      <c r="B7" s="277" t="s">
         <v>660</v>
       </c>
-      <c r="C7" s="300" t="s">
+      <c r="C7" s="277" t="s">
         <v>653</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="301" t="s">
+      <c r="A8" s="278" t="s">
         <v>678</v>
       </c>
-      <c r="B8" s="302" t="s">
+      <c r="B8" s="279" t="s">
         <v>652</v>
       </c>
-      <c r="C8" s="302" t="s">
+      <c r="C8" s="279" t="s">
         <v>661</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="299" t="s">
+      <c r="A9" s="276" t="s">
         <v>655</v>
       </c>
-      <c r="B9" s="300" t="s">
+      <c r="B9" s="277" t="s">
         <v>679</v>
       </c>
-      <c r="C9" s="300" t="s">
+      <c r="C9" s="277" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="301" t="s">
+      <c r="A10" s="278" t="s">
         <v>665</v>
       </c>
-      <c r="B10" s="302" t="s">
+      <c r="B10" s="279" t="s">
         <v>681</v>
       </c>
-      <c r="C10" s="302" t="s">
+      <c r="C10" s="279" t="s">
         <v>682</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="299"/>
-      <c r="B11" s="300"/>
-      <c r="C11" s="300"/>
+      <c r="A11" s="276"/>
+      <c r="B11" s="277"/>
+      <c r="C11" s="277"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/docs/protocol-suite.xlsx
+++ b/docs/protocol-suite.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25121"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\redes\saves\ccna1-mj10\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{149798FF-0CC9-4123-9477-BBC1A28BE4E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67DCC258-0F8E-489A-8AC5-3953CFCBE184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="4" xr2:uid="{3415D364-6D1D-489F-8C8D-BD784F513C31}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="3" xr2:uid="{3415D364-6D1D-489F-8C8D-BD784F513C31}"/>
   </bookViews>
   <sheets>
     <sheet name="modelos" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="712">
   <si>
     <t xml:space="preserve">TCP/IP </t>
   </si>
@@ -7763,6 +7763,93 @@
   </si>
   <si>
     <t>dhcp, dns, snmp, tftp</t>
+  </si>
+  <si>
+    <t>01100011</t>
+  </si>
+  <si>
+    <t>01100100</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>0A</t>
+  </si>
+  <si>
+    <t>0B</t>
+  </si>
+  <si>
+    <t>0C</t>
+  </si>
+  <si>
+    <t>0D</t>
+  </si>
+  <si>
+    <t>0E</t>
+  </si>
+  <si>
+    <t>0F</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t>2^7</t>
+  </si>
+  <si>
+    <t>2^6</t>
+  </si>
+  <si>
+    <t>2^5</t>
+  </si>
+  <si>
+    <t>2^4</t>
+  </si>
+  <si>
+    <t>192.168.10.54</t>
+  </si>
+  <si>
+    <t>ip</t>
+  </si>
+  <si>
+    <t>sm</t>
+  </si>
+  <si>
+    <t>net</t>
+  </si>
+  <si>
+    <t>bc</t>
+  </si>
+  <si>
+    <t>192.168.10.0</t>
+  </si>
+  <si>
+    <t>192.168.10.255</t>
   </si>
 </sst>
 </file>
@@ -8084,7 +8171,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="119">
+  <borders count="131">
     <border>
       <left/>
       <right/>
@@ -9418,6 +9505,148 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -9428,7 +9657,7 @@
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="442">
+  <cellXfs count="463">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -10204,332 +10433,8 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="65" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="65" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="65" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="67" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="68" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="62" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="63" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="52" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="53" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="54" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="56" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="52" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="53" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="24" borderId="54" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="24" borderId="55" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="24" borderId="56" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="24" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="24" borderId="57" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="59" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="60" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="28" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="15" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="28" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="9" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="10" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -10543,15 +10448,6 @@
     </xf>
     <xf numFmtId="164" fontId="3" fillId="9" borderId="105" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="15" borderId="100" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="106" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="107" xfId="0" applyBorder="1"/>
@@ -10579,9 +10475,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -10604,29 +10497,260 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="116" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="10" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="10" borderId="110" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="117" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="10" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="10" borderId="110" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="10" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="10" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="10" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="65" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="65" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="65" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="67" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="68" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="62" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="63" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="52" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="53" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="54" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="56" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="52" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="53" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="15" borderId="100" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="10" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="10" borderId="110" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="117" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="118" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -10640,38 +10764,172 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="10" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="10" borderId="110" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="10" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="15" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="10" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="10" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="28" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="24" borderId="54" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="24" borderId="55" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="59" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="60" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="28" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="24" borderId="56" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="24" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="24" borderId="57" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="9" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="119" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="120" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="121" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="122" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="120" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="121" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="122" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="123" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="119" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="124" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="125" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="126" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="127" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="128" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="101" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="129" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="130" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -11263,13 +11521,13 @@
       <c r="A2" s="255" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="286" t="s">
+      <c r="B2" s="328" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="281" t="s">
+      <c r="C2" s="323" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="289" t="s">
+      <c r="D2" s="331" t="s">
         <v>23</v>
       </c>
     </row>
@@ -11277,17 +11535,17 @@
       <c r="A3" s="256" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="287"/>
-      <c r="C3" s="282"/>
-      <c r="D3" s="289"/>
+      <c r="B3" s="329"/>
+      <c r="C3" s="324"/>
+      <c r="D3" s="331"/>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="257" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="288"/>
-      <c r="C4" s="283"/>
-      <c r="D4" s="289"/>
+      <c r="B4" s="330"/>
+      <c r="C4" s="325"/>
+      <c r="D4" s="331"/>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="258" t="s">
@@ -11324,7 +11582,7 @@
       <c r="B7" s="264" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="284" t="s">
+      <c r="C7" s="326" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="253" t="s">
@@ -11338,8 +11596,8 @@
       <c r="B8" s="265" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="285"/>
-      <c r="D8" s="289" t="s">
+      <c r="C8" s="327"/>
+      <c r="D8" s="331" t="s">
         <v>20</v>
       </c>
     </row>
@@ -11353,7 +11611,7 @@
       <c r="C9" s="254" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="290"/>
+      <c r="D9" s="332"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -11392,24 +11650,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="291" t="s">
+      <c r="A2" s="346" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="292"/>
+      <c r="B2" s="347"/>
       <c r="C2" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="291" t="s">
+      <c r="E2" s="346" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="292"/>
+      <c r="F2" s="347"/>
       <c r="G2" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="291" t="s">
+      <c r="I2" s="346" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="292"/>
+      <c r="J2" s="347"/>
       <c r="K2" s="14" t="s">
         <v>42</v>
       </c>
@@ -11583,15 +11841,15 @@
       <c r="E9" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="F9" s="299" t="s">
+      <c r="F9" s="354" t="s">
         <v>67</v>
       </c>
-      <c r="G9" s="299"/>
-      <c r="I9" s="299" t="s">
+      <c r="G9" s="354"/>
+      <c r="I9" s="354" t="s">
         <v>81</v>
       </c>
-      <c r="J9" s="299"/>
-      <c r="K9" s="299"/>
+      <c r="J9" s="354"/>
+      <c r="K9" s="354"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
@@ -11607,15 +11865,15 @@
       <c r="E10" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="F10" s="294" t="s">
+      <c r="F10" s="349" t="s">
         <v>70</v>
       </c>
-      <c r="G10" s="295"/>
-      <c r="I10" s="293" t="s">
+      <c r="G10" s="350"/>
+      <c r="I10" s="348" t="s">
         <v>63</v>
       </c>
-      <c r="J10" s="294"/>
-      <c r="K10" s="295"/>
+      <c r="J10" s="349"/>
+      <c r="K10" s="350"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
@@ -11630,15 +11888,15 @@
       <c r="E11" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="300" t="s">
+      <c r="F11" s="355" t="s">
         <v>52</v>
       </c>
-      <c r="G11" s="301"/>
-      <c r="I11" s="296" t="s">
+      <c r="G11" s="356"/>
+      <c r="I11" s="351" t="s">
         <v>64</v>
       </c>
-      <c r="J11" s="297"/>
-      <c r="K11" s="298"/>
+      <c r="J11" s="352"/>
+      <c r="K11" s="353"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
@@ -11653,15 +11911,15 @@
       <c r="E12" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="F12" s="294" t="s">
+      <c r="F12" s="349" t="s">
         <v>72</v>
       </c>
-      <c r="G12" s="295"/>
-      <c r="I12" s="293" t="s">
+      <c r="G12" s="350"/>
+      <c r="I12" s="348" t="s">
         <v>65</v>
       </c>
-      <c r="J12" s="294"/>
-      <c r="K12" s="295"/>
+      <c r="J12" s="349"/>
+      <c r="K12" s="350"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
@@ -11697,100 +11955,94 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="310" t="s">
+      <c r="A17" s="341" t="s">
         <v>282</v>
       </c>
       <c r="B17" s="167" t="s">
         <v>272</v>
       </c>
-      <c r="C17" s="313" t="s">
+      <c r="C17" s="344" t="s">
         <v>273</v>
       </c>
-      <c r="D17" s="313"/>
-      <c r="E17" s="313"/>
-      <c r="F17" s="313"/>
-      <c r="G17" s="313"/>
-      <c r="H17" s="313"/>
-      <c r="I17" s="313"/>
-      <c r="J17" s="313"/>
-      <c r="K17" s="314"/>
+      <c r="D17" s="344"/>
+      <c r="E17" s="344"/>
+      <c r="F17" s="344"/>
+      <c r="G17" s="344"/>
+      <c r="H17" s="344"/>
+      <c r="I17" s="344"/>
+      <c r="J17" s="344"/>
+      <c r="K17" s="345"/>
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="311"/>
+      <c r="A18" s="342"/>
       <c r="B18" s="168" t="s">
         <v>274</v>
       </c>
-      <c r="C18" s="302" t="s">
+      <c r="C18" s="333" t="s">
         <v>275</v>
       </c>
-      <c r="D18" s="302"/>
-      <c r="E18" s="302"/>
-      <c r="F18" s="302"/>
-      <c r="G18" s="302"/>
-      <c r="H18" s="302"/>
-      <c r="I18" s="302"/>
-      <c r="J18" s="302"/>
-      <c r="K18" s="303"/>
+      <c r="D18" s="333"/>
+      <c r="E18" s="333"/>
+      <c r="F18" s="333"/>
+      <c r="G18" s="333"/>
+      <c r="H18" s="333"/>
+      <c r="I18" s="333"/>
+      <c r="J18" s="333"/>
+      <c r="K18" s="334"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="311"/>
+      <c r="A19" s="342"/>
       <c r="B19" s="169" t="s">
         <v>276</v>
       </c>
-      <c r="C19" s="304" t="s">
+      <c r="C19" s="335" t="s">
         <v>277</v>
       </c>
-      <c r="D19" s="304"/>
-      <c r="E19" s="304"/>
-      <c r="F19" s="304"/>
-      <c r="G19" s="304"/>
-      <c r="H19" s="304"/>
-      <c r="I19" s="304"/>
-      <c r="J19" s="304"/>
-      <c r="K19" s="305"/>
+      <c r="D19" s="335"/>
+      <c r="E19" s="335"/>
+      <c r="F19" s="335"/>
+      <c r="G19" s="335"/>
+      <c r="H19" s="335"/>
+      <c r="I19" s="335"/>
+      <c r="J19" s="335"/>
+      <c r="K19" s="336"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="311"/>
+      <c r="A20" s="342"/>
       <c r="B20" s="170" t="s">
         <v>278</v>
       </c>
-      <c r="C20" s="306" t="s">
+      <c r="C20" s="337" t="s">
         <v>279</v>
       </c>
-      <c r="D20" s="306"/>
-      <c r="E20" s="306"/>
-      <c r="F20" s="306"/>
-      <c r="G20" s="306"/>
-      <c r="H20" s="306"/>
-      <c r="I20" s="306"/>
-      <c r="J20" s="306"/>
-      <c r="K20" s="307"/>
+      <c r="D20" s="337"/>
+      <c r="E20" s="337"/>
+      <c r="F20" s="337"/>
+      <c r="G20" s="337"/>
+      <c r="H20" s="337"/>
+      <c r="I20" s="337"/>
+      <c r="J20" s="337"/>
+      <c r="K20" s="338"/>
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="312"/>
+      <c r="A21" s="343"/>
       <c r="B21" s="171" t="s">
         <v>280</v>
       </c>
-      <c r="C21" s="308" t="s">
+      <c r="C21" s="339" t="s">
         <v>281</v>
       </c>
-      <c r="D21" s="308"/>
-      <c r="E21" s="308"/>
-      <c r="F21" s="308"/>
-      <c r="G21" s="308"/>
-      <c r="H21" s="308"/>
-      <c r="I21" s="308"/>
-      <c r="J21" s="308"/>
-      <c r="K21" s="309"/>
+      <c r="D21" s="339"/>
+      <c r="E21" s="339"/>
+      <c r="F21" s="339"/>
+      <c r="G21" s="339"/>
+      <c r="H21" s="339"/>
+      <c r="I21" s="339"/>
+      <c r="J21" s="339"/>
+      <c r="K21" s="340"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C18:K18"/>
-    <mergeCell ref="C19:K19"/>
-    <mergeCell ref="C20:K20"/>
-    <mergeCell ref="C21:K21"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="C17:K17"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="A2:B2"/>
@@ -11802,6 +12054,12 @@
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="I9:K9"/>
+    <mergeCell ref="C18:K18"/>
+    <mergeCell ref="C19:K19"/>
+    <mergeCell ref="C20:K20"/>
+    <mergeCell ref="C21:K21"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="C17:K17"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11828,16 +12086,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="315" t="s">
+      <c r="B1" s="357" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="315"/>
-      <c r="D1" s="315"/>
-      <c r="F1" s="315" t="s">
+      <c r="C1" s="357"/>
+      <c r="D1" s="357"/>
+      <c r="F1" s="357" t="s">
         <v>104</v>
       </c>
-      <c r="G1" s="315"/>
-      <c r="H1" s="315"/>
+      <c r="G1" s="357"/>
+      <c r="H1" s="357"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="36" t="s">
@@ -11866,10 +12124,10 @@
       <c r="D3" s="146" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="324" t="s">
+      <c r="F3" s="366" t="s">
         <v>94</v>
       </c>
-      <c r="G3" s="326" t="s">
+      <c r="G3" s="368" t="s">
         <v>93</v>
       </c>
       <c r="H3" s="152" t="s">
@@ -11886,8 +12144,8 @@
       <c r="D4" s="149" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="324"/>
-      <c r="G4" s="327"/>
+      <c r="F4" s="366"/>
+      <c r="G4" s="369"/>
       <c r="H4" s="153" t="s">
         <v>60</v>
       </c>
@@ -11902,8 +12160,8 @@
       <c r="D5" s="144" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="324"/>
-      <c r="G5" s="327"/>
+      <c r="F5" s="366"/>
+      <c r="G5" s="369"/>
       <c r="H5" s="154" t="s">
         <v>61</v>
       </c>
@@ -11918,8 +12176,8 @@
       <c r="D6" s="147" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="324"/>
-      <c r="G6" s="327"/>
+      <c r="F6" s="366"/>
+      <c r="G6" s="369"/>
       <c r="H6" s="159" t="s">
         <v>62</v>
       </c>
@@ -11934,8 +12192,8 @@
       <c r="D7" s="148" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="324"/>
-      <c r="G7" s="327"/>
+      <c r="F7" s="366"/>
+      <c r="G7" s="369"/>
       <c r="H7" s="158" t="s">
         <v>99</v>
       </c>
@@ -11950,8 +12208,8 @@
       <c r="D8" s="145" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="324"/>
-      <c r="G8" s="327"/>
+      <c r="F8" s="366"/>
+      <c r="G8" s="369"/>
       <c r="H8" s="155" t="s">
         <v>103</v>
       </c>
@@ -11966,8 +12224,8 @@
       <c r="D9" s="150" t="s">
         <v>55</v>
       </c>
-      <c r="F9" s="324"/>
-      <c r="G9" s="327"/>
+      <c r="F9" s="366"/>
+      <c r="G9" s="369"/>
       <c r="H9" s="156" t="s">
         <v>97</v>
       </c>
@@ -11982,21 +12240,21 @@
       <c r="D10" s="151" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="325"/>
-      <c r="G10" s="328"/>
+      <c r="F10" s="367"/>
+      <c r="G10" s="370"/>
       <c r="H10" s="157" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="319" t="s">
+      <c r="B12" s="361" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="320"/>
-      <c r="D12" s="320"/>
-      <c r="E12" s="320"/>
-      <c r="F12" s="321"/>
+      <c r="C12" s="362"/>
+      <c r="D12" s="362"/>
+      <c r="E12" s="362"/>
+      <c r="F12" s="363"/>
       <c r="G12" s="160" t="s">
         <v>56</v>
       </c>
@@ -12005,13 +12263,13 @@
       <c r="B13" s="161" t="s">
         <v>90</v>
       </c>
-      <c r="C13" s="329" t="s">
+      <c r="C13" s="371" t="s">
         <v>89</v>
       </c>
-      <c r="D13" s="329"/>
-      <c r="E13" s="329"/>
-      <c r="F13" s="330"/>
-      <c r="G13" s="316" t="s">
+      <c r="D13" s="371"/>
+      <c r="E13" s="371"/>
+      <c r="F13" s="372"/>
+      <c r="G13" s="358" t="s">
         <v>219</v>
       </c>
       <c r="I13" s="29"/>
@@ -12020,39 +12278,39 @@
       <c r="B14" s="162" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="331" t="s">
+      <c r="C14" s="373" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="331"/>
-      <c r="E14" s="331"/>
-      <c r="F14" s="332"/>
-      <c r="G14" s="317"/>
+      <c r="D14" s="373"/>
+      <c r="E14" s="373"/>
+      <c r="F14" s="374"/>
+      <c r="G14" s="359"/>
       <c r="I14" s="29"/>
     </row>
     <row r="15" spans="1:9" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="161" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="329" t="s">
+      <c r="C15" s="371" t="s">
         <v>87</v>
       </c>
-      <c r="D15" s="329"/>
-      <c r="E15" s="329"/>
-      <c r="F15" s="330"/>
-      <c r="G15" s="317"/>
+      <c r="D15" s="371"/>
+      <c r="E15" s="371"/>
+      <c r="F15" s="372"/>
+      <c r="G15" s="359"/>
       <c r="I15" s="29"/>
     </row>
     <row r="16" spans="1:9" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="163" t="s">
         <v>91</v>
       </c>
-      <c r="C16" s="322" t="s">
+      <c r="C16" s="364" t="s">
         <v>88</v>
       </c>
-      <c r="D16" s="322"/>
-      <c r="E16" s="322"/>
-      <c r="F16" s="323"/>
-      <c r="G16" s="318"/>
+      <c r="D16" s="364"/>
+      <c r="E16" s="364"/>
+      <c r="F16" s="365"/>
+      <c r="G16" s="360"/>
       <c r="I16" s="29"/>
     </row>
     <row r="17" spans="7:7" x14ac:dyDescent="0.25">
@@ -12087,11 +12345,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC782B4E-6927-4C9C-A90D-9AC5B53DF039}">
-  <dimension ref="A1:AA24"/>
+  <dimension ref="A1:AV24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="N1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AN17" sqref="AN17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12105,81 +12363,164 @@
     <col min="16" max="16" width="3.42578125" style="32" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="3.28515625" customWidth="1"/>
     <col min="18" max="27" width="4.28515625" customWidth="1"/>
+    <col min="30" max="30" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.85546875" style="34" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="3" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="3.28515625" style="444" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="36" max="43" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="4.42578125" style="454" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="333" t="s">
+    <row r="1" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="375" t="s">
         <v>220</v>
       </c>
-      <c r="B1" s="334"/>
-      <c r="C1" s="334"/>
-      <c r="D1" s="334"/>
-      <c r="F1" s="333" t="s">
+      <c r="B1" s="376"/>
+      <c r="C1" s="376"/>
+      <c r="D1" s="376"/>
+      <c r="F1" s="375" t="s">
         <v>222</v>
       </c>
-      <c r="G1" s="334"/>
-      <c r="H1" s="334"/>
-      <c r="I1" s="334"/>
-      <c r="J1" s="334"/>
-      <c r="K1" s="334"/>
-      <c r="L1" s="334"/>
-      <c r="M1" s="334"/>
-      <c r="N1" s="334"/>
-      <c r="O1" s="334"/>
-      <c r="P1" s="335"/>
-      <c r="R1" s="333" t="s">
+      <c r="G1" s="376"/>
+      <c r="H1" s="376"/>
+      <c r="I1" s="376"/>
+      <c r="J1" s="376"/>
+      <c r="K1" s="376"/>
+      <c r="L1" s="376"/>
+      <c r="M1" s="376"/>
+      <c r="N1" s="376"/>
+      <c r="O1" s="376"/>
+      <c r="P1" s="377"/>
+      <c r="R1" s="375" t="s">
         <v>223</v>
       </c>
-      <c r="S1" s="334"/>
-      <c r="T1" s="334"/>
-      <c r="U1" s="334"/>
-      <c r="V1" s="334"/>
-      <c r="W1" s="334"/>
-      <c r="X1" s="334"/>
-      <c r="Y1" s="334"/>
-      <c r="Z1" s="334"/>
-      <c r="AA1" s="335"/>
-    </row>
-    <row r="2" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="340" t="s">
+      <c r="S1" s="376"/>
+      <c r="T1" s="376"/>
+      <c r="U1" s="376"/>
+      <c r="V1" s="376"/>
+      <c r="W1" s="376"/>
+      <c r="X1" s="376"/>
+      <c r="Y1" s="376"/>
+      <c r="Z1" s="376"/>
+      <c r="AA1" s="377"/>
+      <c r="AD1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE1" s="34" t="s">
+        <v>327</v>
+      </c>
+      <c r="AF1" s="442" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG1" s="442"/>
+      <c r="AJ1" s="38" t="s">
+        <v>701</v>
+      </c>
+      <c r="AK1" s="35" t="s">
+        <v>702</v>
+      </c>
+      <c r="AL1" s="38" t="s">
+        <v>703</v>
+      </c>
+      <c r="AM1" s="35" t="s">
+        <v>704</v>
+      </c>
+      <c r="AN1" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="AO1" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="AP1" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="AQ1" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="AR1" s="452"/>
+    </row>
+    <row r="2" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="382" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="339"/>
-      <c r="C2" s="339"/>
-      <c r="D2" s="339"/>
-      <c r="F2" s="336" t="s">
+      <c r="B2" s="381"/>
+      <c r="C2" s="381"/>
+      <c r="D2" s="381"/>
+      <c r="F2" s="378" t="s">
         <v>130</v>
       </c>
-      <c r="G2" s="338"/>
-      <c r="H2" s="338"/>
-      <c r="I2" s="338"/>
-      <c r="J2" s="338"/>
-      <c r="K2" s="338"/>
-      <c r="L2" s="338"/>
-      <c r="M2" s="337"/>
+      <c r="G2" s="380"/>
+      <c r="H2" s="380"/>
+      <c r="I2" s="380"/>
+      <c r="J2" s="380"/>
+      <c r="K2" s="380"/>
+      <c r="L2" s="380"/>
+      <c r="M2" s="379"/>
       <c r="N2" s="91" t="s">
         <v>106</v>
       </c>
-      <c r="O2" s="336" t="s">
+      <c r="O2" s="378" t="s">
         <v>107</v>
       </c>
-      <c r="P2" s="337"/>
-      <c r="R2" s="336" t="s">
+      <c r="P2" s="379"/>
+      <c r="R2" s="378" t="s">
         <v>130</v>
       </c>
-      <c r="S2" s="338"/>
-      <c r="T2" s="338"/>
-      <c r="U2" s="338"/>
-      <c r="V2" s="338"/>
-      <c r="W2" s="338"/>
-      <c r="X2" s="338"/>
-      <c r="Y2" s="337"/>
-      <c r="Z2" s="336" t="s">
+      <c r="S2" s="380"/>
+      <c r="T2" s="380"/>
+      <c r="U2" s="380"/>
+      <c r="V2" s="380"/>
+      <c r="W2" s="380"/>
+      <c r="X2" s="380"/>
+      <c r="Y2" s="379"/>
+      <c r="Z2" s="378" t="s">
         <v>107</v>
       </c>
-      <c r="AA2" s="337"/>
-    </row>
-    <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA2" s="379"/>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="34">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="199" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG2" s="443" t="s">
+        <v>700</v>
+      </c>
+      <c r="AJ2">
+        <v>128</v>
+      </c>
+      <c r="AK2">
+        <v>64</v>
+      </c>
+      <c r="AL2">
+        <v>32</v>
+      </c>
+      <c r="AM2">
+        <v>16</v>
+      </c>
+      <c r="AN2">
+        <v>8</v>
+      </c>
+      <c r="AO2">
+        <v>4</v>
+      </c>
+      <c r="AP2">
+        <v>2</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+      <c r="AR2" s="445" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="38" t="s">
         <v>33</v>
       </c>
@@ -12243,8 +12584,47 @@
       <c r="AA3" s="75">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD3">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="34">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="199" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG3" s="443" t="s">
+        <v>685</v>
+      </c>
+      <c r="AJ3" s="446">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="447">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="447">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="447">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="446">
+        <v>0</v>
+      </c>
+      <c r="AO3" s="447">
+        <v>0</v>
+      </c>
+      <c r="AP3" s="447">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="448">
+        <v>0</v>
+      </c>
+      <c r="AR3" s="445">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="35">
         <v>1000</v>
       </c>
@@ -12310,8 +12690,47 @@
       <c r="AA4" s="76">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD4">
+        <v>2</v>
+      </c>
+      <c r="AE4" s="34">
+        <v>10</v>
+      </c>
+      <c r="AF4" s="199" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG4" s="443" t="s">
+        <v>686</v>
+      </c>
+      <c r="AJ4" s="446">
+        <v>1</v>
+      </c>
+      <c r="AK4" s="447">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="447">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="447">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="446">
+        <v>0</v>
+      </c>
+      <c r="AO4" s="447">
+        <v>0</v>
+      </c>
+      <c r="AP4" s="447">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="448">
+        <v>0</v>
+      </c>
+      <c r="AR4" s="445">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="38">
         <v>3</v>
       </c>
@@ -12377,8 +12796,47 @@
       <c r="AA5" s="78" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="6" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD5">
+        <v>3</v>
+      </c>
+      <c r="AE5" s="34">
+        <v>11</v>
+      </c>
+      <c r="AF5" s="199" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG5" s="443" t="s">
+        <v>687</v>
+      </c>
+      <c r="AJ5" s="449">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="450">
+        <v>1</v>
+      </c>
+      <c r="AL5" s="450">
+        <v>1</v>
+      </c>
+      <c r="AM5" s="450">
+        <v>1</v>
+      </c>
+      <c r="AN5" s="449">
+        <v>1</v>
+      </c>
+      <c r="AO5" s="450">
+        <v>1</v>
+      </c>
+      <c r="AP5" s="450">
+        <v>1</v>
+      </c>
+      <c r="AQ5" s="451">
+        <v>1</v>
+      </c>
+      <c r="AR5" s="453">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="33"/>
       <c r="B6" s="33"/>
       <c r="C6" s="33"/>
@@ -12436,14 +12894,53 @@
       <c r="AA6" s="79">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="339" t="s">
+      <c r="AD6">
+        <v>4</v>
+      </c>
+      <c r="AE6" s="34">
+        <v>100</v>
+      </c>
+      <c r="AF6" s="199" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG6" s="443" t="s">
+        <v>688</v>
+      </c>
+      <c r="AJ6" s="446">
+        <v>1</v>
+      </c>
+      <c r="AK6" s="447">
+        <v>1</v>
+      </c>
+      <c r="AL6" s="447">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="447">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="446">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="447">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="447">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="448">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="445">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="381" t="s">
         <v>120</v>
       </c>
-      <c r="B7" s="339"/>
-      <c r="C7" s="339"/>
-      <c r="D7" s="339"/>
+      <c r="B7" s="381"/>
+      <c r="C7" s="381"/>
+      <c r="D7" s="381"/>
       <c r="F7" s="59">
         <v>1</v>
       </c>
@@ -12497,8 +12994,47 @@
       <c r="AA7" s="80">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD7">
+        <v>5</v>
+      </c>
+      <c r="AE7" s="34">
+        <v>101</v>
+      </c>
+      <c r="AF7" s="199" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG7" s="443" t="s">
+        <v>699</v>
+      </c>
+      <c r="AJ7" s="446">
+        <v>1</v>
+      </c>
+      <c r="AK7" s="447">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="447">
+        <v>1</v>
+      </c>
+      <c r="AM7" s="447">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="446">
+        <v>1</v>
+      </c>
+      <c r="AO7" s="447">
+        <v>0</v>
+      </c>
+      <c r="AP7" s="447">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="448">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="445">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="38" t="s">
         <v>124</v>
       </c>
@@ -12564,8 +13100,47 @@
       <c r="AA8" s="75">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD8">
+        <v>6</v>
+      </c>
+      <c r="AE8" s="34">
+        <v>110</v>
+      </c>
+      <c r="AF8" s="199" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG8" s="443" t="s">
+        <v>689</v>
+      </c>
+      <c r="AJ8" s="446">
+        <v>1</v>
+      </c>
+      <c r="AK8" s="447">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="447">
+        <v>1</v>
+      </c>
+      <c r="AM8" s="447">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="446">
+        <v>1</v>
+      </c>
+      <c r="AO8" s="447">
+        <v>1</v>
+      </c>
+      <c r="AP8" s="447">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="448">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="445">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="9" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="35">
         <v>8</v>
       </c>
@@ -12631,8 +13206,47 @@
       <c r="AA9" s="76">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD9">
+        <v>7</v>
+      </c>
+      <c r="AE9" s="34">
+        <v>111</v>
+      </c>
+      <c r="AF9" s="199" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG9" s="443" t="s">
+        <v>690</v>
+      </c>
+      <c r="AJ9" s="446">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="447">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="447">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="447">
+        <v>1</v>
+      </c>
+      <c r="AN9" s="446">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="447">
+        <v>1</v>
+      </c>
+      <c r="AP9" s="447">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="448">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="445">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="38">
         <v>1</v>
       </c>
@@ -12696,8 +13310,47 @@
       <c r="AA10" s="78" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AD10">
+        <v>8</v>
+      </c>
+      <c r="AE10" s="34">
+        <v>1000</v>
+      </c>
+      <c r="AF10" s="199" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG10" s="443" t="s">
+        <v>691</v>
+      </c>
+      <c r="AJ10" s="446">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="447">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="447">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="447">
+        <v>1</v>
+      </c>
+      <c r="AN10" s="446">
+        <v>1</v>
+      </c>
+      <c r="AO10" s="447">
+        <v>0</v>
+      </c>
+      <c r="AP10" s="447">
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="448">
+        <v>0</v>
+      </c>
+      <c r="AR10" s="445">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A11" s="33"/>
       <c r="B11" s="33"/>
       <c r="C11" s="33"/>
@@ -12735,14 +13388,53 @@
       <c r="P11" s="70" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="339" t="s">
+      <c r="AD11">
+        <v>9</v>
+      </c>
+      <c r="AE11" s="34">
+        <v>1001</v>
+      </c>
+      <c r="AF11" s="199" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG11" s="443" t="s">
+        <v>692</v>
+      </c>
+      <c r="AJ11" s="446">
+        <v>1</v>
+      </c>
+      <c r="AK11" s="447">
+        <v>1</v>
+      </c>
+      <c r="AL11" s="447">
+        <v>1</v>
+      </c>
+      <c r="AM11" s="447">
+        <v>1</v>
+      </c>
+      <c r="AN11" s="446">
+        <v>1</v>
+      </c>
+      <c r="AO11" s="447">
+        <v>1</v>
+      </c>
+      <c r="AP11" s="447">
+        <v>1</v>
+      </c>
+      <c r="AQ11" s="448">
+        <v>1</v>
+      </c>
+      <c r="AR11" s="445">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A12" s="381" t="s">
         <v>125</v>
       </c>
-      <c r="B12" s="339"/>
-      <c r="C12" s="339"/>
-      <c r="D12" s="339"/>
+      <c r="B12" s="381"/>
+      <c r="C12" s="381"/>
+      <c r="D12" s="381"/>
       <c r="F12" s="58">
         <v>0</v>
       </c>
@@ -12776,8 +13468,23 @@
       <c r="P12" s="68">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AD12">
+        <v>10</v>
+      </c>
+      <c r="AE12" s="34">
+        <v>1010</v>
+      </c>
+      <c r="AF12" s="199" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG12" s="443" t="s">
+        <v>693</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A13" s="38" t="s">
         <v>129</v>
       </c>
@@ -12823,8 +13530,59 @@
       <c r="P13" s="70">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AD13">
+        <v>11</v>
+      </c>
+      <c r="AE13" s="34">
+        <v>1011</v>
+      </c>
+      <c r="AF13" s="199" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG13" s="443" t="s">
+        <v>694</v>
+      </c>
+      <c r="AJ13" s="455">
+        <v>1</v>
+      </c>
+      <c r="AK13" s="456">
+        <v>1</v>
+      </c>
+      <c r="AL13" s="456">
+        <v>0</v>
+      </c>
+      <c r="AM13" s="457">
+        <v>0</v>
+      </c>
+      <c r="AN13" s="456">
+        <v>0</v>
+      </c>
+      <c r="AO13" s="456">
+        <v>0</v>
+      </c>
+      <c r="AP13" s="456">
+        <v>0</v>
+      </c>
+      <c r="AQ13" s="456">
+        <v>0</v>
+      </c>
+      <c r="AR13" s="452">
+        <v>192</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>158</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>706</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>705</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A14" s="35">
         <f>16^3</f>
         <v>4096</v>
@@ -12871,8 +13629,56 @@
       <c r="P14" s="68">
         <v>40</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD14">
+        <v>12</v>
+      </c>
+      <c r="AE14" s="34">
+        <v>1100</v>
+      </c>
+      <c r="AF14" s="199" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG14" s="443" t="s">
+        <v>695</v>
+      </c>
+      <c r="AJ14" s="458">
+        <v>1</v>
+      </c>
+      <c r="AK14" s="459">
+        <v>1</v>
+      </c>
+      <c r="AL14" s="459">
+        <v>1</v>
+      </c>
+      <c r="AM14" s="460">
+        <v>1</v>
+      </c>
+      <c r="AN14" s="459">
+        <v>1</v>
+      </c>
+      <c r="AO14" s="459">
+        <v>1</v>
+      </c>
+      <c r="AP14" s="459">
+        <v>1</v>
+      </c>
+      <c r="AQ14" s="459">
+        <v>1</v>
+      </c>
+      <c r="AR14" s="461">
+        <v>255</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>115</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>707</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="38">
         <v>0</v>
       </c>
@@ -12918,8 +13724,56 @@
       <c r="P15" s="72" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AD15">
+        <v>13</v>
+      </c>
+      <c r="AE15" s="34">
+        <v>1101</v>
+      </c>
+      <c r="AF15" s="199" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG15" s="443" t="s">
+        <v>696</v>
+      </c>
+      <c r="AJ15" s="455">
+        <v>1</v>
+      </c>
+      <c r="AK15" s="456">
+        <v>0</v>
+      </c>
+      <c r="AL15" s="456">
+        <v>1</v>
+      </c>
+      <c r="AM15" s="457">
+        <v>0</v>
+      </c>
+      <c r="AN15" s="456">
+        <v>1</v>
+      </c>
+      <c r="AO15" s="456">
+        <v>0</v>
+      </c>
+      <c r="AP15" s="456">
+        <v>0</v>
+      </c>
+      <c r="AQ15" s="456">
+        <v>0</v>
+      </c>
+      <c r="AR15" s="452">
+        <v>168</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>159</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>708</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
       <c r="F16" s="58">
         <v>1</v>
       </c>
@@ -12953,23 +13807,258 @@
       <c r="P16" s="32" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="17" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="AD16">
+        <v>14</v>
+      </c>
+      <c r="AE16" s="34">
+        <v>1110</v>
+      </c>
+      <c r="AF16" s="199" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG16" s="443" t="s">
+        <v>697</v>
+      </c>
+      <c r="AJ16" s="458">
+        <v>1</v>
+      </c>
+      <c r="AK16" s="459">
+        <v>1</v>
+      </c>
+      <c r="AL16" s="459">
+        <v>1</v>
+      </c>
+      <c r="AM16" s="460">
+        <v>1</v>
+      </c>
+      <c r="AN16" s="459">
+        <v>1</v>
+      </c>
+      <c r="AO16" s="459">
+        <v>1</v>
+      </c>
+      <c r="AP16" s="459">
+        <v>1</v>
+      </c>
+      <c r="AQ16" s="459">
+        <v>1</v>
+      </c>
+      <c r="AR16" s="461">
+        <v>255</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>115</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>709</v>
+      </c>
+      <c r="AU16" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="17" spans="5:45" x14ac:dyDescent="0.25">
       <c r="Q17" s="37"/>
-    </row>
-    <row r="19" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="AD17">
+        <v>15</v>
+      </c>
+      <c r="AE17" s="34">
+        <v>1111</v>
+      </c>
+      <c r="AF17" s="199" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG17" s="443" t="s">
+        <v>698</v>
+      </c>
+      <c r="AJ17" s="455">
+        <v>0</v>
+      </c>
+      <c r="AK17" s="456">
+        <v>0</v>
+      </c>
+      <c r="AL17" s="456">
+        <v>0</v>
+      </c>
+      <c r="AM17" s="457">
+        <v>0</v>
+      </c>
+      <c r="AN17" s="456">
+        <v>1</v>
+      </c>
+      <c r="AO17" s="456">
+        <v>0</v>
+      </c>
+      <c r="AP17" s="456">
+        <v>1</v>
+      </c>
+      <c r="AQ17" s="456">
+        <v>0</v>
+      </c>
+      <c r="AR17" s="452">
+        <v>10</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="18" spans="5:45" x14ac:dyDescent="0.25">
+      <c r="AD18">
+        <v>16</v>
+      </c>
+      <c r="AE18" s="34">
+        <v>10000</v>
+      </c>
+      <c r="AF18" s="199" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG18" s="443">
+        <v>10</v>
+      </c>
+      <c r="AJ18" s="458">
+        <v>1</v>
+      </c>
+      <c r="AK18" s="459">
+        <v>1</v>
+      </c>
+      <c r="AL18" s="459">
+        <v>1</v>
+      </c>
+      <c r="AM18" s="460">
+        <v>1</v>
+      </c>
+      <c r="AN18" s="459">
+        <v>1</v>
+      </c>
+      <c r="AO18" s="459">
+        <v>1</v>
+      </c>
+      <c r="AP18" s="459">
+        <v>1</v>
+      </c>
+      <c r="AQ18" s="459">
+        <v>1</v>
+      </c>
+      <c r="AR18" s="461">
+        <v>255</v>
+      </c>
+      <c r="AS18" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="5:45" x14ac:dyDescent="0.25">
       <c r="E19" s="33"/>
       <c r="Q19" s="33"/>
-    </row>
-    <row r="23" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="AD19">
+        <v>99</v>
+      </c>
+      <c r="AE19" s="34" t="s">
+        <v>683</v>
+      </c>
+      <c r="AF19" s="199" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG19" s="198">
+        <v>63</v>
+      </c>
+      <c r="AJ19" s="455">
+        <v>0</v>
+      </c>
+      <c r="AK19" s="456">
+        <v>0</v>
+      </c>
+      <c r="AL19" s="456">
+        <v>1</v>
+      </c>
+      <c r="AM19" s="457">
+        <v>1</v>
+      </c>
+      <c r="AN19" s="456">
+        <v>0</v>
+      </c>
+      <c r="AO19" s="456">
+        <v>1</v>
+      </c>
+      <c r="AP19" s="456">
+        <v>1</v>
+      </c>
+      <c r="AQ19" s="456">
+        <v>0</v>
+      </c>
+      <c r="AR19" s="452">
+        <v>54</v>
+      </c>
+      <c r="AS19" s="462">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="5:45" x14ac:dyDescent="0.25">
+      <c r="AD20">
+        <v>100</v>
+      </c>
+      <c r="AE20" s="34" t="s">
+        <v>684</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG20" s="444">
+        <v>64</v>
+      </c>
+      <c r="AJ20" s="458">
+        <v>0</v>
+      </c>
+      <c r="AK20" s="459">
+        <v>0</v>
+      </c>
+      <c r="AL20" s="459">
+        <v>0</v>
+      </c>
+      <c r="AM20" s="460">
+        <v>0</v>
+      </c>
+      <c r="AN20" s="459">
+        <v>0</v>
+      </c>
+      <c r="AO20" s="459">
+        <v>0</v>
+      </c>
+      <c r="AP20" s="459">
+        <v>0</v>
+      </c>
+      <c r="AQ20" s="459">
+        <v>0</v>
+      </c>
+      <c r="AR20" s="461">
+        <v>0</v>
+      </c>
+      <c r="AS20" s="462">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="5:45" x14ac:dyDescent="0.25">
+      <c r="AD21">
+        <v>255</v>
+      </c>
+      <c r="AE21" s="34">
+        <v>11111111</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG21" s="444" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="5:45" x14ac:dyDescent="0.25">
       <c r="N23" s="92"/>
       <c r="Q23" s="33"/>
     </row>
-    <row r="24" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:45" x14ac:dyDescent="0.25">
       <c r="N24" s="92"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="AF1:AG1"/>
     <mergeCell ref="R1:AA1"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="R2:Y2"/>
@@ -12990,11 +14079,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{736925F0-C296-4BA5-A90C-9FBAD4DAF0DB}">
   <dimension ref="A1:AG26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="9" ySplit="8" topLeftCell="J9" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="9" ySplit="8" topLeftCell="J26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="Q8" sqref="F1:Q8"/>
+      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13021,120 +14110,120 @@
       <c r="A1" s="94" t="s">
         <v>238</v>
       </c>
-      <c r="B1" s="343" t="s">
+      <c r="B1" s="383" t="s">
         <v>230</v>
       </c>
-      <c r="C1" s="343"/>
-      <c r="D1" s="343"/>
-      <c r="E1" s="343"/>
-      <c r="F1" s="395" t="s">
+      <c r="C1" s="383"/>
+      <c r="D1" s="383"/>
+      <c r="E1" s="383"/>
+      <c r="F1" s="384" t="s">
         <v>231</v>
       </c>
-      <c r="G1" s="396"/>
-      <c r="H1" s="396"/>
-      <c r="I1" s="396"/>
-      <c r="J1" s="396"/>
-      <c r="K1" s="396"/>
-      <c r="L1" s="396"/>
-      <c r="M1" s="396"/>
-      <c r="N1" s="397">
+      <c r="G1" s="385"/>
+      <c r="H1" s="385"/>
+      <c r="I1" s="385"/>
+      <c r="J1" s="385"/>
+      <c r="K1" s="385"/>
+      <c r="L1" s="385"/>
+      <c r="M1" s="385"/>
+      <c r="N1" s="386">
         <f>2^32</f>
         <v>4294967296</v>
       </c>
-      <c r="O1" s="397"/>
-      <c r="P1" s="397"/>
-      <c r="Q1" s="411" t="s">
+      <c r="O1" s="386"/>
+      <c r="P1" s="386"/>
+      <c r="Q1" s="299" t="s">
         <v>239</v>
       </c>
-      <c r="R1" s="398"/>
+      <c r="R1" s="287"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="94" t="s">
         <v>156</v>
       </c>
-      <c r="B2" s="342" t="s">
+      <c r="B2" s="387" t="s">
         <v>225</v>
       </c>
-      <c r="C2" s="342"/>
-      <c r="D2" s="342" t="s">
+      <c r="C2" s="387"/>
+      <c r="D2" s="387" t="s">
         <v>130</v>
       </c>
-      <c r="E2" s="342"/>
-      <c r="F2" s="419" t="s">
+      <c r="E2" s="387"/>
+      <c r="F2" s="388" t="s">
         <v>225</v>
       </c>
-      <c r="G2" s="342"/>
-      <c r="H2" s="342" t="s">
+      <c r="G2" s="387"/>
+      <c r="H2" s="387" t="s">
         <v>130</v>
       </c>
-      <c r="I2" s="342"/>
-      <c r="J2" s="342" t="s">
+      <c r="I2" s="387"/>
+      <c r="J2" s="387" t="s">
         <v>226</v>
       </c>
-      <c r="K2" s="342"/>
-      <c r="L2" s="342"/>
-      <c r="M2" s="342"/>
-      <c r="N2" s="342" t="s">
+      <c r="K2" s="387"/>
+      <c r="L2" s="387"/>
+      <c r="M2" s="387"/>
+      <c r="N2" s="387" t="s">
         <v>265</v>
       </c>
-      <c r="O2" s="342"/>
-      <c r="P2" s="342"/>
-      <c r="Q2" s="410"/>
-      <c r="R2" s="399"/>
+      <c r="O2" s="387"/>
+      <c r="P2" s="387"/>
+      <c r="Q2" s="397"/>
+      <c r="R2" s="288"/>
     </row>
     <row r="3" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="143" t="s">
         <v>157</v>
       </c>
-      <c r="B3" s="412" t="s">
+      <c r="B3" s="300" t="s">
         <v>227</v>
       </c>
-      <c r="C3" s="415" t="s">
+      <c r="C3" s="303" t="s">
         <v>228</v>
       </c>
-      <c r="D3" s="418" t="s">
+      <c r="D3" s="306" t="s">
         <v>227</v>
       </c>
-      <c r="E3" s="418" t="s">
+      <c r="E3" s="306" t="s">
         <v>228</v>
       </c>
-      <c r="F3" s="412" t="s">
+      <c r="F3" s="300" t="s">
         <v>227</v>
       </c>
-      <c r="G3" s="415" t="s">
+      <c r="G3" s="303" t="s">
         <v>228</v>
       </c>
-      <c r="H3" s="418" t="s">
+      <c r="H3" s="306" t="s">
         <v>227</v>
       </c>
-      <c r="I3" s="420" t="s">
+      <c r="I3" s="307" t="s">
         <v>228</v>
       </c>
-      <c r="J3" s="412" t="s">
+      <c r="J3" s="300" t="s">
         <v>267</v>
       </c>
-      <c r="K3" s="415" t="s">
+      <c r="K3" s="303" t="s">
         <v>268</v>
       </c>
-      <c r="L3" s="416" t="s">
+      <c r="L3" s="304" t="s">
         <v>269</v>
       </c>
-      <c r="M3" s="417" t="s">
+      <c r="M3" s="305" t="s">
         <v>270</v>
       </c>
-      <c r="N3" s="412" t="s">
+      <c r="N3" s="300" t="s">
         <v>227</v>
       </c>
-      <c r="O3" s="413" t="s">
+      <c r="O3" s="301" t="s">
         <v>228</v>
       </c>
-      <c r="P3" s="414" t="s">
+      <c r="P3" s="302" t="s">
         <v>130</v>
       </c>
-      <c r="Q3" s="415" t="s">
+      <c r="Q3" s="303" t="s">
         <v>266</v>
       </c>
-      <c r="R3" s="400"/>
+      <c r="R3" s="289"/>
       <c r="V3" s="199"/>
       <c r="W3" s="199"/>
     </row>
@@ -13142,10 +14231,10 @@
       <c r="A4" s="138" t="s">
         <v>108</v>
       </c>
-      <c r="B4" s="401" t="s">
+      <c r="B4" s="290" t="s">
         <v>131</v>
       </c>
-      <c r="C4" s="421">
+      <c r="C4" s="308">
         <v>127255255255</v>
       </c>
       <c r="D4" s="227" t="s">
@@ -13154,22 +14243,22 @@
       <c r="E4" s="227" t="s">
         <v>137</v>
       </c>
-      <c r="F4" s="401" t="s">
+      <c r="F4" s="290" t="s">
         <v>146</v>
       </c>
-      <c r="G4" s="435" t="s">
+      <c r="G4" s="316" t="s">
         <v>271</v>
       </c>
       <c r="H4" s="227" t="s">
         <v>147</v>
       </c>
-      <c r="I4" s="406" t="s">
+      <c r="I4" s="295" t="s">
         <v>147</v>
       </c>
-      <c r="J4" s="438" t="s">
+      <c r="J4" s="319" t="s">
         <v>150</v>
       </c>
-      <c r="K4" s="439" t="s">
+      <c r="K4" s="320" t="s">
         <v>153</v>
       </c>
       <c r="L4" s="95">
@@ -13188,19 +14277,19 @@
       <c r="P4" s="136" t="s">
         <v>232</v>
       </c>
-      <c r="Q4" s="406" t="s">
+      <c r="Q4" s="295" t="s">
         <v>283</v>
       </c>
-      <c r="R4" s="399"/>
+      <c r="R4" s="288"/>
     </row>
     <row r="5" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="139" t="s">
         <v>109</v>
       </c>
-      <c r="B5" s="402" t="s">
+      <c r="B5" s="291" t="s">
         <v>132</v>
       </c>
-      <c r="C5" s="422">
+      <c r="C5" s="309">
         <v>191255255255</v>
       </c>
       <c r="D5" s="225" t="s">
@@ -13209,22 +14298,22 @@
       <c r="E5" s="225" t="s">
         <v>141</v>
       </c>
-      <c r="F5" s="402" t="s">
+      <c r="F5" s="291" t="s">
         <v>234</v>
       </c>
-      <c r="G5" s="436" t="s">
+      <c r="G5" s="317" t="s">
         <v>235</v>
       </c>
-      <c r="H5" s="431" t="s">
+      <c r="H5" s="314" t="s">
         <v>287</v>
       </c>
-      <c r="I5" s="425" t="s">
+      <c r="I5" s="312" t="s">
         <v>288</v>
       </c>
-      <c r="J5" s="440" t="s">
+      <c r="J5" s="321" t="s">
         <v>151</v>
       </c>
-      <c r="K5" s="436" t="s">
+      <c r="K5" s="317" t="s">
         <v>154</v>
       </c>
       <c r="L5" s="96">
@@ -13243,19 +14332,19 @@
       <c r="P5" s="137" t="s">
         <v>233</v>
       </c>
-      <c r="Q5" s="407" t="s">
+      <c r="Q5" s="296" t="s">
         <v>284</v>
       </c>
-      <c r="R5" s="399"/>
+      <c r="R5" s="288"/>
     </row>
     <row r="6" spans="1:33" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="138" t="s">
         <v>111</v>
       </c>
-      <c r="B6" s="401" t="s">
+      <c r="B6" s="290" t="s">
         <v>133</v>
       </c>
-      <c r="C6" s="421">
+      <c r="C6" s="308">
         <v>223255255255</v>
       </c>
       <c r="D6" s="227" t="s">
@@ -13264,22 +14353,22 @@
       <c r="E6" s="227" t="s">
         <v>142</v>
       </c>
-      <c r="F6" s="423" t="s">
+      <c r="F6" s="310" t="s">
         <v>236</v>
       </c>
-      <c r="G6" s="437" t="s">
+      <c r="G6" s="318" t="s">
         <v>237</v>
       </c>
-      <c r="H6" s="432" t="s">
+      <c r="H6" s="315" t="s">
         <v>285</v>
       </c>
-      <c r="I6" s="426" t="s">
+      <c r="I6" s="313" t="s">
         <v>286</v>
       </c>
-      <c r="J6" s="441" t="s">
+      <c r="J6" s="322" t="s">
         <v>152</v>
       </c>
-      <c r="K6" s="437" t="s">
+      <c r="K6" s="318" t="s">
         <v>155</v>
       </c>
       <c r="L6" s="134">
@@ -13292,17 +14381,17 @@
       <c r="N6" s="141"/>
       <c r="O6" s="142"/>
       <c r="P6" s="136"/>
-      <c r="Q6" s="406"/>
-      <c r="R6" s="399"/>
+      <c r="Q6" s="295"/>
+      <c r="R6" s="288"/>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="139" t="s">
         <v>112</v>
       </c>
-      <c r="B7" s="402" t="s">
+      <c r="B7" s="291" t="s">
         <v>134</v>
       </c>
-      <c r="C7" s="422">
+      <c r="C7" s="309">
         <v>239255255255</v>
       </c>
       <c r="D7" s="225" t="s">
@@ -13311,18 +14400,18 @@
       <c r="E7" s="225" t="s">
         <v>143</v>
       </c>
-      <c r="F7" s="433" t="s">
+      <c r="F7" s="389" t="s">
         <v>148</v>
       </c>
-      <c r="G7" s="434"/>
-      <c r="H7" s="341"/>
-      <c r="I7" s="427"/>
-      <c r="J7" s="434" t="s">
+      <c r="G7" s="390"/>
+      <c r="H7" s="391"/>
+      <c r="I7" s="392"/>
+      <c r="J7" s="390" t="s">
         <v>148</v>
       </c>
-      <c r="K7" s="434"/>
-      <c r="L7" s="341"/>
-      <c r="M7" s="341"/>
+      <c r="K7" s="390"/>
+      <c r="L7" s="391"/>
+      <c r="M7" s="391"/>
       <c r="N7" s="178" t="s">
         <v>134</v>
       </c>
@@ -13332,68 +14421,68 @@
       <c r="P7" s="176">
         <v>11100000</v>
       </c>
-      <c r="Q7" s="408" t="s">
+      <c r="Q7" s="297" t="s">
         <v>148</v>
       </c>
-      <c r="R7" s="399"/>
+      <c r="R7" s="288"/>
     </row>
     <row r="8" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="140" t="s">
         <v>113</v>
       </c>
-      <c r="B8" s="423" t="s">
+      <c r="B8" s="310" t="s">
         <v>135</v>
       </c>
-      <c r="C8" s="424">
+      <c r="C8" s="311">
         <v>255255255255</v>
       </c>
-      <c r="D8" s="388" t="s">
+      <c r="D8" s="281" t="s">
         <v>144</v>
       </c>
-      <c r="E8" s="388" t="s">
+      <c r="E8" s="281" t="s">
         <v>145</v>
       </c>
-      <c r="F8" s="428" t="s">
+      <c r="F8" s="393" t="s">
         <v>149</v>
       </c>
-      <c r="G8" s="429"/>
-      <c r="H8" s="429"/>
-      <c r="I8" s="430"/>
-      <c r="J8" s="389" t="s">
+      <c r="G8" s="394"/>
+      <c r="H8" s="394"/>
+      <c r="I8" s="395"/>
+      <c r="J8" s="396" t="s">
         <v>149</v>
       </c>
-      <c r="K8" s="389"/>
-      <c r="L8" s="389"/>
-      <c r="M8" s="389"/>
-      <c r="N8" s="390" t="s">
+      <c r="K8" s="396"/>
+      <c r="L8" s="396"/>
+      <c r="M8" s="396"/>
+      <c r="N8" s="282" t="s">
         <v>135</v>
       </c>
-      <c r="O8" s="391">
+      <c r="O8" s="283">
         <v>255255255255</v>
       </c>
-      <c r="P8" s="392">
+      <c r="P8" s="284">
         <v>11110000</v>
       </c>
-      <c r="Q8" s="409" t="s">
+      <c r="Q8" s="298" t="s">
         <v>149</v>
       </c>
-      <c r="R8" s="399"/>
+      <c r="R8" s="288"/>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="E9" s="93"/>
-      <c r="F9" s="403"/>
-      <c r="G9" s="404"/>
-      <c r="H9" s="404"/>
-      <c r="I9" s="404"/>
-      <c r="J9" s="404"/>
-      <c r="K9" s="404"/>
-      <c r="L9" s="404"/>
-      <c r="M9" s="404"/>
-      <c r="N9" s="404"/>
-      <c r="O9" s="404"/>
-      <c r="P9" s="404"/>
-      <c r="Q9" s="404"/>
-      <c r="R9" s="405"/>
+      <c r="F9" s="292"/>
+      <c r="G9" s="293"/>
+      <c r="H9" s="293"/>
+      <c r="I9" s="293"/>
+      <c r="J9" s="293"/>
+      <c r="K9" s="293"/>
+      <c r="L9" s="293"/>
+      <c r="M9" s="293"/>
+      <c r="N9" s="293"/>
+      <c r="O9" s="293"/>
+      <c r="P9" s="293"/>
+      <c r="Q9" s="293"/>
+      <c r="R9" s="294"/>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="181" t="s">
@@ -13414,13 +14503,13 @@
       <c r="F10" s="280" t="s">
         <v>294</v>
       </c>
-      <c r="G10" s="393" t="s">
+      <c r="G10" s="285" t="s">
         <v>295</v>
       </c>
       <c r="H10" s="280" t="s">
         <v>296</v>
       </c>
-      <c r="I10" s="394" t="s">
+      <c r="I10" s="286" t="s">
         <v>297</v>
       </c>
       <c r="R10" s="280" t="s">
@@ -14093,6 +15182,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="N2:Q2"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:M1"/>
     <mergeCell ref="N1:P1"/>
@@ -14101,11 +15195,6 @@
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="N2:Q2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14138,45 +15227,45 @@
       <c r="A1" s="97" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="359">
+      <c r="B1" s="398">
         <f>2^128</f>
         <v>3.4028236692093846E+38</v>
       </c>
-      <c r="C1" s="359"/>
-      <c r="D1" s="359"/>
-      <c r="E1" s="359"/>
-      <c r="F1" s="359"/>
-      <c r="G1" s="359"/>
-      <c r="H1" s="359"/>
-      <c r="I1" s="359"/>
+      <c r="C1" s="398"/>
+      <c r="D1" s="398"/>
+      <c r="E1" s="398"/>
+      <c r="F1" s="398"/>
+      <c r="G1" s="398"/>
+      <c r="H1" s="398"/>
+      <c r="I1" s="398"/>
       <c r="J1" s="97" t="s">
         <v>240</v>
       </c>
-      <c r="K1" s="360" t="s">
+      <c r="K1" s="399" t="s">
         <v>229</v>
       </c>
-      <c r="L1" s="360"/>
-      <c r="M1" s="360"/>
-      <c r="N1" s="360"/>
+      <c r="L1" s="399"/>
+      <c r="M1" s="399"/>
+      <c r="N1" s="399"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="120" t="s">
         <v>177</v>
       </c>
-      <c r="B2" s="361" t="s">
+      <c r="B2" s="400" t="s">
         <v>173</v>
       </c>
-      <c r="C2" s="362"/>
-      <c r="D2" s="362"/>
+      <c r="C2" s="401"/>
+      <c r="D2" s="401"/>
       <c r="E2" s="98" t="s">
         <v>253</v>
       </c>
-      <c r="F2" s="362" t="s">
+      <c r="F2" s="401" t="s">
         <v>174</v>
       </c>
-      <c r="G2" s="362"/>
-      <c r="H2" s="362"/>
-      <c r="I2" s="363"/>
+      <c r="G2" s="401"/>
+      <c r="H2" s="401"/>
+      <c r="I2" s="402"/>
       <c r="J2" s="99" t="s">
         <v>175</v>
       </c>
@@ -14297,11 +15386,11 @@
       <c r="E5" s="118" t="s">
         <v>182</v>
       </c>
-      <c r="F5" s="364" t="s">
+      <c r="F5" s="403" t="s">
         <v>184</v>
       </c>
-      <c r="G5" s="364"/>
-      <c r="H5" s="364"/>
+      <c r="G5" s="403"/>
+      <c r="H5" s="403"/>
       <c r="I5" s="119">
         <v>1</v>
       </c>
@@ -14331,12 +15420,12 @@
       <c r="B7" s="103" t="s">
         <v>263</v>
       </c>
-      <c r="C7" s="356" t="s">
+      <c r="C7" s="410" t="s">
         <v>248</v>
       </c>
-      <c r="D7" s="356"/>
-      <c r="E7" s="356"/>
-      <c r="F7" s="357"/>
+      <c r="D7" s="410"/>
+      <c r="E7" s="410"/>
+      <c r="F7" s="411"/>
       <c r="G7" s="127" t="s">
         <v>261</v>
       </c>
@@ -14351,10 +15440,10 @@
       <c r="C8" s="123" t="s">
         <v>262</v>
       </c>
-      <c r="D8" s="358" t="s">
+      <c r="D8" s="412" t="s">
         <v>249</v>
       </c>
-      <c r="E8" s="358"/>
+      <c r="E8" s="412"/>
       <c r="F8" s="121" t="s">
         <v>250</v>
       </c>
@@ -14413,114 +15502,114 @@
       <c r="A12" s="130" t="s">
         <v>263</v>
       </c>
-      <c r="B12" s="353" t="s">
+      <c r="B12" s="407" t="s">
         <v>248</v>
       </c>
-      <c r="C12" s="354"/>
-      <c r="D12" s="355"/>
-      <c r="E12" s="353" t="s">
+      <c r="C12" s="408"/>
+      <c r="D12" s="409"/>
+      <c r="E12" s="407" t="s">
         <v>264</v>
       </c>
-      <c r="F12" s="354"/>
-      <c r="G12" s="355"/>
+      <c r="F12" s="408"/>
+      <c r="G12" s="409"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="128" t="s">
         <v>188</v>
       </c>
-      <c r="B13" s="344" t="s">
+      <c r="B13" s="404" t="s">
         <v>190</v>
       </c>
-      <c r="C13" s="345"/>
-      <c r="D13" s="346"/>
-      <c r="E13" s="345" t="s">
+      <c r="C13" s="405"/>
+      <c r="D13" s="406"/>
+      <c r="E13" s="405" t="s">
         <v>191</v>
       </c>
-      <c r="F13" s="345"/>
-      <c r="G13" s="346"/>
+      <c r="F13" s="405"/>
+      <c r="G13" s="406"/>
       <c r="H13" s="37"/>
       <c r="I13" s="37"/>
       <c r="J13" s="37"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="129"/>
-      <c r="B14" s="347"/>
-      <c r="C14" s="348"/>
-      <c r="D14" s="349"/>
-      <c r="E14" s="348"/>
-      <c r="F14" s="348"/>
-      <c r="G14" s="349"/>
+      <c r="B14" s="413"/>
+      <c r="C14" s="414"/>
+      <c r="D14" s="415"/>
+      <c r="E14" s="414"/>
+      <c r="F14" s="414"/>
+      <c r="G14" s="415"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="128"/>
-      <c r="B15" s="344"/>
-      <c r="C15" s="345"/>
-      <c r="D15" s="346"/>
-      <c r="E15" s="345"/>
-      <c r="F15" s="345"/>
-      <c r="G15" s="346"/>
+      <c r="B15" s="404"/>
+      <c r="C15" s="405"/>
+      <c r="D15" s="406"/>
+      <c r="E15" s="405"/>
+      <c r="F15" s="405"/>
+      <c r="G15" s="406"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="129"/>
-      <c r="B16" s="347"/>
-      <c r="C16" s="348"/>
-      <c r="D16" s="349"/>
-      <c r="E16" s="348"/>
-      <c r="F16" s="348"/>
-      <c r="G16" s="349"/>
+      <c r="B16" s="413"/>
+      <c r="C16" s="414"/>
+      <c r="D16" s="415"/>
+      <c r="E16" s="414"/>
+      <c r="F16" s="414"/>
+      <c r="G16" s="415"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="128"/>
-      <c r="B17" s="344"/>
-      <c r="C17" s="345"/>
-      <c r="D17" s="346"/>
-      <c r="E17" s="345"/>
-      <c r="F17" s="345"/>
-      <c r="G17" s="346"/>
+      <c r="B17" s="404"/>
+      <c r="C17" s="405"/>
+      <c r="D17" s="406"/>
+      <c r="E17" s="405"/>
+      <c r="F17" s="405"/>
+      <c r="G17" s="406"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="129"/>
-      <c r="B18" s="347"/>
-      <c r="C18" s="348"/>
-      <c r="D18" s="349"/>
-      <c r="E18" s="348"/>
-      <c r="F18" s="348"/>
-      <c r="G18" s="349"/>
+      <c r="B18" s="413"/>
+      <c r="C18" s="414"/>
+      <c r="D18" s="415"/>
+      <c r="E18" s="414"/>
+      <c r="F18" s="414"/>
+      <c r="G18" s="415"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="116"/>
-      <c r="B19" s="350"/>
-      <c r="C19" s="351"/>
-      <c r="D19" s="352"/>
-      <c r="E19" s="351"/>
-      <c r="F19" s="351"/>
-      <c r="G19" s="352"/>
+      <c r="B19" s="416"/>
+      <c r="C19" s="417"/>
+      <c r="D19" s="418"/>
+      <c r="E19" s="417"/>
+      <c r="F19" s="417"/>
+      <c r="G19" s="418"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="E13:G13"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="E12:G12"/>
     <mergeCell ref="C7:F7"/>
     <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="F5:H5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14555,11 +15644,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="368" t="s">
+      <c r="A1" s="434" t="s">
         <v>320</v>
       </c>
-      <c r="B1" s="368"/>
-      <c r="C1" s="368"/>
+      <c r="B1" s="434"/>
+      <c r="C1" s="434"/>
       <c r="D1" s="203" t="s">
         <v>471</v>
       </c>
@@ -14587,11 +15676,11 @@
       <c r="P1" s="34"/>
     </row>
     <row r="2" spans="1:16" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="365" t="s">
+      <c r="A2" s="431" t="s">
         <v>470</v>
       </c>
-      <c r="B2" s="366"/>
-      <c r="C2" s="367"/>
+      <c r="B2" s="432"/>
+      <c r="C2" s="433"/>
       <c r="D2" s="207" t="s">
         <v>321</v>
       </c>
@@ -14675,21 +15764,21 @@
       <c r="F4" s="221" t="s">
         <v>326</v>
       </c>
-      <c r="G4" s="372" t="s">
+      <c r="G4" s="422" t="s">
         <v>108</v>
       </c>
-      <c r="H4" s="372">
+      <c r="H4" s="422">
         <v>3</v>
       </c>
-      <c r="I4" s="372">
+      <c r="I4" s="422">
         <f>IF(H4="","",IF(H4&lt;=2,1,IF(H4&lt;=4,2,IF(H4&lt;=8,3,IF(H4&lt;=16,4,IF(H4&lt;=32,5,IF(H4&lt;=64,6,IF(H4&lt;=128,7,8))))))))</f>
         <v>2</v>
       </c>
-      <c r="J4" s="372">
+      <c r="J4" s="422">
         <f>IF(G4="","",IF(G4="A",8+I4,IF(G4="B",16+I4,IF(G4="C",24+I4,"invalid"))))</f>
         <v>10</v>
       </c>
-      <c r="K4" s="369">
+      <c r="K4" s="425">
         <f>IF(J4="","",2^(32-J4))</f>
         <v>4194304</v>
       </c>
@@ -14713,11 +15802,11 @@
       <c r="F5" s="191" t="s">
         <v>326</v>
       </c>
-      <c r="G5" s="373"/>
-      <c r="H5" s="373"/>
-      <c r="I5" s="373"/>
-      <c r="J5" s="373"/>
-      <c r="K5" s="370"/>
+      <c r="G5" s="423"/>
+      <c r="H5" s="423"/>
+      <c r="I5" s="423"/>
+      <c r="J5" s="423"/>
+      <c r="K5" s="426"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="214" t="s">
@@ -14738,11 +15827,11 @@
       <c r="F6" s="189" t="s">
         <v>326</v>
       </c>
-      <c r="G6" s="373"/>
-      <c r="H6" s="373"/>
-      <c r="I6" s="373"/>
-      <c r="J6" s="373"/>
-      <c r="K6" s="370"/>
+      <c r="G6" s="423"/>
+      <c r="H6" s="423"/>
+      <c r="I6" s="423"/>
+      <c r="J6" s="423"/>
+      <c r="K6" s="426"/>
     </row>
     <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="216" t="s">
@@ -14763,11 +15852,11 @@
       <c r="F7" s="218" t="s">
         <v>326</v>
       </c>
-      <c r="G7" s="374"/>
-      <c r="H7" s="374"/>
-      <c r="I7" s="374"/>
-      <c r="J7" s="374"/>
-      <c r="K7" s="371"/>
+      <c r="G7" s="424"/>
+      <c r="H7" s="424"/>
+      <c r="I7" s="424"/>
+      <c r="J7" s="424"/>
+      <c r="K7" s="427"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="219" t="s">
@@ -14788,21 +15877,21 @@
       <c r="F8" s="221" t="s">
         <v>389</v>
       </c>
-      <c r="G8" s="375" t="s">
+      <c r="G8" s="419" t="s">
         <v>109</v>
       </c>
-      <c r="H8" s="375">
+      <c r="H8" s="419">
         <v>5</v>
       </c>
-      <c r="I8" s="375">
+      <c r="I8" s="419">
         <f t="shared" ref="I8:I44" si="0">IF(H8="","",IF(H8&lt;=2,1,IF(H8&lt;=4,2,IF(H8&lt;=8,3,IF(H8&lt;=16,4,IF(H8&lt;=32,5,IF(H8&lt;=64,6,IF(H8&lt;=128,7,8))))))))</f>
         <v>3</v>
       </c>
-      <c r="J8" s="375">
+      <c r="J8" s="419">
         <f t="shared" ref="J8:J20" si="1">IF(G8="","",IF(G8="A",8+I8,IF(G8="B",16+I8,IF(G8="C",24+I8,"invalid"))))</f>
         <v>19</v>
       </c>
-      <c r="K8" s="378">
+      <c r="K8" s="428">
         <f t="shared" ref="K8:K44" si="2">IF(J8="","",2^(32-J8))</f>
         <v>8192</v>
       </c>
@@ -14826,11 +15915,11 @@
       <c r="F9" s="191" t="s">
         <v>389</v>
       </c>
-      <c r="G9" s="376"/>
-      <c r="H9" s="376"/>
-      <c r="I9" s="376"/>
-      <c r="J9" s="376"/>
-      <c r="K9" s="379"/>
+      <c r="G9" s="420"/>
+      <c r="H9" s="420"/>
+      <c r="I9" s="420"/>
+      <c r="J9" s="420"/>
+      <c r="K9" s="429"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="214" t="s">
@@ -14851,11 +15940,11 @@
       <c r="F10" s="189" t="s">
         <v>389</v>
       </c>
-      <c r="G10" s="376"/>
-      <c r="H10" s="376"/>
-      <c r="I10" s="376"/>
-      <c r="J10" s="376"/>
-      <c r="K10" s="379"/>
+      <c r="G10" s="420"/>
+      <c r="H10" s="420"/>
+      <c r="I10" s="420"/>
+      <c r="J10" s="420"/>
+      <c r="K10" s="429"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="215" t="s">
@@ -14876,11 +15965,11 @@
       <c r="F11" s="193" t="s">
         <v>389</v>
       </c>
-      <c r="G11" s="376"/>
-      <c r="H11" s="376"/>
-      <c r="I11" s="376"/>
-      <c r="J11" s="376"/>
-      <c r="K11" s="379"/>
+      <c r="G11" s="420"/>
+      <c r="H11" s="420"/>
+      <c r="I11" s="420"/>
+      <c r="J11" s="420"/>
+      <c r="K11" s="429"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="214" t="s">
@@ -14901,11 +15990,11 @@
       <c r="F12" s="189" t="s">
         <v>389</v>
       </c>
-      <c r="G12" s="376"/>
-      <c r="H12" s="376"/>
-      <c r="I12" s="376"/>
-      <c r="J12" s="376"/>
-      <c r="K12" s="379"/>
+      <c r="G12" s="420"/>
+      <c r="H12" s="420"/>
+      <c r="I12" s="420"/>
+      <c r="J12" s="420"/>
+      <c r="K12" s="429"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="213" t="s">
@@ -14926,11 +16015,11 @@
       <c r="F13" s="191" t="s">
         <v>389</v>
       </c>
-      <c r="G13" s="376"/>
-      <c r="H13" s="376"/>
-      <c r="I13" s="376"/>
-      <c r="J13" s="376"/>
-      <c r="K13" s="379"/>
+      <c r="G13" s="420"/>
+      <c r="H13" s="420"/>
+      <c r="I13" s="420"/>
+      <c r="J13" s="420"/>
+      <c r="K13" s="429"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="214" t="s">
@@ -14951,11 +16040,11 @@
       <c r="F14" s="189" t="s">
         <v>389</v>
       </c>
-      <c r="G14" s="376"/>
-      <c r="H14" s="376"/>
-      <c r="I14" s="376"/>
-      <c r="J14" s="376"/>
-      <c r="K14" s="379"/>
+      <c r="G14" s="420"/>
+      <c r="H14" s="420"/>
+      <c r="I14" s="420"/>
+      <c r="J14" s="420"/>
+      <c r="K14" s="429"/>
     </row>
     <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="216" t="s">
@@ -14976,11 +16065,11 @@
       <c r="F15" s="218" t="s">
         <v>389</v>
       </c>
-      <c r="G15" s="377"/>
-      <c r="H15" s="377"/>
-      <c r="I15" s="377"/>
-      <c r="J15" s="377"/>
-      <c r="K15" s="380"/>
+      <c r="G15" s="421"/>
+      <c r="H15" s="421"/>
+      <c r="I15" s="421"/>
+      <c r="J15" s="421"/>
+      <c r="K15" s="430"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="219" t="s">
@@ -15001,21 +16090,21 @@
       <c r="F16" s="222">
         <v>255255255192</v>
       </c>
-      <c r="G16" s="372" t="s">
+      <c r="G16" s="422" t="s">
         <v>111</v>
       </c>
-      <c r="H16" s="372">
+      <c r="H16" s="422">
         <v>4</v>
       </c>
-      <c r="I16" s="372">
+      <c r="I16" s="422">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J16" s="372">
+      <c r="J16" s="422">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="K16" s="369">
+      <c r="K16" s="425">
         <f t="shared" si="2"/>
         <v>64</v>
       </c>
@@ -15039,11 +16128,11 @@
       <c r="F17" s="202">
         <v>255255255192</v>
       </c>
-      <c r="G17" s="373"/>
-      <c r="H17" s="373"/>
-      <c r="I17" s="373"/>
-      <c r="J17" s="373"/>
-      <c r="K17" s="370"/>
+      <c r="G17" s="423"/>
+      <c r="H17" s="423"/>
+      <c r="I17" s="423"/>
+      <c r="J17" s="423"/>
+      <c r="K17" s="426"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="214" t="s">
@@ -15064,11 +16153,11 @@
       <c r="F18" s="201">
         <v>255255255192</v>
       </c>
-      <c r="G18" s="373"/>
-      <c r="H18" s="373"/>
-      <c r="I18" s="373"/>
-      <c r="J18" s="373"/>
-      <c r="K18" s="370"/>
+      <c r="G18" s="423"/>
+      <c r="H18" s="423"/>
+      <c r="I18" s="423"/>
+      <c r="J18" s="423"/>
+      <c r="K18" s="426"/>
     </row>
     <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="216" t="s">
@@ -15089,11 +16178,11 @@
       <c r="F19" s="223">
         <v>255255255192</v>
       </c>
-      <c r="G19" s="374"/>
-      <c r="H19" s="374"/>
-      <c r="I19" s="374"/>
-      <c r="J19" s="374"/>
-      <c r="K19" s="371"/>
+      <c r="G19" s="424"/>
+      <c r="H19" s="424"/>
+      <c r="I19" s="424"/>
+      <c r="J19" s="424"/>
+      <c r="K19" s="427"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="219" t="s">
@@ -15114,21 +16203,21 @@
       <c r="F20" s="221" t="s">
         <v>440</v>
       </c>
-      <c r="G20" s="375" t="s">
+      <c r="G20" s="419" t="s">
         <v>108</v>
       </c>
-      <c r="H20" s="375">
+      <c r="H20" s="419">
         <v>20</v>
       </c>
-      <c r="I20" s="375">
+      <c r="I20" s="419">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J20" s="375">
+      <c r="J20" s="419">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="K20" s="378">
+      <c r="K20" s="428">
         <f t="shared" si="2"/>
         <v>524288</v>
       </c>
@@ -15152,11 +16241,11 @@
       <c r="F21" s="191" t="s">
         <v>440</v>
       </c>
-      <c r="G21" s="376"/>
-      <c r="H21" s="376"/>
-      <c r="I21" s="376"/>
-      <c r="J21" s="376"/>
-      <c r="K21" s="379"/>
+      <c r="G21" s="420"/>
+      <c r="H21" s="420"/>
+      <c r="I21" s="420"/>
+      <c r="J21" s="420"/>
+      <c r="K21" s="429"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="214" t="s">
@@ -15177,11 +16266,11 @@
       <c r="F22" s="189" t="s">
         <v>440</v>
       </c>
-      <c r="G22" s="376"/>
-      <c r="H22" s="376"/>
-      <c r="I22" s="376"/>
-      <c r="J22" s="376"/>
-      <c r="K22" s="379"/>
+      <c r="G22" s="420"/>
+      <c r="H22" s="420"/>
+      <c r="I22" s="420"/>
+      <c r="J22" s="420"/>
+      <c r="K22" s="429"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="215" t="s">
@@ -15202,11 +16291,11 @@
       <c r="F23" s="193" t="s">
         <v>440</v>
       </c>
-      <c r="G23" s="376"/>
-      <c r="H23" s="376"/>
-      <c r="I23" s="376"/>
-      <c r="J23" s="376"/>
-      <c r="K23" s="379"/>
+      <c r="G23" s="420"/>
+      <c r="H23" s="420"/>
+      <c r="I23" s="420"/>
+      <c r="J23" s="420"/>
+      <c r="K23" s="429"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="214" t="s">
@@ -15227,11 +16316,11 @@
       <c r="F24" s="189" t="s">
         <v>440</v>
       </c>
-      <c r="G24" s="376"/>
-      <c r="H24" s="376"/>
-      <c r="I24" s="376"/>
-      <c r="J24" s="376"/>
-      <c r="K24" s="379"/>
+      <c r="G24" s="420"/>
+      <c r="H24" s="420"/>
+      <c r="I24" s="420"/>
+      <c r="J24" s="420"/>
+      <c r="K24" s="429"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="213" t="s">
@@ -15252,11 +16341,11 @@
       <c r="F25" s="191" t="s">
         <v>440</v>
       </c>
-      <c r="G25" s="376"/>
-      <c r="H25" s="376"/>
-      <c r="I25" s="376"/>
-      <c r="J25" s="376"/>
-      <c r="K25" s="379"/>
+      <c r="G25" s="420"/>
+      <c r="H25" s="420"/>
+      <c r="I25" s="420"/>
+      <c r="J25" s="420"/>
+      <c r="K25" s="429"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="214" t="s">
@@ -15277,11 +16366,11 @@
       <c r="F26" s="189" t="s">
         <v>440</v>
       </c>
-      <c r="G26" s="376"/>
-      <c r="H26" s="376"/>
-      <c r="I26" s="376"/>
-      <c r="J26" s="376"/>
-      <c r="K26" s="379"/>
+      <c r="G26" s="420"/>
+      <c r="H26" s="420"/>
+      <c r="I26" s="420"/>
+      <c r="J26" s="420"/>
+      <c r="K26" s="429"/>
     </row>
     <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="216" t="s">
@@ -15302,11 +16391,11 @@
       <c r="F27" s="218" t="s">
         <v>440</v>
       </c>
-      <c r="G27" s="377"/>
-      <c r="H27" s="377"/>
-      <c r="I27" s="377"/>
-      <c r="J27" s="377"/>
-      <c r="K27" s="380"/>
+      <c r="G27" s="421"/>
+      <c r="H27" s="421"/>
+      <c r="I27" s="421"/>
+      <c r="J27" s="421"/>
+      <c r="K27" s="430"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="219" t="s">
@@ -15327,21 +16416,21 @@
       <c r="F28" s="221" t="s">
         <v>440</v>
       </c>
-      <c r="G28" s="372" t="s">
+      <c r="G28" s="422" t="s">
         <v>108</v>
       </c>
-      <c r="H28" s="372">
+      <c r="H28" s="422">
         <v>20</v>
       </c>
-      <c r="I28" s="372">
+      <c r="I28" s="422">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J28" s="372">
+      <c r="J28" s="422">
         <f t="shared" ref="J28" si="3">IF(G28="","",IF(G28="A",8+I28,IF(G28="B",16+I28,IF(G28="C",24+I28,"invalid"))))</f>
         <v>13</v>
       </c>
-      <c r="K28" s="369">
+      <c r="K28" s="425">
         <f t="shared" si="2"/>
         <v>524288</v>
       </c>
@@ -15365,11 +16454,11 @@
       <c r="F29" s="191" t="s">
         <v>440</v>
       </c>
-      <c r="G29" s="373"/>
-      <c r="H29" s="373"/>
-      <c r="I29" s="373"/>
-      <c r="J29" s="373"/>
-      <c r="K29" s="370"/>
+      <c r="G29" s="423"/>
+      <c r="H29" s="423"/>
+      <c r="I29" s="423"/>
+      <c r="J29" s="423"/>
+      <c r="K29" s="426"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="214" t="s">
@@ -15390,11 +16479,11 @@
       <c r="F30" s="189" t="s">
         <v>440</v>
       </c>
-      <c r="G30" s="373"/>
-      <c r="H30" s="373"/>
-      <c r="I30" s="373"/>
-      <c r="J30" s="373"/>
-      <c r="K30" s="370"/>
+      <c r="G30" s="423"/>
+      <c r="H30" s="423"/>
+      <c r="I30" s="423"/>
+      <c r="J30" s="423"/>
+      <c r="K30" s="426"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="215" t="s">
@@ -15415,11 +16504,11 @@
       <c r="F31" s="193" t="s">
         <v>440</v>
       </c>
-      <c r="G31" s="373"/>
-      <c r="H31" s="373"/>
-      <c r="I31" s="373"/>
-      <c r="J31" s="373"/>
-      <c r="K31" s="370"/>
+      <c r="G31" s="423"/>
+      <c r="H31" s="423"/>
+      <c r="I31" s="423"/>
+      <c r="J31" s="423"/>
+      <c r="K31" s="426"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="214" t="s">
@@ -15440,11 +16529,11 @@
       <c r="F32" s="189" t="s">
         <v>440</v>
       </c>
-      <c r="G32" s="373"/>
-      <c r="H32" s="373"/>
-      <c r="I32" s="373"/>
-      <c r="J32" s="373"/>
-      <c r="K32" s="370"/>
+      <c r="G32" s="423"/>
+      <c r="H32" s="423"/>
+      <c r="I32" s="423"/>
+      <c r="J32" s="423"/>
+      <c r="K32" s="426"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="213" t="s">
@@ -15465,11 +16554,11 @@
       <c r="F33" s="191" t="s">
         <v>440</v>
       </c>
-      <c r="G33" s="373"/>
-      <c r="H33" s="373"/>
-      <c r="I33" s="373"/>
-      <c r="J33" s="373"/>
-      <c r="K33" s="370"/>
+      <c r="G33" s="423"/>
+      <c r="H33" s="423"/>
+      <c r="I33" s="423"/>
+      <c r="J33" s="423"/>
+      <c r="K33" s="426"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="214" t="s">
@@ -15490,11 +16579,11 @@
       <c r="F34" s="189" t="s">
         <v>440</v>
       </c>
-      <c r="G34" s="373"/>
-      <c r="H34" s="373"/>
-      <c r="I34" s="373"/>
-      <c r="J34" s="373"/>
-      <c r="K34" s="370"/>
+      <c r="G34" s="423"/>
+      <c r="H34" s="423"/>
+      <c r="I34" s="423"/>
+      <c r="J34" s="423"/>
+      <c r="K34" s="426"/>
     </row>
     <row r="35" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="216" t="s">
@@ -15515,11 +16604,11 @@
       <c r="F35" s="218" t="s">
         <v>440</v>
       </c>
-      <c r="G35" s="374"/>
-      <c r="H35" s="374"/>
-      <c r="I35" s="374"/>
-      <c r="J35" s="374"/>
-      <c r="K35" s="371"/>
+      <c r="G35" s="424"/>
+      <c r="H35" s="424"/>
+      <c r="I35" s="424"/>
+      <c r="J35" s="424"/>
+      <c r="K35" s="427"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="219" t="s">
@@ -15540,21 +16629,21 @@
       <c r="F36" s="221" t="s">
         <v>440</v>
       </c>
-      <c r="G36" s="375" t="s">
+      <c r="G36" s="419" t="s">
         <v>108</v>
       </c>
-      <c r="H36" s="375">
+      <c r="H36" s="419">
         <v>20</v>
       </c>
-      <c r="I36" s="375">
+      <c r="I36" s="419">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J36" s="375">
+      <c r="J36" s="419">
         <f t="shared" ref="J36" si="4">IF(G36="","",IF(G36="A",8+I36,IF(G36="B",16+I36,IF(G36="C",24+I36,"invalid"))))</f>
         <v>13</v>
       </c>
-      <c r="K36" s="378">
+      <c r="K36" s="428">
         <f t="shared" si="2"/>
         <v>524288</v>
       </c>
@@ -15578,11 +16667,11 @@
       <c r="F37" s="191" t="s">
         <v>440</v>
       </c>
-      <c r="G37" s="376"/>
-      <c r="H37" s="376"/>
-      <c r="I37" s="376"/>
-      <c r="J37" s="376"/>
-      <c r="K37" s="379"/>
+      <c r="G37" s="420"/>
+      <c r="H37" s="420"/>
+      <c r="I37" s="420"/>
+      <c r="J37" s="420"/>
+      <c r="K37" s="429"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="214" t="s">
@@ -15603,11 +16692,11 @@
       <c r="F38" s="189" t="s">
         <v>440</v>
       </c>
-      <c r="G38" s="376"/>
-      <c r="H38" s="376"/>
-      <c r="I38" s="376"/>
-      <c r="J38" s="376"/>
-      <c r="K38" s="379"/>
+      <c r="G38" s="420"/>
+      <c r="H38" s="420"/>
+      <c r="I38" s="420"/>
+      <c r="J38" s="420"/>
+      <c r="K38" s="429"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="215" t="s">
@@ -15628,11 +16717,11 @@
       <c r="F39" s="193" t="s">
         <v>440</v>
       </c>
-      <c r="G39" s="376"/>
-      <c r="H39" s="376"/>
-      <c r="I39" s="376"/>
-      <c r="J39" s="376"/>
-      <c r="K39" s="379"/>
+      <c r="G39" s="420"/>
+      <c r="H39" s="420"/>
+      <c r="I39" s="420"/>
+      <c r="J39" s="420"/>
+      <c r="K39" s="429"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="214" t="s">
@@ -15653,11 +16742,11 @@
       <c r="F40" s="189" t="s">
         <v>440</v>
       </c>
-      <c r="G40" s="376"/>
-      <c r="H40" s="376"/>
-      <c r="I40" s="376"/>
-      <c r="J40" s="376"/>
-      <c r="K40" s="379"/>
+      <c r="G40" s="420"/>
+      <c r="H40" s="420"/>
+      <c r="I40" s="420"/>
+      <c r="J40" s="420"/>
+      <c r="K40" s="429"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="213" t="s">
@@ -15678,11 +16767,11 @@
       <c r="F41" s="191" t="s">
         <v>440</v>
       </c>
-      <c r="G41" s="376"/>
-      <c r="H41" s="376"/>
-      <c r="I41" s="376"/>
-      <c r="J41" s="376"/>
-      <c r="K41" s="379"/>
+      <c r="G41" s="420"/>
+      <c r="H41" s="420"/>
+      <c r="I41" s="420"/>
+      <c r="J41" s="420"/>
+      <c r="K41" s="429"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="214" t="s">
@@ -15703,11 +16792,11 @@
       <c r="F42" s="189" t="s">
         <v>440</v>
       </c>
-      <c r="G42" s="376"/>
-      <c r="H42" s="376"/>
-      <c r="I42" s="376"/>
-      <c r="J42" s="376"/>
-      <c r="K42" s="379"/>
+      <c r="G42" s="420"/>
+      <c r="H42" s="420"/>
+      <c r="I42" s="420"/>
+      <c r="J42" s="420"/>
+      <c r="K42" s="429"/>
     </row>
     <row r="43" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="216" t="s">
@@ -15728,11 +16817,11 @@
       <c r="F43" s="218" t="s">
         <v>440</v>
       </c>
-      <c r="G43" s="377"/>
-      <c r="H43" s="377"/>
-      <c r="I43" s="377"/>
-      <c r="J43" s="377"/>
-      <c r="K43" s="380"/>
+      <c r="G43" s="421"/>
+      <c r="H43" s="421"/>
+      <c r="I43" s="421"/>
+      <c r="J43" s="421"/>
+      <c r="K43" s="430"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="219" t="s">
@@ -15753,21 +16842,21 @@
       <c r="F44" s="221" t="s">
         <v>440</v>
       </c>
-      <c r="G44" s="372" t="s">
+      <c r="G44" s="422" t="s">
         <v>108</v>
       </c>
-      <c r="H44" s="372">
+      <c r="H44" s="422">
         <v>20</v>
       </c>
-      <c r="I44" s="372">
+      <c r="I44" s="422">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J44" s="372">
+      <c r="J44" s="422">
         <f t="shared" ref="J44" si="5">IF(G44="","",IF(G44="A",8+I44,IF(G44="B",16+I44,IF(G44="C",24+I44,"invalid"))))</f>
         <v>13</v>
       </c>
-      <c r="K44" s="369">
+      <c r="K44" s="425">
         <f t="shared" si="2"/>
         <v>524288</v>
       </c>
@@ -15791,11 +16880,11 @@
       <c r="F45" s="191" t="s">
         <v>440</v>
       </c>
-      <c r="G45" s="373"/>
-      <c r="H45" s="373"/>
-      <c r="I45" s="373"/>
-      <c r="J45" s="373"/>
-      <c r="K45" s="370"/>
+      <c r="G45" s="423"/>
+      <c r="H45" s="423"/>
+      <c r="I45" s="423"/>
+      <c r="J45" s="423"/>
+      <c r="K45" s="426"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="214" t="s">
@@ -15816,11 +16905,11 @@
       <c r="F46" s="189" t="s">
         <v>440</v>
       </c>
-      <c r="G46" s="373"/>
-      <c r="H46" s="373"/>
-      <c r="I46" s="373"/>
-      <c r="J46" s="373"/>
-      <c r="K46" s="370"/>
+      <c r="G46" s="423"/>
+      <c r="H46" s="423"/>
+      <c r="I46" s="423"/>
+      <c r="J46" s="423"/>
+      <c r="K46" s="426"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="215" t="s">
@@ -15841,11 +16930,11 @@
       <c r="F47" s="193" t="s">
         <v>440</v>
       </c>
-      <c r="G47" s="373"/>
-      <c r="H47" s="373"/>
-      <c r="I47" s="373"/>
-      <c r="J47" s="373"/>
-      <c r="K47" s="370"/>
+      <c r="G47" s="423"/>
+      <c r="H47" s="423"/>
+      <c r="I47" s="423"/>
+      <c r="J47" s="423"/>
+      <c r="K47" s="426"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="214" t="s">
@@ -15866,11 +16955,11 @@
       <c r="F48" s="189" t="s">
         <v>440</v>
       </c>
-      <c r="G48" s="373"/>
-      <c r="H48" s="373"/>
-      <c r="I48" s="373"/>
-      <c r="J48" s="373"/>
-      <c r="K48" s="370"/>
+      <c r="G48" s="423"/>
+      <c r="H48" s="423"/>
+      <c r="I48" s="423"/>
+      <c r="J48" s="423"/>
+      <c r="K48" s="426"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="213" t="s">
@@ -15891,11 +16980,11 @@
       <c r="F49" s="191" t="s">
         <v>440</v>
       </c>
-      <c r="G49" s="373"/>
-      <c r="H49" s="373"/>
-      <c r="I49" s="373"/>
-      <c r="J49" s="373"/>
-      <c r="K49" s="370"/>
+      <c r="G49" s="423"/>
+      <c r="H49" s="423"/>
+      <c r="I49" s="423"/>
+      <c r="J49" s="423"/>
+      <c r="K49" s="426"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="214" t="s">
@@ -15916,11 +17005,11 @@
       <c r="F50" s="189" t="s">
         <v>440</v>
       </c>
-      <c r="G50" s="373"/>
-      <c r="H50" s="373"/>
-      <c r="I50" s="373"/>
-      <c r="J50" s="373"/>
-      <c r="K50" s="370"/>
+      <c r="G50" s="423"/>
+      <c r="H50" s="423"/>
+      <c r="I50" s="423"/>
+      <c r="J50" s="423"/>
+      <c r="K50" s="426"/>
     </row>
     <row r="51" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="216" t="s">
@@ -15941,11 +17030,11 @@
       <c r="F51" s="218" t="s">
         <v>440</v>
       </c>
-      <c r="G51" s="374"/>
-      <c r="H51" s="374"/>
-      <c r="I51" s="374"/>
-      <c r="J51" s="374"/>
-      <c r="K51" s="371"/>
+      <c r="G51" s="424"/>
+      <c r="H51" s="424"/>
+      <c r="I51" s="424"/>
+      <c r="J51" s="424"/>
+      <c r="K51" s="427"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G52" s="206"/>
@@ -15955,27 +17044,13 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="H36:H43"/>
-    <mergeCell ref="H44:H51"/>
-    <mergeCell ref="I44:I51"/>
-    <mergeCell ref="J44:J51"/>
-    <mergeCell ref="K44:K51"/>
-    <mergeCell ref="K36:K43"/>
-    <mergeCell ref="J36:J43"/>
-    <mergeCell ref="I36:I43"/>
-    <mergeCell ref="H20:H27"/>
-    <mergeCell ref="I20:I27"/>
-    <mergeCell ref="J20:J27"/>
-    <mergeCell ref="K20:K27"/>
-    <mergeCell ref="H28:H35"/>
-    <mergeCell ref="I28:I35"/>
-    <mergeCell ref="J28:J35"/>
-    <mergeCell ref="K28:K35"/>
-    <mergeCell ref="G20:G27"/>
-    <mergeCell ref="G28:G35"/>
-    <mergeCell ref="G36:G43"/>
-    <mergeCell ref="G44:G51"/>
-    <mergeCell ref="G16:G19"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="K4:K7"/>
+    <mergeCell ref="J4:J7"/>
+    <mergeCell ref="I4:I7"/>
+    <mergeCell ref="H4:H7"/>
+    <mergeCell ref="G4:G7"/>
     <mergeCell ref="H16:H19"/>
     <mergeCell ref="I16:I19"/>
     <mergeCell ref="J16:J19"/>
@@ -15985,13 +17060,27 @@
     <mergeCell ref="I8:I15"/>
     <mergeCell ref="J8:J15"/>
     <mergeCell ref="K8:K15"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="K4:K7"/>
-    <mergeCell ref="J4:J7"/>
-    <mergeCell ref="I4:I7"/>
-    <mergeCell ref="H4:H7"/>
-    <mergeCell ref="G4:G7"/>
+    <mergeCell ref="G20:G27"/>
+    <mergeCell ref="G28:G35"/>
+    <mergeCell ref="G36:G43"/>
+    <mergeCell ref="G44:G51"/>
+    <mergeCell ref="G16:G19"/>
+    <mergeCell ref="H20:H27"/>
+    <mergeCell ref="I20:I27"/>
+    <mergeCell ref="J20:J27"/>
+    <mergeCell ref="K20:K27"/>
+    <mergeCell ref="H28:H35"/>
+    <mergeCell ref="I28:I35"/>
+    <mergeCell ref="J28:J35"/>
+    <mergeCell ref="K28:K35"/>
+    <mergeCell ref="H36:H43"/>
+    <mergeCell ref="H44:H51"/>
+    <mergeCell ref="I44:I51"/>
+    <mergeCell ref="J44:J51"/>
+    <mergeCell ref="K44:K51"/>
+    <mergeCell ref="K36:K43"/>
+    <mergeCell ref="J36:J43"/>
+    <mergeCell ref="I36:I43"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16040,11 +17129,11 @@
       <c r="A1" t="s">
         <v>392</v>
       </c>
-      <c r="G1" s="368" t="s">
+      <c r="G1" s="434" t="s">
         <v>574</v>
       </c>
-      <c r="H1" s="368"/>
-      <c r="I1" s="368"/>
+      <c r="H1" s="434"/>
+      <c r="I1" s="434"/>
       <c r="J1" s="203" t="s">
         <v>471</v>
       </c>
@@ -16074,17 +17163,17 @@
       </c>
     </row>
     <row r="2" spans="1:29" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="387"/>
-      <c r="B2" s="387"/>
-      <c r="C2" s="387"/>
-      <c r="D2" s="387"/>
-      <c r="E2" s="387"/>
-      <c r="F2" s="387"/>
-      <c r="G2" s="365" t="s">
+      <c r="A2" s="441"/>
+      <c r="B2" s="441"/>
+      <c r="C2" s="441"/>
+      <c r="D2" s="441"/>
+      <c r="E2" s="441"/>
+      <c r="F2" s="441"/>
+      <c r="G2" s="431" t="s">
         <v>575</v>
       </c>
-      <c r="H2" s="366"/>
-      <c r="I2" s="367"/>
+      <c r="H2" s="432"/>
+      <c r="I2" s="433"/>
       <c r="J2" s="207" t="s">
         <v>445</v>
       </c>
@@ -16221,7 +17310,7 @@
         <f>IF(O4="","",32-O4)</f>
         <v>25</v>
       </c>
-      <c r="R4" s="384" t="s">
+      <c r="R4" s="438" t="s">
         <v>612</v>
       </c>
     </row>
@@ -16274,7 +17363,7 @@
         <f t="shared" ref="Q5:Q8" si="2">IF(O5="","",32-O5)</f>
         <v>26</v>
       </c>
-      <c r="R5" s="385"/>
+      <c r="R5" s="439"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -16325,7 +17414,7 @@
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="R6" s="385"/>
+      <c r="R6" s="439"/>
       <c r="AC6" s="33"/>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
@@ -16377,7 +17466,7 @@
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="R7" s="385"/>
+      <c r="R7" s="439"/>
       <c r="AC7" s="33"/>
     </row>
     <row r="8" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16429,7 +17518,7 @@
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="R8" s="386"/>
+      <c r="R8" s="440"/>
       <c r="AC8" s="33"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
@@ -16472,7 +17561,7 @@
         <f>IF(O9="","",32-O9)</f>
         <v>25</v>
       </c>
-      <c r="R9" s="381" t="s">
+      <c r="R9" s="435" t="s">
         <v>613</v>
       </c>
       <c r="AC9" s="33"/>
@@ -16514,7 +17603,7 @@
         <f>IF(O10="","",32-O10)</f>
         <v>26</v>
       </c>
-      <c r="R10" s="382"/>
+      <c r="R10" s="436"/>
       <c r="AC10" s="33"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
@@ -16572,7 +17661,7 @@
         <f>IF(O11="","",32-O11)</f>
         <v>27</v>
       </c>
-      <c r="R11" s="382"/>
+      <c r="R11" s="436"/>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -16629,7 +17718,7 @@
         <f>IF(O12="","",32-O12)</f>
         <v>29</v>
       </c>
-      <c r="R12" s="382"/>
+      <c r="R12" s="436"/>
     </row>
     <row r="13" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -16686,7 +17775,7 @@
         <f>IF(O13="","",32-O13)</f>
         <v>26</v>
       </c>
-      <c r="R13" s="383"/>
+      <c r="R13" s="437"/>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -16791,12 +17880,12 @@
       <c r="C1" s="267" t="s">
         <v>657</v>
       </c>
-      <c r="E1" s="315" t="s">
+      <c r="E1" s="357" t="s">
         <v>662</v>
       </c>
-      <c r="F1" s="315"/>
-      <c r="G1" s="315"/>
-      <c r="H1" s="315"/>
+      <c r="F1" s="357"/>
+      <c r="G1" s="357"/>
+      <c r="H1" s="357"/>
     </row>
     <row r="2" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="274" t="s">

--- a/docs/protocol-suite.xlsx
+++ b/docs/protocol-suite.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\redes\saves\ccna1-mj10\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67DCC258-0F8E-489A-8AC5-3953CFCBE184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAFF087C-19BF-44DA-8773-37D8C4080C0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="3" xr2:uid="{3415D364-6D1D-489F-8C8D-BD784F513C31}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="712">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="737">
   <si>
     <t xml:space="preserve">TCP/IP </t>
   </si>
@@ -7850,6 +7850,182 @@
   </si>
   <si>
     <t>192.168.10.255</t>
+  </si>
+  <si>
+    <t>bin</t>
+  </si>
+  <si>
+    <t>hex</t>
+  </si>
+  <si>
+    <t>oct</t>
+  </si>
+  <si>
+    <t>ter</t>
+  </si>
+  <si>
+    <t>dec</t>
+  </si>
+  <si>
+    <t>CLASES</t>
+  </si>
+  <si>
+    <t>publicas</t>
+  </si>
+  <si>
+    <t>privadas</t>
+  </si>
+  <si>
+    <t>inicio</t>
+  </si>
+  <si>
+    <t>fin</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1111111</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>111111</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>110</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>11111</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1110</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1111</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1111</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1111</t>
+    </r>
+  </si>
+  <si>
+    <t>172.16.0.0</t>
+  </si>
+  <si>
+    <t>172.31.255.255</t>
+  </si>
+  <si>
+    <t>10101100.
+00010000</t>
+  </si>
+  <si>
+    <t>10101100.
+00011111</t>
+  </si>
+  <si>
+    <t>11000000.
+10101000.
+00000000</t>
+  </si>
+  <si>
+    <t>11000000.
+10101000.
+11111111</t>
+  </si>
+  <si>
+    <t>192.168.0.0</t>
+  </si>
+  <si>
+    <t>mask</t>
+  </si>
+  <si>
+    <t>Subnetting</t>
+  </si>
+  <si>
+    <t>Revervado</t>
   </si>
 </sst>
 </file>
@@ -8171,7 +8347,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="131">
+  <borders count="133">
     <border>
       <left/>
       <right/>
@@ -9647,6 +9823,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -9657,7 +9851,7 @@
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="463">
+  <cellXfs count="507">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -10544,366 +10738,6 @@
     </xf>
     <xf numFmtId="49" fontId="7" fillId="10" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="65" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="65" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="65" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="67" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="68" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="62" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="63" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="52" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="53" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="54" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="56" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="52" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="53" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="15" borderId="100" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="118" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="15" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="28" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="24" borderId="54" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="24" borderId="55" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="59" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="60" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="28" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="24" borderId="56" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="24" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="24" borderId="57" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="9" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -10930,6 +10764,488 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="130" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="65" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="65" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="65" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="67" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="68" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="62" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="63" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="52" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="53" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="54" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="56" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="52" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="53" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="118" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="15" borderId="100" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="24" borderId="54" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="24" borderId="55" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="24" borderId="56" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="24" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="24" borderId="57" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="59" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="60" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="28" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="15" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="28" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="9" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="131" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="132" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="126" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="127" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="132" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="131" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="128" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="101" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="129" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="125" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="120" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="121" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="120" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="122" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="132" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="131" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="132" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="128" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="101" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="121" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="131" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="131" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="129" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="131" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="132" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="128" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="131" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="131" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="129" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="131" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="125" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="126" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="127" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="128" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="101" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="129" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="128" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="101" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -11521,13 +11837,13 @@
       <c r="A2" s="255" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="328" t="s">
+      <c r="B2" s="348" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="323" t="s">
+      <c r="C2" s="343" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="331" t="s">
+      <c r="D2" s="351" t="s">
         <v>23</v>
       </c>
     </row>
@@ -11535,17 +11851,17 @@
       <c r="A3" s="256" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="329"/>
-      <c r="C3" s="324"/>
-      <c r="D3" s="331"/>
+      <c r="B3" s="349"/>
+      <c r="C3" s="344"/>
+      <c r="D3" s="351"/>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="257" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="330"/>
-      <c r="C4" s="325"/>
-      <c r="D4" s="331"/>
+      <c r="B4" s="350"/>
+      <c r="C4" s="345"/>
+      <c r="D4" s="351"/>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="258" t="s">
@@ -11582,7 +11898,7 @@
       <c r="B7" s="264" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="326" t="s">
+      <c r="C7" s="346" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="253" t="s">
@@ -11596,8 +11912,8 @@
       <c r="B8" s="265" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="327"/>
-      <c r="D8" s="331" t="s">
+      <c r="C8" s="347"/>
+      <c r="D8" s="351" t="s">
         <v>20</v>
       </c>
     </row>
@@ -11611,7 +11927,7 @@
       <c r="C9" s="254" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="332"/>
+      <c r="D9" s="352"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -11650,24 +11966,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="346" t="s">
+      <c r="A2" s="353" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="347"/>
+      <c r="B2" s="354"/>
       <c r="C2" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="346" t="s">
+      <c r="E2" s="353" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="347"/>
+      <c r="F2" s="354"/>
       <c r="G2" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="346" t="s">
+      <c r="I2" s="353" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="347"/>
+      <c r="J2" s="354"/>
       <c r="K2" s="14" t="s">
         <v>42</v>
       </c>
@@ -11841,15 +12157,15 @@
       <c r="E9" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="F9" s="354" t="s">
+      <c r="F9" s="361" t="s">
         <v>67</v>
       </c>
-      <c r="G9" s="354"/>
-      <c r="I9" s="354" t="s">
+      <c r="G9" s="361"/>
+      <c r="I9" s="361" t="s">
         <v>81</v>
       </c>
-      <c r="J9" s="354"/>
-      <c r="K9" s="354"/>
+      <c r="J9" s="361"/>
+      <c r="K9" s="361"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
@@ -11865,15 +12181,15 @@
       <c r="E10" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="F10" s="349" t="s">
+      <c r="F10" s="356" t="s">
         <v>70</v>
       </c>
-      <c r="G10" s="350"/>
-      <c r="I10" s="348" t="s">
+      <c r="G10" s="357"/>
+      <c r="I10" s="355" t="s">
         <v>63</v>
       </c>
-      <c r="J10" s="349"/>
-      <c r="K10" s="350"/>
+      <c r="J10" s="356"/>
+      <c r="K10" s="357"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
@@ -11888,15 +12204,15 @@
       <c r="E11" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="355" t="s">
+      <c r="F11" s="362" t="s">
         <v>52</v>
       </c>
-      <c r="G11" s="356"/>
-      <c r="I11" s="351" t="s">
+      <c r="G11" s="363"/>
+      <c r="I11" s="358" t="s">
         <v>64</v>
       </c>
-      <c r="J11" s="352"/>
-      <c r="K11" s="353"/>
+      <c r="J11" s="359"/>
+      <c r="K11" s="360"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
@@ -11911,15 +12227,15 @@
       <c r="E12" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="F12" s="349" t="s">
+      <c r="F12" s="356" t="s">
         <v>72</v>
       </c>
-      <c r="G12" s="350"/>
-      <c r="I12" s="348" t="s">
+      <c r="G12" s="357"/>
+      <c r="I12" s="355" t="s">
         <v>65</v>
       </c>
-      <c r="J12" s="349"/>
-      <c r="K12" s="350"/>
+      <c r="J12" s="356"/>
+      <c r="K12" s="357"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
@@ -11955,94 +12271,100 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="341" t="s">
+      <c r="A17" s="372" t="s">
         <v>282</v>
       </c>
       <c r="B17" s="167" t="s">
         <v>272</v>
       </c>
-      <c r="C17" s="344" t="s">
+      <c r="C17" s="375" t="s">
         <v>273</v>
       </c>
-      <c r="D17" s="344"/>
-      <c r="E17" s="344"/>
-      <c r="F17" s="344"/>
-      <c r="G17" s="344"/>
-      <c r="H17" s="344"/>
-      <c r="I17" s="344"/>
-      <c r="J17" s="344"/>
-      <c r="K17" s="345"/>
+      <c r="D17" s="375"/>
+      <c r="E17" s="375"/>
+      <c r="F17" s="375"/>
+      <c r="G17" s="375"/>
+      <c r="H17" s="375"/>
+      <c r="I17" s="375"/>
+      <c r="J17" s="375"/>
+      <c r="K17" s="376"/>
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="342"/>
+      <c r="A18" s="373"/>
       <c r="B18" s="168" t="s">
         <v>274</v>
       </c>
-      <c r="C18" s="333" t="s">
+      <c r="C18" s="364" t="s">
         <v>275</v>
       </c>
-      <c r="D18" s="333"/>
-      <c r="E18" s="333"/>
-      <c r="F18" s="333"/>
-      <c r="G18" s="333"/>
-      <c r="H18" s="333"/>
-      <c r="I18" s="333"/>
-      <c r="J18" s="333"/>
-      <c r="K18" s="334"/>
+      <c r="D18" s="364"/>
+      <c r="E18" s="364"/>
+      <c r="F18" s="364"/>
+      <c r="G18" s="364"/>
+      <c r="H18" s="364"/>
+      <c r="I18" s="364"/>
+      <c r="J18" s="364"/>
+      <c r="K18" s="365"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="342"/>
+      <c r="A19" s="373"/>
       <c r="B19" s="169" t="s">
         <v>276</v>
       </c>
-      <c r="C19" s="335" t="s">
+      <c r="C19" s="366" t="s">
         <v>277</v>
       </c>
-      <c r="D19" s="335"/>
-      <c r="E19" s="335"/>
-      <c r="F19" s="335"/>
-      <c r="G19" s="335"/>
-      <c r="H19" s="335"/>
-      <c r="I19" s="335"/>
-      <c r="J19" s="335"/>
-      <c r="K19" s="336"/>
+      <c r="D19" s="366"/>
+      <c r="E19" s="366"/>
+      <c r="F19" s="366"/>
+      <c r="G19" s="366"/>
+      <c r="H19" s="366"/>
+      <c r="I19" s="366"/>
+      <c r="J19" s="366"/>
+      <c r="K19" s="367"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="342"/>
+      <c r="A20" s="373"/>
       <c r="B20" s="170" t="s">
         <v>278</v>
       </c>
-      <c r="C20" s="337" t="s">
+      <c r="C20" s="368" t="s">
         <v>279</v>
       </c>
-      <c r="D20" s="337"/>
-      <c r="E20" s="337"/>
-      <c r="F20" s="337"/>
-      <c r="G20" s="337"/>
-      <c r="H20" s="337"/>
-      <c r="I20" s="337"/>
-      <c r="J20" s="337"/>
-      <c r="K20" s="338"/>
+      <c r="D20" s="368"/>
+      <c r="E20" s="368"/>
+      <c r="F20" s="368"/>
+      <c r="G20" s="368"/>
+      <c r="H20" s="368"/>
+      <c r="I20" s="368"/>
+      <c r="J20" s="368"/>
+      <c r="K20" s="369"/>
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="343"/>
+      <c r="A21" s="374"/>
       <c r="B21" s="171" t="s">
         <v>280</v>
       </c>
-      <c r="C21" s="339" t="s">
+      <c r="C21" s="370" t="s">
         <v>281</v>
       </c>
-      <c r="D21" s="339"/>
-      <c r="E21" s="339"/>
-      <c r="F21" s="339"/>
-      <c r="G21" s="339"/>
-      <c r="H21" s="339"/>
-      <c r="I21" s="339"/>
-      <c r="J21" s="339"/>
-      <c r="K21" s="340"/>
+      <c r="D21" s="370"/>
+      <c r="E21" s="370"/>
+      <c r="F21" s="370"/>
+      <c r="G21" s="370"/>
+      <c r="H21" s="370"/>
+      <c r="I21" s="370"/>
+      <c r="J21" s="370"/>
+      <c r="K21" s="371"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C18:K18"/>
+    <mergeCell ref="C19:K19"/>
+    <mergeCell ref="C20:K20"/>
+    <mergeCell ref="C21:K21"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="C17:K17"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="A2:B2"/>
@@ -12054,12 +12376,6 @@
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="I9:K9"/>
-    <mergeCell ref="C18:K18"/>
-    <mergeCell ref="C19:K19"/>
-    <mergeCell ref="C20:K20"/>
-    <mergeCell ref="C21:K21"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="C17:K17"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12086,16 +12402,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="357" t="s">
+      <c r="B1" s="377" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="357"/>
-      <c r="D1" s="357"/>
-      <c r="F1" s="357" t="s">
+      <c r="C1" s="377"/>
+      <c r="D1" s="377"/>
+      <c r="F1" s="377" t="s">
         <v>104</v>
       </c>
-      <c r="G1" s="357"/>
-      <c r="H1" s="357"/>
+      <c r="G1" s="377"/>
+      <c r="H1" s="377"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="36" t="s">
@@ -12124,10 +12440,10 @@
       <c r="D3" s="146" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="366" t="s">
+      <c r="F3" s="386" t="s">
         <v>94</v>
       </c>
-      <c r="G3" s="368" t="s">
+      <c r="G3" s="388" t="s">
         <v>93</v>
       </c>
       <c r="H3" s="152" t="s">
@@ -12144,8 +12460,8 @@
       <c r="D4" s="149" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="366"/>
-      <c r="G4" s="369"/>
+      <c r="F4" s="386"/>
+      <c r="G4" s="389"/>
       <c r="H4" s="153" t="s">
         <v>60</v>
       </c>
@@ -12160,8 +12476,8 @@
       <c r="D5" s="144" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="366"/>
-      <c r="G5" s="369"/>
+      <c r="F5" s="386"/>
+      <c r="G5" s="389"/>
       <c r="H5" s="154" t="s">
         <v>61</v>
       </c>
@@ -12176,8 +12492,8 @@
       <c r="D6" s="147" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="366"/>
-      <c r="G6" s="369"/>
+      <c r="F6" s="386"/>
+      <c r="G6" s="389"/>
       <c r="H6" s="159" t="s">
         <v>62</v>
       </c>
@@ -12192,8 +12508,8 @@
       <c r="D7" s="148" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="366"/>
-      <c r="G7" s="369"/>
+      <c r="F7" s="386"/>
+      <c r="G7" s="389"/>
       <c r="H7" s="158" t="s">
         <v>99</v>
       </c>
@@ -12208,8 +12524,8 @@
       <c r="D8" s="145" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="366"/>
-      <c r="G8" s="369"/>
+      <c r="F8" s="386"/>
+      <c r="G8" s="389"/>
       <c r="H8" s="155" t="s">
         <v>103</v>
       </c>
@@ -12224,8 +12540,8 @@
       <c r="D9" s="150" t="s">
         <v>55</v>
       </c>
-      <c r="F9" s="366"/>
-      <c r="G9" s="369"/>
+      <c r="F9" s="386"/>
+      <c r="G9" s="389"/>
       <c r="H9" s="156" t="s">
         <v>97</v>
       </c>
@@ -12240,21 +12556,21 @@
       <c r="D10" s="151" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="367"/>
-      <c r="G10" s="370"/>
+      <c r="F10" s="387"/>
+      <c r="G10" s="390"/>
       <c r="H10" s="157" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="361" t="s">
+      <c r="B12" s="381" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="362"/>
-      <c r="D12" s="362"/>
-      <c r="E12" s="362"/>
-      <c r="F12" s="363"/>
+      <c r="C12" s="382"/>
+      <c r="D12" s="382"/>
+      <c r="E12" s="382"/>
+      <c r="F12" s="383"/>
       <c r="G12" s="160" t="s">
         <v>56</v>
       </c>
@@ -12263,13 +12579,13 @@
       <c r="B13" s="161" t="s">
         <v>90</v>
       </c>
-      <c r="C13" s="371" t="s">
+      <c r="C13" s="391" t="s">
         <v>89</v>
       </c>
-      <c r="D13" s="371"/>
-      <c r="E13" s="371"/>
-      <c r="F13" s="372"/>
-      <c r="G13" s="358" t="s">
+      <c r="D13" s="391"/>
+      <c r="E13" s="391"/>
+      <c r="F13" s="392"/>
+      <c r="G13" s="378" t="s">
         <v>219</v>
       </c>
       <c r="I13" s="29"/>
@@ -12278,39 +12594,39 @@
       <c r="B14" s="162" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="373" t="s">
+      <c r="C14" s="393" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="373"/>
-      <c r="E14" s="373"/>
-      <c r="F14" s="374"/>
-      <c r="G14" s="359"/>
+      <c r="D14" s="393"/>
+      <c r="E14" s="393"/>
+      <c r="F14" s="394"/>
+      <c r="G14" s="379"/>
       <c r="I14" s="29"/>
     </row>
     <row r="15" spans="1:9" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="161" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="371" t="s">
+      <c r="C15" s="391" t="s">
         <v>87</v>
       </c>
-      <c r="D15" s="371"/>
-      <c r="E15" s="371"/>
-      <c r="F15" s="372"/>
-      <c r="G15" s="359"/>
+      <c r="D15" s="391"/>
+      <c r="E15" s="391"/>
+      <c r="F15" s="392"/>
+      <c r="G15" s="379"/>
       <c r="I15" s="29"/>
     </row>
     <row r="16" spans="1:9" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="163" t="s">
         <v>91</v>
       </c>
-      <c r="C16" s="364" t="s">
+      <c r="C16" s="384" t="s">
         <v>88</v>
       </c>
-      <c r="D16" s="364"/>
-      <c r="E16" s="364"/>
-      <c r="F16" s="365"/>
-      <c r="G16" s="360"/>
+      <c r="D16" s="384"/>
+      <c r="E16" s="384"/>
+      <c r="F16" s="385"/>
+      <c r="G16" s="380"/>
       <c r="I16" s="29"/>
     </row>
     <row r="17" spans="7:7" x14ac:dyDescent="0.25">
@@ -12345,11 +12661,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC782B4E-6927-4C9C-A90D-9AC5B53DF039}">
-  <dimension ref="A1:AV24"/>
+  <dimension ref="A1:BL24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="N1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AN17" sqref="AN17"/>
+      <pane xSplit="4" topLeftCell="BG1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BL4" sqref="BL4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12365,57 +12681,69 @@
     <col min="18" max="27" width="4.28515625" customWidth="1"/>
     <col min="30" max="30" width="4.42578125" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="9.85546875" style="34" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="3" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="3.28515625" style="444" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="3.28515625" style="324" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="4.140625" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="4.5703125" bestFit="1" customWidth="1"/>
     <col min="36" max="43" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="4.42578125" style="454" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="4.42578125" style="334" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="4.7109375" customWidth="1"/>
     <col min="47" max="47" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="15" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="375" t="s">
+    <row r="1" spans="1:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="396" t="s">
         <v>220</v>
       </c>
-      <c r="B1" s="376"/>
-      <c r="C1" s="376"/>
-      <c r="D1" s="376"/>
-      <c r="F1" s="375" t="s">
+      <c r="B1" s="397"/>
+      <c r="C1" s="397"/>
+      <c r="D1" s="397"/>
+      <c r="F1" s="396" t="s">
         <v>222</v>
       </c>
-      <c r="G1" s="376"/>
-      <c r="H1" s="376"/>
-      <c r="I1" s="376"/>
-      <c r="J1" s="376"/>
-      <c r="K1" s="376"/>
-      <c r="L1" s="376"/>
-      <c r="M1" s="376"/>
-      <c r="N1" s="376"/>
-      <c r="O1" s="376"/>
-      <c r="P1" s="377"/>
-      <c r="R1" s="375" t="s">
+      <c r="G1" s="397"/>
+      <c r="H1" s="397"/>
+      <c r="I1" s="397"/>
+      <c r="J1" s="397"/>
+      <c r="K1" s="397"/>
+      <c r="L1" s="397"/>
+      <c r="M1" s="397"/>
+      <c r="N1" s="397"/>
+      <c r="O1" s="397"/>
+      <c r="P1" s="398"/>
+      <c r="R1" s="396" t="s">
         <v>223</v>
       </c>
-      <c r="S1" s="376"/>
-      <c r="T1" s="376"/>
-      <c r="U1" s="376"/>
-      <c r="V1" s="376"/>
-      <c r="W1" s="376"/>
-      <c r="X1" s="376"/>
-      <c r="Y1" s="376"/>
-      <c r="Z1" s="376"/>
-      <c r="AA1" s="377"/>
+      <c r="S1" s="397"/>
+      <c r="T1" s="397"/>
+      <c r="U1" s="397"/>
+      <c r="V1" s="397"/>
+      <c r="W1" s="397"/>
+      <c r="X1" s="397"/>
+      <c r="Y1" s="397"/>
+      <c r="Z1" s="397"/>
+      <c r="AA1" s="398"/>
       <c r="AD1" t="s">
         <v>106</v>
       </c>
       <c r="AE1" s="34" t="s">
         <v>327</v>
       </c>
-      <c r="AF1" s="442" t="s">
+      <c r="AF1" s="395" t="s">
         <v>107</v>
       </c>
-      <c r="AG1" s="442"/>
+      <c r="AG1" s="395"/>
       <c r="AJ1" s="38" t="s">
         <v>701</v>
       </c>
@@ -12440,46 +12768,67 @@
       <c r="AQ1" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="AR1" s="452"/>
-    </row>
-    <row r="2" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="382" t="s">
+      <c r="AR1" s="332"/>
+      <c r="AZ1" s="475" t="s">
+        <v>718</v>
+      </c>
+      <c r="BA1" s="467"/>
+      <c r="BB1" s="467"/>
+      <c r="BC1" s="468"/>
+      <c r="BD1" s="475" t="s">
+        <v>719</v>
+      </c>
+      <c r="BE1" s="467"/>
+      <c r="BF1" s="467"/>
+      <c r="BG1" s="468"/>
+      <c r="BH1" s="504" t="s">
+        <v>735</v>
+      </c>
+      <c r="BI1" s="505"/>
+      <c r="BJ1" s="505"/>
+      <c r="BK1" s="505"/>
+      <c r="BL1" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="2" spans="1:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="403" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="381"/>
-      <c r="C2" s="381"/>
-      <c r="D2" s="381"/>
-      <c r="F2" s="378" t="s">
+      <c r="B2" s="402"/>
+      <c r="C2" s="402"/>
+      <c r="D2" s="402"/>
+      <c r="F2" s="399" t="s">
         <v>130</v>
       </c>
-      <c r="G2" s="380"/>
-      <c r="H2" s="380"/>
-      <c r="I2" s="380"/>
-      <c r="J2" s="380"/>
-      <c r="K2" s="380"/>
-      <c r="L2" s="380"/>
-      <c r="M2" s="379"/>
+      <c r="G2" s="401"/>
+      <c r="H2" s="401"/>
+      <c r="I2" s="401"/>
+      <c r="J2" s="401"/>
+      <c r="K2" s="401"/>
+      <c r="L2" s="401"/>
+      <c r="M2" s="400"/>
       <c r="N2" s="91" t="s">
         <v>106</v>
       </c>
-      <c r="O2" s="378" t="s">
+      <c r="O2" s="399" t="s">
         <v>107</v>
       </c>
-      <c r="P2" s="379"/>
-      <c r="R2" s="378" t="s">
+      <c r="P2" s="400"/>
+      <c r="R2" s="399" t="s">
         <v>130</v>
       </c>
-      <c r="S2" s="380"/>
-      <c r="T2" s="380"/>
-      <c r="U2" s="380"/>
-      <c r="V2" s="380"/>
-      <c r="W2" s="380"/>
-      <c r="X2" s="380"/>
-      <c r="Y2" s="379"/>
-      <c r="Z2" s="378" t="s">
+      <c r="S2" s="401"/>
+      <c r="T2" s="401"/>
+      <c r="U2" s="401"/>
+      <c r="V2" s="401"/>
+      <c r="W2" s="401"/>
+      <c r="X2" s="401"/>
+      <c r="Y2" s="400"/>
+      <c r="Z2" s="399" t="s">
         <v>107</v>
       </c>
-      <c r="AA2" s="379"/>
+      <c r="AA2" s="400"/>
       <c r="AD2">
         <v>0</v>
       </c>
@@ -12489,7 +12838,7 @@
       <c r="AF2" s="199" t="s">
         <v>116</v>
       </c>
-      <c r="AG2" s="443" t="s">
+      <c r="AG2" s="323" t="s">
         <v>700</v>
       </c>
       <c r="AJ2">
@@ -12516,11 +12865,39 @@
       <c r="AQ2">
         <v>1</v>
       </c>
-      <c r="AR2" s="445" t="s">
+      <c r="AR2" s="325" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="3" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AZ2" s="476" t="s">
+        <v>720</v>
+      </c>
+      <c r="BA2" s="477"/>
+      <c r="BB2" s="478" t="s">
+        <v>721</v>
+      </c>
+      <c r="BC2" s="479"/>
+      <c r="BD2" s="478" t="s">
+        <v>720</v>
+      </c>
+      <c r="BE2" s="479"/>
+      <c r="BF2" s="487" t="s">
+        <v>721</v>
+      </c>
+      <c r="BG2" s="479"/>
+      <c r="BH2" s="326" t="s">
+        <v>446</v>
+      </c>
+      <c r="BI2" s="328" t="s">
+        <v>734</v>
+      </c>
+      <c r="BJ2" s="327" t="s">
+        <v>708</v>
+      </c>
+      <c r="BK2" s="328" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="3" spans="1:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="38" t="s">
         <v>33</v>
       </c>
@@ -12593,38 +12970,81 @@
       <c r="AF3" s="199" t="s">
         <v>116</v>
       </c>
-      <c r="AG3" s="443" t="s">
+      <c r="AG3" s="323" t="s">
         <v>685</v>
       </c>
-      <c r="AJ3" s="446">
+      <c r="AJ3" s="326">
         <v>0</v>
       </c>
-      <c r="AK3" s="447">
+      <c r="AK3" s="327">
         <v>0</v>
       </c>
-      <c r="AL3" s="447">
+      <c r="AL3" s="327">
         <v>0</v>
       </c>
-      <c r="AM3" s="447">
+      <c r="AM3" s="327">
         <v>0</v>
       </c>
-      <c r="AN3" s="446">
+      <c r="AN3" s="326">
         <v>0</v>
       </c>
-      <c r="AO3" s="447">
+      <c r="AO3" s="327">
         <v>0</v>
       </c>
-      <c r="AP3" s="447">
+      <c r="AP3" s="327">
         <v>0</v>
       </c>
-      <c r="AQ3" s="448">
+      <c r="AQ3" s="328">
         <v>0</v>
       </c>
-      <c r="AR3" s="445">
+      <c r="AR3" s="325">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AY3" s="194" t="s">
+        <v>441</v>
+      </c>
+      <c r="AZ3" s="469" t="s">
+        <v>448</v>
+      </c>
+      <c r="BA3" s="470" t="s">
+        <v>131</v>
+      </c>
+      <c r="BB3" s="469" t="s">
+        <v>722</v>
+      </c>
+      <c r="BC3" s="471">
+        <v>127255255255</v>
+      </c>
+      <c r="BD3" s="480" t="s">
+        <v>147</v>
+      </c>
+      <c r="BE3" s="488" t="s">
+        <v>146</v>
+      </c>
+      <c r="BF3" s="481" t="s">
+        <v>147</v>
+      </c>
+      <c r="BG3" s="482">
+        <v>10255255255</v>
+      </c>
+      <c r="BH3" s="469" t="s">
+        <v>150</v>
+      </c>
+      <c r="BI3" s="494" t="s">
+        <v>153</v>
+      </c>
+      <c r="BJ3" s="470">
+        <v>1</v>
+      </c>
+      <c r="BK3" s="497">
+        <f>256^3-2</f>
+        <v>16777214</v>
+      </c>
+      <c r="BL3" s="194" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:64" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="35">
         <v>1000</v>
       </c>
@@ -12699,38 +13119,81 @@
       <c r="AF4" s="199" t="s">
         <v>116</v>
       </c>
-      <c r="AG4" s="443" t="s">
+      <c r="AG4" s="323" t="s">
         <v>686</v>
       </c>
-      <c r="AJ4" s="446">
+      <c r="AJ4" s="326">
         <v>1</v>
       </c>
-      <c r="AK4" s="447">
+      <c r="AK4" s="327">
         <v>0</v>
       </c>
-      <c r="AL4" s="447">
+      <c r="AL4" s="327">
         <v>0</v>
       </c>
-      <c r="AM4" s="447">
+      <c r="AM4" s="327">
         <v>0</v>
       </c>
-      <c r="AN4" s="446">
+      <c r="AN4" s="326">
         <v>0</v>
       </c>
-      <c r="AO4" s="447">
+      <c r="AO4" s="327">
         <v>0</v>
       </c>
-      <c r="AP4" s="447">
+      <c r="AP4" s="327">
         <v>0</v>
       </c>
-      <c r="AQ4" s="448">
+      <c r="AQ4" s="328">
         <v>0</v>
       </c>
-      <c r="AR4" s="445">
+      <c r="AR4" s="325">
         <v>128</v>
       </c>
-    </row>
-    <row r="5" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AY4" s="194" t="s">
+        <v>212</v>
+      </c>
+      <c r="AZ4" s="469" t="s">
+        <v>450</v>
+      </c>
+      <c r="BA4" s="470" t="s">
+        <v>132</v>
+      </c>
+      <c r="BB4" s="469" t="s">
+        <v>723</v>
+      </c>
+      <c r="BC4" s="471">
+        <v>191255255255</v>
+      </c>
+      <c r="BD4" s="483" t="s">
+        <v>729</v>
+      </c>
+      <c r="BE4" s="489" t="s">
+        <v>727</v>
+      </c>
+      <c r="BF4" s="484" t="s">
+        <v>730</v>
+      </c>
+      <c r="BG4" s="491" t="s">
+        <v>728</v>
+      </c>
+      <c r="BH4" s="492" t="s">
+        <v>151</v>
+      </c>
+      <c r="BI4" s="495" t="s">
+        <v>154</v>
+      </c>
+      <c r="BJ4" s="470">
+        <v>16</v>
+      </c>
+      <c r="BK4" s="491">
+        <f>256^2-2</f>
+        <v>65534</v>
+      </c>
+      <c r="BL4" s="506" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:64" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="38">
         <v>3</v>
       </c>
@@ -12805,38 +13268,79 @@
       <c r="AF5" s="199" t="s">
         <v>116</v>
       </c>
-      <c r="AG5" s="443" t="s">
+      <c r="AG5" s="323" t="s">
         <v>687</v>
       </c>
-      <c r="AJ5" s="449">
+      <c r="AJ5" s="329">
         <v>0</v>
       </c>
-      <c r="AK5" s="450">
+      <c r="AK5" s="330">
         <v>1</v>
       </c>
-      <c r="AL5" s="450">
+      <c r="AL5" s="330">
         <v>1</v>
       </c>
-      <c r="AM5" s="450">
+      <c r="AM5" s="330">
         <v>1</v>
       </c>
-      <c r="AN5" s="449">
+      <c r="AN5" s="329">
         <v>1</v>
       </c>
-      <c r="AO5" s="450">
+      <c r="AO5" s="330">
         <v>1</v>
       </c>
-      <c r="AP5" s="450">
+      <c r="AP5" s="330">
         <v>1</v>
       </c>
-      <c r="AQ5" s="451">
+      <c r="AQ5" s="331">
         <v>1</v>
       </c>
-      <c r="AR5" s="453">
+      <c r="AR5" s="333">
         <v>127</v>
       </c>
-    </row>
-    <row r="6" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AY5" s="194" t="s">
+        <v>442</v>
+      </c>
+      <c r="AZ5" s="469" t="s">
+        <v>355</v>
+      </c>
+      <c r="BA5" s="470" t="s">
+        <v>133</v>
+      </c>
+      <c r="BB5" s="469" t="s">
+        <v>724</v>
+      </c>
+      <c r="BC5" s="471">
+        <v>223255255255</v>
+      </c>
+      <c r="BD5" s="485" t="s">
+        <v>731</v>
+      </c>
+      <c r="BE5" s="490" t="s">
+        <v>733</v>
+      </c>
+      <c r="BF5" s="486" t="s">
+        <v>732</v>
+      </c>
+      <c r="BG5" s="474">
+        <v>192168255255</v>
+      </c>
+      <c r="BH5" s="493" t="s">
+        <v>152</v>
+      </c>
+      <c r="BI5" s="496" t="s">
+        <v>155</v>
+      </c>
+      <c r="BJ5" s="473">
+        <v>256</v>
+      </c>
+      <c r="BK5" s="490">
+        <f>256^1-2</f>
+        <v>254</v>
+      </c>
+      <c r="BL5" s="466"/>
+    </row>
+    <row r="6" spans="1:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="33"/>
       <c r="B6" s="33"/>
       <c r="C6" s="33"/>
@@ -12903,44 +13407,72 @@
       <c r="AF6" s="199" t="s">
         <v>116</v>
       </c>
-      <c r="AG6" s="443" t="s">
+      <c r="AG6" s="323" t="s">
         <v>688</v>
       </c>
-      <c r="AJ6" s="446">
+      <c r="AJ6" s="326">
         <v>1</v>
       </c>
-      <c r="AK6" s="447">
+      <c r="AK6" s="327">
         <v>1</v>
       </c>
-      <c r="AL6" s="447">
+      <c r="AL6" s="327">
         <v>0</v>
       </c>
-      <c r="AM6" s="447">
+      <c r="AM6" s="327">
         <v>0</v>
       </c>
-      <c r="AN6" s="446">
+      <c r="AN6" s="326">
         <v>0</v>
       </c>
-      <c r="AO6" s="447">
+      <c r="AO6" s="327">
         <v>0</v>
       </c>
-      <c r="AP6" s="447">
+      <c r="AP6" s="327">
         <v>0</v>
       </c>
-      <c r="AQ6" s="448">
+      <c r="AQ6" s="328">
         <v>0</v>
       </c>
-      <c r="AR6" s="445">
+      <c r="AR6" s="325">
         <v>192</v>
       </c>
-    </row>
-    <row r="7" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="381" t="s">
+      <c r="AY6" s="194" t="s">
+        <v>443</v>
+      </c>
+      <c r="AZ6" s="469" t="s">
+        <v>467</v>
+      </c>
+      <c r="BA6" s="470" t="s">
+        <v>134</v>
+      </c>
+      <c r="BB6" s="469" t="s">
+        <v>725</v>
+      </c>
+      <c r="BC6" s="471">
+        <v>239255255255</v>
+      </c>
+      <c r="BD6" s="498" t="s">
+        <v>148</v>
+      </c>
+      <c r="BE6" s="499"/>
+      <c r="BF6" s="499"/>
+      <c r="BG6" s="499"/>
+      <c r="BH6" s="499"/>
+      <c r="BI6" s="499"/>
+      <c r="BJ6" s="499"/>
+      <c r="BK6" s="500"/>
+      <c r="BL6" s="194" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="402" t="s">
         <v>120</v>
       </c>
-      <c r="B7" s="381"/>
-      <c r="C7" s="381"/>
-      <c r="D7" s="381"/>
+      <c r="B7" s="402"/>
+      <c r="C7" s="402"/>
+      <c r="D7" s="402"/>
       <c r="F7" s="59">
         <v>1</v>
       </c>
@@ -13003,38 +13535,66 @@
       <c r="AF7" s="199" t="s">
         <v>116</v>
       </c>
-      <c r="AG7" s="443" t="s">
+      <c r="AG7" s="323" t="s">
         <v>699</v>
       </c>
-      <c r="AJ7" s="446">
+      <c r="AJ7" s="326">
         <v>1</v>
       </c>
-      <c r="AK7" s="447">
+      <c r="AK7" s="327">
         <v>0</v>
       </c>
-      <c r="AL7" s="447">
+      <c r="AL7" s="327">
         <v>1</v>
       </c>
-      <c r="AM7" s="447">
+      <c r="AM7" s="327">
         <v>0</v>
       </c>
-      <c r="AN7" s="446">
+      <c r="AN7" s="326">
         <v>1</v>
       </c>
-      <c r="AO7" s="447">
+      <c r="AO7" s="327">
         <v>0</v>
       </c>
-      <c r="AP7" s="447">
+      <c r="AP7" s="327">
         <v>0</v>
       </c>
-      <c r="AQ7" s="448">
+      <c r="AQ7" s="328">
         <v>0</v>
       </c>
-      <c r="AR7" s="445">
+      <c r="AR7" s="325">
         <v>168</v>
       </c>
-    </row>
-    <row r="8" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AY7" s="194" t="s">
+        <v>444</v>
+      </c>
+      <c r="AZ7" s="472" t="s">
+        <v>475</v>
+      </c>
+      <c r="BA7" s="473" t="s">
+        <v>135</v>
+      </c>
+      <c r="BB7" s="472" t="s">
+        <v>726</v>
+      </c>
+      <c r="BC7" s="474">
+        <v>255255255255</v>
+      </c>
+      <c r="BD7" s="501" t="s">
+        <v>149</v>
+      </c>
+      <c r="BE7" s="502"/>
+      <c r="BF7" s="502"/>
+      <c r="BG7" s="502"/>
+      <c r="BH7" s="502"/>
+      <c r="BI7" s="502"/>
+      <c r="BJ7" s="502"/>
+      <c r="BK7" s="503"/>
+      <c r="BL7" s="194" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="38" t="s">
         <v>124</v>
       </c>
@@ -13109,38 +13669,42 @@
       <c r="AF8" s="199" t="s">
         <v>116</v>
       </c>
-      <c r="AG8" s="443" t="s">
+      <c r="AG8" s="323" t="s">
         <v>689</v>
       </c>
-      <c r="AJ8" s="446">
+      <c r="AJ8" s="326">
         <v>1</v>
       </c>
-      <c r="AK8" s="447">
+      <c r="AK8" s="327">
         <v>0</v>
       </c>
-      <c r="AL8" s="447">
+      <c r="AL8" s="327">
         <v>1</v>
       </c>
-      <c r="AM8" s="447">
+      <c r="AM8" s="327">
         <v>0</v>
       </c>
-      <c r="AN8" s="446">
+      <c r="AN8" s="326">
         <v>1</v>
       </c>
-      <c r="AO8" s="447">
+      <c r="AO8" s="327">
         <v>1</v>
       </c>
-      <c r="AP8" s="447">
+      <c r="AP8" s="327">
         <v>0</v>
       </c>
-      <c r="AQ8" s="448">
+      <c r="AQ8" s="328">
         <v>0</v>
       </c>
-      <c r="AR8" s="445">
+      <c r="AR8" s="325">
         <v>172</v>
       </c>
-    </row>
-    <row r="9" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AZ8" s="466">
+        <f>256^4</f>
+        <v>4294967296</v>
+      </c>
+    </row>
+    <row r="9" spans="1:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="35">
         <v>8</v>
       </c>
@@ -13215,38 +13779,38 @@
       <c r="AF9" s="199" t="s">
         <v>116</v>
       </c>
-      <c r="AG9" s="443" t="s">
+      <c r="AG9" s="323" t="s">
         <v>690</v>
       </c>
-      <c r="AJ9" s="446">
+      <c r="AJ9" s="326">
         <v>0</v>
       </c>
-      <c r="AK9" s="447">
+      <c r="AK9" s="327">
         <v>0</v>
       </c>
-      <c r="AL9" s="447">
+      <c r="AL9" s="327">
         <v>0</v>
       </c>
-      <c r="AM9" s="447">
+      <c r="AM9" s="327">
         <v>1</v>
       </c>
-      <c r="AN9" s="446">
+      <c r="AN9" s="326">
         <v>0</v>
       </c>
-      <c r="AO9" s="447">
+      <c r="AO9" s="327">
         <v>1</v>
       </c>
-      <c r="AP9" s="447">
+      <c r="AP9" s="327">
         <v>0</v>
       </c>
-      <c r="AQ9" s="448">
+      <c r="AQ9" s="328">
         <v>0</v>
       </c>
-      <c r="AR9" s="445">
+      <c r="AR9" s="325">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="38">
         <v>1</v>
       </c>
@@ -13319,38 +13883,38 @@
       <c r="AF10" s="199" t="s">
         <v>116</v>
       </c>
-      <c r="AG10" s="443" t="s">
+      <c r="AG10" s="323" t="s">
         <v>691</v>
       </c>
-      <c r="AJ10" s="446">
+      <c r="AJ10" s="326">
         <v>0</v>
       </c>
-      <c r="AK10" s="447">
+      <c r="AK10" s="327">
         <v>0</v>
       </c>
-      <c r="AL10" s="447">
+      <c r="AL10" s="327">
         <v>0</v>
       </c>
-      <c r="AM10" s="447">
+      <c r="AM10" s="327">
         <v>1</v>
       </c>
-      <c r="AN10" s="446">
+      <c r="AN10" s="326">
         <v>1</v>
       </c>
-      <c r="AO10" s="447">
+      <c r="AO10" s="327">
         <v>0</v>
       </c>
-      <c r="AP10" s="447">
+      <c r="AP10" s="327">
         <v>0</v>
       </c>
-      <c r="AQ10" s="448">
+      <c r="AQ10" s="328">
         <v>0</v>
       </c>
-      <c r="AR10" s="445">
+      <c r="AR10" s="325">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A11" s="33"/>
       <c r="B11" s="33"/>
       <c r="C11" s="33"/>
@@ -13397,44 +13961,44 @@
       <c r="AF11" s="199" t="s">
         <v>116</v>
       </c>
-      <c r="AG11" s="443" t="s">
+      <c r="AG11" s="323" t="s">
         <v>692</v>
       </c>
-      <c r="AJ11" s="446">
+      <c r="AJ11" s="326">
         <v>1</v>
       </c>
-      <c r="AK11" s="447">
+      <c r="AK11" s="327">
         <v>1</v>
       </c>
-      <c r="AL11" s="447">
+      <c r="AL11" s="327">
         <v>1</v>
       </c>
-      <c r="AM11" s="447">
+      <c r="AM11" s="327">
         <v>1</v>
       </c>
-      <c r="AN11" s="446">
+      <c r="AN11" s="326">
         <v>1</v>
       </c>
-      <c r="AO11" s="447">
+      <c r="AO11" s="327">
         <v>1</v>
       </c>
-      <c r="AP11" s="447">
+      <c r="AP11" s="327">
         <v>1</v>
       </c>
-      <c r="AQ11" s="448">
+      <c r="AQ11" s="328">
         <v>1</v>
       </c>
-      <c r="AR11" s="445">
+      <c r="AR11" s="325">
         <v>255</v>
       </c>
     </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A12" s="381" t="s">
+    <row r="12" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A12" s="402" t="s">
         <v>125</v>
       </c>
-      <c r="B12" s="381"/>
-      <c r="C12" s="381"/>
-      <c r="D12" s="381"/>
+      <c r="B12" s="402"/>
+      <c r="C12" s="402"/>
+      <c r="D12" s="402"/>
       <c r="F12" s="58">
         <v>0</v>
       </c>
@@ -13468,6 +14032,15 @@
       <c r="P12" s="68">
         <v>19</v>
       </c>
+      <c r="R12" t="s">
+        <v>712</v>
+      </c>
+      <c r="S12">
+        <v>2</v>
+      </c>
+      <c r="T12">
+        <v>10</v>
+      </c>
       <c r="AD12">
         <v>10</v>
       </c>
@@ -13477,14 +14050,14 @@
       <c r="AF12" s="199" t="s">
         <v>116</v>
       </c>
-      <c r="AG12" s="443" t="s">
+      <c r="AG12" s="323" t="s">
         <v>693</v>
       </c>
       <c r="AT12" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A13" s="38" t="s">
         <v>129</v>
       </c>
@@ -13530,6 +14103,15 @@
       <c r="P13" s="70">
         <v>20</v>
       </c>
+      <c r="R13" t="s">
+        <v>713</v>
+      </c>
+      <c r="S13">
+        <v>16</v>
+      </c>
+      <c r="T13">
+        <v>10</v>
+      </c>
       <c r="AD13">
         <v>11</v>
       </c>
@@ -13539,34 +14121,34 @@
       <c r="AF13" s="199" t="s">
         <v>116</v>
       </c>
-      <c r="AG13" s="443" t="s">
+      <c r="AG13" s="323" t="s">
         <v>694</v>
       </c>
-      <c r="AJ13" s="455">
+      <c r="AJ13" s="335">
         <v>1</v>
       </c>
-      <c r="AK13" s="456">
+      <c r="AK13" s="336">
         <v>1</v>
       </c>
-      <c r="AL13" s="456">
+      <c r="AL13" s="336">
         <v>0</v>
       </c>
-      <c r="AM13" s="457">
+      <c r="AM13" s="337">
         <v>0</v>
       </c>
-      <c r="AN13" s="456">
+      <c r="AN13" s="336">
         <v>0</v>
       </c>
-      <c r="AO13" s="456">
+      <c r="AO13" s="336">
         <v>0</v>
       </c>
-      <c r="AP13" s="456">
+      <c r="AP13" s="336">
         <v>0</v>
       </c>
-      <c r="AQ13" s="456">
+      <c r="AQ13" s="336">
         <v>0</v>
       </c>
-      <c r="AR13" s="452">
+      <c r="AR13" s="332">
         <v>192</v>
       </c>
       <c r="AS13" t="s">
@@ -13582,7 +14164,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A14" s="35">
         <f>16^3</f>
         <v>4096</v>
@@ -13629,6 +14211,15 @@
       <c r="P14" s="68">
         <v>40</v>
       </c>
+      <c r="R14" t="s">
+        <v>714</v>
+      </c>
+      <c r="S14">
+        <v>8</v>
+      </c>
+      <c r="T14">
+        <v>10</v>
+      </c>
       <c r="AD14">
         <v>12</v>
       </c>
@@ -13638,34 +14229,34 @@
       <c r="AF14" s="199" t="s">
         <v>116</v>
       </c>
-      <c r="AG14" s="443" t="s">
+      <c r="AG14" s="323" t="s">
         <v>695</v>
       </c>
-      <c r="AJ14" s="458">
+      <c r="AJ14" s="338">
         <v>1</v>
       </c>
-      <c r="AK14" s="459">
+      <c r="AK14" s="339">
         <v>1</v>
       </c>
-      <c r="AL14" s="459">
+      <c r="AL14" s="339">
         <v>1</v>
       </c>
-      <c r="AM14" s="460">
+      <c r="AM14" s="340">
         <v>1</v>
       </c>
-      <c r="AN14" s="459">
+      <c r="AN14" s="339">
         <v>1</v>
       </c>
-      <c r="AO14" s="459">
+      <c r="AO14" s="339">
         <v>1</v>
       </c>
-      <c r="AP14" s="459">
+      <c r="AP14" s="339">
         <v>1</v>
       </c>
-      <c r="AQ14" s="459">
+      <c r="AQ14" s="339">
         <v>1</v>
       </c>
-      <c r="AR14" s="461">
+      <c r="AR14" s="341">
         <v>255</v>
       </c>
       <c r="AS14" t="s">
@@ -13678,7 +14269,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="15" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="38">
         <v>0</v>
       </c>
@@ -13724,6 +14315,15 @@
       <c r="P15" s="72" t="s">
         <v>115</v>
       </c>
+      <c r="R15" t="s">
+        <v>715</v>
+      </c>
+      <c r="S15">
+        <v>3</v>
+      </c>
+      <c r="T15">
+        <v>10</v>
+      </c>
       <c r="AD15">
         <v>13</v>
       </c>
@@ -13733,34 +14333,34 @@
       <c r="AF15" s="199" t="s">
         <v>116</v>
       </c>
-      <c r="AG15" s="443" t="s">
+      <c r="AG15" s="323" t="s">
         <v>696</v>
       </c>
-      <c r="AJ15" s="455">
+      <c r="AJ15" s="335">
         <v>1</v>
       </c>
-      <c r="AK15" s="456">
+      <c r="AK15" s="336">
         <v>0</v>
       </c>
-      <c r="AL15" s="456">
+      <c r="AL15" s="336">
         <v>1</v>
       </c>
-      <c r="AM15" s="457">
+      <c r="AM15" s="337">
         <v>0</v>
       </c>
-      <c r="AN15" s="456">
+      <c r="AN15" s="336">
         <v>1</v>
       </c>
-      <c r="AO15" s="456">
+      <c r="AO15" s="336">
         <v>0</v>
       </c>
-      <c r="AP15" s="456">
+      <c r="AP15" s="336">
         <v>0</v>
       </c>
-      <c r="AQ15" s="456">
+      <c r="AQ15" s="336">
         <v>0</v>
       </c>
-      <c r="AR15" s="452">
+      <c r="AR15" s="332">
         <v>168</v>
       </c>
       <c r="AS15" t="s">
@@ -13773,7 +14373,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:64" x14ac:dyDescent="0.25">
       <c r="F16" s="58">
         <v>1</v>
       </c>
@@ -13807,6 +14407,15 @@
       <c r="P16" s="32" t="s">
         <v>312</v>
       </c>
+      <c r="R16" t="s">
+        <v>716</v>
+      </c>
+      <c r="S16">
+        <v>10</v>
+      </c>
+      <c r="T16">
+        <v>10</v>
+      </c>
       <c r="AD16">
         <v>14</v>
       </c>
@@ -13816,34 +14425,34 @@
       <c r="AF16" s="199" t="s">
         <v>116</v>
       </c>
-      <c r="AG16" s="443" t="s">
+      <c r="AG16" s="323" t="s">
         <v>697</v>
       </c>
-      <c r="AJ16" s="458">
+      <c r="AJ16" s="338">
         <v>1</v>
       </c>
-      <c r="AK16" s="459">
+      <c r="AK16" s="339">
         <v>1</v>
       </c>
-      <c r="AL16" s="459">
+      <c r="AL16" s="339">
         <v>1</v>
       </c>
-      <c r="AM16" s="460">
+      <c r="AM16" s="340">
         <v>1</v>
       </c>
-      <c r="AN16" s="459">
+      <c r="AN16" s="339">
         <v>1</v>
       </c>
-      <c r="AO16" s="459">
+      <c r="AO16" s="339">
         <v>1</v>
       </c>
-      <c r="AP16" s="459">
+      <c r="AP16" s="339">
         <v>1</v>
       </c>
-      <c r="AQ16" s="459">
+      <c r="AQ16" s="339">
         <v>1</v>
       </c>
-      <c r="AR16" s="461">
+      <c r="AR16" s="341">
         <v>255</v>
       </c>
       <c r="AS16" t="s">
@@ -13856,7 +14465,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="17" spans="5:45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:45" x14ac:dyDescent="0.25">
       <c r="Q17" s="37"/>
       <c r="AD17">
         <v>15</v>
@@ -13867,41 +14476,41 @@
       <c r="AF17" s="199" t="s">
         <v>116</v>
       </c>
-      <c r="AG17" s="443" t="s">
+      <c r="AG17" s="323" t="s">
         <v>698</v>
       </c>
-      <c r="AJ17" s="455">
+      <c r="AJ17" s="335">
         <v>0</v>
       </c>
-      <c r="AK17" s="456">
+      <c r="AK17" s="336">
         <v>0</v>
       </c>
-      <c r="AL17" s="456">
+      <c r="AL17" s="336">
         <v>0</v>
       </c>
-      <c r="AM17" s="457">
+      <c r="AM17" s="337">
         <v>0</v>
       </c>
-      <c r="AN17" s="456">
+      <c r="AN17" s="336">
         <v>1</v>
       </c>
-      <c r="AO17" s="456">
+      <c r="AO17" s="336">
         <v>0</v>
       </c>
-      <c r="AP17" s="456">
+      <c r="AP17" s="336">
         <v>1</v>
       </c>
-      <c r="AQ17" s="456">
+      <c r="AQ17" s="336">
         <v>0</v>
       </c>
-      <c r="AR17" s="452">
+      <c r="AR17" s="332">
         <v>10</v>
       </c>
       <c r="AS17" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="18" spans="5:45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:45" x14ac:dyDescent="0.25">
       <c r="AD18">
         <v>16</v>
       </c>
@@ -13911,41 +14520,44 @@
       <c r="AF18" s="199" t="s">
         <v>116</v>
       </c>
-      <c r="AG18" s="443">
+      <c r="AG18" s="323">
         <v>10</v>
       </c>
-      <c r="AJ18" s="458">
+      <c r="AJ18" s="338">
         <v>1</v>
       </c>
-      <c r="AK18" s="459">
+      <c r="AK18" s="339">
         <v>1</v>
       </c>
-      <c r="AL18" s="459">
+      <c r="AL18" s="339">
         <v>1</v>
       </c>
-      <c r="AM18" s="460">
+      <c r="AM18" s="340">
         <v>1</v>
       </c>
-      <c r="AN18" s="459">
+      <c r="AN18" s="339">
         <v>1</v>
       </c>
-      <c r="AO18" s="459">
+      <c r="AO18" s="339">
         <v>1</v>
       </c>
-      <c r="AP18" s="459">
+      <c r="AP18" s="339">
         <v>1</v>
       </c>
-      <c r="AQ18" s="459">
+      <c r="AQ18" s="339">
         <v>1</v>
       </c>
-      <c r="AR18" s="461">
+      <c r="AR18" s="341">
         <v>255</v>
       </c>
       <c r="AS18" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="19" spans="5:45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>717</v>
+      </c>
       <c r="E19" s="33"/>
       <c r="Q19" s="33"/>
       <c r="AD19">
@@ -13960,38 +14572,38 @@
       <c r="AG19" s="198">
         <v>63</v>
       </c>
-      <c r="AJ19" s="455">
+      <c r="AJ19" s="335">
         <v>0</v>
       </c>
-      <c r="AK19" s="456">
+      <c r="AK19" s="336">
         <v>0</v>
       </c>
-      <c r="AL19" s="456">
+      <c r="AL19" s="336">
         <v>1</v>
       </c>
-      <c r="AM19" s="457">
+      <c r="AM19" s="337">
         <v>1</v>
       </c>
-      <c r="AN19" s="456">
+      <c r="AN19" s="336">
         <v>0</v>
       </c>
-      <c r="AO19" s="456">
+      <c r="AO19" s="336">
         <v>1</v>
       </c>
-      <c r="AP19" s="456">
+      <c r="AP19" s="336">
         <v>1</v>
       </c>
-      <c r="AQ19" s="456">
+      <c r="AQ19" s="336">
         <v>0</v>
       </c>
-      <c r="AR19" s="452">
+      <c r="AR19" s="332">
         <v>54</v>
       </c>
-      <c r="AS19" s="462">
+      <c r="AS19" s="342">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="5:45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:45" x14ac:dyDescent="0.25">
       <c r="AD20">
         <v>100</v>
       </c>
@@ -14001,41 +14613,41 @@
       <c r="AF20" t="s">
         <v>116</v>
       </c>
-      <c r="AG20" s="444">
+      <c r="AG20" s="324">
         <v>64</v>
       </c>
-      <c r="AJ20" s="458">
+      <c r="AJ20" s="338">
         <v>0</v>
       </c>
-      <c r="AK20" s="459">
+      <c r="AK20" s="339">
         <v>0</v>
       </c>
-      <c r="AL20" s="459">
+      <c r="AL20" s="339">
         <v>0</v>
       </c>
-      <c r="AM20" s="460">
+      <c r="AM20" s="340">
         <v>0</v>
       </c>
-      <c r="AN20" s="459">
+      <c r="AN20" s="339">
         <v>0</v>
       </c>
-      <c r="AO20" s="459">
+      <c r="AO20" s="339">
         <v>0</v>
       </c>
-      <c r="AP20" s="459">
+      <c r="AP20" s="339">
         <v>0</v>
       </c>
-      <c r="AQ20" s="459">
+      <c r="AQ20" s="339">
         <v>0</v>
       </c>
-      <c r="AR20" s="461">
+      <c r="AR20" s="341">
         <v>0</v>
       </c>
-      <c r="AS20" s="462">
+      <c r="AS20" s="342">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="5:45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:45" x14ac:dyDescent="0.25">
       <c r="AD21">
         <v>255</v>
       </c>
@@ -14045,33 +14657,65 @@
       <c r="AF21" t="s">
         <v>116</v>
       </c>
-      <c r="AG21" s="444" t="s">
+      <c r="AG21" s="324" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="23" spans="5:45" x14ac:dyDescent="0.25">
+      <c r="AJ21" s="465"/>
+      <c r="AK21" s="463"/>
+      <c r="AL21" s="463"/>
+      <c r="AM21" s="464"/>
+      <c r="AN21" s="463">
+        <v>8</v>
+      </c>
+      <c r="AO21" s="463">
+        <v>4</v>
+      </c>
+      <c r="AP21" s="463">
+        <v>2</v>
+      </c>
+      <c r="AQ21" s="463">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AJ22" s="465"/>
+      <c r="AK22" s="463"/>
+      <c r="AL22" s="463"/>
+      <c r="AM22" s="464"/>
+    </row>
+    <row r="23" spans="1:45" x14ac:dyDescent="0.25">
       <c r="N23" s="92"/>
       <c r="Q23" s="33"/>
     </row>
-    <row r="24" spans="5:45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:45" x14ac:dyDescent="0.25">
       <c r="N24" s="92"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="R1:AA1"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="R2:Y2"/>
-    <mergeCell ref="Z2:AA2"/>
+  <mergeCells count="20">
+    <mergeCell ref="BD1:BG1"/>
+    <mergeCell ref="AZ1:BC1"/>
+    <mergeCell ref="BD6:BK6"/>
+    <mergeCell ref="BD7:BK7"/>
+    <mergeCell ref="BH1:BK1"/>
+    <mergeCell ref="AZ2:BA2"/>
+    <mergeCell ref="BB2:BC2"/>
+    <mergeCell ref="BD2:BE2"/>
+    <mergeCell ref="BF2:BG2"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="F2:M2"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:P1"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="R1:AA1"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="R2:Y2"/>
+    <mergeCell ref="Z2:AA2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -14079,11 +14723,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{736925F0-C296-4BA5-A90C-9FBAD4DAF0DB}">
   <dimension ref="A1:AG26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="9" ySplit="8" topLeftCell="J26" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="9" ySplit="8" topLeftCell="J9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14110,28 +14754,28 @@
       <c r="A1" s="94" t="s">
         <v>238</v>
       </c>
-      <c r="B1" s="383" t="s">
+      <c r="B1" s="414" t="s">
         <v>230</v>
       </c>
-      <c r="C1" s="383"/>
-      <c r="D1" s="383"/>
-      <c r="E1" s="383"/>
-      <c r="F1" s="384" t="s">
+      <c r="C1" s="414"/>
+      <c r="D1" s="414"/>
+      <c r="E1" s="414"/>
+      <c r="F1" s="415" t="s">
         <v>231</v>
       </c>
-      <c r="G1" s="385"/>
-      <c r="H1" s="385"/>
-      <c r="I1" s="385"/>
-      <c r="J1" s="385"/>
-      <c r="K1" s="385"/>
-      <c r="L1" s="385"/>
-      <c r="M1" s="385"/>
-      <c r="N1" s="386">
+      <c r="G1" s="416"/>
+      <c r="H1" s="416"/>
+      <c r="I1" s="416"/>
+      <c r="J1" s="416"/>
+      <c r="K1" s="416"/>
+      <c r="L1" s="416"/>
+      <c r="M1" s="416"/>
+      <c r="N1" s="417">
         <f>2^32</f>
         <v>4294967296</v>
       </c>
-      <c r="O1" s="386"/>
-      <c r="P1" s="386"/>
+      <c r="O1" s="417"/>
+      <c r="P1" s="417"/>
       <c r="Q1" s="299" t="s">
         <v>239</v>
       </c>
@@ -14141,34 +14785,34 @@
       <c r="A2" s="94" t="s">
         <v>156</v>
       </c>
-      <c r="B2" s="387" t="s">
+      <c r="B2" s="412" t="s">
         <v>225</v>
       </c>
-      <c r="C2" s="387"/>
-      <c r="D2" s="387" t="s">
+      <c r="C2" s="412"/>
+      <c r="D2" s="412" t="s">
         <v>130</v>
       </c>
-      <c r="E2" s="387"/>
-      <c r="F2" s="388" t="s">
+      <c r="E2" s="412"/>
+      <c r="F2" s="418" t="s">
         <v>225</v>
       </c>
-      <c r="G2" s="387"/>
-      <c r="H2" s="387" t="s">
+      <c r="G2" s="412"/>
+      <c r="H2" s="412" t="s">
         <v>130</v>
       </c>
-      <c r="I2" s="387"/>
-      <c r="J2" s="387" t="s">
+      <c r="I2" s="412"/>
+      <c r="J2" s="412" t="s">
         <v>226</v>
       </c>
-      <c r="K2" s="387"/>
-      <c r="L2" s="387"/>
-      <c r="M2" s="387"/>
-      <c r="N2" s="387" t="s">
+      <c r="K2" s="412"/>
+      <c r="L2" s="412"/>
+      <c r="M2" s="412"/>
+      <c r="N2" s="412" t="s">
         <v>265</v>
       </c>
-      <c r="O2" s="387"/>
-      <c r="P2" s="387"/>
-      <c r="Q2" s="397"/>
+      <c r="O2" s="412"/>
+      <c r="P2" s="412"/>
+      <c r="Q2" s="413"/>
       <c r="R2" s="288"/>
     </row>
     <row r="3" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -14400,18 +15044,18 @@
       <c r="E7" s="225" t="s">
         <v>143</v>
       </c>
-      <c r="F7" s="389" t="s">
+      <c r="F7" s="404" t="s">
         <v>148</v>
       </c>
-      <c r="G7" s="390"/>
-      <c r="H7" s="391"/>
-      <c r="I7" s="392"/>
-      <c r="J7" s="390" t="s">
+      <c r="G7" s="405"/>
+      <c r="H7" s="406"/>
+      <c r="I7" s="407"/>
+      <c r="J7" s="405" t="s">
         <v>148</v>
       </c>
-      <c r="K7" s="390"/>
-      <c r="L7" s="391"/>
-      <c r="M7" s="391"/>
+      <c r="K7" s="405"/>
+      <c r="L7" s="406"/>
+      <c r="M7" s="406"/>
       <c r="N7" s="178" t="s">
         <v>134</v>
       </c>
@@ -14442,18 +15086,18 @@
       <c r="E8" s="281" t="s">
         <v>145</v>
       </c>
-      <c r="F8" s="393" t="s">
+      <c r="F8" s="408" t="s">
         <v>149</v>
       </c>
-      <c r="G8" s="394"/>
-      <c r="H8" s="394"/>
-      <c r="I8" s="395"/>
-      <c r="J8" s="396" t="s">
+      <c r="G8" s="409"/>
+      <c r="H8" s="409"/>
+      <c r="I8" s="410"/>
+      <c r="J8" s="411" t="s">
         <v>149</v>
       </c>
-      <c r="K8" s="396"/>
-      <c r="L8" s="396"/>
-      <c r="M8" s="396"/>
+      <c r="K8" s="411"/>
+      <c r="L8" s="411"/>
+      <c r="M8" s="411"/>
       <c r="N8" s="282" t="s">
         <v>135</v>
       </c>
@@ -15182,11 +15826,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="N2:Q2"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:M1"/>
     <mergeCell ref="N1:P1"/>
@@ -15195,6 +15834,11 @@
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="N2:Q2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15227,45 +15871,45 @@
       <c r="A1" s="97" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="398">
+      <c r="B1" s="434">
         <f>2^128</f>
         <v>3.4028236692093846E+38</v>
       </c>
-      <c r="C1" s="398"/>
-      <c r="D1" s="398"/>
-      <c r="E1" s="398"/>
-      <c r="F1" s="398"/>
-      <c r="G1" s="398"/>
-      <c r="H1" s="398"/>
-      <c r="I1" s="398"/>
+      <c r="C1" s="434"/>
+      <c r="D1" s="434"/>
+      <c r="E1" s="434"/>
+      <c r="F1" s="434"/>
+      <c r="G1" s="434"/>
+      <c r="H1" s="434"/>
+      <c r="I1" s="434"/>
       <c r="J1" s="97" t="s">
         <v>240</v>
       </c>
-      <c r="K1" s="399" t="s">
+      <c r="K1" s="435" t="s">
         <v>229</v>
       </c>
-      <c r="L1" s="399"/>
-      <c r="M1" s="399"/>
-      <c r="N1" s="399"/>
+      <c r="L1" s="435"/>
+      <c r="M1" s="435"/>
+      <c r="N1" s="435"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="120" t="s">
         <v>177</v>
       </c>
-      <c r="B2" s="400" t="s">
+      <c r="B2" s="436" t="s">
         <v>173</v>
       </c>
-      <c r="C2" s="401"/>
-      <c r="D2" s="401"/>
+      <c r="C2" s="437"/>
+      <c r="D2" s="437"/>
       <c r="E2" s="98" t="s">
         <v>253</v>
       </c>
-      <c r="F2" s="401" t="s">
+      <c r="F2" s="437" t="s">
         <v>174</v>
       </c>
-      <c r="G2" s="401"/>
-      <c r="H2" s="401"/>
-      <c r="I2" s="402"/>
+      <c r="G2" s="437"/>
+      <c r="H2" s="437"/>
+      <c r="I2" s="438"/>
       <c r="J2" s="99" t="s">
         <v>175</v>
       </c>
@@ -15386,11 +16030,11 @@
       <c r="E5" s="118" t="s">
         <v>182</v>
       </c>
-      <c r="F5" s="403" t="s">
+      <c r="F5" s="439" t="s">
         <v>184</v>
       </c>
-      <c r="G5" s="403"/>
-      <c r="H5" s="403"/>
+      <c r="G5" s="439"/>
+      <c r="H5" s="439"/>
       <c r="I5" s="119">
         <v>1</v>
       </c>
@@ -15420,12 +16064,12 @@
       <c r="B7" s="103" t="s">
         <v>263</v>
       </c>
-      <c r="C7" s="410" t="s">
+      <c r="C7" s="431" t="s">
         <v>248</v>
       </c>
-      <c r="D7" s="410"/>
-      <c r="E7" s="410"/>
-      <c r="F7" s="411"/>
+      <c r="D7" s="431"/>
+      <c r="E7" s="431"/>
+      <c r="F7" s="432"/>
       <c r="G7" s="127" t="s">
         <v>261</v>
       </c>
@@ -15440,10 +16084,10 @@
       <c r="C8" s="123" t="s">
         <v>262</v>
       </c>
-      <c r="D8" s="412" t="s">
+      <c r="D8" s="433" t="s">
         <v>249</v>
       </c>
-      <c r="E8" s="412"/>
+      <c r="E8" s="433"/>
       <c r="F8" s="121" t="s">
         <v>250</v>
       </c>
@@ -15502,114 +16146,114 @@
       <c r="A12" s="130" t="s">
         <v>263</v>
       </c>
-      <c r="B12" s="407" t="s">
+      <c r="B12" s="428" t="s">
         <v>248</v>
       </c>
-      <c r="C12" s="408"/>
-      <c r="D12" s="409"/>
-      <c r="E12" s="407" t="s">
+      <c r="C12" s="429"/>
+      <c r="D12" s="430"/>
+      <c r="E12" s="428" t="s">
         <v>264</v>
       </c>
-      <c r="F12" s="408"/>
-      <c r="G12" s="409"/>
+      <c r="F12" s="429"/>
+      <c r="G12" s="430"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="128" t="s">
         <v>188</v>
       </c>
-      <c r="B13" s="404" t="s">
+      <c r="B13" s="419" t="s">
         <v>190</v>
       </c>
-      <c r="C13" s="405"/>
-      <c r="D13" s="406"/>
-      <c r="E13" s="405" t="s">
+      <c r="C13" s="420"/>
+      <c r="D13" s="421"/>
+      <c r="E13" s="420" t="s">
         <v>191</v>
       </c>
-      <c r="F13" s="405"/>
-      <c r="G13" s="406"/>
+      <c r="F13" s="420"/>
+      <c r="G13" s="421"/>
       <c r="H13" s="37"/>
       <c r="I13" s="37"/>
       <c r="J13" s="37"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="129"/>
-      <c r="B14" s="413"/>
-      <c r="C14" s="414"/>
-      <c r="D14" s="415"/>
-      <c r="E14" s="414"/>
-      <c r="F14" s="414"/>
-      <c r="G14" s="415"/>
+      <c r="B14" s="422"/>
+      <c r="C14" s="423"/>
+      <c r="D14" s="424"/>
+      <c r="E14" s="423"/>
+      <c r="F14" s="423"/>
+      <c r="G14" s="424"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="128"/>
-      <c r="B15" s="404"/>
-      <c r="C15" s="405"/>
-      <c r="D15" s="406"/>
-      <c r="E15" s="405"/>
-      <c r="F15" s="405"/>
-      <c r="G15" s="406"/>
+      <c r="B15" s="419"/>
+      <c r="C15" s="420"/>
+      <c r="D15" s="421"/>
+      <c r="E15" s="420"/>
+      <c r="F15" s="420"/>
+      <c r="G15" s="421"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="129"/>
-      <c r="B16" s="413"/>
-      <c r="C16" s="414"/>
-      <c r="D16" s="415"/>
-      <c r="E16" s="414"/>
-      <c r="F16" s="414"/>
-      <c r="G16" s="415"/>
+      <c r="B16" s="422"/>
+      <c r="C16" s="423"/>
+      <c r="D16" s="424"/>
+      <c r="E16" s="423"/>
+      <c r="F16" s="423"/>
+      <c r="G16" s="424"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="128"/>
-      <c r="B17" s="404"/>
-      <c r="C17" s="405"/>
-      <c r="D17" s="406"/>
-      <c r="E17" s="405"/>
-      <c r="F17" s="405"/>
-      <c r="G17" s="406"/>
+      <c r="B17" s="419"/>
+      <c r="C17" s="420"/>
+      <c r="D17" s="421"/>
+      <c r="E17" s="420"/>
+      <c r="F17" s="420"/>
+      <c r="G17" s="421"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="129"/>
-      <c r="B18" s="413"/>
-      <c r="C18" s="414"/>
-      <c r="D18" s="415"/>
-      <c r="E18" s="414"/>
-      <c r="F18" s="414"/>
-      <c r="G18" s="415"/>
+      <c r="B18" s="422"/>
+      <c r="C18" s="423"/>
+      <c r="D18" s="424"/>
+      <c r="E18" s="423"/>
+      <c r="F18" s="423"/>
+      <c r="G18" s="424"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="116"/>
-      <c r="B19" s="416"/>
-      <c r="C19" s="417"/>
-      <c r="D19" s="418"/>
-      <c r="E19" s="417"/>
-      <c r="F19" s="417"/>
-      <c r="G19" s="418"/>
+      <c r="B19" s="425"/>
+      <c r="C19" s="426"/>
+      <c r="D19" s="427"/>
+      <c r="E19" s="426"/>
+      <c r="F19" s="426"/>
+      <c r="G19" s="427"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="E17:G17"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="E18:G18"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="E19:G19"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="F5:H5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15644,11 +16288,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="434" t="s">
+      <c r="A1" s="443" t="s">
         <v>320</v>
       </c>
-      <c r="B1" s="434"/>
-      <c r="C1" s="434"/>
+      <c r="B1" s="443"/>
+      <c r="C1" s="443"/>
       <c r="D1" s="203" t="s">
         <v>471</v>
       </c>
@@ -15676,11 +16320,11 @@
       <c r="P1" s="34"/>
     </row>
     <row r="2" spans="1:16" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="431" t="s">
+      <c r="A2" s="440" t="s">
         <v>470</v>
       </c>
-      <c r="B2" s="432"/>
-      <c r="C2" s="433"/>
+      <c r="B2" s="441"/>
+      <c r="C2" s="442"/>
       <c r="D2" s="207" t="s">
         <v>321</v>
       </c>
@@ -15764,21 +16408,21 @@
       <c r="F4" s="221" t="s">
         <v>326</v>
       </c>
-      <c r="G4" s="422" t="s">
+      <c r="G4" s="447" t="s">
         <v>108</v>
       </c>
-      <c r="H4" s="422">
+      <c r="H4" s="447">
         <v>3</v>
       </c>
-      <c r="I4" s="422">
+      <c r="I4" s="447">
         <f>IF(H4="","",IF(H4&lt;=2,1,IF(H4&lt;=4,2,IF(H4&lt;=8,3,IF(H4&lt;=16,4,IF(H4&lt;=32,5,IF(H4&lt;=64,6,IF(H4&lt;=128,7,8))))))))</f>
         <v>2</v>
       </c>
-      <c r="J4" s="422">
+      <c r="J4" s="447">
         <f>IF(G4="","",IF(G4="A",8+I4,IF(G4="B",16+I4,IF(G4="C",24+I4,"invalid"))))</f>
         <v>10</v>
       </c>
-      <c r="K4" s="425">
+      <c r="K4" s="444">
         <f>IF(J4="","",2^(32-J4))</f>
         <v>4194304</v>
       </c>
@@ -15802,11 +16446,11 @@
       <c r="F5" s="191" t="s">
         <v>326</v>
       </c>
-      <c r="G5" s="423"/>
-      <c r="H5" s="423"/>
-      <c r="I5" s="423"/>
-      <c r="J5" s="423"/>
-      <c r="K5" s="426"/>
+      <c r="G5" s="448"/>
+      <c r="H5" s="448"/>
+      <c r="I5" s="448"/>
+      <c r="J5" s="448"/>
+      <c r="K5" s="445"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="214" t="s">
@@ -15827,11 +16471,11 @@
       <c r="F6" s="189" t="s">
         <v>326</v>
       </c>
-      <c r="G6" s="423"/>
-      <c r="H6" s="423"/>
-      <c r="I6" s="423"/>
-      <c r="J6" s="423"/>
-      <c r="K6" s="426"/>
+      <c r="G6" s="448"/>
+      <c r="H6" s="448"/>
+      <c r="I6" s="448"/>
+      <c r="J6" s="448"/>
+      <c r="K6" s="445"/>
     </row>
     <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="216" t="s">
@@ -15852,11 +16496,11 @@
       <c r="F7" s="218" t="s">
         <v>326</v>
       </c>
-      <c r="G7" s="424"/>
-      <c r="H7" s="424"/>
-      <c r="I7" s="424"/>
-      <c r="J7" s="424"/>
-      <c r="K7" s="427"/>
+      <c r="G7" s="449"/>
+      <c r="H7" s="449"/>
+      <c r="I7" s="449"/>
+      <c r="J7" s="449"/>
+      <c r="K7" s="446"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="219" t="s">
@@ -15877,21 +16521,21 @@
       <c r="F8" s="221" t="s">
         <v>389</v>
       </c>
-      <c r="G8" s="419" t="s">
+      <c r="G8" s="450" t="s">
         <v>109</v>
       </c>
-      <c r="H8" s="419">
+      <c r="H8" s="450">
         <v>5</v>
       </c>
-      <c r="I8" s="419">
+      <c r="I8" s="450">
         <f t="shared" ref="I8:I44" si="0">IF(H8="","",IF(H8&lt;=2,1,IF(H8&lt;=4,2,IF(H8&lt;=8,3,IF(H8&lt;=16,4,IF(H8&lt;=32,5,IF(H8&lt;=64,6,IF(H8&lt;=128,7,8))))))))</f>
         <v>3</v>
       </c>
-      <c r="J8" s="419">
+      <c r="J8" s="450">
         <f t="shared" ref="J8:J20" si="1">IF(G8="","",IF(G8="A",8+I8,IF(G8="B",16+I8,IF(G8="C",24+I8,"invalid"))))</f>
         <v>19</v>
       </c>
-      <c r="K8" s="428">
+      <c r="K8" s="453">
         <f t="shared" ref="K8:K44" si="2">IF(J8="","",2^(32-J8))</f>
         <v>8192</v>
       </c>
@@ -15915,11 +16559,11 @@
       <c r="F9" s="191" t="s">
         <v>389</v>
       </c>
-      <c r="G9" s="420"/>
-      <c r="H9" s="420"/>
-      <c r="I9" s="420"/>
-      <c r="J9" s="420"/>
-      <c r="K9" s="429"/>
+      <c r="G9" s="451"/>
+      <c r="H9" s="451"/>
+      <c r="I9" s="451"/>
+      <c r="J9" s="451"/>
+      <c r="K9" s="454"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="214" t="s">
@@ -15940,11 +16584,11 @@
       <c r="F10" s="189" t="s">
         <v>389</v>
       </c>
-      <c r="G10" s="420"/>
-      <c r="H10" s="420"/>
-      <c r="I10" s="420"/>
-      <c r="J10" s="420"/>
-      <c r="K10" s="429"/>
+      <c r="G10" s="451"/>
+      <c r="H10" s="451"/>
+      <c r="I10" s="451"/>
+      <c r="J10" s="451"/>
+      <c r="K10" s="454"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="215" t="s">
@@ -15965,11 +16609,11 @@
       <c r="F11" s="193" t="s">
         <v>389</v>
       </c>
-      <c r="G11" s="420"/>
-      <c r="H11" s="420"/>
-      <c r="I11" s="420"/>
-      <c r="J11" s="420"/>
-      <c r="K11" s="429"/>
+      <c r="G11" s="451"/>
+      <c r="H11" s="451"/>
+      <c r="I11" s="451"/>
+      <c r="J11" s="451"/>
+      <c r="K11" s="454"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="214" t="s">
@@ -15990,11 +16634,11 @@
       <c r="F12" s="189" t="s">
         <v>389</v>
       </c>
-      <c r="G12" s="420"/>
-      <c r="H12" s="420"/>
-      <c r="I12" s="420"/>
-      <c r="J12" s="420"/>
-      <c r="K12" s="429"/>
+      <c r="G12" s="451"/>
+      <c r="H12" s="451"/>
+      <c r="I12" s="451"/>
+      <c r="J12" s="451"/>
+      <c r="K12" s="454"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="213" t="s">
@@ -16015,11 +16659,11 @@
       <c r="F13" s="191" t="s">
         <v>389</v>
       </c>
-      <c r="G13" s="420"/>
-      <c r="H13" s="420"/>
-      <c r="I13" s="420"/>
-      <c r="J13" s="420"/>
-      <c r="K13" s="429"/>
+      <c r="G13" s="451"/>
+      <c r="H13" s="451"/>
+      <c r="I13" s="451"/>
+      <c r="J13" s="451"/>
+      <c r="K13" s="454"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="214" t="s">
@@ -16040,11 +16684,11 @@
       <c r="F14" s="189" t="s">
         <v>389</v>
       </c>
-      <c r="G14" s="420"/>
-      <c r="H14" s="420"/>
-      <c r="I14" s="420"/>
-      <c r="J14" s="420"/>
-      <c r="K14" s="429"/>
+      <c r="G14" s="451"/>
+      <c r="H14" s="451"/>
+      <c r="I14" s="451"/>
+      <c r="J14" s="451"/>
+      <c r="K14" s="454"/>
     </row>
     <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="216" t="s">
@@ -16065,11 +16709,11 @@
       <c r="F15" s="218" t="s">
         <v>389</v>
       </c>
-      <c r="G15" s="421"/>
-      <c r="H15" s="421"/>
-      <c r="I15" s="421"/>
-      <c r="J15" s="421"/>
-      <c r="K15" s="430"/>
+      <c r="G15" s="452"/>
+      <c r="H15" s="452"/>
+      <c r="I15" s="452"/>
+      <c r="J15" s="452"/>
+      <c r="K15" s="455"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="219" t="s">
@@ -16090,21 +16734,21 @@
       <c r="F16" s="222">
         <v>255255255192</v>
       </c>
-      <c r="G16" s="422" t="s">
+      <c r="G16" s="447" t="s">
         <v>111</v>
       </c>
-      <c r="H16" s="422">
+      <c r="H16" s="447">
         <v>4</v>
       </c>
-      <c r="I16" s="422">
+      <c r="I16" s="447">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J16" s="422">
+      <c r="J16" s="447">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="K16" s="425">
+      <c r="K16" s="444">
         <f t="shared" si="2"/>
         <v>64</v>
       </c>
@@ -16128,11 +16772,11 @@
       <c r="F17" s="202">
         <v>255255255192</v>
       </c>
-      <c r="G17" s="423"/>
-      <c r="H17" s="423"/>
-      <c r="I17" s="423"/>
-      <c r="J17" s="423"/>
-      <c r="K17" s="426"/>
+      <c r="G17" s="448"/>
+      <c r="H17" s="448"/>
+      <c r="I17" s="448"/>
+      <c r="J17" s="448"/>
+      <c r="K17" s="445"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="214" t="s">
@@ -16153,11 +16797,11 @@
       <c r="F18" s="201">
         <v>255255255192</v>
       </c>
-      <c r="G18" s="423"/>
-      <c r="H18" s="423"/>
-      <c r="I18" s="423"/>
-      <c r="J18" s="423"/>
-      <c r="K18" s="426"/>
+      <c r="G18" s="448"/>
+      <c r="H18" s="448"/>
+      <c r="I18" s="448"/>
+      <c r="J18" s="448"/>
+      <c r="K18" s="445"/>
     </row>
     <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="216" t="s">
@@ -16178,11 +16822,11 @@
       <c r="F19" s="223">
         <v>255255255192</v>
       </c>
-      <c r="G19" s="424"/>
-      <c r="H19" s="424"/>
-      <c r="I19" s="424"/>
-      <c r="J19" s="424"/>
-      <c r="K19" s="427"/>
+      <c r="G19" s="449"/>
+      <c r="H19" s="449"/>
+      <c r="I19" s="449"/>
+      <c r="J19" s="449"/>
+      <c r="K19" s="446"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="219" t="s">
@@ -16203,21 +16847,21 @@
       <c r="F20" s="221" t="s">
         <v>440</v>
       </c>
-      <c r="G20" s="419" t="s">
+      <c r="G20" s="450" t="s">
         <v>108</v>
       </c>
-      <c r="H20" s="419">
+      <c r="H20" s="450">
         <v>20</v>
       </c>
-      <c r="I20" s="419">
+      <c r="I20" s="450">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J20" s="419">
+      <c r="J20" s="450">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="K20" s="428">
+      <c r="K20" s="453">
         <f t="shared" si="2"/>
         <v>524288</v>
       </c>
@@ -16241,11 +16885,11 @@
       <c r="F21" s="191" t="s">
         <v>440</v>
       </c>
-      <c r="G21" s="420"/>
-      <c r="H21" s="420"/>
-      <c r="I21" s="420"/>
-      <c r="J21" s="420"/>
-      <c r="K21" s="429"/>
+      <c r="G21" s="451"/>
+      <c r="H21" s="451"/>
+      <c r="I21" s="451"/>
+      <c r="J21" s="451"/>
+      <c r="K21" s="454"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="214" t="s">
@@ -16266,11 +16910,11 @@
       <c r="F22" s="189" t="s">
         <v>440</v>
       </c>
-      <c r="G22" s="420"/>
-      <c r="H22" s="420"/>
-      <c r="I22" s="420"/>
-      <c r="J22" s="420"/>
-      <c r="K22" s="429"/>
+      <c r="G22" s="451"/>
+      <c r="H22" s="451"/>
+      <c r="I22" s="451"/>
+      <c r="J22" s="451"/>
+      <c r="K22" s="454"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="215" t="s">
@@ -16291,11 +16935,11 @@
       <c r="F23" s="193" t="s">
         <v>440</v>
       </c>
-      <c r="G23" s="420"/>
-      <c r="H23" s="420"/>
-      <c r="I23" s="420"/>
-      <c r="J23" s="420"/>
-      <c r="K23" s="429"/>
+      <c r="G23" s="451"/>
+      <c r="H23" s="451"/>
+      <c r="I23" s="451"/>
+      <c r="J23" s="451"/>
+      <c r="K23" s="454"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="214" t="s">
@@ -16316,11 +16960,11 @@
       <c r="F24" s="189" t="s">
         <v>440</v>
       </c>
-      <c r="G24" s="420"/>
-      <c r="H24" s="420"/>
-      <c r="I24" s="420"/>
-      <c r="J24" s="420"/>
-      <c r="K24" s="429"/>
+      <c r="G24" s="451"/>
+      <c r="H24" s="451"/>
+      <c r="I24" s="451"/>
+      <c r="J24" s="451"/>
+      <c r="K24" s="454"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="213" t="s">
@@ -16341,11 +16985,11 @@
       <c r="F25" s="191" t="s">
         <v>440</v>
       </c>
-      <c r="G25" s="420"/>
-      <c r="H25" s="420"/>
-      <c r="I25" s="420"/>
-      <c r="J25" s="420"/>
-      <c r="K25" s="429"/>
+      <c r="G25" s="451"/>
+      <c r="H25" s="451"/>
+      <c r="I25" s="451"/>
+      <c r="J25" s="451"/>
+      <c r="K25" s="454"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="214" t="s">
@@ -16366,11 +17010,11 @@
       <c r="F26" s="189" t="s">
         <v>440</v>
       </c>
-      <c r="G26" s="420"/>
-      <c r="H26" s="420"/>
-      <c r="I26" s="420"/>
-      <c r="J26" s="420"/>
-      <c r="K26" s="429"/>
+      <c r="G26" s="451"/>
+      <c r="H26" s="451"/>
+      <c r="I26" s="451"/>
+      <c r="J26" s="451"/>
+      <c r="K26" s="454"/>
     </row>
     <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="216" t="s">
@@ -16391,11 +17035,11 @@
       <c r="F27" s="218" t="s">
         <v>440</v>
       </c>
-      <c r="G27" s="421"/>
-      <c r="H27" s="421"/>
-      <c r="I27" s="421"/>
-      <c r="J27" s="421"/>
-      <c r="K27" s="430"/>
+      <c r="G27" s="452"/>
+      <c r="H27" s="452"/>
+      <c r="I27" s="452"/>
+      <c r="J27" s="452"/>
+      <c r="K27" s="455"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="219" t="s">
@@ -16416,21 +17060,21 @@
       <c r="F28" s="221" t="s">
         <v>440</v>
       </c>
-      <c r="G28" s="422" t="s">
+      <c r="G28" s="447" t="s">
         <v>108</v>
       </c>
-      <c r="H28" s="422">
+      <c r="H28" s="447">
         <v>20</v>
       </c>
-      <c r="I28" s="422">
+      <c r="I28" s="447">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J28" s="422">
+      <c r="J28" s="447">
         <f t="shared" ref="J28" si="3">IF(G28="","",IF(G28="A",8+I28,IF(G28="B",16+I28,IF(G28="C",24+I28,"invalid"))))</f>
         <v>13</v>
       </c>
-      <c r="K28" s="425">
+      <c r="K28" s="444">
         <f t="shared" si="2"/>
         <v>524288</v>
       </c>
@@ -16454,11 +17098,11 @@
       <c r="F29" s="191" t="s">
         <v>440</v>
       </c>
-      <c r="G29" s="423"/>
-      <c r="H29" s="423"/>
-      <c r="I29" s="423"/>
-      <c r="J29" s="423"/>
-      <c r="K29" s="426"/>
+      <c r="G29" s="448"/>
+      <c r="H29" s="448"/>
+      <c r="I29" s="448"/>
+      <c r="J29" s="448"/>
+      <c r="K29" s="445"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="214" t="s">
@@ -16479,11 +17123,11 @@
       <c r="F30" s="189" t="s">
         <v>440</v>
       </c>
-      <c r="G30" s="423"/>
-      <c r="H30" s="423"/>
-      <c r="I30" s="423"/>
-      <c r="J30" s="423"/>
-      <c r="K30" s="426"/>
+      <c r="G30" s="448"/>
+      <c r="H30" s="448"/>
+      <c r="I30" s="448"/>
+      <c r="J30" s="448"/>
+      <c r="K30" s="445"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="215" t="s">
@@ -16504,11 +17148,11 @@
       <c r="F31" s="193" t="s">
         <v>440</v>
       </c>
-      <c r="G31" s="423"/>
-      <c r="H31" s="423"/>
-      <c r="I31" s="423"/>
-      <c r="J31" s="423"/>
-      <c r="K31" s="426"/>
+      <c r="G31" s="448"/>
+      <c r="H31" s="448"/>
+      <c r="I31" s="448"/>
+      <c r="J31" s="448"/>
+      <c r="K31" s="445"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="214" t="s">
@@ -16529,11 +17173,11 @@
       <c r="F32" s="189" t="s">
         <v>440</v>
       </c>
-      <c r="G32" s="423"/>
-      <c r="H32" s="423"/>
-      <c r="I32" s="423"/>
-      <c r="J32" s="423"/>
-      <c r="K32" s="426"/>
+      <c r="G32" s="448"/>
+      <c r="H32" s="448"/>
+      <c r="I32" s="448"/>
+      <c r="J32" s="448"/>
+      <c r="K32" s="445"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="213" t="s">
@@ -16554,11 +17198,11 @@
       <c r="F33" s="191" t="s">
         <v>440</v>
       </c>
-      <c r="G33" s="423"/>
-      <c r="H33" s="423"/>
-      <c r="I33" s="423"/>
-      <c r="J33" s="423"/>
-      <c r="K33" s="426"/>
+      <c r="G33" s="448"/>
+      <c r="H33" s="448"/>
+      <c r="I33" s="448"/>
+      <c r="J33" s="448"/>
+      <c r="K33" s="445"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="214" t="s">
@@ -16579,11 +17223,11 @@
       <c r="F34" s="189" t="s">
         <v>440</v>
       </c>
-      <c r="G34" s="423"/>
-      <c r="H34" s="423"/>
-      <c r="I34" s="423"/>
-      <c r="J34" s="423"/>
-      <c r="K34" s="426"/>
+      <c r="G34" s="448"/>
+      <c r="H34" s="448"/>
+      <c r="I34" s="448"/>
+      <c r="J34" s="448"/>
+      <c r="K34" s="445"/>
     </row>
     <row r="35" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="216" t="s">
@@ -16604,11 +17248,11 @@
       <c r="F35" s="218" t="s">
         <v>440</v>
       </c>
-      <c r="G35" s="424"/>
-      <c r="H35" s="424"/>
-      <c r="I35" s="424"/>
-      <c r="J35" s="424"/>
-      <c r="K35" s="427"/>
+      <c r="G35" s="449"/>
+      <c r="H35" s="449"/>
+      <c r="I35" s="449"/>
+      <c r="J35" s="449"/>
+      <c r="K35" s="446"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="219" t="s">
@@ -16629,21 +17273,21 @@
       <c r="F36" s="221" t="s">
         <v>440</v>
       </c>
-      <c r="G36" s="419" t="s">
+      <c r="G36" s="450" t="s">
         <v>108</v>
       </c>
-      <c r="H36" s="419">
+      <c r="H36" s="450">
         <v>20</v>
       </c>
-      <c r="I36" s="419">
+      <c r="I36" s="450">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J36" s="419">
+      <c r="J36" s="450">
         <f t="shared" ref="J36" si="4">IF(G36="","",IF(G36="A",8+I36,IF(G36="B",16+I36,IF(G36="C",24+I36,"invalid"))))</f>
         <v>13</v>
       </c>
-      <c r="K36" s="428">
+      <c r="K36" s="453">
         <f t="shared" si="2"/>
         <v>524288</v>
       </c>
@@ -16667,11 +17311,11 @@
       <c r="F37" s="191" t="s">
         <v>440</v>
       </c>
-      <c r="G37" s="420"/>
-      <c r="H37" s="420"/>
-      <c r="I37" s="420"/>
-      <c r="J37" s="420"/>
-      <c r="K37" s="429"/>
+      <c r="G37" s="451"/>
+      <c r="H37" s="451"/>
+      <c r="I37" s="451"/>
+      <c r="J37" s="451"/>
+      <c r="K37" s="454"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="214" t="s">
@@ -16692,11 +17336,11 @@
       <c r="F38" s="189" t="s">
         <v>440</v>
       </c>
-      <c r="G38" s="420"/>
-      <c r="H38" s="420"/>
-      <c r="I38" s="420"/>
-      <c r="J38" s="420"/>
-      <c r="K38" s="429"/>
+      <c r="G38" s="451"/>
+      <c r="H38" s="451"/>
+      <c r="I38" s="451"/>
+      <c r="J38" s="451"/>
+      <c r="K38" s="454"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="215" t="s">
@@ -16717,11 +17361,11 @@
       <c r="F39" s="193" t="s">
         <v>440</v>
       </c>
-      <c r="G39" s="420"/>
-      <c r="H39" s="420"/>
-      <c r="I39" s="420"/>
-      <c r="J39" s="420"/>
-      <c r="K39" s="429"/>
+      <c r="G39" s="451"/>
+      <c r="H39" s="451"/>
+      <c r="I39" s="451"/>
+      <c r="J39" s="451"/>
+      <c r="K39" s="454"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="214" t="s">
@@ -16742,11 +17386,11 @@
       <c r="F40" s="189" t="s">
         <v>440</v>
       </c>
-      <c r="G40" s="420"/>
-      <c r="H40" s="420"/>
-      <c r="I40" s="420"/>
-      <c r="J40" s="420"/>
-      <c r="K40" s="429"/>
+      <c r="G40" s="451"/>
+      <c r="H40" s="451"/>
+      <c r="I40" s="451"/>
+      <c r="J40" s="451"/>
+      <c r="K40" s="454"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="213" t="s">
@@ -16767,11 +17411,11 @@
       <c r="F41" s="191" t="s">
         <v>440</v>
       </c>
-      <c r="G41" s="420"/>
-      <c r="H41" s="420"/>
-      <c r="I41" s="420"/>
-      <c r="J41" s="420"/>
-      <c r="K41" s="429"/>
+      <c r="G41" s="451"/>
+      <c r="H41" s="451"/>
+      <c r="I41" s="451"/>
+      <c r="J41" s="451"/>
+      <c r="K41" s="454"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="214" t="s">
@@ -16792,11 +17436,11 @@
       <c r="F42" s="189" t="s">
         <v>440</v>
       </c>
-      <c r="G42" s="420"/>
-      <c r="H42" s="420"/>
-      <c r="I42" s="420"/>
-      <c r="J42" s="420"/>
-      <c r="K42" s="429"/>
+      <c r="G42" s="451"/>
+      <c r="H42" s="451"/>
+      <c r="I42" s="451"/>
+      <c r="J42" s="451"/>
+      <c r="K42" s="454"/>
     </row>
     <row r="43" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="216" t="s">
@@ -16817,11 +17461,11 @@
       <c r="F43" s="218" t="s">
         <v>440</v>
       </c>
-      <c r="G43" s="421"/>
-      <c r="H43" s="421"/>
-      <c r="I43" s="421"/>
-      <c r="J43" s="421"/>
-      <c r="K43" s="430"/>
+      <c r="G43" s="452"/>
+      <c r="H43" s="452"/>
+      <c r="I43" s="452"/>
+      <c r="J43" s="452"/>
+      <c r="K43" s="455"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="219" t="s">
@@ -16842,21 +17486,21 @@
       <c r="F44" s="221" t="s">
         <v>440</v>
       </c>
-      <c r="G44" s="422" t="s">
+      <c r="G44" s="447" t="s">
         <v>108</v>
       </c>
-      <c r="H44" s="422">
+      <c r="H44" s="447">
         <v>20</v>
       </c>
-      <c r="I44" s="422">
+      <c r="I44" s="447">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J44" s="422">
+      <c r="J44" s="447">
         <f t="shared" ref="J44" si="5">IF(G44="","",IF(G44="A",8+I44,IF(G44="B",16+I44,IF(G44="C",24+I44,"invalid"))))</f>
         <v>13</v>
       </c>
-      <c r="K44" s="425">
+      <c r="K44" s="444">
         <f t="shared" si="2"/>
         <v>524288</v>
       </c>
@@ -16880,11 +17524,11 @@
       <c r="F45" s="191" t="s">
         <v>440</v>
       </c>
-      <c r="G45" s="423"/>
-      <c r="H45" s="423"/>
-      <c r="I45" s="423"/>
-      <c r="J45" s="423"/>
-      <c r="K45" s="426"/>
+      <c r="G45" s="448"/>
+      <c r="H45" s="448"/>
+      <c r="I45" s="448"/>
+      <c r="J45" s="448"/>
+      <c r="K45" s="445"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="214" t="s">
@@ -16905,11 +17549,11 @@
       <c r="F46" s="189" t="s">
         <v>440</v>
       </c>
-      <c r="G46" s="423"/>
-      <c r="H46" s="423"/>
-      <c r="I46" s="423"/>
-      <c r="J46" s="423"/>
-      <c r="K46" s="426"/>
+      <c r="G46" s="448"/>
+      <c r="H46" s="448"/>
+      <c r="I46" s="448"/>
+      <c r="J46" s="448"/>
+      <c r="K46" s="445"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="215" t="s">
@@ -16930,11 +17574,11 @@
       <c r="F47" s="193" t="s">
         <v>440</v>
       </c>
-      <c r="G47" s="423"/>
-      <c r="H47" s="423"/>
-      <c r="I47" s="423"/>
-      <c r="J47" s="423"/>
-      <c r="K47" s="426"/>
+      <c r="G47" s="448"/>
+      <c r="H47" s="448"/>
+      <c r="I47" s="448"/>
+      <c r="J47" s="448"/>
+      <c r="K47" s="445"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="214" t="s">
@@ -16955,11 +17599,11 @@
       <c r="F48" s="189" t="s">
         <v>440</v>
       </c>
-      <c r="G48" s="423"/>
-      <c r="H48" s="423"/>
-      <c r="I48" s="423"/>
-      <c r="J48" s="423"/>
-      <c r="K48" s="426"/>
+      <c r="G48" s="448"/>
+      <c r="H48" s="448"/>
+      <c r="I48" s="448"/>
+      <c r="J48" s="448"/>
+      <c r="K48" s="445"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="213" t="s">
@@ -16980,11 +17624,11 @@
       <c r="F49" s="191" t="s">
         <v>440</v>
       </c>
-      <c r="G49" s="423"/>
-      <c r="H49" s="423"/>
-      <c r="I49" s="423"/>
-      <c r="J49" s="423"/>
-      <c r="K49" s="426"/>
+      <c r="G49" s="448"/>
+      <c r="H49" s="448"/>
+      <c r="I49" s="448"/>
+      <c r="J49" s="448"/>
+      <c r="K49" s="445"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="214" t="s">
@@ -17005,11 +17649,11 @@
       <c r="F50" s="189" t="s">
         <v>440</v>
       </c>
-      <c r="G50" s="423"/>
-      <c r="H50" s="423"/>
-      <c r="I50" s="423"/>
-      <c r="J50" s="423"/>
-      <c r="K50" s="426"/>
+      <c r="G50" s="448"/>
+      <c r="H50" s="448"/>
+      <c r="I50" s="448"/>
+      <c r="J50" s="448"/>
+      <c r="K50" s="445"/>
     </row>
     <row r="51" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="216" t="s">
@@ -17030,11 +17674,11 @@
       <c r="F51" s="218" t="s">
         <v>440</v>
       </c>
-      <c r="G51" s="424"/>
-      <c r="H51" s="424"/>
-      <c r="I51" s="424"/>
-      <c r="J51" s="424"/>
-      <c r="K51" s="427"/>
+      <c r="G51" s="449"/>
+      <c r="H51" s="449"/>
+      <c r="I51" s="449"/>
+      <c r="J51" s="449"/>
+      <c r="K51" s="446"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G52" s="206"/>
@@ -17044,13 +17688,27 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="K4:K7"/>
-    <mergeCell ref="J4:J7"/>
-    <mergeCell ref="I4:I7"/>
-    <mergeCell ref="H4:H7"/>
-    <mergeCell ref="G4:G7"/>
+    <mergeCell ref="H36:H43"/>
+    <mergeCell ref="H44:H51"/>
+    <mergeCell ref="I44:I51"/>
+    <mergeCell ref="J44:J51"/>
+    <mergeCell ref="K44:K51"/>
+    <mergeCell ref="K36:K43"/>
+    <mergeCell ref="J36:J43"/>
+    <mergeCell ref="I36:I43"/>
+    <mergeCell ref="H20:H27"/>
+    <mergeCell ref="I20:I27"/>
+    <mergeCell ref="J20:J27"/>
+    <mergeCell ref="K20:K27"/>
+    <mergeCell ref="H28:H35"/>
+    <mergeCell ref="I28:I35"/>
+    <mergeCell ref="J28:J35"/>
+    <mergeCell ref="K28:K35"/>
+    <mergeCell ref="G20:G27"/>
+    <mergeCell ref="G28:G35"/>
+    <mergeCell ref="G36:G43"/>
+    <mergeCell ref="G44:G51"/>
+    <mergeCell ref="G16:G19"/>
     <mergeCell ref="H16:H19"/>
     <mergeCell ref="I16:I19"/>
     <mergeCell ref="J16:J19"/>
@@ -17060,27 +17718,13 @@
     <mergeCell ref="I8:I15"/>
     <mergeCell ref="J8:J15"/>
     <mergeCell ref="K8:K15"/>
-    <mergeCell ref="G20:G27"/>
-    <mergeCell ref="G28:G35"/>
-    <mergeCell ref="G36:G43"/>
-    <mergeCell ref="G44:G51"/>
-    <mergeCell ref="G16:G19"/>
-    <mergeCell ref="H20:H27"/>
-    <mergeCell ref="I20:I27"/>
-    <mergeCell ref="J20:J27"/>
-    <mergeCell ref="K20:K27"/>
-    <mergeCell ref="H28:H35"/>
-    <mergeCell ref="I28:I35"/>
-    <mergeCell ref="J28:J35"/>
-    <mergeCell ref="K28:K35"/>
-    <mergeCell ref="H36:H43"/>
-    <mergeCell ref="H44:H51"/>
-    <mergeCell ref="I44:I51"/>
-    <mergeCell ref="J44:J51"/>
-    <mergeCell ref="K44:K51"/>
-    <mergeCell ref="K36:K43"/>
-    <mergeCell ref="J36:J43"/>
-    <mergeCell ref="I36:I43"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="K4:K7"/>
+    <mergeCell ref="J4:J7"/>
+    <mergeCell ref="I4:I7"/>
+    <mergeCell ref="H4:H7"/>
+    <mergeCell ref="G4:G7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17129,11 +17773,11 @@
       <c r="A1" t="s">
         <v>392</v>
       </c>
-      <c r="G1" s="434" t="s">
+      <c r="G1" s="443" t="s">
         <v>574</v>
       </c>
-      <c r="H1" s="434"/>
-      <c r="I1" s="434"/>
+      <c r="H1" s="443"/>
+      <c r="I1" s="443"/>
       <c r="J1" s="203" t="s">
         <v>471</v>
       </c>
@@ -17163,17 +17807,17 @@
       </c>
     </row>
     <row r="2" spans="1:29" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="441"/>
-      <c r="B2" s="441"/>
-      <c r="C2" s="441"/>
-      <c r="D2" s="441"/>
-      <c r="E2" s="441"/>
-      <c r="F2" s="441"/>
-      <c r="G2" s="431" t="s">
+      <c r="A2" s="462"/>
+      <c r="B2" s="462"/>
+      <c r="C2" s="462"/>
+      <c r="D2" s="462"/>
+      <c r="E2" s="462"/>
+      <c r="F2" s="462"/>
+      <c r="G2" s="440" t="s">
         <v>575</v>
       </c>
-      <c r="H2" s="432"/>
-      <c r="I2" s="433"/>
+      <c r="H2" s="441"/>
+      <c r="I2" s="442"/>
       <c r="J2" s="207" t="s">
         <v>445</v>
       </c>
@@ -17310,7 +17954,7 @@
         <f>IF(O4="","",32-O4)</f>
         <v>25</v>
       </c>
-      <c r="R4" s="438" t="s">
+      <c r="R4" s="459" t="s">
         <v>612</v>
       </c>
     </row>
@@ -17363,7 +18007,7 @@
         <f t="shared" ref="Q5:Q8" si="2">IF(O5="","",32-O5)</f>
         <v>26</v>
       </c>
-      <c r="R5" s="439"/>
+      <c r="R5" s="460"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -17414,7 +18058,7 @@
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="R6" s="439"/>
+      <c r="R6" s="460"/>
       <c r="AC6" s="33"/>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
@@ -17466,7 +18110,7 @@
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="R7" s="439"/>
+      <c r="R7" s="460"/>
       <c r="AC7" s="33"/>
     </row>
     <row r="8" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17518,7 +18162,7 @@
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="R8" s="440"/>
+      <c r="R8" s="461"/>
       <c r="AC8" s="33"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
@@ -17561,7 +18205,7 @@
         <f>IF(O9="","",32-O9)</f>
         <v>25</v>
       </c>
-      <c r="R9" s="435" t="s">
+      <c r="R9" s="456" t="s">
         <v>613</v>
       </c>
       <c r="AC9" s="33"/>
@@ -17603,7 +18247,7 @@
         <f>IF(O10="","",32-O10)</f>
         <v>26</v>
       </c>
-      <c r="R10" s="436"/>
+      <c r="R10" s="457"/>
       <c r="AC10" s="33"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
@@ -17661,7 +18305,7 @@
         <f>IF(O11="","",32-O11)</f>
         <v>27</v>
       </c>
-      <c r="R11" s="436"/>
+      <c r="R11" s="457"/>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -17718,7 +18362,7 @@
         <f>IF(O12="","",32-O12)</f>
         <v>29</v>
       </c>
-      <c r="R12" s="436"/>
+      <c r="R12" s="457"/>
     </row>
     <row r="13" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -17775,7 +18419,7 @@
         <f>IF(O13="","",32-O13)</f>
         <v>26</v>
       </c>
-      <c r="R13" s="437"/>
+      <c r="R13" s="458"/>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -17880,12 +18524,12 @@
       <c r="C1" s="267" t="s">
         <v>657</v>
       </c>
-      <c r="E1" s="357" t="s">
+      <c r="E1" s="377" t="s">
         <v>662</v>
       </c>
-      <c r="F1" s="357"/>
-      <c r="G1" s="357"/>
-      <c r="H1" s="357"/>
+      <c r="F1" s="377"/>
+      <c r="G1" s="377"/>
+      <c r="H1" s="377"/>
     </row>
     <row r="2" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="274" t="s">

--- a/docs/protocol-suite.xlsx
+++ b/docs/protocol-suite.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25121"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\redes\saves\ccna1-lj20\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5601271F-ABE3-435B-B3B1-12564F1B7FC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB59DE57-2C94-462C-B3BB-4089F3799F33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="2" xr2:uid="{3415D364-6D1D-489F-8C8D-BD784F513C31}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="3" xr2:uid="{3415D364-6D1D-489F-8C8D-BD784F513C31}"/>
   </bookViews>
   <sheets>
     <sheet name="modelos" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="729">
   <si>
     <t xml:space="preserve">TCP/IP </t>
   </si>
@@ -7763,6 +7763,264 @@
   </si>
   <si>
     <t>dhcp, dns, snmp, tftp</t>
+  </si>
+  <si>
+    <t>binario</t>
+  </si>
+  <si>
+    <t>2^7</t>
+  </si>
+  <si>
+    <t>2^6</t>
+  </si>
+  <si>
+    <t>2^5</t>
+  </si>
+  <si>
+    <t>2^4</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>ip</t>
+  </si>
+  <si>
+    <t>sm</t>
+  </si>
+  <si>
+    <t>net</t>
+  </si>
+  <si>
+    <t>bc</t>
+  </si>
+  <si>
+    <t>0A</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>4C</t>
+  </si>
+  <si>
+    <t>valor</t>
+  </si>
+  <si>
+    <t>dec</t>
+  </si>
+  <si>
+    <t>hex</t>
+  </si>
+  <si>
+    <t>bin</t>
+  </si>
+  <si>
+    <t>0x0C</t>
+  </si>
+  <si>
+    <t>0xA9</t>
+  </si>
+  <si>
+    <t>0xAC</t>
+  </si>
+  <si>
+    <t>0xAA</t>
+  </si>
+  <si>
+    <t>num</t>
+  </si>
+  <si>
+    <t>ipv4</t>
+  </si>
+  <si>
+    <t>publicas</t>
+  </si>
+  <si>
+    <t>privadas</t>
+  </si>
+  <si>
+    <t>inicio</t>
+  </si>
+  <si>
+    <t>fin</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1111</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1111111</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>111111</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>110</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>11111</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1110</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1111</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1111</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1111</t>
+    </r>
+  </si>
+  <si>
+    <t>172.16.0.0</t>
+  </si>
+  <si>
+    <t>172.31.255.255</t>
+  </si>
+  <si>
+    <t>10101100.
+00010000</t>
+  </si>
+  <si>
+    <t>10101100.
+00011111</t>
+  </si>
+  <si>
+    <t>192.168.0.0</t>
+  </si>
+  <si>
+    <t>11000000.
+10101000.
+00000000</t>
+  </si>
+  <si>
+    <t>11000000.
+10101000.
+11111111</t>
+  </si>
+  <si>
+    <t>mask</t>
+  </si>
+  <si>
+    <t>reservado</t>
+  </si>
+  <si>
+    <t>APIPA</t>
+  </si>
+  <si>
+    <t>239.0.0.0</t>
+  </si>
+  <si>
+    <t>192.0.2.0</t>
+  </si>
+  <si>
+    <t>test-net-1</t>
   </si>
 </sst>
 </file>
@@ -8084,7 +8342,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="101">
+  <borders count="116">
     <border>
       <left/>
       <right/>
@@ -9216,6 +9474,175 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -9226,7 +9653,7 @@
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="417">
+  <cellXfs count="449">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -10064,6 +10491,30 @@
     <xf numFmtId="0" fontId="0" fillId="21" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="101" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="102" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="102" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="104" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="105" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="105" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="107" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="103" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="106" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="108" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="109" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="110" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="111" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -10405,6 +10856,42 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="113" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="114" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="115" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="109" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="103" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="112" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="108" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="110" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="106" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -10996,13 +11483,13 @@
       <c r="A2" s="278" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="308" t="s">
+      <c r="B2" s="322" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="303" t="s">
+      <c r="C2" s="317" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="311" t="s">
+      <c r="D2" s="325" t="s">
         <v>23</v>
       </c>
     </row>
@@ -11010,17 +11497,17 @@
       <c r="A3" s="279" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="309"/>
-      <c r="C3" s="304"/>
-      <c r="D3" s="311"/>
+      <c r="B3" s="323"/>
+      <c r="C3" s="318"/>
+      <c r="D3" s="325"/>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="280" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="310"/>
-      <c r="C4" s="305"/>
-      <c r="D4" s="311"/>
+      <c r="B4" s="324"/>
+      <c r="C4" s="319"/>
+      <c r="D4" s="325"/>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="281" t="s">
@@ -11057,7 +11544,7 @@
       <c r="B7" s="287" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="306" t="s">
+      <c r="C7" s="320" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="276" t="s">
@@ -11071,8 +11558,8 @@
       <c r="B8" s="288" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="307"/>
-      <c r="D8" s="311" t="s">
+      <c r="C8" s="321"/>
+      <c r="D8" s="325" t="s">
         <v>20</v>
       </c>
     </row>
@@ -11086,7 +11573,7 @@
       <c r="C9" s="277" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="312"/>
+      <c r="D9" s="326"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -11105,8 +11592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2546DD17-9723-4091-B9ED-D9677931F7C4}">
   <dimension ref="A2:K21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19:K19"/>
+    <sheetView topLeftCell="A6" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11125,24 +11612,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="326" t="s">
+      <c r="A2" s="340" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="327"/>
+      <c r="B2" s="341"/>
       <c r="C2" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="326" t="s">
+      <c r="E2" s="340" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="327"/>
+      <c r="F2" s="341"/>
       <c r="G2" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="326" t="s">
+      <c r="I2" s="340" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="327"/>
+      <c r="J2" s="341"/>
       <c r="K2" s="14" t="s">
         <v>42</v>
       </c>
@@ -11316,15 +11803,15 @@
       <c r="E9" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="F9" s="334" t="s">
+      <c r="F9" s="348" t="s">
         <v>67</v>
       </c>
-      <c r="G9" s="334"/>
-      <c r="I9" s="334" t="s">
+      <c r="G9" s="348"/>
+      <c r="I9" s="348" t="s">
         <v>81</v>
       </c>
-      <c r="J9" s="334"/>
-      <c r="K9" s="334"/>
+      <c r="J9" s="348"/>
+      <c r="K9" s="348"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
@@ -11340,15 +11827,15 @@
       <c r="E10" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="F10" s="329" t="s">
+      <c r="F10" s="343" t="s">
         <v>70</v>
       </c>
-      <c r="G10" s="330"/>
-      <c r="I10" s="328" t="s">
+      <c r="G10" s="344"/>
+      <c r="I10" s="342" t="s">
         <v>63</v>
       </c>
-      <c r="J10" s="329"/>
-      <c r="K10" s="330"/>
+      <c r="J10" s="343"/>
+      <c r="K10" s="344"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
@@ -11363,15 +11850,15 @@
       <c r="E11" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="335" t="s">
+      <c r="F11" s="349" t="s">
         <v>52</v>
       </c>
-      <c r="G11" s="336"/>
-      <c r="I11" s="331" t="s">
+      <c r="G11" s="350"/>
+      <c r="I11" s="345" t="s">
         <v>64</v>
       </c>
-      <c r="J11" s="332"/>
-      <c r="K11" s="333"/>
+      <c r="J11" s="346"/>
+      <c r="K11" s="347"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
@@ -11386,15 +11873,15 @@
       <c r="E12" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="F12" s="329" t="s">
+      <c r="F12" s="343" t="s">
         <v>72</v>
       </c>
-      <c r="G12" s="330"/>
-      <c r="I12" s="328" t="s">
+      <c r="G12" s="344"/>
+      <c r="I12" s="342" t="s">
         <v>65</v>
       </c>
-      <c r="J12" s="329"/>
-      <c r="K12" s="330"/>
+      <c r="J12" s="343"/>
+      <c r="K12" s="344"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
@@ -11430,91 +11917,91 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="321" t="s">
+      <c r="A17" s="335" t="s">
         <v>282</v>
       </c>
       <c r="B17" s="187" t="s">
         <v>272</v>
       </c>
-      <c r="C17" s="324" t="s">
+      <c r="C17" s="338" t="s">
         <v>273</v>
       </c>
-      <c r="D17" s="324"/>
-      <c r="E17" s="324"/>
-      <c r="F17" s="324"/>
-      <c r="G17" s="324"/>
-      <c r="H17" s="324"/>
-      <c r="I17" s="324"/>
-      <c r="J17" s="324"/>
-      <c r="K17" s="325"/>
+      <c r="D17" s="338"/>
+      <c r="E17" s="338"/>
+      <c r="F17" s="338"/>
+      <c r="G17" s="338"/>
+      <c r="H17" s="338"/>
+      <c r="I17" s="338"/>
+      <c r="J17" s="338"/>
+      <c r="K17" s="339"/>
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="322"/>
+      <c r="A18" s="336"/>
       <c r="B18" s="188" t="s">
         <v>274</v>
       </c>
-      <c r="C18" s="313" t="s">
+      <c r="C18" s="327" t="s">
         <v>275</v>
       </c>
-      <c r="D18" s="313"/>
-      <c r="E18" s="313"/>
-      <c r="F18" s="313"/>
-      <c r="G18" s="313"/>
-      <c r="H18" s="313"/>
-      <c r="I18" s="313"/>
-      <c r="J18" s="313"/>
-      <c r="K18" s="314"/>
+      <c r="D18" s="327"/>
+      <c r="E18" s="327"/>
+      <c r="F18" s="327"/>
+      <c r="G18" s="327"/>
+      <c r="H18" s="327"/>
+      <c r="I18" s="327"/>
+      <c r="J18" s="327"/>
+      <c r="K18" s="328"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="322"/>
+      <c r="A19" s="336"/>
       <c r="B19" s="189" t="s">
         <v>276</v>
       </c>
-      <c r="C19" s="315" t="s">
+      <c r="C19" s="329" t="s">
         <v>277</v>
       </c>
-      <c r="D19" s="315"/>
-      <c r="E19" s="315"/>
-      <c r="F19" s="315"/>
-      <c r="G19" s="315"/>
-      <c r="H19" s="315"/>
-      <c r="I19" s="315"/>
-      <c r="J19" s="315"/>
-      <c r="K19" s="316"/>
+      <c r="D19" s="329"/>
+      <c r="E19" s="329"/>
+      <c r="F19" s="329"/>
+      <c r="G19" s="329"/>
+      <c r="H19" s="329"/>
+      <c r="I19" s="329"/>
+      <c r="J19" s="329"/>
+      <c r="K19" s="330"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="322"/>
+      <c r="A20" s="336"/>
       <c r="B20" s="190" t="s">
         <v>278</v>
       </c>
-      <c r="C20" s="317" t="s">
+      <c r="C20" s="331" t="s">
         <v>279</v>
       </c>
-      <c r="D20" s="317"/>
-      <c r="E20" s="317"/>
-      <c r="F20" s="317"/>
-      <c r="G20" s="317"/>
-      <c r="H20" s="317"/>
-      <c r="I20" s="317"/>
-      <c r="J20" s="317"/>
-      <c r="K20" s="318"/>
+      <c r="D20" s="331"/>
+      <c r="E20" s="331"/>
+      <c r="F20" s="331"/>
+      <c r="G20" s="331"/>
+      <c r="H20" s="331"/>
+      <c r="I20" s="331"/>
+      <c r="J20" s="331"/>
+      <c r="K20" s="332"/>
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="323"/>
+      <c r="A21" s="337"/>
       <c r="B21" s="191" t="s">
         <v>280</v>
       </c>
-      <c r="C21" s="319" t="s">
+      <c r="C21" s="333" t="s">
         <v>281</v>
       </c>
-      <c r="D21" s="319"/>
-      <c r="E21" s="319"/>
-      <c r="F21" s="319"/>
-      <c r="G21" s="319"/>
-      <c r="H21" s="319"/>
-      <c r="I21" s="319"/>
-      <c r="J21" s="319"/>
-      <c r="K21" s="320"/>
+      <c r="D21" s="333"/>
+      <c r="E21" s="333"/>
+      <c r="F21" s="333"/>
+      <c r="G21" s="333"/>
+      <c r="H21" s="333"/>
+      <c r="I21" s="333"/>
+      <c r="J21" s="333"/>
+      <c r="K21" s="334"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -11545,7 +12032,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D6A4FC1-4453-4F66-8A6E-DB11164B3A80}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="G3" sqref="G3:G10"/>
     </sheetView>
   </sheetViews>
@@ -11561,16 +12048,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="337" t="s">
+      <c r="B1" s="351" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="337"/>
-      <c r="D1" s="337"/>
-      <c r="F1" s="337" t="s">
+      <c r="C1" s="351"/>
+      <c r="D1" s="351"/>
+      <c r="F1" s="351" t="s">
         <v>104</v>
       </c>
-      <c r="G1" s="337"/>
-      <c r="H1" s="337"/>
+      <c r="G1" s="351"/>
+      <c r="H1" s="351"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="36" t="s">
@@ -11599,10 +12086,10 @@
       <c r="D3" s="166" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="346" t="s">
+      <c r="F3" s="360" t="s">
         <v>94</v>
       </c>
-      <c r="G3" s="348" t="s">
+      <c r="G3" s="362" t="s">
         <v>93</v>
       </c>
       <c r="H3" s="172" t="s">
@@ -11619,8 +12106,8 @@
       <c r="D4" s="169" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="346"/>
-      <c r="G4" s="349"/>
+      <c r="F4" s="360"/>
+      <c r="G4" s="363"/>
       <c r="H4" s="173" t="s">
         <v>60</v>
       </c>
@@ -11635,8 +12122,8 @@
       <c r="D5" s="164" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="346"/>
-      <c r="G5" s="349"/>
+      <c r="F5" s="360"/>
+      <c r="G5" s="363"/>
       <c r="H5" s="174" t="s">
         <v>61</v>
       </c>
@@ -11651,8 +12138,8 @@
       <c r="D6" s="167" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="346"/>
-      <c r="G6" s="349"/>
+      <c r="F6" s="360"/>
+      <c r="G6" s="363"/>
       <c r="H6" s="179" t="s">
         <v>62</v>
       </c>
@@ -11667,8 +12154,8 @@
       <c r="D7" s="168" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="346"/>
-      <c r="G7" s="349"/>
+      <c r="F7" s="360"/>
+      <c r="G7" s="363"/>
       <c r="H7" s="178" t="s">
         <v>99</v>
       </c>
@@ -11683,8 +12170,8 @@
       <c r="D8" s="165" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="346"/>
-      <c r="G8" s="349"/>
+      <c r="F8" s="360"/>
+      <c r="G8" s="363"/>
       <c r="H8" s="175" t="s">
         <v>103</v>
       </c>
@@ -11699,8 +12186,8 @@
       <c r="D9" s="170" t="s">
         <v>55</v>
       </c>
-      <c r="F9" s="346"/>
-      <c r="G9" s="349"/>
+      <c r="F9" s="360"/>
+      <c r="G9" s="363"/>
       <c r="H9" s="176" t="s">
         <v>97</v>
       </c>
@@ -11715,21 +12202,21 @@
       <c r="D10" s="171" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="347"/>
-      <c r="G10" s="350"/>
+      <c r="F10" s="361"/>
+      <c r="G10" s="364"/>
       <c r="H10" s="177" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="341" t="s">
+      <c r="B12" s="355" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="342"/>
-      <c r="D12" s="342"/>
-      <c r="E12" s="342"/>
-      <c r="F12" s="343"/>
+      <c r="C12" s="356"/>
+      <c r="D12" s="356"/>
+      <c r="E12" s="356"/>
+      <c r="F12" s="357"/>
       <c r="G12" s="180" t="s">
         <v>56</v>
       </c>
@@ -11738,13 +12225,13 @@
       <c r="B13" s="181" t="s">
         <v>90</v>
       </c>
-      <c r="C13" s="351" t="s">
+      <c r="C13" s="365" t="s">
         <v>89</v>
       </c>
-      <c r="D13" s="351"/>
-      <c r="E13" s="351"/>
-      <c r="F13" s="352"/>
-      <c r="G13" s="338" t="s">
+      <c r="D13" s="365"/>
+      <c r="E13" s="365"/>
+      <c r="F13" s="366"/>
+      <c r="G13" s="352" t="s">
         <v>219</v>
       </c>
       <c r="I13" s="29"/>
@@ -11753,39 +12240,39 @@
       <c r="B14" s="182" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="353" t="s">
+      <c r="C14" s="367" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="353"/>
-      <c r="E14" s="353"/>
-      <c r="F14" s="354"/>
-      <c r="G14" s="339"/>
+      <c r="D14" s="367"/>
+      <c r="E14" s="367"/>
+      <c r="F14" s="368"/>
+      <c r="G14" s="353"/>
       <c r="I14" s="29"/>
     </row>
     <row r="15" spans="1:9" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="181" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="351" t="s">
+      <c r="C15" s="365" t="s">
         <v>87</v>
       </c>
-      <c r="D15" s="351"/>
-      <c r="E15" s="351"/>
-      <c r="F15" s="352"/>
-      <c r="G15" s="339"/>
+      <c r="D15" s="365"/>
+      <c r="E15" s="365"/>
+      <c r="F15" s="366"/>
+      <c r="G15" s="353"/>
       <c r="I15" s="29"/>
     </row>
     <row r="16" spans="1:9" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="183" t="s">
         <v>91</v>
       </c>
-      <c r="C16" s="344" t="s">
+      <c r="C16" s="358" t="s">
         <v>88</v>
       </c>
-      <c r="D16" s="344"/>
-      <c r="E16" s="344"/>
-      <c r="F16" s="345"/>
-      <c r="G16" s="340"/>
+      <c r="D16" s="358"/>
+      <c r="E16" s="358"/>
+      <c r="F16" s="359"/>
+      <c r="G16" s="354"/>
       <c r="I16" s="29"/>
     </row>
     <row r="17" spans="7:7" x14ac:dyDescent="0.25">
@@ -11820,11 +12307,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC782B4E-6927-4C9C-A90D-9AC5B53DF039}">
-  <dimension ref="A1:AA24"/>
+  <dimension ref="A1:AR61"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="AK1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AQ5" sqref="AQ5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11836,83 +12323,146 @@
     <col min="14" max="14" width="4.5703125" style="31" customWidth="1"/>
     <col min="15" max="15" width="3" style="31" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="3.42578125" style="32" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="3.28515625" customWidth="1"/>
-    <col min="18" max="27" width="4.28515625" customWidth="1"/>
+    <col min="17" max="17" width="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="25" width="4.28515625" customWidth="1"/>
+    <col min="26" max="26" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13" customWidth="1"/>
+    <col min="32" max="32" width="13.140625" customWidth="1"/>
+    <col min="33" max="33" width="11.85546875" customWidth="1"/>
+    <col min="34" max="34" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="4" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="355" t="s">
+    <row r="1" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="369" t="s">
         <v>220</v>
       </c>
-      <c r="B1" s="356"/>
-      <c r="C1" s="356"/>
-      <c r="D1" s="356"/>
-      <c r="F1" s="355" t="s">
+      <c r="B1" s="370"/>
+      <c r="C1" s="370"/>
+      <c r="D1" s="370"/>
+      <c r="F1" s="369" t="s">
         <v>222</v>
       </c>
-      <c r="G1" s="356"/>
-      <c r="H1" s="356"/>
-      <c r="I1" s="356"/>
-      <c r="J1" s="356"/>
-      <c r="K1" s="356"/>
-      <c r="L1" s="356"/>
-      <c r="M1" s="356"/>
-      <c r="N1" s="356"/>
-      <c r="O1" s="356"/>
-      <c r="P1" s="357"/>
-      <c r="R1" s="355" t="s">
+      <c r="G1" s="370"/>
+      <c r="H1" s="370"/>
+      <c r="I1" s="370"/>
+      <c r="J1" s="370"/>
+      <c r="K1" s="370"/>
+      <c r="L1" s="370"/>
+      <c r="M1" s="370"/>
+      <c r="N1" s="370"/>
+      <c r="O1" s="370"/>
+      <c r="P1" s="371"/>
+      <c r="R1" s="369" t="s">
         <v>223</v>
       </c>
-      <c r="S1" s="356"/>
-      <c r="T1" s="356"/>
-      <c r="U1" s="356"/>
-      <c r="V1" s="356"/>
-      <c r="W1" s="356"/>
-      <c r="X1" s="356"/>
-      <c r="Y1" s="356"/>
-      <c r="Z1" s="356"/>
-      <c r="AA1" s="357"/>
-    </row>
-    <row r="2" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="362" t="s">
+      <c r="S1" s="370"/>
+      <c r="T1" s="370"/>
+      <c r="U1" s="370"/>
+      <c r="V1" s="370"/>
+      <c r="W1" s="370"/>
+      <c r="X1" s="370"/>
+      <c r="Y1" s="370"/>
+      <c r="Z1" s="370"/>
+      <c r="AA1" s="371"/>
+      <c r="AD1" t="s">
+        <v>705</v>
+      </c>
+      <c r="AE1" s="440" t="s">
+        <v>706</v>
+      </c>
+      <c r="AF1" s="440"/>
+      <c r="AG1" s="440"/>
+      <c r="AH1" s="440"/>
+      <c r="AI1" s="440" t="s">
+        <v>707</v>
+      </c>
+      <c r="AJ1" s="440"/>
+      <c r="AK1" s="440"/>
+      <c r="AL1" s="440"/>
+    </row>
+    <row r="2" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="376" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="361"/>
-      <c r="C2" s="361"/>
-      <c r="D2" s="361"/>
-      <c r="F2" s="358" t="s">
+      <c r="B2" s="375"/>
+      <c r="C2" s="375"/>
+      <c r="D2" s="375"/>
+      <c r="F2" s="372" t="s">
         <v>130</v>
       </c>
-      <c r="G2" s="360"/>
-      <c r="H2" s="360"/>
-      <c r="I2" s="360"/>
-      <c r="J2" s="360"/>
-      <c r="K2" s="360"/>
-      <c r="L2" s="360"/>
-      <c r="M2" s="359"/>
+      <c r="G2" s="374"/>
+      <c r="H2" s="374"/>
+      <c r="I2" s="374"/>
+      <c r="J2" s="374"/>
+      <c r="K2" s="374"/>
+      <c r="L2" s="374"/>
+      <c r="M2" s="373"/>
       <c r="N2" s="91" t="s">
         <v>106</v>
       </c>
-      <c r="O2" s="358" t="s">
+      <c r="O2" s="372" t="s">
         <v>107</v>
       </c>
-      <c r="P2" s="359"/>
-      <c r="R2" s="358" t="s">
+      <c r="P2" s="373"/>
+      <c r="R2" s="372" t="s">
         <v>130</v>
       </c>
-      <c r="S2" s="360"/>
-      <c r="T2" s="360"/>
-      <c r="U2" s="360"/>
-      <c r="V2" s="360"/>
-      <c r="W2" s="360"/>
-      <c r="X2" s="360"/>
-      <c r="Y2" s="359"/>
-      <c r="Z2" s="358" t="s">
+      <c r="S2" s="374"/>
+      <c r="T2" s="374"/>
+      <c r="U2" s="374"/>
+      <c r="V2" s="374"/>
+      <c r="W2" s="374"/>
+      <c r="X2" s="374"/>
+      <c r="Y2" s="373"/>
+      <c r="Z2" s="372" t="s">
         <v>107</v>
       </c>
-      <c r="AA2" s="359"/>
-    </row>
-    <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA2" s="373"/>
+      <c r="AE2" s="440" t="s">
+        <v>708</v>
+      </c>
+      <c r="AF2" s="440"/>
+      <c r="AG2" s="440" t="s">
+        <v>709</v>
+      </c>
+      <c r="AH2" s="440"/>
+      <c r="AI2" s="441" t="s">
+        <v>708</v>
+      </c>
+      <c r="AJ2" s="441"/>
+      <c r="AK2" s="440" t="s">
+        <v>709</v>
+      </c>
+      <c r="AL2" s="440"/>
+      <c r="AM2" t="s">
+        <v>446</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>723</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>691</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>322</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="3" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="38" t="s">
         <v>33</v>
       </c>
@@ -11976,8 +12526,54 @@
       <c r="AA3" s="75">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE3" s="34" t="s">
+        <v>448</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG3" s="34" t="s">
+        <v>711</v>
+      </c>
+      <c r="AH3" s="223">
+        <v>127255255255</v>
+      </c>
+      <c r="AI3" s="443" t="s">
+        <v>147</v>
+      </c>
+      <c r="AJ3" s="217" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK3" s="443" t="s">
+        <v>147</v>
+      </c>
+      <c r="AL3" s="444">
+        <v>10255255255</v>
+      </c>
+      <c r="AM3" s="217" t="s">
+        <v>150</v>
+      </c>
+      <c r="AN3" s="217" t="s">
+        <v>153</v>
+      </c>
+      <c r="AO3" s="217">
+        <v>1</v>
+      </c>
+      <c r="AP3" s="447">
+        <f>256^3-2</f>
+        <v>16777214</v>
+      </c>
+      <c r="AQ3" s="222" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR3" s="217" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="4" spans="1:44" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="35">
         <v>1000</v>
       </c>
@@ -12043,8 +12639,54 @@
       <c r="AA4" s="76">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE4" s="34" t="s">
+        <v>450</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>132</v>
+      </c>
+      <c r="AG4" s="34" t="s">
+        <v>712</v>
+      </c>
+      <c r="AH4" s="223">
+        <v>191255255255</v>
+      </c>
+      <c r="AI4" s="445" t="s">
+        <v>718</v>
+      </c>
+      <c r="AJ4" s="217" t="s">
+        <v>716</v>
+      </c>
+      <c r="AK4" s="445" t="s">
+        <v>719</v>
+      </c>
+      <c r="AL4" s="217" t="s">
+        <v>717</v>
+      </c>
+      <c r="AM4" s="217" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN4" s="217" t="s">
+        <v>154</v>
+      </c>
+      <c r="AO4" s="217">
+        <v>16</v>
+      </c>
+      <c r="AP4" s="447">
+        <f>256^2-2</f>
+        <v>65534</v>
+      </c>
+      <c r="AQ4" s="448" t="s">
+        <v>165</v>
+      </c>
+      <c r="AR4" s="217" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="5" spans="1:44" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="38">
         <v>3</v>
       </c>
@@ -12110,8 +12752,54 @@
       <c r="AA5" s="78" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="6" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE5" s="34" t="s">
+        <v>355</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>133</v>
+      </c>
+      <c r="AG5" s="34" t="s">
+        <v>713</v>
+      </c>
+      <c r="AH5" s="223">
+        <v>223255255255</v>
+      </c>
+      <c r="AI5" s="445" t="s">
+        <v>721</v>
+      </c>
+      <c r="AJ5" s="443" t="s">
+        <v>720</v>
+      </c>
+      <c r="AK5" s="445" t="s">
+        <v>722</v>
+      </c>
+      <c r="AL5" s="444">
+        <v>192168255255</v>
+      </c>
+      <c r="AM5" s="217" t="s">
+        <v>152</v>
+      </c>
+      <c r="AN5" s="217" t="s">
+        <v>155</v>
+      </c>
+      <c r="AO5" s="217">
+        <v>256</v>
+      </c>
+      <c r="AP5" s="217">
+        <f>256^1-2</f>
+        <v>254</v>
+      </c>
+      <c r="AQ5" s="217" t="s">
+        <v>727</v>
+      </c>
+      <c r="AR5" s="217" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="6" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="33"/>
       <c r="B6" s="33"/>
       <c r="C6" s="33"/>
@@ -12169,14 +12857,41 @@
       <c r="AA6" s="79">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="361" t="s">
+      <c r="AD6" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE6" s="34" t="s">
+        <v>467</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG6" s="34" t="s">
+        <v>714</v>
+      </c>
+      <c r="AH6" s="223">
+        <v>239255255255</v>
+      </c>
+      <c r="AI6" s="446" t="s">
+        <v>148</v>
+      </c>
+      <c r="AJ6" s="446"/>
+      <c r="AK6" s="446"/>
+      <c r="AL6" s="446"/>
+      <c r="AQ6" s="217" t="s">
+        <v>134</v>
+      </c>
+      <c r="AR6" s="217" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="375" t="s">
         <v>120</v>
       </c>
-      <c r="B7" s="361"/>
-      <c r="C7" s="361"/>
-      <c r="D7" s="361"/>
+      <c r="B7" s="375"/>
+      <c r="C7" s="375"/>
+      <c r="D7" s="375"/>
       <c r="F7" s="59">
         <v>1</v>
       </c>
@@ -12230,8 +12945,35 @@
       <c r="AA7" s="80">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD7" t="s">
+        <v>113</v>
+      </c>
+      <c r="AE7" s="34" t="s">
+        <v>710</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>135</v>
+      </c>
+      <c r="AG7" s="34" t="s">
+        <v>715</v>
+      </c>
+      <c r="AH7" s="223">
+        <v>255255255255</v>
+      </c>
+      <c r="AI7" s="446" t="s">
+        <v>149</v>
+      </c>
+      <c r="AJ7" s="446"/>
+      <c r="AK7" s="446"/>
+      <c r="AL7" s="446"/>
+      <c r="AQ7" s="217" t="s">
+        <v>726</v>
+      </c>
+      <c r="AR7" s="217" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="38" t="s">
         <v>124</v>
       </c>
@@ -12297,8 +13039,13 @@
       <c r="AA8" s="75">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE8" s="442">
+        <f>2^32</f>
+        <v>4294967296</v>
+      </c>
+      <c r="AF8" s="442"/>
+    </row>
+    <row r="9" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="35">
         <v>8</v>
       </c>
@@ -12365,7 +13112,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="38">
         <v>1</v>
       </c>
@@ -12430,7 +13177,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A11" s="33"/>
       <c r="B11" s="33"/>
       <c r="C11" s="33"/>
@@ -12469,13 +13216,13 @@
         <v>163</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="361" t="s">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A12" s="375" t="s">
         <v>125</v>
       </c>
-      <c r="B12" s="361"/>
-      <c r="C12" s="361"/>
-      <c r="D12" s="361"/>
+      <c r="B12" s="375"/>
+      <c r="C12" s="375"/>
+      <c r="D12" s="375"/>
       <c r="F12" s="58">
         <v>0</v>
       </c>
@@ -12509,8 +13256,14 @@
       <c r="P12" s="68">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Z12" t="s">
+        <v>696</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A13" s="38" t="s">
         <v>129</v>
       </c>
@@ -12556,8 +13309,17 @@
       <c r="P13" s="70">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Y13" t="s">
+        <v>697</v>
+      </c>
+      <c r="Z13">
+        <v>12</v>
+      </c>
+      <c r="AA13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A14" s="35">
         <f>16^3</f>
         <v>4096</v>
@@ -12604,8 +13366,17 @@
       <c r="P14" s="68">
         <v>40</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y14" t="s">
+        <v>698</v>
+      </c>
+      <c r="Z14" s="31" t="s">
+        <v>700</v>
+      </c>
+      <c r="AA14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="38">
         <v>0</v>
       </c>
@@ -12651,8 +13422,17 @@
       <c r="P15" s="72" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Y15" t="s">
+        <v>699</v>
+      </c>
+      <c r="Z15">
+        <v>1100</v>
+      </c>
+      <c r="AA15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
       <c r="F16" s="58">
         <v>1</v>
       </c>
@@ -12687,22 +13467,1225 @@
         <v>312</v>
       </c>
     </row>
-    <row r="17" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:28" x14ac:dyDescent="0.25">
       <c r="Q17" s="37"/>
     </row>
-    <row r="19" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E19" s="33"/>
       <c r="Q19" s="33"/>
-    </row>
-    <row r="23" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="S19" s="303">
+        <v>128</v>
+      </c>
+      <c r="T19" s="304">
+        <v>64</v>
+      </c>
+      <c r="U19" s="304">
+        <v>32</v>
+      </c>
+      <c r="V19" s="304">
+        <v>16</v>
+      </c>
+      <c r="W19" s="304">
+        <v>8</v>
+      </c>
+      <c r="X19" s="304">
+        <v>4</v>
+      </c>
+      <c r="Y19" s="304">
+        <v>2</v>
+      </c>
+      <c r="Z19" s="304">
+        <v>1</v>
+      </c>
+      <c r="AA19" s="311"/>
+    </row>
+    <row r="20" spans="5:28" x14ac:dyDescent="0.25">
+      <c r="S20" s="303">
+        <v>1</v>
+      </c>
+      <c r="T20" s="304">
+        <v>0</v>
+      </c>
+      <c r="U20" s="304">
+        <v>1</v>
+      </c>
+      <c r="V20" s="311">
+        <v>0</v>
+      </c>
+      <c r="W20" s="303">
+        <v>1</v>
+      </c>
+      <c r="X20" s="304">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="304">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="311">
+        <v>1</v>
+      </c>
+      <c r="AA20" s="434" t="s">
+        <v>701</v>
+      </c>
+      <c r="AB20" s="435">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21" spans="5:28" x14ac:dyDescent="0.25">
+      <c r="S21" s="431">
+        <v>1</v>
+      </c>
+      <c r="T21" s="432">
+        <v>0</v>
+      </c>
+      <c r="U21" s="432">
+        <v>1</v>
+      </c>
+      <c r="V21" s="433">
+        <v>0</v>
+      </c>
+      <c r="W21" s="431">
+        <v>1</v>
+      </c>
+      <c r="X21" s="432">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="432">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="433">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="436" t="s">
+        <v>702</v>
+      </c>
+      <c r="AB21" s="437">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="22" spans="5:28" x14ac:dyDescent="0.25">
+      <c r="S22" s="306">
+        <v>1</v>
+      </c>
+      <c r="T22" s="307">
+        <v>0</v>
+      </c>
+      <c r="U22" s="307">
+        <v>1</v>
+      </c>
+      <c r="V22" s="312">
+        <v>0</v>
+      </c>
+      <c r="W22" s="306">
+        <v>1</v>
+      </c>
+      <c r="X22" s="307">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="307">
+        <v>1</v>
+      </c>
+      <c r="Z22" s="312">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="438" t="s">
+        <v>703</v>
+      </c>
+      <c r="AB22" s="439">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="23" spans="5:28" x14ac:dyDescent="0.25">
       <c r="N23" s="92"/>
       <c r="Q23" s="33"/>
     </row>
-    <row r="24" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:28" x14ac:dyDescent="0.25">
       <c r="N24" s="92"/>
     </row>
+    <row r="27" spans="5:28" x14ac:dyDescent="0.25">
+      <c r="F27" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="28" spans="5:28" x14ac:dyDescent="0.25">
+      <c r="F28" t="s">
+        <v>684</v>
+      </c>
+      <c r="G28" t="s">
+        <v>685</v>
+      </c>
+      <c r="H28" t="s">
+        <v>686</v>
+      </c>
+      <c r="I28" t="s">
+        <v>687</v>
+      </c>
+      <c r="J28" t="s">
+        <v>124</v>
+      </c>
+      <c r="K28" t="s">
+        <v>123</v>
+      </c>
+      <c r="L28" t="s">
+        <v>122</v>
+      </c>
+      <c r="M28" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="29" spans="5:28" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="5:28" x14ac:dyDescent="0.25">
+      <c r="F30">
+        <v>128</v>
+      </c>
+      <c r="G30">
+        <v>64</v>
+      </c>
+      <c r="H30">
+        <v>32</v>
+      </c>
+      <c r="I30">
+        <v>16</v>
+      </c>
+      <c r="J30">
+        <v>8</v>
+      </c>
+      <c r="K30">
+        <v>4</v>
+      </c>
+      <c r="L30">
+        <v>2</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="5:28" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32" s="31">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="33" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33" s="31">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="34" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34" s="31">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="35" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35" s="31">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36" s="31">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="37" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37" s="31">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="38" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38" s="31">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="39" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39" s="31">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40" s="31">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="41" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41" s="31">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="42" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42" s="31">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="43" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43" s="31">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="45" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>688</v>
+      </c>
+      <c r="F45" s="303">
+        <v>0</v>
+      </c>
+      <c r="G45" s="304">
+        <v>0</v>
+      </c>
+      <c r="H45" s="304">
+        <v>0</v>
+      </c>
+      <c r="I45" s="304">
+        <v>0</v>
+      </c>
+      <c r="J45" s="304">
+        <v>1</v>
+      </c>
+      <c r="K45" s="304">
+        <v>0</v>
+      </c>
+      <c r="L45" s="304">
+        <v>1</v>
+      </c>
+      <c r="M45" s="311">
+        <v>0</v>
+      </c>
+      <c r="N45" s="305">
+        <v>10</v>
+      </c>
+      <c r="O45" s="314" t="s">
+        <v>693</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>689</v>
+      </c>
+      <c r="R45">
+        <v>10</v>
+      </c>
+      <c r="S45">
+        <v>242</v>
+      </c>
+      <c r="T45">
+        <v>76</v>
+      </c>
+      <c r="U45">
+        <v>24</v>
+      </c>
+      <c r="V45" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="46" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="F46" s="306">
+        <v>1</v>
+      </c>
+      <c r="G46" s="307">
+        <v>1</v>
+      </c>
+      <c r="H46" s="307">
+        <v>1</v>
+      </c>
+      <c r="I46" s="307">
+        <v>1</v>
+      </c>
+      <c r="J46" s="307">
+        <v>1</v>
+      </c>
+      <c r="K46" s="307">
+        <v>1</v>
+      </c>
+      <c r="L46" s="307">
+        <v>1</v>
+      </c>
+      <c r="M46" s="312">
+        <v>1</v>
+      </c>
+      <c r="N46" s="308">
+        <v>255</v>
+      </c>
+      <c r="O46" s="315" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>690</v>
+      </c>
+      <c r="R46">
+        <v>255</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="F47" s="303">
+        <v>1</v>
+      </c>
+      <c r="G47" s="304">
+        <v>1</v>
+      </c>
+      <c r="H47" s="304">
+        <v>1</v>
+      </c>
+      <c r="I47" s="304">
+        <v>1</v>
+      </c>
+      <c r="J47" s="304">
+        <v>0</v>
+      </c>
+      <c r="K47" s="304">
+        <v>0</v>
+      </c>
+      <c r="L47" s="304">
+        <v>1</v>
+      </c>
+      <c r="M47" s="311">
+        <v>0</v>
+      </c>
+      <c r="N47" s="305">
+        <v>242</v>
+      </c>
+      <c r="O47" s="314" t="s">
+        <v>694</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>691</v>
+      </c>
+      <c r="R47">
+        <v>10</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>0</v>
+      </c>
+      <c r="U47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="F48" s="306">
+        <v>0</v>
+      </c>
+      <c r="G48" s="307">
+        <v>0</v>
+      </c>
+      <c r="H48" s="307">
+        <v>0</v>
+      </c>
+      <c r="I48" s="307">
+        <v>0</v>
+      </c>
+      <c r="J48" s="307">
+        <v>0</v>
+      </c>
+      <c r="K48" s="307">
+        <v>0</v>
+      </c>
+      <c r="L48" s="307">
+        <v>0</v>
+      </c>
+      <c r="M48" s="312">
+        <v>0</v>
+      </c>
+      <c r="N48" s="308">
+        <v>0</v>
+      </c>
+      <c r="O48" s="315">
+        <v>0</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>692</v>
+      </c>
+      <c r="R48">
+        <v>10</v>
+      </c>
+      <c r="S48">
+        <v>255</v>
+      </c>
+      <c r="T48">
+        <v>255</v>
+      </c>
+      <c r="U48">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="49" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F49" s="303">
+        <v>0</v>
+      </c>
+      <c r="G49" s="304">
+        <v>1</v>
+      </c>
+      <c r="H49" s="304">
+        <v>0</v>
+      </c>
+      <c r="I49" s="304">
+        <v>0</v>
+      </c>
+      <c r="J49" s="304">
+        <v>1</v>
+      </c>
+      <c r="K49" s="304">
+        <v>1</v>
+      </c>
+      <c r="L49" s="304">
+        <v>0</v>
+      </c>
+      <c r="M49" s="311">
+        <v>0</v>
+      </c>
+      <c r="N49" s="305">
+        <v>76</v>
+      </c>
+      <c r="O49" s="314" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="50" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F50" s="306">
+        <v>0</v>
+      </c>
+      <c r="G50" s="307">
+        <v>0</v>
+      </c>
+      <c r="H50" s="307">
+        <v>0</v>
+      </c>
+      <c r="I50" s="307">
+        <v>0</v>
+      </c>
+      <c r="J50" s="307">
+        <v>0</v>
+      </c>
+      <c r="K50" s="307">
+        <v>0</v>
+      </c>
+      <c r="L50" s="307">
+        <v>0</v>
+      </c>
+      <c r="M50" s="312">
+        <v>0</v>
+      </c>
+      <c r="N50" s="308">
+        <v>0</v>
+      </c>
+      <c r="O50" s="315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F51" s="303">
+        <v>0</v>
+      </c>
+      <c r="G51" s="304">
+        <v>0</v>
+      </c>
+      <c r="H51" s="304">
+        <v>0</v>
+      </c>
+      <c r="I51" s="304">
+        <v>1</v>
+      </c>
+      <c r="J51" s="304">
+        <v>1</v>
+      </c>
+      <c r="K51" s="304">
+        <v>0</v>
+      </c>
+      <c r="L51" s="304">
+        <v>0</v>
+      </c>
+      <c r="M51" s="311">
+        <v>0</v>
+      </c>
+      <c r="N51" s="305">
+        <v>24</v>
+      </c>
+      <c r="O51" s="314">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F52" s="306">
+        <v>0</v>
+      </c>
+      <c r="G52" s="307">
+        <v>0</v>
+      </c>
+      <c r="H52" s="307">
+        <v>0</v>
+      </c>
+      <c r="I52" s="307">
+        <v>0</v>
+      </c>
+      <c r="J52" s="307">
+        <v>0</v>
+      </c>
+      <c r="K52" s="307">
+        <v>0</v>
+      </c>
+      <c r="L52" s="307">
+        <v>0</v>
+      </c>
+      <c r="M52" s="312">
+        <v>0</v>
+      </c>
+      <c r="N52" s="308">
+        <v>0</v>
+      </c>
+      <c r="O52" s="315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F54" s="303">
+        <v>1</v>
+      </c>
+      <c r="G54" s="304">
+        <v>0</v>
+      </c>
+      <c r="H54" s="304">
+        <v>1</v>
+      </c>
+      <c r="I54" s="311">
+        <v>0</v>
+      </c>
+      <c r="J54" s="303">
+        <v>1</v>
+      </c>
+      <c r="K54" s="304">
+        <v>1</v>
+      </c>
+      <c r="L54" s="304">
+        <v>0</v>
+      </c>
+      <c r="M54" s="311">
+        <v>0</v>
+      </c>
+      <c r="N54" s="305">
+        <v>172</v>
+      </c>
+      <c r="O54" s="314" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>689</v>
+      </c>
+      <c r="R54">
+        <v>172</v>
+      </c>
+      <c r="S54">
+        <v>24</v>
+      </c>
+      <c r="T54">
+        <v>86</v>
+      </c>
+      <c r="U54">
+        <v>0</v>
+      </c>
+      <c r="V54" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="55" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F55" s="306">
+        <v>1</v>
+      </c>
+      <c r="G55" s="307">
+        <v>1</v>
+      </c>
+      <c r="H55" s="307">
+        <v>1</v>
+      </c>
+      <c r="I55" s="312">
+        <v>1</v>
+      </c>
+      <c r="J55" s="306">
+        <v>1</v>
+      </c>
+      <c r="K55" s="307">
+        <v>1</v>
+      </c>
+      <c r="L55" s="307">
+        <v>1</v>
+      </c>
+      <c r="M55" s="312">
+        <v>1</v>
+      </c>
+      <c r="N55" s="308">
+        <v>255</v>
+      </c>
+      <c r="O55" s="315" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>690</v>
+      </c>
+      <c r="R55">
+        <v>255</v>
+      </c>
+      <c r="S55">
+        <v>255</v>
+      </c>
+      <c r="T55">
+        <v>0</v>
+      </c>
+      <c r="U55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F56" s="303">
+        <v>0</v>
+      </c>
+      <c r="G56" s="304">
+        <v>0</v>
+      </c>
+      <c r="H56" s="304">
+        <v>0</v>
+      </c>
+      <c r="I56" s="311">
+        <v>1</v>
+      </c>
+      <c r="J56" s="303">
+        <v>1</v>
+      </c>
+      <c r="K56" s="304">
+        <v>0</v>
+      </c>
+      <c r="L56" s="304">
+        <v>0</v>
+      </c>
+      <c r="M56" s="311">
+        <v>0</v>
+      </c>
+      <c r="N56" s="305">
+        <v>24</v>
+      </c>
+      <c r="O56" s="314">
+        <v>18</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>691</v>
+      </c>
+      <c r="R56">
+        <v>172</v>
+      </c>
+      <c r="S56">
+        <v>24</v>
+      </c>
+      <c r="T56">
+        <v>0</v>
+      </c>
+      <c r="U56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F57" s="306">
+        <v>1</v>
+      </c>
+      <c r="G57" s="307">
+        <v>1</v>
+      </c>
+      <c r="H57" s="307">
+        <v>1</v>
+      </c>
+      <c r="I57" s="312">
+        <v>1</v>
+      </c>
+      <c r="J57" s="306">
+        <v>1</v>
+      </c>
+      <c r="K57" s="307">
+        <v>1</v>
+      </c>
+      <c r="L57" s="307">
+        <v>1</v>
+      </c>
+      <c r="M57" s="312">
+        <v>1</v>
+      </c>
+      <c r="N57" s="308">
+        <v>255</v>
+      </c>
+      <c r="O57" s="315" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>692</v>
+      </c>
+      <c r="R57">
+        <v>172</v>
+      </c>
+      <c r="S57">
+        <v>24</v>
+      </c>
+      <c r="T57">
+        <v>255</v>
+      </c>
+      <c r="U57">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="58" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F58" s="303">
+        <v>0</v>
+      </c>
+      <c r="G58" s="304">
+        <v>1</v>
+      </c>
+      <c r="H58" s="304">
+        <v>0</v>
+      </c>
+      <c r="I58" s="311">
+        <v>1</v>
+      </c>
+      <c r="J58" s="303">
+        <v>0</v>
+      </c>
+      <c r="K58" s="304">
+        <v>1</v>
+      </c>
+      <c r="L58" s="304">
+        <v>1</v>
+      </c>
+      <c r="M58" s="311">
+        <v>0</v>
+      </c>
+      <c r="N58" s="305">
+        <v>86</v>
+      </c>
+      <c r="O58" s="314">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F59" s="309">
+        <v>0</v>
+      </c>
+      <c r="G59" s="33">
+        <v>0</v>
+      </c>
+      <c r="H59" s="33">
+        <v>0</v>
+      </c>
+      <c r="I59" s="313">
+        <v>0</v>
+      </c>
+      <c r="J59" s="309">
+        <v>0</v>
+      </c>
+      <c r="K59" s="33">
+        <v>0</v>
+      </c>
+      <c r="L59" s="33">
+        <v>0</v>
+      </c>
+      <c r="M59" s="313">
+        <v>0</v>
+      </c>
+      <c r="N59" s="92">
+        <v>0</v>
+      </c>
+      <c r="O59" s="316">
+        <v>0</v>
+      </c>
+      <c r="S59" s="310"/>
+    </row>
+    <row r="60" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F60" s="303">
+        <v>0</v>
+      </c>
+      <c r="G60" s="304">
+        <v>0</v>
+      </c>
+      <c r="H60" s="304">
+        <v>0</v>
+      </c>
+      <c r="I60" s="311">
+        <v>0</v>
+      </c>
+      <c r="J60" s="303">
+        <v>0</v>
+      </c>
+      <c r="K60" s="304">
+        <v>0</v>
+      </c>
+      <c r="L60" s="304">
+        <v>0</v>
+      </c>
+      <c r="M60" s="311">
+        <v>0</v>
+      </c>
+      <c r="N60" s="305">
+        <v>0</v>
+      </c>
+      <c r="O60" s="314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F61" s="306">
+        <v>0</v>
+      </c>
+      <c r="G61" s="307">
+        <v>0</v>
+      </c>
+      <c r="H61" s="307">
+        <v>0</v>
+      </c>
+      <c r="I61" s="312">
+        <v>0</v>
+      </c>
+      <c r="J61" s="306">
+        <v>0</v>
+      </c>
+      <c r="K61" s="307">
+        <v>0</v>
+      </c>
+      <c r="L61" s="307">
+        <v>0</v>
+      </c>
+      <c r="M61" s="312">
+        <v>0</v>
+      </c>
+      <c r="N61" s="308">
+        <v>0</v>
+      </c>
+      <c r="O61" s="315">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="19">
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="AI6:AL6"/>
+    <mergeCell ref="AI7:AL7"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AK2:AL2"/>
+    <mergeCell ref="AE1:AH1"/>
+    <mergeCell ref="AI1:AL1"/>
     <mergeCell ref="R1:AA1"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="R2:Y2"/>
@@ -12716,6 +14699,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -12754,28 +14738,28 @@
       <c r="A1" s="94" t="s">
         <v>238</v>
       </c>
-      <c r="B1" s="363" t="s">
+      <c r="B1" s="377" t="s">
         <v>230</v>
       </c>
-      <c r="C1" s="363"/>
-      <c r="D1" s="363"/>
-      <c r="E1" s="364"/>
-      <c r="F1" s="363" t="s">
+      <c r="C1" s="377"/>
+      <c r="D1" s="377"/>
+      <c r="E1" s="378"/>
+      <c r="F1" s="377" t="s">
         <v>231</v>
       </c>
-      <c r="G1" s="363"/>
-      <c r="H1" s="363"/>
-      <c r="I1" s="363"/>
-      <c r="J1" s="363"/>
-      <c r="K1" s="363"/>
-      <c r="L1" s="363"/>
-      <c r="M1" s="363"/>
-      <c r="N1" s="365">
+      <c r="G1" s="377"/>
+      <c r="H1" s="377"/>
+      <c r="I1" s="377"/>
+      <c r="J1" s="377"/>
+      <c r="K1" s="377"/>
+      <c r="L1" s="377"/>
+      <c r="M1" s="377"/>
+      <c r="N1" s="379">
         <f>2^32</f>
         <v>4294967296</v>
       </c>
-      <c r="O1" s="365"/>
-      <c r="P1" s="365"/>
+      <c r="O1" s="379"/>
+      <c r="P1" s="379"/>
       <c r="Q1" s="162" t="s">
         <v>239</v>
       </c>
@@ -12784,34 +14768,34 @@
       <c r="A2" s="94" t="s">
         <v>156</v>
       </c>
-      <c r="B2" s="366" t="s">
+      <c r="B2" s="380" t="s">
         <v>225</v>
       </c>
-      <c r="C2" s="366"/>
-      <c r="D2" s="366" t="s">
+      <c r="C2" s="380"/>
+      <c r="D2" s="380" t="s">
         <v>130</v>
       </c>
-      <c r="E2" s="367"/>
-      <c r="F2" s="366" t="s">
+      <c r="E2" s="381"/>
+      <c r="F2" s="380" t="s">
         <v>225</v>
       </c>
-      <c r="G2" s="366"/>
-      <c r="H2" s="366" t="s">
+      <c r="G2" s="380"/>
+      <c r="H2" s="380" t="s">
         <v>130</v>
       </c>
-      <c r="I2" s="366"/>
-      <c r="J2" s="366" t="s">
+      <c r="I2" s="380"/>
+      <c r="J2" s="380" t="s">
         <v>226</v>
       </c>
-      <c r="K2" s="366"/>
-      <c r="L2" s="366"/>
-      <c r="M2" s="366"/>
-      <c r="N2" s="372" t="s">
+      <c r="K2" s="380"/>
+      <c r="L2" s="380"/>
+      <c r="M2" s="380"/>
+      <c r="N2" s="386" t="s">
         <v>265</v>
       </c>
-      <c r="O2" s="372"/>
-      <c r="P2" s="372"/>
-      <c r="Q2" s="372"/>
+      <c r="O2" s="386"/>
+      <c r="P2" s="386"/>
+      <c r="Q2" s="386"/>
     </row>
     <row r="3" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="161" t="s">
@@ -13038,18 +15022,18 @@
       <c r="E7" s="152" t="s">
         <v>143</v>
       </c>
-      <c r="F7" s="368" t="s">
+      <c r="F7" s="382" t="s">
         <v>148</v>
       </c>
-      <c r="G7" s="369"/>
-      <c r="H7" s="369"/>
-      <c r="I7" s="369"/>
-      <c r="J7" s="368" t="s">
+      <c r="G7" s="383"/>
+      <c r="H7" s="383"/>
+      <c r="I7" s="383"/>
+      <c r="J7" s="382" t="s">
         <v>148</v>
       </c>
-      <c r="K7" s="369"/>
-      <c r="L7" s="369"/>
-      <c r="M7" s="369"/>
+      <c r="K7" s="383"/>
+      <c r="L7" s="383"/>
+      <c r="M7" s="383"/>
       <c r="N7" s="199" t="s">
         <v>134</v>
       </c>
@@ -13079,18 +15063,18 @@
       <c r="E8" s="154" t="s">
         <v>145</v>
       </c>
-      <c r="F8" s="370" t="s">
+      <c r="F8" s="384" t="s">
         <v>149</v>
       </c>
-      <c r="G8" s="371"/>
-      <c r="H8" s="371"/>
-      <c r="I8" s="371"/>
-      <c r="J8" s="370" t="s">
+      <c r="G8" s="385"/>
+      <c r="H8" s="385"/>
+      <c r="I8" s="385"/>
+      <c r="J8" s="384" t="s">
         <v>149</v>
       </c>
-      <c r="K8" s="371"/>
-      <c r="L8" s="371"/>
-      <c r="M8" s="371"/>
+      <c r="K8" s="385"/>
+      <c r="L8" s="385"/>
+      <c r="M8" s="385"/>
       <c r="N8" s="202" t="s">
         <v>135</v>
       </c>
@@ -13850,45 +15834,45 @@
       <c r="A1" s="97" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="373">
+      <c r="B1" s="387">
         <f>2^128</f>
         <v>3.4028236692093846E+38</v>
       </c>
-      <c r="C1" s="373"/>
-      <c r="D1" s="373"/>
-      <c r="E1" s="373"/>
-      <c r="F1" s="373"/>
-      <c r="G1" s="373"/>
-      <c r="H1" s="373"/>
-      <c r="I1" s="373"/>
+      <c r="C1" s="387"/>
+      <c r="D1" s="387"/>
+      <c r="E1" s="387"/>
+      <c r="F1" s="387"/>
+      <c r="G1" s="387"/>
+      <c r="H1" s="387"/>
+      <c r="I1" s="387"/>
       <c r="J1" s="97" t="s">
         <v>240</v>
       </c>
-      <c r="K1" s="374" t="s">
+      <c r="K1" s="388" t="s">
         <v>229</v>
       </c>
-      <c r="L1" s="374"/>
-      <c r="M1" s="374"/>
-      <c r="N1" s="374"/>
+      <c r="L1" s="388"/>
+      <c r="M1" s="388"/>
+      <c r="N1" s="388"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="120" t="s">
         <v>177</v>
       </c>
-      <c r="B2" s="375" t="s">
+      <c r="B2" s="389" t="s">
         <v>173</v>
       </c>
-      <c r="C2" s="376"/>
-      <c r="D2" s="376"/>
+      <c r="C2" s="390"/>
+      <c r="D2" s="390"/>
       <c r="E2" s="98" t="s">
         <v>253</v>
       </c>
-      <c r="F2" s="376" t="s">
+      <c r="F2" s="390" t="s">
         <v>174</v>
       </c>
-      <c r="G2" s="376"/>
-      <c r="H2" s="376"/>
-      <c r="I2" s="377"/>
+      <c r="G2" s="390"/>
+      <c r="H2" s="390"/>
+      <c r="I2" s="391"/>
       <c r="J2" s="99" t="s">
         <v>175</v>
       </c>
@@ -14009,11 +15993,11 @@
       <c r="E5" s="118" t="s">
         <v>182</v>
       </c>
-      <c r="F5" s="378" t="s">
+      <c r="F5" s="392" t="s">
         <v>184</v>
       </c>
-      <c r="G5" s="378"/>
-      <c r="H5" s="378"/>
+      <c r="G5" s="392"/>
+      <c r="H5" s="392"/>
       <c r="I5" s="119">
         <v>1</v>
       </c>
@@ -14043,12 +16027,12 @@
       <c r="B7" s="103" t="s">
         <v>263</v>
       </c>
-      <c r="C7" s="385" t="s">
+      <c r="C7" s="399" t="s">
         <v>248</v>
       </c>
-      <c r="D7" s="385"/>
-      <c r="E7" s="385"/>
-      <c r="F7" s="386"/>
+      <c r="D7" s="399"/>
+      <c r="E7" s="399"/>
+      <c r="F7" s="400"/>
       <c r="G7" s="127" t="s">
         <v>261</v>
       </c>
@@ -14063,10 +16047,10 @@
       <c r="C8" s="123" t="s">
         <v>262</v>
       </c>
-      <c r="D8" s="387" t="s">
+      <c r="D8" s="401" t="s">
         <v>249</v>
       </c>
-      <c r="E8" s="387"/>
+      <c r="E8" s="401"/>
       <c r="F8" s="121" t="s">
         <v>250</v>
       </c>
@@ -14125,88 +16109,88 @@
       <c r="A12" s="130" t="s">
         <v>263</v>
       </c>
-      <c r="B12" s="382" t="s">
+      <c r="B12" s="396" t="s">
         <v>248</v>
       </c>
-      <c r="C12" s="383"/>
-      <c r="D12" s="384"/>
-      <c r="E12" s="382" t="s">
+      <c r="C12" s="397"/>
+      <c r="D12" s="398"/>
+      <c r="E12" s="396" t="s">
         <v>264</v>
       </c>
-      <c r="F12" s="383"/>
-      <c r="G12" s="384"/>
+      <c r="F12" s="397"/>
+      <c r="G12" s="398"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="128" t="s">
         <v>188</v>
       </c>
-      <c r="B13" s="379" t="s">
+      <c r="B13" s="393" t="s">
         <v>190</v>
       </c>
-      <c r="C13" s="380"/>
-      <c r="D13" s="381"/>
-      <c r="E13" s="380" t="s">
+      <c r="C13" s="394"/>
+      <c r="D13" s="395"/>
+      <c r="E13" s="394" t="s">
         <v>191</v>
       </c>
-      <c r="F13" s="380"/>
-      <c r="G13" s="381"/>
+      <c r="F13" s="394"/>
+      <c r="G13" s="395"/>
       <c r="H13" s="37"/>
       <c r="I13" s="37"/>
       <c r="J13" s="37"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="129"/>
-      <c r="B14" s="388"/>
-      <c r="C14" s="389"/>
-      <c r="D14" s="390"/>
-      <c r="E14" s="389"/>
-      <c r="F14" s="389"/>
-      <c r="G14" s="390"/>
+      <c r="B14" s="402"/>
+      <c r="C14" s="403"/>
+      <c r="D14" s="404"/>
+      <c r="E14" s="403"/>
+      <c r="F14" s="403"/>
+      <c r="G14" s="404"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="128"/>
-      <c r="B15" s="379"/>
-      <c r="C15" s="380"/>
-      <c r="D15" s="381"/>
-      <c r="E15" s="380"/>
-      <c r="F15" s="380"/>
-      <c r="G15" s="381"/>
+      <c r="B15" s="393"/>
+      <c r="C15" s="394"/>
+      <c r="D15" s="395"/>
+      <c r="E15" s="394"/>
+      <c r="F15" s="394"/>
+      <c r="G15" s="395"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="129"/>
-      <c r="B16" s="388"/>
-      <c r="C16" s="389"/>
-      <c r="D16" s="390"/>
-      <c r="E16" s="389"/>
-      <c r="F16" s="389"/>
-      <c r="G16" s="390"/>
+      <c r="B16" s="402"/>
+      <c r="C16" s="403"/>
+      <c r="D16" s="404"/>
+      <c r="E16" s="403"/>
+      <c r="F16" s="403"/>
+      <c r="G16" s="404"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="128"/>
-      <c r="B17" s="379"/>
-      <c r="C17" s="380"/>
-      <c r="D17" s="381"/>
-      <c r="E17" s="380"/>
-      <c r="F17" s="380"/>
-      <c r="G17" s="381"/>
+      <c r="B17" s="393"/>
+      <c r="C17" s="394"/>
+      <c r="D17" s="395"/>
+      <c r="E17" s="394"/>
+      <c r="F17" s="394"/>
+      <c r="G17" s="395"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="129"/>
-      <c r="B18" s="388"/>
-      <c r="C18" s="389"/>
-      <c r="D18" s="390"/>
-      <c r="E18" s="389"/>
-      <c r="F18" s="389"/>
-      <c r="G18" s="390"/>
+      <c r="B18" s="402"/>
+      <c r="C18" s="403"/>
+      <c r="D18" s="404"/>
+      <c r="E18" s="403"/>
+      <c r="F18" s="403"/>
+      <c r="G18" s="404"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="116"/>
-      <c r="B19" s="391"/>
-      <c r="C19" s="392"/>
-      <c r="D19" s="393"/>
-      <c r="E19" s="392"/>
-      <c r="F19" s="392"/>
-      <c r="G19" s="393"/>
+      <c r="B19" s="405"/>
+      <c r="C19" s="406"/>
+      <c r="D19" s="407"/>
+      <c r="E19" s="406"/>
+      <c r="F19" s="406"/>
+      <c r="G19" s="407"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -14267,11 +16251,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="409" t="s">
+      <c r="A1" s="423" t="s">
         <v>320</v>
       </c>
-      <c r="B1" s="409"/>
-      <c r="C1" s="409"/>
+      <c r="B1" s="423"/>
+      <c r="C1" s="423"/>
       <c r="D1" s="226" t="s">
         <v>471</v>
       </c>
@@ -14299,11 +16283,11 @@
       <c r="P1" s="34"/>
     </row>
     <row r="2" spans="1:16" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="406" t="s">
+      <c r="A2" s="420" t="s">
         <v>470</v>
       </c>
-      <c r="B2" s="407"/>
-      <c r="C2" s="408"/>
+      <c r="B2" s="421"/>
+      <c r="C2" s="422"/>
       <c r="D2" s="230" t="s">
         <v>321</v>
       </c>
@@ -14387,21 +16371,21 @@
       <c r="F4" s="244" t="s">
         <v>326</v>
       </c>
-      <c r="G4" s="397" t="s">
+      <c r="G4" s="411" t="s">
         <v>108</v>
       </c>
-      <c r="H4" s="397">
+      <c r="H4" s="411">
         <v>3</v>
       </c>
-      <c r="I4" s="397">
+      <c r="I4" s="411">
         <f>IF(H4="","",IF(H4&lt;=2,1,IF(H4&lt;=4,2,IF(H4&lt;=8,3,IF(H4&lt;=16,4,IF(H4&lt;=32,5,IF(H4&lt;=64,6,IF(H4&lt;=128,7,8))))))))</f>
         <v>2</v>
       </c>
-      <c r="J4" s="397">
+      <c r="J4" s="411">
         <f>IF(G4="","",IF(G4="A",8+I4,IF(G4="B",16+I4,IF(G4="C",24+I4,"invalid"))))</f>
         <v>10</v>
       </c>
-      <c r="K4" s="400">
+      <c r="K4" s="414">
         <f>IF(J4="","",2^(32-J4))</f>
         <v>4194304</v>
       </c>
@@ -14425,11 +16409,11 @@
       <c r="F5" s="214" t="s">
         <v>326</v>
       </c>
-      <c r="G5" s="398"/>
-      <c r="H5" s="398"/>
-      <c r="I5" s="398"/>
-      <c r="J5" s="398"/>
-      <c r="K5" s="401"/>
+      <c r="G5" s="412"/>
+      <c r="H5" s="412"/>
+      <c r="I5" s="412"/>
+      <c r="J5" s="412"/>
+      <c r="K5" s="415"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="237" t="s">
@@ -14450,11 +16434,11 @@
       <c r="F6" s="212" t="s">
         <v>326</v>
       </c>
-      <c r="G6" s="398"/>
-      <c r="H6" s="398"/>
-      <c r="I6" s="398"/>
-      <c r="J6" s="398"/>
-      <c r="K6" s="401"/>
+      <c r="G6" s="412"/>
+      <c r="H6" s="412"/>
+      <c r="I6" s="412"/>
+      <c r="J6" s="412"/>
+      <c r="K6" s="415"/>
     </row>
     <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="239" t="s">
@@ -14475,11 +16459,11 @@
       <c r="F7" s="241" t="s">
         <v>326</v>
       </c>
-      <c r="G7" s="399"/>
-      <c r="H7" s="399"/>
-      <c r="I7" s="399"/>
-      <c r="J7" s="399"/>
-      <c r="K7" s="402"/>
+      <c r="G7" s="413"/>
+      <c r="H7" s="413"/>
+      <c r="I7" s="413"/>
+      <c r="J7" s="413"/>
+      <c r="K7" s="416"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="242" t="s">
@@ -14500,21 +16484,21 @@
       <c r="F8" s="244" t="s">
         <v>389</v>
       </c>
-      <c r="G8" s="394" t="s">
+      <c r="G8" s="408" t="s">
         <v>109</v>
       </c>
-      <c r="H8" s="394">
+      <c r="H8" s="408">
         <v>5</v>
       </c>
-      <c r="I8" s="394">
+      <c r="I8" s="408">
         <f t="shared" ref="I8:I44" si="0">IF(H8="","",IF(H8&lt;=2,1,IF(H8&lt;=4,2,IF(H8&lt;=8,3,IF(H8&lt;=16,4,IF(H8&lt;=32,5,IF(H8&lt;=64,6,IF(H8&lt;=128,7,8))))))))</f>
         <v>3</v>
       </c>
-      <c r="J8" s="394">
+      <c r="J8" s="408">
         <f t="shared" ref="J8:J20" si="1">IF(G8="","",IF(G8="A",8+I8,IF(G8="B",16+I8,IF(G8="C",24+I8,"invalid"))))</f>
         <v>19</v>
       </c>
-      <c r="K8" s="403">
+      <c r="K8" s="417">
         <f t="shared" ref="K8:K44" si="2">IF(J8="","",2^(32-J8))</f>
         <v>8192</v>
       </c>
@@ -14538,11 +16522,11 @@
       <c r="F9" s="214" t="s">
         <v>389</v>
       </c>
-      <c r="G9" s="395"/>
-      <c r="H9" s="395"/>
-      <c r="I9" s="395"/>
-      <c r="J9" s="395"/>
-      <c r="K9" s="404"/>
+      <c r="G9" s="409"/>
+      <c r="H9" s="409"/>
+      <c r="I9" s="409"/>
+      <c r="J9" s="409"/>
+      <c r="K9" s="418"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="237" t="s">
@@ -14563,11 +16547,11 @@
       <c r="F10" s="212" t="s">
         <v>389</v>
       </c>
-      <c r="G10" s="395"/>
-      <c r="H10" s="395"/>
-      <c r="I10" s="395"/>
-      <c r="J10" s="395"/>
-      <c r="K10" s="404"/>
+      <c r="G10" s="409"/>
+      <c r="H10" s="409"/>
+      <c r="I10" s="409"/>
+      <c r="J10" s="409"/>
+      <c r="K10" s="418"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="238" t="s">
@@ -14588,11 +16572,11 @@
       <c r="F11" s="216" t="s">
         <v>389</v>
       </c>
-      <c r="G11" s="395"/>
-      <c r="H11" s="395"/>
-      <c r="I11" s="395"/>
-      <c r="J11" s="395"/>
-      <c r="K11" s="404"/>
+      <c r="G11" s="409"/>
+      <c r="H11" s="409"/>
+      <c r="I11" s="409"/>
+      <c r="J11" s="409"/>
+      <c r="K11" s="418"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="237" t="s">
@@ -14613,11 +16597,11 @@
       <c r="F12" s="212" t="s">
         <v>389</v>
       </c>
-      <c r="G12" s="395"/>
-      <c r="H12" s="395"/>
-      <c r="I12" s="395"/>
-      <c r="J12" s="395"/>
-      <c r="K12" s="404"/>
+      <c r="G12" s="409"/>
+      <c r="H12" s="409"/>
+      <c r="I12" s="409"/>
+      <c r="J12" s="409"/>
+      <c r="K12" s="418"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="236" t="s">
@@ -14638,11 +16622,11 @@
       <c r="F13" s="214" t="s">
         <v>389</v>
       </c>
-      <c r="G13" s="395"/>
-      <c r="H13" s="395"/>
-      <c r="I13" s="395"/>
-      <c r="J13" s="395"/>
-      <c r="K13" s="404"/>
+      <c r="G13" s="409"/>
+      <c r="H13" s="409"/>
+      <c r="I13" s="409"/>
+      <c r="J13" s="409"/>
+      <c r="K13" s="418"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="237" t="s">
@@ -14663,11 +16647,11 @@
       <c r="F14" s="212" t="s">
         <v>389</v>
       </c>
-      <c r="G14" s="395"/>
-      <c r="H14" s="395"/>
-      <c r="I14" s="395"/>
-      <c r="J14" s="395"/>
-      <c r="K14" s="404"/>
+      <c r="G14" s="409"/>
+      <c r="H14" s="409"/>
+      <c r="I14" s="409"/>
+      <c r="J14" s="409"/>
+      <c r="K14" s="418"/>
     </row>
     <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="239" t="s">
@@ -14688,11 +16672,11 @@
       <c r="F15" s="241" t="s">
         <v>389</v>
       </c>
-      <c r="G15" s="396"/>
-      <c r="H15" s="396"/>
-      <c r="I15" s="396"/>
-      <c r="J15" s="396"/>
-      <c r="K15" s="405"/>
+      <c r="G15" s="410"/>
+      <c r="H15" s="410"/>
+      <c r="I15" s="410"/>
+      <c r="J15" s="410"/>
+      <c r="K15" s="419"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="242" t="s">
@@ -14713,21 +16697,21 @@
       <c r="F16" s="245">
         <v>255255255192</v>
       </c>
-      <c r="G16" s="397" t="s">
+      <c r="G16" s="411" t="s">
         <v>111</v>
       </c>
-      <c r="H16" s="397">
+      <c r="H16" s="411">
         <v>4</v>
       </c>
-      <c r="I16" s="397">
+      <c r="I16" s="411">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J16" s="397">
+      <c r="J16" s="411">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="K16" s="400">
+      <c r="K16" s="414">
         <f t="shared" si="2"/>
         <v>64</v>
       </c>
@@ -14751,11 +16735,11 @@
       <c r="F17" s="225">
         <v>255255255192</v>
       </c>
-      <c r="G17" s="398"/>
-      <c r="H17" s="398"/>
-      <c r="I17" s="398"/>
-      <c r="J17" s="398"/>
-      <c r="K17" s="401"/>
+      <c r="G17" s="412"/>
+      <c r="H17" s="412"/>
+      <c r="I17" s="412"/>
+      <c r="J17" s="412"/>
+      <c r="K17" s="415"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="237" t="s">
@@ -14776,11 +16760,11 @@
       <c r="F18" s="224">
         <v>255255255192</v>
       </c>
-      <c r="G18" s="398"/>
-      <c r="H18" s="398"/>
-      <c r="I18" s="398"/>
-      <c r="J18" s="398"/>
-      <c r="K18" s="401"/>
+      <c r="G18" s="412"/>
+      <c r="H18" s="412"/>
+      <c r="I18" s="412"/>
+      <c r="J18" s="412"/>
+      <c r="K18" s="415"/>
     </row>
     <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="239" t="s">
@@ -14801,11 +16785,11 @@
       <c r="F19" s="246">
         <v>255255255192</v>
       </c>
-      <c r="G19" s="399"/>
-      <c r="H19" s="399"/>
-      <c r="I19" s="399"/>
-      <c r="J19" s="399"/>
-      <c r="K19" s="402"/>
+      <c r="G19" s="413"/>
+      <c r="H19" s="413"/>
+      <c r="I19" s="413"/>
+      <c r="J19" s="413"/>
+      <c r="K19" s="416"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="242" t="s">
@@ -14826,21 +16810,21 @@
       <c r="F20" s="244" t="s">
         <v>440</v>
       </c>
-      <c r="G20" s="394" t="s">
+      <c r="G20" s="408" t="s">
         <v>108</v>
       </c>
-      <c r="H20" s="394">
+      <c r="H20" s="408">
         <v>20</v>
       </c>
-      <c r="I20" s="394">
+      <c r="I20" s="408">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J20" s="394">
+      <c r="J20" s="408">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="K20" s="403">
+      <c r="K20" s="417">
         <f t="shared" si="2"/>
         <v>524288</v>
       </c>
@@ -14864,11 +16848,11 @@
       <c r="F21" s="214" t="s">
         <v>440</v>
       </c>
-      <c r="G21" s="395"/>
-      <c r="H21" s="395"/>
-      <c r="I21" s="395"/>
-      <c r="J21" s="395"/>
-      <c r="K21" s="404"/>
+      <c r="G21" s="409"/>
+      <c r="H21" s="409"/>
+      <c r="I21" s="409"/>
+      <c r="J21" s="409"/>
+      <c r="K21" s="418"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="237" t="s">
@@ -14889,11 +16873,11 @@
       <c r="F22" s="212" t="s">
         <v>440</v>
       </c>
-      <c r="G22" s="395"/>
-      <c r="H22" s="395"/>
-      <c r="I22" s="395"/>
-      <c r="J22" s="395"/>
-      <c r="K22" s="404"/>
+      <c r="G22" s="409"/>
+      <c r="H22" s="409"/>
+      <c r="I22" s="409"/>
+      <c r="J22" s="409"/>
+      <c r="K22" s="418"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="238" t="s">
@@ -14914,11 +16898,11 @@
       <c r="F23" s="216" t="s">
         <v>440</v>
       </c>
-      <c r="G23" s="395"/>
-      <c r="H23" s="395"/>
-      <c r="I23" s="395"/>
-      <c r="J23" s="395"/>
-      <c r="K23" s="404"/>
+      <c r="G23" s="409"/>
+      <c r="H23" s="409"/>
+      <c r="I23" s="409"/>
+      <c r="J23" s="409"/>
+      <c r="K23" s="418"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="237" t="s">
@@ -14939,11 +16923,11 @@
       <c r="F24" s="212" t="s">
         <v>440</v>
       </c>
-      <c r="G24" s="395"/>
-      <c r="H24" s="395"/>
-      <c r="I24" s="395"/>
-      <c r="J24" s="395"/>
-      <c r="K24" s="404"/>
+      <c r="G24" s="409"/>
+      <c r="H24" s="409"/>
+      <c r="I24" s="409"/>
+      <c r="J24" s="409"/>
+      <c r="K24" s="418"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="236" t="s">
@@ -14964,11 +16948,11 @@
       <c r="F25" s="214" t="s">
         <v>440</v>
       </c>
-      <c r="G25" s="395"/>
-      <c r="H25" s="395"/>
-      <c r="I25" s="395"/>
-      <c r="J25" s="395"/>
-      <c r="K25" s="404"/>
+      <c r="G25" s="409"/>
+      <c r="H25" s="409"/>
+      <c r="I25" s="409"/>
+      <c r="J25" s="409"/>
+      <c r="K25" s="418"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="237" t="s">
@@ -14989,11 +16973,11 @@
       <c r="F26" s="212" t="s">
         <v>440</v>
       </c>
-      <c r="G26" s="395"/>
-      <c r="H26" s="395"/>
-      <c r="I26" s="395"/>
-      <c r="J26" s="395"/>
-      <c r="K26" s="404"/>
+      <c r="G26" s="409"/>
+      <c r="H26" s="409"/>
+      <c r="I26" s="409"/>
+      <c r="J26" s="409"/>
+      <c r="K26" s="418"/>
     </row>
     <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="239" t="s">
@@ -15014,11 +16998,11 @@
       <c r="F27" s="241" t="s">
         <v>440</v>
       </c>
-      <c r="G27" s="396"/>
-      <c r="H27" s="396"/>
-      <c r="I27" s="396"/>
-      <c r="J27" s="396"/>
-      <c r="K27" s="405"/>
+      <c r="G27" s="410"/>
+      <c r="H27" s="410"/>
+      <c r="I27" s="410"/>
+      <c r="J27" s="410"/>
+      <c r="K27" s="419"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="242" t="s">
@@ -15039,21 +17023,21 @@
       <c r="F28" s="244" t="s">
         <v>440</v>
       </c>
-      <c r="G28" s="397" t="s">
+      <c r="G28" s="411" t="s">
         <v>108</v>
       </c>
-      <c r="H28" s="397">
+      <c r="H28" s="411">
         <v>20</v>
       </c>
-      <c r="I28" s="397">
+      <c r="I28" s="411">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J28" s="397">
+      <c r="J28" s="411">
         <f t="shared" ref="J28" si="3">IF(G28="","",IF(G28="A",8+I28,IF(G28="B",16+I28,IF(G28="C",24+I28,"invalid"))))</f>
         <v>13</v>
       </c>
-      <c r="K28" s="400">
+      <c r="K28" s="414">
         <f t="shared" si="2"/>
         <v>524288</v>
       </c>
@@ -15077,11 +17061,11 @@
       <c r="F29" s="214" t="s">
         <v>440</v>
       </c>
-      <c r="G29" s="398"/>
-      <c r="H29" s="398"/>
-      <c r="I29" s="398"/>
-      <c r="J29" s="398"/>
-      <c r="K29" s="401"/>
+      <c r="G29" s="412"/>
+      <c r="H29" s="412"/>
+      <c r="I29" s="412"/>
+      <c r="J29" s="412"/>
+      <c r="K29" s="415"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="237" t="s">
@@ -15102,11 +17086,11 @@
       <c r="F30" s="212" t="s">
         <v>440</v>
       </c>
-      <c r="G30" s="398"/>
-      <c r="H30" s="398"/>
-      <c r="I30" s="398"/>
-      <c r="J30" s="398"/>
-      <c r="K30" s="401"/>
+      <c r="G30" s="412"/>
+      <c r="H30" s="412"/>
+      <c r="I30" s="412"/>
+      <c r="J30" s="412"/>
+      <c r="K30" s="415"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="238" t="s">
@@ -15127,11 +17111,11 @@
       <c r="F31" s="216" t="s">
         <v>440</v>
       </c>
-      <c r="G31" s="398"/>
-      <c r="H31" s="398"/>
-      <c r="I31" s="398"/>
-      <c r="J31" s="398"/>
-      <c r="K31" s="401"/>
+      <c r="G31" s="412"/>
+      <c r="H31" s="412"/>
+      <c r="I31" s="412"/>
+      <c r="J31" s="412"/>
+      <c r="K31" s="415"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="237" t="s">
@@ -15152,11 +17136,11 @@
       <c r="F32" s="212" t="s">
         <v>440</v>
       </c>
-      <c r="G32" s="398"/>
-      <c r="H32" s="398"/>
-      <c r="I32" s="398"/>
-      <c r="J32" s="398"/>
-      <c r="K32" s="401"/>
+      <c r="G32" s="412"/>
+      <c r="H32" s="412"/>
+      <c r="I32" s="412"/>
+      <c r="J32" s="412"/>
+      <c r="K32" s="415"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="236" t="s">
@@ -15177,11 +17161,11 @@
       <c r="F33" s="214" t="s">
         <v>440</v>
       </c>
-      <c r="G33" s="398"/>
-      <c r="H33" s="398"/>
-      <c r="I33" s="398"/>
-      <c r="J33" s="398"/>
-      <c r="K33" s="401"/>
+      <c r="G33" s="412"/>
+      <c r="H33" s="412"/>
+      <c r="I33" s="412"/>
+      <c r="J33" s="412"/>
+      <c r="K33" s="415"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="237" t="s">
@@ -15202,11 +17186,11 @@
       <c r="F34" s="212" t="s">
         <v>440</v>
       </c>
-      <c r="G34" s="398"/>
-      <c r="H34" s="398"/>
-      <c r="I34" s="398"/>
-      <c r="J34" s="398"/>
-      <c r="K34" s="401"/>
+      <c r="G34" s="412"/>
+      <c r="H34" s="412"/>
+      <c r="I34" s="412"/>
+      <c r="J34" s="412"/>
+      <c r="K34" s="415"/>
     </row>
     <row r="35" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="239" t="s">
@@ -15227,11 +17211,11 @@
       <c r="F35" s="241" t="s">
         <v>440</v>
       </c>
-      <c r="G35" s="399"/>
-      <c r="H35" s="399"/>
-      <c r="I35" s="399"/>
-      <c r="J35" s="399"/>
-      <c r="K35" s="402"/>
+      <c r="G35" s="413"/>
+      <c r="H35" s="413"/>
+      <c r="I35" s="413"/>
+      <c r="J35" s="413"/>
+      <c r="K35" s="416"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="242" t="s">
@@ -15252,21 +17236,21 @@
       <c r="F36" s="244" t="s">
         <v>440</v>
       </c>
-      <c r="G36" s="394" t="s">
+      <c r="G36" s="408" t="s">
         <v>108</v>
       </c>
-      <c r="H36" s="394">
+      <c r="H36" s="408">
         <v>20</v>
       </c>
-      <c r="I36" s="394">
+      <c r="I36" s="408">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J36" s="394">
+      <c r="J36" s="408">
         <f t="shared" ref="J36" si="4">IF(G36="","",IF(G36="A",8+I36,IF(G36="B",16+I36,IF(G36="C",24+I36,"invalid"))))</f>
         <v>13</v>
       </c>
-      <c r="K36" s="403">
+      <c r="K36" s="417">
         <f t="shared" si="2"/>
         <v>524288</v>
       </c>
@@ -15290,11 +17274,11 @@
       <c r="F37" s="214" t="s">
         <v>440</v>
       </c>
-      <c r="G37" s="395"/>
-      <c r="H37" s="395"/>
-      <c r="I37" s="395"/>
-      <c r="J37" s="395"/>
-      <c r="K37" s="404"/>
+      <c r="G37" s="409"/>
+      <c r="H37" s="409"/>
+      <c r="I37" s="409"/>
+      <c r="J37" s="409"/>
+      <c r="K37" s="418"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="237" t="s">
@@ -15315,11 +17299,11 @@
       <c r="F38" s="212" t="s">
         <v>440</v>
       </c>
-      <c r="G38" s="395"/>
-      <c r="H38" s="395"/>
-      <c r="I38" s="395"/>
-      <c r="J38" s="395"/>
-      <c r="K38" s="404"/>
+      <c r="G38" s="409"/>
+      <c r="H38" s="409"/>
+      <c r="I38" s="409"/>
+      <c r="J38" s="409"/>
+      <c r="K38" s="418"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="238" t="s">
@@ -15340,11 +17324,11 @@
       <c r="F39" s="216" t="s">
         <v>440</v>
       </c>
-      <c r="G39" s="395"/>
-      <c r="H39" s="395"/>
-      <c r="I39" s="395"/>
-      <c r="J39" s="395"/>
-      <c r="K39" s="404"/>
+      <c r="G39" s="409"/>
+      <c r="H39" s="409"/>
+      <c r="I39" s="409"/>
+      <c r="J39" s="409"/>
+      <c r="K39" s="418"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="237" t="s">
@@ -15365,11 +17349,11 @@
       <c r="F40" s="212" t="s">
         <v>440</v>
       </c>
-      <c r="G40" s="395"/>
-      <c r="H40" s="395"/>
-      <c r="I40" s="395"/>
-      <c r="J40" s="395"/>
-      <c r="K40" s="404"/>
+      <c r="G40" s="409"/>
+      <c r="H40" s="409"/>
+      <c r="I40" s="409"/>
+      <c r="J40" s="409"/>
+      <c r="K40" s="418"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="236" t="s">
@@ -15390,11 +17374,11 @@
       <c r="F41" s="214" t="s">
         <v>440</v>
       </c>
-      <c r="G41" s="395"/>
-      <c r="H41" s="395"/>
-      <c r="I41" s="395"/>
-      <c r="J41" s="395"/>
-      <c r="K41" s="404"/>
+      <c r="G41" s="409"/>
+      <c r="H41" s="409"/>
+      <c r="I41" s="409"/>
+      <c r="J41" s="409"/>
+      <c r="K41" s="418"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="237" t="s">
@@ -15415,11 +17399,11 @@
       <c r="F42" s="212" t="s">
         <v>440</v>
       </c>
-      <c r="G42" s="395"/>
-      <c r="H42" s="395"/>
-      <c r="I42" s="395"/>
-      <c r="J42" s="395"/>
-      <c r="K42" s="404"/>
+      <c r="G42" s="409"/>
+      <c r="H42" s="409"/>
+      <c r="I42" s="409"/>
+      <c r="J42" s="409"/>
+      <c r="K42" s="418"/>
     </row>
     <row r="43" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="239" t="s">
@@ -15440,11 +17424,11 @@
       <c r="F43" s="241" t="s">
         <v>440</v>
       </c>
-      <c r="G43" s="396"/>
-      <c r="H43" s="396"/>
-      <c r="I43" s="396"/>
-      <c r="J43" s="396"/>
-      <c r="K43" s="405"/>
+      <c r="G43" s="410"/>
+      <c r="H43" s="410"/>
+      <c r="I43" s="410"/>
+      <c r="J43" s="410"/>
+      <c r="K43" s="419"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="242" t="s">
@@ -15465,21 +17449,21 @@
       <c r="F44" s="244" t="s">
         <v>440</v>
       </c>
-      <c r="G44" s="397" t="s">
+      <c r="G44" s="411" t="s">
         <v>108</v>
       </c>
-      <c r="H44" s="397">
+      <c r="H44" s="411">
         <v>20</v>
       </c>
-      <c r="I44" s="397">
+      <c r="I44" s="411">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J44" s="397">
+      <c r="J44" s="411">
         <f t="shared" ref="J44" si="5">IF(G44="","",IF(G44="A",8+I44,IF(G44="B",16+I44,IF(G44="C",24+I44,"invalid"))))</f>
         <v>13</v>
       </c>
-      <c r="K44" s="400">
+      <c r="K44" s="414">
         <f t="shared" si="2"/>
         <v>524288</v>
       </c>
@@ -15503,11 +17487,11 @@
       <c r="F45" s="214" t="s">
         <v>440</v>
       </c>
-      <c r="G45" s="398"/>
-      <c r="H45" s="398"/>
-      <c r="I45" s="398"/>
-      <c r="J45" s="398"/>
-      <c r="K45" s="401"/>
+      <c r="G45" s="412"/>
+      <c r="H45" s="412"/>
+      <c r="I45" s="412"/>
+      <c r="J45" s="412"/>
+      <c r="K45" s="415"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="237" t="s">
@@ -15528,11 +17512,11 @@
       <c r="F46" s="212" t="s">
         <v>440</v>
       </c>
-      <c r="G46" s="398"/>
-      <c r="H46" s="398"/>
-      <c r="I46" s="398"/>
-      <c r="J46" s="398"/>
-      <c r="K46" s="401"/>
+      <c r="G46" s="412"/>
+      <c r="H46" s="412"/>
+      <c r="I46" s="412"/>
+      <c r="J46" s="412"/>
+      <c r="K46" s="415"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="238" t="s">
@@ -15553,11 +17537,11 @@
       <c r="F47" s="216" t="s">
         <v>440</v>
       </c>
-      <c r="G47" s="398"/>
-      <c r="H47" s="398"/>
-      <c r="I47" s="398"/>
-      <c r="J47" s="398"/>
-      <c r="K47" s="401"/>
+      <c r="G47" s="412"/>
+      <c r="H47" s="412"/>
+      <c r="I47" s="412"/>
+      <c r="J47" s="412"/>
+      <c r="K47" s="415"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="237" t="s">
@@ -15578,11 +17562,11 @@
       <c r="F48" s="212" t="s">
         <v>440</v>
       </c>
-      <c r="G48" s="398"/>
-      <c r="H48" s="398"/>
-      <c r="I48" s="398"/>
-      <c r="J48" s="398"/>
-      <c r="K48" s="401"/>
+      <c r="G48" s="412"/>
+      <c r="H48" s="412"/>
+      <c r="I48" s="412"/>
+      <c r="J48" s="412"/>
+      <c r="K48" s="415"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="236" t="s">
@@ -15603,11 +17587,11 @@
       <c r="F49" s="214" t="s">
         <v>440</v>
       </c>
-      <c r="G49" s="398"/>
-      <c r="H49" s="398"/>
-      <c r="I49" s="398"/>
-      <c r="J49" s="398"/>
-      <c r="K49" s="401"/>
+      <c r="G49" s="412"/>
+      <c r="H49" s="412"/>
+      <c r="I49" s="412"/>
+      <c r="J49" s="412"/>
+      <c r="K49" s="415"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="237" t="s">
@@ -15628,11 +17612,11 @@
       <c r="F50" s="212" t="s">
         <v>440</v>
       </c>
-      <c r="G50" s="398"/>
-      <c r="H50" s="398"/>
-      <c r="I50" s="398"/>
-      <c r="J50" s="398"/>
-      <c r="K50" s="401"/>
+      <c r="G50" s="412"/>
+      <c r="H50" s="412"/>
+      <c r="I50" s="412"/>
+      <c r="J50" s="412"/>
+      <c r="K50" s="415"/>
     </row>
     <row r="51" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="239" t="s">
@@ -15653,11 +17637,11 @@
       <c r="F51" s="241" t="s">
         <v>440</v>
       </c>
-      <c r="G51" s="399"/>
-      <c r="H51" s="399"/>
-      <c r="I51" s="399"/>
-      <c r="J51" s="399"/>
-      <c r="K51" s="402"/>
+      <c r="G51" s="413"/>
+      <c r="H51" s="413"/>
+      <c r="I51" s="413"/>
+      <c r="J51" s="413"/>
+      <c r="K51" s="416"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G52" s="229"/>
@@ -15752,11 +17736,11 @@
       <c r="A1" t="s">
         <v>392</v>
       </c>
-      <c r="G1" s="409" t="s">
+      <c r="G1" s="423" t="s">
         <v>574</v>
       </c>
-      <c r="H1" s="409"/>
-      <c r="I1" s="409"/>
+      <c r="H1" s="423"/>
+      <c r="I1" s="423"/>
       <c r="J1" s="226" t="s">
         <v>471</v>
       </c>
@@ -15786,17 +17770,17 @@
       </c>
     </row>
     <row r="2" spans="1:29" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="416"/>
-      <c r="B2" s="416"/>
-      <c r="C2" s="416"/>
-      <c r="D2" s="416"/>
-      <c r="E2" s="416"/>
-      <c r="F2" s="416"/>
-      <c r="G2" s="406" t="s">
+      <c r="A2" s="430"/>
+      <c r="B2" s="430"/>
+      <c r="C2" s="430"/>
+      <c r="D2" s="430"/>
+      <c r="E2" s="430"/>
+      <c r="F2" s="430"/>
+      <c r="G2" s="420" t="s">
         <v>575</v>
       </c>
-      <c r="H2" s="407"/>
-      <c r="I2" s="408"/>
+      <c r="H2" s="421"/>
+      <c r="I2" s="422"/>
       <c r="J2" s="230" t="s">
         <v>445</v>
       </c>
@@ -15933,7 +17917,7 @@
         <f>IF(O4="","",32-O4)</f>
         <v>25</v>
       </c>
-      <c r="R4" s="413" t="s">
+      <c r="R4" s="427" t="s">
         <v>612</v>
       </c>
     </row>
@@ -15986,7 +17970,7 @@
         <f t="shared" ref="Q5:Q8" si="2">IF(O5="","",32-O5)</f>
         <v>26</v>
       </c>
-      <c r="R5" s="414"/>
+      <c r="R5" s="428"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -16037,7 +18021,7 @@
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="R6" s="414"/>
+      <c r="R6" s="428"/>
       <c r="AC6" s="33"/>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
@@ -16089,7 +18073,7 @@
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="R7" s="414"/>
+      <c r="R7" s="428"/>
       <c r="AC7" s="33"/>
     </row>
     <row r="8" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16141,7 +18125,7 @@
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="R8" s="415"/>
+      <c r="R8" s="429"/>
       <c r="AC8" s="33"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
@@ -16184,7 +18168,7 @@
         <f>IF(O9="","",32-O9)</f>
         <v>25</v>
       </c>
-      <c r="R9" s="410" t="s">
+      <c r="R9" s="424" t="s">
         <v>613</v>
       </c>
       <c r="AC9" s="33"/>
@@ -16226,7 +18210,7 @@
         <f>IF(O10="","",32-O10)</f>
         <v>26</v>
       </c>
-      <c r="R10" s="411"/>
+      <c r="R10" s="425"/>
       <c r="AC10" s="33"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
@@ -16284,7 +18268,7 @@
         <f>IF(O11="","",32-O11)</f>
         <v>27</v>
       </c>
-      <c r="R11" s="411"/>
+      <c r="R11" s="425"/>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -16341,7 +18325,7 @@
         <f>IF(O12="","",32-O12)</f>
         <v>29</v>
       </c>
-      <c r="R12" s="411"/>
+      <c r="R12" s="425"/>
     </row>
     <row r="13" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -16398,7 +18382,7 @@
         <f>IF(O13="","",32-O13)</f>
         <v>26</v>
       </c>
-      <c r="R13" s="412"/>
+      <c r="R13" s="426"/>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -16503,12 +18487,12 @@
       <c r="C1" s="290" t="s">
         <v>657</v>
       </c>
-      <c r="E1" s="337" t="s">
+      <c r="E1" s="351" t="s">
         <v>662</v>
       </c>
-      <c r="F1" s="337"/>
-      <c r="G1" s="337"/>
-      <c r="H1" s="337"/>
+      <c r="F1" s="351"/>
+      <c r="G1" s="351"/>
+      <c r="H1" s="351"/>
     </row>
     <row r="2" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="297" t="s">

--- a/docs/protocol-suite.xlsx
+++ b/docs/protocol-suite.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\redes\saves\ccna1-lj20\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB59DE57-2C94-462C-B3BB-4089F3799F33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C56176D-96B9-44D2-BE6B-B641B37D2038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="3" xr2:uid="{3415D364-6D1D-489F-8C8D-BD784F513C31}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="4" xr2:uid="{3415D364-6D1D-489F-8C8D-BD784F513C31}"/>
   </bookViews>
   <sheets>
     <sheet name="modelos" sheetId="1" r:id="rId1"/>
@@ -10515,348 +10515,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="111" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="65" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="65" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="65" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="67" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="68" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="62" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="63" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="52" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="53" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="54" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="56" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="52" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="53" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="15" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="15" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="28" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="24" borderId="54" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="24" borderId="55" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="59" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="60" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="28" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="24" borderId="56" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="24" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="24" borderId="57" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="9" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="113" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="114" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="115" xfId="0" applyBorder="1"/>
@@ -10866,32 +10524,374 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="108" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="110" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="106" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="65" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="65" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="65" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="67" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="68" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="62" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="63" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="52" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="53" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="54" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="56" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="52" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="53" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="15" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="24" borderId="54" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="24" borderId="55" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="24" borderId="56" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="24" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="24" borderId="57" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="59" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="60" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="28" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="15" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="28" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="9" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -11483,13 +11483,13 @@
       <c r="A2" s="278" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="322" t="s">
+      <c r="B2" s="336" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="317" t="s">
+      <c r="C2" s="331" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="325" t="s">
+      <c r="D2" s="339" t="s">
         <v>23</v>
       </c>
     </row>
@@ -11497,17 +11497,17 @@
       <c r="A3" s="279" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="323"/>
-      <c r="C3" s="318"/>
-      <c r="D3" s="325"/>
+      <c r="B3" s="337"/>
+      <c r="C3" s="332"/>
+      <c r="D3" s="339"/>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="280" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="324"/>
-      <c r="C4" s="319"/>
-      <c r="D4" s="325"/>
+      <c r="B4" s="338"/>
+      <c r="C4" s="333"/>
+      <c r="D4" s="339"/>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="281" t="s">
@@ -11544,7 +11544,7 @@
       <c r="B7" s="287" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="320" t="s">
+      <c r="C7" s="334" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="276" t="s">
@@ -11558,8 +11558,8 @@
       <c r="B8" s="288" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="321"/>
-      <c r="D8" s="325" t="s">
+      <c r="C8" s="335"/>
+      <c r="D8" s="339" t="s">
         <v>20</v>
       </c>
     </row>
@@ -11573,7 +11573,7 @@
       <c r="C9" s="277" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="326"/>
+      <c r="D9" s="340"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -11612,24 +11612,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="340" t="s">
+      <c r="A2" s="341" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="341"/>
+      <c r="B2" s="342"/>
       <c r="C2" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="340" t="s">
+      <c r="E2" s="341" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="341"/>
+      <c r="F2" s="342"/>
       <c r="G2" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="340" t="s">
+      <c r="I2" s="341" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="341"/>
+      <c r="J2" s="342"/>
       <c r="K2" s="14" t="s">
         <v>42</v>
       </c>
@@ -11803,15 +11803,15 @@
       <c r="E9" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="F9" s="348" t="s">
+      <c r="F9" s="349" t="s">
         <v>67</v>
       </c>
-      <c r="G9" s="348"/>
-      <c r="I9" s="348" t="s">
+      <c r="G9" s="349"/>
+      <c r="I9" s="349" t="s">
         <v>81</v>
       </c>
-      <c r="J9" s="348"/>
-      <c r="K9" s="348"/>
+      <c r="J9" s="349"/>
+      <c r="K9" s="349"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
@@ -11827,15 +11827,15 @@
       <c r="E10" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="F10" s="343" t="s">
+      <c r="F10" s="344" t="s">
         <v>70</v>
       </c>
-      <c r="G10" s="344"/>
-      <c r="I10" s="342" t="s">
+      <c r="G10" s="345"/>
+      <c r="I10" s="343" t="s">
         <v>63</v>
       </c>
-      <c r="J10" s="343"/>
-      <c r="K10" s="344"/>
+      <c r="J10" s="344"/>
+      <c r="K10" s="345"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
@@ -11850,15 +11850,15 @@
       <c r="E11" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="349" t="s">
+      <c r="F11" s="350" t="s">
         <v>52</v>
       </c>
-      <c r="G11" s="350"/>
-      <c r="I11" s="345" t="s">
+      <c r="G11" s="351"/>
+      <c r="I11" s="346" t="s">
         <v>64</v>
       </c>
-      <c r="J11" s="346"/>
-      <c r="K11" s="347"/>
+      <c r="J11" s="347"/>
+      <c r="K11" s="348"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
@@ -11873,15 +11873,15 @@
       <c r="E12" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="F12" s="343" t="s">
+      <c r="F12" s="344" t="s">
         <v>72</v>
       </c>
-      <c r="G12" s="344"/>
-      <c r="I12" s="342" t="s">
+      <c r="G12" s="345"/>
+      <c r="I12" s="343" t="s">
         <v>65</v>
       </c>
-      <c r="J12" s="343"/>
-      <c r="K12" s="344"/>
+      <c r="J12" s="344"/>
+      <c r="K12" s="345"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
@@ -11917,94 +11917,100 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="335" t="s">
+      <c r="A17" s="360" t="s">
         <v>282</v>
       </c>
       <c r="B17" s="187" t="s">
         <v>272</v>
       </c>
-      <c r="C17" s="338" t="s">
+      <c r="C17" s="363" t="s">
         <v>273</v>
       </c>
-      <c r="D17" s="338"/>
-      <c r="E17" s="338"/>
-      <c r="F17" s="338"/>
-      <c r="G17" s="338"/>
-      <c r="H17" s="338"/>
-      <c r="I17" s="338"/>
-      <c r="J17" s="338"/>
-      <c r="K17" s="339"/>
+      <c r="D17" s="363"/>
+      <c r="E17" s="363"/>
+      <c r="F17" s="363"/>
+      <c r="G17" s="363"/>
+      <c r="H17" s="363"/>
+      <c r="I17" s="363"/>
+      <c r="J17" s="363"/>
+      <c r="K17" s="364"/>
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="336"/>
+      <c r="A18" s="361"/>
       <c r="B18" s="188" t="s">
         <v>274</v>
       </c>
-      <c r="C18" s="327" t="s">
+      <c r="C18" s="352" t="s">
         <v>275</v>
       </c>
-      <c r="D18" s="327"/>
-      <c r="E18" s="327"/>
-      <c r="F18" s="327"/>
-      <c r="G18" s="327"/>
-      <c r="H18" s="327"/>
-      <c r="I18" s="327"/>
-      <c r="J18" s="327"/>
-      <c r="K18" s="328"/>
+      <c r="D18" s="352"/>
+      <c r="E18" s="352"/>
+      <c r="F18" s="352"/>
+      <c r="G18" s="352"/>
+      <c r="H18" s="352"/>
+      <c r="I18" s="352"/>
+      <c r="J18" s="352"/>
+      <c r="K18" s="353"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="336"/>
+      <c r="A19" s="361"/>
       <c r="B19" s="189" t="s">
         <v>276</v>
       </c>
-      <c r="C19" s="329" t="s">
+      <c r="C19" s="354" t="s">
         <v>277</v>
       </c>
-      <c r="D19" s="329"/>
-      <c r="E19" s="329"/>
-      <c r="F19" s="329"/>
-      <c r="G19" s="329"/>
-      <c r="H19" s="329"/>
-      <c r="I19" s="329"/>
-      <c r="J19" s="329"/>
-      <c r="K19" s="330"/>
+      <c r="D19" s="354"/>
+      <c r="E19" s="354"/>
+      <c r="F19" s="354"/>
+      <c r="G19" s="354"/>
+      <c r="H19" s="354"/>
+      <c r="I19" s="354"/>
+      <c r="J19" s="354"/>
+      <c r="K19" s="355"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="336"/>
+      <c r="A20" s="361"/>
       <c r="B20" s="190" t="s">
         <v>278</v>
       </c>
-      <c r="C20" s="331" t="s">
+      <c r="C20" s="356" t="s">
         <v>279</v>
       </c>
-      <c r="D20" s="331"/>
-      <c r="E20" s="331"/>
-      <c r="F20" s="331"/>
-      <c r="G20" s="331"/>
-      <c r="H20" s="331"/>
-      <c r="I20" s="331"/>
-      <c r="J20" s="331"/>
-      <c r="K20" s="332"/>
+      <c r="D20" s="356"/>
+      <c r="E20" s="356"/>
+      <c r="F20" s="356"/>
+      <c r="G20" s="356"/>
+      <c r="H20" s="356"/>
+      <c r="I20" s="356"/>
+      <c r="J20" s="356"/>
+      <c r="K20" s="357"/>
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="337"/>
+      <c r="A21" s="362"/>
       <c r="B21" s="191" t="s">
         <v>280</v>
       </c>
-      <c r="C21" s="333" t="s">
+      <c r="C21" s="358" t="s">
         <v>281</v>
       </c>
-      <c r="D21" s="333"/>
-      <c r="E21" s="333"/>
-      <c r="F21" s="333"/>
-      <c r="G21" s="333"/>
-      <c r="H21" s="333"/>
-      <c r="I21" s="333"/>
-      <c r="J21" s="333"/>
-      <c r="K21" s="334"/>
+      <c r="D21" s="358"/>
+      <c r="E21" s="358"/>
+      <c r="F21" s="358"/>
+      <c r="G21" s="358"/>
+      <c r="H21" s="358"/>
+      <c r="I21" s="358"/>
+      <c r="J21" s="358"/>
+      <c r="K21" s="359"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C18:K18"/>
+    <mergeCell ref="C19:K19"/>
+    <mergeCell ref="C20:K20"/>
+    <mergeCell ref="C21:K21"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="C17:K17"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="A2:B2"/>
@@ -12016,12 +12022,6 @@
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="I9:K9"/>
-    <mergeCell ref="C18:K18"/>
-    <mergeCell ref="C19:K19"/>
-    <mergeCell ref="C20:K20"/>
-    <mergeCell ref="C21:K21"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="C17:K17"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12048,16 +12048,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="351" t="s">
+      <c r="B1" s="365" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="351"/>
-      <c r="D1" s="351"/>
-      <c r="F1" s="351" t="s">
+      <c r="C1" s="365"/>
+      <c r="D1" s="365"/>
+      <c r="F1" s="365" t="s">
         <v>104</v>
       </c>
-      <c r="G1" s="351"/>
-      <c r="H1" s="351"/>
+      <c r="G1" s="365"/>
+      <c r="H1" s="365"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="36" t="s">
@@ -12086,10 +12086,10 @@
       <c r="D3" s="166" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="360" t="s">
+      <c r="F3" s="374" t="s">
         <v>94</v>
       </c>
-      <c r="G3" s="362" t="s">
+      <c r="G3" s="376" t="s">
         <v>93</v>
       </c>
       <c r="H3" s="172" t="s">
@@ -12106,8 +12106,8 @@
       <c r="D4" s="169" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="360"/>
-      <c r="G4" s="363"/>
+      <c r="F4" s="374"/>
+      <c r="G4" s="377"/>
       <c r="H4" s="173" t="s">
         <v>60</v>
       </c>
@@ -12122,8 +12122,8 @@
       <c r="D5" s="164" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="360"/>
-      <c r="G5" s="363"/>
+      <c r="F5" s="374"/>
+      <c r="G5" s="377"/>
       <c r="H5" s="174" t="s">
         <v>61</v>
       </c>
@@ -12138,8 +12138,8 @@
       <c r="D6" s="167" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="360"/>
-      <c r="G6" s="363"/>
+      <c r="F6" s="374"/>
+      <c r="G6" s="377"/>
       <c r="H6" s="179" t="s">
         <v>62</v>
       </c>
@@ -12154,8 +12154,8 @@
       <c r="D7" s="168" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="360"/>
-      <c r="G7" s="363"/>
+      <c r="F7" s="374"/>
+      <c r="G7" s="377"/>
       <c r="H7" s="178" t="s">
         <v>99</v>
       </c>
@@ -12170,8 +12170,8 @@
       <c r="D8" s="165" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="360"/>
-      <c r="G8" s="363"/>
+      <c r="F8" s="374"/>
+      <c r="G8" s="377"/>
       <c r="H8" s="175" t="s">
         <v>103</v>
       </c>
@@ -12186,8 +12186,8 @@
       <c r="D9" s="170" t="s">
         <v>55</v>
       </c>
-      <c r="F9" s="360"/>
-      <c r="G9" s="363"/>
+      <c r="F9" s="374"/>
+      <c r="G9" s="377"/>
       <c r="H9" s="176" t="s">
         <v>97</v>
       </c>
@@ -12202,21 +12202,21 @@
       <c r="D10" s="171" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="361"/>
-      <c r="G10" s="364"/>
+      <c r="F10" s="375"/>
+      <c r="G10" s="378"/>
       <c r="H10" s="177" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="355" t="s">
+      <c r="B12" s="369" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="356"/>
-      <c r="D12" s="356"/>
-      <c r="E12" s="356"/>
-      <c r="F12" s="357"/>
+      <c r="C12" s="370"/>
+      <c r="D12" s="370"/>
+      <c r="E12" s="370"/>
+      <c r="F12" s="371"/>
       <c r="G12" s="180" t="s">
         <v>56</v>
       </c>
@@ -12225,13 +12225,13 @@
       <c r="B13" s="181" t="s">
         <v>90</v>
       </c>
-      <c r="C13" s="365" t="s">
+      <c r="C13" s="379" t="s">
         <v>89</v>
       </c>
-      <c r="D13" s="365"/>
-      <c r="E13" s="365"/>
-      <c r="F13" s="366"/>
-      <c r="G13" s="352" t="s">
+      <c r="D13" s="379"/>
+      <c r="E13" s="379"/>
+      <c r="F13" s="380"/>
+      <c r="G13" s="366" t="s">
         <v>219</v>
       </c>
       <c r="I13" s="29"/>
@@ -12240,39 +12240,39 @@
       <c r="B14" s="182" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="367" t="s">
+      <c r="C14" s="381" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="367"/>
-      <c r="E14" s="367"/>
-      <c r="F14" s="368"/>
-      <c r="G14" s="353"/>
+      <c r="D14" s="381"/>
+      <c r="E14" s="381"/>
+      <c r="F14" s="382"/>
+      <c r="G14" s="367"/>
       <c r="I14" s="29"/>
     </row>
     <row r="15" spans="1:9" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="181" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="365" t="s">
+      <c r="C15" s="379" t="s">
         <v>87</v>
       </c>
-      <c r="D15" s="365"/>
-      <c r="E15" s="365"/>
-      <c r="F15" s="366"/>
-      <c r="G15" s="353"/>
+      <c r="D15" s="379"/>
+      <c r="E15" s="379"/>
+      <c r="F15" s="380"/>
+      <c r="G15" s="367"/>
       <c r="I15" s="29"/>
     </row>
     <row r="16" spans="1:9" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="183" t="s">
         <v>91</v>
       </c>
-      <c r="C16" s="358" t="s">
+      <c r="C16" s="372" t="s">
         <v>88</v>
       </c>
-      <c r="D16" s="358"/>
-      <c r="E16" s="358"/>
-      <c r="F16" s="359"/>
-      <c r="G16" s="354"/>
+      <c r="D16" s="372"/>
+      <c r="E16" s="372"/>
+      <c r="F16" s="373"/>
+      <c r="G16" s="368"/>
       <c r="I16" s="29"/>
     </row>
     <row r="17" spans="7:7" x14ac:dyDescent="0.25">
@@ -12309,7 +12309,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC782B4E-6927-4C9C-A90D-9AC5B53DF039}">
   <dimension ref="A1:AR61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="4" topLeftCell="AK1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="AQ5" sqref="AQ5"/>
     </sheetView>
@@ -12345,107 +12345,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="369" t="s">
+      <c r="A1" s="387" t="s">
         <v>220</v>
       </c>
-      <c r="B1" s="370"/>
-      <c r="C1" s="370"/>
-      <c r="D1" s="370"/>
-      <c r="F1" s="369" t="s">
+      <c r="B1" s="388"/>
+      <c r="C1" s="388"/>
+      <c r="D1" s="388"/>
+      <c r="F1" s="387" t="s">
         <v>222</v>
       </c>
-      <c r="G1" s="370"/>
-      <c r="H1" s="370"/>
-      <c r="I1" s="370"/>
-      <c r="J1" s="370"/>
-      <c r="K1" s="370"/>
-      <c r="L1" s="370"/>
-      <c r="M1" s="370"/>
-      <c r="N1" s="370"/>
-      <c r="O1" s="370"/>
-      <c r="P1" s="371"/>
-      <c r="R1" s="369" t="s">
+      <c r="G1" s="388"/>
+      <c r="H1" s="388"/>
+      <c r="I1" s="388"/>
+      <c r="J1" s="388"/>
+      <c r="K1" s="388"/>
+      <c r="L1" s="388"/>
+      <c r="M1" s="388"/>
+      <c r="N1" s="388"/>
+      <c r="O1" s="388"/>
+      <c r="P1" s="389"/>
+      <c r="R1" s="387" t="s">
         <v>223</v>
       </c>
-      <c r="S1" s="370"/>
-      <c r="T1" s="370"/>
-      <c r="U1" s="370"/>
-      <c r="V1" s="370"/>
-      <c r="W1" s="370"/>
-      <c r="X1" s="370"/>
-      <c r="Y1" s="370"/>
-      <c r="Z1" s="370"/>
-      <c r="AA1" s="371"/>
+      <c r="S1" s="388"/>
+      <c r="T1" s="388"/>
+      <c r="U1" s="388"/>
+      <c r="V1" s="388"/>
+      <c r="W1" s="388"/>
+      <c r="X1" s="388"/>
+      <c r="Y1" s="388"/>
+      <c r="Z1" s="388"/>
+      <c r="AA1" s="389"/>
       <c r="AD1" t="s">
         <v>705</v>
       </c>
-      <c r="AE1" s="440" t="s">
+      <c r="AE1" s="385" t="s">
         <v>706</v>
       </c>
-      <c r="AF1" s="440"/>
-      <c r="AG1" s="440"/>
-      <c r="AH1" s="440"/>
-      <c r="AI1" s="440" t="s">
+      <c r="AF1" s="385"/>
+      <c r="AG1" s="385"/>
+      <c r="AH1" s="385"/>
+      <c r="AI1" s="385" t="s">
         <v>707</v>
       </c>
-      <c r="AJ1" s="440"/>
-      <c r="AK1" s="440"/>
-      <c r="AL1" s="440"/>
+      <c r="AJ1" s="385"/>
+      <c r="AK1" s="385"/>
+      <c r="AL1" s="385"/>
     </row>
     <row r="2" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="376" t="s">
+      <c r="A2" s="394" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="375"/>
-      <c r="C2" s="375"/>
-      <c r="D2" s="375"/>
-      <c r="F2" s="372" t="s">
+      <c r="B2" s="393"/>
+      <c r="C2" s="393"/>
+      <c r="D2" s="393"/>
+      <c r="F2" s="390" t="s">
         <v>130</v>
       </c>
-      <c r="G2" s="374"/>
-      <c r="H2" s="374"/>
-      <c r="I2" s="374"/>
-      <c r="J2" s="374"/>
-      <c r="K2" s="374"/>
-      <c r="L2" s="374"/>
-      <c r="M2" s="373"/>
+      <c r="G2" s="392"/>
+      <c r="H2" s="392"/>
+      <c r="I2" s="392"/>
+      <c r="J2" s="392"/>
+      <c r="K2" s="392"/>
+      <c r="L2" s="392"/>
+      <c r="M2" s="391"/>
       <c r="N2" s="91" t="s">
         <v>106</v>
       </c>
-      <c r="O2" s="372" t="s">
+      <c r="O2" s="390" t="s">
         <v>107</v>
       </c>
-      <c r="P2" s="373"/>
-      <c r="R2" s="372" t="s">
+      <c r="P2" s="391"/>
+      <c r="R2" s="390" t="s">
         <v>130</v>
       </c>
-      <c r="S2" s="374"/>
-      <c r="T2" s="374"/>
-      <c r="U2" s="374"/>
-      <c r="V2" s="374"/>
-      <c r="W2" s="374"/>
-      <c r="X2" s="374"/>
-      <c r="Y2" s="373"/>
-      <c r="Z2" s="372" t="s">
+      <c r="S2" s="392"/>
+      <c r="T2" s="392"/>
+      <c r="U2" s="392"/>
+      <c r="V2" s="392"/>
+      <c r="W2" s="392"/>
+      <c r="X2" s="392"/>
+      <c r="Y2" s="391"/>
+      <c r="Z2" s="390" t="s">
         <v>107</v>
       </c>
-      <c r="AA2" s="373"/>
-      <c r="AE2" s="440" t="s">
+      <c r="AA2" s="391"/>
+      <c r="AE2" s="385" t="s">
         <v>708</v>
       </c>
-      <c r="AF2" s="440"/>
-      <c r="AG2" s="440" t="s">
+      <c r="AF2" s="385"/>
+      <c r="AG2" s="385" t="s">
         <v>709</v>
       </c>
-      <c r="AH2" s="440"/>
-      <c r="AI2" s="441" t="s">
+      <c r="AH2" s="385"/>
+      <c r="AI2" s="386" t="s">
         <v>708</v>
       </c>
-      <c r="AJ2" s="441"/>
-      <c r="AK2" s="440" t="s">
+      <c r="AJ2" s="386"/>
+      <c r="AK2" s="385" t="s">
         <v>709</v>
       </c>
-      <c r="AL2" s="440"/>
+      <c r="AL2" s="385"/>
       <c r="AM2" t="s">
         <v>446</v>
       </c>
@@ -12541,16 +12541,16 @@
       <c r="AH3" s="223">
         <v>127255255255</v>
       </c>
-      <c r="AI3" s="443" t="s">
+      <c r="AI3" s="326" t="s">
         <v>147</v>
       </c>
       <c r="AJ3" s="217" t="s">
         <v>146</v>
       </c>
-      <c r="AK3" s="443" t="s">
+      <c r="AK3" s="326" t="s">
         <v>147</v>
       </c>
-      <c r="AL3" s="444">
+      <c r="AL3" s="327">
         <v>10255255255</v>
       </c>
       <c r="AM3" s="217" t="s">
@@ -12562,7 +12562,7 @@
       <c r="AO3" s="217">
         <v>1</v>
       </c>
-      <c r="AP3" s="447">
+      <c r="AP3" s="329">
         <f>256^3-2</f>
         <v>16777214</v>
       </c>
@@ -12654,13 +12654,13 @@
       <c r="AH4" s="223">
         <v>191255255255</v>
       </c>
-      <c r="AI4" s="445" t="s">
+      <c r="AI4" s="328" t="s">
         <v>718</v>
       </c>
       <c r="AJ4" s="217" t="s">
         <v>716</v>
       </c>
-      <c r="AK4" s="445" t="s">
+      <c r="AK4" s="328" t="s">
         <v>719</v>
       </c>
       <c r="AL4" s="217" t="s">
@@ -12675,11 +12675,11 @@
       <c r="AO4" s="217">
         <v>16</v>
       </c>
-      <c r="AP4" s="447">
+      <c r="AP4" s="329">
         <f>256^2-2</f>
         <v>65534</v>
       </c>
-      <c r="AQ4" s="448" t="s">
+      <c r="AQ4" s="330" t="s">
         <v>165</v>
       </c>
       <c r="AR4" s="217" t="s">
@@ -12767,16 +12767,16 @@
       <c r="AH5" s="223">
         <v>223255255255</v>
       </c>
-      <c r="AI5" s="445" t="s">
+      <c r="AI5" s="328" t="s">
         <v>721</v>
       </c>
-      <c r="AJ5" s="443" t="s">
+      <c r="AJ5" s="326" t="s">
         <v>720</v>
       </c>
-      <c r="AK5" s="445" t="s">
+      <c r="AK5" s="328" t="s">
         <v>722</v>
       </c>
-      <c r="AL5" s="444">
+      <c r="AL5" s="327">
         <v>192168255255</v>
       </c>
       <c r="AM5" s="217" t="s">
@@ -12872,12 +12872,12 @@
       <c r="AH6" s="223">
         <v>239255255255</v>
       </c>
-      <c r="AI6" s="446" t="s">
+      <c r="AI6" s="384" t="s">
         <v>148</v>
       </c>
-      <c r="AJ6" s="446"/>
-      <c r="AK6" s="446"/>
-      <c r="AL6" s="446"/>
+      <c r="AJ6" s="384"/>
+      <c r="AK6" s="384"/>
+      <c r="AL6" s="384"/>
       <c r="AQ6" s="217" t="s">
         <v>134</v>
       </c>
@@ -12886,12 +12886,12 @@
       </c>
     </row>
     <row r="7" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="375" t="s">
+      <c r="A7" s="393" t="s">
         <v>120</v>
       </c>
-      <c r="B7" s="375"/>
-      <c r="C7" s="375"/>
-      <c r="D7" s="375"/>
+      <c r="B7" s="393"/>
+      <c r="C7" s="393"/>
+      <c r="D7" s="393"/>
       <c r="F7" s="59">
         <v>1</v>
       </c>
@@ -12960,12 +12960,12 @@
       <c r="AH7" s="223">
         <v>255255255255</v>
       </c>
-      <c r="AI7" s="446" t="s">
+      <c r="AI7" s="384" t="s">
         <v>149</v>
       </c>
-      <c r="AJ7" s="446"/>
-      <c r="AK7" s="446"/>
-      <c r="AL7" s="446"/>
+      <c r="AJ7" s="384"/>
+      <c r="AK7" s="384"/>
+      <c r="AL7" s="384"/>
       <c r="AQ7" s="217" t="s">
         <v>726</v>
       </c>
@@ -13039,11 +13039,11 @@
       <c r="AA8" s="75">
         <v>16</v>
       </c>
-      <c r="AE8" s="442">
+      <c r="AE8" s="383">
         <f>2^32</f>
         <v>4294967296</v>
       </c>
-      <c r="AF8" s="442"/>
+      <c r="AF8" s="383"/>
     </row>
     <row r="9" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="35">
@@ -13217,12 +13217,12 @@
       </c>
     </row>
     <row r="12" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A12" s="375" t="s">
+      <c r="A12" s="393" t="s">
         <v>125</v>
       </c>
-      <c r="B12" s="375"/>
-      <c r="C12" s="375"/>
-      <c r="D12" s="375"/>
+      <c r="B12" s="393"/>
+      <c r="C12" s="393"/>
+      <c r="D12" s="393"/>
       <c r="F12" s="58">
         <v>0</v>
       </c>
@@ -13524,42 +13524,42 @@
       <c r="Z20" s="311">
         <v>1</v>
       </c>
-      <c r="AA20" s="434" t="s">
+      <c r="AA20" s="320" t="s">
         <v>701</v>
       </c>
-      <c r="AB20" s="435">
+      <c r="AB20" s="321">
         <v>169</v>
       </c>
     </row>
     <row r="21" spans="5:28" x14ac:dyDescent="0.25">
-      <c r="S21" s="431">
+      <c r="S21" s="317">
         <v>1</v>
       </c>
-      <c r="T21" s="432">
-        <v>0</v>
-      </c>
-      <c r="U21" s="432">
+      <c r="T21" s="318">
+        <v>0</v>
+      </c>
+      <c r="U21" s="318">
         <v>1</v>
       </c>
-      <c r="V21" s="433">
-        <v>0</v>
-      </c>
-      <c r="W21" s="431">
+      <c r="V21" s="319">
+        <v>0</v>
+      </c>
+      <c r="W21" s="317">
         <v>1</v>
       </c>
-      <c r="X21" s="432">
+      <c r="X21" s="318">
         <v>1</v>
       </c>
-      <c r="Y21" s="432">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="433">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="436" t="s">
+      <c r="Y21" s="318">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="319">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="322" t="s">
         <v>702</v>
       </c>
-      <c r="AB21" s="437">
+      <c r="AB21" s="323">
         <v>172</v>
       </c>
     </row>
@@ -13588,10 +13588,10 @@
       <c r="Z22" s="312">
         <v>0</v>
       </c>
-      <c r="AA22" s="438" t="s">
+      <c r="AA22" s="324" t="s">
         <v>703</v>
       </c>
-      <c r="AB22" s="439">
+      <c r="AB22" s="325">
         <v>170</v>
       </c>
     </row>
@@ -14677,6 +14677,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:P1"/>
+    <mergeCell ref="AE1:AH1"/>
+    <mergeCell ref="AI1:AL1"/>
+    <mergeCell ref="R1:AA1"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="R2:Y2"/>
+    <mergeCell ref="Z2:AA2"/>
     <mergeCell ref="AE8:AF8"/>
     <mergeCell ref="AI6:AL6"/>
     <mergeCell ref="AI7:AL7"/>
@@ -14684,18 +14696,6 @@
     <mergeCell ref="AG2:AH2"/>
     <mergeCell ref="AI2:AJ2"/>
     <mergeCell ref="AK2:AL2"/>
-    <mergeCell ref="AE1:AH1"/>
-    <mergeCell ref="AI1:AL1"/>
-    <mergeCell ref="R1:AA1"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="R2:Y2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:P1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14707,11 +14707,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{736925F0-C296-4BA5-A90C-9FBAD4DAF0DB}">
   <dimension ref="A1:AG26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="9" ySplit="8" topLeftCell="J15" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="9" ySplit="8" topLeftCell="L9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="F29" sqref="F29"/>
+      <selection pane="bottomRight" activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14738,28 +14738,28 @@
       <c r="A1" s="94" t="s">
         <v>238</v>
       </c>
-      <c r="B1" s="377" t="s">
+      <c r="B1" s="400" t="s">
         <v>230</v>
       </c>
-      <c r="C1" s="377"/>
-      <c r="D1" s="377"/>
-      <c r="E1" s="378"/>
-      <c r="F1" s="377" t="s">
+      <c r="C1" s="400"/>
+      <c r="D1" s="400"/>
+      <c r="E1" s="401"/>
+      <c r="F1" s="400" t="s">
         <v>231</v>
       </c>
-      <c r="G1" s="377"/>
-      <c r="H1" s="377"/>
-      <c r="I1" s="377"/>
-      <c r="J1" s="377"/>
-      <c r="K1" s="377"/>
-      <c r="L1" s="377"/>
-      <c r="M1" s="377"/>
-      <c r="N1" s="379">
+      <c r="G1" s="400"/>
+      <c r="H1" s="400"/>
+      <c r="I1" s="400"/>
+      <c r="J1" s="400"/>
+      <c r="K1" s="400"/>
+      <c r="L1" s="400"/>
+      <c r="M1" s="400"/>
+      <c r="N1" s="402">
         <f>2^32</f>
         <v>4294967296</v>
       </c>
-      <c r="O1" s="379"/>
-      <c r="P1" s="379"/>
+      <c r="O1" s="402"/>
+      <c r="P1" s="402"/>
       <c r="Q1" s="162" t="s">
         <v>239</v>
       </c>
@@ -14768,34 +14768,34 @@
       <c r="A2" s="94" t="s">
         <v>156</v>
       </c>
-      <c r="B2" s="380" t="s">
+      <c r="B2" s="403" t="s">
         <v>225</v>
       </c>
-      <c r="C2" s="380"/>
-      <c r="D2" s="380" t="s">
+      <c r="C2" s="403"/>
+      <c r="D2" s="403" t="s">
         <v>130</v>
       </c>
-      <c r="E2" s="381"/>
-      <c r="F2" s="380" t="s">
+      <c r="E2" s="404"/>
+      <c r="F2" s="403" t="s">
         <v>225</v>
       </c>
-      <c r="G2" s="380"/>
-      <c r="H2" s="380" t="s">
+      <c r="G2" s="403"/>
+      <c r="H2" s="403" t="s">
         <v>130</v>
       </c>
-      <c r="I2" s="380"/>
-      <c r="J2" s="380" t="s">
+      <c r="I2" s="403"/>
+      <c r="J2" s="403" t="s">
         <v>226</v>
       </c>
-      <c r="K2" s="380"/>
-      <c r="L2" s="380"/>
-      <c r="M2" s="380"/>
-      <c r="N2" s="386" t="s">
+      <c r="K2" s="403"/>
+      <c r="L2" s="403"/>
+      <c r="M2" s="403"/>
+      <c r="N2" s="399" t="s">
         <v>265</v>
       </c>
-      <c r="O2" s="386"/>
-      <c r="P2" s="386"/>
-      <c r="Q2" s="386"/>
+      <c r="O2" s="399"/>
+      <c r="P2" s="399"/>
+      <c r="Q2" s="399"/>
     </row>
     <row r="3" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="161" t="s">
@@ -15022,18 +15022,18 @@
       <c r="E7" s="152" t="s">
         <v>143</v>
       </c>
-      <c r="F7" s="382" t="s">
+      <c r="F7" s="395" t="s">
         <v>148</v>
       </c>
-      <c r="G7" s="383"/>
-      <c r="H7" s="383"/>
-      <c r="I7" s="383"/>
-      <c r="J7" s="382" t="s">
+      <c r="G7" s="396"/>
+      <c r="H7" s="396"/>
+      <c r="I7" s="396"/>
+      <c r="J7" s="395" t="s">
         <v>148</v>
       </c>
-      <c r="K7" s="383"/>
-      <c r="L7" s="383"/>
-      <c r="M7" s="383"/>
+      <c r="K7" s="396"/>
+      <c r="L7" s="396"/>
+      <c r="M7" s="396"/>
       <c r="N7" s="199" t="s">
         <v>134</v>
       </c>
@@ -15063,18 +15063,18 @@
       <c r="E8" s="154" t="s">
         <v>145</v>
       </c>
-      <c r="F8" s="384" t="s">
+      <c r="F8" s="397" t="s">
         <v>149</v>
       </c>
-      <c r="G8" s="385"/>
-      <c r="H8" s="385"/>
-      <c r="I8" s="385"/>
-      <c r="J8" s="384" t="s">
+      <c r="G8" s="398"/>
+      <c r="H8" s="398"/>
+      <c r="I8" s="398"/>
+      <c r="J8" s="397" t="s">
         <v>149</v>
       </c>
-      <c r="K8" s="385"/>
-      <c r="L8" s="385"/>
-      <c r="M8" s="385"/>
+      <c r="K8" s="398"/>
+      <c r="L8" s="398"/>
+      <c r="M8" s="398"/>
       <c r="N8" s="202" t="s">
         <v>135</v>
       </c>
@@ -15789,11 +15789,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="N2:Q2"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:M1"/>
     <mergeCell ref="N1:P1"/>
@@ -15802,12 +15797,17 @@
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="N2:Q2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="D4:E8 H4:I4 G6 P4:P5 G4 F23:I26 F17:I20 F11:I14" numberStoredAsText="1"/>
+    <ignoredError sqref="D5:E8 H4:I4 G6 P4:P5 G4 F23:I26 F17:I20 F11:I14 E4" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -15834,45 +15834,45 @@
       <c r="A1" s="97" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="387">
+      <c r="B1" s="420">
         <f>2^128</f>
         <v>3.4028236692093846E+38</v>
       </c>
-      <c r="C1" s="387"/>
-      <c r="D1" s="387"/>
-      <c r="E1" s="387"/>
-      <c r="F1" s="387"/>
-      <c r="G1" s="387"/>
-      <c r="H1" s="387"/>
-      <c r="I1" s="387"/>
+      <c r="C1" s="420"/>
+      <c r="D1" s="420"/>
+      <c r="E1" s="420"/>
+      <c r="F1" s="420"/>
+      <c r="G1" s="420"/>
+      <c r="H1" s="420"/>
+      <c r="I1" s="420"/>
       <c r="J1" s="97" t="s">
         <v>240</v>
       </c>
-      <c r="K1" s="388" t="s">
+      <c r="K1" s="421" t="s">
         <v>229</v>
       </c>
-      <c r="L1" s="388"/>
-      <c r="M1" s="388"/>
-      <c r="N1" s="388"/>
+      <c r="L1" s="421"/>
+      <c r="M1" s="421"/>
+      <c r="N1" s="421"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="120" t="s">
         <v>177</v>
       </c>
-      <c r="B2" s="389" t="s">
+      <c r="B2" s="422" t="s">
         <v>173</v>
       </c>
-      <c r="C2" s="390"/>
-      <c r="D2" s="390"/>
+      <c r="C2" s="423"/>
+      <c r="D2" s="423"/>
       <c r="E2" s="98" t="s">
         <v>253</v>
       </c>
-      <c r="F2" s="390" t="s">
+      <c r="F2" s="423" t="s">
         <v>174</v>
       </c>
-      <c r="G2" s="390"/>
-      <c r="H2" s="390"/>
-      <c r="I2" s="391"/>
+      <c r="G2" s="423"/>
+      <c r="H2" s="423"/>
+      <c r="I2" s="424"/>
       <c r="J2" s="99" t="s">
         <v>175</v>
       </c>
@@ -15993,11 +15993,11 @@
       <c r="E5" s="118" t="s">
         <v>182</v>
       </c>
-      <c r="F5" s="392" t="s">
+      <c r="F5" s="425" t="s">
         <v>184</v>
       </c>
-      <c r="G5" s="392"/>
-      <c r="H5" s="392"/>
+      <c r="G5" s="425"/>
+      <c r="H5" s="425"/>
       <c r="I5" s="119">
         <v>1</v>
       </c>
@@ -16027,12 +16027,12 @@
       <c r="B7" s="103" t="s">
         <v>263</v>
       </c>
-      <c r="C7" s="399" t="s">
+      <c r="C7" s="417" t="s">
         <v>248</v>
       </c>
-      <c r="D7" s="399"/>
-      <c r="E7" s="399"/>
-      <c r="F7" s="400"/>
+      <c r="D7" s="417"/>
+      <c r="E7" s="417"/>
+      <c r="F7" s="418"/>
       <c r="G7" s="127" t="s">
         <v>261</v>
       </c>
@@ -16047,10 +16047,10 @@
       <c r="C8" s="123" t="s">
         <v>262</v>
       </c>
-      <c r="D8" s="401" t="s">
+      <c r="D8" s="419" t="s">
         <v>249</v>
       </c>
-      <c r="E8" s="401"/>
+      <c r="E8" s="419"/>
       <c r="F8" s="121" t="s">
         <v>250</v>
       </c>
@@ -16109,114 +16109,114 @@
       <c r="A12" s="130" t="s">
         <v>263</v>
       </c>
-      <c r="B12" s="396" t="s">
+      <c r="B12" s="414" t="s">
         <v>248</v>
       </c>
-      <c r="C12" s="397"/>
-      <c r="D12" s="398"/>
-      <c r="E12" s="396" t="s">
+      <c r="C12" s="415"/>
+      <c r="D12" s="416"/>
+      <c r="E12" s="414" t="s">
         <v>264</v>
       </c>
-      <c r="F12" s="397"/>
-      <c r="G12" s="398"/>
+      <c r="F12" s="415"/>
+      <c r="G12" s="416"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="128" t="s">
         <v>188</v>
       </c>
-      <c r="B13" s="393" t="s">
+      <c r="B13" s="405" t="s">
         <v>190</v>
       </c>
-      <c r="C13" s="394"/>
-      <c r="D13" s="395"/>
-      <c r="E13" s="394" t="s">
+      <c r="C13" s="406"/>
+      <c r="D13" s="407"/>
+      <c r="E13" s="406" t="s">
         <v>191</v>
       </c>
-      <c r="F13" s="394"/>
-      <c r="G13" s="395"/>
+      <c r="F13" s="406"/>
+      <c r="G13" s="407"/>
       <c r="H13" s="37"/>
       <c r="I13" s="37"/>
       <c r="J13" s="37"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="129"/>
-      <c r="B14" s="402"/>
-      <c r="C14" s="403"/>
-      <c r="D14" s="404"/>
-      <c r="E14" s="403"/>
-      <c r="F14" s="403"/>
-      <c r="G14" s="404"/>
+      <c r="B14" s="408"/>
+      <c r="C14" s="409"/>
+      <c r="D14" s="410"/>
+      <c r="E14" s="409"/>
+      <c r="F14" s="409"/>
+      <c r="G14" s="410"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="128"/>
-      <c r="B15" s="393"/>
-      <c r="C15" s="394"/>
-      <c r="D15" s="395"/>
-      <c r="E15" s="394"/>
-      <c r="F15" s="394"/>
-      <c r="G15" s="395"/>
+      <c r="B15" s="405"/>
+      <c r="C15" s="406"/>
+      <c r="D15" s="407"/>
+      <c r="E15" s="406"/>
+      <c r="F15" s="406"/>
+      <c r="G15" s="407"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="129"/>
-      <c r="B16" s="402"/>
-      <c r="C16" s="403"/>
-      <c r="D16" s="404"/>
-      <c r="E16" s="403"/>
-      <c r="F16" s="403"/>
-      <c r="G16" s="404"/>
+      <c r="B16" s="408"/>
+      <c r="C16" s="409"/>
+      <c r="D16" s="410"/>
+      <c r="E16" s="409"/>
+      <c r="F16" s="409"/>
+      <c r="G16" s="410"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="128"/>
-      <c r="B17" s="393"/>
-      <c r="C17" s="394"/>
-      <c r="D17" s="395"/>
-      <c r="E17" s="394"/>
-      <c r="F17" s="394"/>
-      <c r="G17" s="395"/>
+      <c r="B17" s="405"/>
+      <c r="C17" s="406"/>
+      <c r="D17" s="407"/>
+      <c r="E17" s="406"/>
+      <c r="F17" s="406"/>
+      <c r="G17" s="407"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="129"/>
-      <c r="B18" s="402"/>
-      <c r="C18" s="403"/>
-      <c r="D18" s="404"/>
-      <c r="E18" s="403"/>
-      <c r="F18" s="403"/>
-      <c r="G18" s="404"/>
+      <c r="B18" s="408"/>
+      <c r="C18" s="409"/>
+      <c r="D18" s="410"/>
+      <c r="E18" s="409"/>
+      <c r="F18" s="409"/>
+      <c r="G18" s="410"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="116"/>
-      <c r="B19" s="405"/>
-      <c r="C19" s="406"/>
-      <c r="D19" s="407"/>
-      <c r="E19" s="406"/>
-      <c r="F19" s="406"/>
-      <c r="G19" s="407"/>
+      <c r="B19" s="411"/>
+      <c r="C19" s="412"/>
+      <c r="D19" s="413"/>
+      <c r="E19" s="412"/>
+      <c r="F19" s="412"/>
+      <c r="G19" s="413"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="E17:G17"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="E18:G18"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="E19:G19"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="F5:H5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16251,11 +16251,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="423" t="s">
+      <c r="A1" s="429" t="s">
         <v>320</v>
       </c>
-      <c r="B1" s="423"/>
-      <c r="C1" s="423"/>
+      <c r="B1" s="429"/>
+      <c r="C1" s="429"/>
       <c r="D1" s="226" t="s">
         <v>471</v>
       </c>
@@ -16283,11 +16283,11 @@
       <c r="P1" s="34"/>
     </row>
     <row r="2" spans="1:16" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="420" t="s">
+      <c r="A2" s="426" t="s">
         <v>470</v>
       </c>
-      <c r="B2" s="421"/>
-      <c r="C2" s="422"/>
+      <c r="B2" s="427"/>
+      <c r="C2" s="428"/>
       <c r="D2" s="230" t="s">
         <v>321</v>
       </c>
@@ -16371,21 +16371,21 @@
       <c r="F4" s="244" t="s">
         <v>326</v>
       </c>
-      <c r="G4" s="411" t="s">
+      <c r="G4" s="433" t="s">
         <v>108</v>
       </c>
-      <c r="H4" s="411">
+      <c r="H4" s="433">
         <v>3</v>
       </c>
-      <c r="I4" s="411">
+      <c r="I4" s="433">
         <f>IF(H4="","",IF(H4&lt;=2,1,IF(H4&lt;=4,2,IF(H4&lt;=8,3,IF(H4&lt;=16,4,IF(H4&lt;=32,5,IF(H4&lt;=64,6,IF(H4&lt;=128,7,8))))))))</f>
         <v>2</v>
       </c>
-      <c r="J4" s="411">
+      <c r="J4" s="433">
         <f>IF(G4="","",IF(G4="A",8+I4,IF(G4="B",16+I4,IF(G4="C",24+I4,"invalid"))))</f>
         <v>10</v>
       </c>
-      <c r="K4" s="414">
+      <c r="K4" s="430">
         <f>IF(J4="","",2^(32-J4))</f>
         <v>4194304</v>
       </c>
@@ -16409,11 +16409,11 @@
       <c r="F5" s="214" t="s">
         <v>326</v>
       </c>
-      <c r="G5" s="412"/>
-      <c r="H5" s="412"/>
-      <c r="I5" s="412"/>
-      <c r="J5" s="412"/>
-      <c r="K5" s="415"/>
+      <c r="G5" s="434"/>
+      <c r="H5" s="434"/>
+      <c r="I5" s="434"/>
+      <c r="J5" s="434"/>
+      <c r="K5" s="431"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="237" t="s">
@@ -16434,11 +16434,11 @@
       <c r="F6" s="212" t="s">
         <v>326</v>
       </c>
-      <c r="G6" s="412"/>
-      <c r="H6" s="412"/>
-      <c r="I6" s="412"/>
-      <c r="J6" s="412"/>
-      <c r="K6" s="415"/>
+      <c r="G6" s="434"/>
+      <c r="H6" s="434"/>
+      <c r="I6" s="434"/>
+      <c r="J6" s="434"/>
+      <c r="K6" s="431"/>
     </row>
     <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="239" t="s">
@@ -16459,11 +16459,11 @@
       <c r="F7" s="241" t="s">
         <v>326</v>
       </c>
-      <c r="G7" s="413"/>
-      <c r="H7" s="413"/>
-      <c r="I7" s="413"/>
-      <c r="J7" s="413"/>
-      <c r="K7" s="416"/>
+      <c r="G7" s="435"/>
+      <c r="H7" s="435"/>
+      <c r="I7" s="435"/>
+      <c r="J7" s="435"/>
+      <c r="K7" s="432"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="242" t="s">
@@ -16484,21 +16484,21 @@
       <c r="F8" s="244" t="s">
         <v>389</v>
       </c>
-      <c r="G8" s="408" t="s">
+      <c r="G8" s="436" t="s">
         <v>109</v>
       </c>
-      <c r="H8" s="408">
+      <c r="H8" s="436">
         <v>5</v>
       </c>
-      <c r="I8" s="408">
+      <c r="I8" s="436">
         <f t="shared" ref="I8:I44" si="0">IF(H8="","",IF(H8&lt;=2,1,IF(H8&lt;=4,2,IF(H8&lt;=8,3,IF(H8&lt;=16,4,IF(H8&lt;=32,5,IF(H8&lt;=64,6,IF(H8&lt;=128,7,8))))))))</f>
         <v>3</v>
       </c>
-      <c r="J8" s="408">
+      <c r="J8" s="436">
         <f t="shared" ref="J8:J20" si="1">IF(G8="","",IF(G8="A",8+I8,IF(G8="B",16+I8,IF(G8="C",24+I8,"invalid"))))</f>
         <v>19</v>
       </c>
-      <c r="K8" s="417">
+      <c r="K8" s="439">
         <f t="shared" ref="K8:K44" si="2">IF(J8="","",2^(32-J8))</f>
         <v>8192</v>
       </c>
@@ -16522,11 +16522,11 @@
       <c r="F9" s="214" t="s">
         <v>389</v>
       </c>
-      <c r="G9" s="409"/>
-      <c r="H9" s="409"/>
-      <c r="I9" s="409"/>
-      <c r="J9" s="409"/>
-      <c r="K9" s="418"/>
+      <c r="G9" s="437"/>
+      <c r="H9" s="437"/>
+      <c r="I9" s="437"/>
+      <c r="J9" s="437"/>
+      <c r="K9" s="440"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="237" t="s">
@@ -16547,11 +16547,11 @@
       <c r="F10" s="212" t="s">
         <v>389</v>
       </c>
-      <c r="G10" s="409"/>
-      <c r="H10" s="409"/>
-      <c r="I10" s="409"/>
-      <c r="J10" s="409"/>
-      <c r="K10" s="418"/>
+      <c r="G10" s="437"/>
+      <c r="H10" s="437"/>
+      <c r="I10" s="437"/>
+      <c r="J10" s="437"/>
+      <c r="K10" s="440"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="238" t="s">
@@ -16572,11 +16572,11 @@
       <c r="F11" s="216" t="s">
         <v>389</v>
       </c>
-      <c r="G11" s="409"/>
-      <c r="H11" s="409"/>
-      <c r="I11" s="409"/>
-      <c r="J11" s="409"/>
-      <c r="K11" s="418"/>
+      <c r="G11" s="437"/>
+      <c r="H11" s="437"/>
+      <c r="I11" s="437"/>
+      <c r="J11" s="437"/>
+      <c r="K11" s="440"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="237" t="s">
@@ -16597,11 +16597,11 @@
       <c r="F12" s="212" t="s">
         <v>389</v>
       </c>
-      <c r="G12" s="409"/>
-      <c r="H12" s="409"/>
-      <c r="I12" s="409"/>
-      <c r="J12" s="409"/>
-      <c r="K12" s="418"/>
+      <c r="G12" s="437"/>
+      <c r="H12" s="437"/>
+      <c r="I12" s="437"/>
+      <c r="J12" s="437"/>
+      <c r="K12" s="440"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="236" t="s">
@@ -16622,11 +16622,11 @@
       <c r="F13" s="214" t="s">
         <v>389</v>
       </c>
-      <c r="G13" s="409"/>
-      <c r="H13" s="409"/>
-      <c r="I13" s="409"/>
-      <c r="J13" s="409"/>
-      <c r="K13" s="418"/>
+      <c r="G13" s="437"/>
+      <c r="H13" s="437"/>
+      <c r="I13" s="437"/>
+      <c r="J13" s="437"/>
+      <c r="K13" s="440"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="237" t="s">
@@ -16647,11 +16647,11 @@
       <c r="F14" s="212" t="s">
         <v>389</v>
       </c>
-      <c r="G14" s="409"/>
-      <c r="H14" s="409"/>
-      <c r="I14" s="409"/>
-      <c r="J14" s="409"/>
-      <c r="K14" s="418"/>
+      <c r="G14" s="437"/>
+      <c r="H14" s="437"/>
+      <c r="I14" s="437"/>
+      <c r="J14" s="437"/>
+      <c r="K14" s="440"/>
     </row>
     <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="239" t="s">
@@ -16672,11 +16672,11 @@
       <c r="F15" s="241" t="s">
         <v>389</v>
       </c>
-      <c r="G15" s="410"/>
-      <c r="H15" s="410"/>
-      <c r="I15" s="410"/>
-      <c r="J15" s="410"/>
-      <c r="K15" s="419"/>
+      <c r="G15" s="438"/>
+      <c r="H15" s="438"/>
+      <c r="I15" s="438"/>
+      <c r="J15" s="438"/>
+      <c r="K15" s="441"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="242" t="s">
@@ -16697,21 +16697,21 @@
       <c r="F16" s="245">
         <v>255255255192</v>
       </c>
-      <c r="G16" s="411" t="s">
+      <c r="G16" s="433" t="s">
         <v>111</v>
       </c>
-      <c r="H16" s="411">
+      <c r="H16" s="433">
         <v>4</v>
       </c>
-      <c r="I16" s="411">
+      <c r="I16" s="433">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J16" s="411">
+      <c r="J16" s="433">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="K16" s="414">
+      <c r="K16" s="430">
         <f t="shared" si="2"/>
         <v>64</v>
       </c>
@@ -16735,11 +16735,11 @@
       <c r="F17" s="225">
         <v>255255255192</v>
       </c>
-      <c r="G17" s="412"/>
-      <c r="H17" s="412"/>
-      <c r="I17" s="412"/>
-      <c r="J17" s="412"/>
-      <c r="K17" s="415"/>
+      <c r="G17" s="434"/>
+      <c r="H17" s="434"/>
+      <c r="I17" s="434"/>
+      <c r="J17" s="434"/>
+      <c r="K17" s="431"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="237" t="s">
@@ -16760,11 +16760,11 @@
       <c r="F18" s="224">
         <v>255255255192</v>
       </c>
-      <c r="G18" s="412"/>
-      <c r="H18" s="412"/>
-      <c r="I18" s="412"/>
-      <c r="J18" s="412"/>
-      <c r="K18" s="415"/>
+      <c r="G18" s="434"/>
+      <c r="H18" s="434"/>
+      <c r="I18" s="434"/>
+      <c r="J18" s="434"/>
+      <c r="K18" s="431"/>
     </row>
     <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="239" t="s">
@@ -16785,11 +16785,11 @@
       <c r="F19" s="246">
         <v>255255255192</v>
       </c>
-      <c r="G19" s="413"/>
-      <c r="H19" s="413"/>
-      <c r="I19" s="413"/>
-      <c r="J19" s="413"/>
-      <c r="K19" s="416"/>
+      <c r="G19" s="435"/>
+      <c r="H19" s="435"/>
+      <c r="I19" s="435"/>
+      <c r="J19" s="435"/>
+      <c r="K19" s="432"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="242" t="s">
@@ -16810,21 +16810,21 @@
       <c r="F20" s="244" t="s">
         <v>440</v>
       </c>
-      <c r="G20" s="408" t="s">
+      <c r="G20" s="436" t="s">
         <v>108</v>
       </c>
-      <c r="H20" s="408">
+      <c r="H20" s="436">
         <v>20</v>
       </c>
-      <c r="I20" s="408">
+      <c r="I20" s="436">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J20" s="408">
+      <c r="J20" s="436">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="K20" s="417">
+      <c r="K20" s="439">
         <f t="shared" si="2"/>
         <v>524288</v>
       </c>
@@ -16848,11 +16848,11 @@
       <c r="F21" s="214" t="s">
         <v>440</v>
       </c>
-      <c r="G21" s="409"/>
-      <c r="H21" s="409"/>
-      <c r="I21" s="409"/>
-      <c r="J21" s="409"/>
-      <c r="K21" s="418"/>
+      <c r="G21" s="437"/>
+      <c r="H21" s="437"/>
+      <c r="I21" s="437"/>
+      <c r="J21" s="437"/>
+      <c r="K21" s="440"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="237" t="s">
@@ -16873,11 +16873,11 @@
       <c r="F22" s="212" t="s">
         <v>440</v>
       </c>
-      <c r="G22" s="409"/>
-      <c r="H22" s="409"/>
-      <c r="I22" s="409"/>
-      <c r="J22" s="409"/>
-      <c r="K22" s="418"/>
+      <c r="G22" s="437"/>
+      <c r="H22" s="437"/>
+      <c r="I22" s="437"/>
+      <c r="J22" s="437"/>
+      <c r="K22" s="440"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="238" t="s">
@@ -16898,11 +16898,11 @@
       <c r="F23" s="216" t="s">
         <v>440</v>
       </c>
-      <c r="G23" s="409"/>
-      <c r="H23" s="409"/>
-      <c r="I23" s="409"/>
-      <c r="J23" s="409"/>
-      <c r="K23" s="418"/>
+      <c r="G23" s="437"/>
+      <c r="H23" s="437"/>
+      <c r="I23" s="437"/>
+      <c r="J23" s="437"/>
+      <c r="K23" s="440"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="237" t="s">
@@ -16923,11 +16923,11 @@
       <c r="F24" s="212" t="s">
         <v>440</v>
       </c>
-      <c r="G24" s="409"/>
-      <c r="H24" s="409"/>
-      <c r="I24" s="409"/>
-      <c r="J24" s="409"/>
-      <c r="K24" s="418"/>
+      <c r="G24" s="437"/>
+      <c r="H24" s="437"/>
+      <c r="I24" s="437"/>
+      <c r="J24" s="437"/>
+      <c r="K24" s="440"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="236" t="s">
@@ -16948,11 +16948,11 @@
       <c r="F25" s="214" t="s">
         <v>440</v>
       </c>
-      <c r="G25" s="409"/>
-      <c r="H25" s="409"/>
-      <c r="I25" s="409"/>
-      <c r="J25" s="409"/>
-      <c r="K25" s="418"/>
+      <c r="G25" s="437"/>
+      <c r="H25" s="437"/>
+      <c r="I25" s="437"/>
+      <c r="J25" s="437"/>
+      <c r="K25" s="440"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="237" t="s">
@@ -16973,11 +16973,11 @@
       <c r="F26" s="212" t="s">
         <v>440</v>
       </c>
-      <c r="G26" s="409"/>
-      <c r="H26" s="409"/>
-      <c r="I26" s="409"/>
-      <c r="J26" s="409"/>
-      <c r="K26" s="418"/>
+      <c r="G26" s="437"/>
+      <c r="H26" s="437"/>
+      <c r="I26" s="437"/>
+      <c r="J26" s="437"/>
+      <c r="K26" s="440"/>
     </row>
     <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="239" t="s">
@@ -16998,11 +16998,11 @@
       <c r="F27" s="241" t="s">
         <v>440</v>
       </c>
-      <c r="G27" s="410"/>
-      <c r="H27" s="410"/>
-      <c r="I27" s="410"/>
-      <c r="J27" s="410"/>
-      <c r="K27" s="419"/>
+      <c r="G27" s="438"/>
+      <c r="H27" s="438"/>
+      <c r="I27" s="438"/>
+      <c r="J27" s="438"/>
+      <c r="K27" s="441"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="242" t="s">
@@ -17023,21 +17023,21 @@
       <c r="F28" s="244" t="s">
         <v>440</v>
       </c>
-      <c r="G28" s="411" t="s">
+      <c r="G28" s="433" t="s">
         <v>108</v>
       </c>
-      <c r="H28" s="411">
+      <c r="H28" s="433">
         <v>20</v>
       </c>
-      <c r="I28" s="411">
+      <c r="I28" s="433">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J28" s="411">
+      <c r="J28" s="433">
         <f t="shared" ref="J28" si="3">IF(G28="","",IF(G28="A",8+I28,IF(G28="B",16+I28,IF(G28="C",24+I28,"invalid"))))</f>
         <v>13</v>
       </c>
-      <c r="K28" s="414">
+      <c r="K28" s="430">
         <f t="shared" si="2"/>
         <v>524288</v>
       </c>
@@ -17061,11 +17061,11 @@
       <c r="F29" s="214" t="s">
         <v>440</v>
       </c>
-      <c r="G29" s="412"/>
-      <c r="H29" s="412"/>
-      <c r="I29" s="412"/>
-      <c r="J29" s="412"/>
-      <c r="K29" s="415"/>
+      <c r="G29" s="434"/>
+      <c r="H29" s="434"/>
+      <c r="I29" s="434"/>
+      <c r="J29" s="434"/>
+      <c r="K29" s="431"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="237" t="s">
@@ -17086,11 +17086,11 @@
       <c r="F30" s="212" t="s">
         <v>440</v>
       </c>
-      <c r="G30" s="412"/>
-      <c r="H30" s="412"/>
-      <c r="I30" s="412"/>
-      <c r="J30" s="412"/>
-      <c r="K30" s="415"/>
+      <c r="G30" s="434"/>
+      <c r="H30" s="434"/>
+      <c r="I30" s="434"/>
+      <c r="J30" s="434"/>
+      <c r="K30" s="431"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="238" t="s">
@@ -17111,11 +17111,11 @@
       <c r="F31" s="216" t="s">
         <v>440</v>
       </c>
-      <c r="G31" s="412"/>
-      <c r="H31" s="412"/>
-      <c r="I31" s="412"/>
-      <c r="J31" s="412"/>
-      <c r="K31" s="415"/>
+      <c r="G31" s="434"/>
+      <c r="H31" s="434"/>
+      <c r="I31" s="434"/>
+      <c r="J31" s="434"/>
+      <c r="K31" s="431"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="237" t="s">
@@ -17136,11 +17136,11 @@
       <c r="F32" s="212" t="s">
         <v>440</v>
       </c>
-      <c r="G32" s="412"/>
-      <c r="H32" s="412"/>
-      <c r="I32" s="412"/>
-      <c r="J32" s="412"/>
-      <c r="K32" s="415"/>
+      <c r="G32" s="434"/>
+      <c r="H32" s="434"/>
+      <c r="I32" s="434"/>
+      <c r="J32" s="434"/>
+      <c r="K32" s="431"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="236" t="s">
@@ -17161,11 +17161,11 @@
       <c r="F33" s="214" t="s">
         <v>440</v>
       </c>
-      <c r="G33" s="412"/>
-      <c r="H33" s="412"/>
-      <c r="I33" s="412"/>
-      <c r="J33" s="412"/>
-      <c r="K33" s="415"/>
+      <c r="G33" s="434"/>
+      <c r="H33" s="434"/>
+      <c r="I33" s="434"/>
+      <c r="J33" s="434"/>
+      <c r="K33" s="431"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="237" t="s">
@@ -17186,11 +17186,11 @@
       <c r="F34" s="212" t="s">
         <v>440</v>
       </c>
-      <c r="G34" s="412"/>
-      <c r="H34" s="412"/>
-      <c r="I34" s="412"/>
-      <c r="J34" s="412"/>
-      <c r="K34" s="415"/>
+      <c r="G34" s="434"/>
+      <c r="H34" s="434"/>
+      <c r="I34" s="434"/>
+      <c r="J34" s="434"/>
+      <c r="K34" s="431"/>
     </row>
     <row r="35" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="239" t="s">
@@ -17211,11 +17211,11 @@
       <c r="F35" s="241" t="s">
         <v>440</v>
       </c>
-      <c r="G35" s="413"/>
-      <c r="H35" s="413"/>
-      <c r="I35" s="413"/>
-      <c r="J35" s="413"/>
-      <c r="K35" s="416"/>
+      <c r="G35" s="435"/>
+      <c r="H35" s="435"/>
+      <c r="I35" s="435"/>
+      <c r="J35" s="435"/>
+      <c r="K35" s="432"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="242" t="s">
@@ -17236,21 +17236,21 @@
       <c r="F36" s="244" t="s">
         <v>440</v>
       </c>
-      <c r="G36" s="408" t="s">
+      <c r="G36" s="436" t="s">
         <v>108</v>
       </c>
-      <c r="H36" s="408">
+      <c r="H36" s="436">
         <v>20</v>
       </c>
-      <c r="I36" s="408">
+      <c r="I36" s="436">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J36" s="408">
+      <c r="J36" s="436">
         <f t="shared" ref="J36" si="4">IF(G36="","",IF(G36="A",8+I36,IF(G36="B",16+I36,IF(G36="C",24+I36,"invalid"))))</f>
         <v>13</v>
       </c>
-      <c r="K36" s="417">
+      <c r="K36" s="439">
         <f t="shared" si="2"/>
         <v>524288</v>
       </c>
@@ -17274,11 +17274,11 @@
       <c r="F37" s="214" t="s">
         <v>440</v>
       </c>
-      <c r="G37" s="409"/>
-      <c r="H37" s="409"/>
-      <c r="I37" s="409"/>
-      <c r="J37" s="409"/>
-      <c r="K37" s="418"/>
+      <c r="G37" s="437"/>
+      <c r="H37" s="437"/>
+      <c r="I37" s="437"/>
+      <c r="J37" s="437"/>
+      <c r="K37" s="440"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="237" t="s">
@@ -17299,11 +17299,11 @@
       <c r="F38" s="212" t="s">
         <v>440</v>
       </c>
-      <c r="G38" s="409"/>
-      <c r="H38" s="409"/>
-      <c r="I38" s="409"/>
-      <c r="J38" s="409"/>
-      <c r="K38" s="418"/>
+      <c r="G38" s="437"/>
+      <c r="H38" s="437"/>
+      <c r="I38" s="437"/>
+      <c r="J38" s="437"/>
+      <c r="K38" s="440"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="238" t="s">
@@ -17324,11 +17324,11 @@
       <c r="F39" s="216" t="s">
         <v>440</v>
       </c>
-      <c r="G39" s="409"/>
-      <c r="H39" s="409"/>
-      <c r="I39" s="409"/>
-      <c r="J39" s="409"/>
-      <c r="K39" s="418"/>
+      <c r="G39" s="437"/>
+      <c r="H39" s="437"/>
+      <c r="I39" s="437"/>
+      <c r="J39" s="437"/>
+      <c r="K39" s="440"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="237" t="s">
@@ -17349,11 +17349,11 @@
       <c r="F40" s="212" t="s">
         <v>440</v>
       </c>
-      <c r="G40" s="409"/>
-      <c r="H40" s="409"/>
-      <c r="I40" s="409"/>
-      <c r="J40" s="409"/>
-      <c r="K40" s="418"/>
+      <c r="G40" s="437"/>
+      <c r="H40" s="437"/>
+      <c r="I40" s="437"/>
+      <c r="J40" s="437"/>
+      <c r="K40" s="440"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="236" t="s">
@@ -17374,11 +17374,11 @@
       <c r="F41" s="214" t="s">
         <v>440</v>
       </c>
-      <c r="G41" s="409"/>
-      <c r="H41" s="409"/>
-      <c r="I41" s="409"/>
-      <c r="J41" s="409"/>
-      <c r="K41" s="418"/>
+      <c r="G41" s="437"/>
+      <c r="H41" s="437"/>
+      <c r="I41" s="437"/>
+      <c r="J41" s="437"/>
+      <c r="K41" s="440"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="237" t="s">
@@ -17399,11 +17399,11 @@
       <c r="F42" s="212" t="s">
         <v>440</v>
       </c>
-      <c r="G42" s="409"/>
-      <c r="H42" s="409"/>
-      <c r="I42" s="409"/>
-      <c r="J42" s="409"/>
-      <c r="K42" s="418"/>
+      <c r="G42" s="437"/>
+      <c r="H42" s="437"/>
+      <c r="I42" s="437"/>
+      <c r="J42" s="437"/>
+      <c r="K42" s="440"/>
     </row>
     <row r="43" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="239" t="s">
@@ -17424,11 +17424,11 @@
       <c r="F43" s="241" t="s">
         <v>440</v>
       </c>
-      <c r="G43" s="410"/>
-      <c r="H43" s="410"/>
-      <c r="I43" s="410"/>
-      <c r="J43" s="410"/>
-      <c r="K43" s="419"/>
+      <c r="G43" s="438"/>
+      <c r="H43" s="438"/>
+      <c r="I43" s="438"/>
+      <c r="J43" s="438"/>
+      <c r="K43" s="441"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="242" t="s">
@@ -17449,21 +17449,21 @@
       <c r="F44" s="244" t="s">
         <v>440</v>
       </c>
-      <c r="G44" s="411" t="s">
+      <c r="G44" s="433" t="s">
         <v>108</v>
       </c>
-      <c r="H44" s="411">
+      <c r="H44" s="433">
         <v>20</v>
       </c>
-      <c r="I44" s="411">
+      <c r="I44" s="433">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J44" s="411">
+      <c r="J44" s="433">
         <f t="shared" ref="J44" si="5">IF(G44="","",IF(G44="A",8+I44,IF(G44="B",16+I44,IF(G44="C",24+I44,"invalid"))))</f>
         <v>13</v>
       </c>
-      <c r="K44" s="414">
+      <c r="K44" s="430">
         <f t="shared" si="2"/>
         <v>524288</v>
       </c>
@@ -17487,11 +17487,11 @@
       <c r="F45" s="214" t="s">
         <v>440</v>
       </c>
-      <c r="G45" s="412"/>
-      <c r="H45" s="412"/>
-      <c r="I45" s="412"/>
-      <c r="J45" s="412"/>
-      <c r="K45" s="415"/>
+      <c r="G45" s="434"/>
+      <c r="H45" s="434"/>
+      <c r="I45" s="434"/>
+      <c r="J45" s="434"/>
+      <c r="K45" s="431"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="237" t="s">
@@ -17512,11 +17512,11 @@
       <c r="F46" s="212" t="s">
         <v>440</v>
       </c>
-      <c r="G46" s="412"/>
-      <c r="H46" s="412"/>
-      <c r="I46" s="412"/>
-      <c r="J46" s="412"/>
-      <c r="K46" s="415"/>
+      <c r="G46" s="434"/>
+      <c r="H46" s="434"/>
+      <c r="I46" s="434"/>
+      <c r="J46" s="434"/>
+      <c r="K46" s="431"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="238" t="s">
@@ -17537,11 +17537,11 @@
       <c r="F47" s="216" t="s">
         <v>440</v>
       </c>
-      <c r="G47" s="412"/>
-      <c r="H47" s="412"/>
-      <c r="I47" s="412"/>
-      <c r="J47" s="412"/>
-      <c r="K47" s="415"/>
+      <c r="G47" s="434"/>
+      <c r="H47" s="434"/>
+      <c r="I47" s="434"/>
+      <c r="J47" s="434"/>
+      <c r="K47" s="431"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="237" t="s">
@@ -17562,11 +17562,11 @@
       <c r="F48" s="212" t="s">
         <v>440</v>
       </c>
-      <c r="G48" s="412"/>
-      <c r="H48" s="412"/>
-      <c r="I48" s="412"/>
-      <c r="J48" s="412"/>
-      <c r="K48" s="415"/>
+      <c r="G48" s="434"/>
+      <c r="H48" s="434"/>
+      <c r="I48" s="434"/>
+      <c r="J48" s="434"/>
+      <c r="K48" s="431"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="236" t="s">
@@ -17587,11 +17587,11 @@
       <c r="F49" s="214" t="s">
         <v>440</v>
       </c>
-      <c r="G49" s="412"/>
-      <c r="H49" s="412"/>
-      <c r="I49" s="412"/>
-      <c r="J49" s="412"/>
-      <c r="K49" s="415"/>
+      <c r="G49" s="434"/>
+      <c r="H49" s="434"/>
+      <c r="I49" s="434"/>
+      <c r="J49" s="434"/>
+      <c r="K49" s="431"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="237" t="s">
@@ -17612,11 +17612,11 @@
       <c r="F50" s="212" t="s">
         <v>440</v>
       </c>
-      <c r="G50" s="412"/>
-      <c r="H50" s="412"/>
-      <c r="I50" s="412"/>
-      <c r="J50" s="412"/>
-      <c r="K50" s="415"/>
+      <c r="G50" s="434"/>
+      <c r="H50" s="434"/>
+      <c r="I50" s="434"/>
+      <c r="J50" s="434"/>
+      <c r="K50" s="431"/>
     </row>
     <row r="51" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="239" t="s">
@@ -17637,11 +17637,11 @@
       <c r="F51" s="241" t="s">
         <v>440</v>
       </c>
-      <c r="G51" s="413"/>
-      <c r="H51" s="413"/>
-      <c r="I51" s="413"/>
-      <c r="J51" s="413"/>
-      <c r="K51" s="416"/>
+      <c r="G51" s="435"/>
+      <c r="H51" s="435"/>
+      <c r="I51" s="435"/>
+      <c r="J51" s="435"/>
+      <c r="K51" s="432"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G52" s="229"/>
@@ -17651,13 +17651,27 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="K4:K7"/>
-    <mergeCell ref="J4:J7"/>
-    <mergeCell ref="I4:I7"/>
-    <mergeCell ref="H4:H7"/>
-    <mergeCell ref="G4:G7"/>
+    <mergeCell ref="H36:H43"/>
+    <mergeCell ref="H44:H51"/>
+    <mergeCell ref="I44:I51"/>
+    <mergeCell ref="J44:J51"/>
+    <mergeCell ref="K44:K51"/>
+    <mergeCell ref="K36:K43"/>
+    <mergeCell ref="J36:J43"/>
+    <mergeCell ref="I36:I43"/>
+    <mergeCell ref="H20:H27"/>
+    <mergeCell ref="I20:I27"/>
+    <mergeCell ref="J20:J27"/>
+    <mergeCell ref="K20:K27"/>
+    <mergeCell ref="H28:H35"/>
+    <mergeCell ref="I28:I35"/>
+    <mergeCell ref="J28:J35"/>
+    <mergeCell ref="K28:K35"/>
+    <mergeCell ref="G20:G27"/>
+    <mergeCell ref="G28:G35"/>
+    <mergeCell ref="G36:G43"/>
+    <mergeCell ref="G44:G51"/>
+    <mergeCell ref="G16:G19"/>
     <mergeCell ref="H16:H19"/>
     <mergeCell ref="I16:I19"/>
     <mergeCell ref="J16:J19"/>
@@ -17667,27 +17681,13 @@
     <mergeCell ref="I8:I15"/>
     <mergeCell ref="J8:J15"/>
     <mergeCell ref="K8:K15"/>
-    <mergeCell ref="G20:G27"/>
-    <mergeCell ref="G28:G35"/>
-    <mergeCell ref="G36:G43"/>
-    <mergeCell ref="G44:G51"/>
-    <mergeCell ref="G16:G19"/>
-    <mergeCell ref="H20:H27"/>
-    <mergeCell ref="I20:I27"/>
-    <mergeCell ref="J20:J27"/>
-    <mergeCell ref="K20:K27"/>
-    <mergeCell ref="H28:H35"/>
-    <mergeCell ref="I28:I35"/>
-    <mergeCell ref="J28:J35"/>
-    <mergeCell ref="K28:K35"/>
-    <mergeCell ref="H36:H43"/>
-    <mergeCell ref="H44:H51"/>
-    <mergeCell ref="I44:I51"/>
-    <mergeCell ref="J44:J51"/>
-    <mergeCell ref="K44:K51"/>
-    <mergeCell ref="K36:K43"/>
-    <mergeCell ref="J36:J43"/>
-    <mergeCell ref="I36:I43"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="K4:K7"/>
+    <mergeCell ref="J4:J7"/>
+    <mergeCell ref="I4:I7"/>
+    <mergeCell ref="H4:H7"/>
+    <mergeCell ref="G4:G7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17736,11 +17736,11 @@
       <c r="A1" t="s">
         <v>392</v>
       </c>
-      <c r="G1" s="423" t="s">
+      <c r="G1" s="429" t="s">
         <v>574</v>
       </c>
-      <c r="H1" s="423"/>
-      <c r="I1" s="423"/>
+      <c r="H1" s="429"/>
+      <c r="I1" s="429"/>
       <c r="J1" s="226" t="s">
         <v>471</v>
       </c>
@@ -17770,17 +17770,17 @@
       </c>
     </row>
     <row r="2" spans="1:29" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="430"/>
-      <c r="B2" s="430"/>
-      <c r="C2" s="430"/>
-      <c r="D2" s="430"/>
-      <c r="E2" s="430"/>
-      <c r="F2" s="430"/>
-      <c r="G2" s="420" t="s">
+      <c r="A2" s="448"/>
+      <c r="B2" s="448"/>
+      <c r="C2" s="448"/>
+      <c r="D2" s="448"/>
+      <c r="E2" s="448"/>
+      <c r="F2" s="448"/>
+      <c r="G2" s="426" t="s">
         <v>575</v>
       </c>
-      <c r="H2" s="421"/>
-      <c r="I2" s="422"/>
+      <c r="H2" s="427"/>
+      <c r="I2" s="428"/>
       <c r="J2" s="230" t="s">
         <v>445</v>
       </c>
@@ -17917,7 +17917,7 @@
         <f>IF(O4="","",32-O4)</f>
         <v>25</v>
       </c>
-      <c r="R4" s="427" t="s">
+      <c r="R4" s="445" t="s">
         <v>612</v>
       </c>
     </row>
@@ -17970,7 +17970,7 @@
         <f t="shared" ref="Q5:Q8" si="2">IF(O5="","",32-O5)</f>
         <v>26</v>
       </c>
-      <c r="R5" s="428"/>
+      <c r="R5" s="446"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -18021,7 +18021,7 @@
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="R6" s="428"/>
+      <c r="R6" s="446"/>
       <c r="AC6" s="33"/>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
@@ -18073,7 +18073,7 @@
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="R7" s="428"/>
+      <c r="R7" s="446"/>
       <c r="AC7" s="33"/>
     </row>
     <row r="8" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18125,7 +18125,7 @@
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="R8" s="429"/>
+      <c r="R8" s="447"/>
       <c r="AC8" s="33"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
@@ -18168,7 +18168,7 @@
         <f>IF(O9="","",32-O9)</f>
         <v>25</v>
       </c>
-      <c r="R9" s="424" t="s">
+      <c r="R9" s="442" t="s">
         <v>613</v>
       </c>
       <c r="AC9" s="33"/>
@@ -18210,7 +18210,7 @@
         <f>IF(O10="","",32-O10)</f>
         <v>26</v>
       </c>
-      <c r="R10" s="425"/>
+      <c r="R10" s="443"/>
       <c r="AC10" s="33"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
@@ -18268,7 +18268,7 @@
         <f>IF(O11="","",32-O11)</f>
         <v>27</v>
       </c>
-      <c r="R11" s="425"/>
+      <c r="R11" s="443"/>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -18325,7 +18325,7 @@
         <f>IF(O12="","",32-O12)</f>
         <v>29</v>
       </c>
-      <c r="R12" s="425"/>
+      <c r="R12" s="443"/>
     </row>
     <row r="13" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -18382,7 +18382,7 @@
         <f>IF(O13="","",32-O13)</f>
         <v>26</v>
       </c>
-      <c r="R13" s="426"/>
+      <c r="R13" s="444"/>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -18487,12 +18487,12 @@
       <c r="C1" s="290" t="s">
         <v>657</v>
       </c>
-      <c r="E1" s="351" t="s">
+      <c r="E1" s="365" t="s">
         <v>662</v>
       </c>
-      <c r="F1" s="351"/>
-      <c r="G1" s="351"/>
-      <c r="H1" s="351"/>
+      <c r="F1" s="365"/>
+      <c r="G1" s="365"/>
+      <c r="H1" s="365"/>
     </row>
     <row r="2" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="297" t="s">

--- a/docs/protocol-suite.xlsx
+++ b/docs/protocol-suite.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\networks\CISCO\saves\ccna1-lx20\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3842B7FE-BADF-4AA0-82AE-E345DA4F148E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B420FA0-3FF9-4FD7-B107-65EF72BBFA60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{A284E486-C6D6-48E7-9614-2E5470B19042}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{A284E486-C6D6-48E7-9614-2E5470B19042}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelos" sheetId="1" r:id="rId1"/>
+    <sheet name="Unidades" sheetId="2" r:id="rId2"/>
+    <sheet name="Fisica" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>osi de iso</t>
   </si>
@@ -133,6 +135,30 @@
   </si>
   <si>
     <t>un remitente a todos los destinatarios posibles</t>
+  </si>
+  <si>
+    <t>simplex</t>
+  </si>
+  <si>
+    <t>half duplex</t>
+  </si>
+  <si>
+    <t>full duplex</t>
+  </si>
+  <si>
+    <t>full full duplex</t>
+  </si>
+  <si>
+    <t>un dispositivo emisor y solo receptores</t>
+  </si>
+  <si>
+    <t>se envia o se reciben datos (uno por vez)</t>
+  </si>
+  <si>
+    <t>se envian y se reciben datos (simultaneamente)</t>
+  </si>
+  <si>
+    <t>varios envian y reciben datos (simultaneamente)</t>
   </si>
 </sst>
 </file>
@@ -228,37 +254,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -582,15 +608,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB273CAE-2174-4648-B609-4199ED393F4F}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A6" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43.42578125" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" customWidth="1"/>
   </cols>
@@ -610,88 +637,88 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="2"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="10"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="2"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="10"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="D8" s="11"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
@@ -723,6 +750,38 @@
       </c>
       <c r="C13" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -735,4 +794,28 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFE1C4A5-2FCB-486B-92A1-307DF2C4A6F0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67298F6E-2B02-406B-AFA2-B57C1BD52BFA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/protocol-suite.xlsx
+++ b/docs/protocol-suite.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\networks\CISCO\saves\ccna1-lx20\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B420FA0-3FF9-4FD7-B107-65EF72BBFA60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E65E97-AE8A-4B11-B208-9CEFCCB65A43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{A284E486-C6D6-48E7-9614-2E5470B19042}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="137">
   <si>
     <t>osi de iso</t>
   </si>
@@ -159,6 +159,294 @@
   </si>
   <si>
     <t>varios envian y reciben datos (simultaneamente)</t>
+  </si>
+  <si>
+    <t>binary digit</t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Almacenamiento</t>
+  </si>
+  <si>
+    <t>Unidad</t>
+  </si>
+  <si>
+    <t>Equivalencia</t>
+  </si>
+  <si>
+    <t>Decimal</t>
+  </si>
+  <si>
+    <t>Byte</t>
+  </si>
+  <si>
+    <t>10^0</t>
+  </si>
+  <si>
+    <t>KyloByte</t>
+  </si>
+  <si>
+    <t>8b</t>
+  </si>
+  <si>
+    <t>1000B</t>
+  </si>
+  <si>
+    <t>10^3</t>
+  </si>
+  <si>
+    <t>MegaByte</t>
+  </si>
+  <si>
+    <t>1000KB</t>
+  </si>
+  <si>
+    <t>10^6</t>
+  </si>
+  <si>
+    <t>10^9</t>
+  </si>
+  <si>
+    <t>10^12</t>
+  </si>
+  <si>
+    <t>10^15</t>
+  </si>
+  <si>
+    <t>10^18</t>
+  </si>
+  <si>
+    <t>10^21</t>
+  </si>
+  <si>
+    <t>10^24</t>
+  </si>
+  <si>
+    <t>10^27</t>
+  </si>
+  <si>
+    <t>10^30</t>
+  </si>
+  <si>
+    <t>10^33</t>
+  </si>
+  <si>
+    <t>GigaByte</t>
+  </si>
+  <si>
+    <t>1000MB</t>
+  </si>
+  <si>
+    <t>TeraByte</t>
+  </si>
+  <si>
+    <t>1000GB</t>
+  </si>
+  <si>
+    <t>PetaByte</t>
+  </si>
+  <si>
+    <t>1000TB</t>
+  </si>
+  <si>
+    <t>ExaByte</t>
+  </si>
+  <si>
+    <t>1000PB</t>
+  </si>
+  <si>
+    <t>ZettaByte</t>
+  </si>
+  <si>
+    <t>1000XB</t>
+  </si>
+  <si>
+    <t>YottaByte</t>
+  </si>
+  <si>
+    <t>1000ZB</t>
+  </si>
+  <si>
+    <t>BrontoByte</t>
+  </si>
+  <si>
+    <t>1000YB</t>
+  </si>
+  <si>
+    <t>GeopByte</t>
+  </si>
+  <si>
+    <t>1000GeB</t>
+  </si>
+  <si>
+    <t>SanganByte</t>
+  </si>
+  <si>
+    <t>1000BB</t>
+  </si>
+  <si>
+    <t>Ancho de Banda</t>
+  </si>
+  <si>
+    <t>1b/s</t>
+  </si>
+  <si>
+    <t>1000bps</t>
+  </si>
+  <si>
+    <t>Kilobits/seg</t>
+  </si>
+  <si>
+    <t>bit/seg</t>
+  </si>
+  <si>
+    <t>Megabit/seg</t>
+  </si>
+  <si>
+    <t>1000Kbps</t>
+  </si>
+  <si>
+    <t>Gigabit/seg</t>
+  </si>
+  <si>
+    <t>1000Mbps</t>
+  </si>
+  <si>
+    <t>Terabit/seg</t>
+  </si>
+  <si>
+    <t>1000Gbps</t>
+  </si>
+  <si>
+    <t>Frecuencia</t>
+  </si>
+  <si>
+    <t>hertz</t>
+  </si>
+  <si>
+    <t>1 ciclo / seg</t>
+  </si>
+  <si>
+    <t>KiloHertz</t>
+  </si>
+  <si>
+    <t>1000Hz</t>
+  </si>
+  <si>
+    <t>MegaHertz</t>
+  </si>
+  <si>
+    <t>1000KHz</t>
+  </si>
+  <si>
+    <t>GigaHertz</t>
+  </si>
+  <si>
+    <t>1000MHz</t>
+  </si>
+  <si>
+    <t>TeraHertz</t>
+  </si>
+  <si>
+    <t>1000GHz</t>
+  </si>
+  <si>
+    <t>Carrier</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>FM</t>
+  </si>
+  <si>
+    <t>PM</t>
+  </si>
+  <si>
+    <t>Terminologia</t>
+  </si>
+  <si>
+    <t>Amplitud Modulada</t>
+  </si>
+  <si>
+    <t>Frecuencia Modulada</t>
+  </si>
+  <si>
+    <t>Fase Modulada</t>
+  </si>
+  <si>
+    <t>Señal Portadora</t>
+  </si>
+  <si>
+    <t>TIA-568A</t>
+  </si>
+  <si>
+    <t>TIA-568B</t>
+  </si>
+  <si>
+    <t>Telecomunications International Association</t>
+  </si>
+  <si>
+    <t>Bv</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>Bn</t>
+  </si>
+  <si>
+    <t>Az</t>
+  </si>
+  <si>
+    <t>Baz</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>BM</t>
+  </si>
+  <si>
+    <t>Rx</t>
+  </si>
+  <si>
+    <t>Tx</t>
+  </si>
+  <si>
+    <t>Duplex</t>
+  </si>
+  <si>
+    <t>Half</t>
+  </si>
+  <si>
+    <t>Full</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>envia o recibe</t>
+  </si>
+  <si>
+    <t>envia y recibe</t>
+  </si>
+  <si>
+    <t>100mbps</t>
+  </si>
+  <si>
+    <t>segun la interfaz</t>
+  </si>
+  <si>
+    <t>MDIX</t>
   </si>
 </sst>
 </file>
@@ -187,7 +475,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -236,8 +524,61 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -245,11 +586,80 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -287,11 +697,155 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Énfasis1" xfId="1" builtinId="29"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -309,6 +863,139 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>265032</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>133020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>265392</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>136980</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDDE015E-F0A2-4A60-AC57-17D50A243758}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7958301" y="2419020"/>
+            <a:ext cx="360" cy="3960"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDDE015E-F0A2-4A60-AC57-17D50A243758}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7949661" y="2410020"/>
+              <a:ext cx="18000" cy="21600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-09-22T00:04:58.160"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0 1120,'0'0'6538,"0"2"-6538,0 0 0,0 1-1009,0 0-1495</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{25475DD2-689F-4BCE-94BA-51C9BC43F5CA}" name="Tabla1" displayName="Tabla1" ref="A4:C16" totalsRowShown="0">
+  <autoFilter ref="A4:C16" xr:uid="{25475DD2-689F-4BCE-94BA-51C9BC43F5CA}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{75C29514-2947-49DC-9616-D29596CF1B5B}" name="Unidad"/>
+    <tableColumn id="2" xr3:uid="{810C4D57-030C-4244-8491-D1EA9AEAF0B3}" name="Equivalencia"/>
+    <tableColumn id="3" xr3:uid="{C40D305C-7AB1-4AAC-8E63-7E882EDA25D1}" name="Decimal"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FD097CB2-E97F-4B73-87F9-E5D52EBC64F2}" name="Tabla2" displayName="Tabla2" ref="E4:G9" totalsRowShown="0">
+  <autoFilter ref="E4:G9" xr:uid="{FD097CB2-E97F-4B73-87F9-E5D52EBC64F2}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{CA6D7902-31F4-40E2-9918-47919D7451E3}" name="Unidad"/>
+    <tableColumn id="2" xr3:uid="{9A740875-404C-43D8-BC97-596FE96881AF}" name="Equivalencia"/>
+    <tableColumn id="3" xr3:uid="{1E6EEC85-B672-46EC-913B-EF4D9786ED20}" name="Decimal"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{EEE4898D-F2C9-4799-9B27-1047E0B389B5}" name="Tabla3" displayName="Tabla3" ref="E11:G16" totalsRowShown="0" tableBorderDxfId="3">
+  <autoFilter ref="E11:G16" xr:uid="{EEE4898D-F2C9-4799-9B27-1047E0B389B5}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{2CD52E63-0CF7-448F-AFB9-E1222BA3751A}" name="Unidad" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{7C167E46-06D4-494C-BDD1-BE076BFED87B}" name="Equivalencia" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{718EF86A-E60E-4E44-AA6E-6B9F80923B2B}" name="Decimal" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -610,8 +1297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB273CAE-2174-4648-B609-4199ED393F4F}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -798,24 +1485,490 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFE1C4A5-2FCB-486B-92A1-307DF2C4A6F0}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="E4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="4.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" customWidth="1"/>
+    <col min="8" max="8" width="4.140625" customWidth="1"/>
+    <col min="10" max="10" width="20" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="E3" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="I12" t="s">
+        <v>106</v>
+      </c>
+      <c r="J12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="I13" t="s">
+        <v>107</v>
+      </c>
+      <c r="J13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I14" t="s">
+        <v>108</v>
+      </c>
+      <c r="J14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="I15" t="s">
+        <v>109</v>
+      </c>
+      <c r="J15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E10:G10"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="3">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67298F6E-2B02-406B-AFA2-B57C1BD52BFA}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" s="31"/>
+      <c r="C6" s="26" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" s="31"/>
+      <c r="C7" s="27" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="B9" s="31"/>
+      <c r="C9" s="29" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="B10" s="31"/>
+      <c r="C10" s="30" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>129</v>
+      </c>
+      <c r="B13" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>130</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1